--- a/yield_prediction/results/graph_descriptors/WLpolynomial_5/out_of_sample/ligand/LOO_XPhos/results.xlsx
+++ b/yield_prediction/results/graph_descriptors/WLpolynomial_5/out_of_sample/ligand/LOO_XPhos/results.xlsx
@@ -462,7 +462,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
   </sheetData>
@@ -498,7 +498,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.539</v>
+        <v>0.525</v>
       </c>
     </row>
     <row r="3">
@@ -508,7 +508,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>17.61</v>
+        <v>17.871</v>
       </c>
     </row>
   </sheetData>
@@ -544,7 +544,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>-13030230034.022</v>
+        <v>-0.256</v>
       </c>
     </row>
     <row r="3">
@@ -554,7 +554,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>2000604.671</v>
+        <v>19.644</v>
       </c>
     </row>
   </sheetData>
@@ -590,7 +590,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.976</v>
+        <v>0.907</v>
       </c>
     </row>
     <row r="3">
@@ -600,7 +600,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>4.46</v>
+        <v>8.698</v>
       </c>
     </row>
   </sheetData>
@@ -671,7 +671,7 @@
         </is>
       </c>
       <c r="E2" t="n">
-        <v>-2596273.290283939</v>
+        <v>29.08266089225315</v>
       </c>
     </row>
     <row r="3">
@@ -696,7 +696,7 @@
         </is>
       </c>
       <c r="E3" t="n">
-        <v>-2997375.328430871</v>
+        <v>29.10521593061484</v>
       </c>
     </row>
     <row r="4">
@@ -721,7 +721,7 @@
         </is>
       </c>
       <c r="E4" t="n">
-        <v>-2544665.644346099</v>
+        <v>29.11552730084782</v>
       </c>
     </row>
     <row r="5">
@@ -746,7 +746,7 @@
         </is>
       </c>
       <c r="E5" t="n">
-        <v>-4406503.332805362</v>
+        <v>29.05165739452493</v>
       </c>
     </row>
     <row r="6">
@@ -771,7 +771,7 @@
         </is>
       </c>
       <c r="E6" t="n">
-        <v>-1914196.93145189</v>
+        <v>29.11438732342999</v>
       </c>
     </row>
     <row r="7">
@@ -796,7 +796,7 @@
         </is>
       </c>
       <c r="E7" t="n">
-        <v>-1420588.023769847</v>
+        <v>29.12384442937655</v>
       </c>
     </row>
     <row r="8">
@@ -821,7 +821,7 @@
         </is>
       </c>
       <c r="E8" t="n">
-        <v>-4451523.044872525</v>
+        <v>29.06253733457024</v>
       </c>
     </row>
     <row r="9">
@@ -846,7 +846,7 @@
         </is>
       </c>
       <c r="E9" t="n">
-        <v>-1003365.593812742</v>
+        <v>29.15017641010708</v>
       </c>
     </row>
     <row r="10">
@@ -871,7 +871,7 @@
         </is>
       </c>
       <c r="E10" t="n">
-        <v>-933826.7090027578</v>
+        <v>29.15415181704647</v>
       </c>
     </row>
     <row r="11">
@@ -896,7 +896,7 @@
         </is>
       </c>
       <c r="E11" t="n">
-        <v>-1077938.839340061</v>
+        <v>29.15594750275403</v>
       </c>
     </row>
     <row r="12">
@@ -921,7 +921,7 @@
         </is>
       </c>
       <c r="E12" t="n">
-        <v>-408312.9312324767</v>
+        <v>29.16888635348925</v>
       </c>
     </row>
     <row r="13">
@@ -946,7 +946,7 @@
         </is>
       </c>
       <c r="E13" t="n">
-        <v>-554301.1298302948</v>
+        <v>29.1798690562765</v>
       </c>
     </row>
     <row r="14">
@@ -971,7 +971,7 @@
         </is>
       </c>
       <c r="E14" t="n">
-        <v>-1658448.660084897</v>
+        <v>29.07929870673436</v>
       </c>
     </row>
     <row r="15">
@@ -996,7 +996,7 @@
         </is>
       </c>
       <c r="E15" t="n">
-        <v>-738002.7192352392</v>
+        <v>29.14119065527048</v>
       </c>
     </row>
     <row r="16">
@@ -1021,7 +1021,7 @@
         </is>
       </c>
       <c r="E16" t="n">
-        <v>-526008.7870528708</v>
+        <v>29.16447893345827</v>
       </c>
     </row>
     <row r="17">
@@ -1046,7 +1046,7 @@
         </is>
       </c>
       <c r="E17" t="n">
-        <v>-1289632.714194812</v>
+        <v>29.11190576964662</v>
       </c>
     </row>
     <row r="18">
@@ -1071,7 +1071,7 @@
         </is>
       </c>
       <c r="E18" t="n">
-        <v>145408.308089061</v>
+        <v>29.15504757599268</v>
       </c>
     </row>
     <row r="19">
@@ -1096,7 +1096,7 @@
         </is>
       </c>
       <c r="E19" t="n">
-        <v>910800.4325675314</v>
+        <v>29.18109301155962</v>
       </c>
     </row>
     <row r="20">
@@ -1121,7 +1121,7 @@
         </is>
       </c>
       <c r="E20" t="n">
-        <v>-1955612.449990304</v>
+        <v>29.076246523966</v>
       </c>
     </row>
     <row r="21">
@@ -1146,7 +1146,7 @@
         </is>
       </c>
       <c r="E21" t="n">
-        <v>-95846.35143348564</v>
+        <v>29.15079039411946</v>
       </c>
     </row>
     <row r="22">
@@ -1171,7 +1171,7 @@
         </is>
       </c>
       <c r="E22" t="n">
-        <v>1173270.875170903</v>
+        <v>29.18962056376669</v>
       </c>
     </row>
     <row r="23">
@@ -1196,7 +1196,7 @@
         </is>
       </c>
       <c r="E23" t="n">
-        <v>-2100564.373357547</v>
+        <v>29.08023116350423</v>
       </c>
     </row>
     <row r="24">
@@ -1221,7 +1221,7 @@
         </is>
       </c>
       <c r="E24" t="n">
-        <v>1480363.869144924</v>
+        <v>29.20147211083261</v>
       </c>
     </row>
     <row r="25">
@@ -1246,7 +1246,7 @@
         </is>
       </c>
       <c r="E25" t="n">
-        <v>3192650.672807785</v>
+        <v>29.25284240776948</v>
       </c>
     </row>
     <row r="26">
@@ -1271,7 +1271,7 @@
         </is>
       </c>
       <c r="E26" t="n">
-        <v>1112385.805422891</v>
+        <v>29.20779622602682</v>
       </c>
     </row>
     <row r="27">
@@ -1296,7 +1296,7 @@
         </is>
       </c>
       <c r="E27" t="n">
-        <v>1812682.200813452</v>
+        <v>29.25152871775742</v>
       </c>
     </row>
     <row r="28">
@@ -1321,7 +1321,7 @@
         </is>
       </c>
       <c r="E28" t="n">
-        <v>2300642.498200152</v>
+        <v>29.27679710128887</v>
       </c>
     </row>
     <row r="29">
@@ -1346,7 +1346,7 @@
         </is>
       </c>
       <c r="E29" t="n">
-        <v>-745153.526094902</v>
+        <v>29.11449849788229</v>
       </c>
     </row>
     <row r="30">
@@ -1371,7 +1371,7 @@
         </is>
       </c>
       <c r="E30" t="n">
-        <v>2138189.539002942</v>
+        <v>29.27418346638618</v>
       </c>
     </row>
     <row r="31">
@@ -1396,7 +1396,7 @@
         </is>
       </c>
       <c r="E31" t="n">
-        <v>2471769.306554719</v>
+        <v>29.29954258494493</v>
       </c>
     </row>
     <row r="32">
@@ -1421,7 +1421,7 @@
         </is>
       </c>
       <c r="E32" t="n">
-        <v>-461574.4485025425</v>
+        <v>29.12926655615304</v>
       </c>
     </row>
     <row r="33">
@@ -1446,7 +1446,7 @@
         </is>
       </c>
       <c r="E33" t="n">
-        <v>964914.2435414776</v>
+        <v>29.19313698755133</v>
       </c>
     </row>
     <row r="34">
@@ -1471,7 +1471,7 @@
         </is>
       </c>
       <c r="E34" t="n">
-        <v>1391947.538551961</v>
+        <v>29.22002152346598</v>
       </c>
     </row>
     <row r="35">
@@ -1496,7 +1496,7 @@
         </is>
       </c>
       <c r="E35" t="n">
-        <v>-1406287.458190507</v>
+        <v>29.0803004276009</v>
       </c>
     </row>
     <row r="36">
@@ -1521,7 +1521,7 @@
         </is>
       </c>
       <c r="E36" t="n">
-        <v>515543.2991316425</v>
+        <v>29.18911933346302</v>
       </c>
     </row>
     <row r="37">
@@ -1546,7 +1546,7 @@
         </is>
       </c>
       <c r="E37" t="n">
-        <v>1407693.773456077</v>
+        <v>29.22460345013968</v>
       </c>
     </row>
     <row r="38">
@@ -1571,7 +1571,7 @@
         </is>
       </c>
       <c r="E38" t="n">
-        <v>-1346451.015670559</v>
+        <v>29.08457398970657</v>
       </c>
     </row>
     <row r="39">
@@ -1596,7 +1596,7 @@
         </is>
       </c>
       <c r="E39" t="n">
-        <v>2737609.885075899</v>
+        <v>29.26112951822375</v>
       </c>
     </row>
     <row r="40">
@@ -1621,7 +1621,7 @@
         </is>
       </c>
       <c r="E40" t="n">
-        <v>3229245.573126236</v>
+        <v>29.308066202885</v>
       </c>
     </row>
     <row r="41">
@@ -1646,7 +1646,7 @@
         </is>
       </c>
       <c r="E41" t="n">
-        <v>2127954.116612373</v>
+        <v>29.32579128270165</v>
       </c>
     </row>
     <row r="42">
@@ -1671,7 +1671,7 @@
         </is>
       </c>
       <c r="E42" t="n">
-        <v>2690216.924216213</v>
+        <v>29.36556119209609</v>
       </c>
     </row>
     <row r="43">
@@ -1696,7 +1696,7 @@
         </is>
       </c>
       <c r="E43" t="n">
-        <v>2954766.341915409</v>
+        <v>29.41006828328722</v>
       </c>
     </row>
     <row r="44">
@@ -1721,7 +1721,7 @@
         </is>
       </c>
       <c r="E44" t="n">
-        <v>163277.0607697413</v>
+        <v>29.15303157290251</v>
       </c>
     </row>
     <row r="45">
@@ -1746,7 +1746,7 @@
         </is>
       </c>
       <c r="E45" t="n">
-        <v>2745619.622116808</v>
+        <v>29.36214456961943</v>
       </c>
     </row>
     <row r="46">
@@ -1771,7 +1771,7 @@
         </is>
       </c>
       <c r="E46" t="n">
-        <v>2742413.887449137</v>
+        <v>29.39196662564639</v>
       </c>
     </row>
     <row r="47">
@@ -1796,7 +1796,7 @@
         </is>
       </c>
       <c r="E47" t="n">
-        <v>-2569918.051753361</v>
+        <v>29.10109718055459</v>
       </c>
     </row>
     <row r="48">
@@ -1821,7 +1821,7 @@
         </is>
       </c>
       <c r="E48" t="n">
-        <v>1112138.470170629</v>
+        <v>29.15475647645497</v>
       </c>
     </row>
     <row r="49">
@@ -1846,7 +1846,7 @@
         </is>
       </c>
       <c r="E49" t="n">
-        <v>1191729.917782253</v>
+        <v>29.16643470346883</v>
       </c>
     </row>
     <row r="50">
@@ -1871,7 +1871,7 @@
         </is>
       </c>
       <c r="E50" t="n">
-        <v>-3049922.23398062</v>
+        <v>29.08615553578868</v>
       </c>
     </row>
     <row r="51">
@@ -1896,7 +1896,7 @@
         </is>
       </c>
       <c r="E51" t="n">
-        <v>1138369.46411149</v>
+        <v>29.17616346102975</v>
       </c>
     </row>
     <row r="52">
@@ -1921,7 +1921,7 @@
         </is>
       </c>
       <c r="E52" t="n">
-        <v>1559473.517050235</v>
+        <v>29.18886853975007</v>
       </c>
     </row>
     <row r="53">
@@ -1946,7 +1946,7 @@
         </is>
       </c>
       <c r="E53" t="n">
-        <v>-3371247.227525012</v>
+        <v>29.0927668227276</v>
       </c>
     </row>
     <row r="54">
@@ -1971,7 +1971,7 @@
         </is>
       </c>
       <c r="E54" t="n">
-        <v>3557700.956063643</v>
+        <v>29.22716497301317</v>
       </c>
     </row>
     <row r="55">
@@ -1996,7 +1996,7 @@
         </is>
       </c>
       <c r="E55" t="n">
-        <v>3437837.190912445</v>
+        <v>29.22778020948319</v>
       </c>
     </row>
     <row r="56">
@@ -2021,7 +2021,7 @@
         </is>
       </c>
       <c r="E56" t="n">
-        <v>2022647.913803178</v>
+        <v>29.25794206561502</v>
       </c>
     </row>
     <row r="57">
@@ -2046,7 +2046,7 @@
         </is>
       </c>
       <c r="E57" t="n">
-        <v>2489778.647816617</v>
+        <v>29.28615935075077</v>
       </c>
     </row>
     <row r="58">
@@ -2071,7 +2071,7 @@
         </is>
       </c>
       <c r="E58" t="n">
-        <v>2404445.56312114</v>
+        <v>29.28201744201749</v>
       </c>
     </row>
     <row r="59">
@@ -2096,7 +2096,7 @@
         </is>
       </c>
       <c r="E59" t="n">
-        <v>-1574970.06301451</v>
+        <v>29.10255024957992</v>
       </c>
     </row>
     <row r="60">
@@ -2121,7 +2121,7 @@
         </is>
       </c>
       <c r="E60" t="n">
-        <v>2212476.832189464</v>
+        <v>29.22430409579023</v>
       </c>
     </row>
     <row r="61">
@@ -2146,7 +2146,7 @@
         </is>
       </c>
       <c r="E61" t="n">
-        <v>2668263.255982682</v>
+        <v>29.25179097575103</v>
       </c>
     </row>
     <row r="62">
@@ -2171,7 +2171,7 @@
         </is>
       </c>
       <c r="E62" t="n">
-        <v>-1371008.915043138</v>
+        <v>29.09613740685606</v>
       </c>
     </row>
     <row r="63">
@@ -2196,7 +2196,7 @@
         </is>
       </c>
       <c r="E63" t="n">
-        <v>398987.7637230609</v>
+        <v>29.17089326502305</v>
       </c>
     </row>
     <row r="64">
@@ -2221,7 +2221,7 @@
         </is>
       </c>
       <c r="E64" t="n">
-        <v>809183.951303098</v>
+        <v>29.19622502981856</v>
       </c>
     </row>
     <row r="65">
@@ -2246,7 +2246,7 @@
         </is>
       </c>
       <c r="E65" t="n">
-        <v>-1701122.403228168</v>
+        <v>29.05761836755597</v>
       </c>
     </row>
     <row r="66">
@@ -2271,7 +2271,7 @@
         </is>
       </c>
       <c r="E66" t="n">
-        <v>71275.17929907613</v>
+        <v>29.16528820297333</v>
       </c>
     </row>
     <row r="67">
@@ -2296,7 +2296,7 @@
         </is>
       </c>
       <c r="E67" t="n">
-        <v>760865.549908759</v>
+        <v>29.2020593815615</v>
       </c>
     </row>
     <row r="68">
@@ -2321,7 +2321,7 @@
         </is>
       </c>
       <c r="E68" t="n">
-        <v>-1750541.846079248</v>
+        <v>29.06971686747772</v>
       </c>
     </row>
     <row r="69">
@@ -2346,7 +2346,7 @@
         </is>
       </c>
       <c r="E69" t="n">
-        <v>1702192.272357424</v>
+        <v>29.23998842566354</v>
       </c>
     </row>
     <row r="70">
@@ -2371,7 +2371,7 @@
         </is>
       </c>
       <c r="E70" t="n">
-        <v>2719685.685312102</v>
+        <v>29.28420939424785</v>
       </c>
     </row>
     <row r="71">
@@ -2396,7 +2396,7 @@
         </is>
       </c>
       <c r="E71" t="n">
-        <v>933342.585301551</v>
+        <v>29.24544002843441</v>
       </c>
     </row>
     <row r="72">
@@ -2421,7 +2421,7 @@
         </is>
       </c>
       <c r="E72" t="n">
-        <v>1564022.000483609</v>
+        <v>29.30284564158813</v>
       </c>
     </row>
     <row r="73">
@@ -2446,7 +2446,7 @@
         </is>
       </c>
       <c r="E73" t="n">
-        <v>1714340.447373322</v>
+        <v>29.31378018849559</v>
       </c>
     </row>
     <row r="74">
@@ -2471,7 +2471,7 @@
         </is>
       </c>
       <c r="E74" t="n">
-        <v>-1007066.787496528</v>
+        <v>29.07991959549944</v>
       </c>
     </row>
     <row r="75">
@@ -2496,7 +2496,7 @@
         </is>
       </c>
       <c r="E75" t="n">
-        <v>1572587.395689859</v>
+        <v>29.29844893106912</v>
       </c>
     </row>
     <row r="76">
@@ -2521,7 +2521,7 @@
         </is>
       </c>
       <c r="E76" t="n">
-        <v>1916285.037576867</v>
+        <v>29.32325378856845</v>
       </c>
     </row>
     <row r="77">
@@ -2546,7 +2546,7 @@
         </is>
       </c>
       <c r="E77" t="n">
-        <v>-1159623.596489987</v>
+        <v>29.09552713749215</v>
       </c>
     </row>
     <row r="78">
@@ -2571,7 +2571,7 @@
         </is>
       </c>
       <c r="E78" t="n">
-        <v>757790.5444753172</v>
+        <v>29.20615517772489</v>
       </c>
     </row>
     <row r="79">
@@ -2596,7 +2596,7 @@
         </is>
       </c>
       <c r="E79" t="n">
-        <v>901425.8638331367</v>
+        <v>29.22964596100532</v>
       </c>
     </row>
     <row r="80">
@@ -2621,7 +2621,7 @@
         </is>
       </c>
       <c r="E80" t="n">
-        <v>-1464590.269348215</v>
+        <v>29.04521835693188</v>
       </c>
     </row>
     <row r="81">
@@ -2646,7 +2646,7 @@
         </is>
       </c>
       <c r="E81" t="n">
-        <v>559593.1542972717</v>
+        <v>29.20811576162677</v>
       </c>
     </row>
     <row r="82">
@@ -2671,7 +2671,7 @@
         </is>
       </c>
       <c r="E82" t="n">
-        <v>964456.2554743727</v>
+        <v>29.23689530744718</v>
       </c>
     </row>
     <row r="83">
@@ -2696,7 +2696,7 @@
         </is>
       </c>
       <c r="E83" t="n">
-        <v>-1495873.821114898</v>
+        <v>29.06301060027761</v>
       </c>
     </row>
     <row r="84">
@@ -2721,7 +2721,7 @@
         </is>
       </c>
       <c r="E84" t="n">
-        <v>2205049.796894942</v>
+        <v>29.30679441311134</v>
       </c>
     </row>
     <row r="85">
@@ -2746,7 +2746,7 @@
         </is>
       </c>
       <c r="E85" t="n">
-        <v>2426717.168009231</v>
+        <v>29.34210583230464</v>
       </c>
     </row>
     <row r="86">
@@ -2771,7 +2771,7 @@
         </is>
       </c>
       <c r="E86" t="n">
-        <v>1663898.169002249</v>
+        <v>29.3715994289154</v>
       </c>
     </row>
     <row r="87">
@@ -2796,7 +2796,7 @@
         </is>
       </c>
       <c r="E87" t="n">
-        <v>2211793.937442872</v>
+        <v>29.43389666921262</v>
       </c>
     </row>
     <row r="88">
@@ -2821,7 +2821,7 @@
         </is>
       </c>
       <c r="E88" t="n">
-        <v>2174973.528378828</v>
+        <v>29.45302956169463</v>
       </c>
     </row>
     <row r="89">
@@ -2846,7 +2846,7 @@
         </is>
       </c>
       <c r="E89" t="n">
-        <v>-835679.9207314355</v>
+        <v>29.09473700981141</v>
       </c>
     </row>
     <row r="90">
@@ -2871,7 +2871,7 @@
         </is>
       </c>
       <c r="E90" t="n">
-        <v>1934702.418108451</v>
+        <v>29.40392117904813</v>
       </c>
     </row>
     <row r="91">
@@ -2896,7 +2896,7 @@
         </is>
       </c>
       <c r="E91" t="n">
-        <v>2030837.151261745</v>
+        <v>29.4208831477593</v>
       </c>
     </row>
     <row r="92">
@@ -2921,7 +2921,7 @@
         </is>
       </c>
       <c r="E92" t="n">
-        <v>-405712.3423533899</v>
+        <v>29.11968940489436</v>
       </c>
     </row>
     <row r="93">
@@ -2946,7 +2946,7 @@
         </is>
       </c>
       <c r="E93" t="n">
-        <v>1245498.019595605</v>
+        <v>29.16420097721261</v>
       </c>
     </row>
     <row r="94">
@@ -2971,7 +2971,7 @@
         </is>
       </c>
       <c r="E94" t="n">
-        <v>1442750.257695024</v>
+        <v>29.17222154332502</v>
       </c>
     </row>
     <row r="95">
@@ -2996,7 +2996,7 @@
         </is>
       </c>
       <c r="E95" t="n">
-        <v>-2526736.912588573</v>
+        <v>29.08923825333914</v>
       </c>
     </row>
     <row r="96">
@@ -3021,7 +3021,7 @@
         </is>
       </c>
       <c r="E96" t="n">
-        <v>1461118.018423007</v>
+        <v>29.17504251466993</v>
       </c>
     </row>
     <row r="97">
@@ -3046,7 +3046,7 @@
         </is>
       </c>
       <c r="E97" t="n">
-        <v>1800826.767058826</v>
+        <v>29.18264999706585</v>
       </c>
     </row>
     <row r="98">
@@ -3071,7 +3071,7 @@
         </is>
       </c>
       <c r="E98" t="n">
-        <v>-2746047.518907256</v>
+        <v>29.09537691319537</v>
       </c>
     </row>
     <row r="99">
@@ -3096,7 +3096,7 @@
         </is>
       </c>
       <c r="E99" t="n">
-        <v>4182338.029445802</v>
+        <v>29.22662900140406</v>
       </c>
     </row>
     <row r="100">
@@ -3121,7 +3121,7 @@
         </is>
       </c>
       <c r="E100" t="n">
-        <v>3457534.404734465</v>
+        <v>29.2199761687354</v>
       </c>
     </row>
     <row r="101">
@@ -3146,7 +3146,7 @@
         </is>
       </c>
       <c r="E101" t="n">
-        <v>2039010.853241007</v>
+        <v>29.24444411282182</v>
       </c>
     </row>
     <row r="102">
@@ -3171,7 +3171,7 @@
         </is>
       </c>
       <c r="E102" t="n">
-        <v>2895280.13692069</v>
+        <v>29.27045352830534</v>
       </c>
     </row>
     <row r="103">
@@ -3196,7 +3196,7 @@
         </is>
       </c>
       <c r="E103" t="n">
-        <v>2763067.589980134</v>
+        <v>29.26614712426256</v>
       </c>
     </row>
     <row r="104">
@@ -3221,7 +3221,7 @@
         </is>
       </c>
       <c r="E104" t="n">
-        <v>-172022.4417057036</v>
+        <v>29.12420071419108</v>
       </c>
     </row>
     <row r="105">
@@ -3246,7 +3246,7 @@
         </is>
       </c>
       <c r="E105" t="n">
-        <v>2344814.421234418</v>
+        <v>29.22541470529544</v>
       </c>
     </row>
     <row r="106">
@@ -3271,7 +3271,7 @@
         </is>
       </c>
       <c r="E106" t="n">
-        <v>2708069.248512587</v>
+        <v>29.24029087777958</v>
       </c>
     </row>
     <row r="107">
@@ -3296,7 +3296,7 @@
         </is>
       </c>
       <c r="E107" t="n">
-        <v>-578535.2662144903</v>
+        <v>29.12995496007783</v>
       </c>
     </row>
     <row r="108">
@@ -3321,7 +3321,7 @@
         </is>
       </c>
       <c r="E108" t="n">
-        <v>894867.3369126908</v>
+        <v>29.19909502745758</v>
       </c>
     </row>
     <row r="109">
@@ -3346,7 +3346,7 @@
         </is>
       </c>
       <c r="E109" t="n">
-        <v>1054204.470821944</v>
+        <v>29.21803402182656</v>
       </c>
     </row>
     <row r="110">
@@ -3371,7 +3371,7 @@
         </is>
       </c>
       <c r="E110" t="n">
-        <v>-1575155.592579446</v>
+        <v>29.07298224554184</v>
       </c>
     </row>
     <row r="111">
@@ -3396,7 +3396,7 @@
         </is>
       </c>
       <c r="E111" t="n">
-        <v>577437.0364393932</v>
+        <v>29.18319790576596</v>
       </c>
     </row>
     <row r="112">
@@ -3421,7 +3421,7 @@
         </is>
       </c>
       <c r="E112" t="n">
-        <v>845588.9795754892</v>
+        <v>29.21121599421726</v>
       </c>
     </row>
     <row r="113">
@@ -3446,7 +3446,7 @@
         </is>
       </c>
       <c r="E113" t="n">
-        <v>-1649495.460054507</v>
+        <v>29.08267899840293</v>
       </c>
     </row>
     <row r="114">
@@ -3471,7 +3471,7 @@
         </is>
       </c>
       <c r="E114" t="n">
-        <v>2325351.471151047</v>
+        <v>29.25620569364147</v>
       </c>
     </row>
     <row r="115">
@@ -3496,7 +3496,7 @@
         </is>
       </c>
       <c r="E115" t="n">
-        <v>2723270.979733041</v>
+        <v>29.28934131344311</v>
       </c>
     </row>
     <row r="116">
@@ -3521,7 +3521,7 @@
         </is>
       </c>
       <c r="E116" t="n">
-        <v>1239884.234559256</v>
+        <v>29.2646051295336</v>
       </c>
     </row>
     <row r="117">
@@ -3546,7 +3546,7 @@
         </is>
       </c>
       <c r="E117" t="n">
-        <v>1752364.497172006</v>
+        <v>29.3184811547756</v>
       </c>
     </row>
     <row r="118">
@@ -3571,7 +3571,7 @@
         </is>
       </c>
       <c r="E118" t="n">
-        <v>1708416.478084821</v>
+        <v>29.32393102930543</v>
       </c>
     </row>
     <row r="119">
@@ -3596,7 +3596,7 @@
         </is>
       </c>
       <c r="E119" t="n">
-        <v>-245115.0918909141</v>
+        <v>29.13020046059236</v>
       </c>
     </row>
     <row r="120">
@@ -3621,7 +3621,7 @@
         </is>
       </c>
       <c r="E120" t="n">
-        <v>1746229.833216372</v>
+        <v>29.32120828241939</v>
       </c>
     </row>
     <row r="121">
@@ -3646,7 +3646,7 @@
         </is>
       </c>
       <c r="E121" t="n">
-        <v>1807012.111484078</v>
+        <v>29.33129260223184</v>
       </c>
     </row>
     <row r="122">
@@ -3671,7 +3671,7 @@
         </is>
       </c>
       <c r="E122" t="n">
-        <v>-12279.65514388764</v>
+        <v>29.13922679226247</v>
       </c>
     </row>
     <row r="123">
@@ -3696,7 +3696,7 @@
         </is>
       </c>
       <c r="E123" t="n">
-        <v>1178358.615003691</v>
+        <v>29.24180716073717</v>
       </c>
     </row>
     <row r="124">
@@ -3721,7 +3721,7 @@
         </is>
       </c>
       <c r="E124" t="n">
-        <v>1214637.118178519</v>
+        <v>29.26061509145828</v>
       </c>
     </row>
     <row r="125">
@@ -3746,7 +3746,7 @@
         </is>
       </c>
       <c r="E125" t="n">
-        <v>-1223530.274510486</v>
+        <v>29.06644298258784</v>
       </c>
     </row>
     <row r="126">
@@ -3771,7 +3771,7 @@
         </is>
       </c>
       <c r="E126" t="n">
-        <v>982516.5721528315</v>
+        <v>29.23098919242704</v>
       </c>
     </row>
     <row r="127">
@@ -3796,7 +3796,7 @@
         </is>
       </c>
       <c r="E127" t="n">
-        <v>1048737.37898037</v>
+        <v>29.25257423232125</v>
       </c>
     </row>
     <row r="128">
@@ -3821,7 +3821,7 @@
         </is>
       </c>
       <c r="E128" t="n">
-        <v>-1282462.21541187</v>
+        <v>29.07967383472233</v>
       </c>
     </row>
     <row r="129">
@@ -3846,7 +3846,7 @@
         </is>
       </c>
       <c r="E129" t="n">
-        <v>2592151.271570986</v>
+        <v>29.32588826897175</v>
       </c>
     </row>
     <row r="130">
@@ -3871,7 +3871,7 @@
         </is>
       </c>
       <c r="E130" t="n">
-        <v>2437127.338752754</v>
+        <v>29.35222127916609</v>
       </c>
     </row>
     <row r="131">
@@ -3896,7 +3896,7 @@
         </is>
       </c>
       <c r="E131" t="n">
-        <v>1913261.88703074</v>
+        <v>29.4002063506609</v>
       </c>
     </row>
     <row r="132">
@@ -3921,7 +3921,7 @@
         </is>
       </c>
       <c r="E132" t="n">
-        <v>2169057.016886878</v>
+        <v>29.45427406223381</v>
       </c>
     </row>
     <row r="133">
@@ -3946,7 +3946,7 @@
         </is>
       </c>
       <c r="E133" t="n">
-        <v>2275610.770471667</v>
+        <v>29.47036279408367</v>
       </c>
     </row>
     <row r="134">
@@ -3971,7 +3971,7 @@
         </is>
       </c>
       <c r="E134" t="n">
-        <v>74515.35569359614</v>
+        <v>29.1609416014132</v>
       </c>
     </row>
     <row r="135">
@@ -3996,7 +3996,7 @@
         </is>
       </c>
       <c r="E135" t="n">
-        <v>2091876.025876212</v>
+        <v>29.43705724565672</v>
       </c>
     </row>
     <row r="136">
@@ -4021,7 +4021,7 @@
         </is>
       </c>
       <c r="E136" t="n">
-        <v>2123655.852188205</v>
+        <v>29.44556496013285</v>
       </c>
     </row>
     <row r="137">
@@ -4046,7 +4046,7 @@
         </is>
       </c>
       <c r="E137" t="n">
-        <v>-2350104.414169646</v>
+        <v>29.08988856848359</v>
       </c>
     </row>
     <row r="138">
@@ -4071,7 +4071,7 @@
         </is>
       </c>
       <c r="E138" t="n">
-        <v>-2242698.89205744</v>
+        <v>29.11255254077411</v>
       </c>
     </row>
     <row r="139">
@@ -4096,7 +4096,7 @@
         </is>
       </c>
       <c r="E139" t="n">
-        <v>-2156327.394766416</v>
+        <v>29.12023671110357</v>
       </c>
     </row>
     <row r="140">
@@ -4121,7 +4121,7 @@
         </is>
       </c>
       <c r="E140" t="n">
-        <v>-4078392.10744317</v>
+        <v>29.0624530381974</v>
       </c>
     </row>
     <row r="141">
@@ -4146,7 +4146,7 @@
         </is>
       </c>
       <c r="E141" t="n">
-        <v>-1360767.320124806</v>
+        <v>29.1249854348288</v>
       </c>
     </row>
     <row r="142">
@@ -4171,7 +4171,7 @@
         </is>
       </c>
       <c r="E142" t="n">
-        <v>-1327814.780628193</v>
+        <v>29.13210177749722</v>
       </c>
     </row>
     <row r="143">
@@ -4196,7 +4196,7 @@
         </is>
       </c>
       <c r="E143" t="n">
-        <v>-4130340.109666026</v>
+        <v>29.07358497767662</v>
       </c>
     </row>
     <row r="144">
@@ -4221,7 +4221,7 @@
         </is>
       </c>
       <c r="E144" t="n">
-        <v>-342344.9468840998</v>
+        <v>29.15987987860371</v>
       </c>
     </row>
     <row r="145">
@@ -4246,7 +4246,7 @@
         </is>
       </c>
       <c r="E145" t="n">
-        <v>-710550.9109521013</v>
+        <v>29.15901116361229</v>
       </c>
     </row>
     <row r="146">
@@ -4271,7 +4271,7 @@
         </is>
       </c>
       <c r="E146" t="n">
-        <v>-748095.1223893168</v>
+        <v>29.16114889058866</v>
       </c>
     </row>
     <row r="147">
@@ -4296,7 +4296,7 @@
         </is>
       </c>
       <c r="E147" t="n">
-        <v>-397336.281437528</v>
+        <v>29.17234434669258</v>
       </c>
     </row>
     <row r="148">
@@ -4321,7 +4321,7 @@
         </is>
       </c>
       <c r="E148" t="n">
-        <v>-137753.2828830367</v>
+        <v>29.19078232625099</v>
       </c>
     </row>
     <row r="149">
@@ -4346,7 +4346,7 @@
         </is>
       </c>
       <c r="E149" t="n">
-        <v>3293241.403786005</v>
+        <v>29.12461796965864</v>
       </c>
     </row>
     <row r="150">
@@ -4371,7 +4371,7 @@
         </is>
       </c>
       <c r="E150" t="n">
-        <v>3441732.922427414</v>
+        <v>29.17570926600202</v>
       </c>
     </row>
     <row r="151">
@@ -4396,7 +4396,7 @@
         </is>
       </c>
       <c r="E151" t="n">
-        <v>3167504.535338077</v>
+        <v>29.20296435798098</v>
       </c>
     </row>
     <row r="152">
@@ -4421,7 +4421,7 @@
         </is>
       </c>
       <c r="E152" t="n">
-        <v>-1528853.963932131</v>
+        <v>29.10837055201454</v>
       </c>
     </row>
     <row r="153">
@@ -4446,7 +4446,7 @@
         </is>
       </c>
       <c r="E153" t="n">
-        <v>347784.1651444193</v>
+        <v>29.15095396218519</v>
       </c>
     </row>
     <row r="154">
@@ -4471,7 +4471,7 @@
         </is>
       </c>
       <c r="E154" t="n">
-        <v>825156.6347181876</v>
+        <v>29.17455052798292</v>
       </c>
     </row>
     <row r="155">
@@ -4496,7 +4496,7 @@
         </is>
       </c>
       <c r="E155" t="n">
-        <v>-1942033.068258516</v>
+        <v>29.07600341344357</v>
       </c>
     </row>
     <row r="156">
@@ -4521,7 +4521,7 @@
         </is>
       </c>
       <c r="E156" t="n">
-        <v>323990.172842323</v>
+        <v>29.14945192113976</v>
       </c>
     </row>
     <row r="157">
@@ -4546,7 +4546,7 @@
         </is>
       </c>
       <c r="E157" t="n">
-        <v>1385713.762365591</v>
+        <v>29.18737312334164</v>
       </c>
     </row>
     <row r="158">
@@ -4571,7 +4571,7 @@
         </is>
       </c>
       <c r="E158" t="n">
-        <v>-1808213.745409239</v>
+        <v>29.08178138613747</v>
       </c>
     </row>
     <row r="159">
@@ -4596,7 +4596,7 @@
         </is>
       </c>
       <c r="E159" t="n">
-        <v>1666816.735960808</v>
+        <v>29.20003440659135</v>
       </c>
     </row>
     <row r="160">
@@ -4621,7 +4621,7 @@
         </is>
       </c>
       <c r="E160" t="n">
-        <v>3215205.359165709</v>
+        <v>29.24656345303109</v>
       </c>
     </row>
     <row r="161">
@@ -4646,7 +4646,7 @@
         </is>
       </c>
       <c r="E161" t="n">
-        <v>745846.8693194365</v>
+        <v>29.18733051817254</v>
       </c>
     </row>
     <row r="162">
@@ -4671,7 +4671,7 @@
         </is>
       </c>
       <c r="E162" t="n">
-        <v>1287485.23877529</v>
+        <v>29.22977639434746</v>
       </c>
     </row>
     <row r="163">
@@ -4696,7 +4696,7 @@
         </is>
       </c>
       <c r="E163" t="n">
-        <v>2034973.55361718</v>
+        <v>29.26748494829519</v>
       </c>
     </row>
     <row r="164">
@@ -4721,7 +4721,7 @@
         </is>
       </c>
       <c r="E164" t="n">
-        <v>-873537.1929575</v>
+        <v>29.13236564455942</v>
       </c>
     </row>
     <row r="165">
@@ -4746,7 +4746,7 @@
         </is>
       </c>
       <c r="E165" t="n">
-        <v>1841048.029358532</v>
+        <v>29.27265775243159</v>
       </c>
     </row>
     <row r="166">
@@ -4771,7 +4771,7 @@
         </is>
       </c>
       <c r="E166" t="n">
-        <v>2178721.776650353</v>
+        <v>29.29928652243987</v>
       </c>
     </row>
     <row r="167">
@@ -4796,7 +4796,7 @@
         </is>
       </c>
       <c r="E167" t="n">
-        <v>-286519.474603602</v>
+        <v>29.12477868629219</v>
       </c>
     </row>
     <row r="168">
@@ -4821,7 +4821,7 @@
         </is>
       </c>
       <c r="E168" t="n">
-        <v>1021192.289310062</v>
+        <v>29.18382614719631</v>
       </c>
     </row>
     <row r="169">
@@ -4846,7 +4846,7 @@
         </is>
       </c>
       <c r="E169" t="n">
-        <v>1556360.503925339</v>
+        <v>29.20954717700326</v>
       </c>
     </row>
     <row r="170">
@@ -4871,7 +4871,7 @@
         </is>
       </c>
       <c r="E170" t="n">
-        <v>-1363301.625005986</v>
+        <v>29.07529391943143</v>
       </c>
     </row>
     <row r="171">
@@ -4896,7 +4896,7 @@
         </is>
       </c>
       <c r="E171" t="n">
-        <v>694611.5616076529</v>
+        <v>29.1773165031832</v>
       </c>
     </row>
     <row r="172">
@@ -4921,7 +4921,7 @@
         </is>
       </c>
       <c r="E172" t="n">
-        <v>1206207.719695837</v>
+        <v>29.2132366534564</v>
       </c>
     </row>
     <row r="173">
@@ -4946,7 +4946,7 @@
         </is>
       </c>
       <c r="E173" t="n">
-        <v>-1158193.74539328</v>
+        <v>29.08464697972173</v>
       </c>
     </row>
     <row r="174">
@@ -4971,7 +4971,7 @@
         </is>
       </c>
       <c r="E174" t="n">
-        <v>2443181.472586391</v>
+        <v>29.25364278692664</v>
       </c>
     </row>
     <row r="175">
@@ -4996,7 +4996,7 @@
         </is>
       </c>
       <c r="E175" t="n">
-        <v>3132658.00373433</v>
+        <v>29.29737987648096</v>
       </c>
     </row>
     <row r="176">
@@ -5021,7 +5021,7 @@
         </is>
       </c>
       <c r="E176" t="n">
-        <v>1624004.406327648</v>
+        <v>29.30176131846177</v>
       </c>
     </row>
     <row r="177">
@@ -5046,7 +5046,7 @@
         </is>
       </c>
       <c r="E177" t="n">
-        <v>2106666.943283872</v>
+        <v>29.34212928442648</v>
       </c>
     </row>
     <row r="178">
@@ -5071,7 +5071,7 @@
         </is>
       </c>
       <c r="E178" t="n">
-        <v>2776419.930333175</v>
+        <v>29.39614306550116</v>
       </c>
     </row>
     <row r="179">
@@ -5096,7 +5096,7 @@
         </is>
       </c>
       <c r="E179" t="n">
-        <v>282658.6649613963</v>
+        <v>29.17505130731995</v>
       </c>
     </row>
     <row r="180">
@@ -5121,7 +5121,7 @@
         </is>
       </c>
       <c r="E180" t="n">
-        <v>2280095.016648066</v>
+        <v>29.35581769585788</v>
       </c>
     </row>
     <row r="181">
@@ -5146,7 +5146,7 @@
         </is>
       </c>
       <c r="E181" t="n">
-        <v>2502105.085086396</v>
+        <v>29.39077253658543</v>
       </c>
     </row>
     <row r="182">
@@ -5171,7 +5171,7 @@
         </is>
       </c>
       <c r="E182" t="n">
-        <v>-835529.0690644843</v>
+        <v>29.12244570331055</v>
       </c>
     </row>
     <row r="183">
@@ -5196,7 +5196,7 @@
         </is>
       </c>
       <c r="E183" t="n">
-        <v>1871854.618561141</v>
+        <v>29.16305564591389</v>
       </c>
     </row>
     <row r="184">
@@ -5221,7 +5221,7 @@
         </is>
       </c>
       <c r="E184" t="n">
-        <v>1427506.791907017</v>
+        <v>29.16832463670817</v>
       </c>
     </row>
     <row r="185">
@@ -5246,7 +5246,7 @@
         </is>
       </c>
       <c r="E185" t="n">
-        <v>-3300480.562732607</v>
+        <v>29.09213270872448</v>
       </c>
     </row>
     <row r="186">
@@ -5271,7 +5271,7 @@
         </is>
       </c>
       <c r="E186" t="n">
-        <v>2034376.097866166</v>
+        <v>29.17754606065222</v>
       </c>
     </row>
     <row r="187">
@@ -5296,7 +5296,7 @@
         </is>
       </c>
       <c r="E187" t="n">
-        <v>2502340.468356332</v>
+        <v>29.1840871679901</v>
       </c>
     </row>
     <row r="188">
@@ -5321,7 +5321,7 @@
         </is>
       </c>
       <c r="E188" t="n">
-        <v>-3291948.489089549</v>
+        <v>29.1063226300719</v>
       </c>
     </row>
     <row r="189">
@@ -5346,7 +5346,7 @@
         </is>
       </c>
       <c r="E189" t="n">
-        <v>6206049.440812536</v>
+        <v>29.22067762672237</v>
       </c>
     </row>
     <row r="190">
@@ -5371,7 +5371,7 @@
         </is>
       </c>
       <c r="E190" t="n">
-        <v>4962350.067802493</v>
+        <v>29.21785212647427</v>
       </c>
     </row>
     <row r="191">
@@ -5396,7 +5396,7 @@
         </is>
       </c>
       <c r="E191" t="n">
-        <v>2703050.675591927</v>
+        <v>29.23149941329786</v>
       </c>
     </row>
     <row r="192">
@@ -5421,7 +5421,7 @@
         </is>
       </c>
       <c r="E192" t="n">
-        <v>4064986.489036487</v>
+        <v>29.24937911291052</v>
       </c>
     </row>
     <row r="193">
@@ -5446,7 +5446,7 @@
         </is>
       </c>
       <c r="E193" t="n">
-        <v>4180055.236748852</v>
+        <v>29.25728926718168</v>
       </c>
     </row>
     <row r="194">
@@ -5471,7 +5471,7 @@
         </is>
       </c>
       <c r="E194" t="n">
-        <v>-878521.1010797232</v>
+        <v>29.13423779559866</v>
       </c>
     </row>
     <row r="195">
@@ -5496,7 +5496,7 @@
         </is>
       </c>
       <c r="E195" t="n">
-        <v>-1900138.654478674</v>
+        <v>29.19189486390308</v>
       </c>
     </row>
     <row r="196">
@@ -5521,7 +5521,7 @@
         </is>
       </c>
       <c r="E196" t="n">
-        <v>-1740089.020173849</v>
+        <v>29.21289515055935</v>
       </c>
     </row>
     <row r="197">
@@ -5546,7 +5546,7 @@
         </is>
       </c>
       <c r="E197" t="n">
-        <v>-50905.73495899056</v>
+        <v>29.13945722409305</v>
       </c>
     </row>
     <row r="198">
@@ -5571,7 +5571,7 @@
         </is>
       </c>
       <c r="E198" t="n">
-        <v>1796254.120976072</v>
+        <v>29.20485192853193</v>
       </c>
     </row>
     <row r="199">
@@ -5596,7 +5596,7 @@
         </is>
       </c>
       <c r="E199" t="n">
-        <v>1698271.924994065</v>
+        <v>29.22021998318148</v>
       </c>
     </row>
     <row r="200">
@@ -5621,7 +5621,7 @@
         </is>
       </c>
       <c r="E200" t="n">
-        <v>-1899052.752060131</v>
+        <v>29.08993324670913</v>
       </c>
     </row>
     <row r="201">
@@ -5646,7 +5646,7 @@
         </is>
       </c>
       <c r="E201" t="n">
-        <v>1169457.863292497</v>
+        <v>29.19683057269605</v>
       </c>
     </row>
     <row r="202">
@@ -5671,7 +5671,7 @@
         </is>
       </c>
       <c r="E202" t="n">
-        <v>1587795.218481713</v>
+        <v>29.22660521682904</v>
       </c>
     </row>
     <row r="203">
@@ -5696,7 +5696,7 @@
         </is>
       </c>
       <c r="E203" t="n">
-        <v>-1892930.119152696</v>
+        <v>29.10156850459779</v>
       </c>
     </row>
     <row r="204">
@@ -5721,7 +5721,7 @@
         </is>
       </c>
       <c r="E204" t="n">
-        <v>3491480.280438154</v>
+        <v>29.25748435587948</v>
       </c>
     </row>
     <row r="205">
@@ -5746,7 +5746,7 @@
         </is>
       </c>
       <c r="E205" t="n">
-        <v>3594551.396943677</v>
+        <v>29.29367753146908</v>
       </c>
     </row>
     <row r="206">
@@ -5771,7 +5771,7 @@
         </is>
       </c>
       <c r="E206" t="n">
-        <v>2301069.5532678</v>
+        <v>29.27368750882382</v>
       </c>
     </row>
     <row r="207">
@@ -5796,7 +5796,7 @@
         </is>
       </c>
       <c r="E207" t="n">
-        <v>2680479.987959193</v>
+        <v>29.31411789576581</v>
       </c>
     </row>
     <row r="208">
@@ -5821,7 +5821,7 @@
         </is>
       </c>
       <c r="E208" t="n">
-        <v>2768486.682399636</v>
+        <v>29.33455996272096</v>
       </c>
     </row>
     <row r="209">
@@ -5846,7 +5846,7 @@
         </is>
       </c>
       <c r="E209" t="n">
-        <v>554348.4781220545</v>
+        <v>29.17006399603057</v>
       </c>
     </row>
     <row r="210">
@@ -5871,7 +5871,7 @@
         </is>
       </c>
       <c r="E210" t="n">
-        <v>2771399.4449661</v>
+        <v>29.32226020218302</v>
       </c>
     </row>
     <row r="211">
@@ -5896,7 +5896,7 @@
         </is>
       </c>
       <c r="E211" t="n">
-        <v>2735010.547340836</v>
+        <v>29.33275690343689</v>
       </c>
     </row>
     <row r="212">
@@ -5921,7 +5921,7 @@
         </is>
       </c>
       <c r="E212" t="n">
-        <v>354601.5961884976</v>
+        <v>29.14726243322739</v>
       </c>
     </row>
     <row r="213">
@@ -5946,7 +5946,7 @@
         </is>
       </c>
       <c r="E213" t="n">
-        <v>1698381.164189879</v>
+        <v>29.22957512881507</v>
       </c>
     </row>
     <row r="214">
@@ -5971,7 +5971,7 @@
         </is>
       </c>
       <c r="E214" t="n">
-        <v>1786951.664227129</v>
+        <v>29.24879276596816</v>
       </c>
     </row>
     <row r="215">
@@ -5996,7 +5996,7 @@
         </is>
       </c>
       <c r="E215" t="n">
-        <v>-1494391.076439047</v>
+        <v>29.08010085355436</v>
       </c>
     </row>
     <row r="216">
@@ -6021,7 +6021,7 @@
         </is>
       </c>
       <c r="E216" t="n">
-        <v>1082345.102258588</v>
+        <v>29.21720811647758</v>
       </c>
     </row>
     <row r="217">
@@ -6046,7 +6046,7 @@
         </is>
       </c>
       <c r="E217" t="n">
-        <v>1345886.158004693</v>
+        <v>29.24754388559815</v>
       </c>
     </row>
     <row r="218">
@@ -6071,7 +6071,7 @@
         </is>
       </c>
       <c r="E218" t="n">
-        <v>-1418592.820252461</v>
+        <v>29.09519355782978</v>
       </c>
     </row>
     <row r="219">
@@ -6096,7 +6096,7 @@
         </is>
       </c>
       <c r="E219" t="n">
-        <v>3284421.498110963</v>
+        <v>29.30148459364687</v>
       </c>
     </row>
     <row r="220">
@@ -6121,7 +6121,7 @@
         </is>
       </c>
       <c r="E220" t="n">
-        <v>3421507.685109945</v>
+        <v>29.33822164549257</v>
       </c>
     </row>
     <row r="221">
@@ -6146,7 +6146,7 @@
         </is>
       </c>
       <c r="E221" t="n">
-        <v>2628022.884428349</v>
+        <v>29.37794750528575</v>
       </c>
     </row>
     <row r="222">
@@ -6171,7 +6171,7 @@
         </is>
       </c>
       <c r="E222" t="n">
-        <v>2810485.693776195</v>
+        <v>29.41455958528336</v>
       </c>
     </row>
     <row r="223">
@@ -6196,7 +6196,7 @@
         </is>
       </c>
       <c r="E223" t="n">
-        <v>2988819.244820013</v>
+        <v>29.45289780459425</v>
       </c>
     </row>
     <row r="224">
@@ -6221,7 +6221,7 @@
         </is>
       </c>
       <c r="E224" t="n">
-        <v>1014903.398132867</v>
+        <v>29.1924585666035</v>
       </c>
     </row>
     <row r="225">
@@ -6246,7 +6246,7 @@
         </is>
       </c>
       <c r="E225" t="n">
-        <v>2877209.218386658</v>
+        <v>29.39022333463493</v>
       </c>
     </row>
     <row r="226">
@@ -6271,7 +6271,7 @@
         </is>
       </c>
       <c r="E226" t="n">
-        <v>2617870.08875283</v>
+        <v>29.40880934375379</v>
       </c>
     </row>
     <row r="227">
@@ -6296,7 +6296,7 @@
         </is>
       </c>
       <c r="E227" t="n">
-        <v>-878661.0393070836</v>
+        <v>29.09380655575385</v>
       </c>
     </row>
     <row r="228">
@@ -6321,7 +6321,7 @@
         </is>
       </c>
       <c r="E228" t="n">
-        <v>229589.7813968136</v>
+        <v>29.16039450578916</v>
       </c>
     </row>
     <row r="229">
@@ -6346,7 +6346,7 @@
         </is>
       </c>
       <c r="E229" t="n">
-        <v>564337.379875795</v>
+        <v>29.16925896427159</v>
       </c>
     </row>
     <row r="230">
@@ -6371,7 +6371,7 @@
         </is>
       </c>
       <c r="E230" t="n">
-        <v>-1718304.028576905</v>
+        <v>29.07148066842876</v>
       </c>
     </row>
     <row r="231">
@@ -6396,7 +6396,7 @@
         </is>
       </c>
       <c r="E231" t="n">
-        <v>864138.0992789797</v>
+        <v>29.19135203417418</v>
       </c>
     </row>
     <row r="232">
@@ -6421,7 +6421,7 @@
         </is>
       </c>
       <c r="E232" t="n">
-        <v>1080467.236021306</v>
+        <v>29.19692681148369</v>
       </c>
     </row>
     <row r="233">
@@ -6446,7 +6446,7 @@
         </is>
       </c>
       <c r="E233" t="n">
-        <v>-1808445.343651347</v>
+        <v>29.08370610908617</v>
       </c>
     </row>
     <row r="234">
@@ -6471,7 +6471,7 @@
         </is>
       </c>
       <c r="E234" t="n">
-        <v>2891261.076454316</v>
+        <v>29.26201279961016</v>
       </c>
     </row>
     <row r="235">
@@ -6496,7 +6496,7 @@
         </is>
       </c>
       <c r="E235" t="n">
-        <v>2524907.243764854</v>
+        <v>29.2522995349748</v>
       </c>
     </row>
     <row r="236">
@@ -6521,7 +6521,7 @@
         </is>
       </c>
       <c r="E236" t="n">
-        <v>1482066.328764694</v>
+        <v>29.26669798934859</v>
       </c>
     </row>
     <row r="237">
@@ -6546,7 +6546,7 @@
         </is>
       </c>
       <c r="E237" t="n">
-        <v>1800989.475088489</v>
+        <v>29.31530051825041</v>
       </c>
     </row>
     <row r="238">
@@ -6571,7 +6571,7 @@
         </is>
       </c>
       <c r="E238" t="n">
-        <v>1891829.105657591</v>
+        <v>29.3157788209975</v>
       </c>
     </row>
     <row r="239">
@@ -6596,7 +6596,7 @@
         </is>
       </c>
       <c r="E239" t="n">
-        <v>-828775.8936222332</v>
+        <v>29.08514701235721</v>
       </c>
     </row>
     <row r="240">
@@ -6621,7 +6621,7 @@
         </is>
       </c>
       <c r="E240" t="n">
-        <v>-1204414.644237251</v>
+        <v>29.17545190029191</v>
       </c>
     </row>
     <row r="241">
@@ -6646,7 +6646,7 @@
         </is>
       </c>
       <c r="E241" t="n">
-        <v>-1240717.230652276</v>
+        <v>29.20191654739396</v>
       </c>
     </row>
     <row r="242">
@@ -6671,7 +6671,7 @@
         </is>
       </c>
       <c r="E242" t="n">
-        <v>-281449.8556079905</v>
+        <v>29.11354295147129</v>
       </c>
     </row>
     <row r="243">
@@ -6696,7 +6696,7 @@
         </is>
       </c>
       <c r="E243" t="n">
-        <v>759552.0040098726</v>
+        <v>29.2260525576567</v>
       </c>
     </row>
     <row r="244">
@@ -6721,7 +6721,7 @@
         </is>
       </c>
       <c r="E244" t="n">
-        <v>846587.0921058215</v>
+        <v>29.24211914057637</v>
       </c>
     </row>
     <row r="245">
@@ -6746,7 +6746,7 @@
         </is>
       </c>
       <c r="E245" t="n">
-        <v>-974985.0723737623</v>
+        <v>29.05510425275206</v>
       </c>
     </row>
     <row r="246">
@@ -6771,7 +6771,7 @@
         </is>
       </c>
       <c r="E246" t="n">
-        <v>575008.9045302067</v>
+        <v>29.22260109276126</v>
       </c>
     </row>
     <row r="247">
@@ -6796,7 +6796,7 @@
         </is>
       </c>
       <c r="E247" t="n">
-        <v>741283.6715102687</v>
+        <v>29.24722921941933</v>
       </c>
     </row>
     <row r="248">
@@ -6821,7 +6821,7 @@
         </is>
       </c>
       <c r="E248" t="n">
-        <v>-1000672.159248444</v>
+        <v>29.067355123079</v>
       </c>
     </row>
     <row r="249">
@@ -6846,7 +6846,7 @@
         </is>
       </c>
       <c r="E249" t="n">
-        <v>1737449.605966789</v>
+        <v>29.31764946694932</v>
       </c>
     </row>
     <row r="250">
@@ -6871,7 +6871,7 @@
         </is>
       </c>
       <c r="E250" t="n">
-        <v>1836931.483739868</v>
+        <v>29.34834396818594</v>
       </c>
     </row>
     <row r="251">
@@ -6896,7 +6896,7 @@
         </is>
       </c>
       <c r="E251" t="n">
-        <v>724568.3222887883</v>
+        <v>29.3120326577569</v>
       </c>
     </row>
     <row r="252">
@@ -6921,7 +6921,7 @@
         </is>
       </c>
       <c r="E252" t="n">
-        <v>1180508.443308776</v>
+        <v>29.40073544880024</v>
       </c>
     </row>
     <row r="253">
@@ -6946,7 +6946,7 @@
         </is>
       </c>
       <c r="E253" t="n">
-        <v>1251663.644304602</v>
+        <v>29.41217026112844</v>
       </c>
     </row>
     <row r="254">
@@ -6971,7 +6971,7 @@
         </is>
       </c>
       <c r="E254" t="n">
-        <v>-220446.9463301929</v>
+        <v>29.13696452711696</v>
       </c>
     </row>
     <row r="255">
@@ -6996,7 +6996,7 @@
         </is>
       </c>
       <c r="E255" t="n">
-        <v>1324732.002156286</v>
+        <v>29.386858348169</v>
       </c>
     </row>
     <row r="256">
@@ -7021,7 +7021,7 @@
         </is>
       </c>
       <c r="E256" t="n">
-        <v>1414443.39077398</v>
+        <v>29.39528631094178</v>
       </c>
     </row>
     <row r="257">
@@ -7046,7 +7046,7 @@
         </is>
       </c>
       <c r="E257" t="n">
-        <v>-205471.3512618707</v>
+        <v>29.1153258561131</v>
       </c>
     </row>
     <row r="258">
@@ -7071,7 +7071,7 @@
         </is>
       </c>
       <c r="E258" t="n">
-        <v>613616.702716149</v>
+        <v>29.25963902205305</v>
       </c>
     </row>
     <row r="259">
@@ -7096,7 +7096,7 @@
         </is>
       </c>
       <c r="E259" t="n">
-        <v>697959.4890779188</v>
+        <v>29.27816987502824</v>
       </c>
     </row>
     <row r="260">
@@ -7121,7 +7121,7 @@
         </is>
       </c>
       <c r="E260" t="n">
-        <v>-803950.2221562359</v>
+        <v>29.03890648674684</v>
       </c>
     </row>
     <row r="261">
@@ -7146,7 +7146,7 @@
         </is>
       </c>
       <c r="E261" t="n">
-        <v>510898.4609085429</v>
+        <v>29.26016133529074</v>
       </c>
     </row>
     <row r="262">
@@ -7171,7 +7171,7 @@
         </is>
       </c>
       <c r="E262" t="n">
-        <v>560178.3562228667</v>
+        <v>29.27908071421467</v>
       </c>
     </row>
     <row r="263">
@@ -7196,7 +7196,7 @@
         </is>
       </c>
       <c r="E263" t="n">
-        <v>-831991.9669759008</v>
+        <v>29.06034294164781</v>
       </c>
     </row>
     <row r="264">
@@ -7221,7 +7221,7 @@
         </is>
       </c>
       <c r="E264" t="n">
-        <v>1517091.913125479</v>
+        <v>29.38533148682872</v>
       </c>
     </row>
     <row r="265">
@@ -7246,7 +7246,7 @@
         </is>
       </c>
       <c r="E265" t="n">
-        <v>1440992.762737223</v>
+        <v>29.41290684081636</v>
       </c>
     </row>
     <row r="266">
@@ -7271,7 +7271,7 @@
         </is>
       </c>
       <c r="E266" t="n">
-        <v>1055787.670304216</v>
+        <v>29.45192776957392</v>
       </c>
     </row>
     <row r="267">
@@ -7296,7 +7296,7 @@
         </is>
       </c>
       <c r="E267" t="n">
-        <v>1251875.659825868</v>
+        <v>29.54118925691331</v>
       </c>
     </row>
     <row r="268">
@@ -7321,7 +7321,7 @@
         </is>
       </c>
       <c r="E268" t="n">
-        <v>1275507.51037756</v>
+        <v>29.56700412956605</v>
       </c>
     </row>
     <row r="269">
@@ -7346,7 +7346,7 @@
         </is>
       </c>
       <c r="E269" t="n">
-        <v>-171534.6552879099</v>
+        <v>29.14240338341175</v>
       </c>
     </row>
     <row r="270">
@@ -7371,7 +7371,7 @@
         </is>
       </c>
       <c r="E270" t="n">
-        <v>1237290.555787586</v>
+        <v>29.48443904474081</v>
       </c>
     </row>
     <row r="271">
@@ -7396,7 +7396,7 @@
         </is>
       </c>
       <c r="E271" t="n">
-        <v>1220633.091836563</v>
+        <v>29.48753641898007</v>
       </c>
     </row>
     <row r="272">
@@ -7421,7 +7421,7 @@
         </is>
       </c>
       <c r="E272" t="n">
-        <v>-1837013.615065069</v>
+        <v>29.0410184684634</v>
       </c>
     </row>
     <row r="273">
@@ -7446,7 +7446,7 @@
         </is>
       </c>
       <c r="E273" t="n">
-        <v>-1854506.378331046</v>
+        <v>29.06372778938895</v>
       </c>
     </row>
     <row r="274">
@@ -7471,7 +7471,7 @@
         </is>
       </c>
       <c r="E274" t="n">
-        <v>-1647311.730405629</v>
+        <v>29.08068941376535</v>
       </c>
     </row>
     <row r="275">
@@ -7496,7 +7496,7 @@
         </is>
       </c>
       <c r="E275" t="n">
-        <v>-2248110.095304038</v>
+        <v>29.00882674272188</v>
       </c>
     </row>
     <row r="276">
@@ -7521,7 +7521,7 @@
         </is>
       </c>
       <c r="E276" t="n">
-        <v>-1206571.204774613</v>
+        <v>29.07836662014907</v>
       </c>
     </row>
     <row r="277">
@@ -7546,7 +7546,7 @@
         </is>
       </c>
       <c r="E277" t="n">
-        <v>-972669.5974966942</v>
+        <v>29.09248246649661</v>
       </c>
     </row>
     <row r="278">
@@ -7571,7 +7571,7 @@
         </is>
       </c>
       <c r="E278" t="n">
-        <v>-2425317.871613408</v>
+        <v>29.02154814369919</v>
       </c>
     </row>
     <row r="279">
@@ -7596,7 +7596,7 @@
         </is>
       </c>
       <c r="E279" t="n">
-        <v>-834002.1879656955</v>
+        <v>29.13287291690052</v>
       </c>
     </row>
     <row r="280">
@@ -7621,7 +7621,7 @@
         </is>
       </c>
       <c r="E280" t="n">
-        <v>-786958.8790883223</v>
+        <v>29.13523665349891</v>
       </c>
     </row>
     <row r="281">
@@ -7646,7 +7646,7 @@
         </is>
       </c>
       <c r="E281" t="n">
-        <v>-463091.9985101722</v>
+        <v>29.13590176570859</v>
       </c>
     </row>
     <row r="282">
@@ -7671,7 +7671,7 @@
         </is>
       </c>
       <c r="E282" t="n">
-        <v>-122953.7531012669</v>
+        <v>29.16159454279438</v>
       </c>
     </row>
     <row r="283">
@@ -7696,7 +7696,7 @@
         </is>
       </c>
       <c r="E283" t="n">
-        <v>-48166.57652300251</v>
+        <v>29.16446331878483</v>
       </c>
     </row>
     <row r="284">
@@ -7721,7 +7721,7 @@
         </is>
       </c>
       <c r="E284" t="n">
-        <v>-1002196.005679569</v>
+        <v>29.02570072712884</v>
       </c>
     </row>
     <row r="285">
@@ -7746,7 +7746,7 @@
         </is>
       </c>
       <c r="E285" t="n">
-        <v>-688700.7842539008</v>
+        <v>29.09703371266552</v>
       </c>
     </row>
     <row r="286">
@@ -7771,7 +7771,7 @@
         </is>
       </c>
       <c r="E286" t="n">
-        <v>-622456.5332861799</v>
+        <v>29.1214447911481</v>
       </c>
     </row>
     <row r="287">
@@ -7796,7 +7796,7 @@
         </is>
       </c>
       <c r="E287" t="n">
-        <v>-838718.3113553098</v>
+        <v>29.07153197587414</v>
       </c>
     </row>
     <row r="288">
@@ -7821,7 +7821,7 @@
         </is>
       </c>
       <c r="E288" t="n">
-        <v>-177375.0443554014</v>
+        <v>29.1236698946442</v>
       </c>
     </row>
     <row r="289">
@@ -7846,7 +7846,7 @@
         </is>
       </c>
       <c r="E289" t="n">
-        <v>97658.27259677596</v>
+        <v>29.16229333929397</v>
       </c>
     </row>
     <row r="290">
@@ -7871,7 +7871,7 @@
         </is>
       </c>
       <c r="E290" t="n">
-        <v>-1053361.767955354</v>
+        <v>29.02356260246352</v>
       </c>
     </row>
     <row r="291">
@@ -7896,7 +7896,7 @@
         </is>
       </c>
       <c r="E291" t="n">
-        <v>-200007.4942636529</v>
+        <v>29.11779308481488</v>
       </c>
     </row>
     <row r="292">
@@ -7921,7 +7921,7 @@
         </is>
       </c>
       <c r="E292" t="n">
-        <v>210205.9964661568</v>
+        <v>29.16732150747096</v>
       </c>
     </row>
     <row r="293">
@@ -7946,7 +7946,7 @@
         </is>
       </c>
       <c r="E293" t="n">
-        <v>-1110494.843321893</v>
+        <v>29.0392349098377</v>
       </c>
     </row>
     <row r="294">
@@ -7971,7 +7971,7 @@
         </is>
       </c>
       <c r="E294" t="n">
-        <v>479467.6466621193</v>
+        <v>29.19585636815414</v>
       </c>
     </row>
     <row r="295">
@@ -7996,7 +7996,7 @@
         </is>
       </c>
       <c r="E295" t="n">
-        <v>1009497.253848236</v>
+        <v>29.25917843632777</v>
       </c>
     </row>
     <row r="296">
@@ -8021,7 +8021,7 @@
         </is>
       </c>
       <c r="E296" t="n">
-        <v>238455.6378896651</v>
+        <v>29.18651155537625</v>
       </c>
     </row>
     <row r="297">
@@ -8046,7 +8046,7 @@
         </is>
       </c>
       <c r="E297" t="n">
-        <v>546445.2438493631</v>
+        <v>29.25418229791451</v>
       </c>
     </row>
     <row r="298">
@@ -8071,7 +8071,7 @@
         </is>
       </c>
       <c r="E298" t="n">
-        <v>595562.3568915401</v>
+        <v>29.27186841944701</v>
       </c>
     </row>
     <row r="299">
@@ -8096,7 +8096,7 @@
         </is>
       </c>
       <c r="E299" t="n">
-        <v>-464451.1914301316</v>
+        <v>29.06838516749239</v>
       </c>
     </row>
     <row r="300">
@@ -8121,7 +8121,7 @@
         </is>
       </c>
       <c r="E300" t="n">
-        <v>529986.6675872469</v>
+        <v>29.26167351287696</v>
       </c>
     </row>
     <row r="301">
@@ -8146,7 +8146,7 @@
         </is>
       </c>
       <c r="E301" t="n">
-        <v>638679.9482570335</v>
+        <v>29.29501861002303</v>
       </c>
     </row>
     <row r="302">
@@ -8171,7 +8171,7 @@
         </is>
       </c>
       <c r="E302" t="n">
-        <v>-507190.4450480776</v>
+        <v>29.10053067051164</v>
       </c>
     </row>
     <row r="303">
@@ -8196,7 +8196,7 @@
         </is>
       </c>
       <c r="E303" t="n">
-        <v>235174.9342213945</v>
+        <v>29.19180526877557</v>
       </c>
     </row>
     <row r="304">
@@ -8221,7 +8221,7 @@
         </is>
       </c>
       <c r="E304" t="n">
-        <v>408630.0704661211</v>
+        <v>29.23285672413152</v>
       </c>
     </row>
     <row r="305">
@@ -8246,7 +8246,7 @@
         </is>
       </c>
       <c r="E305" t="n">
-        <v>-770619.7125915389</v>
+        <v>29.04734128075431</v>
       </c>
     </row>
     <row r="306">
@@ -8271,7 +8271,7 @@
         </is>
       </c>
       <c r="E306" t="n">
-        <v>277529.9063722651</v>
+        <v>29.20309261044466</v>
       </c>
     </row>
     <row r="307">
@@ -8296,7 +8296,7 @@
         </is>
       </c>
       <c r="E307" t="n">
-        <v>504646.7437675914</v>
+        <v>29.24807208385449</v>
       </c>
     </row>
     <row r="308">
@@ -8321,7 +8321,7 @@
         </is>
       </c>
       <c r="E308" t="n">
-        <v>-747826.6320130457</v>
+        <v>29.06825170676201</v>
       </c>
     </row>
     <row r="309">
@@ -8346,7 +8346,7 @@
         </is>
       </c>
       <c r="E309" t="n">
-        <v>1168885.417050546</v>
+        <v>29.30790487984705</v>
       </c>
     </row>
     <row r="310">
@@ -8371,7 +8371,7 @@
         </is>
       </c>
       <c r="E310" t="n">
-        <v>1233274.807172253</v>
+        <v>29.36593628482169</v>
       </c>
     </row>
     <row r="311">
@@ -8396,7 +8396,7 @@
         </is>
       </c>
       <c r="E311" t="n">
-        <v>906594.8488234001</v>
+        <v>29.38343618854856</v>
       </c>
     </row>
     <row r="312">
@@ -8421,7 +8421,7 @@
         </is>
       </c>
       <c r="E312" t="n">
-        <v>1111131.162256577</v>
+        <v>29.45381882201804</v>
       </c>
     </row>
     <row r="313">
@@ -8446,7 +8446,7 @@
         </is>
       </c>
       <c r="E313" t="n">
-        <v>1156939.690857312</v>
+        <v>29.49382816687218</v>
       </c>
     </row>
     <row r="314">
@@ -8471,7 +8471,7 @@
         </is>
       </c>
       <c r="E314" t="n">
-        <v>-7228.568946487497</v>
+        <v>29.15368815274719</v>
       </c>
     </row>
     <row r="315">
@@ -8496,7 +8496,7 @@
         </is>
       </c>
       <c r="E315" t="n">
-        <v>1102180.919911558</v>
+        <v>29.44019719635326</v>
       </c>
     </row>
     <row r="316">
@@ -8521,7 +8521,7 @@
         </is>
       </c>
       <c r="E316" t="n">
-        <v>1237800.685169822</v>
+        <v>29.4852854164404</v>
       </c>
     </row>
     <row r="317">
@@ -8546,7 +8546,7 @@
         </is>
       </c>
       <c r="E317" t="n">
-        <v>-2556739.194006171</v>
+        <v>29.0612683616286</v>
       </c>
     </row>
     <row r="318">
@@ -8571,7 +8571,7 @@
         </is>
       </c>
       <c r="E318" t="n">
-        <v>-2710296.278737714</v>
+        <v>29.07225932117286</v>
       </c>
     </row>
     <row r="319">
@@ -8596,7 +8596,7 @@
         </is>
       </c>
       <c r="E319" t="n">
-        <v>-2654574.290815029</v>
+        <v>29.08634920174195</v>
       </c>
     </row>
     <row r="320">
@@ -8621,7 +8621,7 @@
         </is>
       </c>
       <c r="E320" t="n">
-        <v>-3530102.591605945</v>
+        <v>29.03153652633327</v>
       </c>
     </row>
     <row r="321">
@@ -8646,7 +8646,7 @@
         </is>
       </c>
       <c r="E321" t="n">
-        <v>-1998315.607597424</v>
+        <v>29.08445857364252</v>
       </c>
     </row>
     <row r="322">
@@ -8671,7 +8671,7 @@
         </is>
       </c>
       <c r="E322" t="n">
-        <v>-1712131.665675619</v>
+        <v>29.09662488145479</v>
       </c>
     </row>
     <row r="323">
@@ -8696,7 +8696,7 @@
         </is>
       </c>
       <c r="E323" t="n">
-        <v>-3823682.526006176</v>
+        <v>29.03776680546495</v>
       </c>
     </row>
     <row r="324">
@@ -8721,7 +8721,7 @@
         </is>
       </c>
       <c r="E324" t="n">
-        <v>-1868733.151089608</v>
+        <v>29.11730839144475</v>
       </c>
     </row>
     <row r="325">
@@ -8746,7 +8746,7 @@
         </is>
       </c>
       <c r="E325" t="n">
-        <v>-2338171.583769245</v>
+        <v>29.12411590336174</v>
       </c>
     </row>
     <row r="326">
@@ -8771,7 +8771,7 @@
         </is>
       </c>
       <c r="E326" t="n">
-        <v>-1667335.627857919</v>
+        <v>29.09994895393948</v>
       </c>
     </row>
     <row r="327">
@@ -8796,7 +8796,7 @@
         </is>
       </c>
       <c r="E327" t="n">
-        <v>-1467249.425015895</v>
+        <v>29.11833949473061</v>
       </c>
     </row>
     <row r="328">
@@ -8821,7 +8821,7 @@
         </is>
       </c>
       <c r="E328" t="n">
-        <v>-1680340.69466755</v>
+        <v>29.13285681250042</v>
       </c>
     </row>
     <row r="329">
@@ -8846,7 +8846,7 @@
         </is>
       </c>
       <c r="E329" t="n">
-        <v>-1518364.398384084</v>
+        <v>29.0424805953886</v>
       </c>
     </row>
     <row r="330">
@@ -8871,7 +8871,7 @@
         </is>
       </c>
       <c r="E330" t="n">
-        <v>-1403021.294291486</v>
+        <v>29.07049178869152</v>
       </c>
     </row>
     <row r="331">
@@ -8896,7 +8896,7 @@
         </is>
       </c>
       <c r="E331" t="n">
-        <v>-1283991.130660759</v>
+        <v>29.09430360834832</v>
       </c>
     </row>
     <row r="332">
@@ -8921,7 +8921,7 @@
         </is>
       </c>
       <c r="E332" t="n">
-        <v>-1946795.619305069</v>
+        <v>29.04727934202042</v>
       </c>
     </row>
     <row r="333">
@@ -8946,7 +8946,7 @@
         </is>
       </c>
       <c r="E333" t="n">
-        <v>-1653339.855928681</v>
+        <v>29.07244449463837</v>
       </c>
     </row>
     <row r="334">
@@ -8971,7 +8971,7 @@
         </is>
       </c>
       <c r="E334" t="n">
-        <v>-1410301.592347726</v>
+        <v>29.10282257351903</v>
       </c>
     </row>
     <row r="335">
@@ -8996,7 +8996,7 @@
         </is>
       </c>
       <c r="E335" t="n">
-        <v>-2109292.784757763</v>
+        <v>29.00035146520902</v>
       </c>
     </row>
     <row r="336">
@@ -9021,7 +9021,7 @@
         </is>
       </c>
       <c r="E336" t="n">
-        <v>-1415161.292746189</v>
+        <v>29.05910823140774</v>
       </c>
     </row>
     <row r="337">
@@ -9046,7 +9046,7 @@
         </is>
       </c>
       <c r="E337" t="n">
-        <v>-1054674.969452348</v>
+        <v>29.10011265277143</v>
       </c>
     </row>
     <row r="338">
@@ -9071,7 +9071,7 @@
         </is>
       </c>
       <c r="E338" t="n">
-        <v>-2331288.63405369</v>
+        <v>28.99937242652349</v>
       </c>
     </row>
     <row r="339">
@@ -9096,7 +9096,7 @@
         </is>
       </c>
       <c r="E339" t="n">
-        <v>-1227656.70076569</v>
+        <v>29.10539398330922</v>
       </c>
     </row>
     <row r="340">
@@ -9121,7 +9121,7 @@
         </is>
       </c>
       <c r="E340" t="n">
-        <v>-476825.0553280864</v>
+        <v>29.16382818385016</v>
       </c>
     </row>
     <row r="341">
@@ -9146,7 +9146,7 @@
         </is>
       </c>
       <c r="E341" t="n">
-        <v>-1047491.159747245</v>
+        <v>29.06164233192203</v>
       </c>
     </row>
     <row r="342">
@@ -9171,7 +9171,7 @@
         </is>
       </c>
       <c r="E342" t="n">
-        <v>-475181.6587192928</v>
+        <v>29.11657325551952</v>
       </c>
     </row>
     <row r="343">
@@ -9196,7 +9196,7 @@
         </is>
       </c>
       <c r="E343" t="n">
-        <v>77022.02236634657</v>
+        <v>29.15566703603146</v>
       </c>
     </row>
     <row r="344">
@@ -9221,7 +9221,7 @@
         </is>
       </c>
       <c r="E344" t="n">
-        <v>-1380504.71920483</v>
+        <v>29.00536599440227</v>
       </c>
     </row>
     <row r="345">
@@ -9246,7 +9246,7 @@
         </is>
       </c>
       <c r="E345" t="n">
-        <v>-510670.1542870871</v>
+        <v>29.11983732543019</v>
       </c>
     </row>
     <row r="346">
@@ -9271,7 +9271,7 @@
         </is>
       </c>
       <c r="E346" t="n">
-        <v>-704674.7043217681</v>
+        <v>29.12976802194082</v>
       </c>
     </row>
     <row r="347">
@@ -9296,7 +9296,7 @@
         </is>
       </c>
       <c r="E347" t="n">
-        <v>-1490968.274602611</v>
+        <v>29.06267629718664</v>
       </c>
     </row>
     <row r="348">
@@ -9321,7 +9321,7 @@
         </is>
       </c>
       <c r="E348" t="n">
-        <v>-948654.203814778</v>
+        <v>29.1056655228927</v>
       </c>
     </row>
     <row r="349">
@@ -9346,7 +9346,7 @@
         </is>
       </c>
       <c r="E349" t="n">
-        <v>55832.78140050454</v>
+        <v>29.15140042666178</v>
       </c>
     </row>
     <row r="350">
@@ -9371,7 +9371,7 @@
         </is>
       </c>
       <c r="E350" t="n">
-        <v>-1644003.538188523</v>
+        <v>28.9960449610172</v>
       </c>
     </row>
     <row r="351">
@@ -9396,7 +9396,7 @@
         </is>
       </c>
       <c r="E351" t="n">
-        <v>-803745.5944932949</v>
+        <v>29.08966917279755</v>
       </c>
     </row>
     <row r="352">
@@ -9421,7 +9421,7 @@
         </is>
       </c>
       <c r="E352" t="n">
-        <v>103138.6475945594</v>
+        <v>29.14128393466799</v>
       </c>
     </row>
     <row r="353">
@@ -9446,7 +9446,7 @@
         </is>
       </c>
       <c r="E353" t="n">
-        <v>-1803920.210657124</v>
+        <v>28.99990321054887</v>
       </c>
     </row>
     <row r="354">
@@ -9471,7 +9471,7 @@
         </is>
       </c>
       <c r="E354" t="n">
-        <v>-357935.1235487534</v>
+        <v>29.15959132684398</v>
       </c>
     </row>
     <row r="355">
@@ -9496,7 +9496,7 @@
         </is>
       </c>
       <c r="E355" t="n">
-        <v>1572647.29762087</v>
+        <v>29.23278701005846</v>
       </c>
     </row>
     <row r="356">
@@ -9521,7 +9521,7 @@
         </is>
       </c>
       <c r="E356" t="n">
-        <v>-332929.3552283424</v>
+        <v>29.17808647062434</v>
       </c>
     </row>
     <row r="357">
@@ -9546,7 +9546,7 @@
         </is>
       </c>
       <c r="E357" t="n">
-        <v>652149.4277852247</v>
+        <v>29.23676095793432</v>
       </c>
     </row>
     <row r="358">
@@ -9571,7 +9571,7 @@
         </is>
       </c>
       <c r="E358" t="n">
-        <v>1473566.356580562</v>
+        <v>29.30813137504675</v>
       </c>
     </row>
     <row r="359">
@@ -9596,7 +9596,7 @@
         </is>
       </c>
       <c r="E359" t="n">
-        <v>-969012.9077373</v>
+        <v>29.03254486208593</v>
       </c>
     </row>
     <row r="360">
@@ -9621,7 +9621,7 @@
         </is>
       </c>
       <c r="E360" t="n">
-        <v>48963.98895202943</v>
+        <v>29.1958135753546</v>
       </c>
     </row>
     <row r="361">
@@ -9646,7 +9646,7 @@
         </is>
       </c>
       <c r="E361" t="n">
-        <v>402160.3985444616</v>
+        <v>29.23177394917089</v>
       </c>
     </row>
     <row r="362">
@@ -9671,7 +9671,7 @@
         </is>
       </c>
       <c r="E362" t="n">
-        <v>-1390880.608203561</v>
+        <v>29.08954689098861</v>
       </c>
     </row>
     <row r="363">
@@ -9696,7 +9696,7 @@
         </is>
       </c>
       <c r="E363" t="n">
-        <v>-645764.4380186084</v>
+        <v>29.1418357138545</v>
       </c>
     </row>
     <row r="364">
@@ -9721,7 +9721,7 @@
         </is>
       </c>
       <c r="E364" t="n">
-        <v>624333.1579022368</v>
+        <v>29.16511334864917</v>
       </c>
     </row>
     <row r="365">
@@ -9746,7 +9746,7 @@
         </is>
       </c>
       <c r="E365" t="n">
-        <v>-1934076.592130329</v>
+        <v>29.07742719748757</v>
       </c>
     </row>
     <row r="366">
@@ -9771,7 +9771,7 @@
         </is>
       </c>
       <c r="E366" t="n">
-        <v>1042695.286180733</v>
+        <v>29.18572347168982</v>
       </c>
     </row>
     <row r="367">
@@ -9796,7 +9796,7 @@
         </is>
       </c>
       <c r="E367" t="n">
-        <v>1563610.65574921</v>
+        <v>29.20129885021591</v>
       </c>
     </row>
     <row r="368">
@@ -9821,7 +9821,7 @@
         </is>
       </c>
       <c r="E368" t="n">
-        <v>-1975966.169353722</v>
+        <v>29.08749548337499</v>
       </c>
     </row>
     <row r="369">
@@ -9846,7 +9846,7 @@
         </is>
       </c>
       <c r="E369" t="n">
-        <v>2892613.932421461</v>
+        <v>29.24757604673403</v>
       </c>
     </row>
     <row r="370">
@@ -9871,7 +9871,7 @@
         </is>
       </c>
       <c r="E370" t="n">
-        <v>3049092.670754241</v>
+        <v>29.25245980009974</v>
       </c>
     </row>
     <row r="371">
@@ -9896,7 +9896,7 @@
         </is>
       </c>
       <c r="E371" t="n">
-        <v>1781382.845095082</v>
+        <v>29.28874725641225</v>
       </c>
     </row>
     <row r="372">
@@ -9921,7 +9921,7 @@
         </is>
       </c>
       <c r="E372" t="n">
-        <v>2426445.531412034</v>
+        <v>29.31518677696764</v>
       </c>
     </row>
     <row r="373">
@@ -9946,7 +9946,7 @@
         </is>
       </c>
       <c r="E373" t="n">
-        <v>2349093.520419644</v>
+        <v>29.31237603854937</v>
       </c>
     </row>
     <row r="374">
@@ -9971,7 +9971,7 @@
         </is>
       </c>
       <c r="E374" t="n">
-        <v>-27713.11426591832</v>
+        <v>29.12345289032329</v>
       </c>
     </row>
     <row r="375">
@@ -9996,7 +9996,7 @@
         </is>
       </c>
       <c r="E375" t="n">
-        <v>1486528.108956537</v>
+        <v>29.23945144622669</v>
       </c>
     </row>
     <row r="376">
@@ -10021,7 +10021,7 @@
         </is>
       </c>
       <c r="E376" t="n">
-        <v>2485561.247107477</v>
+        <v>29.28510503702122</v>
       </c>
     </row>
     <row r="377">
@@ -10046,7 +10046,7 @@
         </is>
       </c>
       <c r="E377" t="n">
-        <v>-659505.4994246563</v>
+        <v>29.07761856987876</v>
       </c>
     </row>
     <row r="378">
@@ -10071,7 +10071,7 @@
         </is>
       </c>
       <c r="E378" t="n">
-        <v>140245.7781194299</v>
+        <v>29.15607359264508</v>
       </c>
     </row>
     <row r="379">
@@ -10096,7 +10096,7 @@
         </is>
       </c>
       <c r="E379" t="n">
-        <v>354913.1724557793</v>
+        <v>29.18917556049333</v>
       </c>
     </row>
     <row r="380">
@@ -10121,7 +10121,7 @@
         </is>
       </c>
       <c r="E380" t="n">
-        <v>-1234471.101741096</v>
+        <v>29.02378962617066</v>
       </c>
     </row>
     <row r="381">
@@ -10146,7 +10146,7 @@
         </is>
       </c>
       <c r="E381" t="n">
-        <v>128802.2284409485</v>
+        <v>29.15754420957322</v>
       </c>
     </row>
     <row r="382">
@@ -10171,7 +10171,7 @@
         </is>
       </c>
       <c r="E382" t="n">
-        <v>294555.7216723213</v>
+        <v>29.19281388972138</v>
       </c>
     </row>
     <row r="383">
@@ -10196,7 +10196,7 @@
         </is>
       </c>
       <c r="E383" t="n">
-        <v>-1274229.708467005</v>
+        <v>29.03850801884705</v>
       </c>
     </row>
     <row r="384">
@@ -10221,7 +10221,7 @@
         </is>
       </c>
       <c r="E384" t="n">
-        <v>1168556.099231146</v>
+        <v>29.24476427641454</v>
       </c>
     </row>
     <row r="385">
@@ -10246,7 +10246,7 @@
         </is>
       </c>
       <c r="E385" t="n">
-        <v>1442888.975233945</v>
+        <v>29.29446175124768</v>
       </c>
     </row>
     <row r="386">
@@ -10271,7 +10271,7 @@
         </is>
       </c>
       <c r="E386" t="n">
-        <v>567362.664728882</v>
+        <v>29.25556053778858</v>
       </c>
     </row>
     <row r="387">
@@ -10296,7 +10296,7 @@
         </is>
       </c>
       <c r="E387" t="n">
-        <v>836002.765913707</v>
+        <v>29.31002818871604</v>
       </c>
     </row>
     <row r="388">
@@ -10321,7 +10321,7 @@
         </is>
       </c>
       <c r="E388" t="n">
-        <v>833591.7403838811</v>
+        <v>29.31851973127008</v>
       </c>
     </row>
     <row r="389">
@@ -10346,7 +10346,7 @@
         </is>
       </c>
       <c r="E389" t="n">
-        <v>-140885.8840964761</v>
+        <v>29.09761257020444</v>
       </c>
     </row>
     <row r="390">
@@ -10371,7 +10371,7 @@
         </is>
       </c>
       <c r="E390" t="n">
-        <v>1006212.021765441</v>
+        <v>29.32162668437415</v>
       </c>
     </row>
     <row r="391">
@@ -10396,7 +10396,7 @@
         </is>
       </c>
       <c r="E391" t="n">
-        <v>1047968.502705126</v>
+        <v>29.34788428133076</v>
       </c>
     </row>
     <row r="392">
@@ -10421,7 +10421,7 @@
         </is>
       </c>
       <c r="E392" t="n">
-        <v>-483902.0400857585</v>
+        <v>29.08794601781684</v>
       </c>
     </row>
     <row r="393">
@@ -10446,7 +10446,7 @@
         </is>
       </c>
       <c r="E393" t="n">
-        <v>283351.2081886969</v>
+        <v>29.20217340103137</v>
       </c>
     </row>
     <row r="394">
@@ -10471,7 +10471,7 @@
         </is>
       </c>
       <c r="E394" t="n">
-        <v>500995.0960256993</v>
+        <v>29.23639183609808</v>
       </c>
     </row>
     <row r="395">
@@ -10496,7 +10496,7 @@
         </is>
       </c>
       <c r="E395" t="n">
-        <v>-921170.7111609583</v>
+        <v>29.02743619184717</v>
       </c>
     </row>
     <row r="396">
@@ -10521,7 +10521,7 @@
         </is>
       </c>
       <c r="E396" t="n">
-        <v>521238.430967239</v>
+        <v>29.21928410046473</v>
       </c>
     </row>
     <row r="397">
@@ -10546,7 +10546,7 @@
         </is>
       </c>
       <c r="E397" t="n">
-        <v>599620.6189622363</v>
+        <v>29.24776994235585</v>
       </c>
     </row>
     <row r="398">
@@ -10571,7 +10571,7 @@
         </is>
       </c>
       <c r="E398" t="n">
-        <v>-907759.342245574</v>
+        <v>29.04456950998251</v>
       </c>
     </row>
     <row r="399">
@@ -10596,7 +10596,7 @@
         </is>
       </c>
       <c r="E399" t="n">
-        <v>1570391.073628106</v>
+        <v>29.33040688852059</v>
       </c>
     </row>
     <row r="400">
@@ -10621,7 +10621,7 @@
         </is>
       </c>
       <c r="E400" t="n">
-        <v>1550738.930998228</v>
+        <v>29.37246010474873</v>
       </c>
     </row>
     <row r="401">
@@ -10646,7 +10646,7 @@
         </is>
       </c>
       <c r="E401" t="n">
-        <v>1139993.491469565</v>
+        <v>29.41104852599687</v>
       </c>
     </row>
     <row r="402">
@@ -10671,7 +10671,7 @@
         </is>
       </c>
       <c r="E402" t="n">
-        <v>1324443.802160198</v>
+        <v>29.46213665938652</v>
       </c>
     </row>
     <row r="403">
@@ -10696,7 +10696,7 @@
         </is>
       </c>
       <c r="E403" t="n">
-        <v>1370998.805885019</v>
+        <v>29.48695348683491</v>
       </c>
     </row>
     <row r="404">
@@ -10721,7 +10721,7 @@
         </is>
       </c>
       <c r="E404" t="n">
-        <v>34736.2332910405</v>
+        <v>29.1349698589105</v>
       </c>
     </row>
     <row r="405">
@@ -10746,7 +10746,7 @@
         </is>
       </c>
       <c r="E405" t="n">
-        <v>1264883.085924114</v>
+        <v>29.45069890164499</v>
       </c>
     </row>
     <row r="406">
@@ -10771,7 +10771,7 @@
         </is>
       </c>
       <c r="E406" t="n">
-        <v>1450291.24720905</v>
+        <v>29.47941291644367</v>
       </c>
     </row>
     <row r="407">
@@ -10796,7 +10796,7 @@
         </is>
       </c>
       <c r="E407" t="n">
-        <v>-2381073.302093475</v>
+        <v>29.05853087039653</v>
       </c>
     </row>
     <row r="408">
@@ -10821,7 +10821,7 @@
         </is>
       </c>
       <c r="E408" t="n">
-        <v>-1981867.560562853</v>
+        <v>29.07561136355296</v>
       </c>
     </row>
     <row r="409">
@@ -10846,7 +10846,7 @@
         </is>
       </c>
       <c r="E409" t="n">
-        <v>-1885897.786475891</v>
+        <v>29.0920173570673</v>
       </c>
     </row>
     <row r="410">
@@ -10871,7 +10871,7 @@
         </is>
       </c>
       <c r="E410" t="n">
-        <v>-2931985.178141759</v>
+        <v>29.02683660072548</v>
       </c>
     </row>
     <row r="411">
@@ -10896,7 +10896,7 @@
         </is>
       </c>
       <c r="E411" t="n">
-        <v>-2009004.565210346</v>
+        <v>29.07798867284982</v>
       </c>
     </row>
     <row r="412">
@@ -10921,7 +10921,7 @@
         </is>
       </c>
       <c r="E412" t="n">
-        <v>-1452214.777602079</v>
+        <v>29.09549591253926</v>
       </c>
     </row>
     <row r="413">
@@ -10946,7 +10946,7 @@
         </is>
       </c>
       <c r="E413" t="n">
-        <v>-3248605.434500911</v>
+        <v>29.03568120576309</v>
       </c>
     </row>
     <row r="414">
@@ -10971,7 +10971,7 @@
         </is>
       </c>
       <c r="E414" t="n">
-        <v>-1294858.749808252</v>
+        <v>29.12056184073564</v>
       </c>
     </row>
     <row r="415">
@@ -10996,7 +10996,7 @@
         </is>
       </c>
       <c r="E415" t="n">
-        <v>-1260877.678286106</v>
+        <v>29.12979909319896</v>
       </c>
     </row>
     <row r="416">
@@ -11021,7 +11021,7 @@
         </is>
       </c>
       <c r="E416" t="n">
-        <v>-963335.4453489711</v>
+        <v>29.1188215953143</v>
       </c>
     </row>
     <row r="417">
@@ -11046,7 +11046,7 @@
         </is>
       </c>
       <c r="E417" t="n">
-        <v>-649201.9167062115</v>
+        <v>29.13747560479464</v>
       </c>
     </row>
     <row r="418">
@@ -11071,7 +11071,7 @@
         </is>
       </c>
       <c r="E418" t="n">
-        <v>-621796.9674360757</v>
+        <v>29.14840872644387</v>
       </c>
     </row>
     <row r="419">
@@ -11096,7 +11096,7 @@
         </is>
       </c>
       <c r="E419" t="n">
-        <v>-1459786.713774741</v>
+        <v>29.04048356214037</v>
       </c>
     </row>
     <row r="420">
@@ -11121,7 +11121,7 @@
         </is>
       </c>
       <c r="E420" t="n">
-        <v>-919306.3254904239</v>
+        <v>29.10293792945126</v>
       </c>
     </row>
     <row r="421">
@@ -11146,7 +11146,7 @@
         </is>
       </c>
       <c r="E421" t="n">
-        <v>-670659.1745143204</v>
+        <v>29.12300453690628</v>
       </c>
     </row>
     <row r="422">
@@ -11171,7 +11171,7 @@
         </is>
       </c>
       <c r="E422" t="n">
-        <v>-1414991.055040955</v>
+        <v>29.05131105157257</v>
       </c>
     </row>
     <row r="423">
@@ -11196,7 +11196,7 @@
         </is>
       </c>
       <c r="E423" t="n">
-        <v>-616972.507866791</v>
+        <v>29.08660794206352</v>
       </c>
     </row>
     <row r="424">
@@ -11221,7 +11221,7 @@
         </is>
       </c>
       <c r="E424" t="n">
-        <v>-153614.8435694295</v>
+        <v>29.12770630495794</v>
       </c>
     </row>
     <row r="425">
@@ -11246,7 +11246,7 @@
         </is>
       </c>
       <c r="E425" t="n">
-        <v>-1486925.056875969</v>
+        <v>29.00363214450429</v>
       </c>
     </row>
     <row r="426">
@@ -11271,7 +11271,7 @@
         </is>
       </c>
       <c r="E426" t="n">
-        <v>-713315.6939641889</v>
+        <v>29.06825078393241</v>
       </c>
     </row>
     <row r="427">
@@ -11296,7 +11296,7 @@
         </is>
       </c>
       <c r="E427" t="n">
-        <v>-17476.44709723316</v>
+        <v>29.12157758951448</v>
       </c>
     </row>
     <row r="428">
@@ -11321,7 +11321,7 @@
         </is>
       </c>
       <c r="E428" t="n">
-        <v>-1592014.712964493</v>
+        <v>29.01541502754118</v>
       </c>
     </row>
     <row r="429">
@@ -11346,7 +11346,7 @@
         </is>
       </c>
       <c r="E429" t="n">
-        <v>8020.536313077027</v>
+        <v>29.13001792837061</v>
       </c>
     </row>
     <row r="430">
@@ -11371,7 +11371,7 @@
         </is>
       </c>
       <c r="E430" t="n">
-        <v>921468.8237430953</v>
+        <v>29.19969627460364</v>
       </c>
     </row>
     <row r="431">
@@ -11396,7 +11396,7 @@
         </is>
       </c>
       <c r="E431" t="n">
-        <v>-333347.0377537947</v>
+        <v>29.09771404469726</v>
       </c>
     </row>
     <row r="432">
@@ -11421,7 +11421,7 @@
         </is>
       </c>
       <c r="E432" t="n">
-        <v>185513.0792237127</v>
+        <v>29.15231465465932</v>
       </c>
     </row>
     <row r="433">
@@ -11446,7 +11446,7 @@
         </is>
       </c>
       <c r="E433" t="n">
-        <v>246293.3428065219</v>
+        <v>29.18653745349981</v>
       </c>
     </row>
     <row r="434">
@@ -11471,7 +11471,7 @@
         </is>
       </c>
       <c r="E434" t="n">
-        <v>-959482.0457767816</v>
+        <v>29.01578290877341</v>
       </c>
     </row>
     <row r="435">
@@ -11496,7 +11496,7 @@
         </is>
       </c>
       <c r="E435" t="n">
-        <v>125389.7149152513</v>
+        <v>29.16539914012133</v>
       </c>
     </row>
     <row r="436">
@@ -11521,7 +11521,7 @@
         </is>
       </c>
       <c r="E436" t="n">
-        <v>439703.8475710874</v>
+        <v>29.20454389411826</v>
       </c>
     </row>
     <row r="437">
@@ -11546,7 +11546,7 @@
         </is>
       </c>
       <c r="E437" t="n">
-        <v>-714366.6169519481</v>
+        <v>29.07372628101312</v>
       </c>
     </row>
     <row r="438">
@@ -11571,7 +11571,7 @@
         </is>
       </c>
       <c r="E438" t="n">
-        <v>46640.6128074877</v>
+        <v>29.13778189309037</v>
       </c>
     </row>
     <row r="439">
@@ -11596,7 +11596,7 @@
         </is>
       </c>
       <c r="E439" t="n">
-        <v>525659.0808997659</v>
+        <v>29.18509365236448</v>
       </c>
     </row>
     <row r="440">
@@ -11621,7 +11621,7 @@
         </is>
       </c>
       <c r="E440" t="n">
-        <v>-983760.9580192342</v>
+        <v>29.0157279104797</v>
       </c>
     </row>
     <row r="441">
@@ -11646,7 +11646,7 @@
         </is>
       </c>
       <c r="E441" t="n">
-        <v>-86384.76803990161</v>
+        <v>29.12853248675511</v>
       </c>
     </row>
     <row r="442">
@@ -11671,7 +11671,7 @@
         </is>
       </c>
       <c r="E442" t="n">
-        <v>458734.6761776925</v>
+        <v>29.18176516599976</v>
       </c>
     </row>
     <row r="443">
@@ -11696,7 +11696,7 @@
         </is>
       </c>
       <c r="E443" t="n">
-        <v>-893588.2581910181</v>
+        <v>29.03180567423316</v>
       </c>
     </row>
     <row r="444">
@@ -11721,7 +11721,7 @@
         </is>
       </c>
       <c r="E444" t="n">
-        <v>713598.101536846</v>
+        <v>29.21173738225058</v>
       </c>
     </row>
     <row r="445">
@@ -11746,7 +11746,7 @@
         </is>
       </c>
       <c r="E445" t="n">
-        <v>1368069.604946509</v>
+        <v>29.28355352990546</v>
       </c>
     </row>
     <row r="446">
@@ -11771,7 +11771,7 @@
         </is>
       </c>
       <c r="E446" t="n">
-        <v>518909.784996279</v>
+        <v>29.25148268450023</v>
       </c>
     </row>
     <row r="447">
@@ -11796,7 +11796,7 @@
         </is>
       </c>
       <c r="E447" t="n">
-        <v>878090.887118269</v>
+        <v>29.30596781138606</v>
       </c>
     </row>
     <row r="448">
@@ -11821,7 +11821,7 @@
         </is>
       </c>
       <c r="E448" t="n">
-        <v>1447316.603931265</v>
+        <v>29.37999244577675</v>
       </c>
     </row>
     <row r="449">
@@ -11846,7 +11846,7 @@
         </is>
       </c>
       <c r="E449" t="n">
-        <v>-194244.2444567598</v>
+        <v>29.07828566178554</v>
       </c>
     </row>
     <row r="450">
@@ -11871,7 +11871,7 @@
         </is>
       </c>
       <c r="E450" t="n">
-        <v>845527.1520095757</v>
+        <v>29.29641297031068</v>
       </c>
     </row>
     <row r="451">
@@ -11896,7 +11896,7 @@
         </is>
       </c>
       <c r="E451" t="n">
-        <v>1155256.473242734</v>
+        <v>29.34701842577174</v>
       </c>
     </row>
     <row r="452">
@@ -11921,7 +11921,7 @@
         </is>
       </c>
       <c r="E452" t="n">
-        <v>-3149122.58846584</v>
+        <v>29.0476231416483</v>
       </c>
     </row>
     <row r="453">
@@ -11946,7 +11946,7 @@
         </is>
       </c>
       <c r="E453" t="n">
-        <v>-3292661.491630823</v>
+        <v>29.07786780369886</v>
       </c>
     </row>
     <row r="454">
@@ -11971,7 +11971,7 @@
         </is>
       </c>
       <c r="E454" t="n">
-        <v>-2849416.694544902</v>
+        <v>29.08116324875069</v>
       </c>
     </row>
     <row r="455">
@@ -11996,7 +11996,7 @@
         </is>
       </c>
       <c r="E455" t="n">
-        <v>-3542608.765609708</v>
+        <v>29.01881126269425</v>
       </c>
     </row>
     <row r="456">
@@ -12021,7 +12021,7 @@
         </is>
       </c>
       <c r="E456" t="n">
-        <v>-2632828.904086702</v>
+        <v>29.08258877477039</v>
       </c>
     </row>
     <row r="457">
@@ -12046,7 +12046,7 @@
         </is>
       </c>
       <c r="E457" t="n">
-        <v>-2080741.520205618</v>
+        <v>29.08796017366765</v>
       </c>
     </row>
     <row r="458">
@@ -12071,7 +12071,7 @@
         </is>
       </c>
       <c r="E458" t="n">
-        <v>-4090376.040540942</v>
+        <v>29.01696400851446</v>
       </c>
     </row>
     <row r="459">
@@ -12096,7 +12096,7 @@
         </is>
       </c>
       <c r="E459" t="n">
-        <v>-2859862.853184909</v>
+        <v>29.12478766946377</v>
       </c>
     </row>
     <row r="460">
@@ -12121,7 +12121,7 @@
         </is>
       </c>
       <c r="E460" t="n">
-        <v>-2291226.26661882</v>
+        <v>29.11403988214385</v>
       </c>
     </row>
     <row r="461">
@@ -12146,7 +12146,7 @@
         </is>
       </c>
       <c r="E461" t="n">
-        <v>-2156829.256495903</v>
+        <v>29.10598097262337</v>
       </c>
     </row>
     <row r="462">
@@ -12171,7 +12171,7 @@
         </is>
       </c>
       <c r="E462" t="n">
-        <v>-2129222.787257066</v>
+        <v>29.12564937415156</v>
       </c>
     </row>
     <row r="463">
@@ -12196,7 +12196,7 @@
         </is>
       </c>
       <c r="E463" t="n">
-        <v>-1252276.489671449</v>
+        <v>29.12757942761496</v>
       </c>
     </row>
     <row r="464">
@@ -12221,7 +12221,7 @@
         </is>
       </c>
       <c r="E464" t="n">
-        <v>-2026498.891856159</v>
+        <v>29.01306425227927</v>
       </c>
     </row>
     <row r="465">
@@ -12246,7 +12246,7 @@
         </is>
       </c>
       <c r="E465" t="n">
-        <v>-1814232.613339953</v>
+        <v>29.0775053697763</v>
       </c>
     </row>
     <row r="466">
@@ -12271,7 +12271,7 @@
         </is>
       </c>
       <c r="E466" t="n">
-        <v>-1352141.80999151</v>
+        <v>29.08579148375057</v>
       </c>
     </row>
     <row r="467">
@@ -12296,7 +12296,7 @@
         </is>
       </c>
       <c r="E467" t="n">
-        <v>-894040.293104036</v>
+        <v>29.1073860804966</v>
       </c>
     </row>
     <row r="468">
@@ -12321,7 +12321,7 @@
         </is>
       </c>
       <c r="E468" t="n">
-        <v>249061.2670191641</v>
+        <v>29.16964729517992</v>
       </c>
     </row>
     <row r="469">
@@ -12346,7 +12346,7 @@
         </is>
       </c>
       <c r="E469" t="n">
-        <v>325101.5881296049</v>
+        <v>29.18060419282335</v>
       </c>
     </row>
     <row r="470">
@@ -12371,7 +12371,7 @@
         </is>
       </c>
       <c r="E470" t="n">
-        <v>-1473822.177463498</v>
+        <v>29.06056999336201</v>
       </c>
     </row>
     <row r="471">
@@ -12396,7 +12396,7 @@
         </is>
       </c>
       <c r="E471" t="n">
-        <v>131486.680296638</v>
+        <v>29.15686510675875</v>
       </c>
     </row>
     <row r="472">
@@ -12421,7 +12421,7 @@
         </is>
       </c>
       <c r="E472" t="n">
-        <v>333199.4338925832</v>
+        <v>29.18063344909908</v>
       </c>
     </row>
     <row r="473">
@@ -12446,7 +12446,7 @@
         </is>
       </c>
       <c r="E473" t="n">
-        <v>-1571626.3819251</v>
+        <v>29.06330987181124</v>
       </c>
     </row>
     <row r="474">
@@ -12471,7 +12471,7 @@
         </is>
       </c>
       <c r="E474" t="n">
-        <v>1408428.687564994</v>
+        <v>29.22340303277904</v>
       </c>
     </row>
     <row r="475">
@@ -12496,7 +12496,7 @@
         </is>
       </c>
       <c r="E475" t="n">
-        <v>1536205.493437944</v>
+        <v>29.2468283722087</v>
       </c>
     </row>
     <row r="476">
@@ -12521,7 +12521,7 @@
         </is>
       </c>
       <c r="E476" t="n">
-        <v>644999.5850335977</v>
+        <v>29.21156463416729</v>
       </c>
     </row>
     <row r="477">
@@ -12546,7 +12546,7 @@
         </is>
       </c>
       <c r="E477" t="n">
-        <v>959819.8294219667</v>
+        <v>29.25939795743215</v>
       </c>
     </row>
     <row r="478">
@@ -12571,7 +12571,7 @@
         </is>
       </c>
       <c r="E478" t="n">
-        <v>988467.8075186065</v>
+        <v>29.26899471654402</v>
       </c>
     </row>
     <row r="479">
@@ -12596,7 +12596,7 @@
         </is>
       </c>
       <c r="E479" t="n">
-        <v>-522583.4356806704</v>
+        <v>29.09607778746578</v>
       </c>
     </row>
     <row r="480">
@@ -12621,7 +12621,7 @@
         </is>
       </c>
       <c r="E480" t="n">
-        <v>1112087.500836997</v>
+        <v>29.26869704505901</v>
       </c>
     </row>
     <row r="481">
@@ -12646,7 +12646,7 @@
         </is>
       </c>
       <c r="E481" t="n">
-        <v>1162132.97156027</v>
+        <v>29.2688917873259</v>
       </c>
     </row>
     <row r="482">
@@ -12671,7 +12671,7 @@
         </is>
       </c>
       <c r="E482" t="n">
-        <v>-466551.8478166954</v>
+        <v>29.1239858604039</v>
       </c>
     </row>
     <row r="483">
@@ -12696,7 +12696,7 @@
         </is>
       </c>
       <c r="E483" t="n">
-        <v>617905.2188846981</v>
+        <v>29.21898600297376</v>
       </c>
     </row>
     <row r="484">
@@ -12721,7 +12721,7 @@
         </is>
       </c>
       <c r="E484" t="n">
-        <v>757919.2764267084</v>
+        <v>29.23065428158714</v>
       </c>
     </row>
     <row r="485">
@@ -12746,7 +12746,7 @@
         </is>
       </c>
       <c r="E485" t="n">
-        <v>-1166280.632919377</v>
+        <v>29.05937754415569</v>
       </c>
     </row>
     <row r="486">
@@ -12771,7 +12771,7 @@
         </is>
       </c>
       <c r="E486" t="n">
-        <v>684827.1601059923</v>
+        <v>29.20951474202004</v>
       </c>
     </row>
     <row r="487">
@@ -12796,7 +12796,7 @@
         </is>
       </c>
       <c r="E487" t="n">
-        <v>876541.6106440576</v>
+        <v>29.22772349357216</v>
       </c>
     </row>
     <row r="488">
@@ -12821,7 +12821,7 @@
         </is>
       </c>
       <c r="E488" t="n">
-        <v>-1249573.036757934</v>
+        <v>29.06934915879324</v>
       </c>
     </row>
     <row r="489">
@@ -12846,7 +12846,7 @@
         </is>
       </c>
       <c r="E489" t="n">
-        <v>2002724.770541506</v>
+        <v>29.30086706306488</v>
       </c>
     </row>
     <row r="490">
@@ -12871,7 +12871,7 @@
         </is>
       </c>
       <c r="E490" t="n">
-        <v>1854528.760782103</v>
+        <v>29.31961199975612</v>
       </c>
     </row>
     <row r="491">
@@ -12896,7 +12896,7 @@
         </is>
       </c>
       <c r="E491" t="n">
-        <v>1551603.66682257</v>
+        <v>29.36030660028028</v>
       </c>
     </row>
     <row r="492">
@@ -12921,7 +12921,7 @@
         </is>
       </c>
       <c r="E492" t="n">
-        <v>1853596.174835907</v>
+        <v>29.41173101873159</v>
       </c>
     </row>
     <row r="493">
@@ -12946,7 +12946,7 @@
         </is>
       </c>
       <c r="E493" t="n">
-        <v>1808205.078143635</v>
+        <v>29.42966644858424</v>
       </c>
     </row>
     <row r="494">
@@ -12971,7 +12971,7 @@
         </is>
       </c>
       <c r="E494" t="n">
-        <v>-242695.1168124022</v>
+        <v>29.13402589710318</v>
       </c>
     </row>
     <row r="495">
@@ -12996,7 +12996,7 @@
         </is>
       </c>
       <c r="E495" t="n">
-        <v>1754456.919675318</v>
+        <v>29.39511500196585</v>
       </c>
     </row>
     <row r="496">
@@ -13021,7 +13021,7 @@
         </is>
       </c>
       <c r="E496" t="n">
-        <v>1691425.181989698</v>
+        <v>29.38987519816901</v>
       </c>
     </row>
     <row r="497">
@@ -13046,7 +13046,7 @@
         </is>
       </c>
       <c r="E497" t="n">
-        <v>-2509994.835447759</v>
+        <v>29.0740222540696</v>
       </c>
     </row>
     <row r="498">
@@ -13071,7 +13071,7 @@
         </is>
       </c>
       <c r="E498" t="n">
-        <v>-2127894.72050019</v>
+        <v>29.08825943358838</v>
       </c>
     </row>
     <row r="499">
@@ -13096,7 +13096,7 @@
         </is>
       </c>
       <c r="E499" t="n">
-        <v>-1778872.665080601</v>
+        <v>29.0986456369905</v>
       </c>
     </row>
     <row r="500">
@@ -13121,7 +13121,7 @@
         </is>
       </c>
       <c r="E500" t="n">
-        <v>-3654173.931644655</v>
+        <v>29.04602667095934</v>
       </c>
     </row>
     <row r="501">
@@ -13146,7 +13146,7 @@
         </is>
       </c>
       <c r="E501" t="n">
-        <v>-1953433.362807098</v>
+        <v>29.09374070332085</v>
       </c>
     </row>
     <row r="502">
@@ -13171,7 +13171,7 @@
         </is>
       </c>
       <c r="E502" t="n">
-        <v>-1435596.791244367</v>
+        <v>29.10513538236187</v>
       </c>
     </row>
     <row r="503">
@@ -13196,7 +13196,7 @@
         </is>
       </c>
       <c r="E503" t="n">
-        <v>-3940868.515392764</v>
+        <v>29.05489649959144</v>
       </c>
     </row>
     <row r="504">
@@ -13221,7 +13221,7 @@
         </is>
       </c>
       <c r="E504" t="n">
-        <v>-1308914.169275665</v>
+        <v>29.1349204834229</v>
       </c>
     </row>
     <row r="505">
@@ -13246,7 +13246,7 @@
         </is>
       </c>
       <c r="E505" t="n">
-        <v>-810932.7168566693</v>
+        <v>29.13332063846381</v>
       </c>
     </row>
     <row r="506">
@@ -13271,7 +13271,7 @@
         </is>
       </c>
       <c r="E506" t="n">
-        <v>-950543.2482844588</v>
+        <v>29.13712488091314</v>
       </c>
     </row>
     <row r="507">
@@ -13296,7 +13296,7 @@
         </is>
       </c>
       <c r="E507" t="n">
-        <v>-671515.4453402145</v>
+        <v>29.14714218687076</v>
       </c>
     </row>
     <row r="508">
@@ -13321,7 +13321,7 @@
         </is>
       </c>
       <c r="E508" t="n">
-        <v>-437124.5234878356</v>
+        <v>29.15601662709188</v>
       </c>
     </row>
     <row r="509">
@@ -13346,7 +13346,7 @@
         </is>
       </c>
       <c r="E509" t="n">
-        <v>-1547622.709419319</v>
+        <v>29.07150528651204</v>
       </c>
     </row>
     <row r="510">
@@ -13371,7 +13371,7 @@
         </is>
       </c>
       <c r="E510" t="n">
-        <v>-703960.0851450524</v>
+        <v>29.1182386953455</v>
       </c>
     </row>
     <row r="511">
@@ -13396,7 +13396,7 @@
         </is>
       </c>
       <c r="E511" t="n">
-        <v>-378094.9538220195</v>
+        <v>29.13658852816513</v>
       </c>
     </row>
     <row r="512">
@@ -13421,7 +13421,7 @@
         </is>
       </c>
       <c r="E512" t="n">
-        <v>-1895205.505115666</v>
+        <v>29.04691543824557</v>
       </c>
     </row>
     <row r="513">
@@ -13446,7 +13446,7 @@
         </is>
       </c>
       <c r="E513" t="n">
-        <v>-1350632.032081625</v>
+        <v>29.0706972215258</v>
       </c>
     </row>
     <row r="514">
@@ -13471,7 +13471,7 @@
         </is>
       </c>
       <c r="E514" t="n">
-        <v>-819611.0879773363</v>
+        <v>29.09458205942877</v>
       </c>
     </row>
     <row r="515">
@@ -13496,7 +13496,7 @@
         </is>
       </c>
       <c r="E515" t="n">
-        <v>-2163820.59913139</v>
+        <v>28.99960073450741</v>
       </c>
     </row>
     <row r="516">
@@ -13521,7 +13521,7 @@
         </is>
       </c>
       <c r="E516" t="n">
-        <v>-1436111.495764042</v>
+        <v>29.05155640183586</v>
       </c>
     </row>
     <row r="517">
@@ -13546,7 +13546,7 @@
         </is>
       </c>
       <c r="E517" t="n">
-        <v>-768505.1090936445</v>
+        <v>29.08759409752042</v>
       </c>
     </row>
     <row r="518">
@@ -13571,7 +13571,7 @@
         </is>
       </c>
       <c r="E518" t="n">
-        <v>-2404094.660257348</v>
+        <v>29.00870434803791</v>
       </c>
     </row>
     <row r="519">
@@ -13596,7 +13596,7 @@
         </is>
       </c>
       <c r="E519" t="n">
-        <v>-1031888.226799738</v>
+        <v>29.10770683599395</v>
       </c>
     </row>
     <row r="520">
@@ -13621,7 +13621,7 @@
         </is>
       </c>
       <c r="E520" t="n">
-        <v>102203.567786518</v>
+        <v>29.14818164769008</v>
       </c>
     </row>
     <row r="521">
@@ -13646,7 +13646,7 @@
         </is>
       </c>
       <c r="E521" t="n">
-        <v>-961263.6711974317</v>
+        <v>29.0827580451549</v>
       </c>
     </row>
     <row r="522">
@@ -13671,7 +13671,7 @@
         </is>
       </c>
       <c r="E522" t="n">
-        <v>-489289.9792887651</v>
+        <v>29.1207231041957</v>
       </c>
     </row>
     <row r="523">
@@ -13696,7 +13696,7 @@
         </is>
       </c>
       <c r="E523" t="n">
-        <v>-153700.0579593316</v>
+        <v>29.14029279614834</v>
       </c>
     </row>
     <row r="524">
@@ -13721,7 +13721,7 @@
         </is>
       </c>
       <c r="E524" t="n">
-        <v>-1298187.899750511</v>
+        <v>29.01802593272981</v>
       </c>
     </row>
     <row r="525">
@@ -13746,7 +13746,7 @@
         </is>
       </c>
       <c r="E525" t="n">
-        <v>-491631.0210087644</v>
+        <v>29.13124799718115</v>
       </c>
     </row>
     <row r="526">
@@ -13771,7 +13771,7 @@
         </is>
       </c>
       <c r="E526" t="n">
-        <v>-142275.2234418039</v>
+        <v>29.15000595025814</v>
       </c>
     </row>
     <row r="527">
@@ -13796,7 +13796,7 @@
         </is>
       </c>
       <c r="E527" t="n">
-        <v>-705944.491174808</v>
+        <v>29.08093911346008</v>
       </c>
     </row>
     <row r="528">
@@ -13821,7 +13821,7 @@
         </is>
       </c>
       <c r="E528" t="n">
-        <v>-97108.90051099767</v>
+        <v>29.1355595402051</v>
       </c>
     </row>
     <row r="529">
@@ -13846,7 +13846,7 @@
         </is>
       </c>
       <c r="E529" t="n">
-        <v>274390.4013201446</v>
+        <v>29.15848398818171</v>
       </c>
     </row>
     <row r="530">
@@ -13871,7 +13871,7 @@
         </is>
       </c>
       <c r="E530" t="n">
-        <v>-1510938.24795536</v>
+        <v>29.02184824598276</v>
       </c>
     </row>
     <row r="531">
@@ -13896,7 +13896,7 @@
         </is>
       </c>
       <c r="E531" t="n">
-        <v>-358510.3267442758</v>
+        <v>29.12369032564832</v>
       </c>
     </row>
     <row r="532">
@@ -13921,7 +13921,7 @@
         </is>
       </c>
       <c r="E532" t="n">
-        <v>-20007.5228863608</v>
+        <v>29.15253785748298</v>
       </c>
     </row>
     <row r="533">
@@ -13946,7 +13946,7 @@
         </is>
       </c>
       <c r="E533" t="n">
-        <v>-1389927.727286744</v>
+        <v>29.03829501774626</v>
       </c>
     </row>
     <row r="534">
@@ -13971,7 +13971,7 @@
         </is>
       </c>
       <c r="E534" t="n">
-        <v>709095.6951719641</v>
+        <v>29.2051240972029</v>
       </c>
     </row>
     <row r="535">
@@ -13996,7 +13996,7 @@
         </is>
       </c>
       <c r="E535" t="n">
-        <v>1177697.271887355</v>
+        <v>29.23840673439031</v>
       </c>
     </row>
     <row r="536">
@@ -14021,7 +14021,7 @@
         </is>
       </c>
       <c r="E536" t="n">
-        <v>618828.8707583258</v>
+        <v>29.25053681427924</v>
       </c>
     </row>
     <row r="537">
@@ -14046,7 +14046,7 @@
         </is>
       </c>
       <c r="E537" t="n">
-        <v>935551.8132814325</v>
+        <v>29.28835967085896</v>
       </c>
     </row>
     <row r="538">
@@ -14071,7 +14071,7 @@
         </is>
       </c>
       <c r="E538" t="n">
-        <v>1288303.759168637</v>
+        <v>29.31869874413787</v>
       </c>
     </row>
     <row r="539">
@@ -14096,7 +14096,7 @@
         </is>
       </c>
       <c r="E539" t="n">
-        <v>-210381.0403138566</v>
+        <v>29.09471100971438</v>
       </c>
     </row>
     <row r="540">
@@ -14121,7 +14121,7 @@
         </is>
       </c>
       <c r="E540" t="n">
-        <v>758981.8766747713</v>
+        <v>29.27773656007255</v>
       </c>
     </row>
     <row r="541">
@@ -14146,7 +14146,7 @@
         </is>
       </c>
       <c r="E541" t="n">
-        <v>840763.8489573055</v>
+        <v>29.29188297368325</v>
       </c>
     </row>
     <row r="542">
@@ -14171,7 +14171,7 @@
         </is>
       </c>
       <c r="E542" t="n">
-        <v>-3032161.624034711</v>
+        <v>29.05494996927429</v>
       </c>
     </row>
     <row r="543">
@@ -14196,7 +14196,7 @@
         </is>
       </c>
       <c r="E543" t="n">
-        <v>-2899323.554126963</v>
+        <v>29.05564915770528</v>
       </c>
     </row>
     <row r="544">
@@ -14221,7 +14221,7 @@
         </is>
       </c>
       <c r="E544" t="n">
-        <v>-2787534.4499795</v>
+        <v>29.05760583282602</v>
       </c>
     </row>
     <row r="545">
@@ -14246,7 +14246,7 @@
         </is>
       </c>
       <c r="E545" t="n">
-        <v>-3544034.756526493</v>
+        <v>29.02514678621402</v>
       </c>
     </row>
     <row r="546">
@@ -14271,7 +14271,7 @@
         </is>
       </c>
       <c r="E546" t="n">
-        <v>-2670356.282274128</v>
+        <v>29.05522689178469</v>
       </c>
     </row>
     <row r="547">
@@ -14296,7 +14296,7 @@
         </is>
       </c>
       <c r="E547" t="n">
-        <v>-2362632.079741054</v>
+        <v>29.05986763686717</v>
       </c>
     </row>
     <row r="548">
@@ -14321,7 +14321,7 @@
         </is>
       </c>
       <c r="E548" t="n">
-        <v>-3702872.86206611</v>
+        <v>29.03351329870293</v>
       </c>
     </row>
     <row r="549">
@@ -14346,7 +14346,7 @@
         </is>
       </c>
       <c r="E549" t="n">
-        <v>-2666677.481518732</v>
+        <v>29.09428515105384</v>
       </c>
     </row>
     <row r="550">
@@ -14371,7 +14371,7 @@
         </is>
       </c>
       <c r="E550" t="n">
-        <v>-2570381.145346289</v>
+        <v>29.0809308514796</v>
       </c>
     </row>
     <row r="551">
@@ -14396,7 +14396,7 @@
         </is>
       </c>
       <c r="E551" t="n">
-        <v>-2022575.804119317</v>
+        <v>29.07801717243624</v>
       </c>
     </row>
     <row r="552">
@@ -14421,7 +14421,7 @@
         </is>
       </c>
       <c r="E552" t="n">
-        <v>-2070585.500204893</v>
+        <v>29.0814553146557</v>
       </c>
     </row>
     <row r="553">
@@ -14446,7 +14446,7 @@
         </is>
       </c>
       <c r="E553" t="n">
-        <v>-1805944.151551434</v>
+        <v>29.08646153812375</v>
       </c>
     </row>
     <row r="554">
@@ -14471,7 +14471,7 @@
         </is>
       </c>
       <c r="E554" t="n">
-        <v>-1813777.141877705</v>
+        <v>29.0393533565391</v>
       </c>
     </row>
     <row r="555">
@@ -14496,7 +14496,7 @@
         </is>
       </c>
       <c r="E555" t="n">
-        <v>-1586484.797646038</v>
+        <v>29.05400804617176</v>
       </c>
     </row>
     <row r="556">
@@ -14521,7 +14521,7 @@
         </is>
       </c>
       <c r="E556" t="n">
-        <v>-1379151.445644271</v>
+        <v>29.06532058680581</v>
       </c>
     </row>
     <row r="557">
@@ -14546,7 +14546,7 @@
         </is>
       </c>
       <c r="E557" t="n">
-        <v>-1899869.263676375</v>
+        <v>29.03204133392476</v>
       </c>
     </row>
     <row r="558">
@@ -14571,7 +14571,7 @@
         </is>
       </c>
       <c r="E558" t="n">
-        <v>-1675162.059547509</v>
+        <v>29.03828545817925</v>
       </c>
     </row>
     <row r="559">
@@ -14596,7 +14596,7 @@
         </is>
       </c>
       <c r="E559" t="n">
-        <v>-1546558.68997917</v>
+        <v>29.0493952096978</v>
       </c>
     </row>
     <row r="560">
@@ -14621,7 +14621,7 @@
         </is>
       </c>
       <c r="E560" t="n">
-        <v>-2008811.636300129</v>
+        <v>28.9875959014601</v>
       </c>
     </row>
     <row r="561">
@@ -14646,7 +14646,7 @@
         </is>
       </c>
       <c r="E561" t="n">
-        <v>-1682633.013452633</v>
+        <v>29.01529394000631</v>
       </c>
     </row>
     <row r="562">
@@ -14671,7 +14671,7 @@
         </is>
       </c>
       <c r="E562" t="n">
-        <v>-1393825.54217114</v>
+        <v>29.04159205736944</v>
       </c>
     </row>
     <row r="563">
@@ -14696,7 +14696,7 @@
         </is>
       </c>
       <c r="E563" t="n">
-        <v>-2231242.34722629</v>
+        <v>28.99366335201337</v>
       </c>
     </row>
     <row r="564">
@@ -14721,7 +14721,7 @@
         </is>
       </c>
       <c r="E564" t="n">
-        <v>-1615715.279561847</v>
+        <v>29.06864181467898</v>
       </c>
     </row>
     <row r="565">
@@ -14746,7 +14746,7 @@
         </is>
       </c>
       <c r="E565" t="n">
-        <v>-1397301.082741087</v>
+        <v>29.09007272857324</v>
       </c>
     </row>
     <row r="566">
@@ -14771,7 +14771,7 @@
         </is>
       </c>
       <c r="E566" t="n">
-        <v>-1206476.740539987</v>
+        <v>29.02493673253841</v>
       </c>
     </row>
     <row r="567">
@@ -14796,7 +14796,7 @@
         </is>
       </c>
       <c r="E567" t="n">
-        <v>-1082294.770525259</v>
+        <v>29.05365421137047</v>
       </c>
     </row>
     <row r="568">
@@ -14821,7 +14821,7 @@
         </is>
       </c>
       <c r="E568" t="n">
-        <v>-1158489.946688127</v>
+        <v>29.06710319542377</v>
       </c>
     </row>
     <row r="569">
@@ -14846,7 +14846,7 @@
         </is>
       </c>
       <c r="E569" t="n">
-        <v>-1371374.272848243</v>
+        <v>28.98909788858111</v>
       </c>
     </row>
     <row r="570">
@@ -14871,7 +14871,7 @@
         </is>
       </c>
       <c r="E570" t="n">
-        <v>-1023702.317696183</v>
+        <v>29.06001333368454</v>
       </c>
     </row>
     <row r="571">
@@ -14896,7 +14896,7 @@
         </is>
       </c>
       <c r="E571" t="n">
-        <v>-955667.5223137573</v>
+        <v>29.0691893007529</v>
       </c>
     </row>
     <row r="572">
@@ -14921,7 +14921,7 @@
         </is>
       </c>
       <c r="E572" t="n">
-        <v>-699783.4641572393</v>
+        <v>29.07339283311425</v>
       </c>
     </row>
     <row r="573">
@@ -14946,7 +14946,7 @@
         </is>
       </c>
       <c r="E573" t="n">
-        <v>-422676.4909128537</v>
+        <v>29.10622372349064</v>
       </c>
     </row>
     <row r="574">
@@ -14971,7 +14971,7 @@
         </is>
       </c>
       <c r="E574" t="n">
-        <v>-193549.1734250868</v>
+        <v>29.11993122420022</v>
       </c>
     </row>
     <row r="575">
@@ -14996,7 +14996,7 @@
         </is>
       </c>
       <c r="E575" t="n">
-        <v>-1401453.567455233</v>
+        <v>29.01110422479335</v>
       </c>
     </row>
     <row r="576">
@@ -15021,7 +15021,7 @@
         </is>
       </c>
       <c r="E576" t="n">
-        <v>-669308.3678268348</v>
+        <v>29.08562488840468</v>
       </c>
     </row>
     <row r="577">
@@ -15046,7 +15046,7 @@
         </is>
       </c>
       <c r="E577" t="n">
-        <v>-437275.597417138</v>
+        <v>29.10816187106574</v>
       </c>
     </row>
     <row r="578">
@@ -15071,7 +15071,7 @@
         </is>
       </c>
       <c r="E578" t="n">
-        <v>-1267706.180550297</v>
+        <v>29.02985780558321</v>
       </c>
     </row>
     <row r="579">
@@ -15096,7 +15096,7 @@
         </is>
       </c>
       <c r="E579" t="n">
-        <v>-83931.21258627591</v>
+        <v>29.16735020095835</v>
       </c>
     </row>
     <row r="580">
@@ -15121,7 +15121,7 @@
         </is>
       </c>
       <c r="E580" t="n">
-        <v>127314.9826592692</v>
+        <v>29.1871298965138</v>
       </c>
     </row>
     <row r="581">
@@ -15146,7 +15146,7 @@
         </is>
       </c>
       <c r="E581" t="n">
-        <v>207184.9256464763</v>
+        <v>29.19537669815941</v>
       </c>
     </row>
     <row r="582">
@@ -15171,7 +15171,7 @@
         </is>
       </c>
       <c r="E582" t="n">
-        <v>408140.54396289</v>
+        <v>29.22724358514822</v>
       </c>
     </row>
     <row r="583">
@@ -15196,7 +15196,7 @@
         </is>
       </c>
       <c r="E583" t="n">
-        <v>332721.0421164826</v>
+        <v>29.25017469554202</v>
       </c>
     </row>
     <row r="584">
@@ -15221,7 +15221,7 @@
         </is>
       </c>
       <c r="E584" t="n">
-        <v>-273129.5397338666</v>
+        <v>29.07288732768294</v>
       </c>
     </row>
     <row r="585">
@@ -15246,7 +15246,7 @@
         </is>
       </c>
       <c r="E585" t="n">
-        <v>59178.07186850165</v>
+        <v>29.20611699314326</v>
       </c>
     </row>
     <row r="586">
@@ -15271,7 +15271,7 @@
         </is>
       </c>
       <c r="E586" t="n">
-        <v>225334.623678487</v>
+        <v>29.21445727541466</v>
       </c>
     </row>
     <row r="587">
@@ -15296,7 +15296,7 @@
         </is>
       </c>
       <c r="E587" t="n">
-        <v>-1662208.892723839</v>
+        <v>29.10588415320246</v>
       </c>
     </row>
     <row r="588">
@@ -15321,7 +15321,7 @@
         </is>
       </c>
       <c r="E588" t="n">
-        <v>-1178720.762216649</v>
+        <v>29.12882831150618</v>
       </c>
     </row>
     <row r="589">
@@ -15346,7 +15346,7 @@
         </is>
       </c>
       <c r="E589" t="n">
-        <v>-218124.3235940969</v>
+        <v>29.1432123742019</v>
       </c>
     </row>
     <row r="590">
@@ -15371,7 +15371,7 @@
         </is>
       </c>
       <c r="E590" t="n">
-        <v>-3280188.034333793</v>
+        <v>29.06929312135525</v>
       </c>
     </row>
     <row r="591">
@@ -15396,7 +15396,7 @@
         </is>
       </c>
       <c r="E591" t="n">
-        <v>-1079481.77984685</v>
+        <v>29.13727472389233</v>
       </c>
     </row>
     <row r="592">
@@ -15421,7 +15421,7 @@
         </is>
       </c>
       <c r="E592" t="n">
-        <v>-344473.8547666558</v>
+        <v>29.14814834982619</v>
       </c>
     </row>
     <row r="593">
@@ -15446,7 +15446,7 @@
         </is>
       </c>
       <c r="E593" t="n">
-        <v>-3335083.495388114</v>
+        <v>29.08231875693179</v>
       </c>
     </row>
     <row r="594">
@@ -15471,7 +15471,7 @@
         </is>
       </c>
       <c r="E594" t="n">
-        <v>476314.2195848126</v>
+        <v>29.17811589954243</v>
       </c>
     </row>
     <row r="595">
@@ -15496,7 +15496,7 @@
         </is>
       </c>
       <c r="E595" t="n">
-        <v>1059113.073658593</v>
+        <v>29.18284366765577</v>
       </c>
     </row>
     <row r="596">
@@ -15521,7 +15521,7 @@
         </is>
       </c>
       <c r="E596" t="n">
-        <v>29102.23779224642</v>
+        <v>29.19725955436075</v>
       </c>
     </row>
     <row r="597">
@@ -15546,7 +15546,7 @@
         </is>
       </c>
       <c r="E597" t="n">
-        <v>764710.01887864</v>
+        <v>29.20603252664083</v>
       </c>
     </row>
     <row r="598">
@@ -15571,7 +15571,7 @@
         </is>
       </c>
       <c r="E598" t="n">
-        <v>1169354.182018213</v>
+        <v>29.22303200914524</v>
       </c>
     </row>
     <row r="599">
@@ -15596,7 +15596,7 @@
         </is>
       </c>
       <c r="E599" t="n">
-        <v>95567.90441664805</v>
+        <v>29.13381831714463</v>
       </c>
     </row>
     <row r="600">
@@ -15621,7 +15621,7 @@
         </is>
       </c>
       <c r="E600" t="n">
-        <v>1571280.763967237</v>
+        <v>29.19448884788321</v>
       </c>
     </row>
     <row r="601">
@@ -15646,7 +15646,7 @@
         </is>
       </c>
       <c r="E601" t="n">
-        <v>2549748.498104834</v>
+        <v>29.22769145094649</v>
       </c>
     </row>
     <row r="602">
@@ -15671,7 +15671,7 @@
         </is>
       </c>
       <c r="E602" t="n">
-        <v>-1435124.400978344</v>
+        <v>29.07318773930141</v>
       </c>
     </row>
     <row r="603">
@@ -15696,7 +15696,7 @@
         </is>
       </c>
       <c r="E603" t="n">
-        <v>-625396.4699528768</v>
+        <v>29.11224739109479</v>
       </c>
     </row>
     <row r="604">
@@ -15721,7 +15721,7 @@
         </is>
       </c>
       <c r="E604" t="n">
-        <v>-494344.3704725049</v>
+        <v>29.13868568331002</v>
       </c>
     </row>
     <row r="605">
@@ -15746,7 +15746,7 @@
         </is>
       </c>
       <c r="E605" t="n">
-        <v>-2096577.301120956</v>
+        <v>29.0186175588034</v>
       </c>
     </row>
     <row r="606">
@@ -15771,7 +15771,7 @@
         </is>
       </c>
       <c r="E606" t="n">
-        <v>-938563.2824190275</v>
+        <v>29.09356695299289</v>
       </c>
     </row>
     <row r="607">
@@ -15796,7 +15796,7 @@
         </is>
       </c>
       <c r="E607" t="n">
-        <v>-605602.3031723337</v>
+        <v>29.12895784257306</v>
       </c>
     </row>
     <row r="608">
@@ -15821,7 +15821,7 @@
         </is>
       </c>
       <c r="E608" t="n">
-        <v>-2179676.406493628</v>
+        <v>29.02619948399083</v>
       </c>
     </row>
     <row r="609">
@@ -15846,7 +15846,7 @@
         </is>
       </c>
       <c r="E609" t="n">
-        <v>-1502.368052819359</v>
+        <v>29.15119870141054</v>
       </c>
     </row>
     <row r="610">
@@ -15871,7 +15871,7 @@
         </is>
       </c>
       <c r="E610" t="n">
-        <v>165082.5221889713</v>
+        <v>29.20153826576374</v>
       </c>
     </row>
     <row r="611">
@@ -15896,7 +15896,7 @@
         </is>
       </c>
       <c r="E611" t="n">
-        <v>-46565.36579494991</v>
+        <v>29.15102370899439</v>
       </c>
     </row>
     <row r="612">
@@ -15921,7 +15921,7 @@
         </is>
       </c>
       <c r="E612" t="n">
-        <v>350735.1977248435</v>
+        <v>29.18812540465032</v>
       </c>
     </row>
     <row r="613">
@@ -15946,7 +15946,7 @@
         </is>
       </c>
       <c r="E613" t="n">
-        <v>309214.6795928807</v>
+        <v>29.21639068596403</v>
       </c>
     </row>
     <row r="614">
@@ -15971,7 +15971,7 @@
         </is>
       </c>
       <c r="E614" t="n">
-        <v>-680638.5181122104</v>
+        <v>29.08148202147251</v>
       </c>
     </row>
     <row r="615">
@@ -15996,7 +15996,7 @@
         </is>
       </c>
       <c r="E615" t="n">
-        <v>491408.7690857789</v>
+        <v>29.22577275006051</v>
       </c>
     </row>
     <row r="616">
@@ -16021,7 +16021,7 @@
         </is>
       </c>
       <c r="E616" t="n">
-        <v>679652.2427282078</v>
+        <v>29.25225122108297</v>
       </c>
     </row>
     <row r="617">
@@ -16046,7 +16046,7 @@
         </is>
       </c>
       <c r="E617" t="n">
-        <v>-579809.3684664206</v>
+        <v>29.11009902376782</v>
       </c>
     </row>
     <row r="618">
@@ -16071,7 +16071,7 @@
         </is>
       </c>
       <c r="E618" t="n">
-        <v>296073.8248956738</v>
+        <v>29.1716583695033</v>
       </c>
     </row>
     <row r="619">
@@ -16096,7 +16096,7 @@
         </is>
       </c>
       <c r="E619" t="n">
-        <v>601412.72825539</v>
+        <v>29.20329395603635</v>
       </c>
     </row>
     <row r="620">
@@ -16121,7 +16121,7 @@
         </is>
       </c>
       <c r="E620" t="n">
-        <v>-1340396.222036866</v>
+        <v>29.04450590949487</v>
       </c>
     </row>
     <row r="621">
@@ -16146,7 +16146,7 @@
         </is>
       </c>
       <c r="E621" t="n">
-        <v>3507.408371033343</v>
+        <v>29.15734271290562</v>
       </c>
     </row>
     <row r="622">
@@ -16171,7 +16171,7 @@
         </is>
       </c>
       <c r="E622" t="n">
-        <v>280839.2768802925</v>
+        <v>29.19361941090867</v>
       </c>
     </row>
     <row r="623">
@@ -16196,7 +16196,7 @@
         </is>
       </c>
       <c r="E623" t="n">
-        <v>-1328101.294299329</v>
+        <v>29.05280437861856</v>
       </c>
     </row>
     <row r="624">
@@ -16221,7 +16221,7 @@
         </is>
       </c>
       <c r="E624" t="n">
-        <v>1388746.765054101</v>
+        <v>29.23890218895134</v>
       </c>
     </row>
     <row r="625">
@@ -16246,7 +16246,7 @@
         </is>
       </c>
       <c r="E625" t="n">
-        <v>1557087.646986384</v>
+        <v>29.2895169765779</v>
       </c>
     </row>
     <row r="626">
@@ -16271,7 +16271,7 @@
         </is>
       </c>
       <c r="E626" t="n">
-        <v>1273330.220870797</v>
+        <v>29.31472521921424</v>
       </c>
     </row>
     <row r="627">
@@ -16296,7 +16296,7 @@
         </is>
       </c>
       <c r="E627" t="n">
-        <v>1495898.350986832</v>
+        <v>29.34520232160852</v>
       </c>
     </row>
     <row r="628">
@@ -16321,7 +16321,7 @@
         </is>
       </c>
       <c r="E628" t="n">
-        <v>1754221.733747776</v>
+        <v>29.39941770593565</v>
       </c>
     </row>
     <row r="629">
@@ -16346,7 +16346,7 @@
         </is>
       </c>
       <c r="E629" t="n">
-        <v>-40833.954524277</v>
+        <v>29.15490207602031</v>
       </c>
     </row>
     <row r="630">
@@ -16371,7 +16371,7 @@
         </is>
       </c>
       <c r="E630" t="n">
-        <v>1233200.586795089</v>
+        <v>29.35140736248434</v>
       </c>
     </row>
     <row r="631">
@@ -16396,7 +16396,7 @@
         </is>
       </c>
       <c r="E631" t="n">
-        <v>1493146.092852903</v>
+        <v>29.3930446265827</v>
       </c>
     </row>
     <row r="632">
@@ -16421,7 +16421,7 @@
         </is>
       </c>
       <c r="E632" t="n">
-        <v>-1742164.331821255</v>
+        <v>29.1174767929346</v>
       </c>
     </row>
     <row r="633">
@@ -16446,7 +16446,7 @@
         </is>
       </c>
       <c r="E633" t="n">
-        <v>802659.5863914543</v>
+        <v>29.16079590222572</v>
       </c>
     </row>
     <row r="634">
@@ -16471,7 +16471,7 @@
         </is>
       </c>
       <c r="E634" t="n">
-        <v>1032301.378394744</v>
+        <v>29.17153713524323</v>
       </c>
     </row>
     <row r="635">
@@ -16496,7 +16496,7 @@
         </is>
       </c>
       <c r="E635" t="n">
-        <v>-2647987.113688394</v>
+        <v>29.0922396977542</v>
       </c>
     </row>
     <row r="636">
@@ -16521,7 +16521,7 @@
         </is>
       </c>
       <c r="E636" t="n">
-        <v>1031704.141451569</v>
+        <v>29.17167076805698</v>
       </c>
     </row>
     <row r="637">
@@ -16546,7 +16546,7 @@
         </is>
       </c>
       <c r="E637" t="n">
-        <v>1536670.677643466</v>
+        <v>29.18456753939988</v>
       </c>
     </row>
     <row r="638">
@@ -16571,7 +16571,7 @@
         </is>
       </c>
       <c r="E638" t="n">
-        <v>-2759201.126532369</v>
+        <v>29.10326632689863</v>
       </c>
     </row>
     <row r="639">
@@ -16596,7 +16596,7 @@
         </is>
       </c>
       <c r="E639" t="n">
-        <v>3238987.07320035</v>
+        <v>29.21630125708786</v>
       </c>
     </row>
     <row r="640">
@@ -16621,7 +16621,7 @@
         </is>
       </c>
       <c r="E640" t="n">
-        <v>3432361.582043523</v>
+        <v>29.21828716926731</v>
       </c>
     </row>
     <row r="641">
@@ -16646,7 +16646,7 @@
         </is>
       </c>
       <c r="E641" t="n">
-        <v>2878978.566625995</v>
+        <v>29.2503552227624</v>
       </c>
     </row>
     <row r="642">
@@ -16671,7 +16671,7 @@
         </is>
       </c>
       <c r="E642" t="n">
-        <v>3148871.502035134</v>
+        <v>29.27147805136179</v>
       </c>
     </row>
     <row r="643">
@@ -16696,7 +16696,7 @@
         </is>
       </c>
       <c r="E643" t="n">
-        <v>3079066.22690596</v>
+        <v>29.27573511509659</v>
       </c>
     </row>
     <row r="644">
@@ -16721,7 +16721,7 @@
         </is>
       </c>
       <c r="E644" t="n">
-        <v>-708948.7326022594</v>
+        <v>29.12184506884488</v>
       </c>
     </row>
     <row r="645">
@@ -16746,7 +16746,7 @@
         </is>
       </c>
       <c r="E645" t="n">
-        <v>2678193.053159161</v>
+        <v>29.23240514933644</v>
       </c>
     </row>
     <row r="646">
@@ -16771,7 +16771,7 @@
         </is>
       </c>
       <c r="E646" t="n">
-        <v>3040939.885129466</v>
+        <v>29.2536204412242</v>
       </c>
     </row>
     <row r="647">
@@ -16796,7 +16796,7 @@
         </is>
       </c>
       <c r="E647" t="n">
-        <v>-1205633.991521959</v>
+        <v>29.09512539389365</v>
       </c>
     </row>
     <row r="648">
@@ -16821,7 +16821,7 @@
         </is>
       </c>
       <c r="E648" t="n">
-        <v>133819.5488703281</v>
+        <v>29.15459725032737</v>
       </c>
     </row>
     <row r="649">
@@ -16846,7 +16846,7 @@
         </is>
       </c>
       <c r="E649" t="n">
-        <v>459042.0339032873</v>
+        <v>29.179889492949</v>
       </c>
     </row>
     <row r="650">
@@ -16871,7 +16871,7 @@
         </is>
       </c>
       <c r="E650" t="n">
-        <v>-1713301.114218087</v>
+        <v>29.0509266079177</v>
       </c>
     </row>
     <row r="651">
@@ -16896,7 +16896,7 @@
         </is>
       </c>
       <c r="E651" t="n">
-        <v>-160640.852059143</v>
+        <v>29.14194582860233</v>
       </c>
     </row>
     <row r="652">
@@ -16921,7 +16921,7 @@
         </is>
       </c>
       <c r="E652" t="n">
-        <v>370848.7176258056</v>
+        <v>29.17966484603127</v>
       </c>
     </row>
     <row r="653">
@@ -16946,7 +16946,7 @@
         </is>
       </c>
       <c r="E653" t="n">
-        <v>-1858380.06800025</v>
+        <v>29.06372230969655</v>
       </c>
     </row>
     <row r="654">
@@ -16971,7 +16971,7 @@
         </is>
       </c>
       <c r="E654" t="n">
-        <v>1112849.716924619</v>
+        <v>29.20494930390129</v>
       </c>
     </row>
     <row r="655">
@@ -16996,7 +16996,7 @@
         </is>
       </c>
       <c r="E655" t="n">
-        <v>1853270.57970652</v>
+        <v>29.24970172166652</v>
       </c>
     </row>
     <row r="656">
@@ -17021,7 +17021,7 @@
         </is>
       </c>
       <c r="E656" t="n">
-        <v>631018.3724643061</v>
+        <v>29.21101196434364</v>
       </c>
     </row>
     <row r="657">
@@ -17046,7 +17046,7 @@
         </is>
       </c>
       <c r="E657" t="n">
-        <v>1096529.093513769</v>
+        <v>29.25851681925032</v>
       </c>
     </row>
     <row r="658">
@@ -17071,7 +17071,7 @@
         </is>
       </c>
       <c r="E658" t="n">
-        <v>1032854.548426774</v>
+        <v>29.27866373908755</v>
       </c>
     </row>
     <row r="659">
@@ -17096,7 +17096,7 @@
         </is>
       </c>
       <c r="E659" t="n">
-        <v>-774731.4879401133</v>
+        <v>29.07168806389745</v>
       </c>
     </row>
     <row r="660">
@@ -17121,7 +17121,7 @@
         </is>
       </c>
       <c r="E660" t="n">
-        <v>1159817.32236046</v>
+        <v>29.26172036729231</v>
       </c>
     </row>
     <row r="661">
@@ -17146,7 +17146,7 @@
         </is>
       </c>
       <c r="E661" t="n">
-        <v>1433559.58545159</v>
+        <v>29.28711643175189</v>
       </c>
     </row>
     <row r="662">
@@ -17171,7 +17171,7 @@
         </is>
       </c>
       <c r="E662" t="n">
-        <v>-828410.233550933</v>
+        <v>29.0977494891385</v>
       </c>
     </row>
     <row r="663">
@@ -17196,7 +17196,7 @@
         </is>
       </c>
       <c r="E663" t="n">
-        <v>544332.8685502321</v>
+        <v>29.18916490195599</v>
       </c>
     </row>
     <row r="664">
@@ -17221,7 +17221,7 @@
         </is>
       </c>
       <c r="E664" t="n">
-        <v>838053.8813197647</v>
+        <v>29.21519264831536</v>
       </c>
     </row>
     <row r="665">
@@ -17246,7 +17246,7 @@
         </is>
       </c>
       <c r="E665" t="n">
-        <v>-1375891.753674614</v>
+        <v>29.03896934856365</v>
       </c>
     </row>
     <row r="666">
@@ -17271,7 +17271,7 @@
         </is>
       </c>
       <c r="E666" t="n">
-        <v>363038.9428333958</v>
+        <v>29.18056191058077</v>
       </c>
     </row>
     <row r="667">
@@ -17296,7 +17296,7 @@
         </is>
       </c>
       <c r="E667" t="n">
-        <v>762725.4142954083</v>
+        <v>29.21341087566052</v>
       </c>
     </row>
     <row r="668">
@@ -17321,7 +17321,7 @@
         </is>
       </c>
       <c r="E668" t="n">
-        <v>-1502206.778640265</v>
+        <v>29.05782418269909</v>
       </c>
     </row>
     <row r="669">
@@ -17346,7 +17346,7 @@
         </is>
       </c>
       <c r="E669" t="n">
-        <v>1616281.833656983</v>
+        <v>29.26603376050055</v>
       </c>
     </row>
     <row r="670">
@@ -17371,7 +17371,7 @@
         </is>
       </c>
       <c r="E670" t="n">
-        <v>2004262.074499941</v>
+        <v>29.30627946275044</v>
       </c>
     </row>
     <row r="671">
@@ -17396,7 +17396,7 @@
         </is>
       </c>
       <c r="E671" t="n">
-        <v>1408021.178856228</v>
+        <v>29.33171251805019</v>
       </c>
     </row>
     <row r="672">
@@ -17421,7 +17421,7 @@
         </is>
       </c>
       <c r="E672" t="n">
-        <v>1829677.86446287</v>
+        <v>29.38344227651955</v>
       </c>
     </row>
     <row r="673">
@@ -17446,7 +17446,7 @@
         </is>
       </c>
       <c r="E673" t="n">
-        <v>2066772.172628336</v>
+        <v>29.41749842540647</v>
       </c>
     </row>
     <row r="674">
@@ -17471,7 +17471,7 @@
         </is>
       </c>
       <c r="E674" t="n">
-        <v>-565518.6945817458</v>
+        <v>29.09139646156405</v>
       </c>
     </row>
     <row r="675">
@@ -17496,7 +17496,7 @@
         </is>
       </c>
       <c r="E675" t="n">
-        <v>1584145.369854525</v>
+        <v>29.36194364841321</v>
       </c>
     </row>
     <row r="676">
@@ -17521,7 +17521,7 @@
         </is>
       </c>
       <c r="E676" t="n">
-        <v>1842495.587164711</v>
+        <v>29.38612005429049</v>
       </c>
     </row>
     <row r="677">
@@ -17546,7 +17546,7 @@
         </is>
       </c>
       <c r="E677" t="n">
-        <v>-1416868.485308124</v>
+        <v>29.11143145818919</v>
       </c>
     </row>
     <row r="678">
@@ -17571,7 +17571,7 @@
         </is>
       </c>
       <c r="E678" t="n">
-        <v>-298704.8578805732</v>
+        <v>29.14605358024913</v>
       </c>
     </row>
     <row r="679">
@@ -17596,7 +17596,7 @@
         </is>
       </c>
       <c r="E679" t="n">
-        <v>756301.3458166937</v>
+        <v>29.15711075946783</v>
       </c>
     </row>
     <row r="680">
@@ -17621,7 +17621,7 @@
         </is>
       </c>
       <c r="E680" t="n">
-        <v>-3620252.811747561</v>
+        <v>29.08899769783266</v>
       </c>
     </row>
     <row r="681">
@@ -17646,7 +17646,7 @@
         </is>
       </c>
       <c r="E681" t="n">
-        <v>1428623.623132733</v>
+        <v>29.16579681098058</v>
       </c>
     </row>
     <row r="682">
@@ -17671,7 +17671,7 @@
         </is>
       </c>
       <c r="E682" t="n">
-        <v>2140909.190049461</v>
+        <v>29.17445112466185</v>
       </c>
     </row>
     <row r="683">
@@ -17696,7 +17696,7 @@
         </is>
       </c>
       <c r="E683" t="n">
-        <v>-3649471.907910923</v>
+        <v>29.09896546763924</v>
       </c>
     </row>
     <row r="684">
@@ -17721,7 +17721,7 @@
         </is>
       </c>
       <c r="E684" t="n">
-        <v>3953561.631486464</v>
+        <v>29.20541069580459</v>
       </c>
     </row>
     <row r="685">
@@ -17746,7 +17746,7 @@
         </is>
       </c>
       <c r="E685" t="n">
-        <v>4193027.673437386</v>
+        <v>29.20883842283018</v>
       </c>
     </row>
     <row r="686">
@@ -17771,7 +17771,7 @@
         </is>
       </c>
       <c r="E686" t="n">
-        <v>3173801.866741309</v>
+        <v>29.22775706227511</v>
       </c>
     </row>
     <row r="687">
@@ -17796,7 +17796,7 @@
         </is>
       </c>
       <c r="E687" t="n">
-        <v>3425908.664487251</v>
+        <v>29.24268103568371</v>
       </c>
     </row>
     <row r="688">
@@ -17821,7 +17821,7 @@
         </is>
       </c>
       <c r="E688" t="n">
-        <v>3593461.655266978</v>
+        <v>29.24710573949972</v>
       </c>
     </row>
     <row r="689">
@@ -17846,7 +17846,7 @@
         </is>
       </c>
       <c r="E689" t="n">
-        <v>-920312.0281200819</v>
+        <v>29.11842522269104</v>
       </c>
     </row>
     <row r="690">
@@ -17871,7 +17871,7 @@
         </is>
       </c>
       <c r="E690" t="n">
-        <v>1289782.10448797</v>
+        <v>29.19866571833269</v>
       </c>
     </row>
     <row r="691">
@@ -17896,7 +17896,7 @@
         </is>
       </c>
       <c r="E691" t="n">
-        <v>3533143.009673229</v>
+        <v>29.2301271606104</v>
       </c>
     </row>
     <row r="692">
@@ -17921,7 +17921,7 @@
         </is>
       </c>
       <c r="E692" t="n">
-        <v>-883334.769780018</v>
+        <v>29.11069172438149</v>
       </c>
     </row>
     <row r="693">
@@ -17946,7 +17946,7 @@
         </is>
       </c>
       <c r="E693" t="n">
-        <v>548130.9518116126</v>
+        <v>29.16527280471439</v>
       </c>
     </row>
     <row r="694">
@@ -17971,7 +17971,7 @@
         </is>
       </c>
       <c r="E694" t="n">
-        <v>768223.8806824358</v>
+        <v>29.18750075896682</v>
       </c>
     </row>
     <row r="695">
@@ -17996,7 +17996,7 @@
         </is>
       </c>
       <c r="E695" t="n">
-        <v>-2216976.933964967</v>
+        <v>29.07163486557051</v>
       </c>
     </row>
     <row r="696">
@@ -18021,7 +18021,7 @@
         </is>
       </c>
       <c r="E696" t="n">
-        <v>262731.4035284457</v>
+        <v>29.16187921329405</v>
       </c>
     </row>
     <row r="697">
@@ -18046,7 +18046,7 @@
         </is>
       </c>
       <c r="E697" t="n">
-        <v>701162.9564473098</v>
+        <v>29.19344582921276</v>
       </c>
     </row>
     <row r="698">
@@ -18071,7 +18071,7 @@
         </is>
       </c>
       <c r="E698" t="n">
-        <v>-2524926.644754558</v>
+        <v>29.07666802229161</v>
       </c>
     </row>
     <row r="699">
@@ -18096,7 +18096,7 @@
         </is>
       </c>
       <c r="E699" t="n">
-        <v>2024173.976737297</v>
+        <v>29.21744748516235</v>
       </c>
     </row>
     <row r="700">
@@ -18121,7 +18121,7 @@
         </is>
       </c>
       <c r="E700" t="n">
-        <v>2787680.580992083</v>
+        <v>29.26217158005264</v>
       </c>
     </row>
     <row r="701">
@@ -18146,7 +18146,7 @@
         </is>
       </c>
       <c r="E701" t="n">
-        <v>1272940.674696144</v>
+        <v>29.22863597002472</v>
       </c>
     </row>
     <row r="702">
@@ -18171,7 +18171,7 @@
         </is>
       </c>
       <c r="E702" t="n">
-        <v>1661983.49540492</v>
+        <v>29.27031309340877</v>
       </c>
     </row>
     <row r="703">
@@ -18196,7 +18196,7 @@
         </is>
       </c>
       <c r="E703" t="n">
-        <v>1711952.187549951</v>
+        <v>29.28582212547101</v>
       </c>
     </row>
     <row r="704">
@@ -18221,7 +18221,7 @@
         </is>
       </c>
       <c r="E704" t="n">
-        <v>-535764.3690301777</v>
+        <v>29.10849177558969</v>
       </c>
     </row>
     <row r="705">
@@ -18246,7 +18246,7 @@
         </is>
       </c>
       <c r="E705" t="n">
-        <v>1960554.223009306</v>
+        <v>29.28344819725057</v>
       </c>
     </row>
     <row r="706">
@@ -18271,7 +18271,7 @@
         </is>
       </c>
       <c r="E706" t="n">
-        <v>2180227.519136665</v>
+        <v>29.30728435068845</v>
       </c>
     </row>
     <row r="707">
@@ -18296,7 +18296,7 @@
         </is>
       </c>
       <c r="E707" t="n">
-        <v>-529791.3370398459</v>
+        <v>29.11921938352328</v>
       </c>
     </row>
     <row r="708">
@@ -18321,7 +18321,7 @@
         </is>
       </c>
       <c r="E708" t="n">
-        <v>897731.3542378062</v>
+        <v>29.19512841575851</v>
       </c>
     </row>
     <row r="709">
@@ -18346,7 +18346,7 @@
         </is>
       </c>
       <c r="E709" t="n">
-        <v>1211477.049811449</v>
+        <v>29.21815449251952</v>
       </c>
     </row>
     <row r="710">
@@ -18371,7 +18371,7 @@
         </is>
       </c>
       <c r="E710" t="n">
-        <v>-1669822.789825112</v>
+        <v>29.0670209959783</v>
       </c>
     </row>
     <row r="711">
@@ -18396,7 +18396,7 @@
         </is>
       </c>
       <c r="E711" t="n">
-        <v>795327.5642891811</v>
+        <v>29.19235269828717</v>
       </c>
     </row>
     <row r="712">
@@ -18421,7 +18421,7 @@
         </is>
       </c>
       <c r="E712" t="n">
-        <v>1217797.178370415</v>
+        <v>29.22036929045149</v>
       </c>
     </row>
     <row r="713">
@@ -18446,7 +18446,7 @@
         </is>
       </c>
       <c r="E713" t="n">
-        <v>-1940613.052306528</v>
+        <v>29.07225291973247</v>
       </c>
     </row>
     <row r="714">
@@ -18471,7 +18471,7 @@
         </is>
       </c>
       <c r="E714" t="n">
-        <v>2746143.611988722</v>
+        <v>29.26843663686222</v>
       </c>
     </row>
     <row r="715">
@@ -18496,7 +18496,7 @@
         </is>
       </c>
       <c r="E715" t="n">
-        <v>3013712.362213483</v>
+        <v>29.30844992780647</v>
       </c>
     </row>
     <row r="716">
@@ -18521,7 +18521,7 @@
         </is>
       </c>
       <c r="E716" t="n">
-        <v>2373584.290561658</v>
+        <v>29.33455906773276</v>
       </c>
     </row>
     <row r="717">
@@ -18546,7 +18546,7 @@
         </is>
       </c>
       <c r="E717" t="n">
-        <v>2630769.740605417</v>
+        <v>29.37231647544203</v>
       </c>
     </row>
     <row r="718">
@@ -18571,7 +18571,7 @@
         </is>
       </c>
       <c r="E718" t="n">
-        <v>2775194.451877314</v>
+        <v>29.40256091450908</v>
       </c>
     </row>
     <row r="719">
@@ -18596,7 +18596,7 @@
         </is>
       </c>
       <c r="E719" t="n">
-        <v>-286628.9871504401</v>
+        <v>29.12792195150481</v>
       </c>
     </row>
     <row r="720">
@@ -18621,7 +18621,7 @@
         </is>
       </c>
       <c r="E720" t="n">
-        <v>2294955.985839015</v>
+        <v>29.35733262322374</v>
       </c>
     </row>
     <row r="721">
@@ -18646,7 +18646,7 @@
         </is>
       </c>
       <c r="E721" t="n">
-        <v>2505856.719063189</v>
+        <v>29.38350429210217</v>
       </c>
     </row>
     <row r="722">
@@ -18671,7 +18671,7 @@
         </is>
       </c>
       <c r="E722" t="n">
-        <v>-2884496.188243503</v>
+        <v>29.12548771765777</v>
       </c>
     </row>
     <row r="723">
@@ -18696,7 +18696,7 @@
         </is>
       </c>
       <c r="E723" t="n">
-        <v>-2158641.233004916</v>
+        <v>29.14859693421815</v>
       </c>
     </row>
     <row r="724">
@@ -18721,7 +18721,7 @@
         </is>
       </c>
       <c r="E724" t="n">
-        <v>-531241.123116399</v>
+        <v>29.15451687537116</v>
       </c>
     </row>
     <row r="725">
@@ -18746,7 +18746,7 @@
         </is>
       </c>
       <c r="E725" t="n">
-        <v>-4760874.631214467</v>
+        <v>29.12477756902122</v>
       </c>
     </row>
     <row r="726">
@@ -18771,7 +18771,7 @@
         </is>
       </c>
       <c r="E726" t="n">
-        <v>6547444.122960431</v>
+        <v>29.18115374532897</v>
       </c>
     </row>
     <row r="727">
@@ -18796,7 +18796,7 @@
         </is>
       </c>
       <c r="E727" t="n">
-        <v>6332578.17979214</v>
+        <v>29.18497309553083</v>
       </c>
     </row>
     <row r="728">
@@ -18821,7 +18821,7 @@
         </is>
       </c>
       <c r="E728" t="n">
-        <v>-6428239.358333562</v>
+        <v>29.11939711906954</v>
       </c>
     </row>
     <row r="729">
@@ -18846,7 +18846,7 @@
         </is>
       </c>
       <c r="E729" t="n">
-        <v>7544263.008204174</v>
+        <v>29.19430550414317</v>
       </c>
     </row>
     <row r="730">
@@ -18871,7 +18871,7 @@
         </is>
       </c>
       <c r="E730" t="n">
-        <v>6417538.411312211</v>
+        <v>29.19388377696048</v>
       </c>
     </row>
     <row r="731">
@@ -18896,7 +18896,7 @@
         </is>
       </c>
       <c r="E731" t="n">
-        <v>5711443.797335299</v>
+        <v>29.2118323631413</v>
       </c>
     </row>
     <row r="732">
@@ -18921,7 +18921,7 @@
         </is>
       </c>
       <c r="E732" t="n">
-        <v>6184534.19943081</v>
+        <v>29.21726541378171</v>
       </c>
     </row>
     <row r="733">
@@ -18946,7 +18946,7 @@
         </is>
       </c>
       <c r="E733" t="n">
-        <v>6104230.670084358</v>
+        <v>29.22233451123511</v>
       </c>
     </row>
     <row r="734">
@@ -18971,7 +18971,7 @@
         </is>
       </c>
       <c r="E734" t="n">
-        <v>-822814.8917100255</v>
+        <v>29.1428624288199</v>
       </c>
     </row>
     <row r="735">
@@ -18996,7 +18996,7 @@
         </is>
       </c>
       <c r="E735" t="n">
-        <v>2294724.574356371</v>
+        <v>29.18918826475043</v>
       </c>
     </row>
     <row r="736">
@@ -19021,7 +19021,7 @@
         </is>
       </c>
       <c r="E736" t="n">
-        <v>5400550.068994449</v>
+        <v>29.21676265220342</v>
       </c>
     </row>
     <row r="737">
@@ -19046,7 +19046,7 @@
         </is>
       </c>
       <c r="E737" t="n">
-        <v>-1281508.98561231</v>
+        <v>29.12479007345916</v>
       </c>
     </row>
     <row r="738">
@@ -19071,7 +19071,7 @@
         </is>
       </c>
       <c r="E738" t="n">
-        <v>440059.5705135769</v>
+        <v>29.16009416789502</v>
       </c>
     </row>
     <row r="739">
@@ -19096,7 +19096,7 @@
         </is>
       </c>
       <c r="E739" t="n">
-        <v>861692.7876470843</v>
+        <v>29.17438009342307</v>
       </c>
     </row>
     <row r="740">
@@ -19121,7 +19121,7 @@
         </is>
       </c>
       <c r="E740" t="n">
-        <v>522254.6656471348</v>
+        <v>29.12886295354236</v>
       </c>
     </row>
     <row r="741">
@@ -19146,7 +19146,7 @@
         </is>
       </c>
       <c r="E741" t="n">
-        <v>2961970.832187399</v>
+        <v>29.18803042739125</v>
       </c>
     </row>
     <row r="742">
@@ -19171,7 +19171,7 @@
         </is>
       </c>
       <c r="E742" t="n">
-        <v>3645370.193628349</v>
+        <v>29.21026179964307</v>
       </c>
     </row>
     <row r="743">
@@ -19196,7 +19196,7 @@
         </is>
       </c>
       <c r="E743" t="n">
-        <v>-3890616.223918508</v>
+        <v>29.10328716060768</v>
       </c>
     </row>
     <row r="744">
@@ -19221,7 +19221,7 @@
         </is>
       </c>
       <c r="E744" t="n">
-        <v>3356503.724804214</v>
+        <v>29.20039137436655</v>
       </c>
     </row>
     <row r="745">
@@ -19246,7 +19246,7 @@
         </is>
       </c>
       <c r="E745" t="n">
-        <v>4424841.155871317</v>
+        <v>29.23029491573335</v>
       </c>
     </row>
     <row r="746">
@@ -19271,7 +19271,7 @@
         </is>
       </c>
       <c r="E746" t="n">
-        <v>1971851.296019627</v>
+        <v>29.2083907076005</v>
       </c>
     </row>
     <row r="747">
@@ -19296,7 +19296,7 @@
         </is>
       </c>
       <c r="E747" t="n">
-        <v>2804789.698667704</v>
+        <v>29.23152252169133</v>
       </c>
     </row>
     <row r="748">
@@ -19321,7 +19321,7 @@
         </is>
       </c>
       <c r="E748" t="n">
-        <v>2649167.155120359</v>
+        <v>29.24348197584195</v>
       </c>
     </row>
     <row r="749">
@@ -19346,7 +19346,7 @@
         </is>
       </c>
       <c r="E749" t="n">
-        <v>-247487.9088979574</v>
+        <v>29.13278872593922</v>
       </c>
     </row>
     <row r="750">
@@ -19371,7 +19371,7 @@
         </is>
       </c>
       <c r="E750" t="n">
-        <v>3173555.128156895</v>
+        <v>29.24040694242838</v>
       </c>
     </row>
     <row r="751">
@@ -19396,7 +19396,7 @@
         </is>
       </c>
       <c r="E751" t="n">
-        <v>3573560.845865689</v>
+        <v>29.26503471106775</v>
       </c>
     </row>
     <row r="752">
@@ -19421,7 +19421,7 @@
         </is>
       </c>
       <c r="E752" t="n">
-        <v>-415215.220874305</v>
+        <v>29.13337492936398</v>
       </c>
     </row>
     <row r="753">
@@ -19446,7 +19446,7 @@
         </is>
       </c>
       <c r="E753" t="n">
-        <v>1558699.716934482</v>
+        <v>29.18227039670665</v>
       </c>
     </row>
     <row r="754">
@@ -19471,7 +19471,7 @@
         </is>
       </c>
       <c r="E754" t="n">
-        <v>1953930.668914347</v>
+        <v>29.19745511148036</v>
       </c>
     </row>
     <row r="755">
@@ -19496,7 +19496,7 @@
         </is>
       </c>
       <c r="E755" t="n">
-        <v>613625.5199603961</v>
+        <v>29.1312354552953</v>
       </c>
     </row>
     <row r="756">
@@ -19521,7 +19521,7 @@
         </is>
       </c>
       <c r="E756" t="n">
-        <v>3170293.20995112</v>
+        <v>29.21287220001555</v>
       </c>
     </row>
     <row r="757">
@@ -19546,7 +19546,7 @@
         </is>
       </c>
       <c r="E757" t="n">
-        <v>3489165.508781008</v>
+        <v>29.2327255221</v>
       </c>
     </row>
     <row r="758">
@@ -19571,7 +19571,7 @@
         </is>
       </c>
       <c r="E758" t="n">
-        <v>-3044037.703802855</v>
+        <v>29.10371424951432</v>
       </c>
     </row>
     <row r="759">
@@ -19596,7 +19596,7 @@
         </is>
       </c>
       <c r="E759" t="n">
-        <v>4792772.468124971</v>
+        <v>29.23979283201372</v>
       </c>
     </row>
     <row r="760">
@@ -19621,7 +19621,7 @@
         </is>
       </c>
       <c r="E760" t="n">
-        <v>4875395.811385478</v>
+        <v>29.26724179365144</v>
       </c>
     </row>
     <row r="761">
@@ -19646,7 +19646,7 @@
         </is>
       </c>
       <c r="E761" t="n">
-        <v>4469072.222424133</v>
+        <v>29.29584217894863</v>
       </c>
     </row>
     <row r="762">
@@ -19671,7 +19671,7 @@
         </is>
       </c>
       <c r="E762" t="n">
-        <v>4473814.123454373</v>
+        <v>29.31195716789303</v>
       </c>
     </row>
     <row r="763">
@@ -19696,7 +19696,7 @@
         </is>
       </c>
       <c r="E763" t="n">
-        <v>4993763.860981609</v>
+        <v>29.33922827947446</v>
       </c>
     </row>
     <row r="764">
@@ -19721,7 +19721,7 @@
         </is>
       </c>
       <c r="E764" t="n">
-        <v>479042.7001244386</v>
+        <v>29.15775618020932</v>
       </c>
     </row>
     <row r="765">
@@ -19746,7 +19746,7 @@
         </is>
       </c>
       <c r="E765" t="n">
-        <v>4055599.702911058</v>
+        <v>29.29778127535639</v>
       </c>
     </row>
     <row r="766">
@@ -19771,7 +19771,7 @@
         </is>
       </c>
       <c r="E766" t="n">
-        <v>4551303.495503752</v>
+        <v>29.33061991907107</v>
       </c>
     </row>
     <row r="767">
@@ -19796,7 +19796,7 @@
         </is>
       </c>
       <c r="E767" t="n">
-        <v>-2472569.273552948</v>
+        <v>29.10329294419044</v>
       </c>
     </row>
     <row r="768">
@@ -19821,7 +19821,7 @@
         </is>
       </c>
       <c r="E768" t="n">
-        <v>-267378.8440855322</v>
+        <v>29.14282913698632</v>
       </c>
     </row>
     <row r="769">
@@ -19846,7 +19846,7 @@
         </is>
       </c>
       <c r="E769" t="n">
-        <v>651672.6920375484</v>
+        <v>29.15608619336374</v>
       </c>
     </row>
     <row r="770">
@@ -19871,7 +19871,7 @@
         </is>
       </c>
       <c r="E770" t="n">
-        <v>-4080204.391047996</v>
+        <v>29.08172973121251</v>
       </c>
     </row>
     <row r="771">
@@ -19896,7 +19896,7 @@
         </is>
       </c>
       <c r="E771" t="n">
-        <v>-990425.5547318681</v>
+        <v>29.15500422872027</v>
       </c>
     </row>
     <row r="772">
@@ -19921,7 +19921,7 @@
         </is>
       </c>
       <c r="E772" t="n">
-        <v>1305749.416818563</v>
+        <v>29.16971056355184</v>
       </c>
     </row>
     <row r="773">
@@ -19946,7 +19946,7 @@
         </is>
       </c>
       <c r="E773" t="n">
-        <v>-4366829.578492702</v>
+        <v>29.08846961989516</v>
       </c>
     </row>
     <row r="774">
@@ -19971,7 +19971,7 @@
         </is>
       </c>
       <c r="E774" t="n">
-        <v>2920659.71206969</v>
+        <v>29.19795399947693</v>
       </c>
     </row>
     <row r="775">
@@ -19996,7 +19996,7 @@
         </is>
       </c>
       <c r="E775" t="n">
-        <v>3678495.446388356</v>
+        <v>29.20249114688519</v>
       </c>
     </row>
     <row r="776">
@@ -20021,7 +20021,7 @@
         </is>
       </c>
       <c r="E776" t="n">
-        <v>2618606.844865075</v>
+        <v>29.22678314418099</v>
       </c>
     </row>
     <row r="777">
@@ -20046,7 +20046,7 @@
         </is>
       </c>
       <c r="E777" t="n">
-        <v>3012253.682178077</v>
+        <v>29.2401251699938</v>
       </c>
     </row>
     <row r="778">
@@ -20071,7 +20071,7 @@
         </is>
       </c>
       <c r="E778" t="n">
-        <v>3238087.22801448</v>
+        <v>29.24743504239169</v>
       </c>
     </row>
     <row r="779">
@@ -20096,7 +20096,7 @@
         </is>
       </c>
       <c r="E779" t="n">
-        <v>-1886309.495561256</v>
+        <v>29.09983209195319</v>
       </c>
     </row>
     <row r="780">
@@ -20121,7 +20121,7 @@
         </is>
       </c>
       <c r="E780" t="n">
-        <v>2538741.626503145</v>
+        <v>29.20043406655334</v>
       </c>
     </row>
     <row r="781">
@@ -20146,7 +20146,7 @@
         </is>
       </c>
       <c r="E781" t="n">
-        <v>3292472.275989157</v>
+        <v>29.2311553391976</v>
       </c>
     </row>
     <row r="782">
@@ -20171,7 +20171,7 @@
         </is>
       </c>
       <c r="E782" t="n">
-        <v>-1703529.241518878</v>
+        <v>29.08332675359055</v>
       </c>
     </row>
     <row r="783">
@@ -20196,7 +20196,7 @@
         </is>
       </c>
       <c r="E783" t="n">
-        <v>-13668.96216001873</v>
+        <v>29.14049862220203</v>
       </c>
     </row>
     <row r="784">
@@ -20221,7 +20221,7 @@
         </is>
       </c>
       <c r="E784" t="n">
-        <v>234423.7661392186</v>
+        <v>29.16640002487092</v>
       </c>
     </row>
     <row r="785">
@@ -20246,7 +20246,7 @@
         </is>
       </c>
       <c r="E785" t="n">
-        <v>-2497226.976716377</v>
+        <v>29.0397562805161</v>
       </c>
     </row>
     <row r="786">
@@ -20271,7 +20271,7 @@
         </is>
       </c>
       <c r="E786" t="n">
-        <v>-419760.1833105037</v>
+        <v>29.1284306202861</v>
       </c>
     </row>
     <row r="787">
@@ -20296,7 +20296,7 @@
         </is>
       </c>
       <c r="E787" t="n">
-        <v>30801.44464203082</v>
+        <v>29.1640046006939</v>
       </c>
     </row>
     <row r="788">
@@ -20321,7 +20321,7 @@
         </is>
       </c>
       <c r="E788" t="n">
-        <v>-2729501.994670119</v>
+        <v>29.04596970571029</v>
       </c>
     </row>
     <row r="789">
@@ -20346,7 +20346,7 @@
         </is>
       </c>
       <c r="E789" t="n">
-        <v>1164244.160411681</v>
+        <v>29.18611105125228</v>
       </c>
     </row>
     <row r="790">
@@ -20371,7 +20371,7 @@
         </is>
       </c>
       <c r="E790" t="n">
-        <v>1857698.305321843</v>
+        <v>29.2314507016576</v>
       </c>
     </row>
     <row r="791">
@@ -20396,7 +20396,7 @@
         </is>
       </c>
       <c r="E791" t="n">
-        <v>542937.9451159483</v>
+        <v>29.19308721190972</v>
       </c>
     </row>
     <row r="792">
@@ -20421,7 +20421,7 @@
         </is>
       </c>
       <c r="E792" t="n">
-        <v>1064705.527136177</v>
+        <v>29.23176317418822</v>
       </c>
     </row>
     <row r="793">
@@ -20446,7 +20446,7 @@
         </is>
       </c>
       <c r="E793" t="n">
-        <v>1038636.451984188</v>
+        <v>29.25261030752136</v>
       </c>
     </row>
     <row r="794">
@@ -20471,7 +20471,7 @@
         </is>
       </c>
       <c r="E794" t="n">
-        <v>-1505242.50261383</v>
+        <v>29.05644976602976</v>
       </c>
     </row>
     <row r="795">
@@ -20496,7 +20496,7 @@
         </is>
       </c>
       <c r="E795" t="n">
-        <v>613101.5049639218</v>
+        <v>29.23139915725157</v>
       </c>
     </row>
     <row r="796">
@@ -20521,7 +20521,7 @@
         </is>
       </c>
       <c r="E796" t="n">
-        <v>1419820.710798795</v>
+        <v>29.26602972687547</v>
       </c>
     </row>
     <row r="797">
@@ -20546,7 +20546,7 @@
         </is>
       </c>
       <c r="E797" t="n">
-        <v>-1300563.258214469</v>
+        <v>29.08649364398828</v>
       </c>
     </row>
     <row r="798">
@@ -20571,7 +20571,7 @@
         </is>
       </c>
       <c r="E798" t="n">
-        <v>280447.0000027024</v>
+        <v>29.16956852806672</v>
       </c>
     </row>
     <row r="799">
@@ -20596,7 +20596,7 @@
         </is>
       </c>
       <c r="E799" t="n">
-        <v>748231.0919969802</v>
+        <v>29.19965565685121</v>
       </c>
     </row>
     <row r="800">
@@ -20621,7 +20621,7 @@
         </is>
       </c>
       <c r="E800" t="n">
-        <v>-1998384.397573178</v>
+        <v>29.0298676560541</v>
       </c>
     </row>
     <row r="801">
@@ -20646,7 +20646,7 @@
         </is>
       </c>
       <c r="E801" t="n">
-        <v>203647.6322650938</v>
+        <v>29.16131356453491</v>
       </c>
     </row>
     <row r="802">
@@ -20671,7 +20671,7 @@
         </is>
       </c>
       <c r="E802" t="n">
-        <v>743068.9182691789</v>
+        <v>29.19598276540221</v>
       </c>
     </row>
     <row r="803">
@@ -20696,7 +20696,7 @@
         </is>
       </c>
       <c r="E803" t="n">
-        <v>-2184068.77753939</v>
+        <v>29.03849526872131</v>
       </c>
     </row>
     <row r="804">
@@ -20721,7 +20721,7 @@
         </is>
       </c>
       <c r="E804" t="n">
-        <v>1609927.303169495</v>
+        <v>29.2376538742906</v>
       </c>
     </row>
     <row r="805">
@@ -20746,7 +20746,7 @@
         </is>
       </c>
       <c r="E805" t="n">
-        <v>2264959.580156068</v>
+        <v>29.28310182993842</v>
       </c>
     </row>
     <row r="806">
@@ -20771,7 +20771,7 @@
         </is>
       </c>
       <c r="E806" t="n">
-        <v>1514340.156078592</v>
+        <v>29.30275886935565</v>
       </c>
     </row>
     <row r="807">
@@ -20796,7 +20796,7 @@
         </is>
       </c>
       <c r="E807" t="n">
-        <v>2098766.779714418</v>
+        <v>29.3412362415814</v>
       </c>
     </row>
     <row r="808">
@@ -20821,7 +20821,7 @@
         </is>
       </c>
       <c r="E808" t="n">
-        <v>2356061.241730683</v>
+        <v>29.38236984061565</v>
       </c>
     </row>
     <row r="809">
@@ -20846,7 +20846,7 @@
         </is>
       </c>
       <c r="E809" t="n">
-        <v>-1249307.582683664</v>
+        <v>29.07286112721377</v>
       </c>
     </row>
     <row r="810">
@@ -20871,7 +20871,7 @@
         </is>
       </c>
       <c r="E810" t="n">
-        <v>1666388.977435173</v>
+        <v>29.31614484897684</v>
       </c>
     </row>
     <row r="811">
@@ -20896,7 +20896,7 @@
         </is>
       </c>
       <c r="E811" t="n">
-        <v>2126779.548809755</v>
+        <v>29.35872554315488</v>
       </c>
     </row>
     <row r="812">
@@ -20921,7 +20921,7 @@
         </is>
       </c>
       <c r="E812" t="n">
-        <v>-2652960.318398585</v>
+        <v>29.0908229534026</v>
       </c>
     </row>
     <row r="813">
@@ -20946,7 +20946,7 @@
         </is>
       </c>
       <c r="E813" t="n">
-        <v>-2670541.16629257</v>
+        <v>29.10474895462442</v>
       </c>
     </row>
     <row r="814">
@@ -20971,7 +20971,7 @@
         </is>
       </c>
       <c r="E814" t="n">
-        <v>-2332645.640967434</v>
+        <v>29.11769081550976</v>
       </c>
     </row>
     <row r="815">
@@ -20996,7 +20996,7 @@
         </is>
       </c>
       <c r="E815" t="n">
-        <v>-4047390.226357562</v>
+        <v>29.05988421010423</v>
       </c>
     </row>
     <row r="816">
@@ -21021,7 +21021,7 @@
         </is>
       </c>
       <c r="E816" t="n">
-        <v>-1898762.259327706</v>
+        <v>29.11043337881999</v>
       </c>
     </row>
     <row r="817">
@@ -21046,7 +21046,7 @@
         </is>
       </c>
       <c r="E817" t="n">
-        <v>-1446211.749894994</v>
+        <v>29.12223926552957</v>
       </c>
     </row>
     <row r="818">
@@ -21071,7 +21071,7 @@
         </is>
       </c>
       <c r="E818" t="n">
-        <v>-3771071.223824203</v>
+        <v>29.07410148704884</v>
       </c>
     </row>
     <row r="819">
@@ -21096,7 +21096,7 @@
         </is>
       </c>
       <c r="E819" t="n">
-        <v>-646415.7718040464</v>
+        <v>29.14729434397638</v>
       </c>
     </row>
     <row r="820">
@@ -21121,7 +21121,7 @@
         </is>
       </c>
       <c r="E820" t="n">
-        <v>-460052.2293911402</v>
+        <v>29.1530396214888</v>
       </c>
     </row>
     <row r="821">
@@ -21146,7 +21146,7 @@
         </is>
       </c>
       <c r="E821" t="n">
-        <v>-900608.8043498248</v>
+        <v>29.14947680788955</v>
       </c>
     </row>
     <row r="822">
@@ -21171,7 +21171,7 @@
         </is>
       </c>
       <c r="E822" t="n">
-        <v>-412227.1097841717</v>
+        <v>29.15447166357306</v>
       </c>
     </row>
     <row r="823">
@@ -21196,7 +21196,7 @@
         </is>
       </c>
       <c r="E823" t="n">
-        <v>-154569.5720961969</v>
+        <v>29.17484755436779</v>
       </c>
     </row>
     <row r="824">
@@ -21221,7 +21221,7 @@
         </is>
       </c>
       <c r="E824" t="n">
-        <v>-1287593.874199505</v>
+        <v>29.07810840977541</v>
       </c>
     </row>
     <row r="825">
@@ -21246,7 +21246,7 @@
         </is>
       </c>
       <c r="E825" t="n">
-        <v>-868001.8985102889</v>
+        <v>29.12206024255438</v>
       </c>
     </row>
     <row r="826">
@@ -21271,7 +21271,7 @@
         </is>
       </c>
       <c r="E826" t="n">
-        <v>-302196.0106030729</v>
+        <v>29.14898378962823</v>
       </c>
     </row>
     <row r="827">
@@ -21296,7 +21296,7 @@
         </is>
       </c>
       <c r="E827" t="n">
-        <v>-1631982.024985516</v>
+        <v>29.10009002358723</v>
       </c>
     </row>
     <row r="828">
@@ -21321,7 +21321,7 @@
         </is>
       </c>
       <c r="E828" t="n">
-        <v>-287001.4509292445</v>
+        <v>29.13337046075647</v>
       </c>
     </row>
     <row r="829">
@@ -21346,7 +21346,7 @@
         </is>
       </c>
       <c r="E829" t="n">
-        <v>296671.3084025195</v>
+        <v>29.1610954679034</v>
       </c>
     </row>
     <row r="830">
@@ -21371,7 +21371,7 @@
         </is>
       </c>
       <c r="E830" t="n">
-        <v>-1985972.667129204</v>
+        <v>29.06172545927807</v>
       </c>
     </row>
     <row r="831">
@@ -21396,7 +21396,7 @@
         </is>
       </c>
       <c r="E831" t="n">
-        <v>-240603.0873134878</v>
+        <v>29.1247770260645</v>
       </c>
     </row>
     <row r="832">
@@ -21421,7 +21421,7 @@
         </is>
       </c>
       <c r="E832" t="n">
-        <v>611200.437188491</v>
+        <v>29.16277215226259</v>
       </c>
     </row>
     <row r="833">
@@ -21446,7 +21446,7 @@
         </is>
       </c>
       <c r="E833" t="n">
-        <v>-2112927.043429802</v>
+        <v>29.07167609760457</v>
       </c>
     </row>
     <row r="834">
@@ -21471,7 +21471,7 @@
         </is>
       </c>
       <c r="E834" t="n">
-        <v>1108836.098102778</v>
+        <v>29.17636762674325</v>
       </c>
     </row>
     <row r="835">
@@ -21496,7 +21496,7 @@
         </is>
       </c>
       <c r="E835" t="n">
-        <v>2268425.385870943</v>
+        <v>29.22468108245303</v>
       </c>
     </row>
     <row r="836">
@@ -21521,7 +21521,7 @@
         </is>
       </c>
       <c r="E836" t="n">
-        <v>572048.1267033684</v>
+        <v>29.1723575719818</v>
       </c>
     </row>
     <row r="837">
@@ -21546,7 +21546,7 @@
         </is>
       </c>
       <c r="E837" t="n">
-        <v>897921.7763178702</v>
+        <v>29.19687051984342</v>
       </c>
     </row>
     <row r="838">
@@ -21571,7 +21571,7 @@
         </is>
       </c>
       <c r="E838" t="n">
-        <v>1435168.860146739</v>
+        <v>29.23824475682435</v>
       </c>
     </row>
     <row r="839">
@@ -21596,7 +21596,7 @@
         </is>
       </c>
       <c r="E839" t="n">
-        <v>-1105349.527653548</v>
+        <v>29.08023565882054</v>
       </c>
     </row>
     <row r="840">
@@ -21621,7 +21621,7 @@
         </is>
       </c>
       <c r="E840" t="n">
-        <v>897703.2934157513</v>
+        <v>29.20944328679833</v>
       </c>
     </row>
     <row r="841">
@@ -21646,7 +21646,7 @@
         </is>
       </c>
       <c r="E841" t="n">
-        <v>1418472.703310944</v>
+        <v>29.24465419140338</v>
       </c>
     </row>
     <row r="842">
@@ -21671,7 +21671,7 @@
         </is>
       </c>
       <c r="E842" t="n">
-        <v>-938955.8278801106</v>
+        <v>29.10836730100908</v>
       </c>
     </row>
     <row r="843">
@@ -21696,7 +21696,7 @@
         </is>
       </c>
       <c r="E843" t="n">
-        <v>266943.8584256637</v>
+        <v>29.16262514726725</v>
       </c>
     </row>
     <row r="844">
@@ -21721,7 +21721,7 @@
         </is>
       </c>
       <c r="E844" t="n">
-        <v>976902.4558604069</v>
+        <v>29.19463520091927</v>
       </c>
     </row>
     <row r="845">
@@ -21746,7 +21746,7 @@
         </is>
       </c>
       <c r="E845" t="n">
-        <v>-1656146.817137901</v>
+        <v>29.05733689179067</v>
       </c>
     </row>
     <row r="846">
@@ -21771,7 +21771,7 @@
         </is>
       </c>
       <c r="E846" t="n">
-        <v>156420.3784264922</v>
+        <v>29.15516794420273</v>
       </c>
     </row>
     <row r="847">
@@ -21796,7 +21796,7 @@
         </is>
       </c>
       <c r="E847" t="n">
-        <v>1008194.867854655</v>
+        <v>29.19359837611735</v>
       </c>
     </row>
     <row r="848">
@@ -21821,7 +21821,7 @@
         </is>
       </c>
       <c r="E848" t="n">
-        <v>-1420392.575146266</v>
+        <v>29.07046406282543</v>
       </c>
     </row>
     <row r="849">
@@ -21846,7 +21846,7 @@
         </is>
       </c>
       <c r="E849" t="n">
-        <v>1716468.184995973</v>
+        <v>29.22814181286271</v>
       </c>
     </row>
     <row r="850">
@@ -21871,7 +21871,7 @@
         </is>
       </c>
       <c r="E850" t="n">
-        <v>2662481.88016119</v>
+        <v>29.27583002156515</v>
       </c>
     </row>
     <row r="851">
@@ -21896,7 +21896,7 @@
         </is>
       </c>
       <c r="E851" t="n">
-        <v>1188467.3790142</v>
+        <v>29.27349631782963</v>
       </c>
     </row>
     <row r="852">
@@ -21921,7 +21921,7 @@
         </is>
       </c>
       <c r="E852" t="n">
-        <v>1467713.917293341</v>
+        <v>29.29242751467329</v>
       </c>
     </row>
     <row r="853">
@@ -21946,7 +21946,7 @@
         </is>
       </c>
       <c r="E853" t="n">
-        <v>2398814.506453929</v>
+        <v>29.36441549616097</v>
       </c>
     </row>
     <row r="854">
@@ -21971,7 +21971,7 @@
         </is>
       </c>
       <c r="E854" t="n">
-        <v>-493873.0043368592</v>
+        <v>29.10257842139892</v>
       </c>
     </row>
     <row r="855">
@@ -21996,7 +21996,7 @@
         </is>
       </c>
       <c r="E855" t="n">
-        <v>1139048.230154586</v>
+        <v>29.28146930016298</v>
       </c>
     </row>
     <row r="856">
@@ -22021,7 +22021,7 @@
         </is>
       </c>
       <c r="E856" t="n">
-        <v>2118570.42426534</v>
+        <v>29.33413129757408</v>
       </c>
     </row>
     <row r="857">
@@ -22046,7 +22046,7 @@
         </is>
       </c>
       <c r="E857" t="n">
-        <v>-5341375.672725506</v>
+        <v>29.10412169624075</v>
       </c>
     </row>
     <row r="858">
@@ -22071,7 +22071,7 @@
         </is>
       </c>
       <c r="E858" t="n">
-        <v>-5321667.266403252</v>
+        <v>29.12235501819656</v>
       </c>
     </row>
     <row r="859">
@@ -22096,7 +22096,7 @@
         </is>
       </c>
       <c r="E859" t="n">
-        <v>-4185097.68757514</v>
+        <v>29.13101565658072</v>
       </c>
     </row>
     <row r="860">
@@ -22121,7 +22121,7 @@
         </is>
       </c>
       <c r="E860" t="n">
-        <v>-8699472.641876366</v>
+        <v>29.09161930297775</v>
       </c>
     </row>
     <row r="861">
@@ -22146,7 +22146,7 @@
         </is>
       </c>
       <c r="E861" t="n">
-        <v>-1542070.73869611</v>
+        <v>29.14077020560686</v>
       </c>
     </row>
     <row r="862">
@@ -22171,7 +22171,7 @@
         </is>
       </c>
       <c r="E862" t="n">
-        <v>-789082.5305711449</v>
+        <v>29.14993484068509</v>
       </c>
     </row>
     <row r="863">
@@ -22196,7 +22196,7 @@
         </is>
       </c>
       <c r="E863" t="n">
-        <v>-9097571.303633727</v>
+        <v>29.09231232862334</v>
       </c>
     </row>
     <row r="864">
@@ -22221,7 +22221,7 @@
         </is>
       </c>
       <c r="E864" t="n">
-        <v>1328608.773796828</v>
+        <v>29.1605695250713</v>
       </c>
     </row>
     <row r="865">
@@ -22246,7 +22246,7 @@
         </is>
       </c>
       <c r="E865" t="n">
-        <v>1032627.945619071</v>
+        <v>29.16366058469733</v>
       </c>
     </row>
     <row r="866">
@@ -22271,7 +22271,7 @@
         </is>
       </c>
       <c r="E866" t="n">
-        <v>-14823.475544095</v>
+        <v>29.17216414047236</v>
       </c>
     </row>
     <row r="867">
@@ -22296,7 +22296,7 @@
         </is>
       </c>
       <c r="E867" t="n">
-        <v>1595010.367904022</v>
+        <v>29.17759792561922</v>
       </c>
     </row>
     <row r="868">
@@ -22321,7 +22321,7 @@
         </is>
       </c>
       <c r="E868" t="n">
-        <v>2598186.873900724</v>
+        <v>29.18711670236882</v>
       </c>
     </row>
     <row r="869">
@@ -22346,7 +22346,7 @@
         </is>
       </c>
       <c r="E869" t="n">
-        <v>-2488389.930473127</v>
+        <v>29.10899428113789</v>
       </c>
     </row>
     <row r="870">
@@ -22371,7 +22371,7 @@
         </is>
       </c>
       <c r="E870" t="n">
-        <v>1069880.709160589</v>
+        <v>29.15321896252659</v>
       </c>
     </row>
     <row r="871">
@@ -22396,7 +22396,7 @@
         </is>
       </c>
       <c r="E871" t="n">
-        <v>3093298.207495701</v>
+        <v>29.18198994332795</v>
       </c>
     </row>
     <row r="872">
@@ -22421,7 +22421,7 @@
         </is>
       </c>
       <c r="E872" t="n">
-        <v>-4456315.202295851</v>
+        <v>29.09509930962378</v>
       </c>
     </row>
     <row r="873">
@@ -22446,7 +22446,7 @@
         </is>
       </c>
       <c r="E873" t="n">
-        <v>-2569388.60846496</v>
+        <v>29.12475571353654</v>
       </c>
     </row>
     <row r="874">
@@ -22471,7 +22471,7 @@
         </is>
       </c>
       <c r="E874" t="n">
-        <v>-572680.0580063232</v>
+        <v>29.14457544019067</v>
       </c>
     </row>
     <row r="875">
@@ -22496,7 +22496,7 @@
         </is>
       </c>
       <c r="E875" t="n">
-        <v>-3993171.555196614</v>
+        <v>29.08372932558832</v>
       </c>
     </row>
     <row r="876">
@@ -22521,7 +22521,7 @@
         </is>
       </c>
       <c r="E876" t="n">
-        <v>-1903376.318839035</v>
+        <v>29.13485693633455</v>
       </c>
     </row>
     <row r="877">
@@ -22546,7 +22546,7 @@
         </is>
       </c>
       <c r="E877" t="n">
-        <v>2325218.55920545</v>
+        <v>29.1669103872412</v>
       </c>
     </row>
     <row r="878">
@@ -22571,7 +22571,7 @@
         </is>
       </c>
       <c r="E878" t="n">
-        <v>-5867101.282817109</v>
+        <v>29.06771482408629</v>
       </c>
     </row>
     <row r="879">
@@ -22596,7 +22596,7 @@
         </is>
       </c>
       <c r="E879" t="n">
-        <v>-254298.8830526005</v>
+        <v>29.15664751895153</v>
       </c>
     </row>
     <row r="880">
@@ -22621,7 +22621,7 @@
         </is>
       </c>
       <c r="E880" t="n">
-        <v>3081601.739447416</v>
+        <v>29.19332070733245</v>
       </c>
     </row>
     <row r="881">
@@ -22646,7 +22646,7 @@
         </is>
       </c>
       <c r="E881" t="n">
-        <v>-254272.6749007134</v>
+        <v>29.15843732917778</v>
       </c>
     </row>
     <row r="882">
@@ -22671,7 +22671,7 @@
         </is>
       </c>
       <c r="E882" t="n">
-        <v>997985.9402178522</v>
+        <v>29.18136547841515</v>
       </c>
     </row>
     <row r="883">
@@ -22696,7 +22696,7 @@
         </is>
       </c>
       <c r="E883" t="n">
-        <v>2281115.446865097</v>
+        <v>29.20145393640975</v>
       </c>
     </row>
     <row r="884">
@@ -22721,7 +22721,7 @@
         </is>
       </c>
       <c r="E884" t="n">
-        <v>-2603378.815924453</v>
+        <v>29.08598069519132</v>
       </c>
     </row>
     <row r="885">
@@ -22746,7 +22746,7 @@
         </is>
       </c>
       <c r="E885" t="n">
-        <v>1304176.815042532</v>
+        <v>29.1905006910019</v>
       </c>
     </row>
     <row r="886">
@@ -22771,7 +22771,7 @@
         </is>
       </c>
       <c r="E886" t="n">
-        <v>2603309.369213407</v>
+        <v>29.22075433176534</v>
       </c>
     </row>
     <row r="887">
@@ -22796,7 +22796,7 @@
         </is>
       </c>
       <c r="E887" t="n">
-        <v>-2141437.473093114</v>
+        <v>29.09629520147881</v>
       </c>
     </row>
     <row r="888">
@@ -22821,7 +22821,7 @@
         </is>
       </c>
       <c r="E888" t="n">
-        <v>-614566.0265808126</v>
+        <v>29.13891845466953</v>
       </c>
     </row>
     <row r="889">
@@ -22846,7 +22846,7 @@
         </is>
       </c>
       <c r="E889" t="n">
-        <v>886063.2718564144</v>
+        <v>29.16027865407775</v>
       </c>
     </row>
     <row r="890">
@@ -22871,7 +22871,7 @@
         </is>
       </c>
       <c r="E890" t="n">
-        <v>-3139153.792318535</v>
+        <v>29.07555315840548</v>
       </c>
     </row>
     <row r="891">
@@ -22896,7 +22896,7 @@
         </is>
       </c>
       <c r="E891" t="n">
-        <v>-852356.2841246246</v>
+        <v>29.14807748276015</v>
       </c>
     </row>
     <row r="892">
@@ -22921,7 +22921,7 @@
         </is>
       </c>
       <c r="E892" t="n">
-        <v>1323831.950349275</v>
+        <v>29.1787059219088</v>
       </c>
     </row>
     <row r="893">
@@ -22946,7 +22946,7 @@
         </is>
       </c>
       <c r="E893" t="n">
-        <v>-4435527.530946579</v>
+        <v>29.05940271925921</v>
       </c>
     </row>
     <row r="894">
@@ -22971,7 +22971,7 @@
         </is>
       </c>
       <c r="E894" t="n">
-        <v>1362011.722052034</v>
+        <v>29.18645878344906</v>
       </c>
     </row>
     <row r="895">
@@ -22996,7 +22996,7 @@
         </is>
       </c>
       <c r="E895" t="n">
-        <v>3645075.727390474</v>
+        <v>29.22127015270718</v>
       </c>
     </row>
     <row r="896">
@@ -23021,7 +23021,7 @@
         </is>
       </c>
       <c r="E896" t="n">
-        <v>2471494.833796837</v>
+        <v>29.23365943551914</v>
       </c>
     </row>
     <row r="897">
@@ -23046,7 +23046,7 @@
         </is>
       </c>
       <c r="E897" t="n">
-        <v>2611651.325727209</v>
+        <v>29.24904536490447</v>
       </c>
     </row>
     <row r="898">
@@ -23071,7 +23071,7 @@
         </is>
       </c>
       <c r="E898" t="n">
-        <v>3863647.280182861</v>
+        <v>29.28552850655229</v>
       </c>
     </row>
     <row r="899">
@@ -23096,7 +23096,7 @@
         </is>
       </c>
       <c r="E899" t="n">
-        <v>-1596421.20594005</v>
+        <v>29.10047234906477</v>
       </c>
     </row>
     <row r="900">
@@ -23121,7 +23121,7 @@
         </is>
       </c>
       <c r="E900" t="n">
-        <v>1637229.12074587</v>
+        <v>29.23599686065994</v>
       </c>
     </row>
     <row r="901">
@@ -23146,7 +23146,7 @@
         </is>
       </c>
       <c r="E901" t="n">
-        <v>3420474.361395149</v>
+        <v>29.27598008635402</v>
       </c>
     </row>
     <row r="902">
@@ -23171,7 +23171,7 @@
         </is>
       </c>
       <c r="E902" t="n">
-        <v>-1396591.991346574</v>
+        <v>29.12000049443121</v>
       </c>
     </row>
     <row r="903">
@@ -23196,7 +23196,7 @@
         </is>
       </c>
       <c r="E903" t="n">
-        <v>-164218.6126274982</v>
+        <v>29.15786176460142</v>
       </c>
     </row>
     <row r="904">
@@ -23221,7 +23221,7 @@
         </is>
       </c>
       <c r="E904" t="n">
-        <v>486317.6795114372</v>
+        <v>29.16846565860867</v>
       </c>
     </row>
     <row r="905">
@@ -23246,7 +23246,7 @@
         </is>
       </c>
       <c r="E905" t="n">
-        <v>-2940725.344309272</v>
+        <v>29.09436573155033</v>
       </c>
     </row>
     <row r="906">
@@ -23271,7 +23271,7 @@
         </is>
       </c>
       <c r="E906" t="n">
-        <v>1547199.074849467</v>
+        <v>29.17659689737995</v>
       </c>
     </row>
     <row r="907">
@@ -23296,7 +23296,7 @@
         </is>
       </c>
       <c r="E907" t="n">
-        <v>1745696.773570533</v>
+        <v>29.18482814742358</v>
       </c>
     </row>
     <row r="908">
@@ -23321,7 +23321,7 @@
         </is>
       </c>
       <c r="E908" t="n">
-        <v>-2913204.055749231</v>
+        <v>29.1064394976402</v>
       </c>
     </row>
     <row r="909">
@@ -23346,7 +23346,7 @@
         </is>
       </c>
       <c r="E909" t="n">
-        <v>3724421.182583256</v>
+        <v>29.22202544386193</v>
       </c>
     </row>
     <row r="910">
@@ -23371,7 +23371,7 @@
         </is>
       </c>
       <c r="E910" t="n">
-        <v>3369069.763823589</v>
+        <v>29.21919799744621</v>
       </c>
     </row>
     <row r="911">
@@ -23396,7 +23396,7 @@
         </is>
       </c>
       <c r="E911" t="n">
-        <v>2563255.668296967</v>
+        <v>29.2564106731498</v>
       </c>
     </row>
     <row r="912">
@@ -23421,7 +23421,7 @@
         </is>
       </c>
       <c r="E912" t="n">
-        <v>2922111.659711124</v>
+        <v>29.26579855511138</v>
       </c>
     </row>
     <row r="913">
@@ -23446,7 +23446,7 @@
         </is>
       </c>
       <c r="E913" t="n">
-        <v>3140471.237930894</v>
+        <v>29.272186493768</v>
       </c>
     </row>
     <row r="914">
@@ -23471,7 +23471,7 @@
         </is>
       </c>
       <c r="E914" t="n">
-        <v>-378008.0039350621</v>
+        <v>29.133872146905</v>
       </c>
     </row>
     <row r="915">
@@ -23496,7 +23496,7 @@
         </is>
       </c>
       <c r="E915" t="n">
-        <v>790781.1824582925</v>
+        <v>29.20651042024443</v>
       </c>
     </row>
     <row r="916">
@@ -23521,7 +23521,7 @@
         </is>
       </c>
       <c r="E916" t="n">
-        <v>3197082.166796089</v>
+        <v>29.25364118307182</v>
       </c>
     </row>
     <row r="917">
@@ -23546,7 +23546,7 @@
         </is>
       </c>
       <c r="E917" t="n">
-        <v>-500350.0891992339</v>
+        <v>29.11724812860452</v>
       </c>
     </row>
     <row r="918">
@@ -23571,7 +23571,7 @@
         </is>
       </c>
       <c r="E918" t="n">
-        <v>575443.2580310149</v>
+        <v>29.17180719200068</v>
       </c>
     </row>
     <row r="919">
@@ -23596,7 +23596,7 @@
         </is>
       </c>
       <c r="E919" t="n">
-        <v>635318.4121133903</v>
+        <v>29.19219401191313</v>
       </c>
     </row>
     <row r="920">
@@ -23621,7 +23621,7 @@
         </is>
       </c>
       <c r="E920" t="n">
-        <v>-1759394.278814523</v>
+        <v>29.07410129047957</v>
       </c>
     </row>
     <row r="921">
@@ -23646,7 +23646,7 @@
         </is>
       </c>
       <c r="E921" t="n">
-        <v>316612.7085931702</v>
+        <v>29.1671997566384</v>
       </c>
     </row>
     <row r="922">
@@ -23671,7 +23671,7 @@
         </is>
       </c>
       <c r="E922" t="n">
-        <v>548925.7528316432</v>
+        <v>29.19487499739676</v>
       </c>
     </row>
     <row r="923">
@@ -23696,7 +23696,7 @@
         </is>
       </c>
       <c r="E923" t="n">
-        <v>-1862026.977442254</v>
+        <v>29.08054161046859</v>
       </c>
     </row>
     <row r="924">
@@ -23721,7 +23721,7 @@
         </is>
       </c>
       <c r="E924" t="n">
-        <v>1795127.380713576</v>
+        <v>29.226509234536</v>
       </c>
     </row>
     <row r="925">
@@ -23746,7 +23746,7 @@
         </is>
       </c>
       <c r="E925" t="n">
-        <v>1922124.912741884</v>
+        <v>29.26242681780038</v>
       </c>
     </row>
     <row r="926">
@@ -23771,7 +23771,7 @@
         </is>
       </c>
       <c r="E926" t="n">
-        <v>1047836.056758956</v>
+        <v>29.24018179177313</v>
       </c>
     </row>
     <row r="927">
@@ -23796,7 +23796,7 @@
         </is>
       </c>
       <c r="E927" t="n">
-        <v>1291616.677034747</v>
+        <v>29.27461403044721</v>
       </c>
     </row>
     <row r="928">
@@ -23821,7 +23821,7 @@
         </is>
       </c>
       <c r="E928" t="n">
-        <v>1342791.362573985</v>
+        <v>29.28737893589254</v>
       </c>
     </row>
     <row r="929">
@@ -23846,7 +23846,7 @@
         </is>
       </c>
       <c r="E929" t="n">
-        <v>-233657.1514209643</v>
+        <v>29.11749069307664</v>
       </c>
     </row>
     <row r="930">
@@ -23871,7 +23871,7 @@
         </is>
       </c>
       <c r="E930" t="n">
-        <v>1421043.618134148</v>
+        <v>29.27120306564411</v>
       </c>
     </row>
     <row r="931">
@@ -23896,7 +23896,7 @@
         </is>
       </c>
       <c r="E931" t="n">
-        <v>1554251.309068814</v>
+        <v>29.31016278184521</v>
       </c>
     </row>
     <row r="932">
@@ -23921,7 +23921,7 @@
         </is>
       </c>
       <c r="E932" t="n">
-        <v>-408827.147947046</v>
+        <v>29.11920908364087</v>
       </c>
     </row>
     <row r="933">
@@ -23946,7 +23946,7 @@
         </is>
       </c>
       <c r="E933" t="n">
-        <v>635080.1911542532</v>
+        <v>29.19901367665877</v>
       </c>
     </row>
     <row r="934">
@@ -23971,7 +23971,7 @@
         </is>
       </c>
       <c r="E934" t="n">
-        <v>857639.3030723861</v>
+        <v>29.22162178865851</v>
       </c>
     </row>
     <row r="935">
@@ -23996,7 +23996,7 @@
         </is>
       </c>
       <c r="E935" t="n">
-        <v>-1399291.806689701</v>
+        <v>29.06866845048118</v>
       </c>
     </row>
     <row r="936">
@@ -24021,7 +24021,7 @@
         </is>
       </c>
       <c r="E936" t="n">
-        <v>624832.6397884482</v>
+        <v>29.20232790357072</v>
       </c>
     </row>
     <row r="937">
@@ -24046,7 +24046,7 @@
         </is>
       </c>
       <c r="E937" t="n">
-        <v>800782.3050911173</v>
+        <v>29.22759023545643</v>
       </c>
     </row>
     <row r="938">
@@ -24071,7 +24071,7 @@
         </is>
       </c>
       <c r="E938" t="n">
-        <v>-1532592.154761857</v>
+        <v>29.07533431195433</v>
       </c>
     </row>
     <row r="939">
@@ -24096,7 +24096,7 @@
         </is>
       </c>
       <c r="E939" t="n">
-        <v>2187730.970086074</v>
+        <v>29.28123052786196</v>
       </c>
     </row>
     <row r="940">
@@ -24121,7 +24121,7 @@
         </is>
       </c>
       <c r="E940" t="n">
-        <v>2104599.212507816</v>
+        <v>29.31418441647607</v>
       </c>
     </row>
     <row r="941">
@@ -24146,7 +24146,7 @@
         </is>
       </c>
       <c r="E941" t="n">
-        <v>1855604.652225645</v>
+        <v>29.3578957262872</v>
       </c>
     </row>
     <row r="942">
@@ -24171,7 +24171,7 @@
         </is>
       </c>
       <c r="E942" t="n">
-        <v>1899062.179870651</v>
+        <v>29.38674113217363</v>
       </c>
     </row>
     <row r="943">
@@ -24196,7 +24196,7 @@
         </is>
       </c>
       <c r="E943" t="n">
-        <v>2066684.560595801</v>
+        <v>29.4139768015541</v>
       </c>
     </row>
     <row r="944">
@@ -24221,7 +24221,7 @@
         </is>
       </c>
       <c r="E944" t="n">
-        <v>-31486.32217472858</v>
+        <v>29.14767418984735</v>
       </c>
     </row>
     <row r="945">
@@ -24246,7 +24246,7 @@
         </is>
       </c>
       <c r="E945" t="n">
-        <v>1622123.012461927</v>
+        <v>29.3586030815378</v>
       </c>
     </row>
     <row r="946">
@@ -24271,7 +24271,7 @@
         </is>
       </c>
       <c r="E946" t="n">
-        <v>1938292.847974879</v>
+        <v>29.40837644724619</v>
       </c>
     </row>
     <row r="947">
@@ -24296,7 +24296,7 @@
         </is>
       </c>
       <c r="E947" t="n">
-        <v>-2336011.275854603</v>
+        <v>29.10236602025012</v>
       </c>
     </row>
     <row r="948">
@@ -24321,7 +24321,7 @@
         </is>
       </c>
       <c r="E948" t="n">
-        <v>-218037.7487034204</v>
+        <v>29.14416745311603</v>
       </c>
     </row>
     <row r="949">
@@ -24346,7 +24346,7 @@
         </is>
       </c>
       <c r="E949" t="n">
-        <v>451096.9423812803</v>
+        <v>29.15603462905884</v>
       </c>
     </row>
     <row r="950">
@@ -24371,7 +24371,7 @@
         </is>
       </c>
       <c r="E950" t="n">
-        <v>-3672927.545616849</v>
+        <v>29.08321322986985</v>
       </c>
     </row>
     <row r="951">
@@ -24396,7 +24396,7 @@
         </is>
       </c>
       <c r="E951" t="n">
-        <v>94707.20919792888</v>
+        <v>29.16344402402206</v>
       </c>
     </row>
     <row r="952">
@@ -24421,7 +24421,7 @@
         </is>
       </c>
       <c r="E952" t="n">
-        <v>1340928.547021799</v>
+        <v>29.17322648109301</v>
       </c>
     </row>
     <row r="953">
@@ -24446,7 +24446,7 @@
         </is>
       </c>
       <c r="E953" t="n">
-        <v>-4092235.44130169</v>
+        <v>29.08647608613492</v>
       </c>
     </row>
     <row r="954">
@@ -24471,7 +24471,7 @@
         </is>
       </c>
       <c r="E954" t="n">
-        <v>2908395.121619106</v>
+        <v>29.19925994515836</v>
       </c>
     </row>
     <row r="955">
@@ -24496,7 +24496,7 @@
         </is>
       </c>
       <c r="E955" t="n">
-        <v>3265379.711622898</v>
+        <v>29.20277364954882</v>
       </c>
     </row>
     <row r="956">
@@ -24521,7 +24521,7 @@
         </is>
       </c>
       <c r="E956" t="n">
-        <v>2235339.227175844</v>
+        <v>29.22873566878948</v>
       </c>
     </row>
     <row r="957">
@@ -24546,7 +24546,7 @@
         </is>
       </c>
       <c r="E957" t="n">
-        <v>3027277.505759268</v>
+        <v>29.2489112813643</v>
       </c>
     </row>
     <row r="958">
@@ -24571,7 +24571,7 @@
         </is>
       </c>
       <c r="E958" t="n">
-        <v>2815483.20048594</v>
+        <v>29.25015911834788</v>
       </c>
     </row>
     <row r="959">
@@ -24596,7 +24596,7 @@
         </is>
       </c>
       <c r="E959" t="n">
-        <v>-1849802.482230563</v>
+        <v>29.09764157708068</v>
       </c>
     </row>
     <row r="960">
@@ -24621,7 +24621,7 @@
         </is>
       </c>
       <c r="E960" t="n">
-        <v>2227339.671925903</v>
+        <v>29.20528312919755</v>
       </c>
     </row>
     <row r="961">
@@ -24646,7 +24646,7 @@
         </is>
       </c>
       <c r="E961" t="n">
-        <v>3109755.205030238</v>
+        <v>29.23436607675136</v>
       </c>
     </row>
     <row r="962">
@@ -24671,7 +24671,7 @@
         </is>
       </c>
       <c r="E962" t="n">
-        <v>-1509935.48348169</v>
+        <v>29.08805266629273</v>
       </c>
     </row>
     <row r="963">
@@ -24696,7 +24696,7 @@
         </is>
       </c>
       <c r="E963" t="n">
-        <v>145565.4559828367</v>
+        <v>29.14784350981452</v>
       </c>
     </row>
     <row r="964">
@@ -24721,7 +24721,7 @@
         </is>
       </c>
       <c r="E964" t="n">
-        <v>305214.2853970738</v>
+        <v>29.17238349556474</v>
       </c>
     </row>
     <row r="965">
@@ -24746,7 +24746,7 @@
         </is>
       </c>
       <c r="E965" t="n">
-        <v>-2129076.24212636</v>
+        <v>29.04823650668149</v>
       </c>
     </row>
     <row r="966">
@@ -24771,7 +24771,7 @@
         </is>
       </c>
       <c r="E966" t="n">
-        <v>-13979.12875750426</v>
+        <v>29.14403449982391</v>
       </c>
     </row>
     <row r="967">
@@ -24796,7 +24796,7 @@
         </is>
       </c>
       <c r="E967" t="n">
-        <v>284354.3872335701</v>
+        <v>29.1744483724052</v>
       </c>
     </row>
     <row r="968">
@@ -24821,7 +24821,7 @@
         </is>
       </c>
       <c r="E968" t="n">
-        <v>-2277879.216833105</v>
+        <v>29.04973947332048</v>
       </c>
     </row>
     <row r="969">
@@ -24846,7 +24846,7 @@
         </is>
       </c>
       <c r="E969" t="n">
-        <v>1505656.254387598</v>
+        <v>29.19375431112934</v>
       </c>
     </row>
     <row r="970">
@@ -24871,7 +24871,7 @@
         </is>
       </c>
       <c r="E970" t="n">
-        <v>2010630.698694391</v>
+        <v>29.23903201641484</v>
       </c>
     </row>
     <row r="971">
@@ -24896,7 +24896,7 @@
         </is>
       </c>
       <c r="E971" t="n">
-        <v>819086.6246268922</v>
+        <v>29.20450757977732</v>
       </c>
     </row>
     <row r="972">
@@ -24921,7 +24921,7 @@
         </is>
       </c>
       <c r="E972" t="n">
-        <v>1305996.068477801</v>
+        <v>29.24966594041047</v>
       </c>
     </row>
     <row r="973">
@@ -24946,7 +24946,7 @@
         </is>
       </c>
       <c r="E973" t="n">
-        <v>1272331.374606622</v>
+        <v>29.26575630602789</v>
       </c>
     </row>
     <row r="974">
@@ -24971,7 +24971,7 @@
         </is>
       </c>
       <c r="E974" t="n">
-        <v>-1173291.42186867</v>
+        <v>29.06609109378147</v>
       </c>
     </row>
     <row r="975">
@@ -24996,7 +24996,7 @@
         </is>
       </c>
       <c r="E975" t="n">
-        <v>1415189.937625855</v>
+        <v>29.25088491994198</v>
       </c>
     </row>
     <row r="976">
@@ -25021,7 +25021,7 @@
         </is>
       </c>
       <c r="E976" t="n">
-        <v>1587661.085822243</v>
+        <v>29.28067230013508</v>
       </c>
     </row>
     <row r="977">
@@ -25046,7 +25046,7 @@
         </is>
       </c>
       <c r="E977" t="n">
-        <v>-1355602.400726291</v>
+        <v>29.07764756173582</v>
       </c>
     </row>
     <row r="978">
@@ -25071,7 +25071,7 @@
         </is>
       </c>
       <c r="E978" t="n">
-        <v>58532.58761682646</v>
+        <v>29.16212033115296</v>
       </c>
     </row>
     <row r="979">
@@ -25096,7 +25096,7 @@
         </is>
       </c>
       <c r="E979" t="n">
-        <v>554755.4508297964</v>
+        <v>29.19156291769321</v>
       </c>
     </row>
     <row r="980">
@@ -25121,7 +25121,7 @@
         </is>
       </c>
       <c r="E980" t="n">
-        <v>-1875633.225606184</v>
+        <v>29.02401981446639</v>
       </c>
     </row>
     <row r="981">
@@ -25146,7 +25146,7 @@
         </is>
       </c>
       <c r="E981" t="n">
-        <v>188589.7089741663</v>
+        <v>29.1621706701155</v>
       </c>
     </row>
     <row r="982">
@@ -25171,7 +25171,7 @@
         </is>
       </c>
       <c r="E982" t="n">
-        <v>670704.6902092136</v>
+        <v>29.19153741642299</v>
       </c>
     </row>
     <row r="983">
@@ -25196,7 +25196,7 @@
         </is>
       </c>
       <c r="E983" t="n">
-        <v>-2031001.172164476</v>
+        <v>29.02587871799678</v>
       </c>
     </row>
     <row r="984">
@@ -25221,7 +25221,7 @@
         </is>
       </c>
       <c r="E984" t="n">
-        <v>1289830.486748555</v>
+        <v>29.22776584393808</v>
       </c>
     </row>
     <row r="985">
@@ -25246,7 +25246,7 @@
         </is>
       </c>
       <c r="E985" t="n">
-        <v>2056654.596190196</v>
+        <v>29.27414608199514</v>
       </c>
     </row>
     <row r="986">
@@ -25271,7 +25271,7 @@
         </is>
       </c>
       <c r="E986" t="n">
-        <v>1204740.709382231</v>
+        <v>29.29210495539218</v>
       </c>
     </row>
     <row r="987">
@@ -25296,7 +25296,7 @@
         </is>
       </c>
       <c r="E987" t="n">
-        <v>1775348.731056193</v>
+        <v>29.33822547319341</v>
       </c>
     </row>
     <row r="988">
@@ -25321,7 +25321,7 @@
         </is>
       </c>
       <c r="E988" t="n">
-        <v>2146889.915562825</v>
+        <v>29.37573559086711</v>
       </c>
     </row>
     <row r="989">
@@ -25346,7 +25346,7 @@
         </is>
       </c>
       <c r="E989" t="n">
-        <v>-1054743.341679067</v>
+        <v>29.06309978758829</v>
       </c>
     </row>
     <row r="990">
@@ -25371,7 +25371,7 @@
         </is>
       </c>
       <c r="E990" t="n">
-        <v>1326017.310508096</v>
+        <v>29.30992610734801</v>
       </c>
     </row>
     <row r="991">
@@ -25396,7 +25396,7 @@
         </is>
       </c>
       <c r="E991" t="n">
-        <v>1900924.128412885</v>
+        <v>29.35216320979376</v>
       </c>
     </row>
   </sheetData>

--- a/yield_prediction/results/graph_descriptors/WLpolynomial_5/out_of_sample/ligand/LOO_XPhos/results.xlsx
+++ b/yield_prediction/results/graph_descriptors/WLpolynomial_5/out_of_sample/ligand/LOO_XPhos/results.xlsx
@@ -462,7 +462,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
   </sheetData>
@@ -498,7 +498,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.525</v>
+        <v>0.539</v>
       </c>
     </row>
     <row r="3">
@@ -508,7 +508,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>17.871</v>
+        <v>17.61</v>
       </c>
     </row>
   </sheetData>
@@ -544,7 +544,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>-0.256</v>
+        <v>-0.832</v>
       </c>
     </row>
     <row r="3">
@@ -554,7 +554,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>19.644</v>
+        <v>23.72</v>
       </c>
     </row>
   </sheetData>
@@ -590,7 +590,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.907</v>
+        <v>0.976</v>
       </c>
     </row>
     <row r="3">
@@ -600,7 +600,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>8.698</v>
+        <v>4.46</v>
       </c>
     </row>
   </sheetData>
@@ -671,7 +671,7 @@
         </is>
       </c>
       <c r="E2" t="n">
-        <v>29.08266089225315</v>
+        <v>17.99903458551948</v>
       </c>
     </row>
     <row r="3">
@@ -696,7 +696,7 @@
         </is>
       </c>
       <c r="E3" t="n">
-        <v>29.10521593061484</v>
+        <v>15.70394478400526</v>
       </c>
     </row>
     <row r="4">
@@ -721,7 +721,7 @@
         </is>
       </c>
       <c r="E4" t="n">
-        <v>29.11552730084782</v>
+        <v>18.29433146912363</v>
       </c>
     </row>
     <row r="5">
@@ -746,7 +746,7 @@
         </is>
       </c>
       <c r="E5" t="n">
-        <v>29.05165739452493</v>
+        <v>3.44674723557921</v>
       </c>
     </row>
     <row r="6">
@@ -771,7 +771,7 @@
         </is>
       </c>
       <c r="E6" t="n">
-        <v>29.11438732342999</v>
+        <v>20.079848498866</v>
       </c>
     </row>
     <row r="7">
@@ -796,7 +796,7 @@
         </is>
       </c>
       <c r="E7" t="n">
-        <v>29.12384442937655</v>
+        <v>23.37408509091462</v>
       </c>
     </row>
     <row r="8">
@@ -821,7 +821,7 @@
         </is>
       </c>
       <c r="E8" t="n">
-        <v>29.06253733457024</v>
+        <v>5.714403485993145</v>
       </c>
     </row>
     <row r="9">
@@ -846,7 +846,7 @@
         </is>
       </c>
       <c r="E9" t="n">
-        <v>29.15017641010708</v>
+        <v>26.7373969857984</v>
       </c>
     </row>
     <row r="10">
@@ -871,7 +871,7 @@
         </is>
       </c>
       <c r="E10" t="n">
-        <v>29.15415181704647</v>
+        <v>27.16136704635766</v>
       </c>
     </row>
     <row r="11">
@@ -896,7 +896,7 @@
         </is>
       </c>
       <c r="E11" t="n">
-        <v>29.15594750275403</v>
+        <v>23.1504371104909</v>
       </c>
     </row>
     <row r="12">
@@ -921,7 +921,7 @@
         </is>
       </c>
       <c r="E12" t="n">
-        <v>29.16888635348925</v>
+        <v>29.17881708955433</v>
       </c>
     </row>
     <row r="13">
@@ -946,7 +946,7 @@
         </is>
       </c>
       <c r="E13" t="n">
-        <v>29.1798690562765</v>
+        <v>27.86454247300952</v>
       </c>
     </row>
     <row r="14">
@@ -971,7 +971,7 @@
         </is>
       </c>
       <c r="E14" t="n">
-        <v>29.07929870673436</v>
+        <v>17.67338135142622</v>
       </c>
     </row>
     <row r="15">
@@ -996,7 +996,7 @@
         </is>
       </c>
       <c r="E15" t="n">
-        <v>29.14119065527048</v>
+        <v>26.09907314753353</v>
       </c>
     </row>
     <row r="16">
@@ -1021,7 +1021,7 @@
         </is>
       </c>
       <c r="E16" t="n">
-        <v>29.16447893345827</v>
+        <v>28.03964940078372</v>
       </c>
     </row>
     <row r="17">
@@ -1046,7 +1046,7 @@
         </is>
       </c>
       <c r="E17" t="n">
-        <v>29.11190576964662</v>
+        <v>20.10282222895659</v>
       </c>
     </row>
     <row r="18">
@@ -1071,7 +1071,7 @@
         </is>
       </c>
       <c r="E18" t="n">
-        <v>29.15504757599268</v>
+        <v>34.29246224841661</v>
       </c>
     </row>
     <row r="19">
@@ -1096,7 +1096,7 @@
         </is>
       </c>
       <c r="E19" t="n">
-        <v>29.18109301155962</v>
+        <v>41.86063524934897</v>
       </c>
     </row>
     <row r="20">
@@ -1121,7 +1121,7 @@
         </is>
       </c>
       <c r="E20" t="n">
-        <v>29.076246523966</v>
+        <v>10.30096532383748</v>
       </c>
     </row>
     <row r="21">
@@ -1146,7 +1146,7 @@
         </is>
       </c>
       <c r="E21" t="n">
-        <v>29.15079039411946</v>
+        <v>31.74924049600771</v>
       </c>
     </row>
     <row r="22">
@@ -1171,7 +1171,7 @@
         </is>
       </c>
       <c r="E22" t="n">
-        <v>29.18962056376669</v>
+        <v>46.38569156535209</v>
       </c>
     </row>
     <row r="23">
@@ -1196,7 +1196,7 @@
         </is>
       </c>
       <c r="E23" t="n">
-        <v>29.08023116350423</v>
+        <v>10.72341014551035</v>
       </c>
     </row>
     <row r="24">
@@ -1221,7 +1221,7 @@
         </is>
       </c>
       <c r="E24" t="n">
-        <v>29.20147211083261</v>
+        <v>48.4515447910612</v>
       </c>
     </row>
     <row r="25">
@@ -1246,7 +1246,7 @@
         </is>
       </c>
       <c r="E25" t="n">
-        <v>29.25284240776948</v>
+        <v>66.491947364235</v>
       </c>
     </row>
     <row r="26">
@@ -1271,7 +1271,7 @@
         </is>
       </c>
       <c r="E26" t="n">
-        <v>29.20779622602682</v>
+        <v>50.16005915521637</v>
       </c>
     </row>
     <row r="27">
@@ -1296,7 +1296,7 @@
         </is>
       </c>
       <c r="E27" t="n">
-        <v>29.25152871775742</v>
+        <v>61.0546897429335</v>
       </c>
     </row>
     <row r="28">
@@ -1321,7 +1321,7 @@
         </is>
       </c>
       <c r="E28" t="n">
-        <v>29.27679710128887</v>
+        <v>68.6459714009455</v>
       </c>
     </row>
     <row r="29">
@@ -1346,7 +1346,7 @@
         </is>
       </c>
       <c r="E29" t="n">
-        <v>29.11449849788229</v>
+        <v>21.06714878527422</v>
       </c>
     </row>
     <row r="30">
@@ -1371,7 +1371,7 @@
         </is>
       </c>
       <c r="E30" t="n">
-        <v>29.27418346638618</v>
+        <v>66.67775538687937</v>
       </c>
     </row>
     <row r="31">
@@ -1396,7 +1396,7 @@
         </is>
       </c>
       <c r="E31" t="n">
-        <v>29.29954258494493</v>
+        <v>71.95453834490836</v>
       </c>
     </row>
     <row r="32">
@@ -1421,7 +1421,7 @@
         </is>
       </c>
       <c r="E32" t="n">
-        <v>29.12926655615304</v>
+        <v>27.21939697097967</v>
       </c>
     </row>
     <row r="33">
@@ -1446,7 +1446,7 @@
         </is>
       </c>
       <c r="E33" t="n">
-        <v>29.19313698755133</v>
+        <v>44.63488396223696</v>
       </c>
     </row>
     <row r="34">
@@ -1471,7 +1471,7 @@
         </is>
       </c>
       <c r="E34" t="n">
-        <v>29.22002152346598</v>
+        <v>49.84837975478509</v>
       </c>
     </row>
     <row r="35">
@@ -1496,7 +1496,7 @@
         </is>
       </c>
       <c r="E35" t="n">
-        <v>29.0803004276009</v>
+        <v>12.82971776629773</v>
       </c>
     </row>
     <row r="36">
@@ -1521,7 +1521,7 @@
         </is>
       </c>
       <c r="E36" t="n">
-        <v>29.18911933346302</v>
+        <v>40.19559748500125</v>
       </c>
     </row>
     <row r="37">
@@ -1546,7 +1546,7 @@
         </is>
       </c>
       <c r="E37" t="n">
-        <v>29.22460345013968</v>
+        <v>52.8993605392284</v>
       </c>
     </row>
     <row r="38">
@@ -1571,7 +1571,7 @@
         </is>
       </c>
       <c r="E38" t="n">
-        <v>29.08457398970657</v>
+        <v>15.33914918395966</v>
       </c>
     </row>
     <row r="39">
@@ -1596,7 +1596,7 @@
         </is>
       </c>
       <c r="E39" t="n">
-        <v>29.26112951822375</v>
+        <v>68.46698836735204</v>
       </c>
     </row>
     <row r="40">
@@ -1621,7 +1621,7 @@
         </is>
       </c>
       <c r="E40" t="n">
-        <v>29.308066202885</v>
+        <v>74.8624712963115</v>
       </c>
     </row>
     <row r="41">
@@ -1646,7 +1646,7 @@
         </is>
       </c>
       <c r="E41" t="n">
-        <v>29.32579128270165</v>
+        <v>73.72892468444354</v>
       </c>
     </row>
     <row r="42">
@@ -1671,7 +1671,7 @@
         </is>
       </c>
       <c r="E42" t="n">
-        <v>29.36556119209609</v>
+        <v>84.52908501954943</v>
       </c>
     </row>
     <row r="43">
@@ -1696,7 +1696,7 @@
         </is>
       </c>
       <c r="E43" t="n">
-        <v>29.41006828328722</v>
+        <v>89.61065201823888</v>
       </c>
     </row>
     <row r="44">
@@ -1721,7 +1721,7 @@
         </is>
       </c>
       <c r="E44" t="n">
-        <v>29.15303157290251</v>
+        <v>36.04335571741603</v>
       </c>
     </row>
     <row r="45">
@@ -1746,7 +1746,7 @@
         </is>
       </c>
       <c r="E45" t="n">
-        <v>29.36214456961943</v>
+        <v>86.4797011993202</v>
       </c>
     </row>
     <row r="46">
@@ -1771,7 +1771,7 @@
         </is>
       </c>
       <c r="E46" t="n">
-        <v>29.39196662564639</v>
+        <v>86.41708923464839</v>
       </c>
     </row>
     <row r="47">
@@ -1796,7 +1796,7 @@
         </is>
       </c>
       <c r="E47" t="n">
-        <v>29.10109718055459</v>
+        <v>13.97951269055615</v>
       </c>
     </row>
     <row r="48">
@@ -1821,7 +1821,7 @@
         </is>
       </c>
       <c r="E48" t="n">
-        <v>29.15475647645497</v>
+        <v>41.0230606074383</v>
       </c>
     </row>
     <row r="49">
@@ -1846,7 +1846,7 @@
         </is>
       </c>
       <c r="E49" t="n">
-        <v>29.16643470346883</v>
+        <v>41.60763477528256</v>
       </c>
     </row>
     <row r="50">
@@ -1871,7 +1871,7 @@
         </is>
       </c>
       <c r="E50" t="n">
-        <v>29.08615553578868</v>
+        <v>6.727747751150158</v>
       </c>
     </row>
     <row r="51">
@@ -1896,7 +1896,7 @@
         </is>
       </c>
       <c r="E51" t="n">
-        <v>29.17616346102975</v>
+        <v>42.60648268108961</v>
       </c>
     </row>
     <row r="52">
@@ -1921,7 +1921,7 @@
         </is>
       </c>
       <c r="E52" t="n">
-        <v>29.18886853975007</v>
+        <v>46.21384381598736</v>
       </c>
     </row>
     <row r="53">
@@ -1946,7 +1946,7 @@
         </is>
       </c>
       <c r="E53" t="n">
-        <v>29.0927668227276</v>
+        <v>6.471597886449146</v>
       </c>
     </row>
     <row r="54">
@@ -1971,7 +1971,7 @@
         </is>
       </c>
       <c r="E54" t="n">
-        <v>29.22716497301317</v>
+        <v>60.69705017628861</v>
       </c>
     </row>
     <row r="55">
@@ -1996,7 +1996,7 @@
         </is>
       </c>
       <c r="E55" t="n">
-        <v>29.22778020948319</v>
+        <v>59.75900493388366</v>
       </c>
     </row>
     <row r="56">
@@ -2021,7 +2021,7 @@
         </is>
       </c>
       <c r="E56" t="n">
-        <v>29.25794206561502</v>
+        <v>56.22775488615517</v>
       </c>
     </row>
     <row r="57">
@@ -2046,7 +2046,7 @@
         </is>
       </c>
       <c r="E57" t="n">
-        <v>29.28615935075077</v>
+        <v>61.62578389795478</v>
       </c>
     </row>
     <row r="58">
@@ -2071,7 +2071,7 @@
         </is>
       </c>
       <c r="E58" t="n">
-        <v>29.28201744201749</v>
+        <v>60.63969920407273</v>
       </c>
     </row>
     <row r="59">
@@ -2096,7 +2096,7 @@
         </is>
       </c>
       <c r="E59" t="n">
-        <v>29.10255024957992</v>
+        <v>14.34880309939017</v>
       </c>
     </row>
     <row r="60">
@@ -2121,7 +2121,7 @@
         </is>
       </c>
       <c r="E60" t="n">
-        <v>29.22430409579023</v>
+        <v>58.85108048494791</v>
       </c>
     </row>
     <row r="61">
@@ -2146,7 +2146,7 @@
         </is>
       </c>
       <c r="E61" t="n">
-        <v>29.25179097575103</v>
+        <v>64.20654405221316</v>
       </c>
     </row>
     <row r="62">
@@ -2171,7 +2171,7 @@
         </is>
       </c>
       <c r="E62" t="n">
-        <v>29.09613740685606</v>
+        <v>15.45351585841631</v>
       </c>
     </row>
     <row r="63">
@@ -2196,7 +2196,7 @@
         </is>
       </c>
       <c r="E63" t="n">
-        <v>29.17089326502305</v>
+        <v>37.91859305527584</v>
       </c>
     </row>
     <row r="64">
@@ -2221,7 +2221,7 @@
         </is>
       </c>
       <c r="E64" t="n">
-        <v>29.19622502981856</v>
+        <v>43.1248678073089</v>
       </c>
     </row>
     <row r="65">
@@ -2246,7 +2246,7 @@
         </is>
       </c>
       <c r="E65" t="n">
-        <v>29.05761836755597</v>
+        <v>7.672056171677802</v>
       </c>
     </row>
     <row r="66">
@@ -2271,7 +2271,7 @@
         </is>
       </c>
       <c r="E66" t="n">
-        <v>29.16528820297333</v>
+        <v>33.90962537697608</v>
       </c>
     </row>
     <row r="67">
@@ -2296,7 +2296,7 @@
         </is>
       </c>
       <c r="E67" t="n">
-        <v>29.2020593815615</v>
+        <v>44.11793035919125</v>
       </c>
     </row>
     <row r="68">
@@ -2321,7 +2321,7 @@
         </is>
       </c>
       <c r="E68" t="n">
-        <v>29.06971686747772</v>
+        <v>9.180606177853729</v>
       </c>
     </row>
     <row r="69">
@@ -2346,7 +2346,7 @@
         </is>
       </c>
       <c r="E69" t="n">
-        <v>29.23998842566354</v>
+        <v>55.87462492390257</v>
       </c>
     </row>
     <row r="70">
@@ -2371,7 +2371,7 @@
         </is>
       </c>
       <c r="E70" t="n">
-        <v>29.28420939424785</v>
+        <v>69.63498261979103</v>
       </c>
     </row>
     <row r="71">
@@ -2396,7 +2396,7 @@
         </is>
       </c>
       <c r="E71" t="n">
-        <v>29.24544002843441</v>
+        <v>51.49237239012361</v>
       </c>
     </row>
     <row r="72">
@@ -2421,7 +2421,7 @@
         </is>
       </c>
       <c r="E72" t="n">
-        <v>29.30284564158813</v>
+        <v>64.08648801631702</v>
       </c>
     </row>
     <row r="73">
@@ -2446,7 +2446,7 @@
         </is>
       </c>
       <c r="E73" t="n">
-        <v>29.31378018849559</v>
+        <v>67.08821576468924</v>
       </c>
     </row>
     <row r="74">
@@ -2471,7 +2471,7 @@
         </is>
       </c>
       <c r="E74" t="n">
-        <v>29.07991959549944</v>
+        <v>12.40607450244029</v>
       </c>
     </row>
     <row r="75">
@@ -2496,7 +2496,7 @@
         </is>
       </c>
       <c r="E75" t="n">
-        <v>29.29844893106912</v>
+        <v>64.78534215410264</v>
       </c>
     </row>
     <row r="76">
@@ -2521,7 +2521,7 @@
         </is>
       </c>
       <c r="E76" t="n">
-        <v>29.32325378856845</v>
+        <v>71.76404142820715</v>
       </c>
     </row>
     <row r="77">
@@ -2546,7 +2546,7 @@
         </is>
       </c>
       <c r="E77" t="n">
-        <v>29.09552713749215</v>
+        <v>14.68206076428905</v>
       </c>
     </row>
     <row r="78">
@@ -2571,7 +2571,7 @@
         </is>
       </c>
       <c r="E78" t="n">
-        <v>29.20615517772489</v>
+        <v>44.72978728660352</v>
       </c>
     </row>
     <row r="79">
@@ -2596,7 +2596,7 @@
         </is>
       </c>
       <c r="E79" t="n">
-        <v>29.22964596100532</v>
+        <v>46.98069109647972</v>
       </c>
     </row>
     <row r="80">
@@ -2621,7 +2621,7 @@
         </is>
       </c>
       <c r="E80" t="n">
-        <v>29.04521835693188</v>
+        <v>6.084982569585591</v>
       </c>
     </row>
     <row r="81">
@@ -2646,7 +2646,7 @@
         </is>
       </c>
       <c r="E81" t="n">
-        <v>29.20811576162677</v>
+        <v>43.08249631505866</v>
       </c>
     </row>
     <row r="82">
@@ -2671,7 +2671,7 @@
         </is>
       </c>
       <c r="E82" t="n">
-        <v>29.23689530744718</v>
+        <v>50.48248189732286</v>
       </c>
     </row>
     <row r="83">
@@ -2696,7 +2696,7 @@
         </is>
       </c>
       <c r="E83" t="n">
-        <v>29.06301060027761</v>
+        <v>7.8766962219356</v>
       </c>
     </row>
     <row r="84">
@@ -2721,7 +2721,7 @@
         </is>
       </c>
       <c r="E84" t="n">
-        <v>29.30679441311134</v>
+        <v>69.67384914531371</v>
       </c>
     </row>
     <row r="85">
@@ -2746,7 +2746,7 @@
         </is>
       </c>
       <c r="E85" t="n">
-        <v>29.34210583230464</v>
+        <v>73.37519882035497</v>
       </c>
     </row>
     <row r="86">
@@ -2771,7 +2771,7 @@
         </is>
       </c>
       <c r="E86" t="n">
-        <v>29.3715994289154</v>
+        <v>73.87893892259839</v>
       </c>
     </row>
     <row r="87">
@@ -2796,7 +2796,7 @@
         </is>
       </c>
       <c r="E87" t="n">
-        <v>29.43389666921262</v>
+        <v>87.38775206131957</v>
       </c>
     </row>
     <row r="88">
@@ -2821,7 +2821,7 @@
         </is>
       </c>
       <c r="E88" t="n">
-        <v>29.45302956169463</v>
+        <v>86.4799151069416</v>
       </c>
     </row>
     <row r="89">
@@ -2846,7 +2846,7 @@
         </is>
       </c>
       <c r="E89" t="n">
-        <v>29.09473700981141</v>
+        <v>11.90349053592943</v>
       </c>
     </row>
     <row r="90">
@@ -2871,7 +2871,7 @@
         </is>
       </c>
       <c r="E90" t="n">
-        <v>29.40392117904813</v>
+        <v>81.3575876030813</v>
       </c>
     </row>
     <row r="91">
@@ -2896,7 +2896,7 @@
         </is>
       </c>
       <c r="E91" t="n">
-        <v>29.4208831477593</v>
+        <v>83.76770659436443</v>
       </c>
     </row>
     <row r="92">
@@ -2921,7 +2921,7 @@
         </is>
       </c>
       <c r="E92" t="n">
-        <v>29.11968940489436</v>
+        <v>29.87492343606146</v>
       </c>
     </row>
     <row r="93">
@@ -2946,7 +2946,7 @@
         </is>
       </c>
       <c r="E93" t="n">
-        <v>29.16420097721261</v>
+        <v>42.0025445842798</v>
       </c>
     </row>
     <row r="94">
@@ -2971,7 +2971,7 @@
         </is>
       </c>
       <c r="E94" t="n">
-        <v>29.17222154332502</v>
+        <v>43.45130027854757</v>
       </c>
     </row>
     <row r="95">
@@ -2996,7 +2996,7 @@
         </is>
       </c>
       <c r="E95" t="n">
-        <v>29.08923825333914</v>
+        <v>11.2095815914272</v>
       </c>
     </row>
     <row r="96">
@@ -3021,7 +3021,7 @@
         </is>
       </c>
       <c r="E96" t="n">
-        <v>29.17504251466993</v>
+        <v>45.3712876812858</v>
       </c>
     </row>
     <row r="97">
@@ -3046,7 +3046,7 @@
         </is>
       </c>
       <c r="E97" t="n">
-        <v>29.18264999706585</v>
+        <v>48.28138110940986</v>
       </c>
     </row>
     <row r="98">
@@ -3071,7 +3071,7 @@
         </is>
       </c>
       <c r="E98" t="n">
-        <v>29.09537691319537</v>
+        <v>11.36436603437247</v>
       </c>
     </row>
     <row r="99">
@@ -3096,7 +3096,7 @@
         </is>
       </c>
       <c r="E99" t="n">
-        <v>29.22662900140406</v>
+        <v>65.58541518114976</v>
       </c>
     </row>
     <row r="100">
@@ -3121,7 +3121,7 @@
         </is>
       </c>
       <c r="E100" t="n">
-        <v>29.2199761687354</v>
+        <v>59.91315391870049</v>
       </c>
     </row>
     <row r="101">
@@ -3146,7 +3146,7 @@
         </is>
       </c>
       <c r="E101" t="n">
-        <v>29.24444411282182</v>
+        <v>56.41684032920644</v>
       </c>
     </row>
     <row r="102">
@@ -3171,7 +3171,7 @@
         </is>
       </c>
       <c r="E102" t="n">
-        <v>29.27045352830534</v>
+        <v>66.31164300147665</v>
       </c>
     </row>
     <row r="103">
@@ -3196,7 +3196,7 @@
         </is>
       </c>
       <c r="E103" t="n">
-        <v>29.26614712426256</v>
+        <v>64.78383266457763</v>
       </c>
     </row>
     <row r="104">
@@ -3221,7 +3221,7 @@
         </is>
       </c>
       <c r="E104" t="n">
-        <v>29.12420071419108</v>
+        <v>30.83335481150867</v>
       </c>
     </row>
     <row r="105">
@@ -3246,7 +3246,7 @@
         </is>
       </c>
       <c r="E105" t="n">
-        <v>29.22541470529544</v>
+        <v>60.40603934223827</v>
       </c>
     </row>
     <row r="106">
@@ -3271,7 +3271,7 @@
         </is>
       </c>
       <c r="E106" t="n">
-        <v>29.24029087777958</v>
+        <v>64.67426211406007</v>
       </c>
     </row>
     <row r="107">
@@ -3296,7 +3296,7 @@
         </is>
       </c>
       <c r="E107" t="n">
-        <v>29.12995496007783</v>
+        <v>25.5117164816076</v>
       </c>
     </row>
     <row r="108">
@@ -3321,7 +3321,7 @@
         </is>
       </c>
       <c r="E108" t="n">
-        <v>29.19909502745758</v>
+        <v>44.21237486045749</v>
       </c>
     </row>
     <row r="109">
@@ -3346,7 +3346,7 @@
         </is>
       </c>
       <c r="E109" t="n">
-        <v>29.21803402182656</v>
+        <v>46.23470691143792</v>
       </c>
     </row>
     <row r="110">
@@ -3371,7 +3371,7 @@
         </is>
       </c>
       <c r="E110" t="n">
-        <v>29.07298224554184</v>
+        <v>9.53679743771691</v>
       </c>
     </row>
     <row r="111">
@@ -3396,7 +3396,7 @@
         </is>
       </c>
       <c r="E111" t="n">
-        <v>29.18319790576596</v>
+        <v>41.40255861426079</v>
       </c>
     </row>
     <row r="112">
@@ -3421,7 +3421,7 @@
         </is>
       </c>
       <c r="E112" t="n">
-        <v>29.21121599421726</v>
+        <v>45.37212799018846</v>
       </c>
     </row>
     <row r="113">
@@ -3446,7 +3446,7 @@
         </is>
       </c>
       <c r="E113" t="n">
-        <v>29.08267899840293</v>
+        <v>10.54713533457777</v>
       </c>
     </row>
     <row r="114">
@@ -3471,7 +3471,7 @@
         </is>
       </c>
       <c r="E114" t="n">
-        <v>29.25620569364147</v>
+        <v>64.30209321775908</v>
       </c>
     </row>
     <row r="115">
@@ -3496,7 +3496,7 @@
         </is>
       </c>
       <c r="E115" t="n">
-        <v>29.28934131344311</v>
+        <v>69.68346935498677</v>
       </c>
     </row>
     <row r="116">
@@ -3521,7 +3521,7 @@
         </is>
       </c>
       <c r="E116" t="n">
-        <v>29.2646051295336</v>
+        <v>57.6137406828898</v>
       </c>
     </row>
     <row r="117">
@@ -3546,7 +3546,7 @@
         </is>
       </c>
       <c r="E117" t="n">
-        <v>29.3184811547756</v>
+        <v>67.84752274096408</v>
       </c>
     </row>
     <row r="118">
@@ -3571,7 +3571,7 @@
         </is>
       </c>
       <c r="E118" t="n">
-        <v>29.32393102930543</v>
+        <v>66.96991928570279</v>
       </c>
     </row>
     <row r="119">
@@ -3596,7 +3596,7 @@
         </is>
       </c>
       <c r="E119" t="n">
-        <v>29.13020046059236</v>
+        <v>27.8773233473017</v>
       </c>
     </row>
     <row r="120">
@@ -3621,7 +3621,7 @@
         </is>
       </c>
       <c r="E120" t="n">
-        <v>29.32120828241939</v>
+        <v>68.31111075137039</v>
       </c>
     </row>
     <row r="121">
@@ -3646,7 +3646,7 @@
         </is>
       </c>
       <c r="E121" t="n">
-        <v>29.33129260223184</v>
+        <v>69.54528052599032</v>
       </c>
     </row>
     <row r="122">
@@ -3671,7 +3671,7 @@
         </is>
       </c>
       <c r="E122" t="n">
-        <v>29.13922679226247</v>
+        <v>32.66204549478959</v>
       </c>
     </row>
     <row r="123">
@@ -3696,7 +3696,7 @@
         </is>
       </c>
       <c r="E123" t="n">
-        <v>29.24180716073717</v>
+        <v>51.32049406051533</v>
       </c>
     </row>
     <row r="124">
@@ -3721,7 +3721,7 @@
         </is>
       </c>
       <c r="E124" t="n">
-        <v>29.26061509145828</v>
+        <v>51.88901315023436</v>
       </c>
     </row>
     <row r="125">
@@ -3746,7 +3746,7 @@
         </is>
       </c>
       <c r="E125" t="n">
-        <v>29.06644298258784</v>
+        <v>10.491016315495</v>
       </c>
     </row>
     <row r="126">
@@ -3771,7 +3771,7 @@
         </is>
       </c>
       <c r="E126" t="n">
-        <v>29.23098919242704</v>
+        <v>50.81258380743297</v>
       </c>
     </row>
     <row r="127">
@@ -3796,7 +3796,7 @@
         </is>
       </c>
       <c r="E127" t="n">
-        <v>29.25257423232125</v>
+        <v>52.02295100154131</v>
       </c>
     </row>
     <row r="128">
@@ -3821,7 +3821,7 @@
         </is>
       </c>
       <c r="E128" t="n">
-        <v>29.07967383472233</v>
+        <v>11.44019306609518</v>
       </c>
     </row>
     <row r="129">
@@ -3846,7 +3846,7 @@
         </is>
       </c>
       <c r="E129" t="n">
-        <v>29.32588826897175</v>
+        <v>76.13757860760512</v>
       </c>
     </row>
     <row r="130">
@@ -3871,7 +3871,7 @@
         </is>
       </c>
       <c r="E130" t="n">
-        <v>29.35222127916609</v>
+        <v>73.54902540522835</v>
       </c>
     </row>
     <row r="131">
@@ -3896,7 +3896,7 @@
         </is>
       </c>
       <c r="E131" t="n">
-        <v>29.4002063506609</v>
+        <v>80.02720299846621</v>
       </c>
     </row>
     <row r="132">
@@ -3921,7 +3921,7 @@
         </is>
       </c>
       <c r="E132" t="n">
-        <v>29.45427406223381</v>
+        <v>86.33403873267204</v>
       </c>
     </row>
     <row r="133">
@@ -3946,7 +3946,7 @@
         </is>
       </c>
       <c r="E133" t="n">
-        <v>29.47036279408367</v>
+        <v>88.96120767486488</v>
       </c>
     </row>
     <row r="134">
@@ -3971,7 +3971,7 @@
         </is>
       </c>
       <c r="E134" t="n">
-        <v>29.1609416014132</v>
+        <v>34.72228713039512</v>
       </c>
     </row>
     <row r="135">
@@ -3996,7 +3996,7 @@
         </is>
       </c>
       <c r="E135" t="n">
-        <v>29.43705724565672</v>
+        <v>85.29796466124142</v>
       </c>
     </row>
     <row r="136">
@@ -4021,7 +4021,7 @@
         </is>
       </c>
       <c r="E136" t="n">
-        <v>29.44556496013285</v>
+        <v>86.0946919253831</v>
       </c>
     </row>
     <row r="137">
@@ -4046,7 +4046,7 @@
         </is>
       </c>
       <c r="E137" t="n">
-        <v>29.08988856848359</v>
+        <v>19.08546416902728</v>
       </c>
     </row>
     <row r="138">
@@ -4071,7 +4071,7 @@
         </is>
       </c>
       <c r="E138" t="n">
-        <v>29.11255254077411</v>
+        <v>19.71475659457003</v>
       </c>
     </row>
     <row r="139">
@@ -4096,7 +4096,7 @@
         </is>
       </c>
       <c r="E139" t="n">
-        <v>29.12023671110357</v>
+        <v>20.22080998883844</v>
       </c>
     </row>
     <row r="140">
@@ -4121,7 +4121,7 @@
         </is>
       </c>
       <c r="E140" t="n">
-        <v>29.0624530381974</v>
+        <v>4.984456252860969</v>
       </c>
     </row>
     <row r="141">
@@ -4146,7 +4146,7 @@
         </is>
       </c>
       <c r="E141" t="n">
-        <v>29.1249854348288</v>
+        <v>23.55575913843975</v>
       </c>
     </row>
     <row r="142">
@@ -4171,7 +4171,7 @@
         </is>
       </c>
       <c r="E142" t="n">
-        <v>29.13210177749722</v>
+        <v>23.78094533584882</v>
       </c>
     </row>
     <row r="143">
@@ -4196,7 +4196,7 @@
         </is>
       </c>
       <c r="E143" t="n">
-        <v>29.07358497767662</v>
+        <v>7.069360250959033</v>
       </c>
     </row>
     <row r="144">
@@ -4221,7 +4221,7 @@
         </is>
       </c>
       <c r="E144" t="n">
-        <v>29.15987987860371</v>
+        <v>30.71755333625457</v>
       </c>
     </row>
     <row r="145">
@@ -4246,7 +4246,7 @@
         </is>
       </c>
       <c r="E145" t="n">
-        <v>29.15901116361229</v>
+        <v>28.41886884505202</v>
       </c>
     </row>
     <row r="146">
@@ -4271,7 +4271,7 @@
         </is>
       </c>
       <c r="E146" t="n">
-        <v>29.16114889058866</v>
+        <v>25.95854829158524</v>
       </c>
     </row>
     <row r="147">
@@ -4296,7 +4296,7 @@
         </is>
       </c>
       <c r="E147" t="n">
-        <v>29.17234434669258</v>
+        <v>29.19193818314923</v>
       </c>
     </row>
     <row r="148">
@@ -4321,7 +4321,7 @@
         </is>
       </c>
       <c r="E148" t="n">
-        <v>29.19078232625099</v>
+        <v>31.58484449242535</v>
       </c>
     </row>
     <row r="149">
@@ -4346,7 +4346,7 @@
         </is>
       </c>
       <c r="E149" t="n">
-        <v>29.12461796965864</v>
+        <v>63.7229307160252</v>
       </c>
     </row>
     <row r="150">
@@ -4371,7 +4371,7 @@
         </is>
       </c>
       <c r="E150" t="n">
-        <v>29.17570926600202</v>
+        <v>65.11477294972426</v>
       </c>
     </row>
     <row r="151">
@@ -4396,7 +4396,7 @@
         </is>
       </c>
       <c r="E151" t="n">
-        <v>29.20296435798098</v>
+        <v>62.54437260415338</v>
       </c>
     </row>
     <row r="152">
@@ -4421,7 +4421,7 @@
         </is>
       </c>
       <c r="E152" t="n">
-        <v>29.10837055201454</v>
+        <v>17.37526095362559</v>
       </c>
     </row>
     <row r="153">
@@ -4446,7 +4446,7 @@
         </is>
       </c>
       <c r="E153" t="n">
-        <v>29.15095396218519</v>
+        <v>36.37592053964683</v>
       </c>
     </row>
     <row r="154">
@@ -4471,7 +4471,7 @@
         </is>
       </c>
       <c r="E154" t="n">
-        <v>29.17455052798292</v>
+        <v>41.20924010700134</v>
       </c>
     </row>
     <row r="155">
@@ -4496,7 +4496,7 @@
         </is>
       </c>
       <c r="E155" t="n">
-        <v>29.07600341344357</v>
+        <v>9.921032131690982</v>
       </c>
     </row>
     <row r="156">
@@ -4521,7 +4521,7 @@
         </is>
       </c>
       <c r="E156" t="n">
-        <v>29.14945192113976</v>
+        <v>36.68062399847724</v>
       </c>
     </row>
     <row r="157">
@@ -4546,7 +4546,7 @@
         </is>
       </c>
       <c r="E157" t="n">
-        <v>29.18737312334164</v>
+        <v>49.2185756909672</v>
       </c>
     </row>
     <row r="158">
@@ -4571,7 +4571,7 @@
         </is>
       </c>
       <c r="E158" t="n">
-        <v>29.08178138613747</v>
+        <v>13.34718732316258</v>
       </c>
     </row>
     <row r="159">
@@ -4596,7 +4596,7 @@
         </is>
       </c>
       <c r="E159" t="n">
-        <v>29.20003440659135</v>
+        <v>50.83666700026038</v>
       </c>
     </row>
     <row r="160">
@@ -4621,7 +4621,7 @@
         </is>
       </c>
       <c r="E160" t="n">
-        <v>29.24656345303109</v>
+        <v>67.54106258271437</v>
       </c>
     </row>
     <row r="161">
@@ -4646,7 +4646,7 @@
         </is>
       </c>
       <c r="E161" t="n">
-        <v>29.18733051817254</v>
+        <v>44.73570006668281</v>
       </c>
     </row>
     <row r="162">
@@ -4671,7 +4671,7 @@
         </is>
       </c>
       <c r="E162" t="n">
-        <v>29.22977639434746</v>
+        <v>53.36391826568837</v>
       </c>
     </row>
     <row r="163">
@@ -4696,7 +4696,7 @@
         </is>
       </c>
       <c r="E163" t="n">
-        <v>29.26748494829519</v>
+        <v>65.27129530055709</v>
       </c>
     </row>
     <row r="164">
@@ -4721,7 +4721,7 @@
         </is>
       </c>
       <c r="E164" t="n">
-        <v>29.13236564455942</v>
+        <v>18.7052581591355</v>
       </c>
     </row>
     <row r="165">
@@ -4746,7 +4746,7 @@
         </is>
       </c>
       <c r="E165" t="n">
-        <v>29.27265775243159</v>
+        <v>62.67501760564612</v>
       </c>
     </row>
     <row r="166">
@@ -4771,7 +4771,7 @@
         </is>
       </c>
       <c r="E166" t="n">
-        <v>29.29928652243987</v>
+        <v>68.14452112970764</v>
       </c>
     </row>
     <row r="167">
@@ -4796,7 +4796,7 @@
         </is>
       </c>
       <c r="E167" t="n">
-        <v>29.12477868629219</v>
+        <v>29.27277390538663</v>
       </c>
     </row>
     <row r="168">
@@ -4821,7 +4821,7 @@
         </is>
       </c>
       <c r="E168" t="n">
-        <v>29.18382614719631</v>
+        <v>45.62061471120752</v>
       </c>
     </row>
     <row r="169">
@@ -4846,7 +4846,7 @@
         </is>
       </c>
       <c r="E169" t="n">
-        <v>29.20954717700326</v>
+        <v>52.31080823725107</v>
       </c>
     </row>
     <row r="170">
@@ -4871,7 +4871,7 @@
         </is>
       </c>
       <c r="E170" t="n">
-        <v>29.07529391943143</v>
+        <v>12.97676160165864</v>
       </c>
     </row>
     <row r="171">
@@ -4896,7 +4896,7 @@
         </is>
       </c>
       <c r="E171" t="n">
-        <v>29.1773165031832</v>
+        <v>42.98236769384155</v>
       </c>
     </row>
     <row r="172">
@@ -4921,7 +4921,7 @@
         </is>
       </c>
       <c r="E172" t="n">
-        <v>29.2132366534564</v>
+        <v>50.44174591140781</v>
       </c>
     </row>
     <row r="173">
@@ -4946,7 +4946,7 @@
         </is>
       </c>
       <c r="E173" t="n">
-        <v>29.08464697972173</v>
+        <v>17.42717459352528</v>
       </c>
     </row>
     <row r="174">
@@ -4971,7 +4971,7 @@
         </is>
       </c>
       <c r="E174" t="n">
-        <v>29.25364278692664</v>
+        <v>65.39824334533171</v>
       </c>
     </row>
     <row r="175">
@@ -4996,7 +4996,7 @@
         </is>
       </c>
       <c r="E175" t="n">
-        <v>29.29737987648096</v>
+        <v>74.58221448872453</v>
       </c>
     </row>
     <row r="176">
@@ -5021,7 +5021,7 @@
         </is>
       </c>
       <c r="E176" t="n">
-        <v>29.30176131846177</v>
+        <v>64.79612925334428</v>
       </c>
     </row>
     <row r="177">
@@ -5046,7 +5046,7 @@
         </is>
       </c>
       <c r="E177" t="n">
-        <v>29.34212928442648</v>
+        <v>74.28939234310189</v>
       </c>
     </row>
     <row r="178">
@@ -5071,7 +5071,7 @@
         </is>
       </c>
       <c r="E178" t="n">
-        <v>29.39614306550116</v>
+        <v>87.46244975772036</v>
       </c>
     </row>
     <row r="179">
@@ -5096,7 +5096,7 @@
         </is>
       </c>
       <c r="E179" t="n">
-        <v>29.17505130731995</v>
+        <v>38.50726123801641</v>
       </c>
     </row>
     <row r="180">
@@ -5121,7 +5121,7 @@
         </is>
       </c>
       <c r="E180" t="n">
-        <v>29.35581769585788</v>
+        <v>78.45422601032317</v>
       </c>
     </row>
     <row r="181">
@@ -5146,7 +5146,7 @@
         </is>
       </c>
       <c r="E181" t="n">
-        <v>29.39077253658543</v>
+        <v>82.89423150812729</v>
       </c>
     </row>
     <row r="182">
@@ -5171,7 +5171,7 @@
         </is>
       </c>
       <c r="E182" t="n">
-        <v>29.12244570331055</v>
+        <v>28.0739425163421</v>
       </c>
     </row>
     <row r="183">
@@ -5196,7 +5196,7 @@
         </is>
       </c>
       <c r="E183" t="n">
-        <v>29.16305564591389</v>
+        <v>43.56548356899316</v>
       </c>
     </row>
     <row r="184">
@@ -5221,7 +5221,7 @@
         </is>
       </c>
       <c r="E184" t="n">
-        <v>29.16832463670817</v>
+        <v>41.02294309727088</v>
       </c>
     </row>
     <row r="185">
@@ -5246,7 +5246,7 @@
         </is>
       </c>
       <c r="E185" t="n">
-        <v>29.09213270872448</v>
+        <v>10.82809839052963</v>
       </c>
     </row>
     <row r="186">
@@ -5271,7 +5271,7 @@
         </is>
       </c>
       <c r="E186" t="n">
-        <v>29.17754606065222</v>
+        <v>46.43175089997638</v>
       </c>
     </row>
     <row r="187">
@@ -5296,7 +5296,7 @@
         </is>
       </c>
       <c r="E187" t="n">
-        <v>29.1840871679901</v>
+        <v>49.55484152709427</v>
       </c>
     </row>
     <row r="188">
@@ -5321,7 +5321,7 @@
         </is>
       </c>
       <c r="E188" t="n">
-        <v>29.1063226300719</v>
+        <v>12.78418747780962</v>
       </c>
     </row>
     <row r="189">
@@ -5346,7 +5346,7 @@
         </is>
       </c>
       <c r="E189" t="n">
-        <v>29.22067762672237</v>
+        <v>70.69231713126429</v>
       </c>
     </row>
     <row r="190">
@@ -5371,7 +5371,7 @@
         </is>
       </c>
       <c r="E190" t="n">
-        <v>29.21785212647427</v>
+        <v>63.10963443605657</v>
       </c>
     </row>
     <row r="191">
@@ -5396,7 +5396,7 @@
         </is>
       </c>
       <c r="E191" t="n">
-        <v>29.23149941329786</v>
+        <v>57.18920594677923</v>
       </c>
     </row>
     <row r="192">
@@ -5421,7 +5421,7 @@
         </is>
       </c>
       <c r="E192" t="n">
-        <v>29.24937911291052</v>
+        <v>69.45018105412066</v>
       </c>
     </row>
     <row r="193">
@@ -5446,7 +5446,7 @@
         </is>
       </c>
       <c r="E193" t="n">
-        <v>29.25728926718168</v>
+        <v>70.48609995529574</v>
       </c>
     </row>
     <row r="194">
@@ -5471,7 +5471,7 @@
         </is>
       </c>
       <c r="E194" t="n">
-        <v>29.13423779559866</v>
+        <v>24.8127786194523</v>
       </c>
     </row>
     <row r="195">
@@ -5496,7 +5496,7 @@
         </is>
       </c>
       <c r="E195" t="n">
-        <v>29.19189486390308</v>
+        <v>15.46096961425751</v>
       </c>
     </row>
     <row r="196">
@@ -5521,7 +5521,7 @@
         </is>
       </c>
       <c r="E196" t="n">
-        <v>29.21289515055935</v>
+        <v>16.92605173465633</v>
       </c>
     </row>
     <row r="197">
@@ -5546,7 +5546,7 @@
         </is>
       </c>
       <c r="E197" t="n">
-        <v>29.13945722409305</v>
+        <v>32.35131523006625</v>
       </c>
     </row>
     <row r="198">
@@ -5571,7 +5571,7 @@
         </is>
       </c>
       <c r="E198" t="n">
-        <v>29.20485192853193</v>
+        <v>50.61597317859088</v>
       </c>
     </row>
     <row r="199">
@@ -5596,7 +5596,7 @@
         </is>
       </c>
       <c r="E199" t="n">
-        <v>29.22021998318148</v>
+        <v>49.64712833881899</v>
       </c>
     </row>
     <row r="200">
@@ -5621,7 +5621,7 @@
         </is>
       </c>
       <c r="E200" t="n">
-        <v>29.08993324670913</v>
+        <v>10.95325593490016</v>
       </c>
     </row>
     <row r="201">
@@ -5646,7 +5646,7 @@
         </is>
       </c>
       <c r="E201" t="n">
-        <v>29.19683057269605</v>
+        <v>46.34171693431297</v>
       </c>
     </row>
     <row r="202">
@@ -5671,7 +5671,7 @@
         </is>
       </c>
       <c r="E202" t="n">
-        <v>29.22660521682904</v>
+        <v>51.1663100462421</v>
       </c>
     </row>
     <row r="203">
@@ -5696,7 +5696,7 @@
         </is>
       </c>
       <c r="E203" t="n">
-        <v>29.10156850459779</v>
+        <v>12.91101418814117</v>
       </c>
     </row>
     <row r="204">
@@ -5721,7 +5721,7 @@
         </is>
       </c>
       <c r="E204" t="n">
-        <v>29.25748435587948</v>
+        <v>69.64037227231908</v>
       </c>
     </row>
     <row r="205">
@@ -5746,7 +5746,7 @@
         </is>
       </c>
       <c r="E205" t="n">
-        <v>29.29367753146908</v>
+        <v>70.72631443542404</v>
       </c>
     </row>
     <row r="206">
@@ -5771,7 +5771,7 @@
         </is>
       </c>
       <c r="E206" t="n">
-        <v>29.27368750882382</v>
+        <v>68.65261516954604</v>
       </c>
     </row>
     <row r="207">
@@ -5796,7 +5796,7 @@
         </is>
       </c>
       <c r="E207" t="n">
-        <v>29.31411789576581</v>
+        <v>74.55516808042091</v>
       </c>
     </row>
     <row r="208">
@@ -5821,7 +5821,7 @@
         </is>
       </c>
       <c r="E208" t="n">
-        <v>29.33455996272096</v>
+        <v>75.92430325159292</v>
       </c>
     </row>
     <row r="209">
@@ -5846,7 +5846,7 @@
         </is>
       </c>
       <c r="E209" t="n">
-        <v>29.17006399603057</v>
+        <v>41.62352149367587</v>
       </c>
     </row>
     <row r="210">
@@ -5871,7 +5871,7 @@
         </is>
       </c>
       <c r="E210" t="n">
-        <v>29.32226020218302</v>
+        <v>76.69428386270378</v>
       </c>
     </row>
     <row r="211">
@@ -5896,7 +5896,7 @@
         </is>
       </c>
       <c r="E211" t="n">
-        <v>29.33275690343689</v>
+        <v>76.11866047804915</v>
       </c>
     </row>
     <row r="212">
@@ -5921,7 +5921,7 @@
         </is>
       </c>
       <c r="E212" t="n">
-        <v>29.14726243322739</v>
+        <v>37.18379652645397</v>
       </c>
     </row>
     <row r="213">
@@ -5946,7 +5946,7 @@
         </is>
       </c>
       <c r="E213" t="n">
-        <v>29.22957512881507</v>
+        <v>53.58951759257189</v>
       </c>
     </row>
     <row r="214">
@@ -5971,7 +5971,7 @@
         </is>
       </c>
       <c r="E214" t="n">
-        <v>29.24879276596816</v>
+        <v>54.67084294748764</v>
       </c>
     </row>
     <row r="215">
@@ -5996,7 +5996,7 @@
         </is>
       </c>
       <c r="E215" t="n">
-        <v>29.08010085355436</v>
+        <v>11.5751676397657</v>
       </c>
     </row>
     <row r="216">
@@ -6021,7 +6021,7 @@
         </is>
       </c>
       <c r="E216" t="n">
-        <v>29.21720811647758</v>
+        <v>48.26656310443419</v>
       </c>
     </row>
     <row r="217">
@@ -6046,7 +6046,7 @@
         </is>
       </c>
       <c r="E217" t="n">
-        <v>29.24754388559815</v>
+        <v>52.01925194293391</v>
       </c>
     </row>
     <row r="218">
@@ -6071,7 +6071,7 @@
         </is>
       </c>
       <c r="E218" t="n">
-        <v>29.09519355782978</v>
+        <v>14.40068663764308</v>
       </c>
     </row>
     <row r="219">
@@ -6096,7 +6096,7 @@
         </is>
       </c>
       <c r="E219" t="n">
-        <v>29.30148459364687</v>
+        <v>75.58023181473257</v>
       </c>
     </row>
     <row r="220">
@@ -6121,7 +6121,7 @@
         </is>
       </c>
       <c r="E220" t="n">
-        <v>29.33822164549257</v>
+        <v>77.36352865436005</v>
       </c>
     </row>
     <row r="221">
@@ -6146,7 +6146,7 @@
         </is>
       </c>
       <c r="E221" t="n">
-        <v>29.37794750528575</v>
+        <v>83.3344379745856</v>
       </c>
     </row>
     <row r="222">
@@ -6171,7 +6171,7 @@
         </is>
       </c>
       <c r="E222" t="n">
-        <v>29.41455958528336</v>
+        <v>86.83925381781864</v>
       </c>
     </row>
     <row r="223">
@@ -6196,7 +6196,7 @@
         </is>
       </c>
       <c r="E223" t="n">
-        <v>29.45289780459425</v>
+        <v>90.26475327884515</v>
       </c>
     </row>
     <row r="224">
@@ -6221,7 +6221,7 @@
         </is>
       </c>
       <c r="E224" t="n">
-        <v>29.1924585666035</v>
+        <v>52.67667184505208</v>
       </c>
     </row>
     <row r="225">
@@ -6246,7 +6246,7 @@
         </is>
       </c>
       <c r="E225" t="n">
-        <v>29.39022333463493</v>
+        <v>89.04980883671607</v>
       </c>
     </row>
     <row r="226">
@@ -6271,7 +6271,7 @@
         </is>
       </c>
       <c r="E226" t="n">
-        <v>29.40880934375379</v>
+        <v>83.98459474197367</v>
       </c>
     </row>
     <row r="227">
@@ -6296,7 +6296,7 @@
         </is>
       </c>
       <c r="E227" t="n">
-        <v>29.09380655575385</v>
+        <v>22.65075051479038</v>
       </c>
     </row>
     <row r="228">
@@ -6321,7 +6321,7 @@
         </is>
       </c>
       <c r="E228" t="n">
-        <v>29.16039450578916</v>
+        <v>35.52083157616006</v>
       </c>
     </row>
     <row r="229">
@@ -6346,7 +6346,7 @@
         </is>
       </c>
       <c r="E229" t="n">
-        <v>29.16925896427159</v>
+        <v>39.40824464821807</v>
       </c>
     </row>
     <row r="230">
@@ -6371,7 +6371,7 @@
         </is>
       </c>
       <c r="E230" t="n">
-        <v>29.07148066842876</v>
+        <v>9.580593145138582</v>
       </c>
     </row>
     <row r="231">
@@ -6396,7 +6396,7 @@
         </is>
       </c>
       <c r="E231" t="n">
-        <v>29.19135203417418</v>
+        <v>44.55906264453455</v>
       </c>
     </row>
     <row r="232">
@@ -6421,7 +6421,7 @@
         </is>
       </c>
       <c r="E232" t="n">
-        <v>29.19692681148369</v>
+        <v>47.4891813990853</v>
       </c>
     </row>
     <row r="233">
@@ -6446,7 +6446,7 @@
         </is>
       </c>
       <c r="E233" t="n">
-        <v>29.08370610908617</v>
+        <v>10.47710352155087</v>
       </c>
     </row>
     <row r="234">
@@ -6471,7 +6471,7 @@
         </is>
       </c>
       <c r="E234" t="n">
-        <v>29.26201279961016</v>
+        <v>68.63070330227161</v>
       </c>
     </row>
     <row r="235">
@@ -6496,7 +6496,7 @@
         </is>
       </c>
       <c r="E235" t="n">
-        <v>29.2522995349748</v>
+        <v>64.09748521162405</v>
       </c>
     </row>
     <row r="236">
@@ -6521,7 +6521,7 @@
         </is>
       </c>
       <c r="E236" t="n">
-        <v>29.26669798934859</v>
+        <v>59.93350602236815</v>
       </c>
     </row>
     <row r="237">
@@ -6546,7 +6546,7 @@
         </is>
       </c>
       <c r="E237" t="n">
-        <v>29.31530051825041</v>
+        <v>65.76061065991919</v>
       </c>
     </row>
     <row r="238">
@@ -6571,7 +6571,7 @@
         </is>
       </c>
       <c r="E238" t="n">
-        <v>29.3157788209975</v>
+        <v>67.42035859187168</v>
       </c>
     </row>
     <row r="239">
@@ -6596,7 +6596,7 @@
         </is>
       </c>
       <c r="E239" t="n">
-        <v>29.08514701235721</v>
+        <v>17.45714684790165</v>
       </c>
     </row>
     <row r="240">
@@ -6621,7 +6621,7 @@
         </is>
       </c>
       <c r="E240" t="n">
-        <v>29.17545190029191</v>
+        <v>10.47842199491809</v>
       </c>
     </row>
     <row r="241">
@@ -6646,7 +6646,7 @@
         </is>
       </c>
       <c r="E241" t="n">
-        <v>29.20191654739396</v>
+        <v>9.803982093211125</v>
       </c>
     </row>
     <row r="242">
@@ -6671,7 +6671,7 @@
         </is>
       </c>
       <c r="E242" t="n">
-        <v>29.11354295147129</v>
+        <v>27.20618145698445</v>
       </c>
     </row>
     <row r="243">
@@ -6696,7 +6696,7 @@
         </is>
       </c>
       <c r="E243" t="n">
-        <v>29.2260525576567</v>
+        <v>48.09707295735643</v>
       </c>
     </row>
     <row r="244">
@@ -6721,7 +6721,7 @@
         </is>
       </c>
       <c r="E244" t="n">
-        <v>29.24211914057637</v>
+        <v>49.8436986385105</v>
       </c>
     </row>
     <row r="245">
@@ -6746,7 +6746,7 @@
         </is>
       </c>
       <c r="E245" t="n">
-        <v>29.05510425275206</v>
+        <v>10.03344881071664</v>
       </c>
     </row>
     <row r="246">
@@ -6771,7 +6771,7 @@
         </is>
       </c>
       <c r="E246" t="n">
-        <v>29.22260109276126</v>
+        <v>46.31304654571505</v>
       </c>
     </row>
     <row r="247">
@@ -6796,7 +6796,7 @@
         </is>
       </c>
       <c r="E247" t="n">
-        <v>29.24722921941933</v>
+        <v>50.20492080419864</v>
       </c>
     </row>
     <row r="248">
@@ -6821,7 +6821,7 @@
         </is>
       </c>
       <c r="E248" t="n">
-        <v>29.067355123079</v>
+        <v>11.45694442404841</v>
       </c>
     </row>
     <row r="249">
@@ -6846,7 +6846,7 @@
         </is>
       </c>
       <c r="E249" t="n">
-        <v>29.31764946694932</v>
+        <v>70.00613275341806</v>
       </c>
     </row>
     <row r="250">
@@ -6871,7 +6871,7 @@
         </is>
       </c>
       <c r="E250" t="n">
-        <v>29.34834396818594</v>
+        <v>72.13335122525197</v>
       </c>
     </row>
     <row r="251">
@@ -6896,7 +6896,7 @@
         </is>
       </c>
       <c r="E251" t="n">
-        <v>29.3120326577569</v>
+        <v>55.73144666541562</v>
       </c>
     </row>
     <row r="252">
@@ -6921,7 +6921,7 @@
         </is>
       </c>
       <c r="E252" t="n">
-        <v>29.40073544880024</v>
+        <v>70.12728081078585</v>
       </c>
     </row>
     <row r="253">
@@ -6946,7 +6946,7 @@
         </is>
       </c>
       <c r="E253" t="n">
-        <v>29.41217026112844</v>
+        <v>72.37393212505205</v>
       </c>
     </row>
     <row r="254">
@@ -6971,7 +6971,7 @@
         </is>
       </c>
       <c r="E254" t="n">
-        <v>29.13696452711696</v>
+        <v>25.77656759454155</v>
       </c>
     </row>
     <row r="255">
@@ -6996,7 +6996,7 @@
         </is>
       </c>
       <c r="E255" t="n">
-        <v>29.386858348169</v>
+        <v>75.38399650568222</v>
       </c>
     </row>
     <row r="256">
@@ -7021,7 +7021,7 @@
         </is>
       </c>
       <c r="E256" t="n">
-        <v>29.39528631094178</v>
+        <v>78.26414921403442</v>
       </c>
     </row>
     <row r="257">
@@ -7046,7 +7046,7 @@
         </is>
       </c>
       <c r="E257" t="n">
-        <v>29.1153258561131</v>
+        <v>27.76301764214399</v>
       </c>
     </row>
     <row r="258">
@@ -7071,7 +7071,7 @@
         </is>
       </c>
       <c r="E258" t="n">
-        <v>29.25963902205305</v>
+        <v>48.0583556311834</v>
       </c>
     </row>
     <row r="259">
@@ -7096,7 +7096,7 @@
         </is>
       </c>
       <c r="E259" t="n">
-        <v>29.27816987502824</v>
+        <v>50.14819853370906</v>
       </c>
     </row>
     <row r="260">
@@ -7121,7 +7121,7 @@
         </is>
       </c>
       <c r="E260" t="n">
-        <v>29.03890648674684</v>
+        <v>9.620159641733942</v>
       </c>
     </row>
     <row r="261">
@@ -7146,7 +7146,7 @@
         </is>
       </c>
       <c r="E261" t="n">
-        <v>29.26016133529074</v>
+        <v>47.61883490787442</v>
       </c>
     </row>
     <row r="262">
@@ -7171,7 +7171,7 @@
         </is>
       </c>
       <c r="E262" t="n">
-        <v>29.27908071421467</v>
+        <v>49.04300695391827</v>
       </c>
     </row>
     <row r="263">
@@ -7196,7 +7196,7 @@
         </is>
       </c>
       <c r="E263" t="n">
-        <v>29.06034294164781</v>
+        <v>10.88830382648867</v>
       </c>
     </row>
     <row r="264">
@@ -7221,7 +7221,7 @@
         </is>
       </c>
       <c r="E264" t="n">
-        <v>29.38533148682872</v>
+        <v>72.90760581845217</v>
       </c>
     </row>
     <row r="265">
@@ -7246,7 +7246,7 @@
         </is>
       </c>
       <c r="E265" t="n">
-        <v>29.41290684081636</v>
+        <v>70.89847526792553</v>
       </c>
     </row>
     <row r="266">
@@ -7271,7 +7271,7 @@
         </is>
       </c>
       <c r="E266" t="n">
-        <v>29.45192776957392</v>
+        <v>74.01281058182236</v>
       </c>
     </row>
     <row r="267">
@@ -7296,7 +7296,7 @@
         </is>
       </c>
       <c r="E267" t="n">
-        <v>29.54118925691331</v>
+        <v>81.65715500100069</v>
       </c>
     </row>
     <row r="268">
@@ -7321,7 +7321,7 @@
         </is>
       </c>
       <c r="E268" t="n">
-        <v>29.56700412956605</v>
+        <v>82.57842511713781</v>
       </c>
     </row>
     <row r="269">
@@ -7346,7 +7346,7 @@
         </is>
       </c>
       <c r="E269" t="n">
-        <v>29.14240338341175</v>
+        <v>26.05414412290516</v>
       </c>
     </row>
     <row r="270">
@@ -7371,7 +7371,7 @@
         </is>
       </c>
       <c r="E270" t="n">
-        <v>29.48443904474081</v>
+        <v>81.89927059975381</v>
       </c>
     </row>
     <row r="271">
@@ -7396,7 +7396,7 @@
         </is>
       </c>
       <c r="E271" t="n">
-        <v>29.48753641898007</v>
+        <v>81.23897706311388</v>
       </c>
     </row>
     <row r="272">
@@ -7421,7 +7421,7 @@
         </is>
       </c>
       <c r="E272" t="n">
-        <v>29.0410184684634</v>
+        <v>11.5214329406841</v>
       </c>
     </row>
     <row r="273">
@@ -7446,7 +7446,7 @@
         </is>
       </c>
       <c r="E273" t="n">
-        <v>29.06372778938895</v>
+        <v>11.3182900446766</v>
       </c>
     </row>
     <row r="274">
@@ -7471,7 +7471,7 @@
         </is>
       </c>
       <c r="E274" t="n">
-        <v>29.08068941376535</v>
+        <v>13.72443481304982</v>
       </c>
     </row>
     <row r="275">
@@ -7496,7 +7496,7 @@
         </is>
       </c>
       <c r="E275" t="n">
-        <v>29.00882674272188</v>
+        <v>2.404515452742746</v>
       </c>
     </row>
     <row r="276">
@@ -7521,7 +7521,7 @@
         </is>
       </c>
       <c r="E276" t="n">
-        <v>29.07836662014907</v>
+        <v>16.51187372491673</v>
       </c>
     </row>
     <row r="277">
@@ -7546,7 +7546,7 @@
         </is>
       </c>
       <c r="E277" t="n">
-        <v>29.09248246649661</v>
+        <v>19.68000676758173</v>
       </c>
     </row>
     <row r="278">
@@ -7571,7 +7571,7 @@
         </is>
       </c>
       <c r="E278" t="n">
-        <v>29.02154814369919</v>
+        <v>2.843997344246027</v>
       </c>
     </row>
     <row r="279">
@@ -7596,7 +7596,7 @@
         </is>
       </c>
       <c r="E279" t="n">
-        <v>29.13287291690052</v>
+        <v>22.53474547177544</v>
       </c>
     </row>
     <row r="280">
@@ -7621,7 +7621,7 @@
         </is>
       </c>
       <c r="E280" t="n">
-        <v>29.13523665349891</v>
+        <v>23.11685369562355</v>
       </c>
     </row>
     <row r="281">
@@ -7646,7 +7646,7 @@
         </is>
       </c>
       <c r="E281" t="n">
-        <v>29.13590176570859</v>
+        <v>24.39315330639769</v>
       </c>
     </row>
     <row r="282">
@@ -7671,7 +7671,7 @@
         </is>
       </c>
       <c r="E282" t="n">
-        <v>29.16159454279438</v>
+        <v>30.60788299935789</v>
       </c>
     </row>
     <row r="283">
@@ -7696,7 +7696,7 @@
         </is>
       </c>
       <c r="E283" t="n">
-        <v>29.16446331878483</v>
+        <v>31.97433353294874</v>
       </c>
     </row>
     <row r="284">
@@ -7721,7 +7721,7 @@
         </is>
       </c>
       <c r="E284" t="n">
-        <v>29.02570072712884</v>
+        <v>14.23529807952978</v>
       </c>
     </row>
     <row r="285">
@@ -7746,7 +7746,7 @@
         </is>
       </c>
       <c r="E285" t="n">
-        <v>29.09703371266552</v>
+        <v>20.0595025564985</v>
       </c>
     </row>
     <row r="286">
@@ -7771,7 +7771,7 @@
         </is>
       </c>
       <c r="E286" t="n">
-        <v>29.1214447911481</v>
+        <v>21.29020732228432</v>
       </c>
     </row>
     <row r="287">
@@ -7796,7 +7796,7 @@
         </is>
       </c>
       <c r="E287" t="n">
-        <v>29.07153197587414</v>
+        <v>16.02288265877621</v>
       </c>
     </row>
     <row r="288">
@@ -7821,7 +7821,7 @@
         </is>
       </c>
       <c r="E288" t="n">
-        <v>29.1236698946442</v>
+        <v>29.29476138574431</v>
       </c>
     </row>
     <row r="289">
@@ -7846,7 +7846,7 @@
         </is>
       </c>
       <c r="E289" t="n">
-        <v>29.16229333929397</v>
+        <v>34.81414747554856</v>
       </c>
     </row>
     <row r="290">
@@ -7871,7 +7871,7 @@
         </is>
       </c>
       <c r="E290" t="n">
-        <v>29.02356260246352</v>
+        <v>8.198941690128798</v>
       </c>
     </row>
     <row r="291">
@@ -7896,7 +7896,7 @@
         </is>
       </c>
       <c r="E291" t="n">
-        <v>29.11779308481488</v>
+        <v>28.17279335426009</v>
       </c>
     </row>
     <row r="292">
@@ -7921,7 +7921,7 @@
         </is>
       </c>
       <c r="E292" t="n">
-        <v>29.16732150747096</v>
+        <v>37.77436642544946</v>
       </c>
     </row>
     <row r="293">
@@ -7946,7 +7946,7 @@
         </is>
       </c>
       <c r="E293" t="n">
-        <v>29.0392349098377</v>
+        <v>9.108608753100622</v>
       </c>
     </row>
     <row r="294">
@@ -7971,7 +7971,7 @@
         </is>
       </c>
       <c r="E294" t="n">
-        <v>29.19585636815414</v>
+        <v>43.10673639129605</v>
       </c>
     </row>
     <row r="295">
@@ -7996,7 +7996,7 @@
         </is>
       </c>
       <c r="E295" t="n">
-        <v>29.25917843632777</v>
+        <v>54.44034605231192</v>
       </c>
     </row>
     <row r="296">
@@ -8021,7 +8021,7 @@
         </is>
       </c>
       <c r="E296" t="n">
-        <v>29.18651155537625</v>
+        <v>40.38294527686728</v>
       </c>
     </row>
     <row r="297">
@@ -8046,7 +8046,7 @@
         </is>
       </c>
       <c r="E297" t="n">
-        <v>29.25418229791451</v>
+        <v>50.10739610162638</v>
       </c>
     </row>
     <row r="298">
@@ -8071,7 +8071,7 @@
         </is>
       </c>
       <c r="E298" t="n">
-        <v>29.27186841944701</v>
+        <v>51.65821775661167</v>
       </c>
     </row>
     <row r="299">
@@ -8096,7 +8096,7 @@
         </is>
       </c>
       <c r="E299" t="n">
-        <v>29.06838516749239</v>
+        <v>17.94289677300452</v>
       </c>
     </row>
     <row r="300">
@@ -8121,7 +8121,7 @@
         </is>
       </c>
       <c r="E300" t="n">
-        <v>29.26167351287696</v>
+        <v>49.86897591488787</v>
       </c>
     </row>
     <row r="301">
@@ -8146,7 +8146,7 @@
         </is>
       </c>
       <c r="E301" t="n">
-        <v>29.29501861002303</v>
+        <v>53.35853561878282</v>
       </c>
     </row>
     <row r="302">
@@ -8171,7 +8171,7 @@
         </is>
       </c>
       <c r="E302" t="n">
-        <v>29.10053067051164</v>
+        <v>20.28703144456946</v>
       </c>
     </row>
     <row r="303">
@@ -8196,7 +8196,7 @@
         </is>
       </c>
       <c r="E303" t="n">
-        <v>29.19180526877557</v>
+        <v>38.68133741748966</v>
       </c>
     </row>
     <row r="304">
@@ -8221,7 +8221,7 @@
         </is>
       </c>
       <c r="E304" t="n">
-        <v>29.23285672413152</v>
+        <v>42.97920331716266</v>
       </c>
     </row>
     <row r="305">
@@ -8246,7 +8246,7 @@
         </is>
       </c>
       <c r="E305" t="n">
-        <v>29.04734128075431</v>
+        <v>10.58339991851759</v>
       </c>
     </row>
     <row r="306">
@@ -8271,7 +8271,7 @@
         </is>
       </c>
       <c r="E306" t="n">
-        <v>29.20309261044466</v>
+        <v>40.8745638481179</v>
       </c>
     </row>
     <row r="307">
@@ -8296,7 +8296,7 @@
         </is>
       </c>
       <c r="E307" t="n">
-        <v>29.24807208385449</v>
+        <v>47.4381624300793</v>
       </c>
     </row>
     <row r="308">
@@ -8321,7 +8321,7 @@
         </is>
       </c>
       <c r="E308" t="n">
-        <v>29.06825170676201</v>
+        <v>13.11039362521092</v>
       </c>
     </row>
     <row r="309">
@@ -8346,7 +8346,7 @@
         </is>
       </c>
       <c r="E309" t="n">
-        <v>29.30790487984705</v>
+        <v>63.714437358796</v>
       </c>
     </row>
     <row r="310">
@@ -8371,7 +8371,7 @@
         </is>
       </c>
       <c r="E310" t="n">
-        <v>29.36593628482169</v>
+        <v>65.41441285344021</v>
       </c>
     </row>
     <row r="311">
@@ -8396,7 +8396,7 @@
         </is>
       </c>
       <c r="E311" t="n">
-        <v>29.38343618854856</v>
+        <v>68.19663940759314</v>
       </c>
     </row>
     <row r="312">
@@ -8421,7 +8421,7 @@
         </is>
       </c>
       <c r="E312" t="n">
-        <v>29.45381882201804</v>
+        <v>76.17033545050947</v>
       </c>
     </row>
     <row r="313">
@@ -8446,7 +8446,7 @@
         </is>
       </c>
       <c r="E313" t="n">
-        <v>29.49382816687218</v>
+        <v>77.95614686514045</v>
       </c>
     </row>
     <row r="314">
@@ -8471,7 +8471,7 @@
         </is>
       </c>
       <c r="E314" t="n">
-        <v>29.15368815274719</v>
+        <v>32.56715517673759</v>
       </c>
     </row>
     <row r="315">
@@ -8496,7 +8496,7 @@
         </is>
       </c>
       <c r="E315" t="n">
-        <v>29.44019719635326</v>
+        <v>76.54359223424706</v>
       </c>
     </row>
     <row r="316">
@@ -8521,7 +8521,7 @@
         </is>
       </c>
       <c r="E316" t="n">
-        <v>29.4852854164404</v>
+        <v>81.91949187322786</v>
       </c>
     </row>
     <row r="317">
@@ -8546,7 +8546,7 @@
         </is>
       </c>
       <c r="E317" t="n">
-        <v>29.0612683616286</v>
+        <v>13.70806265295861</v>
       </c>
     </row>
     <row r="318">
@@ -8571,7 +8571,7 @@
         </is>
       </c>
       <c r="E318" t="n">
-        <v>29.07225932117286</v>
+        <v>12.55811773705384</v>
       </c>
     </row>
     <row r="319">
@@ -8596,7 +8596,7 @@
         </is>
       </c>
       <c r="E319" t="n">
-        <v>29.08634920174195</v>
+        <v>12.97540370486055</v>
       </c>
     </row>
     <row r="320">
@@ -8621,7 +8621,7 @@
         </is>
       </c>
       <c r="E320" t="n">
-        <v>29.03153652633327</v>
+        <v>2.021302219368245</v>
       </c>
     </row>
     <row r="321">
@@ -8646,7 +8646,7 @@
         </is>
       </c>
       <c r="E321" t="n">
-        <v>29.08445857364252</v>
+        <v>15.40057591811812</v>
       </c>
     </row>
     <row r="322">
@@ -8671,7 +8671,7 @@
         </is>
       </c>
       <c r="E322" t="n">
-        <v>29.09662488145479</v>
+        <v>17.90022719282678</v>
       </c>
     </row>
     <row r="323">
@@ -8696,7 +8696,7 @@
         </is>
       </c>
       <c r="E323" t="n">
-        <v>29.03776680546495</v>
+        <v>2.344068276020028</v>
       </c>
     </row>
     <row r="324">
@@ -8721,7 +8721,7 @@
         </is>
       </c>
       <c r="E324" t="n">
-        <v>29.11730839144475</v>
+        <v>17.94337679889132</v>
       </c>
     </row>
     <row r="325">
@@ -8746,7 +8746,7 @@
         </is>
       </c>
       <c r="E325" t="n">
-        <v>29.12411590336174</v>
+        <v>14.1975432556697</v>
       </c>
     </row>
     <row r="326">
@@ -8771,7 +8771,7 @@
         </is>
       </c>
       <c r="E326" t="n">
-        <v>29.09994895393948</v>
+        <v>13.20952891924572</v>
       </c>
     </row>
     <row r="327">
@@ -8796,7 +8796,7 @@
         </is>
       </c>
       <c r="E327" t="n">
-        <v>29.11833949473061</v>
+        <v>15.56700816228545</v>
       </c>
     </row>
     <row r="328">
@@ -8821,7 +8821,7 @@
         </is>
       </c>
       <c r="E328" t="n">
-        <v>29.13285681250042</v>
+        <v>13.05629908818983</v>
       </c>
     </row>
     <row r="329">
@@ -8846,7 +8846,7 @@
         </is>
       </c>
       <c r="E329" t="n">
-        <v>29.0424805953886</v>
+        <v>14.66405795227487</v>
       </c>
     </row>
     <row r="330">
@@ -8871,7 +8871,7 @@
         </is>
       </c>
       <c r="E330" t="n">
-        <v>29.07049178869152</v>
+        <v>16.04590915771268</v>
       </c>
     </row>
     <row r="331">
@@ -8896,7 +8896,7 @@
         </is>
       </c>
       <c r="E331" t="n">
-        <v>29.09430360834832</v>
+        <v>17.47193264121955</v>
       </c>
     </row>
     <row r="332">
@@ -8921,7 +8921,7 @@
         </is>
       </c>
       <c r="E332" t="n">
-        <v>29.04727934202042</v>
+        <v>7.660994906128536</v>
       </c>
     </row>
     <row r="333">
@@ -8946,7 +8946,7 @@
         </is>
       </c>
       <c r="E333" t="n">
-        <v>29.07244449463837</v>
+        <v>11.45861983725523</v>
       </c>
     </row>
     <row r="334">
@@ -8971,7 +8971,7 @@
         </is>
       </c>
       <c r="E334" t="n">
-        <v>29.10282257351903</v>
+        <v>14.60378951589284</v>
       </c>
     </row>
     <row r="335">
@@ -8996,7 +8996,7 @@
         </is>
       </c>
       <c r="E335" t="n">
-        <v>29.00035146520902</v>
+        <v>1.017414885549307</v>
       </c>
     </row>
     <row r="336">
@@ -9021,7 +9021,7 @@
         </is>
       </c>
       <c r="E336" t="n">
-        <v>29.05910823140774</v>
+        <v>11.49444420050731</v>
       </c>
     </row>
     <row r="337">
@@ -9046,7 +9046,7 @@
         </is>
       </c>
       <c r="E337" t="n">
-        <v>29.10011265277143</v>
+        <v>16.9355253504865</v>
       </c>
     </row>
     <row r="338">
@@ -9071,7 +9071,7 @@
         </is>
       </c>
       <c r="E338" t="n">
-        <v>28.99937242652349</v>
+        <v>0.7084535936923757</v>
       </c>
     </row>
     <row r="339">
@@ -9096,7 +9096,7 @@
         </is>
       </c>
       <c r="E339" t="n">
-        <v>29.10539398330922</v>
+        <v>15.92641007573473</v>
       </c>
     </row>
     <row r="340">
@@ -9121,7 +9121,7 @@
         </is>
       </c>
       <c r="E340" t="n">
-        <v>29.16382818385016</v>
+        <v>26.27961113939802</v>
       </c>
     </row>
     <row r="341">
@@ -9146,7 +9146,7 @@
         </is>
       </c>
       <c r="E341" t="n">
-        <v>29.06164233192203</v>
+        <v>11.52665854428453</v>
       </c>
     </row>
     <row r="342">
@@ -9171,7 +9171,7 @@
         </is>
       </c>
       <c r="E342" t="n">
-        <v>29.11657325551952</v>
+        <v>23.17928805256017</v>
       </c>
     </row>
     <row r="343">
@@ -9196,7 +9196,7 @@
         </is>
       </c>
       <c r="E343" t="n">
-        <v>29.15566703603146</v>
+        <v>34.42254873098553</v>
       </c>
     </row>
     <row r="344">
@@ -9221,7 +9221,7 @@
         </is>
       </c>
       <c r="E344" t="n">
-        <v>29.00536599440227</v>
+        <v>4.273816322418028</v>
       </c>
     </row>
     <row r="345">
@@ -9246,7 +9246,7 @@
         </is>
       </c>
       <c r="E345" t="n">
-        <v>29.11983732543019</v>
+        <v>22.28194377410091</v>
       </c>
     </row>
     <row r="346">
@@ -9271,7 +9271,7 @@
         </is>
       </c>
       <c r="E346" t="n">
-        <v>29.12976802194082</v>
+        <v>18.26548040952858</v>
       </c>
     </row>
     <row r="347">
@@ -9296,7 +9296,7 @@
         </is>
       </c>
       <c r="E347" t="n">
-        <v>29.06267629718664</v>
+        <v>9.031381310399567</v>
       </c>
     </row>
     <row r="348">
@@ -9321,7 +9321,7 @@
         </is>
       </c>
       <c r="E348" t="n">
-        <v>29.1056655228927</v>
+        <v>17.69661994291139</v>
       </c>
     </row>
     <row r="349">
@@ -9346,7 +9346,7 @@
         </is>
       </c>
       <c r="E349" t="n">
-        <v>29.15140042666178</v>
+        <v>33.74658047131504</v>
       </c>
     </row>
     <row r="350">
@@ -9371,7 +9371,7 @@
         </is>
       </c>
       <c r="E350" t="n">
-        <v>28.9960449610172</v>
+        <v>2.21645441672349</v>
       </c>
     </row>
     <row r="351">
@@ -9396,7 +9396,7 @@
         </is>
       </c>
       <c r="E351" t="n">
-        <v>29.08966917279755</v>
+        <v>17.87564341115615</v>
       </c>
     </row>
     <row r="352">
@@ -9421,7 +9421,7 @@
         </is>
       </c>
       <c r="E352" t="n">
-        <v>29.14128393466799</v>
+        <v>34.77649135848289</v>
       </c>
     </row>
     <row r="353">
@@ -9446,7 +9446,7 @@
         </is>
       </c>
       <c r="E353" t="n">
-        <v>28.99990321054887</v>
+        <v>2.142326620982121</v>
       </c>
     </row>
     <row r="354">
@@ -9471,7 +9471,7 @@
         </is>
       </c>
       <c r="E354" t="n">
-        <v>29.15959132684398</v>
+        <v>26.76051676287572</v>
       </c>
     </row>
     <row r="355">
@@ -9496,7 +9496,7 @@
         </is>
       </c>
       <c r="E355" t="n">
-        <v>29.23278701005846</v>
+        <v>59.62907505761943</v>
       </c>
     </row>
     <row r="356">
@@ -9521,7 +9521,7 @@
         </is>
       </c>
       <c r="E356" t="n">
-        <v>29.17808647062434</v>
+        <v>24.48455691793801</v>
       </c>
     </row>
     <row r="357">
@@ -9546,7 +9546,7 @@
         </is>
       </c>
       <c r="E357" t="n">
-        <v>29.23676095793432</v>
+        <v>49.24874968130231</v>
       </c>
     </row>
     <row r="358">
@@ -9571,7 +9571,7 @@
         </is>
       </c>
       <c r="E358" t="n">
-        <v>29.30813137504675</v>
+        <v>69.89859770822676</v>
       </c>
     </row>
     <row r="359">
@@ -9596,7 +9596,7 @@
         </is>
       </c>
       <c r="E359" t="n">
-        <v>29.03254486208593</v>
+        <v>8.08440106360219</v>
       </c>
     </row>
     <row r="360">
@@ -9621,7 +9621,7 @@
         </is>
       </c>
       <c r="E360" t="n">
-        <v>29.1958135753546</v>
+        <v>34.10576423538111</v>
       </c>
     </row>
     <row r="361">
@@ -9646,7 +9646,7 @@
         </is>
       </c>
       <c r="E361" t="n">
-        <v>29.23177394917089</v>
+        <v>43.13411455930593</v>
       </c>
     </row>
     <row r="362">
@@ -9671,7 +9671,7 @@
         </is>
       </c>
       <c r="E362" t="n">
-        <v>29.08954689098861</v>
+        <v>18.98965358120612</v>
       </c>
     </row>
     <row r="363">
@@ -9696,7 +9696,7 @@
         </is>
       </c>
       <c r="E363" t="n">
-        <v>29.1418357138545</v>
+        <v>26.41735481068903</v>
       </c>
     </row>
     <row r="364">
@@ -9721,7 +9721,7 @@
         </is>
       </c>
       <c r="E364" t="n">
-        <v>29.16511334864917</v>
+        <v>39.07834091228337</v>
       </c>
     </row>
     <row r="365">
@@ -9746,7 +9746,7 @@
         </is>
       </c>
       <c r="E365" t="n">
-        <v>29.07742719748757</v>
+        <v>10.36763459599009</v>
       </c>
     </row>
     <row r="366">
@@ -9771,7 +9771,7 @@
         </is>
       </c>
       <c r="E366" t="n">
-        <v>29.18572347168982</v>
+        <v>44.9777443535118</v>
       </c>
     </row>
     <row r="367">
@@ -9796,7 +9796,7 @@
         </is>
       </c>
       <c r="E367" t="n">
-        <v>29.20129885021591</v>
+        <v>51.03428440836276</v>
       </c>
     </row>
     <row r="368">
@@ -9821,7 +9821,7 @@
         </is>
       </c>
       <c r="E368" t="n">
-        <v>29.08749548337499</v>
+        <v>11.86657096923049</v>
       </c>
     </row>
     <row r="369">
@@ -9846,7 +9846,7 @@
         </is>
       </c>
       <c r="E369" t="n">
-        <v>29.24757604673403</v>
+        <v>63.5790563338377</v>
       </c>
     </row>
     <row r="370">
@@ -9871,7 +9871,7 @@
         </is>
       </c>
       <c r="E370" t="n">
-        <v>29.25245980009974</v>
+        <v>65.24112295218416</v>
       </c>
     </row>
     <row r="371">
@@ -9896,7 +9896,7 @@
         </is>
       </c>
       <c r="E371" t="n">
-        <v>29.28874725641225</v>
+        <v>60.79350497059796</v>
       </c>
     </row>
     <row r="372">
@@ -9921,7 +9921,7 @@
         </is>
       </c>
       <c r="E372" t="n">
-        <v>29.31518677696764</v>
+        <v>70.91060199694482</v>
       </c>
     </row>
     <row r="373">
@@ -9946,7 +9946,7 @@
         </is>
       </c>
       <c r="E373" t="n">
-        <v>29.31237603854937</v>
+        <v>69.69742098834992</v>
       </c>
     </row>
     <row r="374">
@@ -9971,7 +9971,7 @@
         </is>
       </c>
       <c r="E374" t="n">
-        <v>29.12345289032329</v>
+        <v>32.41251524317067</v>
       </c>
     </row>
     <row r="375">
@@ -9996,7 +9996,7 @@
         </is>
       </c>
       <c r="E375" t="n">
-        <v>29.23945144622669</v>
+        <v>56.56089355751234</v>
       </c>
     </row>
     <row r="376">
@@ -10021,7 +10021,7 @@
         </is>
       </c>
       <c r="E376" t="n">
-        <v>29.28510503702122</v>
+        <v>72.49298535282935</v>
       </c>
     </row>
     <row r="377">
@@ -10046,7 +10046,7 @@
         </is>
       </c>
       <c r="E377" t="n">
-        <v>29.07761856987876</v>
+        <v>21.49357106387322</v>
       </c>
     </row>
     <row r="378">
@@ -10071,7 +10071,7 @@
         </is>
       </c>
       <c r="E378" t="n">
-        <v>29.15607359264508</v>
+        <v>35.27034804397391</v>
       </c>
     </row>
     <row r="379">
@@ -10096,7 +10096,7 @@
         </is>
       </c>
       <c r="E379" t="n">
-        <v>29.18917556049333</v>
+        <v>38.96827876282573</v>
       </c>
     </row>
     <row r="380">
@@ -10121,7 +10121,7 @@
         </is>
       </c>
       <c r="E380" t="n">
-        <v>29.02378962617066</v>
+        <v>8.05154076488693</v>
       </c>
     </row>
     <row r="381">
@@ -10146,7 +10146,7 @@
         </is>
       </c>
       <c r="E381" t="n">
-        <v>29.15754420957322</v>
+        <v>35.44220779118465</v>
       </c>
     </row>
     <row r="382">
@@ -10171,7 +10171,7 @@
         </is>
       </c>
       <c r="E382" t="n">
-        <v>29.19281388972138</v>
+        <v>38.77250014051142</v>
       </c>
     </row>
     <row r="383">
@@ -10196,7 +10196,7 @@
         </is>
       </c>
       <c r="E383" t="n">
-        <v>29.03850801884705</v>
+        <v>9.465853880470068</v>
       </c>
     </row>
     <row r="384">
@@ -10221,7 +10221,7 @@
         </is>
       </c>
       <c r="E384" t="n">
-        <v>29.24476427641454</v>
+        <v>54.30328544737564</v>
       </c>
     </row>
     <row r="385">
@@ -10246,7 +10246,7 @@
         </is>
       </c>
       <c r="E385" t="n">
-        <v>29.29446175124768</v>
+        <v>59.33867639960928</v>
       </c>
     </row>
     <row r="386">
@@ -10271,7 +10271,7 @@
         </is>
       </c>
       <c r="E386" t="n">
-        <v>29.25556053778858</v>
+        <v>48.23129444741069</v>
       </c>
     </row>
     <row r="387">
@@ -10296,7 +10296,7 @@
         </is>
       </c>
       <c r="E387" t="n">
-        <v>29.31002818871604</v>
+        <v>55.51222827598119</v>
       </c>
     </row>
     <row r="388">
@@ -10321,7 +10321,7 @@
         </is>
       </c>
       <c r="E388" t="n">
-        <v>29.31851973127008</v>
+        <v>55.44688242007852</v>
       </c>
     </row>
     <row r="389">
@@ -10346,7 +10346,7 @@
         </is>
       </c>
       <c r="E389" t="n">
-        <v>29.09761257020444</v>
+        <v>28.97148909091148</v>
       </c>
     </row>
     <row r="390">
@@ -10371,7 +10371,7 @@
         </is>
       </c>
       <c r="E390" t="n">
-        <v>29.32162668437415</v>
+        <v>60.58375601225636</v>
       </c>
     </row>
     <row r="391">
@@ -10396,7 +10396,7 @@
         </is>
       </c>
       <c r="E391" t="n">
-        <v>29.34788428133076</v>
+        <v>61.73450087406444</v>
       </c>
     </row>
     <row r="392">
@@ -10421,7 +10421,7 @@
         </is>
       </c>
       <c r="E392" t="n">
-        <v>29.08794601781684</v>
+        <v>22.56204463967118</v>
       </c>
     </row>
     <row r="393">
@@ -10446,7 +10446,7 @@
         </is>
       </c>
       <c r="E393" t="n">
-        <v>29.20217340103137</v>
+        <v>38.88097350688676</v>
       </c>
     </row>
     <row r="394">
@@ -10471,7 +10471,7 @@
         </is>
       </c>
       <c r="E394" t="n">
-        <v>29.23639183609808</v>
+        <v>43.51010363045964</v>
       </c>
     </row>
     <row r="395">
@@ -10496,7 +10496,7 @@
         </is>
       </c>
       <c r="E395" t="n">
-        <v>29.02743619184717</v>
+        <v>10.00240015730727</v>
       </c>
     </row>
     <row r="396">
@@ -10521,7 +10521,7 @@
         </is>
       </c>
       <c r="E396" t="n">
-        <v>29.21928410046473</v>
+        <v>45.78470935754759</v>
       </c>
     </row>
     <row r="397">
@@ -10546,7 +10546,7 @@
         </is>
       </c>
       <c r="E397" t="n">
-        <v>29.24776994235585</v>
+        <v>47.72916159700738</v>
       </c>
     </row>
     <row r="398">
@@ -10571,7 +10571,7 @@
         </is>
       </c>
       <c r="E398" t="n">
-        <v>29.04456950998251</v>
+        <v>12.28178660753447</v>
       </c>
     </row>
     <row r="399">
@@ -10596,7 +10596,7 @@
         </is>
       </c>
       <c r="E399" t="n">
-        <v>29.33040688852059</v>
+        <v>68.4438725711109</v>
       </c>
     </row>
     <row r="400">
@@ -10621,7 +10621,7 @@
         </is>
       </c>
       <c r="E400" t="n">
-        <v>29.37246010474873</v>
+        <v>67.99849794143634</v>
       </c>
     </row>
     <row r="401">
@@ -10646,7 +10646,7 @@
         </is>
       </c>
       <c r="E401" t="n">
-        <v>29.41104852599687</v>
+        <v>71.00251575187608</v>
       </c>
     </row>
     <row r="402">
@@ -10671,7 +10671,7 @@
         </is>
       </c>
       <c r="E402" t="n">
-        <v>29.46213665938652</v>
+        <v>77.17494130973904</v>
       </c>
     </row>
     <row r="403">
@@ -10696,7 +10696,7 @@
         </is>
       </c>
       <c r="E403" t="n">
-        <v>29.48695348683491</v>
+        <v>78.73285299750771</v>
       </c>
     </row>
     <row r="404">
@@ -10721,7 +10721,7 @@
         </is>
       </c>
       <c r="E404" t="n">
-        <v>29.1349698589105</v>
+        <v>34.03582372964419</v>
       </c>
     </row>
     <row r="405">
@@ -10746,7 +10746,7 @@
         </is>
       </c>
       <c r="E405" t="n">
-        <v>29.45069890164499</v>
+        <v>75.89323268243029</v>
       </c>
     </row>
     <row r="406">
@@ -10771,7 +10771,7 @@
         </is>
       </c>
       <c r="E406" t="n">
-        <v>29.47941291644367</v>
+        <v>82.20199591137028</v>
       </c>
     </row>
     <row r="407">
@@ -10796,7 +10796,7 @@
         </is>
       </c>
       <c r="E407" t="n">
-        <v>29.05853087039653</v>
+        <v>11.58744502178678</v>
       </c>
     </row>
     <row r="408">
@@ -10821,7 +10821,7 @@
         </is>
       </c>
       <c r="E408" t="n">
-        <v>29.07561136355296</v>
+        <v>15.15306841503091</v>
       </c>
     </row>
     <row r="409">
@@ -10846,7 +10846,7 @@
         </is>
       </c>
       <c r="E409" t="n">
-        <v>29.0920173570673</v>
+        <v>16.01025065448674</v>
       </c>
     </row>
     <row r="410">
@@ -10871,7 +10871,7 @@
         </is>
       </c>
       <c r="E410" t="n">
-        <v>29.02683660072548</v>
+        <v>2.31054414440786</v>
       </c>
     </row>
     <row r="411">
@@ -10896,7 +10896,7 @@
         </is>
       </c>
       <c r="E411" t="n">
-        <v>29.07798867284982</v>
+        <v>11.92574264912669</v>
       </c>
     </row>
     <row r="412">
@@ -10921,7 +10921,7 @@
         </is>
       </c>
       <c r="E412" t="n">
-        <v>29.09549591253926</v>
+        <v>17.72612919923032</v>
       </c>
     </row>
     <row r="413">
@@ -10946,7 +10946,7 @@
         </is>
       </c>
       <c r="E413" t="n">
-        <v>29.03568120576309</v>
+        <v>1.937612992291214</v>
       </c>
     </row>
     <row r="414">
@@ -10971,7 +10971,7 @@
         </is>
       </c>
       <c r="E414" t="n">
-        <v>29.12056184073564</v>
+        <v>20.53147479515853</v>
       </c>
     </row>
     <row r="415">
@@ -10996,7 +10996,7 @@
         </is>
       </c>
       <c r="E415" t="n">
-        <v>29.12979909319896</v>
+        <v>20.85487360256091</v>
       </c>
     </row>
     <row r="416">
@@ -11021,7 +11021,7 @@
         </is>
       </c>
       <c r="E416" t="n">
-        <v>29.1188215953143</v>
+        <v>19.31699159343074</v>
       </c>
     </row>
     <row r="417">
@@ -11046,7 +11046,7 @@
         </is>
       </c>
       <c r="E417" t="n">
-        <v>29.13747560479464</v>
+        <v>23.73144096580488</v>
       </c>
     </row>
     <row r="418">
@@ -11071,7 +11071,7 @@
         </is>
       </c>
       <c r="E418" t="n">
-        <v>29.14840872644387</v>
+        <v>24.11655668913505</v>
       </c>
     </row>
     <row r="419">
@@ -11096,7 +11096,7 @@
         </is>
       </c>
       <c r="E419" t="n">
-        <v>29.04048356214037</v>
+        <v>11.99566508038412</v>
       </c>
     </row>
     <row r="420">
@@ -11121,7 +11121,7 @@
         </is>
       </c>
       <c r="E420" t="n">
-        <v>29.10293792945126</v>
+        <v>19.71857731216809</v>
       </c>
     </row>
     <row r="421">
@@ -11146,7 +11146,7 @@
         </is>
       </c>
       <c r="E421" t="n">
-        <v>29.12300453690628</v>
+        <v>23.2714909151337</v>
       </c>
     </row>
     <row r="422">
@@ -11171,7 +11171,7 @@
         </is>
       </c>
       <c r="E422" t="n">
-        <v>29.05131105157257</v>
+        <v>11.01438672935067</v>
       </c>
     </row>
     <row r="423">
@@ -11196,7 +11196,7 @@
         </is>
       </c>
       <c r="E423" t="n">
-        <v>29.08660794206352</v>
+        <v>23.33164149092153</v>
       </c>
     </row>
     <row r="424">
@@ -11221,7 +11221,7 @@
         </is>
       </c>
       <c r="E424" t="n">
-        <v>29.12770630495794</v>
+        <v>30.48347325860038</v>
       </c>
     </row>
     <row r="425">
@@ -11246,7 +11246,7 @@
         </is>
       </c>
       <c r="E425" t="n">
-        <v>29.00363214450429</v>
+        <v>6.086336376479032</v>
       </c>
     </row>
     <row r="426">
@@ -11271,7 +11271,7 @@
         </is>
       </c>
       <c r="E426" t="n">
-        <v>29.06825078393241</v>
+        <v>20.01308191879052</v>
       </c>
     </row>
     <row r="427">
@@ -11296,7 +11296,7 @@
         </is>
       </c>
       <c r="E427" t="n">
-        <v>29.12157758951448</v>
+        <v>32.53978673140368</v>
       </c>
     </row>
     <row r="428">
@@ -11321,7 +11321,7 @@
         </is>
       </c>
       <c r="E428" t="n">
-        <v>29.01541502754118</v>
+        <v>6.671980756493422</v>
       </c>
     </row>
     <row r="429">
@@ -11346,7 +11346,7 @@
         </is>
       </c>
       <c r="E429" t="n">
-        <v>29.13001792837061</v>
+        <v>32.98636079563081</v>
       </c>
     </row>
     <row r="430">
@@ -11371,7 +11371,7 @@
         </is>
       </c>
       <c r="E430" t="n">
-        <v>29.19969627460364</v>
+        <v>48.00904569734508</v>
       </c>
     </row>
     <row r="431">
@@ -11396,7 +11396,7 @@
         </is>
       </c>
       <c r="E431" t="n">
-        <v>29.09771404469726</v>
+        <v>24.75911745649093</v>
       </c>
     </row>
     <row r="432">
@@ -11421,7 +11421,7 @@
         </is>
       </c>
       <c r="E432" t="n">
-        <v>29.15231465465932</v>
+        <v>37.35924044948887</v>
       </c>
     </row>
     <row r="433">
@@ -11446,7 +11446,7 @@
         </is>
       </c>
       <c r="E433" t="n">
-        <v>29.18653745349981</v>
+        <v>38.83524288565867</v>
       </c>
     </row>
     <row r="434">
@@ -11471,7 +11471,7 @@
         </is>
       </c>
       <c r="E434" t="n">
-        <v>29.01578290877341</v>
+        <v>9.162263021351151</v>
       </c>
     </row>
     <row r="435">
@@ -11496,7 +11496,7 @@
         </is>
       </c>
       <c r="E435" t="n">
-        <v>29.16539914012133</v>
+        <v>35.95035685221448</v>
       </c>
     </row>
     <row r="436">
@@ -11521,7 +11521,7 @@
         </is>
       </c>
       <c r="E436" t="n">
-        <v>29.20454389411826</v>
+        <v>43.71152898612623</v>
       </c>
     </row>
     <row r="437">
@@ -11546,7 +11546,7 @@
         </is>
       </c>
       <c r="E437" t="n">
-        <v>29.07372628101312</v>
+        <v>19.24047571426572</v>
       </c>
     </row>
     <row r="438">
@@ -11571,7 +11571,7 @@
         </is>
       </c>
       <c r="E438" t="n">
-        <v>29.13778189309037</v>
+        <v>33.74321199516086</v>
       </c>
     </row>
     <row r="439">
@@ -11596,7 +11596,7 @@
         </is>
       </c>
       <c r="E439" t="n">
-        <v>29.18509365236448</v>
+        <v>42.87200636760941</v>
       </c>
     </row>
     <row r="440">
@@ -11621,7 +11621,7 @@
         </is>
       </c>
       <c r="E440" t="n">
-        <v>29.0157279104797</v>
+        <v>10.98784165467145</v>
       </c>
     </row>
     <row r="441">
@@ -11646,7 +11646,7 @@
         </is>
       </c>
       <c r="E441" t="n">
-        <v>29.12853248675511</v>
+        <v>30.93415758640194</v>
       </c>
     </row>
     <row r="442">
@@ -11671,7 +11671,7 @@
         </is>
       </c>
       <c r="E442" t="n">
-        <v>29.18176516599976</v>
+        <v>43.05073118876573</v>
       </c>
     </row>
     <row r="443">
@@ -11696,7 +11696,7 @@
         </is>
       </c>
       <c r="E443" t="n">
-        <v>29.03180567423316</v>
+        <v>14.70914752878014</v>
       </c>
     </row>
     <row r="444">
@@ -11721,7 +11721,7 @@
         </is>
       </c>
       <c r="E444" t="n">
-        <v>29.21173738225058</v>
+        <v>47.34463154820365</v>
       </c>
     </row>
     <row r="445">
@@ -11746,7 +11746,7 @@
         </is>
       </c>
       <c r="E445" t="n">
-        <v>29.28355352990546</v>
+        <v>60.63431271144535</v>
       </c>
     </row>
     <row r="446">
@@ -11771,7 +11771,7 @@
         </is>
       </c>
       <c r="E446" t="n">
-        <v>29.25148268450023</v>
+        <v>48.41282665845004</v>
       </c>
     </row>
     <row r="447">
@@ -11796,7 +11796,7 @@
         </is>
       </c>
       <c r="E447" t="n">
-        <v>29.30596781138606</v>
+        <v>59.18239265418694</v>
       </c>
     </row>
     <row r="448">
@@ -11821,7 +11821,7 @@
         </is>
       </c>
       <c r="E448" t="n">
-        <v>29.37999244577675</v>
+        <v>76.24986610273788</v>
       </c>
     </row>
     <row r="449">
@@ -11846,7 +11846,7 @@
         </is>
       </c>
       <c r="E449" t="n">
-        <v>29.07828566178554</v>
+        <v>26.93194647555649</v>
       </c>
     </row>
     <row r="450">
@@ -11871,7 +11871,7 @@
         </is>
       </c>
       <c r="E450" t="n">
-        <v>29.29641297031068</v>
+        <v>58.63210988782018</v>
       </c>
     </row>
     <row r="451">
@@ -11896,7 +11896,7 @@
         </is>
       </c>
       <c r="E451" t="n">
-        <v>29.34701842577174</v>
+        <v>68.07502217606807</v>
       </c>
     </row>
     <row r="452">
@@ -11921,7 +11921,7 @@
         </is>
       </c>
       <c r="E452" t="n">
-        <v>29.0476231416483</v>
+        <v>7.589917286251055</v>
       </c>
     </row>
     <row r="453">
@@ -11946,7 +11946,7 @@
         </is>
       </c>
       <c r="E453" t="n">
-        <v>29.07786780369886</v>
+        <v>6.438331878430528</v>
       </c>
     </row>
     <row r="454">
@@ -11971,7 +11971,7 @@
         </is>
       </c>
       <c r="E454" t="n">
-        <v>29.08116324875069</v>
+        <v>9.994400854586832</v>
       </c>
     </row>
     <row r="455">
@@ -11996,7 +11996,7 @@
         </is>
       </c>
       <c r="E455" t="n">
-        <v>29.01881126269425</v>
+        <v>-0.2947920357075091</v>
       </c>
     </row>
     <row r="456">
@@ -12021,7 +12021,7 @@
         </is>
       </c>
       <c r="E456" t="n">
-        <v>29.08258877477039</v>
+        <v>8.218349098072636</v>
       </c>
     </row>
     <row r="457">
@@ -12046,7 +12046,7 @@
         </is>
       </c>
       <c r="E457" t="n">
-        <v>29.08796017366765</v>
+        <v>13.384431593338</v>
       </c>
     </row>
     <row r="458">
@@ -12071,7 +12071,7 @@
         </is>
       </c>
       <c r="E458" t="n">
-        <v>29.01696400851446</v>
+        <v>-2.11180703501558</v>
       </c>
     </row>
     <row r="459">
@@ -12096,7 +12096,7 @@
         </is>
       </c>
       <c r="E459" t="n">
-        <v>29.12478766946377</v>
+        <v>8.40721719220981</v>
       </c>
     </row>
     <row r="460">
@@ -12121,7 +12121,7 @@
         </is>
       </c>
       <c r="E460" t="n">
-        <v>29.11403988214385</v>
+        <v>13.26819884769908</v>
       </c>
     </row>
     <row r="461">
@@ -12146,7 +12146,7 @@
         </is>
       </c>
       <c r="E461" t="n">
-        <v>29.10598097262337</v>
+        <v>5.629707337867575</v>
       </c>
     </row>
     <row r="462">
@@ -12171,7 +12171,7 @@
         </is>
       </c>
       <c r="E462" t="n">
-        <v>29.12564937415156</v>
+        <v>5.978173772267944</v>
       </c>
     </row>
     <row r="463">
@@ -12196,7 +12196,7 @@
         </is>
       </c>
       <c r="E463" t="n">
-        <v>29.12757942761496</v>
+        <v>17.04754837560385</v>
       </c>
     </row>
     <row r="464">
@@ -12221,7 +12221,7 @@
         </is>
       </c>
       <c r="E464" t="n">
-        <v>29.01306425227927</v>
+        <v>6.844871189514198</v>
       </c>
     </row>
     <row r="465">
@@ -12246,7 +12246,7 @@
         </is>
       </c>
       <c r="E465" t="n">
-        <v>29.0775053697763</v>
+        <v>9.569265743803367</v>
       </c>
     </row>
     <row r="466">
@@ -12271,7 +12271,7 @@
         </is>
       </c>
       <c r="E466" t="n">
-        <v>29.08579148375057</v>
+        <v>15.50010731237368</v>
       </c>
     </row>
     <row r="467">
@@ -12296,7 +12296,7 @@
         </is>
       </c>
       <c r="E467" t="n">
-        <v>29.1073860804966</v>
+        <v>20.45955776716025</v>
       </c>
     </row>
     <row r="468">
@@ -12321,7 +12321,7 @@
         </is>
       </c>
       <c r="E468" t="n">
-        <v>29.16964729517992</v>
+        <v>36.30752610229017</v>
       </c>
     </row>
     <row r="469">
@@ -12346,7 +12346,7 @@
         </is>
       </c>
       <c r="E469" t="n">
-        <v>29.18060419282335</v>
+        <v>37.36174966666126</v>
       </c>
     </row>
     <row r="470">
@@ -12371,7 +12371,7 @@
         </is>
       </c>
       <c r="E470" t="n">
-        <v>29.06056999336201</v>
+        <v>9.02244343390031</v>
       </c>
     </row>
     <row r="471">
@@ -12396,7 +12396,7 @@
         </is>
       </c>
       <c r="E471" t="n">
-        <v>29.15686510675875</v>
+        <v>34.98063084583711</v>
       </c>
     </row>
     <row r="472">
@@ -12421,7 +12421,7 @@
         </is>
       </c>
       <c r="E472" t="n">
-        <v>29.18063344909908</v>
+        <v>38.24236919351372</v>
       </c>
     </row>
     <row r="473">
@@ -12446,7 +12446,7 @@
         </is>
       </c>
       <c r="E473" t="n">
-        <v>29.06330987181124</v>
+        <v>9.637795605314643</v>
       </c>
     </row>
     <row r="474">
@@ -12471,7 +12471,7 @@
         </is>
       </c>
       <c r="E474" t="n">
-        <v>29.22340303277904</v>
+        <v>53.66039879316777</v>
       </c>
     </row>
     <row r="475">
@@ -12496,7 +12496,7 @@
         </is>
       </c>
       <c r="E475" t="n">
-        <v>29.2468283722087</v>
+        <v>55.54797049583404</v>
       </c>
     </row>
     <row r="476">
@@ -12521,7 +12521,7 @@
         </is>
       </c>
       <c r="E476" t="n">
-        <v>29.21156463416729</v>
+        <v>46.92355435325055</v>
       </c>
     </row>
     <row r="477">
@@ -12546,7 +12546,7 @@
         </is>
       </c>
       <c r="E477" t="n">
-        <v>29.25939795743215</v>
+        <v>53.79067986529169</v>
       </c>
     </row>
     <row r="478">
@@ -12571,7 +12571,7 @@
         </is>
       </c>
       <c r="E478" t="n">
-        <v>29.26899471654402</v>
+        <v>54.41557380004494</v>
       </c>
     </row>
     <row r="479">
@@ -12596,7 +12596,7 @@
         </is>
       </c>
       <c r="E479" t="n">
-        <v>29.09607778746578</v>
+        <v>21.26363988380589</v>
       </c>
     </row>
     <row r="480">
@@ -12621,7 +12621,7 @@
         </is>
       </c>
       <c r="E480" t="n">
-        <v>29.26869704505901</v>
+        <v>57.51978164959945</v>
       </c>
     </row>
     <row r="481">
@@ -12646,7 +12646,7 @@
         </is>
       </c>
       <c r="E481" t="n">
-        <v>29.2688917873259</v>
+        <v>58.62976387338846</v>
       </c>
     </row>
     <row r="482">
@@ -12671,7 +12671,7 @@
         </is>
       </c>
       <c r="E482" t="n">
-        <v>29.1239858604039</v>
+        <v>24.86807131487916</v>
       </c>
     </row>
     <row r="483">
@@ -12696,7 +12696,7 @@
         </is>
       </c>
       <c r="E483" t="n">
-        <v>29.21898600297376</v>
+        <v>43.43163569299108</v>
       </c>
     </row>
     <row r="484">
@@ -12721,7 +12721,7 @@
         </is>
       </c>
       <c r="E484" t="n">
-        <v>29.23065428158714</v>
+        <v>45.82837416317115</v>
       </c>
     </row>
     <row r="485">
@@ -12746,7 +12746,7 @@
         </is>
       </c>
       <c r="E485" t="n">
-        <v>29.05937754415569</v>
+        <v>9.569187702451611</v>
       </c>
     </row>
     <row r="486">
@@ -12771,7 +12771,7 @@
         </is>
       </c>
       <c r="E486" t="n">
-        <v>29.20951474202004</v>
+        <v>46.52712282903425</v>
       </c>
     </row>
     <row r="487">
@@ -12796,7 +12796,7 @@
         </is>
       </c>
       <c r="E487" t="n">
-        <v>29.22772349357216</v>
+        <v>50.35476066434062</v>
       </c>
     </row>
     <row r="488">
@@ -12821,7 +12821,7 @@
         </is>
       </c>
       <c r="E488" t="n">
-        <v>29.06934915879324</v>
+        <v>10.062874391565</v>
       </c>
     </row>
     <row r="489">
@@ -12846,7 +12846,7 @@
         </is>
       </c>
       <c r="E489" t="n">
-        <v>29.30086706306488</v>
+        <v>69.38298673998797</v>
       </c>
     </row>
     <row r="490">
@@ -12871,7 +12871,7 @@
         </is>
       </c>
       <c r="E490" t="n">
-        <v>29.31961199975612</v>
+        <v>66.67997352613513</v>
       </c>
     </row>
     <row r="491">
@@ -12896,7 +12896,7 @@
         </is>
       </c>
       <c r="E491" t="n">
-        <v>29.36030660028028</v>
+        <v>74.64228010608515</v>
       </c>
     </row>
     <row r="492">
@@ -12921,7 +12921,7 @@
         </is>
       </c>
       <c r="E492" t="n">
-        <v>29.41173101873159</v>
+        <v>82.77561641319832</v>
       </c>
     </row>
     <row r="493">
@@ -12946,7 +12946,7 @@
         </is>
       </c>
       <c r="E493" t="n">
-        <v>29.42966644858424</v>
+        <v>81.55313226226477</v>
       </c>
     </row>
     <row r="494">
@@ -12971,7 +12971,7 @@
         </is>
       </c>
       <c r="E494" t="n">
-        <v>29.13402589710318</v>
+        <v>26.20790835015729</v>
       </c>
     </row>
     <row r="495">
@@ -12996,7 +12996,7 @@
         </is>
       </c>
       <c r="E495" t="n">
-        <v>29.39511500196585</v>
+        <v>80.89975667538083</v>
       </c>
     </row>
     <row r="496">
@@ -13021,7 +13021,7 @@
         </is>
       </c>
       <c r="E496" t="n">
-        <v>29.38987519816901</v>
+        <v>79.17363759471226</v>
       </c>
     </row>
     <row r="497">
@@ -13046,7 +13046,7 @@
         </is>
       </c>
       <c r="E497" t="n">
-        <v>29.0740222540696</v>
+        <v>14.41962988100247</v>
       </c>
     </row>
     <row r="498">
@@ -13071,7 +13071,7 @@
         </is>
       </c>
       <c r="E498" t="n">
-        <v>29.08825943358838</v>
+        <v>17.22603513472511</v>
       </c>
     </row>
     <row r="499">
@@ -13096,7 +13096,7 @@
         </is>
       </c>
       <c r="E499" t="n">
-        <v>29.0986456369905</v>
+        <v>19.78949243734571</v>
       </c>
     </row>
     <row r="500">
@@ -13121,7 +13121,7 @@
         </is>
       </c>
       <c r="E500" t="n">
-        <v>29.04602667095934</v>
+        <v>1.551463945194389</v>
       </c>
     </row>
     <row r="501">
@@ -13146,7 +13146,7 @@
         </is>
       </c>
       <c r="E501" t="n">
-        <v>29.09374070332085</v>
+        <v>16.12075005335</v>
       </c>
     </row>
     <row r="502">
@@ -13171,7 +13171,7 @@
         </is>
       </c>
       <c r="E502" t="n">
-        <v>29.10513538236187</v>
+        <v>20.55676416778978</v>
       </c>
     </row>
     <row r="503">
@@ -13196,7 +13196,7 @@
         </is>
       </c>
       <c r="E503" t="n">
-        <v>29.05489649959144</v>
+        <v>2.013782479240831</v>
       </c>
     </row>
     <row r="504">
@@ -13221,7 +13221,7 @@
         </is>
       </c>
       <c r="E504" t="n">
-        <v>29.1349204834229</v>
+        <v>22.61126871278505</v>
       </c>
     </row>
     <row r="505">
@@ -13246,7 +13246,7 @@
         </is>
       </c>
       <c r="E505" t="n">
-        <v>29.13332063846381</v>
+        <v>26.508435898034</v>
       </c>
     </row>
     <row r="506">
@@ -13271,7 +13271,7 @@
         </is>
       </c>
       <c r="E506" t="n">
-        <v>29.13712488091314</v>
+        <v>21.87040911127156</v>
       </c>
     </row>
     <row r="507">
@@ -13296,7 +13296,7 @@
         </is>
       </c>
       <c r="E507" t="n">
-        <v>29.14714218687076</v>
+        <v>25.09477450990612</v>
       </c>
     </row>
     <row r="508">
@@ -13321,7 +13321,7 @@
         </is>
       </c>
       <c r="E508" t="n">
-        <v>29.15601662709188</v>
+        <v>27.80332889122653</v>
       </c>
     </row>
     <row r="509">
@@ -13346,7 +13346,7 @@
         </is>
       </c>
       <c r="E509" t="n">
-        <v>29.07150528651204</v>
+        <v>14.67013288938548</v>
       </c>
     </row>
     <row r="510">
@@ -13371,7 +13371,7 @@
         </is>
       </c>
       <c r="E510" t="n">
-        <v>29.1182386953455</v>
+        <v>24.58311890981619</v>
       </c>
     </row>
     <row r="511">
@@ -13396,7 +13396,7 @@
         </is>
       </c>
       <c r="E511" t="n">
-        <v>29.13658852816513</v>
+        <v>28.41201496187258</v>
       </c>
     </row>
     <row r="512">
@@ -13421,7 +13421,7 @@
         </is>
       </c>
       <c r="E512" t="n">
-        <v>29.04691543824557</v>
+        <v>8.800330005819983</v>
       </c>
     </row>
     <row r="513">
@@ -13446,7 +13446,7 @@
         </is>
       </c>
       <c r="E513" t="n">
-        <v>29.0706972215258</v>
+        <v>15.71214247294815</v>
       </c>
     </row>
     <row r="514">
@@ -13471,7 +13471,7 @@
         </is>
       </c>
       <c r="E514" t="n">
-        <v>29.09458205942877</v>
+        <v>22.45194410397012</v>
       </c>
     </row>
     <row r="515">
@@ -13496,7 +13496,7 @@
         </is>
       </c>
       <c r="E515" t="n">
-        <v>28.99960073450741</v>
+        <v>0.8225343398621945</v>
       </c>
     </row>
     <row r="516">
@@ -13521,7 +13521,7 @@
         </is>
       </c>
       <c r="E516" t="n">
-        <v>29.05155640183586</v>
+        <v>11.59512743587722</v>
       </c>
     </row>
     <row r="517">
@@ -13546,7 +13546,7 @@
         </is>
       </c>
       <c r="E517" t="n">
-        <v>29.08759409752042</v>
+        <v>21.47799398051967</v>
       </c>
     </row>
     <row r="518">
@@ -13571,7 +13571,7 @@
         </is>
       </c>
       <c r="E518" t="n">
-        <v>29.00870434803791</v>
+        <v>0.3421012973845308</v>
       </c>
     </row>
     <row r="519">
@@ -13596,7 +13596,7 @@
         </is>
       </c>
       <c r="E519" t="n">
-        <v>29.10770683599395</v>
+        <v>18.89952006449483</v>
       </c>
     </row>
     <row r="520">
@@ -13621,7 +13621,7 @@
         </is>
       </c>
       <c r="E520" t="n">
-        <v>29.14818164769008</v>
+        <v>34.23672869384834</v>
       </c>
     </row>
     <row r="521">
@@ -13646,7 +13646,7 @@
         </is>
       </c>
       <c r="E521" t="n">
-        <v>29.0827580451549</v>
+        <v>13.65874458165848</v>
       </c>
     </row>
     <row r="522">
@@ -13671,7 +13671,7 @@
         </is>
       </c>
       <c r="E522" t="n">
-        <v>29.1207231041957</v>
+        <v>23.08364589495648</v>
       </c>
     </row>
     <row r="523">
@@ -13696,7 +13696,7 @@
         </is>
       </c>
       <c r="E523" t="n">
-        <v>29.14029279614834</v>
+        <v>29.78508274300731</v>
       </c>
     </row>
     <row r="524">
@@ -13721,7 +13721,7 @@
         </is>
       </c>
       <c r="E524" t="n">
-        <v>29.01802593272981</v>
+        <v>6.49492921901874</v>
       </c>
     </row>
     <row r="525">
@@ -13746,7 +13746,7 @@
         </is>
       </c>
       <c r="E525" t="n">
-        <v>29.13124799718115</v>
+        <v>22.87187575055707</v>
       </c>
     </row>
     <row r="526">
@@ -13771,7 +13771,7 @@
         </is>
       </c>
       <c r="E526" t="n">
-        <v>29.15000595025814</v>
+        <v>29.96546253660339</v>
       </c>
     </row>
     <row r="527">
@@ -13796,7 +13796,7 @@
         </is>
       </c>
       <c r="E527" t="n">
-        <v>29.08093911346008</v>
+        <v>21.79164934724174</v>
       </c>
     </row>
     <row r="528">
@@ -13821,7 +13821,7 @@
         </is>
       </c>
       <c r="E528" t="n">
-        <v>29.1355595402051</v>
+        <v>31.33268950881479</v>
       </c>
     </row>
     <row r="529">
@@ -13846,7 +13846,7 @@
         </is>
       </c>
       <c r="E529" t="n">
-        <v>29.15848398818171</v>
+        <v>37.15444141215329</v>
       </c>
     </row>
     <row r="530">
@@ -13871,7 +13871,7 @@
         </is>
       </c>
       <c r="E530" t="n">
-        <v>29.02184824598276</v>
+        <v>5.23784591410179</v>
       </c>
     </row>
     <row r="531">
@@ -13896,7 +13896,7 @@
         </is>
       </c>
       <c r="E531" t="n">
-        <v>29.12369032564832</v>
+        <v>26.30163260339608</v>
       </c>
     </row>
     <row r="532">
@@ -13921,7 +13921,7 @@
         </is>
       </c>
       <c r="E532" t="n">
-        <v>29.15253785748298</v>
+        <v>32.48870141955093</v>
       </c>
     </row>
     <row r="533">
@@ -13946,7 +13946,7 @@
         </is>
       </c>
       <c r="E533" t="n">
-        <v>29.03829501774626</v>
+        <v>9.645759201261249</v>
       </c>
     </row>
     <row r="534">
@@ -13971,7 +13971,7 @@
         </is>
       </c>
       <c r="E534" t="n">
-        <v>29.2051240972029</v>
+        <v>44.69475907691564</v>
       </c>
     </row>
     <row r="535">
@@ -13996,7 +13996,7 @@
         </is>
       </c>
       <c r="E535" t="n">
-        <v>29.23840673439031</v>
+        <v>52.5193580920095</v>
       </c>
     </row>
     <row r="536">
@@ -14021,7 +14021,7 @@
         </is>
       </c>
       <c r="E536" t="n">
-        <v>29.25053681427924</v>
+        <v>48.11191044714273</v>
       </c>
     </row>
     <row r="537">
@@ -14046,7 +14046,7 @@
         </is>
       </c>
       <c r="E537" t="n">
-        <v>29.28835967085896</v>
+        <v>55.92097066213148</v>
       </c>
     </row>
     <row r="538">
@@ -14071,7 +14071,7 @@
         </is>
       </c>
       <c r="E538" t="n">
-        <v>29.31869874413787</v>
+        <v>64.61835508412265</v>
       </c>
     </row>
     <row r="539">
@@ -14096,7 +14096,7 @@
         </is>
       </c>
       <c r="E539" t="n">
-        <v>29.09471100971438</v>
+        <v>27.57987156378795</v>
       </c>
     </row>
     <row r="540">
@@ -14121,7 +14121,7 @@
         </is>
       </c>
       <c r="E540" t="n">
-        <v>29.27773656007255</v>
+        <v>51.88201397421754</v>
       </c>
     </row>
     <row r="541">
@@ -14146,7 +14146,7 @@
         </is>
       </c>
       <c r="E541" t="n">
-        <v>29.29188297368325</v>
+        <v>53.93230608069736</v>
       </c>
     </row>
     <row r="542">
@@ -14171,7 +14171,7 @@
         </is>
       </c>
       <c r="E542" t="n">
-        <v>29.05494996927429</v>
+        <v>8.528272930286391</v>
       </c>
     </row>
     <row r="543">
@@ -14196,7 +14196,7 @@
         </is>
       </c>
       <c r="E543" t="n">
-        <v>29.05564915770528</v>
+        <v>9.594007581560405</v>
       </c>
     </row>
     <row r="544">
@@ -14221,7 +14221,7 @@
         </is>
       </c>
       <c r="E544" t="n">
-        <v>29.05760583282602</v>
+        <v>10.49087037102704</v>
       </c>
     </row>
     <row r="545">
@@ -14246,7 +14246,7 @@
         </is>
       </c>
       <c r="E545" t="n">
-        <v>29.02514678621402</v>
+        <v>-0.308135551478081</v>
       </c>
     </row>
     <row r="546">
@@ -14271,7 +14271,7 @@
         </is>
       </c>
       <c r="E546" t="n">
-        <v>29.05522689178469</v>
+        <v>7.867191768259318</v>
       </c>
     </row>
     <row r="547">
@@ -14296,7 +14296,7 @@
         </is>
       </c>
       <c r="E547" t="n">
-        <v>29.05986763686717</v>
+        <v>10.7466790785835</v>
       </c>
     </row>
     <row r="548">
@@ -14321,7 +14321,7 @@
         </is>
       </c>
       <c r="E548" t="n">
-        <v>29.03351329870293</v>
+        <v>1.200758294952102</v>
       </c>
     </row>
     <row r="549">
@@ -14346,7 +14346,7 @@
         </is>
       </c>
       <c r="E549" t="n">
-        <v>29.09428515105384</v>
+        <v>10.05865955445599</v>
       </c>
     </row>
     <row r="550">
@@ -14371,7 +14371,7 @@
         </is>
       </c>
       <c r="E550" t="n">
-        <v>29.0809308514796</v>
+        <v>10.88184739478078</v>
       </c>
     </row>
     <row r="551">
@@ -14396,7 +14396,7 @@
         </is>
       </c>
       <c r="E551" t="n">
-        <v>29.07801717243624</v>
+        <v>7.324339905721693</v>
       </c>
     </row>
     <row r="552">
@@ -14421,7 +14421,7 @@
         </is>
       </c>
       <c r="E552" t="n">
-        <v>29.0814553146557</v>
+        <v>6.718330949384548</v>
       </c>
     </row>
     <row r="553">
@@ -14446,7 +14446,7 @@
         </is>
       </c>
       <c r="E553" t="n">
-        <v>29.08646153812375</v>
+        <v>10.05880257443428</v>
       </c>
     </row>
     <row r="554">
@@ -14471,7 +14471,7 @@
         </is>
       </c>
       <c r="E554" t="n">
-        <v>29.0393533565391</v>
+        <v>9.575111627473987</v>
       </c>
     </row>
     <row r="555">
@@ -14496,7 +14496,7 @@
         </is>
       </c>
       <c r="E555" t="n">
-        <v>29.05400804617176</v>
+        <v>12.49236268206913</v>
       </c>
     </row>
     <row r="556">
@@ -14521,7 +14521,7 @@
         </is>
       </c>
       <c r="E556" t="n">
-        <v>29.06532058680581</v>
+        <v>15.15344412686871</v>
       </c>
     </row>
     <row r="557">
@@ -14546,7 +14546,7 @@
         </is>
       </c>
       <c r="E557" t="n">
-        <v>29.03204133392476</v>
+        <v>6.514737610962854</v>
       </c>
     </row>
     <row r="558">
@@ -14571,7 +14571,7 @@
         </is>
       </c>
       <c r="E558" t="n">
-        <v>29.03828545817925</v>
+        <v>9.630079921689777</v>
       </c>
     </row>
     <row r="559">
@@ -14596,7 +14596,7 @@
         </is>
       </c>
       <c r="E559" t="n">
-        <v>29.0493952096978</v>
+        <v>11.4130379717954</v>
       </c>
     </row>
     <row r="560">
@@ -14621,7 +14621,7 @@
         </is>
       </c>
       <c r="E560" t="n">
-        <v>28.9875959014601</v>
+        <v>0.3715495147893861</v>
       </c>
     </row>
     <row r="561">
@@ -14646,7 +14646,7 @@
         </is>
       </c>
       <c r="E561" t="n">
-        <v>29.01529394000631</v>
+        <v>5.645927576501997</v>
       </c>
     </row>
     <row r="562">
@@ -14671,7 +14671,7 @@
         </is>
       </c>
       <c r="E562" t="n">
-        <v>29.04159205736944</v>
+        <v>10.31600612821</v>
       </c>
     </row>
     <row r="563">
@@ -14696,7 +14696,7 @@
         </is>
       </c>
       <c r="E563" t="n">
-        <v>28.99366335201337</v>
+        <v>-0.1063236205746207</v>
       </c>
     </row>
     <row r="564">
@@ -14721,7 +14721,7 @@
         </is>
       </c>
       <c r="E564" t="n">
-        <v>29.06864181467898</v>
+        <v>8.986496216412931</v>
       </c>
     </row>
     <row r="565">
@@ -14746,7 +14746,7 @@
         </is>
       </c>
       <c r="E565" t="n">
-        <v>29.09007272857324</v>
+        <v>12.21300085912037</v>
       </c>
     </row>
     <row r="566">
@@ -14771,7 +14771,7 @@
         </is>
       </c>
       <c r="E566" t="n">
-        <v>29.02493673253841</v>
+        <v>6.537586370195729</v>
       </c>
     </row>
     <row r="567">
@@ -14796,7 +14796,7 @@
         </is>
       </c>
       <c r="E567" t="n">
-        <v>29.05365421137047</v>
+        <v>9.246348559489988</v>
       </c>
     </row>
     <row r="568">
@@ -14821,7 +14821,7 @@
         </is>
       </c>
       <c r="E568" t="n">
-        <v>29.06710319542377</v>
+        <v>7.584314915055909</v>
       </c>
     </row>
     <row r="569">
@@ -14846,7 +14846,7 @@
         </is>
       </c>
       <c r="E569" t="n">
-        <v>28.98909788858111</v>
+        <v>2.437905459596983</v>
       </c>
     </row>
     <row r="570">
@@ -14871,7 +14871,7 @@
         </is>
       </c>
       <c r="E570" t="n">
-        <v>29.06001333368454</v>
+        <v>10.14908659849751</v>
       </c>
     </row>
     <row r="571">
@@ -14896,7 +14896,7 @@
         </is>
       </c>
       <c r="E571" t="n">
-        <v>29.0691893007529</v>
+        <v>11.65806258338066</v>
       </c>
     </row>
     <row r="572">
@@ -14921,7 +14921,7 @@
         </is>
       </c>
       <c r="E572" t="n">
-        <v>29.07339283311425</v>
+        <v>20.87564943125577</v>
       </c>
     </row>
     <row r="573">
@@ -14946,7 +14946,7 @@
         </is>
       </c>
       <c r="E573" t="n">
-        <v>29.10622372349064</v>
+        <v>25.61912272807578</v>
       </c>
     </row>
     <row r="574">
@@ -14971,7 +14971,7 @@
         </is>
       </c>
       <c r="E574" t="n">
-        <v>29.11993122420022</v>
+        <v>29.54128787372417</v>
       </c>
     </row>
     <row r="575">
@@ -14996,7 +14996,7 @@
         </is>
       </c>
       <c r="E575" t="n">
-        <v>29.01110422479335</v>
+        <v>4.873887898273757</v>
       </c>
     </row>
     <row r="576">
@@ -15021,7 +15021,7 @@
         </is>
       </c>
       <c r="E576" t="n">
-        <v>29.08562488840468</v>
+        <v>19.49139147805286</v>
       </c>
     </row>
     <row r="577">
@@ -15046,7 +15046,7 @@
         </is>
       </c>
       <c r="E577" t="n">
-        <v>29.10816187106574</v>
+        <v>24.12399694184784</v>
       </c>
     </row>
     <row r="578">
@@ -15071,7 +15071,7 @@
         </is>
       </c>
       <c r="E578" t="n">
-        <v>29.02985780558321</v>
+        <v>9.732135882754751</v>
       </c>
     </row>
     <row r="579">
@@ -15096,7 +15096,7 @@
         </is>
       </c>
       <c r="E579" t="n">
-        <v>29.16735020095835</v>
+        <v>31.32353625736728</v>
       </c>
     </row>
     <row r="580">
@@ -15121,7 +15121,7 @@
         </is>
       </c>
       <c r="E580" t="n">
-        <v>29.1871298965138</v>
+        <v>35.17654996571154</v>
       </c>
     </row>
     <row r="581">
@@ -15146,7 +15146,7 @@
         </is>
       </c>
       <c r="E581" t="n">
-        <v>29.19537669815941</v>
+        <v>38.43406477152491</v>
       </c>
     </row>
     <row r="582">
@@ -15171,7 +15171,7 @@
         </is>
       </c>
       <c r="E582" t="n">
-        <v>29.22724358514822</v>
+        <v>43.84625078012295</v>
       </c>
     </row>
     <row r="583">
@@ -15196,7 +15196,7 @@
         </is>
       </c>
       <c r="E583" t="n">
-        <v>29.25017469554202</v>
+        <v>41.81503425535853</v>
       </c>
     </row>
     <row r="584">
@@ -15221,7 +15221,7 @@
         </is>
       </c>
       <c r="E584" t="n">
-        <v>29.07288732768294</v>
+        <v>25.37446411963498</v>
       </c>
     </row>
     <row r="585">
@@ -15246,7 +15246,7 @@
         </is>
       </c>
       <c r="E585" t="n">
-        <v>29.20611699314326</v>
+        <v>34.47468140856844</v>
       </c>
     </row>
     <row r="586">
@@ -15271,7 +15271,7 @@
         </is>
       </c>
       <c r="E586" t="n">
-        <v>29.21445727541466</v>
+        <v>39.02486525226565</v>
       </c>
     </row>
     <row r="587">
@@ -15296,7 +15296,7 @@
         </is>
       </c>
       <c r="E587" t="n">
-        <v>29.10588415320246</v>
+        <v>20.40694322809372</v>
       </c>
     </row>
     <row r="588">
@@ -15321,7 +15321,7 @@
         </is>
       </c>
       <c r="E588" t="n">
-        <v>29.12882831150618</v>
+        <v>24.02764701098407</v>
       </c>
     </row>
     <row r="589">
@@ -15346,7 +15346,7 @@
         </is>
       </c>
       <c r="E589" t="n">
-        <v>29.1432123742019</v>
+        <v>31.22127791874397</v>
       </c>
     </row>
     <row r="590">
@@ -15371,7 +15371,7 @@
         </is>
       </c>
       <c r="E590" t="n">
-        <v>29.06929312135525</v>
+        <v>4.204161388399733</v>
       </c>
     </row>
     <row r="591">
@@ -15396,7 +15396,7 @@
         </is>
       </c>
       <c r="E591" t="n">
-        <v>29.13727472389233</v>
+        <v>23.42605817739079</v>
       </c>
     </row>
     <row r="592">
@@ -15421,7 +15421,7 @@
         </is>
       </c>
       <c r="E592" t="n">
-        <v>29.14814834982619</v>
+        <v>29.84592745625358</v>
       </c>
     </row>
     <row r="593">
@@ -15446,7 +15446,7 @@
         </is>
       </c>
       <c r="E593" t="n">
-        <v>29.08231875693179</v>
+        <v>6.242791752126411</v>
       </c>
     </row>
     <row r="594">
@@ -15471,7 +15471,7 @@
         </is>
       </c>
       <c r="E594" t="n">
-        <v>29.17811589954243</v>
+        <v>36.65543037186889</v>
       </c>
     </row>
     <row r="595">
@@ -15496,7 +15496,7 @@
         </is>
       </c>
       <c r="E595" t="n">
-        <v>29.18284366765577</v>
+        <v>41.30581121963935</v>
       </c>
     </row>
     <row r="596">
@@ -15521,7 +15521,7 @@
         </is>
       </c>
       <c r="E596" t="n">
-        <v>29.19725955436075</v>
+        <v>33.19749909695386</v>
       </c>
     </row>
     <row r="597">
@@ -15546,7 +15546,7 @@
         </is>
       </c>
       <c r="E597" t="n">
-        <v>29.20603252664083</v>
+        <v>41.86466380045445</v>
       </c>
     </row>
     <row r="598">
@@ -15571,7 +15571,7 @@
         </is>
       </c>
       <c r="E598" t="n">
-        <v>29.22303200914524</v>
+        <v>46.63230995430749</v>
       </c>
     </row>
     <row r="599">
@@ -15596,7 +15596,7 @@
         </is>
       </c>
       <c r="E599" t="n">
-        <v>29.13381831714463</v>
+        <v>33.99953808925763</v>
       </c>
     </row>
     <row r="600">
@@ -15621,7 +15621,7 @@
         </is>
       </c>
       <c r="E600" t="n">
-        <v>29.19448884788321</v>
+        <v>51.67910038205919</v>
       </c>
     </row>
     <row r="601">
@@ -15646,7 +15646,7 @@
         </is>
       </c>
       <c r="E601" t="n">
-        <v>29.22769145094649</v>
+        <v>63.40149010389833</v>
       </c>
     </row>
     <row r="602">
@@ -15671,7 +15671,7 @@
         </is>
       </c>
       <c r="E602" t="n">
-        <v>29.07318773930141</v>
+        <v>14.28255637386277</v>
       </c>
     </row>
     <row r="603">
@@ -15696,7 +15696,7 @@
         </is>
       </c>
       <c r="E603" t="n">
-        <v>29.11224739109479</v>
+        <v>24.76128387579298</v>
       </c>
     </row>
     <row r="604">
@@ -15721,7 +15721,7 @@
         </is>
       </c>
       <c r="E604" t="n">
-        <v>29.13868568331002</v>
+        <v>26.45723530144228</v>
       </c>
     </row>
     <row r="605">
@@ -15746,7 +15746,7 @@
         </is>
       </c>
       <c r="E605" t="n">
-        <v>29.0186175588034</v>
+        <v>1.209338888925799</v>
       </c>
     </row>
     <row r="606">
@@ -15771,7 +15771,7 @@
         </is>
       </c>
       <c r="E606" t="n">
-        <v>29.09356695299289</v>
+        <v>18.68808313364067</v>
       </c>
     </row>
     <row r="607">
@@ -15796,7 +15796,7 @@
         </is>
       </c>
       <c r="E607" t="n">
-        <v>29.12895784257306</v>
+        <v>23.71370433142772</v>
       </c>
     </row>
     <row r="608">
@@ -15821,7 +15821,7 @@
         </is>
       </c>
       <c r="E608" t="n">
-        <v>29.02619948399083</v>
+        <v>2.799031268697526</v>
       </c>
     </row>
     <row r="609">
@@ -15846,7 +15846,7 @@
         </is>
       </c>
       <c r="E609" t="n">
-        <v>29.15119870141054</v>
+        <v>32.83382523171048</v>
       </c>
     </row>
     <row r="610">
@@ -15871,7 +15871,7 @@
         </is>
       </c>
       <c r="E610" t="n">
-        <v>29.20153826576374</v>
+        <v>35.13086062349431</v>
       </c>
     </row>
     <row r="611">
@@ -15896,7 +15896,7 @@
         </is>
       </c>
       <c r="E611" t="n">
-        <v>29.15102370899439</v>
+        <v>31.90622138790903</v>
       </c>
     </row>
     <row r="612">
@@ -15921,7 +15921,7 @@
         </is>
       </c>
       <c r="E612" t="n">
-        <v>29.18812540465032</v>
+        <v>39.99554414388258</v>
       </c>
     </row>
     <row r="613">
@@ -15946,7 +15946,7 @@
         </is>
       </c>
       <c r="E613" t="n">
-        <v>29.21639068596403</v>
+        <v>39.15015678981219</v>
       </c>
     </row>
     <row r="614">
@@ -15971,7 +15971,7 @@
         </is>
       </c>
       <c r="E614" t="n">
-        <v>29.08148202147251</v>
+        <v>18.7630999824587</v>
       </c>
     </row>
     <row r="615">
@@ -15996,7 +15996,7 @@
         </is>
       </c>
       <c r="E615" t="n">
-        <v>29.22577275006051</v>
+        <v>43.02791742996606</v>
       </c>
     </row>
     <row r="616">
@@ -16021,7 +16021,7 @@
         </is>
       </c>
       <c r="E616" t="n">
-        <v>29.25225122108297</v>
+        <v>46.92510961112626</v>
       </c>
     </row>
     <row r="617">
@@ -16046,7 +16046,7 @@
         </is>
       </c>
       <c r="E617" t="n">
-        <v>29.11009902376782</v>
+        <v>23.59012093952007</v>
       </c>
     </row>
     <row r="618">
@@ -16071,7 +16071,7 @@
         </is>
       </c>
       <c r="E618" t="n">
-        <v>29.1716583695033</v>
+        <v>37.5852158365842</v>
       </c>
     </row>
     <row r="619">
@@ -16096,7 +16096,7 @@
         </is>
       </c>
       <c r="E619" t="n">
-        <v>29.20329395603635</v>
+        <v>42.46400214127609</v>
       </c>
     </row>
     <row r="620">
@@ -16121,7 +16121,7 @@
         </is>
       </c>
       <c r="E620" t="n">
-        <v>29.04450590949487</v>
+        <v>7.874531652867564</v>
       </c>
     </row>
     <row r="621">
@@ -16146,7 +16146,7 @@
         </is>
       </c>
       <c r="E621" t="n">
-        <v>29.15734271290562</v>
+        <v>32.91974675230937</v>
       </c>
     </row>
     <row r="622">
@@ -16171,7 +16171,7 @@
         </is>
       </c>
       <c r="E622" t="n">
-        <v>29.19361941090867</v>
+        <v>38.08815030713583</v>
       </c>
     </row>
     <row r="623">
@@ -16196,7 +16196,7 @@
         </is>
       </c>
       <c r="E623" t="n">
-        <v>29.05280437861856</v>
+        <v>10.24324042738304</v>
       </c>
     </row>
     <row r="624">
@@ -16221,7 +16221,7 @@
         </is>
       </c>
       <c r="E624" t="n">
-        <v>29.23890218895134</v>
+        <v>56.49813109541185</v>
       </c>
     </row>
     <row r="625">
@@ -16246,7 +16246,7 @@
         </is>
       </c>
       <c r="E625" t="n">
-        <v>29.2895169765779</v>
+        <v>59.36416884158989</v>
       </c>
     </row>
     <row r="626">
@@ -16271,7 +16271,7 @@
         </is>
       </c>
       <c r="E626" t="n">
-        <v>29.31472521921424</v>
+        <v>64.86480107346605</v>
       </c>
     </row>
     <row r="627">
@@ -16296,7 +16296,7 @@
         </is>
       </c>
       <c r="E627" t="n">
-        <v>29.34520232160852</v>
+        <v>70.46000845405101</v>
       </c>
     </row>
     <row r="628">
@@ -16321,7 +16321,7 @@
         </is>
       </c>
       <c r="E628" t="n">
-        <v>29.39941770593565</v>
+        <v>76.95407791964846</v>
       </c>
     </row>
     <row r="629">
@@ -16346,7 +16346,7 @@
         </is>
       </c>
       <c r="E629" t="n">
-        <v>29.15490207602031</v>
+        <v>31.8103635176683</v>
       </c>
     </row>
     <row r="630">
@@ -16371,7 +16371,7 @@
         </is>
       </c>
       <c r="E630" t="n">
-        <v>29.35140736248434</v>
+        <v>64.37703138692865</v>
       </c>
     </row>
     <row r="631">
@@ -16396,7 +16396,7 @@
         </is>
       </c>
       <c r="E631" t="n">
-        <v>29.3930446265827</v>
+        <v>71.02171697851813</v>
       </c>
     </row>
     <row r="632">
@@ -16421,7 +16421,7 @@
         </is>
       </c>
       <c r="E632" t="n">
-        <v>29.1174767929346</v>
+        <v>20.68091360083417</v>
       </c>
     </row>
     <row r="633">
@@ -16446,7 +16446,7 @@
         </is>
       </c>
       <c r="E633" t="n">
-        <v>29.16079590222572</v>
+        <v>38.46356886245641</v>
       </c>
     </row>
     <row r="634">
@@ -16471,7 +16471,7 @@
         </is>
       </c>
       <c r="E634" t="n">
-        <v>29.17153713524323</v>
+        <v>40.06825388275595</v>
       </c>
     </row>
     <row r="635">
@@ -16496,7 +16496,7 @@
         </is>
       </c>
       <c r="E635" t="n">
-        <v>29.0922396977542</v>
+        <v>11.27322183214437</v>
       </c>
     </row>
     <row r="636">
@@ -16521,7 +16521,7 @@
         </is>
       </c>
       <c r="E636" t="n">
-        <v>29.17167076805698</v>
+        <v>41.26327503625268</v>
       </c>
     </row>
     <row r="637">
@@ -16546,7 +16546,7 @@
         </is>
       </c>
       <c r="E637" t="n">
-        <v>29.18456753939988</v>
+        <v>45.37883045561973</v>
       </c>
     </row>
     <row r="638">
@@ -16571,7 +16571,7 @@
         </is>
       </c>
       <c r="E638" t="n">
-        <v>29.10326632689863</v>
+        <v>12.31075559320512</v>
       </c>
     </row>
     <row r="639">
@@ -16596,7 +16596,7 @@
         </is>
       </c>
       <c r="E639" t="n">
-        <v>29.21630125708786</v>
+        <v>56.97105317577039</v>
       </c>
     </row>
     <row r="640">
@@ -16621,7 +16621,7 @@
         </is>
       </c>
       <c r="E640" t="n">
-        <v>29.21828716926731</v>
+        <v>58.41084846432162</v>
       </c>
     </row>
     <row r="641">
@@ -16646,7 +16646,7 @@
         </is>
       </c>
       <c r="E641" t="n">
-        <v>29.2503552227624</v>
+        <v>64.50661145927225</v>
       </c>
     </row>
     <row r="642">
@@ -16671,7 +16671,7 @@
         </is>
       </c>
       <c r="E642" t="n">
-        <v>29.27147805136179</v>
+        <v>67.47386013198636</v>
       </c>
     </row>
     <row r="643">
@@ -16696,7 +16696,7 @@
         </is>
       </c>
       <c r="E643" t="n">
-        <v>29.27573511509659</v>
+        <v>66.70640910678081</v>
       </c>
     </row>
     <row r="644">
@@ -16721,7 +16721,7 @@
         </is>
       </c>
       <c r="E644" t="n">
-        <v>29.12184506884488</v>
+        <v>24.92931873107833</v>
       </c>
     </row>
     <row r="645">
@@ -16746,7 +16746,7 @@
         </is>
       </c>
       <c r="E645" t="n">
-        <v>29.23240514933644</v>
+        <v>62.79403576966868</v>
       </c>
     </row>
     <row r="646">
@@ -16771,7 +16771,7 @@
         </is>
       </c>
       <c r="E646" t="n">
-        <v>29.2536204412242</v>
+        <v>66.84916750550001</v>
       </c>
     </row>
     <row r="647">
@@ -16796,7 +16796,7 @@
         </is>
       </c>
       <c r="E647" t="n">
-        <v>29.09512539389365</v>
+        <v>18.29609859339139</v>
       </c>
     </row>
     <row r="648">
@@ -16821,7 +16821,7 @@
         </is>
       </c>
       <c r="E648" t="n">
-        <v>29.15459725032737</v>
+        <v>34.47052071788985</v>
       </c>
     </row>
     <row r="649">
@@ -16846,7 +16846,7 @@
         </is>
       </c>
       <c r="E649" t="n">
-        <v>29.179889492949</v>
+        <v>38.39770863346408</v>
       </c>
     </row>
     <row r="650">
@@ -16871,7 +16871,7 @@
         </is>
       </c>
       <c r="E650" t="n">
-        <v>29.0509266079177</v>
+        <v>8.724282827172853</v>
       </c>
     </row>
     <row r="651">
@@ -16896,7 +16896,7 @@
         </is>
       </c>
       <c r="E651" t="n">
-        <v>29.14194582860233</v>
+        <v>30.59205502586363</v>
       </c>
     </row>
     <row r="652">
@@ -16921,7 +16921,7 @@
         </is>
       </c>
       <c r="E652" t="n">
-        <v>29.17966484603127</v>
+        <v>38.07759009049499</v>
       </c>
     </row>
     <row r="653">
@@ -16946,7 +16946,7 @@
         </is>
       </c>
       <c r="E653" t="n">
-        <v>29.06372230969655</v>
+        <v>8.943540203133754</v>
       </c>
     </row>
     <row r="654">
@@ -16971,7 +16971,7 @@
         </is>
       </c>
       <c r="E654" t="n">
-        <v>29.20494930390129</v>
+        <v>47.17316290839455</v>
       </c>
     </row>
     <row r="655">
@@ -16996,7 +16996,7 @@
         </is>
       </c>
       <c r="E655" t="n">
-        <v>29.24970172166652</v>
+        <v>56.69986137206483</v>
       </c>
     </row>
     <row r="656">
@@ -17021,7 +17021,7 @@
         </is>
       </c>
       <c r="E656" t="n">
-        <v>29.21101196434364</v>
+        <v>44.84292074206779</v>
       </c>
     </row>
     <row r="657">
@@ -17046,7 +17046,7 @@
         </is>
       </c>
       <c r="E657" t="n">
-        <v>29.25851681925032</v>
+        <v>53.68703536307527</v>
       </c>
     </row>
     <row r="658">
@@ -17071,7 +17071,7 @@
         </is>
       </c>
       <c r="E658" t="n">
-        <v>29.27866373908755</v>
+        <v>52.4772995831554</v>
       </c>
     </row>
     <row r="659">
@@ -17096,7 +17096,7 @@
         </is>
       </c>
       <c r="E659" t="n">
-        <v>29.07168806389745</v>
+        <v>17.88804770716352</v>
       </c>
     </row>
     <row r="660">
@@ -17121,7 +17121,7 @@
         </is>
       </c>
       <c r="E660" t="n">
-        <v>29.26172036729231</v>
+        <v>55.25978423636409</v>
       </c>
     </row>
     <row r="661">
@@ -17146,7 +17146,7 @@
         </is>
       </c>
       <c r="E661" t="n">
-        <v>29.28711643175189</v>
+        <v>60.54795462455871</v>
       </c>
     </row>
     <row r="662">
@@ -17171,7 +17171,7 @@
         </is>
       </c>
       <c r="E662" t="n">
-        <v>29.0977494891385</v>
+        <v>20.50337143349163</v>
       </c>
     </row>
     <row r="663">
@@ -17196,7 +17196,7 @@
         </is>
       </c>
       <c r="E663" t="n">
-        <v>29.18916490195599</v>
+        <v>40.97020306718345</v>
       </c>
     </row>
     <row r="664">
@@ -17221,7 +17221,7 @@
         </is>
       </c>
       <c r="E664" t="n">
-        <v>29.21519264831536</v>
+        <v>45.34941903733112</v>
       </c>
     </row>
     <row r="665">
@@ -17246,7 +17246,7 @@
         </is>
       </c>
       <c r="E665" t="n">
-        <v>29.03896934856365</v>
+        <v>8.928285301303561</v>
       </c>
     </row>
     <row r="666">
@@ -17271,7 +17271,7 @@
         </is>
       </c>
       <c r="E666" t="n">
-        <v>29.18056191058077</v>
+        <v>39.16750672095056</v>
       </c>
     </row>
     <row r="667">
@@ -17296,7 +17296,7 @@
         </is>
       </c>
       <c r="E667" t="n">
-        <v>29.21341087566052</v>
+        <v>46.11787439992004</v>
       </c>
     </row>
     <row r="668">
@@ -17321,7 +17321,7 @@
         </is>
       </c>
       <c r="E668" t="n">
-        <v>29.05782418269909</v>
+        <v>8.989896734470602</v>
       </c>
     </row>
     <row r="669">
@@ -17346,7 +17346,7 @@
         </is>
       </c>
       <c r="E669" t="n">
-        <v>29.26603376050055</v>
+        <v>58.5312838736432</v>
       </c>
     </row>
     <row r="670">
@@ -17371,7 +17371,7 @@
         </is>
       </c>
       <c r="E670" t="n">
-        <v>29.30627946275044</v>
+        <v>64.69487197787927</v>
       </c>
     </row>
     <row r="671">
@@ -17396,7 +17396,7 @@
         </is>
       </c>
       <c r="E671" t="n">
-        <v>29.33171251805019</v>
+        <v>65.88312218069717</v>
       </c>
     </row>
     <row r="672">
@@ -17421,7 +17421,7 @@
         </is>
       </c>
       <c r="E672" t="n">
-        <v>29.38344227651955</v>
+        <v>75.7742062618622</v>
       </c>
     </row>
     <row r="673">
@@ -17446,7 +17446,7 @@
         </is>
       </c>
       <c r="E673" t="n">
-        <v>29.41749842540647</v>
+        <v>81.33588669355396</v>
       </c>
     </row>
     <row r="674">
@@ -17471,7 +17471,7 @@
         </is>
       </c>
       <c r="E674" t="n">
-        <v>29.09139646156405</v>
+        <v>19.3654894542069</v>
       </c>
     </row>
     <row r="675">
@@ -17496,7 +17496,7 @@
         </is>
       </c>
       <c r="E675" t="n">
-        <v>29.36194364841321</v>
+        <v>70.63916030913006</v>
       </c>
     </row>
     <row r="676">
@@ -17521,7 +17521,7 @@
         </is>
       </c>
       <c r="E676" t="n">
-        <v>29.38612005429049</v>
+        <v>76.80131570206342</v>
       </c>
     </row>
     <row r="677">
@@ -17546,7 +17546,7 @@
         </is>
       </c>
       <c r="E677" t="n">
-        <v>29.11143145818919</v>
+        <v>25.23807356274639</v>
       </c>
     </row>
     <row r="678">
@@ -17571,7 +17571,7 @@
         </is>
       </c>
       <c r="E678" t="n">
-        <v>29.14605358024913</v>
+        <v>31.24905229371772</v>
       </c>
     </row>
     <row r="679">
@@ -17596,7 +17596,7 @@
         </is>
       </c>
       <c r="E679" t="n">
-        <v>29.15711075946783</v>
+        <v>36.92051190473797</v>
       </c>
     </row>
     <row r="680">
@@ -17621,7 +17621,7 @@
         </is>
       </c>
       <c r="E680" t="n">
-        <v>29.08899769783266</v>
+        <v>10.15584122218654</v>
       </c>
     </row>
     <row r="681">
@@ -17646,7 +17646,7 @@
         </is>
       </c>
       <c r="E681" t="n">
-        <v>29.16579681098058</v>
+        <v>41.81224352390959</v>
       </c>
     </row>
     <row r="682">
@@ -17671,7 +17671,7 @@
         </is>
       </c>
       <c r="E682" t="n">
-        <v>29.17445112466185</v>
+        <v>46.27826655910413</v>
       </c>
     </row>
     <row r="683">
@@ -17696,7 +17696,7 @@
         </is>
       </c>
       <c r="E683" t="n">
-        <v>29.09896546763924</v>
+        <v>11.95065642089859</v>
       </c>
     </row>
     <row r="684">
@@ -17721,7 +17721,7 @@
         </is>
       </c>
       <c r="E684" t="n">
-        <v>29.20541069580459</v>
+        <v>55.50077979727067</v>
       </c>
     </row>
     <row r="685">
@@ -17746,7 +17746,7 @@
         </is>
       </c>
       <c r="E685" t="n">
-        <v>29.20883842283018</v>
+        <v>56.87243962454552</v>
       </c>
     </row>
     <row r="686">
@@ -17771,7 +17771,7 @@
         </is>
       </c>
       <c r="E686" t="n">
-        <v>29.22775706227511</v>
+        <v>59.6984672516854</v>
       </c>
     </row>
     <row r="687">
@@ -17796,7 +17796,7 @@
         </is>
       </c>
       <c r="E687" t="n">
-        <v>29.24268103568371</v>
+        <v>61.8307654620624</v>
       </c>
     </row>
     <row r="688">
@@ -17821,7 +17821,7 @@
         </is>
       </c>
       <c r="E688" t="n">
-        <v>29.24710573949972</v>
+        <v>63.24791464477857</v>
       </c>
     </row>
     <row r="689">
@@ -17846,7 +17846,7 @@
         </is>
       </c>
       <c r="E689" t="n">
-        <v>29.11842522269104</v>
+        <v>24.93995828587243</v>
       </c>
     </row>
     <row r="690">
@@ -17871,7 +17871,7 @@
         </is>
       </c>
       <c r="E690" t="n">
-        <v>29.19866571833269</v>
+        <v>43.9469361817886</v>
       </c>
     </row>
     <row r="691">
@@ -17896,7 +17896,7 @@
         </is>
       </c>
       <c r="E691" t="n">
-        <v>29.2301271606104</v>
+        <v>63.240010855989</v>
       </c>
     </row>
     <row r="692">
@@ -17921,7 +17921,7 @@
         </is>
       </c>
       <c r="E692" t="n">
-        <v>29.11069172438149</v>
+        <v>24.64876682342935</v>
       </c>
     </row>
     <row r="693">
@@ -17946,7 +17946,7 @@
         </is>
       </c>
       <c r="E693" t="n">
-        <v>29.16527280471439</v>
+        <v>37.94666583358855</v>
       </c>
     </row>
     <row r="694">
@@ -17971,7 +17971,7 @@
         </is>
       </c>
       <c r="E694" t="n">
-        <v>29.18750075896682</v>
+        <v>39.99126494401638</v>
       </c>
     </row>
     <row r="695">
@@ -17996,7 +17996,7 @@
         </is>
       </c>
       <c r="E695" t="n">
-        <v>29.07163486557051</v>
+        <v>8.833685232934762</v>
       </c>
     </row>
     <row r="696">
@@ -18021,7 +18021,7 @@
         </is>
       </c>
       <c r="E696" t="n">
-        <v>29.16187921329405</v>
+        <v>35.70133412081859</v>
       </c>
     </row>
     <row r="697">
@@ -18046,7 +18046,7 @@
         </is>
       </c>
       <c r="E697" t="n">
-        <v>29.19344582921276</v>
+        <v>40.45174159700626</v>
       </c>
     </row>
     <row r="698">
@@ -18071,7 +18071,7 @@
         </is>
       </c>
       <c r="E698" t="n">
-        <v>29.07666802229161</v>
+        <v>7.861950759588503</v>
       </c>
     </row>
     <row r="699">
@@ -18096,7 +18096,7 @@
         </is>
       </c>
       <c r="E699" t="n">
-        <v>29.21744748516235</v>
+        <v>52.89074045578963</v>
       </c>
     </row>
     <row r="700">
@@ -18121,7 +18121,7 @@
         </is>
       </c>
       <c r="E700" t="n">
-        <v>29.26217158005264</v>
+        <v>60.44822954544048</v>
       </c>
     </row>
     <row r="701">
@@ -18146,7 +18146,7 @@
         </is>
       </c>
       <c r="E701" t="n">
-        <v>29.22863597002472</v>
+        <v>51.45969082687607</v>
       </c>
     </row>
     <row r="702">
@@ -18171,7 +18171,7 @@
         </is>
       </c>
       <c r="E702" t="n">
-        <v>29.27031309340877</v>
+        <v>57.14590271807224</v>
       </c>
     </row>
     <row r="703">
@@ -18196,7 +18196,7 @@
         </is>
       </c>
       <c r="E703" t="n">
-        <v>29.28582212547101</v>
+        <v>57.87624024478707</v>
       </c>
     </row>
     <row r="704">
@@ -18221,7 +18221,7 @@
         </is>
       </c>
       <c r="E704" t="n">
-        <v>29.10849177558969</v>
+        <v>24.89220911261214</v>
       </c>
     </row>
     <row r="705">
@@ -18246,7 +18246,7 @@
         </is>
       </c>
       <c r="E705" t="n">
-        <v>29.28344819725057</v>
+        <v>61.99141014898449</v>
       </c>
     </row>
     <row r="706">
@@ -18271,7 +18271,7 @@
         </is>
       </c>
       <c r="E706" t="n">
-        <v>29.30728435068845</v>
+        <v>65.25609911991177</v>
       </c>
     </row>
     <row r="707">
@@ -18296,7 +18296,7 @@
         </is>
       </c>
       <c r="E707" t="n">
-        <v>29.11921938352328</v>
+        <v>26.77792646788471</v>
       </c>
     </row>
     <row r="708">
@@ -18321,7 +18321,7 @@
         </is>
       </c>
       <c r="E708" t="n">
-        <v>29.19512841575851</v>
+        <v>43.15156980780269</v>
       </c>
     </row>
     <row r="709">
@@ -18346,7 +18346,7 @@
         </is>
       </c>
       <c r="E709" t="n">
-        <v>29.21815449251952</v>
+        <v>46.75022372072883</v>
       </c>
     </row>
     <row r="710">
@@ -18371,7 +18371,7 @@
         </is>
       </c>
       <c r="E710" t="n">
-        <v>29.0670209959783</v>
+        <v>10.51576338616081</v>
       </c>
     </row>
     <row r="711">
@@ -18396,7 +18396,7 @@
         </is>
       </c>
       <c r="E711" t="n">
-        <v>29.19235269828717</v>
+        <v>43.49440042409996</v>
       </c>
     </row>
     <row r="712">
@@ -18421,7 +18421,7 @@
         </is>
       </c>
       <c r="E712" t="n">
-        <v>29.22036929045149</v>
+        <v>49.14617417456902</v>
       </c>
     </row>
     <row r="713">
@@ -18446,7 +18446,7 @@
         </is>
       </c>
       <c r="E713" t="n">
-        <v>29.07225291973247</v>
+        <v>9.137366030017688</v>
       </c>
     </row>
     <row r="714">
@@ -18471,7 +18471,7 @@
         </is>
       </c>
       <c r="E714" t="n">
-        <v>29.26843663686222</v>
+        <v>66.41662153591948</v>
       </c>
     </row>
     <row r="715">
@@ -18496,7 +18496,7 @@
         </is>
       </c>
       <c r="E715" t="n">
-        <v>29.30844992780647</v>
+        <v>69.68671638131204</v>
       </c>
     </row>
     <row r="716">
@@ -18521,7 +18521,7 @@
         </is>
       </c>
       <c r="E716" t="n">
-        <v>29.33455906773276</v>
+        <v>75.6885877457234</v>
       </c>
     </row>
     <row r="717">
@@ -18546,7 +18546,7 @@
         </is>
       </c>
       <c r="E717" t="n">
-        <v>29.37231647544203</v>
+        <v>80.32980883723755</v>
       </c>
     </row>
     <row r="718">
@@ -18571,7 +18571,7 @@
         </is>
       </c>
       <c r="E718" t="n">
-        <v>29.40256091450908</v>
+        <v>82.93612663623013</v>
       </c>
     </row>
     <row r="719">
@@ -18596,7 +18596,7 @@
         </is>
       </c>
       <c r="E719" t="n">
-        <v>29.12792195150481</v>
+        <v>27.59488639013108</v>
       </c>
     </row>
     <row r="720">
@@ -18621,7 +18621,7 @@
         </is>
       </c>
       <c r="E720" t="n">
-        <v>29.35733262322374</v>
+        <v>74.96573862318968</v>
       </c>
     </row>
     <row r="721">
@@ -18646,7 +18646,7 @@
         </is>
       </c>
       <c r="E721" t="n">
-        <v>29.38350429210217</v>
+        <v>78.83566642875647</v>
       </c>
     </row>
     <row r="722">
@@ -18671,7 +18671,7 @@
         </is>
       </c>
       <c r="E722" t="n">
-        <v>29.12548771765777</v>
+        <v>23.94762301879607</v>
       </c>
     </row>
     <row r="723">
@@ -18696,7 +18696,7 @@
         </is>
       </c>
       <c r="E723" t="n">
-        <v>29.14859693421815</v>
+        <v>26.18904945271095</v>
       </c>
     </row>
     <row r="724">
@@ -18721,7 +18721,7 @@
         </is>
       </c>
       <c r="E724" t="n">
-        <v>29.15451687537116</v>
+        <v>31.21443034807286</v>
       </c>
     </row>
     <row r="725">
@@ -18746,7 +18746,7 @@
         </is>
       </c>
       <c r="E725" t="n">
-        <v>29.12477756902122</v>
+        <v>15.70786716885429</v>
       </c>
     </row>
     <row r="726">
@@ -18771,7 +18771,7 @@
         </is>
       </c>
       <c r="E726" t="n">
-        <v>29.18115374532897</v>
+        <v>56.43648474454677</v>
       </c>
     </row>
     <row r="727">
@@ -18796,7 +18796,7 @@
         </is>
       </c>
       <c r="E727" t="n">
-        <v>29.18497309553083</v>
+        <v>55.66261260496722</v>
       </c>
     </row>
     <row r="728">
@@ -18821,7 +18821,7 @@
         </is>
       </c>
       <c r="E728" t="n">
-        <v>29.11939711906954</v>
+        <v>11.70396270485318</v>
       </c>
     </row>
     <row r="729">
@@ -18846,7 +18846,7 @@
         </is>
       </c>
       <c r="E729" t="n">
-        <v>29.19430550414317</v>
+        <v>57.67787769290479</v>
       </c>
     </row>
     <row r="730">
@@ -18871,7 +18871,7 @@
         </is>
       </c>
       <c r="E730" t="n">
-        <v>29.19388377696048</v>
+        <v>53.97060039399314</v>
       </c>
     </row>
     <row r="731">
@@ -18896,7 +18896,7 @@
         </is>
       </c>
       <c r="E731" t="n">
-        <v>29.2118323631413</v>
+        <v>60.60362839645676</v>
       </c>
     </row>
     <row r="732">
@@ -18921,7 +18921,7 @@
         </is>
       </c>
       <c r="E732" t="n">
-        <v>29.21726541378171</v>
+        <v>62.90211690532377</v>
       </c>
     </row>
     <row r="733">
@@ -18946,7 +18946,7 @@
         </is>
       </c>
       <c r="E733" t="n">
-        <v>29.22233451123511</v>
+        <v>62.51196580818298</v>
       </c>
     </row>
     <row r="734">
@@ -18971,7 +18971,7 @@
         </is>
       </c>
       <c r="E734" t="n">
-        <v>29.1428624288199</v>
+        <v>28.79003140248642</v>
       </c>
     </row>
     <row r="735">
@@ -18996,7 +18996,7 @@
         </is>
       </c>
       <c r="E735" t="n">
-        <v>29.18918826475043</v>
+        <v>44.19103673792414</v>
       </c>
     </row>
     <row r="736">
@@ -19021,7 +19021,7 @@
         </is>
       </c>
       <c r="E736" t="n">
-        <v>29.21676265220342</v>
+        <v>59.53417370042493</v>
       </c>
     </row>
     <row r="737">
@@ -19046,7 +19046,7 @@
         </is>
       </c>
       <c r="E737" t="n">
-        <v>29.12479007345916</v>
+        <v>26.01635535559313</v>
       </c>
     </row>
     <row r="738">
@@ -19071,7 +19071,7 @@
         </is>
       </c>
       <c r="E738" t="n">
-        <v>29.16009416789502</v>
+        <v>35.20309085875284</v>
       </c>
     </row>
     <row r="739">
@@ -19096,7 +19096,7 @@
         </is>
       </c>
       <c r="E739" t="n">
-        <v>29.17438009342307</v>
+        <v>37.45303485974462</v>
       </c>
     </row>
     <row r="740">
@@ -19121,7 +19121,7 @@
         </is>
       </c>
       <c r="E740" t="n">
-        <v>29.12886295354236</v>
+        <v>36.10526021281458</v>
       </c>
     </row>
     <row r="741">
@@ -19146,7 +19146,7 @@
         </is>
       </c>
       <c r="E741" t="n">
-        <v>29.18803042739125</v>
+        <v>51.289854029426</v>
       </c>
     </row>
     <row r="742">
@@ -19171,7 +19171,7 @@
         </is>
       </c>
       <c r="E742" t="n">
-        <v>29.21026179964307</v>
+        <v>55.54327574311974</v>
       </c>
     </row>
     <row r="743">
@@ -19196,7 +19196,7 @@
         </is>
       </c>
       <c r="E743" t="n">
-        <v>29.10328716060768</v>
+        <v>10.73313614789745</v>
       </c>
     </row>
     <row r="744">
@@ -19221,7 +19221,7 @@
         </is>
       </c>
       <c r="E744" t="n">
-        <v>29.20039137436655</v>
+        <v>51.93956646508916</v>
       </c>
     </row>
     <row r="745">
@@ -19246,7 +19246,7 @@
         </is>
       </c>
       <c r="E745" t="n">
-        <v>29.23029491573335</v>
+        <v>58.01403083438292</v>
       </c>
     </row>
     <row r="746">
@@ -19271,7 +19271,7 @@
         </is>
       </c>
       <c r="E746" t="n">
-        <v>29.2083907076005</v>
+        <v>49.40992523629998</v>
       </c>
     </row>
     <row r="747">
@@ -19296,7 +19296,7 @@
         </is>
       </c>
       <c r="E747" t="n">
-        <v>29.23152252169133</v>
+        <v>56.40308310994253</v>
       </c>
     </row>
     <row r="748">
@@ -19321,7 +19321,7 @@
         </is>
       </c>
       <c r="E748" t="n">
-        <v>29.24348197584195</v>
+        <v>55.09651228518034</v>
       </c>
     </row>
     <row r="749">
@@ -19346,7 +19346,7 @@
         </is>
       </c>
       <c r="E749" t="n">
-        <v>29.13278872593922</v>
+        <v>30.74193844427845</v>
       </c>
     </row>
     <row r="750">
@@ -19371,7 +19371,7 @@
         </is>
       </c>
       <c r="E750" t="n">
-        <v>29.24040694242838</v>
+        <v>59.94698456439141</v>
       </c>
     </row>
     <row r="751">
@@ -19396,7 +19396,7 @@
         </is>
       </c>
       <c r="E751" t="n">
-        <v>29.26503471106775</v>
+        <v>63.36178680670741</v>
       </c>
     </row>
     <row r="752">
@@ -19421,7 +19421,7 @@
         </is>
       </c>
       <c r="E752" t="n">
-        <v>29.13337492936398</v>
+        <v>30.11906586185742</v>
       </c>
     </row>
     <row r="753">
@@ -19446,7 +19446,7 @@
         </is>
       </c>
       <c r="E753" t="n">
-        <v>29.18227039670665</v>
+        <v>43.12452091755682</v>
       </c>
     </row>
     <row r="754">
@@ -19471,7 +19471,7 @@
         </is>
       </c>
       <c r="E754" t="n">
-        <v>29.19745511148036</v>
+        <v>45.72856341409004</v>
       </c>
     </row>
     <row r="755">
@@ -19496,7 +19496,7 @@
         </is>
       </c>
       <c r="E755" t="n">
-        <v>29.1312354552953</v>
+        <v>37.5702393810769</v>
       </c>
     </row>
     <row r="756">
@@ -19521,7 +19521,7 @@
         </is>
       </c>
       <c r="E756" t="n">
-        <v>29.21287220001555</v>
+        <v>57.21733624357664</v>
       </c>
     </row>
     <row r="757">
@@ -19546,7 +19546,7 @@
         </is>
       </c>
       <c r="E757" t="n">
-        <v>29.2327255221</v>
+        <v>59.66775831696734</v>
       </c>
     </row>
     <row r="758">
@@ -19571,7 +19571,7 @@
         </is>
       </c>
       <c r="E758" t="n">
-        <v>29.10371424951432</v>
+        <v>11.48450405595693</v>
       </c>
     </row>
     <row r="759">
@@ -19596,7 +19596,7 @@
         </is>
       </c>
       <c r="E759" t="n">
-        <v>29.23979283201372</v>
+        <v>66.50178200103907</v>
       </c>
     </row>
     <row r="760">
@@ -19621,7 +19621,7 @@
         </is>
       </c>
       <c r="E760" t="n">
-        <v>29.26724179365144</v>
+        <v>67.08182813475815</v>
       </c>
     </row>
     <row r="761">
@@ -19646,7 +19646,7 @@
         </is>
       </c>
       <c r="E761" t="n">
-        <v>29.29584217894863</v>
+        <v>79.18206670868184</v>
       </c>
     </row>
     <row r="762">
@@ -19671,7 +19671,7 @@
         </is>
       </c>
       <c r="E762" t="n">
-        <v>29.31195716789303</v>
+        <v>79.23122232667956</v>
       </c>
     </row>
     <row r="763">
@@ -19696,7 +19696,7 @@
         </is>
       </c>
       <c r="E763" t="n">
-        <v>29.33922827947446</v>
+        <v>84.62113884180205</v>
       </c>
     </row>
     <row r="764">
@@ -19721,7 +19721,7 @@
         </is>
       </c>
       <c r="E764" t="n">
-        <v>29.15775618020932</v>
+        <v>37.90397876001728</v>
       </c>
     </row>
     <row r="765">
@@ -19746,7 +19746,7 @@
         </is>
       </c>
       <c r="E765" t="n">
-        <v>29.29778127535639</v>
+        <v>75.60253672122035</v>
       </c>
     </row>
     <row r="766">
@@ -19771,7 +19771,7 @@
         </is>
       </c>
       <c r="E766" t="n">
-        <v>29.33061991907107</v>
+        <v>80.8274829871639</v>
       </c>
     </row>
     <row r="767">
@@ -19796,7 +19796,7 @@
         </is>
       </c>
       <c r="E767" t="n">
-        <v>29.10329294419044</v>
+        <v>18.32383787121221</v>
       </c>
     </row>
     <row r="768">
@@ -19821,7 +19821,7 @@
         </is>
       </c>
       <c r="E768" t="n">
-        <v>29.14282913698632</v>
+        <v>31.28345111073471</v>
       </c>
     </row>
     <row r="769">
@@ -19846,7 +19846,7 @@
         </is>
       </c>
       <c r="E769" t="n">
-        <v>29.15608619336374</v>
+        <v>36.68459574486082</v>
       </c>
     </row>
     <row r="770">
@@ -19871,7 +19871,7 @@
         </is>
       </c>
       <c r="E770" t="n">
-        <v>29.08172973121251</v>
+        <v>4.887192019479794</v>
       </c>
     </row>
     <row r="771">
@@ -19896,7 +19896,7 @@
         </is>
       </c>
       <c r="E771" t="n">
-        <v>29.15500422872027</v>
+        <v>26.06594184392613</v>
       </c>
     </row>
     <row r="772">
@@ -19921,7 +19921,7 @@
         </is>
       </c>
       <c r="E772" t="n">
-        <v>29.16971056355184</v>
+        <v>41.80496973292622</v>
       </c>
     </row>
     <row r="773">
@@ -19946,7 +19946,7 @@
         </is>
       </c>
       <c r="E773" t="n">
-        <v>29.08846961989516</v>
+        <v>5.509983170632353</v>
       </c>
     </row>
     <row r="774">
@@ -19971,7 +19971,7 @@
         </is>
       </c>
       <c r="E774" t="n">
-        <v>29.19795399947693</v>
+        <v>51.14377160256537</v>
       </c>
     </row>
     <row r="775">
@@ -19996,7 +19996,7 @@
         </is>
       </c>
       <c r="E775" t="n">
-        <v>29.20249114688519</v>
+        <v>55.88929014635827</v>
       </c>
     </row>
     <row r="776">
@@ -20021,7 +20021,7 @@
         </is>
       </c>
       <c r="E776" t="n">
-        <v>29.22678314418099</v>
+        <v>57.06719969086809</v>
       </c>
     </row>
     <row r="777">
@@ -20046,7 +20046,7 @@
         </is>
       </c>
       <c r="E777" t="n">
-        <v>29.2401251699938</v>
+        <v>60.70698916349217</v>
       </c>
     </row>
     <row r="778">
@@ -20071,7 +20071,7 @@
         </is>
       </c>
       <c r="E778" t="n">
-        <v>29.24743504239169</v>
+        <v>62.79512117621579</v>
       </c>
     </row>
     <row r="779">
@@ -20096,7 +20096,7 @@
         </is>
       </c>
       <c r="E779" t="n">
-        <v>29.09983209195319</v>
+        <v>15.12008699855341</v>
       </c>
     </row>
     <row r="780">
@@ -20121,7 +20121,7 @@
         </is>
       </c>
       <c r="E780" t="n">
-        <v>29.20043406655334</v>
+        <v>56.72328369444013</v>
       </c>
     </row>
     <row r="781">
@@ -20146,7 +20146,7 @@
         </is>
       </c>
       <c r="E781" t="n">
-        <v>29.2311553391976</v>
+        <v>63.80966611156705</v>
       </c>
     </row>
     <row r="782">
@@ -20171,7 +20171,7 @@
         </is>
       </c>
       <c r="E782" t="n">
-        <v>29.08332675359055</v>
+        <v>15.55419548932066</v>
       </c>
     </row>
     <row r="783">
@@ -20196,7 +20196,7 @@
         </is>
       </c>
       <c r="E783" t="n">
-        <v>29.14049862220203</v>
+        <v>32.7158433804501</v>
       </c>
     </row>
     <row r="784">
@@ -20221,7 +20221,7 @@
         </is>
       </c>
       <c r="E784" t="n">
-        <v>29.16640002487092</v>
+        <v>35.23538898988721</v>
       </c>
     </row>
     <row r="785">
@@ -20246,7 +20246,7 @@
         </is>
       </c>
       <c r="E785" t="n">
-        <v>29.0397562805161</v>
+        <v>3.274944288148742</v>
       </c>
     </row>
     <row r="786">
@@ -20271,7 +20271,7 @@
         </is>
       </c>
       <c r="E786" t="n">
-        <v>29.1284306202861</v>
+        <v>27.88254460694744</v>
       </c>
     </row>
     <row r="787">
@@ -20296,7 +20296,7 @@
         </is>
       </c>
       <c r="E787" t="n">
-        <v>29.1640046006939</v>
+        <v>33.21944842405566</v>
       </c>
     </row>
     <row r="788">
@@ -20321,7 +20321,7 @@
         </is>
       </c>
       <c r="E788" t="n">
-        <v>29.04596970571029</v>
+        <v>3.318463452449233</v>
       </c>
     </row>
     <row r="789">
@@ -20346,7 +20346,7 @@
         </is>
       </c>
       <c r="E789" t="n">
-        <v>29.18611105125228</v>
+        <v>45.45302487090895</v>
       </c>
     </row>
     <row r="790">
@@ -20371,7 +20371,7 @@
         </is>
       </c>
       <c r="E790" t="n">
-        <v>29.2314507016576</v>
+        <v>52.95695170534547</v>
       </c>
     </row>
     <row r="791">
@@ -20396,7 +20396,7 @@
         </is>
       </c>
       <c r="E791" t="n">
-        <v>29.19308721190972</v>
+        <v>41.5297182503046</v>
       </c>
     </row>
     <row r="792">
@@ -20421,7 +20421,7 @@
         </is>
       </c>
       <c r="E792" t="n">
-        <v>29.23176317418822</v>
+        <v>49.86669975293051</v>
       </c>
     </row>
     <row r="793">
@@ -20446,7 +20446,7 @@
         </is>
       </c>
       <c r="E793" t="n">
-        <v>29.25261030752136</v>
+        <v>49.45015912292226</v>
       </c>
     </row>
     <row r="794">
@@ -20471,7 +20471,7 @@
         </is>
       </c>
       <c r="E794" t="n">
-        <v>29.05644976602976</v>
+        <v>8.398927745487438</v>
       </c>
     </row>
     <row r="795">
@@ -20496,7 +20496,7 @@
         </is>
       </c>
       <c r="E795" t="n">
-        <v>29.23139915725157</v>
+        <v>42.81546287340926</v>
       </c>
     </row>
     <row r="796">
@@ -20521,7 +20521,7 @@
         </is>
       </c>
       <c r="E796" t="n">
-        <v>29.26602972687547</v>
+        <v>55.92215365954478</v>
       </c>
     </row>
     <row r="797">
@@ -20546,7 +20546,7 @@
         </is>
       </c>
       <c r="E797" t="n">
-        <v>29.08649364398828</v>
+        <v>16.54661262826355</v>
       </c>
     </row>
     <row r="798">
@@ -20571,7 +20571,7 @@
         </is>
       </c>
       <c r="E798" t="n">
-        <v>29.16956852806672</v>
+        <v>36.37115200380318</v>
       </c>
     </row>
     <row r="799">
@@ -20596,7 +20596,7 @@
         </is>
       </c>
       <c r="E799" t="n">
-        <v>29.19965565685121</v>
+        <v>42.23677121961347</v>
       </c>
     </row>
     <row r="800">
@@ -20621,7 +20621,7 @@
         </is>
       </c>
       <c r="E800" t="n">
-        <v>29.0298676560541</v>
+        <v>3.62817390607411</v>
       </c>
     </row>
     <row r="801">
@@ -20646,7 +20646,7 @@
         </is>
       </c>
       <c r="E801" t="n">
-        <v>29.16131356453491</v>
+        <v>35.83285726242753</v>
       </c>
     </row>
     <row r="802">
@@ -20671,7 +20671,7 @@
         </is>
       </c>
       <c r="E802" t="n">
-        <v>29.19598276540221</v>
+        <v>43.72188497684933</v>
       </c>
     </row>
     <row r="803">
@@ -20696,7 +20696,7 @@
         </is>
       </c>
       <c r="E803" t="n">
-        <v>29.03849526872131</v>
+        <v>3.673742856972197</v>
       </c>
     </row>
     <row r="804">
@@ -20721,7 +20721,7 @@
         </is>
       </c>
       <c r="E804" t="n">
-        <v>29.2376538742906</v>
+        <v>54.36440316871917</v>
       </c>
     </row>
     <row r="805">
@@ -20746,7 +20746,7 @@
         </is>
       </c>
       <c r="E805" t="n">
-        <v>29.28310182993842</v>
+        <v>63.11613035546751</v>
       </c>
     </row>
     <row r="806">
@@ -20771,7 +20771,7 @@
         </is>
       </c>
       <c r="E806" t="n">
-        <v>29.30275886935565</v>
+        <v>62.72986202908687</v>
       </c>
     </row>
     <row r="807">
@@ -20796,7 +20796,7 @@
         </is>
       </c>
       <c r="E807" t="n">
-        <v>29.3412362415814</v>
+        <v>74.25966711832291</v>
       </c>
     </row>
     <row r="808">
@@ -20821,7 +20821,7 @@
         </is>
       </c>
       <c r="E808" t="n">
-        <v>29.38236984061565</v>
+        <v>79.33567645398938</v>
       </c>
     </row>
     <row r="809">
@@ -20846,7 +20846,7 @@
         </is>
       </c>
       <c r="E809" t="n">
-        <v>29.07286112721377</v>
+        <v>7.793227714822798</v>
       </c>
     </row>
     <row r="810">
@@ -20871,7 +20871,7 @@
         </is>
       </c>
       <c r="E810" t="n">
-        <v>29.31614484897684</v>
+        <v>66.2820948621829</v>
       </c>
     </row>
     <row r="811">
@@ -20896,7 +20896,7 @@
         </is>
       </c>
       <c r="E811" t="n">
-        <v>29.35872554315488</v>
+        <v>75.51752880045504</v>
       </c>
     </row>
     <row r="812">
@@ -20921,7 +20921,7 @@
         </is>
       </c>
       <c r="E812" t="n">
-        <v>29.0908229534026</v>
+        <v>17.67467368048608</v>
       </c>
     </row>
     <row r="813">
@@ -20946,7 +20946,7 @@
         </is>
       </c>
       <c r="E813" t="n">
-        <v>29.10474895462442</v>
+        <v>17.57407677280179</v>
       </c>
     </row>
     <row r="814">
@@ -20971,7 +20971,7 @@
         </is>
       </c>
       <c r="E814" t="n">
-        <v>29.11769081550976</v>
+        <v>19.50750143883877</v>
       </c>
     </row>
     <row r="815">
@@ -20996,7 +20996,7 @@
         </is>
       </c>
       <c r="E815" t="n">
-        <v>29.05988421010423</v>
+        <v>5.843388620152155</v>
       </c>
     </row>
     <row r="816">
@@ -21021,7 +21021,7 @@
         </is>
       </c>
       <c r="E816" t="n">
-        <v>29.11043337881999</v>
+        <v>20.18285608423646</v>
       </c>
     </row>
     <row r="817">
@@ -21046,7 +21046,7 @@
         </is>
       </c>
       <c r="E817" t="n">
-        <v>29.12223926552957</v>
+        <v>23.20307801443665</v>
       </c>
     </row>
     <row r="818">
@@ -21071,7 +21071,7 @@
         </is>
       </c>
       <c r="E818" t="n">
-        <v>29.07410148704884</v>
+        <v>9.863034867785984</v>
       </c>
     </row>
     <row r="819">
@@ -21096,7 +21096,7 @@
         </is>
       </c>
       <c r="E819" t="n">
-        <v>29.14729434397638</v>
+        <v>28.91367631594877</v>
       </c>
     </row>
     <row r="820">
@@ -21121,7 +21121,7 @@
         </is>
       </c>
       <c r="E820" t="n">
-        <v>29.1530396214888</v>
+        <v>30.04991200018148</v>
       </c>
     </row>
     <row r="821">
@@ -21146,7 +21146,7 @@
         </is>
       </c>
       <c r="E821" t="n">
-        <v>29.14947680788955</v>
+        <v>24.74687001381636</v>
       </c>
     </row>
     <row r="822">
@@ -21171,7 +21171,7 @@
         </is>
       </c>
       <c r="E822" t="n">
-        <v>29.15447166357306</v>
+        <v>29.14357927194652</v>
       </c>
     </row>
     <row r="823">
@@ -21196,7 +21196,7 @@
         </is>
       </c>
       <c r="E823" t="n">
-        <v>29.17484755436779</v>
+        <v>31.46316924426754</v>
       </c>
     </row>
     <row r="824">
@@ -21221,7 +21221,7 @@
         </is>
       </c>
       <c r="E824" t="n">
-        <v>29.07810840977541</v>
+        <v>21.06815771830025</v>
       </c>
     </row>
     <row r="825">
@@ -21246,7 +21246,7 @@
         </is>
       </c>
       <c r="E825" t="n">
-        <v>29.12206024255438</v>
+        <v>24.90907059582727</v>
       </c>
     </row>
     <row r="826">
@@ -21271,7 +21271,7 @@
         </is>
       </c>
       <c r="E826" t="n">
-        <v>29.14898378962823</v>
+        <v>30.08841445118543</v>
       </c>
     </row>
     <row r="827">
@@ -21296,7 +21296,7 @@
         </is>
       </c>
       <c r="E827" t="n">
-        <v>29.10009002358723</v>
+        <v>16.7176831245014</v>
       </c>
     </row>
     <row r="828">
@@ -21321,7 +21321,7 @@
         </is>
       </c>
       <c r="E828" t="n">
-        <v>29.13337046075647</v>
+        <v>30.01680829421375</v>
       </c>
     </row>
     <row r="829">
@@ -21346,7 +21346,7 @@
         </is>
       </c>
       <c r="E829" t="n">
-        <v>29.1610954679034</v>
+        <v>35.78814598803223</v>
       </c>
     </row>
     <row r="830">
@@ -21371,7 +21371,7 @@
         </is>
       </c>
       <c r="E830" t="n">
-        <v>29.06172545927807</v>
+        <v>9.95082758770641</v>
       </c>
     </row>
     <row r="831">
@@ -21396,7 +21396,7 @@
         </is>
       </c>
       <c r="E831" t="n">
-        <v>29.1247770260645</v>
+        <v>30.07979275922557</v>
       </c>
     </row>
     <row r="832">
@@ -21421,7 +21421,7 @@
         </is>
       </c>
       <c r="E832" t="n">
-        <v>29.16277215226259</v>
+        <v>39.9034562835367</v>
       </c>
     </row>
     <row r="833">
@@ -21446,7 +21446,7 @@
         </is>
       </c>
       <c r="E833" t="n">
-        <v>29.07167609760457</v>
+        <v>10.59315886721651</v>
       </c>
     </row>
     <row r="834">
@@ -21471,7 +21471,7 @@
         </is>
       </c>
       <c r="E834" t="n">
-        <v>29.17636762674325</v>
+        <v>44.53718269799548</v>
       </c>
     </row>
     <row r="835">
@@ -21496,7 +21496,7 @@
         </is>
       </c>
       <c r="E835" t="n">
-        <v>29.22468108245303</v>
+        <v>56.75444532370029</v>
       </c>
     </row>
     <row r="836">
@@ -21521,7 +21521,7 @@
         </is>
       </c>
       <c r="E836" t="n">
-        <v>29.1723575719818</v>
+        <v>41.75393363319301</v>
       </c>
     </row>
     <row r="837">
@@ -21546,7 +21546,7 @@
         </is>
       </c>
       <c r="E837" t="n">
-        <v>29.19687051984342</v>
+        <v>46.8236056380603</v>
       </c>
     </row>
     <row r="838">
@@ -21571,7 +21571,7 @@
         </is>
       </c>
       <c r="E838" t="n">
-        <v>29.23824475682435</v>
+        <v>55.18165024769928</v>
       </c>
     </row>
     <row r="839">
@@ -21596,7 +21596,7 @@
         </is>
       </c>
       <c r="E839" t="n">
-        <v>29.08023565882054</v>
+        <v>15.36933282801667</v>
       </c>
     </row>
     <row r="840">
@@ -21621,7 +21621,7 @@
         </is>
       </c>
       <c r="E840" t="n">
-        <v>29.20944328679833</v>
+        <v>47.054932550756</v>
       </c>
     </row>
     <row r="841">
@@ -21646,7 +21646,7 @@
         </is>
       </c>
       <c r="E841" t="n">
-        <v>29.24465419140338</v>
+        <v>55.29280371232501</v>
       </c>
     </row>
     <row r="842">
@@ -21671,7 +21671,7 @@
         </is>
       </c>
       <c r="E842" t="n">
-        <v>29.10836730100908</v>
+        <v>21.39121953866812</v>
       </c>
     </row>
     <row r="843">
@@ -21696,7 +21696,7 @@
         </is>
       </c>
       <c r="E843" t="n">
-        <v>29.16262514726725</v>
+        <v>36.11361475760702</v>
       </c>
     </row>
     <row r="844">
@@ -21721,7 +21721,7 @@
         </is>
       </c>
       <c r="E844" t="n">
-        <v>29.19463520091927</v>
+        <v>44.78124373140516</v>
       </c>
     </row>
     <row r="845">
@@ -21746,7 +21746,7 @@
         </is>
       </c>
       <c r="E845" t="n">
-        <v>29.05733689179067</v>
+        <v>9.271849240416724</v>
       </c>
     </row>
     <row r="846">
@@ -21771,7 +21771,7 @@
         </is>
       </c>
       <c r="E846" t="n">
-        <v>29.15516794420273</v>
+        <v>35.08187214014286</v>
       </c>
     </row>
     <row r="847">
@@ -21796,7 +21796,7 @@
         </is>
       </c>
       <c r="E847" t="n">
-        <v>29.19359837611735</v>
+        <v>47.21070197406141</v>
       </c>
     </row>
     <row r="848">
@@ -21821,7 +21821,7 @@
         </is>
       </c>
       <c r="E848" t="n">
-        <v>29.07046406282543</v>
+        <v>14.37727437938066</v>
       </c>
     </row>
     <row r="849">
@@ -21846,7 +21846,7 @@
         </is>
       </c>
       <c r="E849" t="n">
-        <v>29.22814181286271</v>
+        <v>55.18338331254339</v>
       </c>
     </row>
     <row r="850">
@@ -21871,7 +21871,7 @@
         </is>
       </c>
       <c r="E850" t="n">
-        <v>29.27583002156515</v>
+        <v>67.48967959055383</v>
       </c>
     </row>
     <row r="851">
@@ -21896,7 +21896,7 @@
         </is>
       </c>
       <c r="E851" t="n">
-        <v>29.27349631782963</v>
+        <v>55.68290196775825</v>
       </c>
     </row>
     <row r="852">
@@ -21921,7 +21921,7 @@
         </is>
       </c>
       <c r="E852" t="n">
-        <v>29.29242751467329</v>
+        <v>61.04677691316097</v>
       </c>
     </row>
     <row r="853">
@@ -21946,7 +21946,7 @@
         </is>
       </c>
       <c r="E853" t="n">
-        <v>29.36441549616097</v>
+        <v>78.93171526414537</v>
       </c>
     </row>
     <row r="854">
@@ -21971,7 +21971,7 @@
         </is>
       </c>
       <c r="E854" t="n">
-        <v>29.10257842139892</v>
+        <v>23.20840182195639</v>
       </c>
     </row>
     <row r="855">
@@ -21996,7 +21996,7 @@
         </is>
       </c>
       <c r="E855" t="n">
-        <v>29.28146930016298</v>
+        <v>55.1013740249109</v>
       </c>
     </row>
     <row r="856">
@@ -22021,7 +22021,7 @@
         </is>
       </c>
       <c r="E856" t="n">
-        <v>29.33413129757408</v>
+        <v>74.23265448662903</v>
       </c>
     </row>
     <row r="857">
@@ -22046,7 +22046,7 @@
         </is>
       </c>
       <c r="E857" t="n">
-        <v>29.10412169624075</v>
+        <v>16.41608243651957</v>
       </c>
     </row>
     <row r="858">
@@ -22071,7 +22071,7 @@
         </is>
       </c>
       <c r="E858" t="n">
-        <v>29.12235501819656</v>
+        <v>16.47673774018421</v>
       </c>
     </row>
     <row r="859">
@@ -22096,7 +22096,7 @@
         </is>
       </c>
       <c r="E859" t="n">
-        <v>29.13101565658072</v>
+        <v>19.97468535770565</v>
       </c>
     </row>
     <row r="860">
@@ -22121,7 +22121,7 @@
         </is>
       </c>
       <c r="E860" t="n">
-        <v>29.09161930297775</v>
+        <v>1.627378767158731</v>
       </c>
     </row>
     <row r="861">
@@ -22146,7 +22146,7 @@
         </is>
       </c>
       <c r="E861" t="n">
-        <v>29.14077020560686</v>
+        <v>27.31948225062022</v>
       </c>
     </row>
     <row r="862">
@@ -22171,7 +22171,7 @@
         </is>
       </c>
       <c r="E862" t="n">
-        <v>29.14993484068509</v>
+        <v>30.02239753002885</v>
       </c>
     </row>
     <row r="863">
@@ -22196,7 +22196,7 @@
         </is>
       </c>
       <c r="E863" t="n">
-        <v>29.09231232862334</v>
+        <v>3.021305012661763</v>
       </c>
     </row>
     <row r="864">
@@ -22221,7 +22221,7 @@
         </is>
       </c>
       <c r="E864" t="n">
-        <v>29.1605695250713</v>
+        <v>37.21178114064939</v>
       </c>
     </row>
     <row r="865">
@@ -22246,7 +22246,7 @@
         </is>
       </c>
       <c r="E865" t="n">
-        <v>29.16366058469733</v>
+        <v>36.24117394175224</v>
       </c>
     </row>
     <row r="866">
@@ -22271,7 +22271,7 @@
         </is>
       </c>
       <c r="E866" t="n">
-        <v>29.17216414047236</v>
+        <v>32.78305737846006</v>
       </c>
     </row>
     <row r="867">
@@ -22296,7 +22296,7 @@
         </is>
       </c>
       <c r="E867" t="n">
-        <v>29.17759792561922</v>
+        <v>40.57816083205236</v>
       </c>
     </row>
     <row r="868">
@@ -22321,7 +22321,7 @@
         </is>
       </c>
       <c r="E868" t="n">
-        <v>29.18711670236882</v>
+        <v>45.43572093260777</v>
       </c>
     </row>
     <row r="869">
@@ -22346,7 +22346,7 @@
         </is>
       </c>
       <c r="E869" t="n">
-        <v>29.10899428113789</v>
+        <v>20.60308119588619</v>
       </c>
     </row>
     <row r="870">
@@ -22371,7 +22371,7 @@
         </is>
       </c>
       <c r="E870" t="n">
-        <v>29.15321896252659</v>
+        <v>38.12246063876287</v>
       </c>
     </row>
     <row r="871">
@@ -22396,7 +22396,7 @@
         </is>
       </c>
       <c r="E871" t="n">
-        <v>29.18198994332795</v>
+        <v>48.08488972716331</v>
       </c>
     </row>
     <row r="872">
@@ -22421,7 +22421,7 @@
         </is>
       </c>
       <c r="E872" t="n">
-        <v>29.09509930962378</v>
+        <v>9.154433450480429</v>
       </c>
     </row>
     <row r="873">
@@ -22446,7 +22446,7 @@
         </is>
       </c>
       <c r="E873" t="n">
-        <v>29.12475571353654</v>
+        <v>19.18982973189296</v>
       </c>
     </row>
     <row r="874">
@@ -22471,7 +22471,7 @@
         </is>
       </c>
       <c r="E874" t="n">
-        <v>29.14457544019067</v>
+        <v>29.80908838660083</v>
       </c>
     </row>
     <row r="875">
@@ -22496,7 +22496,7 @@
         </is>
       </c>
       <c r="E875" t="n">
-        <v>29.08372932558832</v>
+        <v>8.084877971518885</v>
       </c>
     </row>
     <row r="876">
@@ -22521,7 +22521,7 @@
         </is>
       </c>
       <c r="E876" t="n">
-        <v>29.13485693633455</v>
+        <v>21.04801884161561</v>
       </c>
     </row>
     <row r="877">
@@ -22546,7 +22546,7 @@
         </is>
       </c>
       <c r="E877" t="n">
-        <v>29.1669103872412</v>
+        <v>47.27827821487501</v>
       </c>
     </row>
     <row r="878">
@@ -22571,7 +22571,7 @@
         </is>
       </c>
       <c r="E878" t="n">
-        <v>29.06771482408629</v>
+        <v>-0.3932097188135657</v>
       </c>
     </row>
     <row r="879">
@@ -22596,7 +22596,7 @@
         </is>
       </c>
       <c r="E879" t="n">
-        <v>29.15664751895153</v>
+        <v>31.41373306082621</v>
       </c>
     </row>
     <row r="880">
@@ -22621,7 +22621,7 @@
         </is>
       </c>
       <c r="E880" t="n">
-        <v>29.19332070733245</v>
+        <v>50.31780141407425</v>
       </c>
     </row>
     <row r="881">
@@ -22646,7 +22646,7 @@
         </is>
       </c>
       <c r="E881" t="n">
-        <v>29.15843732917778</v>
+        <v>30.72705682241085</v>
       </c>
     </row>
     <row r="882">
@@ -22671,7 +22671,7 @@
         </is>
       </c>
       <c r="E882" t="n">
-        <v>29.18136547841515</v>
+        <v>41.2055082771221</v>
       </c>
     </row>
     <row r="883">
@@ -22696,7 +22696,7 @@
         </is>
       </c>
       <c r="E883" t="n">
-        <v>29.20145393640975</v>
+        <v>51.94227629227952</v>
       </c>
     </row>
     <row r="884">
@@ -22721,7 +22721,7 @@
         </is>
       </c>
       <c r="E884" t="n">
-        <v>29.08598069519132</v>
+        <v>10.70442794576428</v>
       </c>
     </row>
     <row r="885">
@@ -22746,7 +22746,7 @@
         </is>
       </c>
       <c r="E885" t="n">
-        <v>29.1905006910019</v>
+        <v>43.95102186695789</v>
       </c>
     </row>
     <row r="886">
@@ -22771,7 +22771,7 @@
         </is>
       </c>
       <c r="E886" t="n">
-        <v>29.22075433176534</v>
+        <v>55.00441087978042</v>
       </c>
     </row>
     <row r="887">
@@ -22796,7 +22796,7 @@
         </is>
       </c>
       <c r="E887" t="n">
-        <v>29.09629520147881</v>
+        <v>18.79284165259216</v>
       </c>
     </row>
     <row r="888">
@@ -22821,7 +22821,7 @@
         </is>
       </c>
       <c r="E888" t="n">
-        <v>29.13891845466953</v>
+        <v>28.81917692675416</v>
       </c>
     </row>
     <row r="889">
@@ -22846,7 +22846,7 @@
         </is>
       </c>
       <c r="E889" t="n">
-        <v>29.16027865407775</v>
+        <v>38.67319083390409</v>
       </c>
     </row>
     <row r="890">
@@ -22871,7 +22871,7 @@
         </is>
       </c>
       <c r="E890" t="n">
-        <v>29.07555315840548</v>
+        <v>8.812259251412527</v>
       </c>
     </row>
     <row r="891">
@@ -22896,7 +22896,7 @@
         </is>
       </c>
       <c r="E891" t="n">
-        <v>29.14807748276015</v>
+        <v>26.32662618110873</v>
       </c>
     </row>
     <row r="892">
@@ -22921,7 +22921,7 @@
         </is>
       </c>
       <c r="E892" t="n">
-        <v>29.1787059219088</v>
+        <v>42.99384709161558</v>
       </c>
     </row>
     <row r="893">
@@ -22946,7 +22946,7 @@
         </is>
       </c>
       <c r="E893" t="n">
-        <v>29.05940271925921</v>
+        <v>1.82005519934906</v>
       </c>
     </row>
     <row r="894">
@@ -22971,7 +22971,7 @@
         </is>
       </c>
       <c r="E894" t="n">
-        <v>29.18645878344906</v>
+        <v>42.38455269425212</v>
       </c>
     </row>
     <row r="895">
@@ -22996,7 +22996,7 @@
         </is>
       </c>
       <c r="E895" t="n">
-        <v>29.22127015270718</v>
+        <v>58.35880316221651</v>
       </c>
     </row>
     <row r="896">
@@ -23021,7 +23021,7 @@
         </is>
       </c>
       <c r="E896" t="n">
-        <v>29.23365943551914</v>
+        <v>58.38889944657077</v>
       </c>
     </row>
     <row r="897">
@@ -23046,7 +23046,7 @@
         </is>
       </c>
       <c r="E897" t="n">
-        <v>29.24904536490447</v>
+        <v>59.83692599478609</v>
       </c>
     </row>
     <row r="898">
@@ -23071,7 +23071,7 @@
         </is>
       </c>
       <c r="E898" t="n">
-        <v>29.28552850655229</v>
+        <v>72.77191998144217</v>
       </c>
     </row>
     <row r="899">
@@ -23096,7 +23096,7 @@
         </is>
       </c>
       <c r="E899" t="n">
-        <v>29.10047234906477</v>
+        <v>16.08400658070217</v>
       </c>
     </row>
     <row r="900">
@@ -23121,7 +23121,7 @@
         </is>
       </c>
       <c r="E900" t="n">
-        <v>29.23599686065994</v>
+        <v>50.05398512931671</v>
       </c>
     </row>
     <row r="901">
@@ -23146,7 +23146,7 @@
         </is>
       </c>
       <c r="E901" t="n">
-        <v>29.27598008635402</v>
+        <v>68.78724211503888</v>
       </c>
     </row>
     <row r="902">
@@ -23171,7 +23171,7 @@
         </is>
       </c>
       <c r="E902" t="n">
-        <v>29.12000049443121</v>
+        <v>23.7407260781998</v>
       </c>
     </row>
     <row r="903">
@@ -23196,7 +23196,7 @@
         </is>
       </c>
       <c r="E903" t="n">
-        <v>29.15786176460142</v>
+        <v>31.78310171088565</v>
       </c>
     </row>
     <row r="904">
@@ -23221,7 +23221,7 @@
         </is>
       </c>
       <c r="E904" t="n">
-        <v>29.16846565860867</v>
+        <v>36.02845244177687</v>
       </c>
     </row>
     <row r="905">
@@ -23246,7 +23246,7 @@
         </is>
       </c>
       <c r="E905" t="n">
-        <v>29.09436573155033</v>
+        <v>10.47147633865014</v>
       </c>
     </row>
     <row r="906">
@@ -23271,7 +23271,7 @@
         </is>
       </c>
       <c r="E906" t="n">
-        <v>29.17659689737995</v>
+        <v>44.63121693437469</v>
       </c>
     </row>
     <row r="907">
@@ -23296,7 +23296,7 @@
         </is>
       </c>
       <c r="E907" t="n">
-        <v>29.18482814742358</v>
+        <v>46.14207791683982</v>
       </c>
     </row>
     <row r="908">
@@ -23321,7 +23321,7 @@
         </is>
       </c>
       <c r="E908" t="n">
-        <v>29.1064394976402</v>
+        <v>12.59774371013152</v>
       </c>
     </row>
     <row r="909">
@@ -23346,7 +23346,7 @@
         </is>
       </c>
       <c r="E909" t="n">
-        <v>29.22202544386193</v>
+        <v>58.75260254314672</v>
       </c>
     </row>
     <row r="910">
@@ -23371,7 +23371,7 @@
         </is>
       </c>
       <c r="E910" t="n">
-        <v>29.21919799744621</v>
+        <v>56.28165940007104</v>
       </c>
     </row>
     <row r="911">
@@ -23396,7 +23396,7 @@
         </is>
       </c>
       <c r="E911" t="n">
-        <v>29.2564106731498</v>
+        <v>59.17293855965174</v>
       </c>
     </row>
     <row r="912">
@@ -23421,7 +23421,7 @@
         </is>
       </c>
       <c r="E912" t="n">
-        <v>29.26579855511138</v>
+        <v>62.85750000256571</v>
       </c>
     </row>
     <row r="913">
@@ -23446,7 +23446,7 @@
         </is>
       </c>
       <c r="E913" t="n">
-        <v>29.272186493768</v>
+        <v>65.09951156667245</v>
       </c>
     </row>
     <row r="914">
@@ -23471,7 +23471,7 @@
         </is>
       </c>
       <c r="E914" t="n">
-        <v>29.133872146905</v>
+        <v>28.90821133781578</v>
       </c>
     </row>
     <row r="915">
@@ -23496,7 +23496,7 @@
         </is>
       </c>
       <c r="E915" t="n">
-        <v>29.20651042024443</v>
+        <v>41.11048323995259</v>
       </c>
     </row>
     <row r="916">
@@ -23521,7 +23521,7 @@
         </is>
       </c>
       <c r="E916" t="n">
-        <v>29.25364118307182</v>
+        <v>66.23249774102422</v>
       </c>
     </row>
     <row r="917">
@@ -23546,7 +23546,7 @@
         </is>
       </c>
       <c r="E917" t="n">
-        <v>29.11724812860452</v>
+        <v>27.21203673734338</v>
       </c>
     </row>
     <row r="918">
@@ -23571,7 +23571,7 @@
         </is>
       </c>
       <c r="E918" t="n">
-        <v>29.17180719200068</v>
+        <v>39.34405756328481</v>
       </c>
     </row>
     <row r="919">
@@ -23596,7 +23596,7 @@
         </is>
       </c>
       <c r="E919" t="n">
-        <v>29.19219401191313</v>
+        <v>40.0192863311091</v>
       </c>
     </row>
     <row r="920">
@@ -23621,7 +23621,7 @@
         </is>
       </c>
       <c r="E920" t="n">
-        <v>29.07410129047957</v>
+        <v>9.71290522623007</v>
       </c>
     </row>
     <row r="921">
@@ -23646,7 +23646,7 @@
         </is>
       </c>
       <c r="E921" t="n">
-        <v>29.1671997566384</v>
+        <v>37.01903111292409</v>
       </c>
     </row>
     <row r="922">
@@ -23671,7 +23671,7 @@
         </is>
       </c>
       <c r="E922" t="n">
-        <v>29.19487499739676</v>
+        <v>40.0746900146401</v>
       </c>
     </row>
     <row r="923">
@@ -23696,7 +23696,7 @@
         </is>
       </c>
       <c r="E923" t="n">
-        <v>29.08054161046859</v>
+        <v>10.48012144422738</v>
       </c>
     </row>
     <row r="924">
@@ -23721,7 +23721,7 @@
         </is>
       </c>
       <c r="E924" t="n">
-        <v>29.226509234536</v>
+        <v>54.42519918888041</v>
       </c>
     </row>
     <row r="925">
@@ -23746,7 +23746,7 @@
         </is>
       </c>
       <c r="E925" t="n">
-        <v>29.26242681780038</v>
+        <v>55.95122622296439</v>
       </c>
     </row>
     <row r="926">
@@ -23771,7 +23771,7 @@
         </is>
       </c>
       <c r="E926" t="n">
-        <v>29.24018179177313</v>
+        <v>51.44620069372445</v>
       </c>
     </row>
     <row r="927">
@@ -23796,7 +23796,7 @@
         </is>
       </c>
       <c r="E927" t="n">
-        <v>29.27461403044721</v>
+        <v>55.77160817206649</v>
       </c>
     </row>
     <row r="928">
@@ -23821,7 +23821,7 @@
         </is>
       </c>
       <c r="E928" t="n">
-        <v>29.28737893589254</v>
+        <v>56.67960228284869</v>
       </c>
     </row>
     <row r="929">
@@ -23846,7 +23846,7 @@
         </is>
       </c>
       <c r="E929" t="n">
-        <v>29.11749069307664</v>
+        <v>28.63893323913032</v>
       </c>
     </row>
     <row r="930">
@@ -23871,7 +23871,7 @@
         </is>
       </c>
       <c r="E930" t="n">
-        <v>29.27120306564411</v>
+        <v>58.49181285301967</v>
       </c>
     </row>
     <row r="931">
@@ -23896,7 +23896,7 @@
         </is>
       </c>
       <c r="E931" t="n">
-        <v>29.31016278184521</v>
+        <v>60.89504686020865</v>
       </c>
     </row>
     <row r="932">
@@ -23921,7 +23921,7 @@
         </is>
       </c>
       <c r="E932" t="n">
-        <v>29.11920908364087</v>
+        <v>27.16202106998691</v>
       </c>
     </row>
     <row r="933">
@@ -23946,7 +23946,7 @@
         </is>
       </c>
       <c r="E933" t="n">
-        <v>29.19901367665877</v>
+        <v>41.69740380694546</v>
       </c>
     </row>
     <row r="934">
@@ -23971,7 +23971,7 @@
         </is>
       </c>
       <c r="E934" t="n">
-        <v>29.22162178865851</v>
+        <v>44.79632049442903</v>
       </c>
     </row>
     <row r="935">
@@ -23996,7 +23996,7 @@
         </is>
       </c>
       <c r="E935" t="n">
-        <v>29.06866845048118</v>
+        <v>10.12967511604816</v>
       </c>
     </row>
     <row r="936">
@@ -24021,7 +24021,7 @@
         </is>
       </c>
       <c r="E936" t="n">
-        <v>29.20232790357072</v>
+        <v>43.00187093527572</v>
       </c>
     </row>
     <row r="937">
@@ -24046,7 +24046,7 @@
         </is>
       </c>
       <c r="E937" t="n">
-        <v>29.22759023545643</v>
+        <v>45.85932955755577</v>
       </c>
     </row>
     <row r="938">
@@ -24071,7 +24071,7 @@
         </is>
       </c>
       <c r="E938" t="n">
-        <v>29.07533431195433</v>
+        <v>10.11642787765275</v>
       </c>
     </row>
     <row r="939">
@@ -24096,7 +24096,7 @@
         </is>
       </c>
       <c r="E939" t="n">
-        <v>29.28123052786196</v>
+        <v>65.31245709418685</v>
       </c>
     </row>
     <row r="940">
@@ -24121,7 +24121,7 @@
         </is>
       </c>
       <c r="E940" t="n">
-        <v>29.31418441647607</v>
+        <v>64.07908494716447</v>
       </c>
     </row>
     <row r="941">
@@ -24146,7 +24146,7 @@
         </is>
       </c>
       <c r="E941" t="n">
-        <v>29.3578957262872</v>
+        <v>73.50548955977318</v>
       </c>
     </row>
     <row r="942">
@@ -24171,7 +24171,7 @@
         </is>
       </c>
       <c r="E942" t="n">
-        <v>29.38674113217363</v>
+        <v>74.45752494871414</v>
       </c>
     </row>
     <row r="943">
@@ -24196,7 +24196,7 @@
         </is>
       </c>
       <c r="E943" t="n">
-        <v>29.4139768015541</v>
+        <v>78.12967214798671</v>
       </c>
     </row>
     <row r="944">
@@ -24221,7 +24221,7 @@
         </is>
       </c>
       <c r="E944" t="n">
-        <v>29.14767418984735</v>
+        <v>32.15288972105709</v>
       </c>
     </row>
     <row r="945">
@@ -24246,7 +24246,7 @@
         </is>
       </c>
       <c r="E945" t="n">
-        <v>29.3586030815378</v>
+        <v>68.98782439841673</v>
       </c>
     </row>
     <row r="946">
@@ -24271,7 +24271,7 @@
         </is>
       </c>
       <c r="E946" t="n">
-        <v>29.40837644724619</v>
+        <v>76.03065791062009</v>
       </c>
     </row>
     <row r="947">
@@ -24296,7 +24296,7 @@
         </is>
       </c>
       <c r="E947" t="n">
-        <v>29.10236602025012</v>
+        <v>18.68764682763628</v>
       </c>
     </row>
     <row r="948">
@@ -24321,7 +24321,7 @@
         </is>
       </c>
       <c r="E948" t="n">
-        <v>29.14416745311603</v>
+        <v>31.53246713209022</v>
       </c>
     </row>
     <row r="949">
@@ -24346,7 +24346,7 @@
         </is>
       </c>
       <c r="E949" t="n">
-        <v>29.15603462905884</v>
+        <v>35.59055131316131</v>
       </c>
     </row>
     <row r="950">
@@ -24371,7 +24371,7 @@
         </is>
       </c>
       <c r="E950" t="n">
-        <v>29.08321322986985</v>
+        <v>6.874301105844314</v>
       </c>
     </row>
     <row r="951">
@@ -24396,7 +24396,7 @@
         </is>
       </c>
       <c r="E951" t="n">
-        <v>29.16344402402206</v>
+        <v>33.52467363638672</v>
       </c>
     </row>
     <row r="952">
@@ -24421,7 +24421,7 @@
         </is>
       </c>
       <c r="E952" t="n">
-        <v>29.17322648109301</v>
+        <v>42.3398229461954</v>
       </c>
     </row>
     <row r="953">
@@ -24446,7 +24446,7 @@
         </is>
       </c>
       <c r="E953" t="n">
-        <v>29.08647608613492</v>
+        <v>6.410561506418144</v>
       </c>
     </row>
     <row r="954">
@@ -24471,7 +24471,7 @@
         </is>
       </c>
       <c r="E954" t="n">
-        <v>29.19925994515836</v>
+        <v>51.64897004906732</v>
       </c>
     </row>
     <row r="955">
@@ -24496,7 +24496,7 @@
         </is>
       </c>
       <c r="E955" t="n">
-        <v>29.20277364954882</v>
+        <v>53.95582149350135</v>
       </c>
     </row>
     <row r="956">
@@ -24521,7 +24521,7 @@
         </is>
       </c>
       <c r="E956" t="n">
-        <v>29.22873566878948</v>
+        <v>54.18387767711114</v>
       </c>
     </row>
     <row r="957">
@@ -24546,7 +24546,7 @@
         </is>
       </c>
       <c r="E957" t="n">
-        <v>29.2489112813643</v>
+        <v>61.740407433317</v>
       </c>
     </row>
     <row r="958">
@@ -24571,7 +24571,7 @@
         </is>
       </c>
       <c r="E958" t="n">
-        <v>29.25015911834788</v>
+        <v>59.71950503059995</v>
       </c>
     </row>
     <row r="959">
@@ -24596,7 +24596,7 @@
         </is>
       </c>
       <c r="E959" t="n">
-        <v>29.09764157708068</v>
+        <v>14.90753229322625</v>
       </c>
     </row>
     <row r="960">
@@ -24621,7 +24621,7 @@
         </is>
       </c>
       <c r="E960" t="n">
-        <v>29.20528312919755</v>
+        <v>54.46475816981022</v>
       </c>
     </row>
     <row r="961">
@@ -24646,7 +24646,7 @@
         </is>
       </c>
       <c r="E961" t="n">
-        <v>29.23436607675136</v>
+        <v>63.02612523532433</v>
       </c>
     </row>
     <row r="962">
@@ -24671,7 +24671,7 @@
         </is>
       </c>
       <c r="E962" t="n">
-        <v>29.08805266629273</v>
+        <v>17.03021756374552</v>
       </c>
     </row>
     <row r="963">
@@ -24696,7 +24696,7 @@
         </is>
       </c>
       <c r="E963" t="n">
-        <v>29.14784350981452</v>
+        <v>34.38020579381051</v>
       </c>
     </row>
     <row r="964">
@@ -24721,7 +24721,7 @@
         </is>
       </c>
       <c r="E964" t="n">
-        <v>29.17238349556474</v>
+        <v>36.05335815830054</v>
       </c>
     </row>
     <row r="965">
@@ -24746,7 +24746,7 @@
         </is>
       </c>
       <c r="E965" t="n">
-        <v>29.04823650668149</v>
+        <v>6.829759805030282</v>
       </c>
     </row>
     <row r="966">
@@ -24771,7 +24771,7 @@
         </is>
       </c>
       <c r="E966" t="n">
-        <v>29.14403449982391</v>
+        <v>32.68371844756983</v>
       </c>
     </row>
     <row r="967">
@@ -24796,7 +24796,7 @@
         </is>
       </c>
       <c r="E967" t="n">
-        <v>29.1744483724052</v>
+        <v>36.33040792360579</v>
       </c>
     </row>
     <row r="968">
@@ -24821,7 +24821,7 @@
         </is>
       </c>
       <c r="E968" t="n">
-        <v>29.04973947332048</v>
+        <v>7.417791012225756</v>
       </c>
     </row>
     <row r="969">
@@ -24846,7 +24846,7 @@
         </is>
       </c>
       <c r="E969" t="n">
-        <v>29.19375431112934</v>
+        <v>49.66813177532694</v>
       </c>
     </row>
     <row r="970">
@@ -24871,7 +24871,7 @@
         </is>
       </c>
       <c r="E970" t="n">
-        <v>29.23903201641484</v>
+        <v>55.3071280292025</v>
       </c>
     </row>
     <row r="971">
@@ -24896,7 +24896,7 @@
         </is>
       </c>
       <c r="E971" t="n">
-        <v>29.20450757977732</v>
+        <v>46.36034062210036</v>
       </c>
     </row>
     <row r="972">
@@ -24921,7 +24921,7 @@
         </is>
       </c>
       <c r="E972" t="n">
-        <v>29.24966594041047</v>
+        <v>54.38897179063491</v>
       </c>
     </row>
     <row r="973">
@@ -24946,7 +24946,7 @@
         </is>
       </c>
       <c r="E973" t="n">
-        <v>29.26575630602789</v>
+        <v>53.83387594292299</v>
       </c>
     </row>
     <row r="974">
@@ -24971,7 +24971,7 @@
         </is>
       </c>
       <c r="E974" t="n">
-        <v>29.06609109378147</v>
+        <v>13.18291459102448</v>
       </c>
     </row>
     <row r="975">
@@ -24996,7 +24996,7 @@
         </is>
       </c>
       <c r="E975" t="n">
-        <v>29.25088491994198</v>
+        <v>56.58166876544752</v>
       </c>
     </row>
     <row r="976">
@@ -25021,7 +25021,7 @@
         </is>
       </c>
       <c r="E976" t="n">
-        <v>29.28067230013508</v>
+        <v>59.4733384061427</v>
       </c>
     </row>
     <row r="977">
@@ -25046,7 +25046,7 @@
         </is>
       </c>
       <c r="E977" t="n">
-        <v>29.07764756173582</v>
+        <v>15.31324767326582</v>
       </c>
     </row>
     <row r="978">
@@ -25071,7 +25071,7 @@
         </is>
       </c>
       <c r="E978" t="n">
-        <v>29.16212033115296</v>
+        <v>33.61197344194016</v>
       </c>
     </row>
     <row r="979">
@@ -25096,7 +25096,7 @@
         </is>
       </c>
       <c r="E979" t="n">
-        <v>29.19156291769321</v>
+        <v>40.03303378549292</v>
       </c>
     </row>
     <row r="980">
@@ -25121,7 +25121,7 @@
         </is>
       </c>
       <c r="E980" t="n">
-        <v>29.02401981446639</v>
+        <v>4.546779086958644</v>
       </c>
     </row>
     <row r="981">
@@ -25146,7 +25146,7 @@
         </is>
       </c>
       <c r="E981" t="n">
-        <v>29.1621706701155</v>
+        <v>35.70076106009101</v>
       </c>
     </row>
     <row r="982">
@@ -25171,7 +25171,7 @@
         </is>
       </c>
       <c r="E982" t="n">
-        <v>29.19153741642299</v>
+        <v>42.97701072419407</v>
       </c>
     </row>
     <row r="983">
@@ -25196,7 +25196,7 @@
         </is>
       </c>
       <c r="E983" t="n">
-        <v>29.02587871799678</v>
+        <v>4.851654370041739</v>
       </c>
     </row>
     <row r="984">
@@ -25221,7 +25221,7 @@
         </is>
       </c>
       <c r="E984" t="n">
-        <v>29.22776584393808</v>
+        <v>50.63837032130318</v>
       </c>
     </row>
     <row r="985">
@@ -25246,7 +25246,7 @@
         </is>
       </c>
       <c r="E985" t="n">
-        <v>29.27414608199514</v>
+        <v>61.21113078910591</v>
       </c>
     </row>
     <row r="986">
@@ -25271,7 +25271,7 @@
         </is>
       </c>
       <c r="E986" t="n">
-        <v>29.29210495539218</v>
+        <v>57.3814775267636</v>
       </c>
     </row>
     <row r="987">
@@ -25296,7 +25296,7 @@
         </is>
       </c>
       <c r="E987" t="n">
-        <v>29.33822547319341</v>
+        <v>68.99840852885225</v>
       </c>
     </row>
     <row r="988">
@@ -25321,7 +25321,7 @@
         </is>
       </c>
       <c r="E988" t="n">
-        <v>29.37573559086711</v>
+        <v>76.5625649039869</v>
       </c>
     </row>
     <row r="989">
@@ -25346,7 +25346,7 @@
         </is>
       </c>
       <c r="E989" t="n">
-        <v>29.06309978758829</v>
+        <v>11.02001585509259</v>
       </c>
     </row>
     <row r="990">
@@ -25371,7 +25371,7 @@
         </is>
       </c>
       <c r="E990" t="n">
-        <v>29.30992610734801</v>
+        <v>60.30426961226472</v>
       </c>
     </row>
     <row r="991">
@@ -25396,7 +25396,7 @@
         </is>
       </c>
       <c r="E991" t="n">
-        <v>29.35216320979376</v>
+        <v>72.20544643754459</v>
       </c>
     </row>
   </sheetData>

--- a/yield_prediction/results/graph_descriptors/WLpolynomial_5/out_of_sample/ligand/LOO_XPhos/results.xlsx
+++ b/yield_prediction/results/graph_descriptors/WLpolynomial_5/out_of_sample/ligand/LOO_XPhos/results.xlsx
@@ -671,7 +671,7 @@
         </is>
       </c>
       <c r="E2" t="n">
-        <v>17.99903458551948</v>
+        <v>17.99903458551939</v>
       </c>
     </row>
     <row r="3">
@@ -696,7 +696,7 @@
         </is>
       </c>
       <c r="E3" t="n">
-        <v>15.70394478400526</v>
+        <v>15.70394478400523</v>
       </c>
     </row>
     <row r="4">
@@ -721,7 +721,7 @@
         </is>
       </c>
       <c r="E4" t="n">
-        <v>18.29433146912363</v>
+        <v>18.29433146912364</v>
       </c>
     </row>
     <row r="5">
@@ -746,7 +746,7 @@
         </is>
       </c>
       <c r="E5" t="n">
-        <v>3.44674723557921</v>
+        <v>3.446747235579231</v>
       </c>
     </row>
     <row r="6">
@@ -771,7 +771,7 @@
         </is>
       </c>
       <c r="E6" t="n">
-        <v>20.079848498866</v>
+        <v>20.07984849886601</v>
       </c>
     </row>
     <row r="7">
@@ -796,7 +796,7 @@
         </is>
       </c>
       <c r="E7" t="n">
-        <v>23.37408509091462</v>
+        <v>23.3740850909147</v>
       </c>
     </row>
     <row r="8">
@@ -821,7 +821,7 @@
         </is>
       </c>
       <c r="E8" t="n">
-        <v>5.714403485993145</v>
+        <v>5.714403485993159</v>
       </c>
     </row>
     <row r="9">
@@ -846,7 +846,7 @@
         </is>
       </c>
       <c r="E9" t="n">
-        <v>26.7373969857984</v>
+        <v>26.73739698579841</v>
       </c>
     </row>
     <row r="10">
@@ -871,7 +871,7 @@
         </is>
       </c>
       <c r="E10" t="n">
-        <v>27.16136704635766</v>
+        <v>27.16136704635768</v>
       </c>
     </row>
     <row r="11">
@@ -896,7 +896,7 @@
         </is>
       </c>
       <c r="E11" t="n">
-        <v>23.1504371104909</v>
+        <v>23.15043711049093</v>
       </c>
     </row>
     <row r="12">
@@ -921,7 +921,7 @@
         </is>
       </c>
       <c r="E12" t="n">
-        <v>29.17881708955433</v>
+        <v>29.17881708955438</v>
       </c>
     </row>
     <row r="13">
@@ -946,7 +946,7 @@
         </is>
       </c>
       <c r="E13" t="n">
-        <v>27.86454247300952</v>
+        <v>27.86454247300979</v>
       </c>
     </row>
     <row r="14">
@@ -971,7 +971,7 @@
         </is>
       </c>
       <c r="E14" t="n">
-        <v>17.67338135142622</v>
+        <v>17.67338135142625</v>
       </c>
     </row>
     <row r="15">
@@ -996,7 +996,7 @@
         </is>
       </c>
       <c r="E15" t="n">
-        <v>26.09907314753353</v>
+        <v>26.09907314753358</v>
       </c>
     </row>
     <row r="16">
@@ -1021,7 +1021,7 @@
         </is>
       </c>
       <c r="E16" t="n">
-        <v>28.03964940078372</v>
+        <v>28.03964940078366</v>
       </c>
     </row>
     <row r="17">
@@ -1046,7 +1046,7 @@
         </is>
       </c>
       <c r="E17" t="n">
-        <v>20.10282222895659</v>
+        <v>20.10282222895661</v>
       </c>
     </row>
     <row r="18">
@@ -1071,7 +1071,7 @@
         </is>
       </c>
       <c r="E18" t="n">
-        <v>34.29246224841661</v>
+        <v>34.29246224841665</v>
       </c>
     </row>
     <row r="19">
@@ -1096,7 +1096,7 @@
         </is>
       </c>
       <c r="E19" t="n">
-        <v>41.86063524934897</v>
+        <v>41.86063524934895</v>
       </c>
     </row>
     <row r="20">
@@ -1121,7 +1121,7 @@
         </is>
       </c>
       <c r="E20" t="n">
-        <v>10.30096532383748</v>
+        <v>10.30096532383743</v>
       </c>
     </row>
     <row r="21">
@@ -1146,7 +1146,7 @@
         </is>
       </c>
       <c r="E21" t="n">
-        <v>31.74924049600771</v>
+        <v>31.7492404960077</v>
       </c>
     </row>
     <row r="22">
@@ -1171,7 +1171,7 @@
         </is>
       </c>
       <c r="E22" t="n">
-        <v>46.38569156535209</v>
+        <v>46.38569156535201</v>
       </c>
     </row>
     <row r="23">
@@ -1196,7 +1196,7 @@
         </is>
       </c>
       <c r="E23" t="n">
-        <v>10.72341014551035</v>
+        <v>10.72341014551033</v>
       </c>
     </row>
     <row r="24">
@@ -1246,7 +1246,7 @@
         </is>
       </c>
       <c r="E25" t="n">
-        <v>66.491947364235</v>
+        <v>66.49194736423507</v>
       </c>
     </row>
     <row r="26">
@@ -1271,7 +1271,7 @@
         </is>
       </c>
       <c r="E26" t="n">
-        <v>50.16005915521637</v>
+        <v>50.16005915521629</v>
       </c>
     </row>
     <row r="27">
@@ -1296,7 +1296,7 @@
         </is>
       </c>
       <c r="E27" t="n">
-        <v>61.0546897429335</v>
+        <v>61.05468974293353</v>
       </c>
     </row>
     <row r="28">
@@ -1321,7 +1321,7 @@
         </is>
       </c>
       <c r="E28" t="n">
-        <v>68.6459714009455</v>
+        <v>68.64597140094554</v>
       </c>
     </row>
     <row r="29">
@@ -1346,7 +1346,7 @@
         </is>
       </c>
       <c r="E29" t="n">
-        <v>21.06714878527422</v>
+        <v>21.0671487852743</v>
       </c>
     </row>
     <row r="30">
@@ -1371,7 +1371,7 @@
         </is>
       </c>
       <c r="E30" t="n">
-        <v>66.67775538687937</v>
+        <v>66.67775538687931</v>
       </c>
     </row>
     <row r="31">
@@ -1396,7 +1396,7 @@
         </is>
       </c>
       <c r="E31" t="n">
-        <v>71.95453834490836</v>
+        <v>71.95453834490843</v>
       </c>
     </row>
     <row r="32">
@@ -1421,7 +1421,7 @@
         </is>
       </c>
       <c r="E32" t="n">
-        <v>27.21939697097967</v>
+        <v>27.21939697097973</v>
       </c>
     </row>
     <row r="33">
@@ -1446,7 +1446,7 @@
         </is>
       </c>
       <c r="E33" t="n">
-        <v>44.63488396223696</v>
+        <v>44.63488396223703</v>
       </c>
     </row>
     <row r="34">
@@ -1471,7 +1471,7 @@
         </is>
       </c>
       <c r="E34" t="n">
-        <v>49.84837975478509</v>
+        <v>49.84837975478507</v>
       </c>
     </row>
     <row r="35">
@@ -1496,7 +1496,7 @@
         </is>
       </c>
       <c r="E35" t="n">
-        <v>12.82971776629773</v>
+        <v>12.82971776629777</v>
       </c>
     </row>
     <row r="36">
@@ -1521,7 +1521,7 @@
         </is>
       </c>
       <c r="E36" t="n">
-        <v>40.19559748500125</v>
+        <v>40.19559748500123</v>
       </c>
     </row>
     <row r="37">
@@ -1546,7 +1546,7 @@
         </is>
       </c>
       <c r="E37" t="n">
-        <v>52.8993605392284</v>
+        <v>52.89936053922838</v>
       </c>
     </row>
     <row r="38">
@@ -1596,7 +1596,7 @@
         </is>
       </c>
       <c r="E39" t="n">
-        <v>68.46698836735204</v>
+        <v>68.466988367352</v>
       </c>
     </row>
     <row r="40">
@@ -1621,7 +1621,7 @@
         </is>
       </c>
       <c r="E40" t="n">
-        <v>74.8624712963115</v>
+        <v>74.86247129631144</v>
       </c>
     </row>
     <row r="41">
@@ -1646,7 +1646,7 @@
         </is>
       </c>
       <c r="E41" t="n">
-        <v>73.72892468444354</v>
+        <v>73.72892468444353</v>
       </c>
     </row>
     <row r="42">
@@ -1671,7 +1671,7 @@
         </is>
       </c>
       <c r="E42" t="n">
-        <v>84.52908501954943</v>
+        <v>84.52908501954948</v>
       </c>
     </row>
     <row r="43">
@@ -1696,7 +1696,7 @@
         </is>
       </c>
       <c r="E43" t="n">
-        <v>89.61065201823888</v>
+        <v>89.61065201823885</v>
       </c>
     </row>
     <row r="44">
@@ -1746,7 +1746,7 @@
         </is>
       </c>
       <c r="E45" t="n">
-        <v>86.4797011993202</v>
+        <v>86.47970119932009</v>
       </c>
     </row>
     <row r="46">
@@ -1771,7 +1771,7 @@
         </is>
       </c>
       <c r="E46" t="n">
-        <v>86.41708923464839</v>
+        <v>86.4170892346485</v>
       </c>
     </row>
     <row r="47">
@@ -1821,7 +1821,7 @@
         </is>
       </c>
       <c r="E48" t="n">
-        <v>41.0230606074383</v>
+        <v>41.02306060743829</v>
       </c>
     </row>
     <row r="49">
@@ -1846,7 +1846,7 @@
         </is>
       </c>
       <c r="E49" t="n">
-        <v>41.60763477528256</v>
+        <v>41.60763477528252</v>
       </c>
     </row>
     <row r="50">
@@ -1871,7 +1871,7 @@
         </is>
       </c>
       <c r="E50" t="n">
-        <v>6.727747751150158</v>
+        <v>6.727747751150169</v>
       </c>
     </row>
     <row r="51">
@@ -1896,7 +1896,7 @@
         </is>
       </c>
       <c r="E51" t="n">
-        <v>42.60648268108961</v>
+        <v>42.60648268108957</v>
       </c>
     </row>
     <row r="52">
@@ -1921,7 +1921,7 @@
         </is>
       </c>
       <c r="E52" t="n">
-        <v>46.21384381598736</v>
+        <v>46.21384381598738</v>
       </c>
     </row>
     <row r="53">
@@ -1946,7 +1946,7 @@
         </is>
       </c>
       <c r="E53" t="n">
-        <v>6.471597886449146</v>
+        <v>6.471597886449214</v>
       </c>
     </row>
     <row r="54">
@@ -1971,7 +1971,7 @@
         </is>
       </c>
       <c r="E54" t="n">
-        <v>60.69705017628861</v>
+        <v>60.69705017628874</v>
       </c>
     </row>
     <row r="55">
@@ -1996,7 +1996,7 @@
         </is>
       </c>
       <c r="E55" t="n">
-        <v>59.75900493388366</v>
+        <v>59.75900493388365</v>
       </c>
     </row>
     <row r="56">
@@ -2021,7 +2021,7 @@
         </is>
       </c>
       <c r="E56" t="n">
-        <v>56.22775488615517</v>
+        <v>56.2277548861552</v>
       </c>
     </row>
     <row r="57">
@@ -2046,7 +2046,7 @@
         </is>
       </c>
       <c r="E57" t="n">
-        <v>61.62578389795478</v>
+        <v>61.62578389795474</v>
       </c>
     </row>
     <row r="58">
@@ -2071,7 +2071,7 @@
         </is>
       </c>
       <c r="E58" t="n">
-        <v>60.63969920407273</v>
+        <v>60.63969920407276</v>
       </c>
     </row>
     <row r="59">
@@ -2096,7 +2096,7 @@
         </is>
       </c>
       <c r="E59" t="n">
-        <v>14.34880309939017</v>
+        <v>14.34880309939015</v>
       </c>
     </row>
     <row r="60">
@@ -2121,7 +2121,7 @@
         </is>
       </c>
       <c r="E60" t="n">
-        <v>58.85108048494791</v>
+        <v>58.85108048494797</v>
       </c>
     </row>
     <row r="61">
@@ -2171,7 +2171,7 @@
         </is>
       </c>
       <c r="E62" t="n">
-        <v>15.45351585841631</v>
+        <v>15.45351585841633</v>
       </c>
     </row>
     <row r="63">
@@ -2196,7 +2196,7 @@
         </is>
       </c>
       <c r="E63" t="n">
-        <v>37.91859305527584</v>
+        <v>37.91859305527582</v>
       </c>
     </row>
     <row r="64">
@@ -2221,7 +2221,7 @@
         </is>
       </c>
       <c r="E64" t="n">
-        <v>43.1248678073089</v>
+        <v>43.12486780730887</v>
       </c>
     </row>
     <row r="65">
@@ -2246,7 +2246,7 @@
         </is>
       </c>
       <c r="E65" t="n">
-        <v>7.672056171677802</v>
+        <v>7.672056171677784</v>
       </c>
     </row>
     <row r="66">
@@ -2271,7 +2271,7 @@
         </is>
       </c>
       <c r="E66" t="n">
-        <v>33.90962537697608</v>
+        <v>33.90962537697607</v>
       </c>
     </row>
     <row r="67">
@@ -2296,7 +2296,7 @@
         </is>
       </c>
       <c r="E67" t="n">
-        <v>44.11793035919125</v>
+        <v>44.11793035919123</v>
       </c>
     </row>
     <row r="68">
@@ -2321,7 +2321,7 @@
         </is>
       </c>
       <c r="E68" t="n">
-        <v>9.180606177853729</v>
+        <v>9.180606177853779</v>
       </c>
     </row>
     <row r="69">
@@ -2346,7 +2346,7 @@
         </is>
       </c>
       <c r="E69" t="n">
-        <v>55.87462492390257</v>
+        <v>55.87462492390256</v>
       </c>
     </row>
     <row r="70">
@@ -2371,7 +2371,7 @@
         </is>
       </c>
       <c r="E70" t="n">
-        <v>69.63498261979103</v>
+        <v>69.63498261979107</v>
       </c>
     </row>
     <row r="71">
@@ -2396,7 +2396,7 @@
         </is>
       </c>
       <c r="E71" t="n">
-        <v>51.49237239012361</v>
+        <v>51.49237239012353</v>
       </c>
     </row>
     <row r="72">
@@ -2421,7 +2421,7 @@
         </is>
       </c>
       <c r="E72" t="n">
-        <v>64.08648801631702</v>
+        <v>64.08648801631693</v>
       </c>
     </row>
     <row r="73">
@@ -2446,7 +2446,7 @@
         </is>
       </c>
       <c r="E73" t="n">
-        <v>67.08821576468924</v>
+        <v>67.08821576468935</v>
       </c>
     </row>
     <row r="74">
@@ -2471,7 +2471,7 @@
         </is>
       </c>
       <c r="E74" t="n">
-        <v>12.40607450244029</v>
+        <v>12.40607450244036</v>
       </c>
     </row>
     <row r="75">
@@ -2496,7 +2496,7 @@
         </is>
       </c>
       <c r="E75" t="n">
-        <v>64.78534215410264</v>
+        <v>64.78534215410257</v>
       </c>
     </row>
     <row r="76">
@@ -2521,7 +2521,7 @@
         </is>
       </c>
       <c r="E76" t="n">
-        <v>71.76404142820715</v>
+        <v>71.76404142820726</v>
       </c>
     </row>
     <row r="77">
@@ -2571,7 +2571,7 @@
         </is>
       </c>
       <c r="E78" t="n">
-        <v>44.72978728660352</v>
+        <v>44.72978728660357</v>
       </c>
     </row>
     <row r="79">
@@ -2646,7 +2646,7 @@
         </is>
       </c>
       <c r="E81" t="n">
-        <v>43.08249631505866</v>
+        <v>43.08249631505864</v>
       </c>
     </row>
     <row r="82">
@@ -2671,7 +2671,7 @@
         </is>
       </c>
       <c r="E82" t="n">
-        <v>50.48248189732286</v>
+        <v>50.48248189732291</v>
       </c>
     </row>
     <row r="83">
@@ -2696,7 +2696,7 @@
         </is>
       </c>
       <c r="E83" t="n">
-        <v>7.8766962219356</v>
+        <v>7.876696221935617</v>
       </c>
     </row>
     <row r="84">
@@ -2721,7 +2721,7 @@
         </is>
       </c>
       <c r="E84" t="n">
-        <v>69.67384914531371</v>
+        <v>69.67384914531365</v>
       </c>
     </row>
     <row r="85">
@@ -2746,7 +2746,7 @@
         </is>
       </c>
       <c r="E85" t="n">
-        <v>73.37519882035497</v>
+        <v>73.37519882035485</v>
       </c>
     </row>
     <row r="86">
@@ -2771,7 +2771,7 @@
         </is>
       </c>
       <c r="E86" t="n">
-        <v>73.87893892259839</v>
+        <v>73.87893892259834</v>
       </c>
     </row>
     <row r="87">
@@ -2796,7 +2796,7 @@
         </is>
       </c>
       <c r="E87" t="n">
-        <v>87.38775206131957</v>
+        <v>87.38775206131945</v>
       </c>
     </row>
     <row r="88">
@@ -2821,7 +2821,7 @@
         </is>
       </c>
       <c r="E88" t="n">
-        <v>86.4799151069416</v>
+        <v>86.47991510694158</v>
       </c>
     </row>
     <row r="89">
@@ -2871,7 +2871,7 @@
         </is>
       </c>
       <c r="E90" t="n">
-        <v>81.3575876030813</v>
+        <v>81.35758760308141</v>
       </c>
     </row>
     <row r="91">
@@ -2896,7 +2896,7 @@
         </is>
       </c>
       <c r="E91" t="n">
-        <v>83.76770659436443</v>
+        <v>83.76770659436454</v>
       </c>
     </row>
     <row r="92">
@@ -2921,7 +2921,7 @@
         </is>
       </c>
       <c r="E92" t="n">
-        <v>29.87492343606146</v>
+        <v>29.87492343606142</v>
       </c>
     </row>
     <row r="93">
@@ -2971,7 +2971,7 @@
         </is>
       </c>
       <c r="E94" t="n">
-        <v>43.45130027854757</v>
+        <v>43.45130027854756</v>
       </c>
     </row>
     <row r="95">
@@ -2996,7 +2996,7 @@
         </is>
       </c>
       <c r="E95" t="n">
-        <v>11.2095815914272</v>
+        <v>11.20958159142718</v>
       </c>
     </row>
     <row r="96">
@@ -3021,7 +3021,7 @@
         </is>
       </c>
       <c r="E96" t="n">
-        <v>45.3712876812858</v>
+        <v>45.37128768128583</v>
       </c>
     </row>
     <row r="97">
@@ -3046,7 +3046,7 @@
         </is>
       </c>
       <c r="E97" t="n">
-        <v>48.28138110940986</v>
+        <v>48.28138110940989</v>
       </c>
     </row>
     <row r="98">
@@ -3071,7 +3071,7 @@
         </is>
       </c>
       <c r="E98" t="n">
-        <v>11.36436603437247</v>
+        <v>11.36436603437255</v>
       </c>
     </row>
     <row r="99">
@@ -3096,7 +3096,7 @@
         </is>
       </c>
       <c r="E99" t="n">
-        <v>65.58541518114976</v>
+        <v>65.58541518114978</v>
       </c>
     </row>
     <row r="100">
@@ -3146,7 +3146,7 @@
         </is>
       </c>
       <c r="E101" t="n">
-        <v>56.41684032920644</v>
+        <v>56.41684032920637</v>
       </c>
     </row>
     <row r="102">
@@ -3171,7 +3171,7 @@
         </is>
       </c>
       <c r="E102" t="n">
-        <v>66.31164300147665</v>
+        <v>66.31164300147663</v>
       </c>
     </row>
     <row r="103">
@@ -3196,7 +3196,7 @@
         </is>
       </c>
       <c r="E103" t="n">
-        <v>64.78383266457763</v>
+        <v>64.7838326645776</v>
       </c>
     </row>
     <row r="104">
@@ -3221,7 +3221,7 @@
         </is>
       </c>
       <c r="E104" t="n">
-        <v>30.83335481150867</v>
+        <v>30.83335481150877</v>
       </c>
     </row>
     <row r="105">
@@ -3246,7 +3246,7 @@
         </is>
       </c>
       <c r="E105" t="n">
-        <v>60.40603934223827</v>
+        <v>60.40603934223836</v>
       </c>
     </row>
     <row r="106">
@@ -3271,7 +3271,7 @@
         </is>
       </c>
       <c r="E106" t="n">
-        <v>64.67426211406007</v>
+        <v>64.67426211406024</v>
       </c>
     </row>
     <row r="107">
@@ -3296,7 +3296,7 @@
         </is>
       </c>
       <c r="E107" t="n">
-        <v>25.5117164816076</v>
+        <v>25.51171648160761</v>
       </c>
     </row>
     <row r="108">
@@ -3321,7 +3321,7 @@
         </is>
       </c>
       <c r="E108" t="n">
-        <v>44.21237486045749</v>
+        <v>44.21237486045753</v>
       </c>
     </row>
     <row r="109">
@@ -3371,7 +3371,7 @@
         </is>
       </c>
       <c r="E110" t="n">
-        <v>9.53679743771691</v>
+        <v>9.536797437716906</v>
       </c>
     </row>
     <row r="111">
@@ -3396,7 +3396,7 @@
         </is>
       </c>
       <c r="E111" t="n">
-        <v>41.40255861426079</v>
+        <v>41.40255861426074</v>
       </c>
     </row>
     <row r="112">
@@ -3421,7 +3421,7 @@
         </is>
       </c>
       <c r="E112" t="n">
-        <v>45.37212799018846</v>
+        <v>45.37212799018843</v>
       </c>
     </row>
     <row r="113">
@@ -3446,7 +3446,7 @@
         </is>
       </c>
       <c r="E113" t="n">
-        <v>10.54713533457777</v>
+        <v>10.54713533457782</v>
       </c>
     </row>
     <row r="114">
@@ -3471,7 +3471,7 @@
         </is>
       </c>
       <c r="E114" t="n">
-        <v>64.30209321775908</v>
+        <v>64.30209321775921</v>
       </c>
     </row>
     <row r="115">
@@ -3521,7 +3521,7 @@
         </is>
       </c>
       <c r="E116" t="n">
-        <v>57.6137406828898</v>
+        <v>57.61374068288976</v>
       </c>
     </row>
     <row r="117">
@@ -3546,7 +3546,7 @@
         </is>
       </c>
       <c r="E117" t="n">
-        <v>67.84752274096408</v>
+        <v>67.84752274096405</v>
       </c>
     </row>
     <row r="118">
@@ -3596,7 +3596,7 @@
         </is>
       </c>
       <c r="E119" t="n">
-        <v>27.8773233473017</v>
+        <v>27.87732334730163</v>
       </c>
     </row>
     <row r="120">
@@ -3621,7 +3621,7 @@
         </is>
       </c>
       <c r="E120" t="n">
-        <v>68.31111075137039</v>
+        <v>68.31111075137042</v>
       </c>
     </row>
     <row r="121">
@@ -3646,7 +3646,7 @@
         </is>
       </c>
       <c r="E121" t="n">
-        <v>69.54528052599032</v>
+        <v>69.54528052599042</v>
       </c>
     </row>
     <row r="122">
@@ -3671,7 +3671,7 @@
         </is>
       </c>
       <c r="E122" t="n">
-        <v>32.66204549478959</v>
+        <v>32.66204549478966</v>
       </c>
     </row>
     <row r="123">
@@ -3696,7 +3696,7 @@
         </is>
       </c>
       <c r="E123" t="n">
-        <v>51.32049406051533</v>
+        <v>51.32049406051529</v>
       </c>
     </row>
     <row r="124">
@@ -3721,7 +3721,7 @@
         </is>
       </c>
       <c r="E124" t="n">
-        <v>51.88901315023436</v>
+        <v>51.88901315023438</v>
       </c>
     </row>
     <row r="125">
@@ -3746,7 +3746,7 @@
         </is>
       </c>
       <c r="E125" t="n">
-        <v>10.491016315495</v>
+        <v>10.49101631549503</v>
       </c>
     </row>
     <row r="126">
@@ -3771,7 +3771,7 @@
         </is>
       </c>
       <c r="E126" t="n">
-        <v>50.81258380743297</v>
+        <v>50.81258380743298</v>
       </c>
     </row>
     <row r="127">
@@ -3796,7 +3796,7 @@
         </is>
       </c>
       <c r="E127" t="n">
-        <v>52.02295100154131</v>
+        <v>52.02295100154141</v>
       </c>
     </row>
     <row r="128">
@@ -3821,7 +3821,7 @@
         </is>
       </c>
       <c r="E128" t="n">
-        <v>11.44019306609518</v>
+        <v>11.44019306609515</v>
       </c>
     </row>
     <row r="129">
@@ -3846,7 +3846,7 @@
         </is>
       </c>
       <c r="E129" t="n">
-        <v>76.13757860760512</v>
+        <v>76.13757860760526</v>
       </c>
     </row>
     <row r="130">
@@ -3871,7 +3871,7 @@
         </is>
       </c>
       <c r="E130" t="n">
-        <v>73.54902540522835</v>
+        <v>73.54902540522832</v>
       </c>
     </row>
     <row r="131">
@@ -3896,7 +3896,7 @@
         </is>
       </c>
       <c r="E131" t="n">
-        <v>80.02720299846621</v>
+        <v>80.02720299846627</v>
       </c>
     </row>
     <row r="132">
@@ -3921,7 +3921,7 @@
         </is>
       </c>
       <c r="E132" t="n">
-        <v>86.33403873267204</v>
+        <v>86.33403873267191</v>
       </c>
     </row>
     <row r="133">
@@ -3946,7 +3946,7 @@
         </is>
       </c>
       <c r="E133" t="n">
-        <v>88.96120767486488</v>
+        <v>88.96120767486485</v>
       </c>
     </row>
     <row r="134">
@@ -3971,7 +3971,7 @@
         </is>
       </c>
       <c r="E134" t="n">
-        <v>34.72228713039512</v>
+        <v>34.72228713039514</v>
       </c>
     </row>
     <row r="135">
@@ -3996,7 +3996,7 @@
         </is>
       </c>
       <c r="E135" t="n">
-        <v>85.29796466124142</v>
+        <v>85.29796466124156</v>
       </c>
     </row>
     <row r="136">
@@ -4021,7 +4021,7 @@
         </is>
       </c>
       <c r="E136" t="n">
-        <v>86.0946919253831</v>
+        <v>86.09469192538312</v>
       </c>
     </row>
     <row r="137">
@@ -4046,7 +4046,7 @@
         </is>
       </c>
       <c r="E137" t="n">
-        <v>19.08546416902728</v>
+        <v>19.08546416902733</v>
       </c>
     </row>
     <row r="138">
@@ -4071,7 +4071,7 @@
         </is>
       </c>
       <c r="E138" t="n">
-        <v>19.71475659457003</v>
+        <v>19.71475659456999</v>
       </c>
     </row>
     <row r="139">
@@ -4096,7 +4096,7 @@
         </is>
       </c>
       <c r="E139" t="n">
-        <v>20.22080998883844</v>
+        <v>20.22080998883848</v>
       </c>
     </row>
     <row r="140">
@@ -4121,7 +4121,7 @@
         </is>
       </c>
       <c r="E140" t="n">
-        <v>4.984456252860969</v>
+        <v>4.984456252860976</v>
       </c>
     </row>
     <row r="141">
@@ -4146,7 +4146,7 @@
         </is>
       </c>
       <c r="E141" t="n">
-        <v>23.55575913843975</v>
+        <v>23.55575913843968</v>
       </c>
     </row>
     <row r="142">
@@ -4171,7 +4171,7 @@
         </is>
       </c>
       <c r="E142" t="n">
-        <v>23.78094533584882</v>
+        <v>23.78094533584881</v>
       </c>
     </row>
     <row r="143">
@@ -4221,7 +4221,7 @@
         </is>
       </c>
       <c r="E144" t="n">
-        <v>30.71755333625457</v>
+        <v>30.71755333625456</v>
       </c>
     </row>
     <row r="145">
@@ -4246,7 +4246,7 @@
         </is>
       </c>
       <c r="E145" t="n">
-        <v>28.41886884505202</v>
+        <v>28.41886884505205</v>
       </c>
     </row>
     <row r="146">
@@ -4271,7 +4271,7 @@
         </is>
       </c>
       <c r="E146" t="n">
-        <v>25.95854829158524</v>
+        <v>25.95854829158529</v>
       </c>
     </row>
     <row r="147">
@@ -4296,7 +4296,7 @@
         </is>
       </c>
       <c r="E147" t="n">
-        <v>29.19193818314923</v>
+        <v>29.19193818314935</v>
       </c>
     </row>
     <row r="148">
@@ -4321,7 +4321,7 @@
         </is>
       </c>
       <c r="E148" t="n">
-        <v>31.58484449242535</v>
+        <v>31.58484449242541</v>
       </c>
     </row>
     <row r="149">
@@ -4346,7 +4346,7 @@
         </is>
       </c>
       <c r="E149" t="n">
-        <v>63.7229307160252</v>
+        <v>63.72293071602522</v>
       </c>
     </row>
     <row r="150">
@@ -4371,7 +4371,7 @@
         </is>
       </c>
       <c r="E150" t="n">
-        <v>65.11477294972426</v>
+        <v>65.1147729497243</v>
       </c>
     </row>
     <row r="151">
@@ -4396,7 +4396,7 @@
         </is>
       </c>
       <c r="E151" t="n">
-        <v>62.54437260415338</v>
+        <v>62.54437260415339</v>
       </c>
     </row>
     <row r="152">
@@ -4421,7 +4421,7 @@
         </is>
       </c>
       <c r="E152" t="n">
-        <v>17.37526095362559</v>
+        <v>17.3752609536256</v>
       </c>
     </row>
     <row r="153">
@@ -4446,7 +4446,7 @@
         </is>
       </c>
       <c r="E153" t="n">
-        <v>36.37592053964683</v>
+        <v>36.37592053964682</v>
       </c>
     </row>
     <row r="154">
@@ -4471,7 +4471,7 @@
         </is>
       </c>
       <c r="E154" t="n">
-        <v>41.20924010700134</v>
+        <v>41.20924010700128</v>
       </c>
     </row>
     <row r="155">
@@ -4496,7 +4496,7 @@
         </is>
       </c>
       <c r="E155" t="n">
-        <v>9.921032131690982</v>
+        <v>9.921032131690925</v>
       </c>
     </row>
     <row r="156">
@@ -4521,7 +4521,7 @@
         </is>
       </c>
       <c r="E156" t="n">
-        <v>36.68062399847724</v>
+        <v>36.68062399847726</v>
       </c>
     </row>
     <row r="157">
@@ -4546,7 +4546,7 @@
         </is>
       </c>
       <c r="E157" t="n">
-        <v>49.2185756909672</v>
+        <v>49.21857569096714</v>
       </c>
     </row>
     <row r="158">
@@ -4571,7 +4571,7 @@
         </is>
       </c>
       <c r="E158" t="n">
-        <v>13.34718732316258</v>
+        <v>13.34718732316257</v>
       </c>
     </row>
     <row r="159">
@@ -4596,7 +4596,7 @@
         </is>
       </c>
       <c r="E159" t="n">
-        <v>50.83666700026038</v>
+        <v>50.83666700026035</v>
       </c>
     </row>
     <row r="160">
@@ -4621,7 +4621,7 @@
         </is>
       </c>
       <c r="E160" t="n">
-        <v>67.54106258271437</v>
+        <v>67.5410625827144</v>
       </c>
     </row>
     <row r="161">
@@ -4646,7 +4646,7 @@
         </is>
       </c>
       <c r="E161" t="n">
-        <v>44.73570006668281</v>
+        <v>44.73570006668285</v>
       </c>
     </row>
     <row r="162">
@@ -4671,7 +4671,7 @@
         </is>
       </c>
       <c r="E162" t="n">
-        <v>53.36391826568837</v>
+        <v>53.36391826568828</v>
       </c>
     </row>
     <row r="163">
@@ -4696,7 +4696,7 @@
         </is>
       </c>
       <c r="E163" t="n">
-        <v>65.27129530055709</v>
+        <v>65.27129530055717</v>
       </c>
     </row>
     <row r="164">
@@ -4721,7 +4721,7 @@
         </is>
       </c>
       <c r="E164" t="n">
-        <v>18.7052581591355</v>
+        <v>18.70525815913549</v>
       </c>
     </row>
     <row r="165">
@@ -4746,7 +4746,7 @@
         </is>
       </c>
       <c r="E165" t="n">
-        <v>62.67501760564612</v>
+        <v>62.67501760564604</v>
       </c>
     </row>
     <row r="166">
@@ -4771,7 +4771,7 @@
         </is>
       </c>
       <c r="E166" t="n">
-        <v>68.14452112970764</v>
+        <v>68.14452112970773</v>
       </c>
     </row>
     <row r="167">
@@ -4796,7 +4796,7 @@
         </is>
       </c>
       <c r="E167" t="n">
-        <v>29.27277390538663</v>
+        <v>29.2727739053867</v>
       </c>
     </row>
     <row r="168">
@@ -4821,7 +4821,7 @@
         </is>
       </c>
       <c r="E168" t="n">
-        <v>45.62061471120752</v>
+        <v>45.62061471120755</v>
       </c>
     </row>
     <row r="169">
@@ -4846,7 +4846,7 @@
         </is>
       </c>
       <c r="E169" t="n">
-        <v>52.31080823725107</v>
+        <v>52.31080823725112</v>
       </c>
     </row>
     <row r="170">
@@ -4871,7 +4871,7 @@
         </is>
       </c>
       <c r="E170" t="n">
-        <v>12.97676160165864</v>
+        <v>12.97676160165865</v>
       </c>
     </row>
     <row r="171">
@@ -4896,7 +4896,7 @@
         </is>
       </c>
       <c r="E171" t="n">
-        <v>42.98236769384155</v>
+        <v>42.98236769384157</v>
       </c>
     </row>
     <row r="172">
@@ -4921,7 +4921,7 @@
         </is>
       </c>
       <c r="E172" t="n">
-        <v>50.44174591140781</v>
+        <v>50.44174591140777</v>
       </c>
     </row>
     <row r="173">
@@ -4946,7 +4946,7 @@
         </is>
       </c>
       <c r="E173" t="n">
-        <v>17.42717459352528</v>
+        <v>17.42717459352526</v>
       </c>
     </row>
     <row r="174">
@@ -4971,7 +4971,7 @@
         </is>
       </c>
       <c r="E174" t="n">
-        <v>65.39824334533171</v>
+        <v>65.39824334533161</v>
       </c>
     </row>
     <row r="175">
@@ -4996,7 +4996,7 @@
         </is>
       </c>
       <c r="E175" t="n">
-        <v>74.58221448872453</v>
+        <v>74.58221448872465</v>
       </c>
     </row>
     <row r="176">
@@ -5021,7 +5021,7 @@
         </is>
       </c>
       <c r="E176" t="n">
-        <v>64.79612925334428</v>
+        <v>64.79612925334433</v>
       </c>
     </row>
     <row r="177">
@@ -5046,7 +5046,7 @@
         </is>
       </c>
       <c r="E177" t="n">
-        <v>74.28939234310189</v>
+        <v>74.28939234310184</v>
       </c>
     </row>
     <row r="178">
@@ -5071,7 +5071,7 @@
         </is>
       </c>
       <c r="E178" t="n">
-        <v>87.46244975772036</v>
+        <v>87.46244975772021</v>
       </c>
     </row>
     <row r="179">
@@ -5096,7 +5096,7 @@
         </is>
       </c>
       <c r="E179" t="n">
-        <v>38.50726123801641</v>
+        <v>38.50726123801626</v>
       </c>
     </row>
     <row r="180">
@@ -5121,7 +5121,7 @@
         </is>
       </c>
       <c r="E180" t="n">
-        <v>78.45422601032317</v>
+        <v>78.45422601032324</v>
       </c>
     </row>
     <row r="181">
@@ -5146,7 +5146,7 @@
         </is>
       </c>
       <c r="E181" t="n">
-        <v>82.89423150812729</v>
+        <v>82.89423150812721</v>
       </c>
     </row>
     <row r="182">
@@ -5171,7 +5171,7 @@
         </is>
       </c>
       <c r="E182" t="n">
-        <v>28.0739425163421</v>
+        <v>28.07394251634214</v>
       </c>
     </row>
     <row r="183">
@@ -5196,7 +5196,7 @@
         </is>
       </c>
       <c r="E183" t="n">
-        <v>43.56548356899316</v>
+        <v>43.56548356899317</v>
       </c>
     </row>
     <row r="184">
@@ -5221,7 +5221,7 @@
         </is>
       </c>
       <c r="E184" t="n">
-        <v>41.02294309727088</v>
+        <v>41.02294309727097</v>
       </c>
     </row>
     <row r="185">
@@ -5246,7 +5246,7 @@
         </is>
       </c>
       <c r="E185" t="n">
-        <v>10.82809839052963</v>
+        <v>10.82809839052964</v>
       </c>
     </row>
     <row r="186">
@@ -5271,7 +5271,7 @@
         </is>
       </c>
       <c r="E186" t="n">
-        <v>46.43175089997638</v>
+        <v>46.43175089997641</v>
       </c>
     </row>
     <row r="187">
@@ -5321,7 +5321,7 @@
         </is>
       </c>
       <c r="E188" t="n">
-        <v>12.78418747780962</v>
+        <v>12.78418747780963</v>
       </c>
     </row>
     <row r="189">
@@ -5346,7 +5346,7 @@
         </is>
       </c>
       <c r="E189" t="n">
-        <v>70.69231713126429</v>
+        <v>70.6923171312643</v>
       </c>
     </row>
     <row r="190">
@@ -5371,7 +5371,7 @@
         </is>
       </c>
       <c r="E190" t="n">
-        <v>63.10963443605657</v>
+        <v>63.10963443605648</v>
       </c>
     </row>
     <row r="191">
@@ -5396,7 +5396,7 @@
         </is>
       </c>
       <c r="E191" t="n">
-        <v>57.18920594677923</v>
+        <v>57.18920594677925</v>
       </c>
     </row>
     <row r="192">
@@ -5446,7 +5446,7 @@
         </is>
       </c>
       <c r="E193" t="n">
-        <v>70.48609995529574</v>
+        <v>70.4860999552957</v>
       </c>
     </row>
     <row r="194">
@@ -5471,7 +5471,7 @@
         </is>
       </c>
       <c r="E194" t="n">
-        <v>24.8127786194523</v>
+        <v>24.81277861945219</v>
       </c>
     </row>
     <row r="195">
@@ -5496,7 +5496,7 @@
         </is>
       </c>
       <c r="E195" t="n">
-        <v>15.46096961425751</v>
+        <v>15.46096961425756</v>
       </c>
     </row>
     <row r="196">
@@ -5521,7 +5521,7 @@
         </is>
       </c>
       <c r="E196" t="n">
-        <v>16.92605173465633</v>
+        <v>16.92605173465638</v>
       </c>
     </row>
     <row r="197">
@@ -5546,7 +5546,7 @@
         </is>
       </c>
       <c r="E197" t="n">
-        <v>32.35131523006625</v>
+        <v>32.35131523006627</v>
       </c>
     </row>
     <row r="198">
@@ -5571,7 +5571,7 @@
         </is>
       </c>
       <c r="E198" t="n">
-        <v>50.61597317859088</v>
+        <v>50.61597317859103</v>
       </c>
     </row>
     <row r="199">
@@ -5621,7 +5621,7 @@
         </is>
       </c>
       <c r="E200" t="n">
-        <v>10.95325593490016</v>
+        <v>10.95325593490018</v>
       </c>
     </row>
     <row r="201">
@@ -5646,7 +5646,7 @@
         </is>
       </c>
       <c r="E201" t="n">
-        <v>46.34171693431297</v>
+        <v>46.34171693431286</v>
       </c>
     </row>
     <row r="202">
@@ -5671,7 +5671,7 @@
         </is>
       </c>
       <c r="E202" t="n">
-        <v>51.1663100462421</v>
+        <v>51.16631004624215</v>
       </c>
     </row>
     <row r="203">
@@ -5696,7 +5696,7 @@
         </is>
       </c>
       <c r="E203" t="n">
-        <v>12.91101418814117</v>
+        <v>12.91101418814114</v>
       </c>
     </row>
     <row r="204">
@@ -5721,7 +5721,7 @@
         </is>
       </c>
       <c r="E204" t="n">
-        <v>69.64037227231908</v>
+        <v>69.6403722723191</v>
       </c>
     </row>
     <row r="205">
@@ -5746,7 +5746,7 @@
         </is>
       </c>
       <c r="E205" t="n">
-        <v>70.72631443542404</v>
+        <v>70.72631443542411</v>
       </c>
     </row>
     <row r="206">
@@ -5771,7 +5771,7 @@
         </is>
       </c>
       <c r="E206" t="n">
-        <v>68.65261516954604</v>
+        <v>68.65261516954607</v>
       </c>
     </row>
     <row r="207">
@@ -5796,7 +5796,7 @@
         </is>
       </c>
       <c r="E207" t="n">
-        <v>74.55516808042091</v>
+        <v>74.55516808042074</v>
       </c>
     </row>
     <row r="208">
@@ -5821,7 +5821,7 @@
         </is>
       </c>
       <c r="E208" t="n">
-        <v>75.92430325159292</v>
+        <v>75.9243032515928</v>
       </c>
     </row>
     <row r="209">
@@ -5846,7 +5846,7 @@
         </is>
       </c>
       <c r="E209" t="n">
-        <v>41.62352149367587</v>
+        <v>41.62352149367594</v>
       </c>
     </row>
     <row r="210">
@@ -5871,7 +5871,7 @@
         </is>
       </c>
       <c r="E210" t="n">
-        <v>76.69428386270378</v>
+        <v>76.69428386270373</v>
       </c>
     </row>
     <row r="211">
@@ -5896,7 +5896,7 @@
         </is>
       </c>
       <c r="E211" t="n">
-        <v>76.11866047804915</v>
+        <v>76.11866047804922</v>
       </c>
     </row>
     <row r="212">
@@ -5921,7 +5921,7 @@
         </is>
       </c>
       <c r="E212" t="n">
-        <v>37.18379652645397</v>
+        <v>37.18379652645398</v>
       </c>
     </row>
     <row r="213">
@@ -5971,7 +5971,7 @@
         </is>
       </c>
       <c r="E214" t="n">
-        <v>54.67084294748764</v>
+        <v>54.67084294748762</v>
       </c>
     </row>
     <row r="215">
@@ -5996,7 +5996,7 @@
         </is>
       </c>
       <c r="E215" t="n">
-        <v>11.5751676397657</v>
+        <v>11.57516763976567</v>
       </c>
     </row>
     <row r="216">
@@ -6021,7 +6021,7 @@
         </is>
       </c>
       <c r="E216" t="n">
-        <v>48.26656310443419</v>
+        <v>48.26656310443426</v>
       </c>
     </row>
     <row r="217">
@@ -6096,7 +6096,7 @@
         </is>
       </c>
       <c r="E219" t="n">
-        <v>75.58023181473257</v>
+        <v>75.58023181473277</v>
       </c>
     </row>
     <row r="220">
@@ -6121,7 +6121,7 @@
         </is>
       </c>
       <c r="E220" t="n">
-        <v>77.36352865436005</v>
+        <v>77.36352865436004</v>
       </c>
     </row>
     <row r="221">
@@ -6171,7 +6171,7 @@
         </is>
       </c>
       <c r="E222" t="n">
-        <v>86.83925381781864</v>
+        <v>86.83925381781859</v>
       </c>
     </row>
     <row r="223">
@@ -6196,7 +6196,7 @@
         </is>
       </c>
       <c r="E223" t="n">
-        <v>90.26475327884515</v>
+        <v>90.26475327884508</v>
       </c>
     </row>
     <row r="224">
@@ -6221,7 +6221,7 @@
         </is>
       </c>
       <c r="E224" t="n">
-        <v>52.67667184505208</v>
+        <v>52.67667184505211</v>
       </c>
     </row>
     <row r="225">
@@ -6246,7 +6246,7 @@
         </is>
       </c>
       <c r="E225" t="n">
-        <v>89.04980883671607</v>
+        <v>89.04980883671612</v>
       </c>
     </row>
     <row r="226">
@@ -6271,7 +6271,7 @@
         </is>
       </c>
       <c r="E226" t="n">
-        <v>83.98459474197367</v>
+        <v>83.98459474197378</v>
       </c>
     </row>
     <row r="227">
@@ -6296,7 +6296,7 @@
         </is>
       </c>
       <c r="E227" t="n">
-        <v>22.65075051479038</v>
+        <v>22.65075051479042</v>
       </c>
     </row>
     <row r="228">
@@ -6321,7 +6321,7 @@
         </is>
       </c>
       <c r="E228" t="n">
-        <v>35.52083157616006</v>
+        <v>35.52083157616015</v>
       </c>
     </row>
     <row r="229">
@@ -6346,7 +6346,7 @@
         </is>
       </c>
       <c r="E229" t="n">
-        <v>39.40824464821807</v>
+        <v>39.4082446482181</v>
       </c>
     </row>
     <row r="230">
@@ -6371,7 +6371,7 @@
         </is>
       </c>
       <c r="E230" t="n">
-        <v>9.580593145138582</v>
+        <v>9.580593145138604</v>
       </c>
     </row>
     <row r="231">
@@ -6396,7 +6396,7 @@
         </is>
       </c>
       <c r="E231" t="n">
-        <v>44.55906264453455</v>
+        <v>44.55906264453459</v>
       </c>
     </row>
     <row r="232">
@@ -6421,7 +6421,7 @@
         </is>
       </c>
       <c r="E232" t="n">
-        <v>47.4891813990853</v>
+        <v>47.48918139908528</v>
       </c>
     </row>
     <row r="233">
@@ -6446,7 +6446,7 @@
         </is>
       </c>
       <c r="E233" t="n">
-        <v>10.47710352155087</v>
+        <v>10.47710352155082</v>
       </c>
     </row>
     <row r="234">
@@ -6471,7 +6471,7 @@
         </is>
       </c>
       <c r="E234" t="n">
-        <v>68.63070330227161</v>
+        <v>68.63070330227163</v>
       </c>
     </row>
     <row r="235">
@@ -6496,7 +6496,7 @@
         </is>
       </c>
       <c r="E235" t="n">
-        <v>64.09748521162405</v>
+        <v>64.09748521162402</v>
       </c>
     </row>
     <row r="236">
@@ -6521,7 +6521,7 @@
         </is>
       </c>
       <c r="E236" t="n">
-        <v>59.93350602236815</v>
+        <v>59.93350602236818</v>
       </c>
     </row>
     <row r="237">
@@ -6546,7 +6546,7 @@
         </is>
       </c>
       <c r="E237" t="n">
-        <v>65.76061065991919</v>
+        <v>65.76061065991929</v>
       </c>
     </row>
     <row r="238">
@@ -6571,7 +6571,7 @@
         </is>
       </c>
       <c r="E238" t="n">
-        <v>67.42035859187168</v>
+        <v>67.42035859187166</v>
       </c>
     </row>
     <row r="239">
@@ -6596,7 +6596,7 @@
         </is>
       </c>
       <c r="E239" t="n">
-        <v>17.45714684790165</v>
+        <v>17.45714684790168</v>
       </c>
     </row>
     <row r="240">
@@ -6621,7 +6621,7 @@
         </is>
       </c>
       <c r="E240" t="n">
-        <v>10.47842199491809</v>
+        <v>10.47842199491811</v>
       </c>
     </row>
     <row r="241">
@@ -6646,7 +6646,7 @@
         </is>
       </c>
       <c r="E241" t="n">
-        <v>9.803982093211125</v>
+        <v>9.803982093211165</v>
       </c>
     </row>
     <row r="242">
@@ -6696,7 +6696,7 @@
         </is>
       </c>
       <c r="E243" t="n">
-        <v>48.09707295735643</v>
+        <v>48.09707295735645</v>
       </c>
     </row>
     <row r="244">
@@ -6721,7 +6721,7 @@
         </is>
       </c>
       <c r="E244" t="n">
-        <v>49.8436986385105</v>
+        <v>49.84369863851053</v>
       </c>
     </row>
     <row r="245">
@@ -6746,7 +6746,7 @@
         </is>
       </c>
       <c r="E245" t="n">
-        <v>10.03344881071664</v>
+        <v>10.03344881071666</v>
       </c>
     </row>
     <row r="246">
@@ -6771,7 +6771,7 @@
         </is>
       </c>
       <c r="E246" t="n">
-        <v>46.31304654571505</v>
+        <v>46.31304654571506</v>
       </c>
     </row>
     <row r="247">
@@ -6796,7 +6796,7 @@
         </is>
       </c>
       <c r="E247" t="n">
-        <v>50.20492080419864</v>
+        <v>50.20492080419863</v>
       </c>
     </row>
     <row r="248">
@@ -6821,7 +6821,7 @@
         </is>
       </c>
       <c r="E248" t="n">
-        <v>11.45694442404841</v>
+        <v>11.4569444240484</v>
       </c>
     </row>
     <row r="249">
@@ -6846,7 +6846,7 @@
         </is>
       </c>
       <c r="E249" t="n">
-        <v>70.00613275341806</v>
+        <v>70.00613275341807</v>
       </c>
     </row>
     <row r="250">
@@ -6871,7 +6871,7 @@
         </is>
       </c>
       <c r="E250" t="n">
-        <v>72.13335122525197</v>
+        <v>72.13335122525194</v>
       </c>
     </row>
     <row r="251">
@@ -6896,7 +6896,7 @@
         </is>
       </c>
       <c r="E251" t="n">
-        <v>55.73144666541562</v>
+        <v>55.73144666541569</v>
       </c>
     </row>
     <row r="252">
@@ -6921,7 +6921,7 @@
         </is>
       </c>
       <c r="E252" t="n">
-        <v>70.12728081078585</v>
+        <v>70.12728081078582</v>
       </c>
     </row>
     <row r="253">
@@ -6946,7 +6946,7 @@
         </is>
       </c>
       <c r="E253" t="n">
-        <v>72.37393212505205</v>
+        <v>72.37393212505211</v>
       </c>
     </row>
     <row r="254">
@@ -6971,7 +6971,7 @@
         </is>
       </c>
       <c r="E254" t="n">
-        <v>25.77656759454155</v>
+        <v>25.7765675945415</v>
       </c>
     </row>
     <row r="255">
@@ -6996,7 +6996,7 @@
         </is>
       </c>
       <c r="E255" t="n">
-        <v>75.38399650568222</v>
+        <v>75.38399650568215</v>
       </c>
     </row>
     <row r="256">
@@ -7021,7 +7021,7 @@
         </is>
       </c>
       <c r="E256" t="n">
-        <v>78.26414921403442</v>
+        <v>78.26414921403446</v>
       </c>
     </row>
     <row r="257">
@@ -7046,7 +7046,7 @@
         </is>
       </c>
       <c r="E257" t="n">
-        <v>27.76301764214399</v>
+        <v>27.76301764214396</v>
       </c>
     </row>
     <row r="258">
@@ -7071,7 +7071,7 @@
         </is>
       </c>
       <c r="E258" t="n">
-        <v>48.0583556311834</v>
+        <v>48.05835563118345</v>
       </c>
     </row>
     <row r="259">
@@ -7096,7 +7096,7 @@
         </is>
       </c>
       <c r="E259" t="n">
-        <v>50.14819853370906</v>
+        <v>50.14819853370901</v>
       </c>
     </row>
     <row r="260">
@@ -7121,7 +7121,7 @@
         </is>
       </c>
       <c r="E260" t="n">
-        <v>9.620159641733942</v>
+        <v>9.620159641733988</v>
       </c>
     </row>
     <row r="261">
@@ -7146,7 +7146,7 @@
         </is>
       </c>
       <c r="E261" t="n">
-        <v>47.61883490787442</v>
+        <v>47.61883490787447</v>
       </c>
     </row>
     <row r="262">
@@ -7171,7 +7171,7 @@
         </is>
       </c>
       <c r="E262" t="n">
-        <v>49.04300695391827</v>
+        <v>49.04300695391829</v>
       </c>
     </row>
     <row r="263">
@@ -7196,7 +7196,7 @@
         </is>
       </c>
       <c r="E263" t="n">
-        <v>10.88830382648867</v>
+        <v>10.88830382648861</v>
       </c>
     </row>
     <row r="264">
@@ -7221,7 +7221,7 @@
         </is>
       </c>
       <c r="E264" t="n">
-        <v>72.90760581845217</v>
+        <v>72.90760581845223</v>
       </c>
     </row>
     <row r="265">
@@ -7246,7 +7246,7 @@
         </is>
       </c>
       <c r="E265" t="n">
-        <v>70.89847526792553</v>
+        <v>70.89847526792556</v>
       </c>
     </row>
     <row r="266">
@@ -7271,7 +7271,7 @@
         </is>
       </c>
       <c r="E266" t="n">
-        <v>74.01281058182236</v>
+        <v>74.01281058182234</v>
       </c>
     </row>
     <row r="267">
@@ -7321,7 +7321,7 @@
         </is>
       </c>
       <c r="E268" t="n">
-        <v>82.57842511713781</v>
+        <v>82.57842511713778</v>
       </c>
     </row>
     <row r="269">
@@ -7346,7 +7346,7 @@
         </is>
       </c>
       <c r="E269" t="n">
-        <v>26.05414412290516</v>
+        <v>26.05414412290519</v>
       </c>
     </row>
     <row r="270">
@@ -7371,7 +7371,7 @@
         </is>
       </c>
       <c r="E270" t="n">
-        <v>81.89927059975381</v>
+        <v>81.89927059975386</v>
       </c>
     </row>
     <row r="271">
@@ -7396,7 +7396,7 @@
         </is>
       </c>
       <c r="E271" t="n">
-        <v>81.23897706311388</v>
+        <v>81.23897706311382</v>
       </c>
     </row>
     <row r="272">
@@ -7421,7 +7421,7 @@
         </is>
       </c>
       <c r="E272" t="n">
-        <v>11.5214329406841</v>
+        <v>11.52143294068409</v>
       </c>
     </row>
     <row r="273">
@@ -7446,7 +7446,7 @@
         </is>
       </c>
       <c r="E273" t="n">
-        <v>11.3182900446766</v>
+        <v>11.31829004467664</v>
       </c>
     </row>
     <row r="274">
@@ -7471,7 +7471,7 @@
         </is>
       </c>
       <c r="E274" t="n">
-        <v>13.72443481304982</v>
+        <v>13.72443481304979</v>
       </c>
     </row>
     <row r="275">
@@ -7496,7 +7496,7 @@
         </is>
       </c>
       <c r="E275" t="n">
-        <v>2.404515452742746</v>
+        <v>2.404515452742732</v>
       </c>
     </row>
     <row r="276">
@@ -7521,7 +7521,7 @@
         </is>
       </c>
       <c r="E276" t="n">
-        <v>16.51187372491673</v>
+        <v>16.51187372491675</v>
       </c>
     </row>
     <row r="277">
@@ -7546,7 +7546,7 @@
         </is>
       </c>
       <c r="E277" t="n">
-        <v>19.68000676758173</v>
+        <v>19.68000676758176</v>
       </c>
     </row>
     <row r="278">
@@ -7571,7 +7571,7 @@
         </is>
       </c>
       <c r="E278" t="n">
-        <v>2.843997344246027</v>
+        <v>2.843997344246063</v>
       </c>
     </row>
     <row r="279">
@@ -7596,7 +7596,7 @@
         </is>
       </c>
       <c r="E279" t="n">
-        <v>22.53474547177544</v>
+        <v>22.53474547177546</v>
       </c>
     </row>
     <row r="280">
@@ -7621,7 +7621,7 @@
         </is>
       </c>
       <c r="E280" t="n">
-        <v>23.11685369562355</v>
+        <v>23.11685369562357</v>
       </c>
     </row>
     <row r="281">
@@ -7646,7 +7646,7 @@
         </is>
       </c>
       <c r="E281" t="n">
-        <v>24.39315330639769</v>
+        <v>24.39315330639778</v>
       </c>
     </row>
     <row r="282">
@@ -7696,7 +7696,7 @@
         </is>
       </c>
       <c r="E283" t="n">
-        <v>31.97433353294874</v>
+        <v>31.97433353294868</v>
       </c>
     </row>
     <row r="284">
@@ -7721,7 +7721,7 @@
         </is>
       </c>
       <c r="E284" t="n">
-        <v>14.23529807952978</v>
+        <v>14.23529807952982</v>
       </c>
     </row>
     <row r="285">
@@ -7746,7 +7746,7 @@
         </is>
       </c>
       <c r="E285" t="n">
-        <v>20.0595025564985</v>
+        <v>20.05950255649857</v>
       </c>
     </row>
     <row r="286">
@@ -7771,7 +7771,7 @@
         </is>
       </c>
       <c r="E286" t="n">
-        <v>21.29020732228432</v>
+        <v>21.2902073222844</v>
       </c>
     </row>
     <row r="287">
@@ -7796,7 +7796,7 @@
         </is>
       </c>
       <c r="E287" t="n">
-        <v>16.02288265877621</v>
+        <v>16.02288265877618</v>
       </c>
     </row>
     <row r="288">
@@ -7846,7 +7846,7 @@
         </is>
       </c>
       <c r="E289" t="n">
-        <v>34.81414747554856</v>
+        <v>34.81414747554854</v>
       </c>
     </row>
     <row r="290">
@@ -7871,7 +7871,7 @@
         </is>
       </c>
       <c r="E290" t="n">
-        <v>8.198941690128798</v>
+        <v>8.198941690128816</v>
       </c>
     </row>
     <row r="291">
@@ -7896,7 +7896,7 @@
         </is>
       </c>
       <c r="E291" t="n">
-        <v>28.17279335426009</v>
+        <v>28.17279335426014</v>
       </c>
     </row>
     <row r="292">
@@ -7946,7 +7946,7 @@
         </is>
       </c>
       <c r="E293" t="n">
-        <v>9.108608753100622</v>
+        <v>9.108608753100594</v>
       </c>
     </row>
     <row r="294">
@@ -7971,7 +7971,7 @@
         </is>
       </c>
       <c r="E294" t="n">
-        <v>43.10673639129605</v>
+        <v>43.1067363912961</v>
       </c>
     </row>
     <row r="295">
@@ -7996,7 +7996,7 @@
         </is>
       </c>
       <c r="E295" t="n">
-        <v>54.44034605231192</v>
+        <v>54.44034605231187</v>
       </c>
     </row>
     <row r="296">
@@ -8021,7 +8021,7 @@
         </is>
       </c>
       <c r="E296" t="n">
-        <v>40.38294527686728</v>
+        <v>40.38294527686725</v>
       </c>
     </row>
     <row r="297">
@@ -8046,7 +8046,7 @@
         </is>
       </c>
       <c r="E297" t="n">
-        <v>50.10739610162638</v>
+        <v>50.10739610162646</v>
       </c>
     </row>
     <row r="298">
@@ -8071,7 +8071,7 @@
         </is>
       </c>
       <c r="E298" t="n">
-        <v>51.65821775661167</v>
+        <v>51.65821775661172</v>
       </c>
     </row>
     <row r="299">
@@ -8096,7 +8096,7 @@
         </is>
       </c>
       <c r="E299" t="n">
-        <v>17.94289677300452</v>
+        <v>17.94289677300448</v>
       </c>
     </row>
     <row r="300">
@@ -8121,7 +8121,7 @@
         </is>
       </c>
       <c r="E300" t="n">
-        <v>49.86897591488787</v>
+        <v>49.86897591488788</v>
       </c>
     </row>
     <row r="301">
@@ -8146,7 +8146,7 @@
         </is>
       </c>
       <c r="E301" t="n">
-        <v>53.35853561878282</v>
+        <v>53.35853561878293</v>
       </c>
     </row>
     <row r="302">
@@ -8171,7 +8171,7 @@
         </is>
       </c>
       <c r="E302" t="n">
-        <v>20.28703144456946</v>
+        <v>20.28703144456947</v>
       </c>
     </row>
     <row r="303">
@@ -8196,7 +8196,7 @@
         </is>
       </c>
       <c r="E303" t="n">
-        <v>38.68133741748966</v>
+        <v>38.68133741748969</v>
       </c>
     </row>
     <row r="304">
@@ -8221,7 +8221,7 @@
         </is>
       </c>
       <c r="E304" t="n">
-        <v>42.97920331716266</v>
+        <v>42.97920331716259</v>
       </c>
     </row>
     <row r="305">
@@ -8246,7 +8246,7 @@
         </is>
       </c>
       <c r="E305" t="n">
-        <v>10.58339991851759</v>
+        <v>10.5833999185176</v>
       </c>
     </row>
     <row r="306">
@@ -8296,7 +8296,7 @@
         </is>
       </c>
       <c r="E307" t="n">
-        <v>47.4381624300793</v>
+        <v>47.43816243007932</v>
       </c>
     </row>
     <row r="308">
@@ -8321,7 +8321,7 @@
         </is>
       </c>
       <c r="E308" t="n">
-        <v>13.11039362521092</v>
+        <v>13.11039362521089</v>
       </c>
     </row>
     <row r="309">
@@ -8346,7 +8346,7 @@
         </is>
       </c>
       <c r="E309" t="n">
-        <v>63.714437358796</v>
+        <v>63.71443735879602</v>
       </c>
     </row>
     <row r="310">
@@ -8371,7 +8371,7 @@
         </is>
       </c>
       <c r="E310" t="n">
-        <v>65.41441285344021</v>
+        <v>65.41441285344025</v>
       </c>
     </row>
     <row r="311">
@@ -8396,7 +8396,7 @@
         </is>
       </c>
       <c r="E311" t="n">
-        <v>68.19663940759314</v>
+        <v>68.19663940759312</v>
       </c>
     </row>
     <row r="312">
@@ -8421,7 +8421,7 @@
         </is>
       </c>
       <c r="E312" t="n">
-        <v>76.17033545050947</v>
+        <v>76.17033545050943</v>
       </c>
     </row>
     <row r="313">
@@ -8446,7 +8446,7 @@
         </is>
       </c>
       <c r="E313" t="n">
-        <v>77.95614686514045</v>
+        <v>77.95614686514048</v>
       </c>
     </row>
     <row r="314">
@@ -8471,7 +8471,7 @@
         </is>
       </c>
       <c r="E314" t="n">
-        <v>32.56715517673759</v>
+        <v>32.56715517673753</v>
       </c>
     </row>
     <row r="315">
@@ -8496,7 +8496,7 @@
         </is>
       </c>
       <c r="E315" t="n">
-        <v>76.54359223424706</v>
+        <v>76.54359223424704</v>
       </c>
     </row>
     <row r="316">
@@ -8521,7 +8521,7 @@
         </is>
       </c>
       <c r="E316" t="n">
-        <v>81.91949187322786</v>
+        <v>81.91949187322784</v>
       </c>
     </row>
     <row r="317">
@@ -8546,7 +8546,7 @@
         </is>
       </c>
       <c r="E317" t="n">
-        <v>13.70806265295861</v>
+        <v>13.70806265295857</v>
       </c>
     </row>
     <row r="318">
@@ -8571,7 +8571,7 @@
         </is>
       </c>
       <c r="E318" t="n">
-        <v>12.55811773705384</v>
+        <v>12.55811773705375</v>
       </c>
     </row>
     <row r="319">
@@ -8621,7 +8621,7 @@
         </is>
       </c>
       <c r="E320" t="n">
-        <v>2.021302219368245</v>
+        <v>2.021302219368287</v>
       </c>
     </row>
     <row r="321">
@@ -8646,7 +8646,7 @@
         </is>
       </c>
       <c r="E321" t="n">
-        <v>15.40057591811812</v>
+        <v>15.40057591811813</v>
       </c>
     </row>
     <row r="322">
@@ -8671,7 +8671,7 @@
         </is>
       </c>
       <c r="E322" t="n">
-        <v>17.90022719282678</v>
+        <v>17.90022719282677</v>
       </c>
     </row>
     <row r="323">
@@ -8696,7 +8696,7 @@
         </is>
       </c>
       <c r="E323" t="n">
-        <v>2.344068276020028</v>
+        <v>2.344068276020035</v>
       </c>
     </row>
     <row r="324">
@@ -8721,7 +8721,7 @@
         </is>
       </c>
       <c r="E324" t="n">
-        <v>17.94337679889132</v>
+        <v>17.9433767988913</v>
       </c>
     </row>
     <row r="325">
@@ -8746,7 +8746,7 @@
         </is>
       </c>
       <c r="E325" t="n">
-        <v>14.1975432556697</v>
+        <v>14.19754325566965</v>
       </c>
     </row>
     <row r="326">
@@ -8771,7 +8771,7 @@
         </is>
       </c>
       <c r="E326" t="n">
-        <v>13.20952891924572</v>
+        <v>13.2095289192457</v>
       </c>
     </row>
     <row r="327">
@@ -8796,7 +8796,7 @@
         </is>
       </c>
       <c r="E327" t="n">
-        <v>15.56700816228545</v>
+        <v>15.56700816228533</v>
       </c>
     </row>
     <row r="328">
@@ -8821,7 +8821,7 @@
         </is>
       </c>
       <c r="E328" t="n">
-        <v>13.05629908818983</v>
+        <v>13.05629908818977</v>
       </c>
     </row>
     <row r="329">
@@ -8846,7 +8846,7 @@
         </is>
       </c>
       <c r="E329" t="n">
-        <v>14.66405795227487</v>
+        <v>14.66405795227488</v>
       </c>
     </row>
     <row r="330">
@@ -8871,7 +8871,7 @@
         </is>
       </c>
       <c r="E330" t="n">
-        <v>16.04590915771268</v>
+        <v>16.04590915771276</v>
       </c>
     </row>
     <row r="331">
@@ -8896,7 +8896,7 @@
         </is>
       </c>
       <c r="E331" t="n">
-        <v>17.47193264121955</v>
+        <v>17.47193264121952</v>
       </c>
     </row>
     <row r="332">
@@ -8921,7 +8921,7 @@
         </is>
       </c>
       <c r="E332" t="n">
-        <v>7.660994906128536</v>
+        <v>7.660994906128543</v>
       </c>
     </row>
     <row r="333">
@@ -8946,7 +8946,7 @@
         </is>
       </c>
       <c r="E333" t="n">
-        <v>11.45861983725523</v>
+        <v>11.45861983725528</v>
       </c>
     </row>
     <row r="334">
@@ -8971,7 +8971,7 @@
         </is>
       </c>
       <c r="E334" t="n">
-        <v>14.60378951589284</v>
+        <v>14.60378951589286</v>
       </c>
     </row>
     <row r="335">
@@ -8996,7 +8996,7 @@
         </is>
       </c>
       <c r="E335" t="n">
-        <v>1.017414885549307</v>
+        <v>1.017414885549329</v>
       </c>
     </row>
     <row r="336">
@@ -9021,7 +9021,7 @@
         </is>
       </c>
       <c r="E336" t="n">
-        <v>11.49444420050731</v>
+        <v>11.49444420050732</v>
       </c>
     </row>
     <row r="337">
@@ -9046,7 +9046,7 @@
         </is>
       </c>
       <c r="E337" t="n">
-        <v>16.9355253504865</v>
+        <v>16.93552535048641</v>
       </c>
     </row>
     <row r="338">
@@ -9071,7 +9071,7 @@
         </is>
       </c>
       <c r="E338" t="n">
-        <v>0.7084535936923757</v>
+        <v>0.7084535936923473</v>
       </c>
     </row>
     <row r="339">
@@ -9121,7 +9121,7 @@
         </is>
       </c>
       <c r="E340" t="n">
-        <v>26.27961113939802</v>
+        <v>26.27961113939801</v>
       </c>
     </row>
     <row r="341">
@@ -9146,7 +9146,7 @@
         </is>
       </c>
       <c r="E341" t="n">
-        <v>11.52665854428453</v>
+        <v>11.52665854428452</v>
       </c>
     </row>
     <row r="342">
@@ -9171,7 +9171,7 @@
         </is>
       </c>
       <c r="E342" t="n">
-        <v>23.17928805256017</v>
+        <v>23.17928805256008</v>
       </c>
     </row>
     <row r="343">
@@ -9221,7 +9221,7 @@
         </is>
       </c>
       <c r="E344" t="n">
-        <v>4.273816322418028</v>
+        <v>4.273816322418025</v>
       </c>
     </row>
     <row r="345">
@@ -9246,7 +9246,7 @@
         </is>
       </c>
       <c r="E345" t="n">
-        <v>22.28194377410091</v>
+        <v>22.2819437741009</v>
       </c>
     </row>
     <row r="346">
@@ -9271,7 +9271,7 @@
         </is>
       </c>
       <c r="E346" t="n">
-        <v>18.26548040952858</v>
+        <v>18.26548040952861</v>
       </c>
     </row>
     <row r="347">
@@ -9296,7 +9296,7 @@
         </is>
       </c>
       <c r="E347" t="n">
-        <v>9.031381310399567</v>
+        <v>9.031381310399528</v>
       </c>
     </row>
     <row r="348">
@@ -9321,7 +9321,7 @@
         </is>
       </c>
       <c r="E348" t="n">
-        <v>17.69661994291139</v>
+        <v>17.69661994291137</v>
       </c>
     </row>
     <row r="349">
@@ -9346,7 +9346,7 @@
         </is>
       </c>
       <c r="E349" t="n">
-        <v>33.74658047131504</v>
+        <v>33.74658047131506</v>
       </c>
     </row>
     <row r="350">
@@ -9371,7 +9371,7 @@
         </is>
       </c>
       <c r="E350" t="n">
-        <v>2.21645441672349</v>
+        <v>2.216454416723458</v>
       </c>
     </row>
     <row r="351">
@@ -9396,7 +9396,7 @@
         </is>
       </c>
       <c r="E351" t="n">
-        <v>17.87564341115615</v>
+        <v>17.8756434111561</v>
       </c>
     </row>
     <row r="352">
@@ -9421,7 +9421,7 @@
         </is>
       </c>
       <c r="E352" t="n">
-        <v>34.77649135848289</v>
+        <v>34.77649135848293</v>
       </c>
     </row>
     <row r="353">
@@ -9446,7 +9446,7 @@
         </is>
       </c>
       <c r="E353" t="n">
-        <v>2.142326620982121</v>
+        <v>2.142326620982118</v>
       </c>
     </row>
     <row r="354">
@@ -9471,7 +9471,7 @@
         </is>
       </c>
       <c r="E354" t="n">
-        <v>26.76051676287572</v>
+        <v>26.76051676287569</v>
       </c>
     </row>
     <row r="355">
@@ -9496,7 +9496,7 @@
         </is>
       </c>
       <c r="E355" t="n">
-        <v>59.62907505761943</v>
+        <v>59.62907505761939</v>
       </c>
     </row>
     <row r="356">
@@ -9521,7 +9521,7 @@
         </is>
       </c>
       <c r="E356" t="n">
-        <v>24.48455691793801</v>
+        <v>24.48455691793798</v>
       </c>
     </row>
     <row r="357">
@@ -9546,7 +9546,7 @@
         </is>
       </c>
       <c r="E357" t="n">
-        <v>49.24874968130231</v>
+        <v>49.24874968130216</v>
       </c>
     </row>
     <row r="358">
@@ -9571,7 +9571,7 @@
         </is>
       </c>
       <c r="E358" t="n">
-        <v>69.89859770822676</v>
+        <v>69.89859770822675</v>
       </c>
     </row>
     <row r="359">
@@ -9596,7 +9596,7 @@
         </is>
       </c>
       <c r="E359" t="n">
-        <v>8.08440106360219</v>
+        <v>8.084401063602179</v>
       </c>
     </row>
     <row r="360">
@@ -9621,7 +9621,7 @@
         </is>
       </c>
       <c r="E360" t="n">
-        <v>34.10576423538111</v>
+        <v>34.10576423538106</v>
       </c>
     </row>
     <row r="361">
@@ -9646,7 +9646,7 @@
         </is>
       </c>
       <c r="E361" t="n">
-        <v>43.13411455930593</v>
+        <v>43.13411455930592</v>
       </c>
     </row>
     <row r="362">
@@ -9671,7 +9671,7 @@
         </is>
       </c>
       <c r="E362" t="n">
-        <v>18.98965358120612</v>
+        <v>18.98965358120615</v>
       </c>
     </row>
     <row r="363">
@@ -9721,7 +9721,7 @@
         </is>
       </c>
       <c r="E364" t="n">
-        <v>39.07834091228337</v>
+        <v>39.07834091228338</v>
       </c>
     </row>
     <row r="365">
@@ -9746,7 +9746,7 @@
         </is>
       </c>
       <c r="E365" t="n">
-        <v>10.36763459599009</v>
+        <v>10.3676345959901</v>
       </c>
     </row>
     <row r="366">
@@ -9771,7 +9771,7 @@
         </is>
       </c>
       <c r="E366" t="n">
-        <v>44.9777443535118</v>
+        <v>44.97774435351186</v>
       </c>
     </row>
     <row r="367">
@@ -9796,7 +9796,7 @@
         </is>
       </c>
       <c r="E367" t="n">
-        <v>51.03428440836276</v>
+        <v>51.03428440836282</v>
       </c>
     </row>
     <row r="368">
@@ -9821,7 +9821,7 @@
         </is>
       </c>
       <c r="E368" t="n">
-        <v>11.86657096923049</v>
+        <v>11.86657096923045</v>
       </c>
     </row>
     <row r="369">
@@ -9846,7 +9846,7 @@
         </is>
       </c>
       <c r="E369" t="n">
-        <v>63.5790563338377</v>
+        <v>63.57905633383773</v>
       </c>
     </row>
     <row r="370">
@@ -9871,7 +9871,7 @@
         </is>
       </c>
       <c r="E370" t="n">
-        <v>65.24112295218416</v>
+        <v>65.2411229521841</v>
       </c>
     </row>
     <row r="371">
@@ -9896,7 +9896,7 @@
         </is>
       </c>
       <c r="E371" t="n">
-        <v>60.79350497059796</v>
+        <v>60.79350497059801</v>
       </c>
     </row>
     <row r="372">
@@ -9921,7 +9921,7 @@
         </is>
       </c>
       <c r="E372" t="n">
-        <v>70.91060199694482</v>
+        <v>70.91060199694485</v>
       </c>
     </row>
     <row r="373">
@@ -9946,7 +9946,7 @@
         </is>
       </c>
       <c r="E373" t="n">
-        <v>69.69742098834992</v>
+        <v>69.69742098834985</v>
       </c>
     </row>
     <row r="374">
@@ -9996,7 +9996,7 @@
         </is>
       </c>
       <c r="E375" t="n">
-        <v>56.56089355751234</v>
+        <v>56.56089355751244</v>
       </c>
     </row>
     <row r="376">
@@ -10021,7 +10021,7 @@
         </is>
       </c>
       <c r="E376" t="n">
-        <v>72.49298535282935</v>
+        <v>72.49298535282938</v>
       </c>
     </row>
     <row r="377">
@@ -10046,7 +10046,7 @@
         </is>
       </c>
       <c r="E377" t="n">
-        <v>21.49357106387322</v>
+        <v>21.49357106387321</v>
       </c>
     </row>
     <row r="378">
@@ -10071,7 +10071,7 @@
         </is>
       </c>
       <c r="E378" t="n">
-        <v>35.27034804397391</v>
+        <v>35.27034804397393</v>
       </c>
     </row>
     <row r="379">
@@ -10096,7 +10096,7 @@
         </is>
       </c>
       <c r="E379" t="n">
-        <v>38.96827876282573</v>
+        <v>38.96827876282579</v>
       </c>
     </row>
     <row r="380">
@@ -10121,7 +10121,7 @@
         </is>
       </c>
       <c r="E380" t="n">
-        <v>8.05154076488693</v>
+        <v>8.051540764886962</v>
       </c>
     </row>
     <row r="381">
@@ -10146,7 +10146,7 @@
         </is>
       </c>
       <c r="E381" t="n">
-        <v>35.44220779118465</v>
+        <v>35.44220779118468</v>
       </c>
     </row>
     <row r="382">
@@ -10171,7 +10171,7 @@
         </is>
       </c>
       <c r="E382" t="n">
-        <v>38.77250014051142</v>
+        <v>38.77250014051141</v>
       </c>
     </row>
     <row r="383">
@@ -10196,7 +10196,7 @@
         </is>
       </c>
       <c r="E383" t="n">
-        <v>9.465853880470068</v>
+        <v>9.4658538804701</v>
       </c>
     </row>
     <row r="384">
@@ -10221,7 +10221,7 @@
         </is>
       </c>
       <c r="E384" t="n">
-        <v>54.30328544737564</v>
+        <v>54.30328544737571</v>
       </c>
     </row>
     <row r="385">
@@ -10246,7 +10246,7 @@
         </is>
       </c>
       <c r="E385" t="n">
-        <v>59.33867639960928</v>
+        <v>59.33867639960929</v>
       </c>
     </row>
     <row r="386">
@@ -10271,7 +10271,7 @@
         </is>
       </c>
       <c r="E386" t="n">
-        <v>48.23129444741069</v>
+        <v>48.23129444741075</v>
       </c>
     </row>
     <row r="387">
@@ -10346,7 +10346,7 @@
         </is>
       </c>
       <c r="E389" t="n">
-        <v>28.97148909091148</v>
+        <v>28.97148909091149</v>
       </c>
     </row>
     <row r="390">
@@ -10371,7 +10371,7 @@
         </is>
       </c>
       <c r="E390" t="n">
-        <v>60.58375601225636</v>
+        <v>60.58375601225632</v>
       </c>
     </row>
     <row r="391">
@@ -10396,7 +10396,7 @@
         </is>
       </c>
       <c r="E391" t="n">
-        <v>61.73450087406444</v>
+        <v>61.7345008740644</v>
       </c>
     </row>
     <row r="392">
@@ -10421,7 +10421,7 @@
         </is>
       </c>
       <c r="E392" t="n">
-        <v>22.56204463967118</v>
+        <v>22.56204463967116</v>
       </c>
     </row>
     <row r="393">
@@ -10446,7 +10446,7 @@
         </is>
       </c>
       <c r="E393" t="n">
-        <v>38.88097350688676</v>
+        <v>38.88097350688679</v>
       </c>
     </row>
     <row r="394">
@@ -10471,7 +10471,7 @@
         </is>
       </c>
       <c r="E394" t="n">
-        <v>43.51010363045964</v>
+        <v>43.51010363045961</v>
       </c>
     </row>
     <row r="395">
@@ -10496,7 +10496,7 @@
         </is>
       </c>
       <c r="E395" t="n">
-        <v>10.00240015730727</v>
+        <v>10.00240015730729</v>
       </c>
     </row>
     <row r="396">
@@ -10521,7 +10521,7 @@
         </is>
       </c>
       <c r="E396" t="n">
-        <v>45.78470935754759</v>
+        <v>45.78470935754761</v>
       </c>
     </row>
     <row r="397">
@@ -10571,7 +10571,7 @@
         </is>
       </c>
       <c r="E398" t="n">
-        <v>12.28178660753447</v>
+        <v>12.2817866075345</v>
       </c>
     </row>
     <row r="399">
@@ -10596,7 +10596,7 @@
         </is>
       </c>
       <c r="E399" t="n">
-        <v>68.4438725711109</v>
+        <v>68.44387257111093</v>
       </c>
     </row>
     <row r="400">
@@ -10621,7 +10621,7 @@
         </is>
       </c>
       <c r="E400" t="n">
-        <v>67.99849794143634</v>
+        <v>67.99849794143637</v>
       </c>
     </row>
     <row r="401">
@@ -10646,7 +10646,7 @@
         </is>
       </c>
       <c r="E401" t="n">
-        <v>71.00251575187608</v>
+        <v>71.00251575187596</v>
       </c>
     </row>
     <row r="402">
@@ -10671,7 +10671,7 @@
         </is>
       </c>
       <c r="E402" t="n">
-        <v>77.17494130973904</v>
+        <v>77.17494130973907</v>
       </c>
     </row>
     <row r="403">
@@ -10696,7 +10696,7 @@
         </is>
       </c>
       <c r="E403" t="n">
-        <v>78.73285299750771</v>
+        <v>78.73285299750769</v>
       </c>
     </row>
     <row r="404">
@@ -10721,7 +10721,7 @@
         </is>
       </c>
       <c r="E404" t="n">
-        <v>34.03582372964419</v>
+        <v>34.03582372964421</v>
       </c>
     </row>
     <row r="405">
@@ -10746,7 +10746,7 @@
         </is>
       </c>
       <c r="E405" t="n">
-        <v>75.89323268243029</v>
+        <v>75.89323268243048</v>
       </c>
     </row>
     <row r="406">
@@ -10771,7 +10771,7 @@
         </is>
       </c>
       <c r="E406" t="n">
-        <v>82.20199591137028</v>
+        <v>82.20199591137032</v>
       </c>
     </row>
     <row r="407">
@@ -10796,7 +10796,7 @@
         </is>
       </c>
       <c r="E407" t="n">
-        <v>11.58744502178678</v>
+        <v>11.58744502178681</v>
       </c>
     </row>
     <row r="408">
@@ -10846,7 +10846,7 @@
         </is>
       </c>
       <c r="E409" t="n">
-        <v>16.01025065448674</v>
+        <v>16.01025065448677</v>
       </c>
     </row>
     <row r="410">
@@ -10871,7 +10871,7 @@
         </is>
       </c>
       <c r="E410" t="n">
-        <v>2.31054414440786</v>
+        <v>2.310544144407881</v>
       </c>
     </row>
     <row r="411">
@@ -10896,7 +10896,7 @@
         </is>
       </c>
       <c r="E411" t="n">
-        <v>11.92574264912669</v>
+        <v>11.92574264912673</v>
       </c>
     </row>
     <row r="412">
@@ -10921,7 +10921,7 @@
         </is>
       </c>
       <c r="E412" t="n">
-        <v>17.72612919923032</v>
+        <v>17.72612919923033</v>
       </c>
     </row>
     <row r="413">
@@ -10946,7 +10946,7 @@
         </is>
       </c>
       <c r="E413" t="n">
-        <v>1.937612992291214</v>
+        <v>1.937612992291186</v>
       </c>
     </row>
     <row r="414">
@@ -10971,7 +10971,7 @@
         </is>
       </c>
       <c r="E414" t="n">
-        <v>20.53147479515853</v>
+        <v>20.53147479515854</v>
       </c>
     </row>
     <row r="415">
@@ -10996,7 +10996,7 @@
         </is>
       </c>
       <c r="E415" t="n">
-        <v>20.85487360256091</v>
+        <v>20.85487360256099</v>
       </c>
     </row>
     <row r="416">
@@ -11021,7 +11021,7 @@
         </is>
       </c>
       <c r="E416" t="n">
-        <v>19.31699159343074</v>
+        <v>19.31699159343071</v>
       </c>
     </row>
     <row r="417">
@@ -11046,7 +11046,7 @@
         </is>
       </c>
       <c r="E417" t="n">
-        <v>23.73144096580488</v>
+        <v>23.73144096580486</v>
       </c>
     </row>
     <row r="418">
@@ -11071,7 +11071,7 @@
         </is>
       </c>
       <c r="E418" t="n">
-        <v>24.11655668913505</v>
+        <v>24.11655668913504</v>
       </c>
     </row>
     <row r="419">
@@ -11121,7 +11121,7 @@
         </is>
       </c>
       <c r="E420" t="n">
-        <v>19.71857731216809</v>
+        <v>19.71857731216812</v>
       </c>
     </row>
     <row r="421">
@@ -11146,7 +11146,7 @@
         </is>
       </c>
       <c r="E421" t="n">
-        <v>23.2714909151337</v>
+        <v>23.27149091513384</v>
       </c>
     </row>
     <row r="422">
@@ -11171,7 +11171,7 @@
         </is>
       </c>
       <c r="E422" t="n">
-        <v>11.01438672935067</v>
+        <v>11.01438672935063</v>
       </c>
     </row>
     <row r="423">
@@ -11196,7 +11196,7 @@
         </is>
       </c>
       <c r="E423" t="n">
-        <v>23.33164149092153</v>
+        <v>23.33164149092155</v>
       </c>
     </row>
     <row r="424">
@@ -11246,7 +11246,7 @@
         </is>
       </c>
       <c r="E425" t="n">
-        <v>6.086336376479032</v>
+        <v>6.086336376479018</v>
       </c>
     </row>
     <row r="426">
@@ -11271,7 +11271,7 @@
         </is>
       </c>
       <c r="E426" t="n">
-        <v>20.01308191879052</v>
+        <v>20.01308191879051</v>
       </c>
     </row>
     <row r="427">
@@ -11296,7 +11296,7 @@
         </is>
       </c>
       <c r="E427" t="n">
-        <v>32.53978673140368</v>
+        <v>32.53978673140365</v>
       </c>
     </row>
     <row r="428">
@@ -11321,7 +11321,7 @@
         </is>
       </c>
       <c r="E428" t="n">
-        <v>6.671980756493422</v>
+        <v>6.671980756493443</v>
       </c>
     </row>
     <row r="429">
@@ -11346,7 +11346,7 @@
         </is>
       </c>
       <c r="E429" t="n">
-        <v>32.98636079563081</v>
+        <v>32.98636079563084</v>
       </c>
     </row>
     <row r="430">
@@ -11371,7 +11371,7 @@
         </is>
       </c>
       <c r="E430" t="n">
-        <v>48.00904569734508</v>
+        <v>48.00904569734504</v>
       </c>
     </row>
     <row r="431">
@@ -11396,7 +11396,7 @@
         </is>
       </c>
       <c r="E431" t="n">
-        <v>24.75911745649093</v>
+        <v>24.75911745649091</v>
       </c>
     </row>
     <row r="432">
@@ -11421,7 +11421,7 @@
         </is>
       </c>
       <c r="E432" t="n">
-        <v>37.35924044948887</v>
+        <v>37.35924044948898</v>
       </c>
     </row>
     <row r="433">
@@ -11471,7 +11471,7 @@
         </is>
       </c>
       <c r="E434" t="n">
-        <v>9.162263021351151</v>
+        <v>9.162263021351176</v>
       </c>
     </row>
     <row r="435">
@@ -11496,7 +11496,7 @@
         </is>
       </c>
       <c r="E435" t="n">
-        <v>35.95035685221448</v>
+        <v>35.95035685221445</v>
       </c>
     </row>
     <row r="436">
@@ -11521,7 +11521,7 @@
         </is>
       </c>
       <c r="E436" t="n">
-        <v>43.71152898612623</v>
+        <v>43.71152898612628</v>
       </c>
     </row>
     <row r="437">
@@ -11546,7 +11546,7 @@
         </is>
       </c>
       <c r="E437" t="n">
-        <v>19.24047571426572</v>
+        <v>19.24047571426573</v>
       </c>
     </row>
     <row r="438">
@@ -11571,7 +11571,7 @@
         </is>
       </c>
       <c r="E438" t="n">
-        <v>33.74321199516086</v>
+        <v>33.74321199516082</v>
       </c>
     </row>
     <row r="439">
@@ -11596,7 +11596,7 @@
         </is>
       </c>
       <c r="E439" t="n">
-        <v>42.87200636760941</v>
+        <v>42.87200636760943</v>
       </c>
     </row>
     <row r="440">
@@ -11621,7 +11621,7 @@
         </is>
       </c>
       <c r="E440" t="n">
-        <v>10.98784165467145</v>
+        <v>10.98784165467147</v>
       </c>
     </row>
     <row r="441">
@@ -11671,7 +11671,7 @@
         </is>
       </c>
       <c r="E442" t="n">
-        <v>43.05073118876573</v>
+        <v>43.0507311887657</v>
       </c>
     </row>
     <row r="443">
@@ -11721,7 +11721,7 @@
         </is>
       </c>
       <c r="E444" t="n">
-        <v>47.34463154820365</v>
+        <v>47.34463154820375</v>
       </c>
     </row>
     <row r="445">
@@ -11746,7 +11746,7 @@
         </is>
       </c>
       <c r="E445" t="n">
-        <v>60.63431271144535</v>
+        <v>60.63431271144526</v>
       </c>
     </row>
     <row r="446">
@@ -11771,7 +11771,7 @@
         </is>
       </c>
       <c r="E446" t="n">
-        <v>48.41282665845004</v>
+        <v>48.41282665845009</v>
       </c>
     </row>
     <row r="447">
@@ -11796,7 +11796,7 @@
         </is>
       </c>
       <c r="E447" t="n">
-        <v>59.18239265418694</v>
+        <v>59.1823926541869</v>
       </c>
     </row>
     <row r="448">
@@ -11821,7 +11821,7 @@
         </is>
       </c>
       <c r="E448" t="n">
-        <v>76.24986610273788</v>
+        <v>76.24986610273785</v>
       </c>
     </row>
     <row r="449">
@@ -11846,7 +11846,7 @@
         </is>
       </c>
       <c r="E449" t="n">
-        <v>26.93194647555649</v>
+        <v>26.93194647555642</v>
       </c>
     </row>
     <row r="450">
@@ -11871,7 +11871,7 @@
         </is>
       </c>
       <c r="E450" t="n">
-        <v>58.63210988782018</v>
+        <v>58.63210988782014</v>
       </c>
     </row>
     <row r="451">
@@ -11896,7 +11896,7 @@
         </is>
       </c>
       <c r="E451" t="n">
-        <v>68.07502217606807</v>
+        <v>68.07502217606802</v>
       </c>
     </row>
     <row r="452">
@@ -11921,7 +11921,7 @@
         </is>
       </c>
       <c r="E452" t="n">
-        <v>7.589917286251055</v>
+        <v>7.58991728625104</v>
       </c>
     </row>
     <row r="453">
@@ -11946,7 +11946,7 @@
         </is>
       </c>
       <c r="E453" t="n">
-        <v>6.438331878430528</v>
+        <v>6.438331878430564</v>
       </c>
     </row>
     <row r="454">
@@ -11971,7 +11971,7 @@
         </is>
       </c>
       <c r="E454" t="n">
-        <v>9.994400854586832</v>
+        <v>9.994400854586804</v>
       </c>
     </row>
     <row r="455">
@@ -11996,7 +11996,7 @@
         </is>
       </c>
       <c r="E455" t="n">
-        <v>-0.2947920357075091</v>
+        <v>-0.2947920357075446</v>
       </c>
     </row>
     <row r="456">
@@ -12021,7 +12021,7 @@
         </is>
       </c>
       <c r="E456" t="n">
-        <v>8.218349098072636</v>
+        <v>8.218349098072572</v>
       </c>
     </row>
     <row r="457">
@@ -12046,7 +12046,7 @@
         </is>
       </c>
       <c r="E457" t="n">
-        <v>13.384431593338</v>
+        <v>13.38443159333795</v>
       </c>
     </row>
     <row r="458">
@@ -12071,7 +12071,7 @@
         </is>
       </c>
       <c r="E458" t="n">
-        <v>-2.11180703501558</v>
+        <v>-2.111807035015609</v>
       </c>
     </row>
     <row r="459">
@@ -12096,7 +12096,7 @@
         </is>
       </c>
       <c r="E459" t="n">
-        <v>8.40721719220981</v>
+        <v>8.407217192209753</v>
       </c>
     </row>
     <row r="460">
@@ -12121,7 +12121,7 @@
         </is>
       </c>
       <c r="E460" t="n">
-        <v>13.26819884769908</v>
+        <v>13.26819884769905</v>
       </c>
     </row>
     <row r="461">
@@ -12146,7 +12146,7 @@
         </is>
       </c>
       <c r="E461" t="n">
-        <v>5.629707337867575</v>
+        <v>5.629707337867732</v>
       </c>
     </row>
     <row r="462">
@@ -12171,7 +12171,7 @@
         </is>
       </c>
       <c r="E462" t="n">
-        <v>5.978173772267944</v>
+        <v>5.978173772268033</v>
       </c>
     </row>
     <row r="463">
@@ -12196,7 +12196,7 @@
         </is>
       </c>
       <c r="E463" t="n">
-        <v>17.04754837560385</v>
+        <v>17.04754837560377</v>
       </c>
     </row>
     <row r="464">
@@ -12221,7 +12221,7 @@
         </is>
       </c>
       <c r="E464" t="n">
-        <v>6.844871189514198</v>
+        <v>6.844871189514151</v>
       </c>
     </row>
     <row r="465">
@@ -12246,7 +12246,7 @@
         </is>
       </c>
       <c r="E465" t="n">
-        <v>9.569265743803367</v>
+        <v>9.569265743803385</v>
       </c>
     </row>
     <row r="466">
@@ -12271,7 +12271,7 @@
         </is>
       </c>
       <c r="E466" t="n">
-        <v>15.50010731237368</v>
+        <v>15.50010731237369</v>
       </c>
     </row>
     <row r="467">
@@ -12296,7 +12296,7 @@
         </is>
       </c>
       <c r="E467" t="n">
-        <v>20.45955776716025</v>
+        <v>20.45955776716028</v>
       </c>
     </row>
     <row r="468">
@@ -12321,7 +12321,7 @@
         </is>
       </c>
       <c r="E468" t="n">
-        <v>36.30752610229017</v>
+        <v>36.3075261022901</v>
       </c>
     </row>
     <row r="469">
@@ -12371,7 +12371,7 @@
         </is>
       </c>
       <c r="E470" t="n">
-        <v>9.02244343390031</v>
+        <v>9.022443433900307</v>
       </c>
     </row>
     <row r="471">
@@ -12446,7 +12446,7 @@
         </is>
       </c>
       <c r="E473" t="n">
-        <v>9.637795605314643</v>
+        <v>9.637795605314572</v>
       </c>
     </row>
     <row r="474">
@@ -12471,7 +12471,7 @@
         </is>
       </c>
       <c r="E474" t="n">
-        <v>53.66039879316777</v>
+        <v>53.66039879316773</v>
       </c>
     </row>
     <row r="475">
@@ -12496,7 +12496,7 @@
         </is>
       </c>
       <c r="E475" t="n">
-        <v>55.54797049583404</v>
+        <v>55.54797049583401</v>
       </c>
     </row>
     <row r="476">
@@ -12521,7 +12521,7 @@
         </is>
       </c>
       <c r="E476" t="n">
-        <v>46.92355435325055</v>
+        <v>46.92355435325063</v>
       </c>
     </row>
     <row r="477">
@@ -12546,7 +12546,7 @@
         </is>
       </c>
       <c r="E477" t="n">
-        <v>53.79067986529169</v>
+        <v>53.79067986529175</v>
       </c>
     </row>
     <row r="478">
@@ -12571,7 +12571,7 @@
         </is>
       </c>
       <c r="E478" t="n">
-        <v>54.41557380004494</v>
+        <v>54.41557380004503</v>
       </c>
     </row>
     <row r="479">
@@ -12596,7 +12596,7 @@
         </is>
       </c>
       <c r="E479" t="n">
-        <v>21.26363988380589</v>
+        <v>21.26363988380584</v>
       </c>
     </row>
     <row r="480">
@@ -12621,7 +12621,7 @@
         </is>
       </c>
       <c r="E480" t="n">
-        <v>57.51978164959945</v>
+        <v>57.51978164959939</v>
       </c>
     </row>
     <row r="481">
@@ -12646,7 +12646,7 @@
         </is>
       </c>
       <c r="E481" t="n">
-        <v>58.62976387338846</v>
+        <v>58.62976387338848</v>
       </c>
     </row>
     <row r="482">
@@ -12671,7 +12671,7 @@
         </is>
       </c>
       <c r="E482" t="n">
-        <v>24.86807131487916</v>
+        <v>24.8680713148792</v>
       </c>
     </row>
     <row r="483">
@@ -12696,7 +12696,7 @@
         </is>
       </c>
       <c r="E483" t="n">
-        <v>43.43163569299108</v>
+        <v>43.43163569299099</v>
       </c>
     </row>
     <row r="484">
@@ -12721,7 +12721,7 @@
         </is>
       </c>
       <c r="E484" t="n">
-        <v>45.82837416317115</v>
+        <v>45.82837416317116</v>
       </c>
     </row>
     <row r="485">
@@ -12746,7 +12746,7 @@
         </is>
       </c>
       <c r="E485" t="n">
-        <v>9.569187702451611</v>
+        <v>9.569187702451636</v>
       </c>
     </row>
     <row r="486">
@@ -12771,7 +12771,7 @@
         </is>
       </c>
       <c r="E486" t="n">
-        <v>46.52712282903425</v>
+        <v>46.52712282903424</v>
       </c>
     </row>
     <row r="487">
@@ -12796,7 +12796,7 @@
         </is>
       </c>
       <c r="E487" t="n">
-        <v>50.35476066434062</v>
+        <v>50.35476066434065</v>
       </c>
     </row>
     <row r="488">
@@ -12821,7 +12821,7 @@
         </is>
       </c>
       <c r="E488" t="n">
-        <v>10.062874391565</v>
+        <v>10.06287439156497</v>
       </c>
     </row>
     <row r="489">
@@ -12846,7 +12846,7 @@
         </is>
       </c>
       <c r="E489" t="n">
-        <v>69.38298673998797</v>
+        <v>69.38298673998803</v>
       </c>
     </row>
     <row r="490">
@@ -12871,7 +12871,7 @@
         </is>
       </c>
       <c r="E490" t="n">
-        <v>66.67997352613513</v>
+        <v>66.6799735261352</v>
       </c>
     </row>
     <row r="491">
@@ -12896,7 +12896,7 @@
         </is>
       </c>
       <c r="E491" t="n">
-        <v>74.64228010608515</v>
+        <v>74.64228010608512</v>
       </c>
     </row>
     <row r="492">
@@ -12971,7 +12971,7 @@
         </is>
       </c>
       <c r="E494" t="n">
-        <v>26.20790835015729</v>
+        <v>26.20790835015731</v>
       </c>
     </row>
     <row r="495">
@@ -12996,7 +12996,7 @@
         </is>
       </c>
       <c r="E495" t="n">
-        <v>80.89975667538083</v>
+        <v>80.89975667538079</v>
       </c>
     </row>
     <row r="496">
@@ -13021,7 +13021,7 @@
         </is>
       </c>
       <c r="E496" t="n">
-        <v>79.17363759471226</v>
+        <v>79.17363759471232</v>
       </c>
     </row>
     <row r="497">
@@ -13046,7 +13046,7 @@
         </is>
       </c>
       <c r="E497" t="n">
-        <v>14.41962988100247</v>
+        <v>14.41962988100248</v>
       </c>
     </row>
     <row r="498">
@@ -13096,7 +13096,7 @@
         </is>
       </c>
       <c r="E499" t="n">
-        <v>19.78949243734571</v>
+        <v>19.78949243734572</v>
       </c>
     </row>
     <row r="500">
@@ -13121,7 +13121,7 @@
         </is>
       </c>
       <c r="E500" t="n">
-        <v>1.551463945194389</v>
+        <v>1.551463945194325</v>
       </c>
     </row>
     <row r="501">
@@ -13146,7 +13146,7 @@
         </is>
       </c>
       <c r="E501" t="n">
-        <v>16.12075005335</v>
+        <v>16.12075005334998</v>
       </c>
     </row>
     <row r="502">
@@ -13171,7 +13171,7 @@
         </is>
       </c>
       <c r="E502" t="n">
-        <v>20.55676416778978</v>
+        <v>20.55676416778979</v>
       </c>
     </row>
     <row r="503">
@@ -13196,7 +13196,7 @@
         </is>
       </c>
       <c r="E503" t="n">
-        <v>2.013782479240831</v>
+        <v>2.013782479240888</v>
       </c>
     </row>
     <row r="504">
@@ -13221,7 +13221,7 @@
         </is>
       </c>
       <c r="E504" t="n">
-        <v>22.61126871278505</v>
+        <v>22.61126871278501</v>
       </c>
     </row>
     <row r="505">
@@ -13246,7 +13246,7 @@
         </is>
       </c>
       <c r="E505" t="n">
-        <v>26.508435898034</v>
+        <v>26.50843589803399</v>
       </c>
     </row>
     <row r="506">
@@ -13271,7 +13271,7 @@
         </is>
       </c>
       <c r="E506" t="n">
-        <v>21.87040911127156</v>
+        <v>21.87040911127151</v>
       </c>
     </row>
     <row r="507">
@@ -13296,7 +13296,7 @@
         </is>
       </c>
       <c r="E507" t="n">
-        <v>25.09477450990612</v>
+        <v>25.09477450990607</v>
       </c>
     </row>
     <row r="508">
@@ -13321,7 +13321,7 @@
         </is>
       </c>
       <c r="E508" t="n">
-        <v>27.80332889122653</v>
+        <v>27.80332889122651</v>
       </c>
     </row>
     <row r="509">
@@ -13346,7 +13346,7 @@
         </is>
       </c>
       <c r="E509" t="n">
-        <v>14.67013288938548</v>
+        <v>14.67013288938547</v>
       </c>
     </row>
     <row r="510">
@@ -13396,7 +13396,7 @@
         </is>
       </c>
       <c r="E511" t="n">
-        <v>28.41201496187258</v>
+        <v>28.41201496187259</v>
       </c>
     </row>
     <row r="512">
@@ -13421,7 +13421,7 @@
         </is>
       </c>
       <c r="E512" t="n">
-        <v>8.800330005819983</v>
+        <v>8.80033000581999</v>
       </c>
     </row>
     <row r="513">
@@ -13446,7 +13446,7 @@
         </is>
       </c>
       <c r="E513" t="n">
-        <v>15.71214247294815</v>
+        <v>15.71214247294811</v>
       </c>
     </row>
     <row r="514">
@@ -13471,7 +13471,7 @@
         </is>
       </c>
       <c r="E514" t="n">
-        <v>22.45194410397012</v>
+        <v>22.45194410397009</v>
       </c>
     </row>
     <row r="515">
@@ -13496,7 +13496,7 @@
         </is>
       </c>
       <c r="E515" t="n">
-        <v>0.8225343398621945</v>
+        <v>0.8225343398622087</v>
       </c>
     </row>
     <row r="516">
@@ -13521,7 +13521,7 @@
         </is>
       </c>
       <c r="E516" t="n">
-        <v>11.59512743587722</v>
+        <v>11.59512743587717</v>
       </c>
     </row>
     <row r="517">
@@ -13546,7 +13546,7 @@
         </is>
       </c>
       <c r="E517" t="n">
-        <v>21.47799398051967</v>
+        <v>21.47799398051966</v>
       </c>
     </row>
     <row r="518">
@@ -13571,7 +13571,7 @@
         </is>
       </c>
       <c r="E518" t="n">
-        <v>0.3421012973845308</v>
+        <v>0.3421012973845521</v>
       </c>
     </row>
     <row r="519">
@@ -13596,7 +13596,7 @@
         </is>
       </c>
       <c r="E519" t="n">
-        <v>18.89952006449483</v>
+        <v>18.89952006449481</v>
       </c>
     </row>
     <row r="520">
@@ -13621,7 +13621,7 @@
         </is>
       </c>
       <c r="E520" t="n">
-        <v>34.23672869384834</v>
+        <v>34.23672869384836</v>
       </c>
     </row>
     <row r="521">
@@ -13646,7 +13646,7 @@
         </is>
       </c>
       <c r="E521" t="n">
-        <v>13.65874458165848</v>
+        <v>13.65874458165846</v>
       </c>
     </row>
     <row r="522">
@@ -13671,7 +13671,7 @@
         </is>
       </c>
       <c r="E522" t="n">
-        <v>23.08364589495648</v>
+        <v>23.0836458949565</v>
       </c>
     </row>
     <row r="523">
@@ -13696,7 +13696,7 @@
         </is>
       </c>
       <c r="E523" t="n">
-        <v>29.78508274300731</v>
+        <v>29.78508274300729</v>
       </c>
     </row>
     <row r="524">
@@ -13721,7 +13721,7 @@
         </is>
       </c>
       <c r="E524" t="n">
-        <v>6.49492921901874</v>
+        <v>6.494929219018712</v>
       </c>
     </row>
     <row r="525">
@@ -13746,7 +13746,7 @@
         </is>
       </c>
       <c r="E525" t="n">
-        <v>22.87187575055707</v>
+        <v>22.87187575055703</v>
       </c>
     </row>
     <row r="526">
@@ -13771,7 +13771,7 @@
         </is>
       </c>
       <c r="E526" t="n">
-        <v>29.96546253660339</v>
+        <v>29.96546253660336</v>
       </c>
     </row>
     <row r="527">
@@ -13821,7 +13821,7 @@
         </is>
       </c>
       <c r="E528" t="n">
-        <v>31.33268950881479</v>
+        <v>31.33268950881478</v>
       </c>
     </row>
     <row r="529">
@@ -13846,7 +13846,7 @@
         </is>
       </c>
       <c r="E529" t="n">
-        <v>37.15444141215329</v>
+        <v>37.15444141215328</v>
       </c>
     </row>
     <row r="530">
@@ -13871,7 +13871,7 @@
         </is>
       </c>
       <c r="E530" t="n">
-        <v>5.23784591410179</v>
+        <v>5.237845914101811</v>
       </c>
     </row>
     <row r="531">
@@ -13896,7 +13896,7 @@
         </is>
       </c>
       <c r="E531" t="n">
-        <v>26.30163260339608</v>
+        <v>26.30163260339614</v>
       </c>
     </row>
     <row r="532">
@@ -13921,7 +13921,7 @@
         </is>
       </c>
       <c r="E532" t="n">
-        <v>32.48870141955093</v>
+        <v>32.48870141955094</v>
       </c>
     </row>
     <row r="533">
@@ -13946,7 +13946,7 @@
         </is>
       </c>
       <c r="E533" t="n">
-        <v>9.645759201261249</v>
+        <v>9.645759201261242</v>
       </c>
     </row>
     <row r="534">
@@ -13971,7 +13971,7 @@
         </is>
       </c>
       <c r="E534" t="n">
-        <v>44.69475907691564</v>
+        <v>44.69475907691565</v>
       </c>
     </row>
     <row r="535">
@@ -13996,7 +13996,7 @@
         </is>
       </c>
       <c r="E535" t="n">
-        <v>52.5193580920095</v>
+        <v>52.51935809200954</v>
       </c>
     </row>
     <row r="536">
@@ -14046,7 +14046,7 @@
         </is>
       </c>
       <c r="E537" t="n">
-        <v>55.92097066213148</v>
+        <v>55.92097066213155</v>
       </c>
     </row>
     <row r="538">
@@ -14071,7 +14071,7 @@
         </is>
       </c>
       <c r="E538" t="n">
-        <v>64.61835508412265</v>
+        <v>64.6183550841227</v>
       </c>
     </row>
     <row r="539">
@@ -14096,7 +14096,7 @@
         </is>
       </c>
       <c r="E539" t="n">
-        <v>27.57987156378795</v>
+        <v>27.57987156378794</v>
       </c>
     </row>
     <row r="540">
@@ -14121,7 +14121,7 @@
         </is>
       </c>
       <c r="E540" t="n">
-        <v>51.88201397421754</v>
+        <v>51.88201397421756</v>
       </c>
     </row>
     <row r="541">
@@ -14146,7 +14146,7 @@
         </is>
       </c>
       <c r="E541" t="n">
-        <v>53.93230608069736</v>
+        <v>53.93230608069734</v>
       </c>
     </row>
     <row r="542">
@@ -14171,7 +14171,7 @@
         </is>
       </c>
       <c r="E542" t="n">
-        <v>8.528272930286391</v>
+        <v>8.528272930286413</v>
       </c>
     </row>
     <row r="543">
@@ -14196,7 +14196,7 @@
         </is>
       </c>
       <c r="E543" t="n">
-        <v>9.594007581560405</v>
+        <v>9.594007581560412</v>
       </c>
     </row>
     <row r="544">
@@ -14221,7 +14221,7 @@
         </is>
       </c>
       <c r="E544" t="n">
-        <v>10.49087037102704</v>
+        <v>10.49087037102702</v>
       </c>
     </row>
     <row r="545">
@@ -14246,7 +14246,7 @@
         </is>
       </c>
       <c r="E545" t="n">
-        <v>-0.308135551478081</v>
+        <v>-0.3081355514780668</v>
       </c>
     </row>
     <row r="546">
@@ -14271,7 +14271,7 @@
         </is>
       </c>
       <c r="E546" t="n">
-        <v>7.867191768259318</v>
+        <v>7.867191768259321</v>
       </c>
     </row>
     <row r="547">
@@ -14296,7 +14296,7 @@
         </is>
       </c>
       <c r="E547" t="n">
-        <v>10.7466790785835</v>
+        <v>10.74667907858345</v>
       </c>
     </row>
     <row r="548">
@@ -14321,7 +14321,7 @@
         </is>
       </c>
       <c r="E548" t="n">
-        <v>1.200758294952102</v>
+        <v>1.20075829495206</v>
       </c>
     </row>
     <row r="549">
@@ -14346,7 +14346,7 @@
         </is>
       </c>
       <c r="E549" t="n">
-        <v>10.05865955445599</v>
+        <v>10.05865955445595</v>
       </c>
     </row>
     <row r="550">
@@ -14371,7 +14371,7 @@
         </is>
       </c>
       <c r="E550" t="n">
-        <v>10.88184739478078</v>
+        <v>10.88184739478071</v>
       </c>
     </row>
     <row r="551">
@@ -14396,7 +14396,7 @@
         </is>
       </c>
       <c r="E551" t="n">
-        <v>7.324339905721693</v>
+        <v>7.324339905721715</v>
       </c>
     </row>
     <row r="552">
@@ -14421,7 +14421,7 @@
         </is>
       </c>
       <c r="E552" t="n">
-        <v>6.718330949384548</v>
+        <v>6.718330949384594</v>
       </c>
     </row>
     <row r="553">
@@ -14446,7 +14446,7 @@
         </is>
       </c>
       <c r="E553" t="n">
-        <v>10.05880257443428</v>
+        <v>10.05880257443424</v>
       </c>
     </row>
     <row r="554">
@@ -14471,7 +14471,7 @@
         </is>
       </c>
       <c r="E554" t="n">
-        <v>9.575111627473987</v>
+        <v>9.575111627473952</v>
       </c>
     </row>
     <row r="555">
@@ -14496,7 +14496,7 @@
         </is>
       </c>
       <c r="E555" t="n">
-        <v>12.49236268206913</v>
+        <v>12.49236268206921</v>
       </c>
     </row>
     <row r="556">
@@ -14521,7 +14521,7 @@
         </is>
       </c>
       <c r="E556" t="n">
-        <v>15.15344412686871</v>
+        <v>15.15344412686866</v>
       </c>
     </row>
     <row r="557">
@@ -14546,7 +14546,7 @@
         </is>
       </c>
       <c r="E557" t="n">
-        <v>6.514737610962854</v>
+        <v>6.514737610962872</v>
       </c>
     </row>
     <row r="558">
@@ -14571,7 +14571,7 @@
         </is>
       </c>
       <c r="E558" t="n">
-        <v>9.630079921689777</v>
+        <v>9.630079921689809</v>
       </c>
     </row>
     <row r="559">
@@ -14596,7 +14596,7 @@
         </is>
       </c>
       <c r="E559" t="n">
-        <v>11.4130379717954</v>
+        <v>11.41303797179541</v>
       </c>
     </row>
     <row r="560">
@@ -14621,7 +14621,7 @@
         </is>
       </c>
       <c r="E560" t="n">
-        <v>0.3715495147893861</v>
+        <v>0.3715495147894003</v>
       </c>
     </row>
     <row r="561">
@@ -14646,7 +14646,7 @@
         </is>
       </c>
       <c r="E561" t="n">
-        <v>5.645927576501997</v>
+        <v>5.645927576501983</v>
       </c>
     </row>
     <row r="562">
@@ -14696,7 +14696,7 @@
         </is>
       </c>
       <c r="E563" t="n">
-        <v>-0.1063236205746207</v>
+        <v>-0.1063236205746563</v>
       </c>
     </row>
     <row r="564">
@@ -14721,7 +14721,7 @@
         </is>
       </c>
       <c r="E564" t="n">
-        <v>8.986496216412931</v>
+        <v>8.98649621641291</v>
       </c>
     </row>
     <row r="565">
@@ -14746,7 +14746,7 @@
         </is>
       </c>
       <c r="E565" t="n">
-        <v>12.21300085912037</v>
+        <v>12.21300085912034</v>
       </c>
     </row>
     <row r="566">
@@ -14771,7 +14771,7 @@
         </is>
       </c>
       <c r="E566" t="n">
-        <v>6.537586370195729</v>
+        <v>6.537586370195697</v>
       </c>
     </row>
     <row r="567">
@@ -14821,7 +14821,7 @@
         </is>
       </c>
       <c r="E568" t="n">
-        <v>7.584314915055909</v>
+        <v>7.584314915055941</v>
       </c>
     </row>
     <row r="569">
@@ -14846,7 +14846,7 @@
         </is>
       </c>
       <c r="E569" t="n">
-        <v>2.437905459596983</v>
+        <v>2.437905459596976</v>
       </c>
     </row>
     <row r="570">
@@ -14871,7 +14871,7 @@
         </is>
       </c>
       <c r="E570" t="n">
-        <v>10.14908659849751</v>
+        <v>10.14908659849745</v>
       </c>
     </row>
     <row r="571">
@@ -14896,7 +14896,7 @@
         </is>
       </c>
       <c r="E571" t="n">
-        <v>11.65806258338066</v>
+        <v>11.65806258338061</v>
       </c>
     </row>
     <row r="572">
@@ -14921,7 +14921,7 @@
         </is>
       </c>
       <c r="E572" t="n">
-        <v>20.87564943125577</v>
+        <v>20.87564943125574</v>
       </c>
     </row>
     <row r="573">
@@ -14946,7 +14946,7 @@
         </is>
       </c>
       <c r="E573" t="n">
-        <v>25.61912272807578</v>
+        <v>25.61912272807574</v>
       </c>
     </row>
     <row r="574">
@@ -14971,7 +14971,7 @@
         </is>
       </c>
       <c r="E574" t="n">
-        <v>29.54128787372417</v>
+        <v>29.54128787372413</v>
       </c>
     </row>
     <row r="575">
@@ -14996,7 +14996,7 @@
         </is>
       </c>
       <c r="E575" t="n">
-        <v>4.873887898273757</v>
+        <v>4.873887898273711</v>
       </c>
     </row>
     <row r="576">
@@ -15021,7 +15021,7 @@
         </is>
       </c>
       <c r="E576" t="n">
-        <v>19.49139147805286</v>
+        <v>19.49139147805283</v>
       </c>
     </row>
     <row r="577">
@@ -15046,7 +15046,7 @@
         </is>
       </c>
       <c r="E577" t="n">
-        <v>24.12399694184784</v>
+        <v>24.12399694184783</v>
       </c>
     </row>
     <row r="578">
@@ -15071,7 +15071,7 @@
         </is>
       </c>
       <c r="E578" t="n">
-        <v>9.732135882754751</v>
+        <v>9.732135882754744</v>
       </c>
     </row>
     <row r="579">
@@ -15096,7 +15096,7 @@
         </is>
       </c>
       <c r="E579" t="n">
-        <v>31.32353625736728</v>
+        <v>31.32353625736732</v>
       </c>
     </row>
     <row r="580">
@@ -15121,7 +15121,7 @@
         </is>
       </c>
       <c r="E580" t="n">
-        <v>35.17654996571154</v>
+        <v>35.17654996571157</v>
       </c>
     </row>
     <row r="581">
@@ -15146,7 +15146,7 @@
         </is>
       </c>
       <c r="E581" t="n">
-        <v>38.43406477152491</v>
+        <v>38.43406477152488</v>
       </c>
     </row>
     <row r="582">
@@ -15171,7 +15171,7 @@
         </is>
       </c>
       <c r="E582" t="n">
-        <v>43.84625078012295</v>
+        <v>43.84625078012298</v>
       </c>
     </row>
     <row r="583">
@@ -15196,7 +15196,7 @@
         </is>
       </c>
       <c r="E583" t="n">
-        <v>41.81503425535853</v>
+        <v>41.81503425535843</v>
       </c>
     </row>
     <row r="584">
@@ -15221,7 +15221,7 @@
         </is>
       </c>
       <c r="E584" t="n">
-        <v>25.37446411963498</v>
+        <v>25.37446411963489</v>
       </c>
     </row>
     <row r="585">
@@ -15246,7 +15246,7 @@
         </is>
       </c>
       <c r="E585" t="n">
-        <v>34.47468140856844</v>
+        <v>34.47468140856842</v>
       </c>
     </row>
     <row r="586">
@@ -15296,7 +15296,7 @@
         </is>
       </c>
       <c r="E587" t="n">
-        <v>20.40694322809372</v>
+        <v>20.40694322809367</v>
       </c>
     </row>
     <row r="588">
@@ -15321,7 +15321,7 @@
         </is>
       </c>
       <c r="E588" t="n">
-        <v>24.02764701098407</v>
+        <v>24.02764701098404</v>
       </c>
     </row>
     <row r="589">
@@ -15346,7 +15346,7 @@
         </is>
       </c>
       <c r="E589" t="n">
-        <v>31.22127791874397</v>
+        <v>31.22127791874393</v>
       </c>
     </row>
     <row r="590">
@@ -15371,7 +15371,7 @@
         </is>
       </c>
       <c r="E590" t="n">
-        <v>4.204161388399733</v>
+        <v>4.204161388399676</v>
       </c>
     </row>
     <row r="591">
@@ -15396,7 +15396,7 @@
         </is>
       </c>
       <c r="E591" t="n">
-        <v>23.42605817739079</v>
+        <v>23.42605817739078</v>
       </c>
     </row>
     <row r="592">
@@ -15421,7 +15421,7 @@
         </is>
       </c>
       <c r="E592" t="n">
-        <v>29.84592745625358</v>
+        <v>29.84592745625352</v>
       </c>
     </row>
     <row r="593">
@@ -15446,7 +15446,7 @@
         </is>
       </c>
       <c r="E593" t="n">
-        <v>6.242791752126411</v>
+        <v>6.242791752126447</v>
       </c>
     </row>
     <row r="594">
@@ -15471,7 +15471,7 @@
         </is>
       </c>
       <c r="E594" t="n">
-        <v>36.65543037186889</v>
+        <v>36.6554303718689</v>
       </c>
     </row>
     <row r="595">
@@ -15496,7 +15496,7 @@
         </is>
       </c>
       <c r="E595" t="n">
-        <v>41.30581121963935</v>
+        <v>41.30581121963931</v>
       </c>
     </row>
     <row r="596">
@@ -15521,7 +15521,7 @@
         </is>
       </c>
       <c r="E596" t="n">
-        <v>33.19749909695386</v>
+        <v>33.19749909695378</v>
       </c>
     </row>
     <row r="597">
@@ -15546,7 +15546,7 @@
         </is>
       </c>
       <c r="E597" t="n">
-        <v>41.86466380045445</v>
+        <v>41.86466380045443</v>
       </c>
     </row>
     <row r="598">
@@ -15571,7 +15571,7 @@
         </is>
       </c>
       <c r="E598" t="n">
-        <v>46.63230995430749</v>
+        <v>46.63230995430747</v>
       </c>
     </row>
     <row r="599">
@@ -15596,7 +15596,7 @@
         </is>
       </c>
       <c r="E599" t="n">
-        <v>33.99953808925763</v>
+        <v>33.99953808925755</v>
       </c>
     </row>
     <row r="600">
@@ -15621,7 +15621,7 @@
         </is>
       </c>
       <c r="E600" t="n">
-        <v>51.67910038205919</v>
+        <v>51.67910038205915</v>
       </c>
     </row>
     <row r="601">
@@ -15646,7 +15646,7 @@
         </is>
       </c>
       <c r="E601" t="n">
-        <v>63.40149010389833</v>
+        <v>63.40149010389835</v>
       </c>
     </row>
     <row r="602">
@@ -15671,7 +15671,7 @@
         </is>
       </c>
       <c r="E602" t="n">
-        <v>14.28255637386277</v>
+        <v>14.28255637386279</v>
       </c>
     </row>
     <row r="603">
@@ -15696,7 +15696,7 @@
         </is>
       </c>
       <c r="E603" t="n">
-        <v>24.76128387579298</v>
+        <v>24.76128387579294</v>
       </c>
     </row>
     <row r="604">
@@ -15721,7 +15721,7 @@
         </is>
       </c>
       <c r="E604" t="n">
-        <v>26.45723530144228</v>
+        <v>26.45723530144222</v>
       </c>
     </row>
     <row r="605">
@@ -15746,7 +15746,7 @@
         </is>
       </c>
       <c r="E605" t="n">
-        <v>1.209338888925799</v>
+        <v>1.209338888925814</v>
       </c>
     </row>
     <row r="606">
@@ -15796,7 +15796,7 @@
         </is>
       </c>
       <c r="E607" t="n">
-        <v>23.71370433142772</v>
+        <v>23.71370433142771</v>
       </c>
     </row>
     <row r="608">
@@ -15821,7 +15821,7 @@
         </is>
       </c>
       <c r="E608" t="n">
-        <v>2.799031268697526</v>
+        <v>2.799031268697497</v>
       </c>
     </row>
     <row r="609">
@@ -15846,7 +15846,7 @@
         </is>
       </c>
       <c r="E609" t="n">
-        <v>32.83382523171048</v>
+        <v>32.83382523171041</v>
       </c>
     </row>
     <row r="610">
@@ -15871,7 +15871,7 @@
         </is>
       </c>
       <c r="E610" t="n">
-        <v>35.13086062349431</v>
+        <v>35.13086062349425</v>
       </c>
     </row>
     <row r="611">
@@ -15896,7 +15896,7 @@
         </is>
       </c>
       <c r="E611" t="n">
-        <v>31.90622138790903</v>
+        <v>31.90622138790904</v>
       </c>
     </row>
     <row r="612">
@@ -15921,7 +15921,7 @@
         </is>
       </c>
       <c r="E612" t="n">
-        <v>39.99554414388258</v>
+        <v>39.99554414388253</v>
       </c>
     </row>
     <row r="613">
@@ -15971,7 +15971,7 @@
         </is>
       </c>
       <c r="E614" t="n">
-        <v>18.7630999824587</v>
+        <v>18.76309998245873</v>
       </c>
     </row>
     <row r="615">
@@ -15996,7 +15996,7 @@
         </is>
       </c>
       <c r="E615" t="n">
-        <v>43.02791742996606</v>
+        <v>43.02791742996592</v>
       </c>
     </row>
     <row r="616">
@@ -16021,7 +16021,7 @@
         </is>
       </c>
       <c r="E616" t="n">
-        <v>46.92510961112626</v>
+        <v>46.92510961112636</v>
       </c>
     </row>
     <row r="617">
@@ -16046,7 +16046,7 @@
         </is>
       </c>
       <c r="E617" t="n">
-        <v>23.59012093952007</v>
+        <v>23.59012093952003</v>
       </c>
     </row>
     <row r="618">
@@ -16071,7 +16071,7 @@
         </is>
       </c>
       <c r="E618" t="n">
-        <v>37.5852158365842</v>
+        <v>37.58521583658428</v>
       </c>
     </row>
     <row r="619">
@@ -16096,7 +16096,7 @@
         </is>
       </c>
       <c r="E619" t="n">
-        <v>42.46400214127609</v>
+        <v>42.46400214127607</v>
       </c>
     </row>
     <row r="620">
@@ -16121,7 +16121,7 @@
         </is>
       </c>
       <c r="E620" t="n">
-        <v>7.874531652867564</v>
+        <v>7.874531652867585</v>
       </c>
     </row>
     <row r="621">
@@ -16146,7 +16146,7 @@
         </is>
       </c>
       <c r="E621" t="n">
-        <v>32.91974675230937</v>
+        <v>32.91974675230936</v>
       </c>
     </row>
     <row r="622">
@@ -16171,7 +16171,7 @@
         </is>
       </c>
       <c r="E622" t="n">
-        <v>38.08815030713583</v>
+        <v>38.08815030713581</v>
       </c>
     </row>
     <row r="623">
@@ -16196,7 +16196,7 @@
         </is>
       </c>
       <c r="E623" t="n">
-        <v>10.24324042738304</v>
+        <v>10.24324042738309</v>
       </c>
     </row>
     <row r="624">
@@ -16221,7 +16221,7 @@
         </is>
       </c>
       <c r="E624" t="n">
-        <v>56.49813109541185</v>
+        <v>56.49813109541179</v>
       </c>
     </row>
     <row r="625">
@@ -16246,7 +16246,7 @@
         </is>
       </c>
       <c r="E625" t="n">
-        <v>59.36416884158989</v>
+        <v>59.36416884158977</v>
       </c>
     </row>
     <row r="626">
@@ -16296,7 +16296,7 @@
         </is>
       </c>
       <c r="E627" t="n">
-        <v>70.46000845405101</v>
+        <v>70.46000845405106</v>
       </c>
     </row>
     <row r="628">
@@ -16321,7 +16321,7 @@
         </is>
       </c>
       <c r="E628" t="n">
-        <v>76.95407791964846</v>
+        <v>76.95407791964843</v>
       </c>
     </row>
     <row r="629">
@@ -16346,7 +16346,7 @@
         </is>
       </c>
       <c r="E629" t="n">
-        <v>31.8103635176683</v>
+        <v>31.81036351766828</v>
       </c>
     </row>
     <row r="630">
@@ -16371,7 +16371,7 @@
         </is>
       </c>
       <c r="E630" t="n">
-        <v>64.37703138692865</v>
+        <v>64.37703138692864</v>
       </c>
     </row>
     <row r="631">
@@ -16396,7 +16396,7 @@
         </is>
       </c>
       <c r="E631" t="n">
-        <v>71.02171697851813</v>
+        <v>71.02171697851816</v>
       </c>
     </row>
     <row r="632">
@@ -16471,7 +16471,7 @@
         </is>
       </c>
       <c r="E634" t="n">
-        <v>40.06825388275595</v>
+        <v>40.06825388275599</v>
       </c>
     </row>
     <row r="635">
@@ -16496,7 +16496,7 @@
         </is>
       </c>
       <c r="E635" t="n">
-        <v>11.27322183214437</v>
+        <v>11.27322183214434</v>
       </c>
     </row>
     <row r="636">
@@ -16521,7 +16521,7 @@
         </is>
       </c>
       <c r="E636" t="n">
-        <v>41.26327503625268</v>
+        <v>41.26327503625277</v>
       </c>
     </row>
     <row r="637">
@@ -16546,7 +16546,7 @@
         </is>
       </c>
       <c r="E637" t="n">
-        <v>45.37883045561973</v>
+        <v>45.37883045561979</v>
       </c>
     </row>
     <row r="638">
@@ -16571,7 +16571,7 @@
         </is>
       </c>
       <c r="E638" t="n">
-        <v>12.31075559320512</v>
+        <v>12.31075559320513</v>
       </c>
     </row>
     <row r="639">
@@ -16596,7 +16596,7 @@
         </is>
       </c>
       <c r="E639" t="n">
-        <v>56.97105317577039</v>
+        <v>56.97105317577038</v>
       </c>
     </row>
     <row r="640">
@@ -16621,7 +16621,7 @@
         </is>
       </c>
       <c r="E640" t="n">
-        <v>58.41084846432162</v>
+        <v>58.41084846432167</v>
       </c>
     </row>
     <row r="641">
@@ -16646,7 +16646,7 @@
         </is>
       </c>
       <c r="E641" t="n">
-        <v>64.50661145927225</v>
+        <v>64.50661145927224</v>
       </c>
     </row>
     <row r="642">
@@ -16671,7 +16671,7 @@
         </is>
       </c>
       <c r="E642" t="n">
-        <v>67.47386013198636</v>
+        <v>67.47386013198644</v>
       </c>
     </row>
     <row r="643">
@@ -16696,7 +16696,7 @@
         </is>
       </c>
       <c r="E643" t="n">
-        <v>66.70640910678081</v>
+        <v>66.70640910678085</v>
       </c>
     </row>
     <row r="644">
@@ -16771,7 +16771,7 @@
         </is>
       </c>
       <c r="E646" t="n">
-        <v>66.84916750550001</v>
+        <v>66.84916750549998</v>
       </c>
     </row>
     <row r="647">
@@ -16796,7 +16796,7 @@
         </is>
       </c>
       <c r="E647" t="n">
-        <v>18.29609859339139</v>
+        <v>18.29609859339136</v>
       </c>
     </row>
     <row r="648">
@@ -16821,7 +16821,7 @@
         </is>
       </c>
       <c r="E648" t="n">
-        <v>34.47052071788985</v>
+        <v>34.47052071788984</v>
       </c>
     </row>
     <row r="649">
@@ -16871,7 +16871,7 @@
         </is>
       </c>
       <c r="E650" t="n">
-        <v>8.724282827172853</v>
+        <v>8.724282827172907</v>
       </c>
     </row>
     <row r="651">
@@ -16896,7 +16896,7 @@
         </is>
       </c>
       <c r="E651" t="n">
-        <v>30.59205502586363</v>
+        <v>30.59205502586369</v>
       </c>
     </row>
     <row r="652">
@@ -16921,7 +16921,7 @@
         </is>
       </c>
       <c r="E652" t="n">
-        <v>38.07759009049499</v>
+        <v>38.07759009049498</v>
       </c>
     </row>
     <row r="653">
@@ -16946,7 +16946,7 @@
         </is>
       </c>
       <c r="E653" t="n">
-        <v>8.943540203133754</v>
+        <v>8.943540203133711</v>
       </c>
     </row>
     <row r="654">
@@ -16971,7 +16971,7 @@
         </is>
       </c>
       <c r="E654" t="n">
-        <v>47.17316290839455</v>
+        <v>47.17316290839453</v>
       </c>
     </row>
     <row r="655">
@@ -16996,7 +16996,7 @@
         </is>
       </c>
       <c r="E655" t="n">
-        <v>56.69986137206483</v>
+        <v>56.69986137206489</v>
       </c>
     </row>
     <row r="656">
@@ -17046,7 +17046,7 @@
         </is>
       </c>
       <c r="E657" t="n">
-        <v>53.68703536307527</v>
+        <v>53.6870353630752</v>
       </c>
     </row>
     <row r="658">
@@ -17071,7 +17071,7 @@
         </is>
       </c>
       <c r="E658" t="n">
-        <v>52.4772995831554</v>
+        <v>52.47729958315549</v>
       </c>
     </row>
     <row r="659">
@@ -17096,7 +17096,7 @@
         </is>
       </c>
       <c r="E659" t="n">
-        <v>17.88804770716352</v>
+        <v>17.88804770716354</v>
       </c>
     </row>
     <row r="660">
@@ -17121,7 +17121,7 @@
         </is>
       </c>
       <c r="E660" t="n">
-        <v>55.25978423636409</v>
+        <v>55.25978423636404</v>
       </c>
     </row>
     <row r="661">
@@ -17146,7 +17146,7 @@
         </is>
       </c>
       <c r="E661" t="n">
-        <v>60.54795462455871</v>
+        <v>60.54795462455861</v>
       </c>
     </row>
     <row r="662">
@@ -17196,7 +17196,7 @@
         </is>
       </c>
       <c r="E663" t="n">
-        <v>40.97020306718345</v>
+        <v>40.97020306718352</v>
       </c>
     </row>
     <row r="664">
@@ -17221,7 +17221,7 @@
         </is>
       </c>
       <c r="E664" t="n">
-        <v>45.34941903733112</v>
+        <v>45.34941903733119</v>
       </c>
     </row>
     <row r="665">
@@ -17246,7 +17246,7 @@
         </is>
       </c>
       <c r="E665" t="n">
-        <v>8.928285301303561</v>
+        <v>8.928285301303621</v>
       </c>
     </row>
     <row r="666">
@@ -17271,7 +17271,7 @@
         </is>
       </c>
       <c r="E666" t="n">
-        <v>39.16750672095056</v>
+        <v>39.16750672095063</v>
       </c>
     </row>
     <row r="667">
@@ -17321,7 +17321,7 @@
         </is>
       </c>
       <c r="E668" t="n">
-        <v>8.989896734470602</v>
+        <v>8.989896734470577</v>
       </c>
     </row>
     <row r="669">
@@ -17346,7 +17346,7 @@
         </is>
       </c>
       <c r="E669" t="n">
-        <v>58.5312838736432</v>
+        <v>58.53128387364326</v>
       </c>
     </row>
     <row r="670">
@@ -17396,7 +17396,7 @@
         </is>
       </c>
       <c r="E671" t="n">
-        <v>65.88312218069717</v>
+        <v>65.88312218069721</v>
       </c>
     </row>
     <row r="672">
@@ -17421,7 +17421,7 @@
         </is>
       </c>
       <c r="E672" t="n">
-        <v>75.7742062618622</v>
+        <v>75.77420626186228</v>
       </c>
     </row>
     <row r="673">
@@ -17446,7 +17446,7 @@
         </is>
       </c>
       <c r="E673" t="n">
-        <v>81.33588669355396</v>
+        <v>81.33588669355389</v>
       </c>
     </row>
     <row r="674">
@@ -17471,7 +17471,7 @@
         </is>
       </c>
       <c r="E674" t="n">
-        <v>19.3654894542069</v>
+        <v>19.36548945420692</v>
       </c>
     </row>
     <row r="675">
@@ -17496,7 +17496,7 @@
         </is>
       </c>
       <c r="E675" t="n">
-        <v>70.63916030913006</v>
+        <v>70.63916030913003</v>
       </c>
     </row>
     <row r="676">
@@ -17521,7 +17521,7 @@
         </is>
       </c>
       <c r="E676" t="n">
-        <v>76.80131570206342</v>
+        <v>76.80131570206339</v>
       </c>
     </row>
     <row r="677">
@@ -17571,7 +17571,7 @@
         </is>
       </c>
       <c r="E678" t="n">
-        <v>31.24905229371772</v>
+        <v>31.24905229371776</v>
       </c>
     </row>
     <row r="679">
@@ -17596,7 +17596,7 @@
         </is>
       </c>
       <c r="E679" t="n">
-        <v>36.92051190473797</v>
+        <v>36.92051190473799</v>
       </c>
     </row>
     <row r="680">
@@ -17621,7 +17621,7 @@
         </is>
       </c>
       <c r="E680" t="n">
-        <v>10.15584122218654</v>
+        <v>10.15584122218657</v>
       </c>
     </row>
     <row r="681">
@@ -17646,7 +17646,7 @@
         </is>
       </c>
       <c r="E681" t="n">
-        <v>41.81224352390959</v>
+        <v>41.81224352390964</v>
       </c>
     </row>
     <row r="682">
@@ -17671,7 +17671,7 @@
         </is>
       </c>
       <c r="E682" t="n">
-        <v>46.27826655910413</v>
+        <v>46.27826655910417</v>
       </c>
     </row>
     <row r="683">
@@ -17696,7 +17696,7 @@
         </is>
       </c>
       <c r="E683" t="n">
-        <v>11.95065642089859</v>
+        <v>11.95065642089849</v>
       </c>
     </row>
     <row r="684">
@@ -17721,7 +17721,7 @@
         </is>
       </c>
       <c r="E684" t="n">
-        <v>55.50077979727067</v>
+        <v>55.5007797972707</v>
       </c>
     </row>
     <row r="685">
@@ -17746,7 +17746,7 @@
         </is>
       </c>
       <c r="E685" t="n">
-        <v>56.87243962454552</v>
+        <v>56.87243962454544</v>
       </c>
     </row>
     <row r="686">
@@ -17771,7 +17771,7 @@
         </is>
       </c>
       <c r="E686" t="n">
-        <v>59.6984672516854</v>
+        <v>59.69846725168527</v>
       </c>
     </row>
     <row r="687">
@@ -17796,7 +17796,7 @@
         </is>
       </c>
       <c r="E687" t="n">
-        <v>61.8307654620624</v>
+        <v>61.83076546206249</v>
       </c>
     </row>
     <row r="688">
@@ -17821,7 +17821,7 @@
         </is>
       </c>
       <c r="E688" t="n">
-        <v>63.24791464477857</v>
+        <v>63.24791464477864</v>
       </c>
     </row>
     <row r="689">
@@ -17846,7 +17846,7 @@
         </is>
       </c>
       <c r="E689" t="n">
-        <v>24.93995828587243</v>
+        <v>24.93995828587235</v>
       </c>
     </row>
     <row r="690">
@@ -17871,7 +17871,7 @@
         </is>
       </c>
       <c r="E690" t="n">
-        <v>43.9469361817886</v>
+        <v>43.94693618178858</v>
       </c>
     </row>
     <row r="691">
@@ -17896,7 +17896,7 @@
         </is>
       </c>
       <c r="E691" t="n">
-        <v>63.240010855989</v>
+        <v>63.24001085598887</v>
       </c>
     </row>
     <row r="692">
@@ -17921,7 +17921,7 @@
         </is>
       </c>
       <c r="E692" t="n">
-        <v>24.64876682342935</v>
+        <v>24.64876682342937</v>
       </c>
     </row>
     <row r="693">
@@ -17946,7 +17946,7 @@
         </is>
       </c>
       <c r="E693" t="n">
-        <v>37.94666583358855</v>
+        <v>37.94666583358845</v>
       </c>
     </row>
     <row r="694">
@@ -17971,7 +17971,7 @@
         </is>
       </c>
       <c r="E694" t="n">
-        <v>39.99126494401638</v>
+        <v>39.99126494401644</v>
       </c>
     </row>
     <row r="695">
@@ -17996,7 +17996,7 @@
         </is>
       </c>
       <c r="E695" t="n">
-        <v>8.833685232934762</v>
+        <v>8.833685232934812</v>
       </c>
     </row>
     <row r="696">
@@ -18021,7 +18021,7 @@
         </is>
       </c>
       <c r="E696" t="n">
-        <v>35.70133412081859</v>
+        <v>35.70133412081864</v>
       </c>
     </row>
     <row r="697">
@@ -18046,7 +18046,7 @@
         </is>
       </c>
       <c r="E697" t="n">
-        <v>40.45174159700626</v>
+        <v>40.45174159700634</v>
       </c>
     </row>
     <row r="698">
@@ -18071,7 +18071,7 @@
         </is>
       </c>
       <c r="E698" t="n">
-        <v>7.861950759588503</v>
+        <v>7.861950759588559</v>
       </c>
     </row>
     <row r="699">
@@ -18096,7 +18096,7 @@
         </is>
       </c>
       <c r="E699" t="n">
-        <v>52.89074045578963</v>
+        <v>52.89074045578961</v>
       </c>
     </row>
     <row r="700">
@@ -18121,7 +18121,7 @@
         </is>
       </c>
       <c r="E700" t="n">
-        <v>60.44822954544048</v>
+        <v>60.44822954544063</v>
       </c>
     </row>
     <row r="701">
@@ -18146,7 +18146,7 @@
         </is>
       </c>
       <c r="E701" t="n">
-        <v>51.45969082687607</v>
+        <v>51.459690826876</v>
       </c>
     </row>
     <row r="702">
@@ -18171,7 +18171,7 @@
         </is>
       </c>
       <c r="E702" t="n">
-        <v>57.14590271807224</v>
+        <v>57.14590271807221</v>
       </c>
     </row>
     <row r="703">
@@ -18196,7 +18196,7 @@
         </is>
       </c>
       <c r="E703" t="n">
-        <v>57.87624024478707</v>
+        <v>57.87624024478714</v>
       </c>
     </row>
     <row r="704">
@@ -18221,7 +18221,7 @@
         </is>
       </c>
       <c r="E704" t="n">
-        <v>24.89220911261214</v>
+        <v>24.89220911261227</v>
       </c>
     </row>
     <row r="705">
@@ -18246,7 +18246,7 @@
         </is>
       </c>
       <c r="E705" t="n">
-        <v>61.99141014898449</v>
+        <v>61.99141014898478</v>
       </c>
     </row>
     <row r="706">
@@ -18271,7 +18271,7 @@
         </is>
       </c>
       <c r="E706" t="n">
-        <v>65.25609911991177</v>
+        <v>65.25609911991184</v>
       </c>
     </row>
     <row r="707">
@@ -18296,7 +18296,7 @@
         </is>
       </c>
       <c r="E707" t="n">
-        <v>26.77792646788471</v>
+        <v>26.7779264678847</v>
       </c>
     </row>
     <row r="708">
@@ -18321,7 +18321,7 @@
         </is>
       </c>
       <c r="E708" t="n">
-        <v>43.15156980780269</v>
+        <v>43.15156980780261</v>
       </c>
     </row>
     <row r="709">
@@ -18346,7 +18346,7 @@
         </is>
       </c>
       <c r="E709" t="n">
-        <v>46.75022372072883</v>
+        <v>46.75022372072884</v>
       </c>
     </row>
     <row r="710">
@@ -18371,7 +18371,7 @@
         </is>
       </c>
       <c r="E710" t="n">
-        <v>10.51576338616081</v>
+        <v>10.51576338616083</v>
       </c>
     </row>
     <row r="711">
@@ -18396,7 +18396,7 @@
         </is>
       </c>
       <c r="E711" t="n">
-        <v>43.49440042409996</v>
+        <v>43.49440042410004</v>
       </c>
     </row>
     <row r="712">
@@ -18421,7 +18421,7 @@
         </is>
       </c>
       <c r="E712" t="n">
-        <v>49.14617417456902</v>
+        <v>49.14617417456897</v>
       </c>
     </row>
     <row r="713">
@@ -18446,7 +18446,7 @@
         </is>
       </c>
       <c r="E713" t="n">
-        <v>9.137366030017688</v>
+        <v>9.137366030017745</v>
       </c>
     </row>
     <row r="714">
@@ -18471,7 +18471,7 @@
         </is>
       </c>
       <c r="E714" t="n">
-        <v>66.41662153591948</v>
+        <v>66.41662153591946</v>
       </c>
     </row>
     <row r="715">
@@ -18496,7 +18496,7 @@
         </is>
       </c>
       <c r="E715" t="n">
-        <v>69.68671638131204</v>
+        <v>69.68671638131195</v>
       </c>
     </row>
     <row r="716">
@@ -18521,7 +18521,7 @@
         </is>
       </c>
       <c r="E716" t="n">
-        <v>75.6885877457234</v>
+        <v>75.68858774572344</v>
       </c>
     </row>
     <row r="717">
@@ -18546,7 +18546,7 @@
         </is>
       </c>
       <c r="E717" t="n">
-        <v>80.32980883723755</v>
+        <v>80.32980883723756</v>
       </c>
     </row>
     <row r="718">
@@ -18571,7 +18571,7 @@
         </is>
       </c>
       <c r="E718" t="n">
-        <v>82.93612663623013</v>
+        <v>82.93612663623014</v>
       </c>
     </row>
     <row r="719">
@@ -18596,7 +18596,7 @@
         </is>
       </c>
       <c r="E719" t="n">
-        <v>27.59488639013108</v>
+        <v>27.59488639013115</v>
       </c>
     </row>
     <row r="720">
@@ -18621,7 +18621,7 @@
         </is>
       </c>
       <c r="E720" t="n">
-        <v>74.96573862318968</v>
+        <v>74.96573862318981</v>
       </c>
     </row>
     <row r="721">
@@ -18646,7 +18646,7 @@
         </is>
       </c>
       <c r="E721" t="n">
-        <v>78.83566642875647</v>
+        <v>78.83566642875658</v>
       </c>
     </row>
     <row r="722">
@@ -18671,7 +18671,7 @@
         </is>
       </c>
       <c r="E722" t="n">
-        <v>23.94762301879607</v>
+        <v>23.94762301879598</v>
       </c>
     </row>
     <row r="723">
@@ -18696,7 +18696,7 @@
         </is>
       </c>
       <c r="E723" t="n">
-        <v>26.18904945271095</v>
+        <v>26.18904945271087</v>
       </c>
     </row>
     <row r="724">
@@ -18721,7 +18721,7 @@
         </is>
       </c>
       <c r="E724" t="n">
-        <v>31.21443034807286</v>
+        <v>31.21443034807297</v>
       </c>
     </row>
     <row r="725">
@@ -18746,7 +18746,7 @@
         </is>
       </c>
       <c r="E725" t="n">
-        <v>15.70786716885429</v>
+        <v>15.70786716885428</v>
       </c>
     </row>
     <row r="726">
@@ -18771,7 +18771,7 @@
         </is>
       </c>
       <c r="E726" t="n">
-        <v>56.43648474454677</v>
+        <v>56.43648474454675</v>
       </c>
     </row>
     <row r="727">
@@ -18796,7 +18796,7 @@
         </is>
       </c>
       <c r="E727" t="n">
-        <v>55.66261260496722</v>
+        <v>55.66261260496728</v>
       </c>
     </row>
     <row r="728">
@@ -18871,7 +18871,7 @@
         </is>
       </c>
       <c r="E730" t="n">
-        <v>53.97060039399314</v>
+        <v>53.97060039399312</v>
       </c>
     </row>
     <row r="731">
@@ -18896,7 +18896,7 @@
         </is>
       </c>
       <c r="E731" t="n">
-        <v>60.60362839645676</v>
+        <v>60.60362839645667</v>
       </c>
     </row>
     <row r="732">
@@ -18921,7 +18921,7 @@
         </is>
       </c>
       <c r="E732" t="n">
-        <v>62.90211690532377</v>
+        <v>62.90211690532371</v>
       </c>
     </row>
     <row r="733">
@@ -18946,7 +18946,7 @@
         </is>
       </c>
       <c r="E733" t="n">
-        <v>62.51196580818298</v>
+        <v>62.51196580818284</v>
       </c>
     </row>
     <row r="734">
@@ -18971,7 +18971,7 @@
         </is>
       </c>
       <c r="E734" t="n">
-        <v>28.79003140248642</v>
+        <v>28.79003140248648</v>
       </c>
     </row>
     <row r="735">
@@ -18996,7 +18996,7 @@
         </is>
       </c>
       <c r="E735" t="n">
-        <v>44.19103673792414</v>
+        <v>44.19103673792415</v>
       </c>
     </row>
     <row r="736">
@@ -19021,7 +19021,7 @@
         </is>
       </c>
       <c r="E736" t="n">
-        <v>59.53417370042493</v>
+        <v>59.53417370042506</v>
       </c>
     </row>
     <row r="737">
@@ -19046,7 +19046,7 @@
         </is>
       </c>
       <c r="E737" t="n">
-        <v>26.01635535559313</v>
+        <v>26.01635535559314</v>
       </c>
     </row>
     <row r="738">
@@ -19071,7 +19071,7 @@
         </is>
       </c>
       <c r="E738" t="n">
-        <v>35.20309085875284</v>
+        <v>35.20309085875289</v>
       </c>
     </row>
     <row r="739">
@@ -19096,7 +19096,7 @@
         </is>
       </c>
       <c r="E739" t="n">
-        <v>37.45303485974462</v>
+        <v>37.45303485974463</v>
       </c>
     </row>
     <row r="740">
@@ -19121,7 +19121,7 @@
         </is>
       </c>
       <c r="E740" t="n">
-        <v>36.10526021281458</v>
+        <v>36.10526021281461</v>
       </c>
     </row>
     <row r="741">
@@ -19146,7 +19146,7 @@
         </is>
       </c>
       <c r="E741" t="n">
-        <v>51.289854029426</v>
+        <v>51.28985402942604</v>
       </c>
     </row>
     <row r="742">
@@ -19171,7 +19171,7 @@
         </is>
       </c>
       <c r="E742" t="n">
-        <v>55.54327574311974</v>
+        <v>55.54327574311976</v>
       </c>
     </row>
     <row r="743">
@@ -19196,7 +19196,7 @@
         </is>
       </c>
       <c r="E743" t="n">
-        <v>10.73313614789745</v>
+        <v>10.73313614789741</v>
       </c>
     </row>
     <row r="744">
@@ -19221,7 +19221,7 @@
         </is>
       </c>
       <c r="E744" t="n">
-        <v>51.93956646508916</v>
+        <v>51.93956646508921</v>
       </c>
     </row>
     <row r="745">
@@ -19246,7 +19246,7 @@
         </is>
       </c>
       <c r="E745" t="n">
-        <v>58.01403083438292</v>
+        <v>58.01403083438285</v>
       </c>
     </row>
     <row r="746">
@@ -19271,7 +19271,7 @@
         </is>
       </c>
       <c r="E746" t="n">
-        <v>49.40992523629998</v>
+        <v>49.40992523629991</v>
       </c>
     </row>
     <row r="747">
@@ -19296,7 +19296,7 @@
         </is>
       </c>
       <c r="E747" t="n">
-        <v>56.40308310994253</v>
+        <v>56.40308310994259</v>
       </c>
     </row>
     <row r="748">
@@ -19321,7 +19321,7 @@
         </is>
       </c>
       <c r="E748" t="n">
-        <v>55.09651228518034</v>
+        <v>55.0965122851803</v>
       </c>
     </row>
     <row r="749">
@@ -19346,7 +19346,7 @@
         </is>
       </c>
       <c r="E749" t="n">
-        <v>30.74193844427845</v>
+        <v>30.74193844427847</v>
       </c>
     </row>
     <row r="750">
@@ -19371,7 +19371,7 @@
         </is>
       </c>
       <c r="E750" t="n">
-        <v>59.94698456439141</v>
+        <v>59.9469845643914</v>
       </c>
     </row>
     <row r="751">
@@ -19396,7 +19396,7 @@
         </is>
       </c>
       <c r="E751" t="n">
-        <v>63.36178680670741</v>
+        <v>63.36178680670747</v>
       </c>
     </row>
     <row r="752">
@@ -19421,7 +19421,7 @@
         </is>
       </c>
       <c r="E752" t="n">
-        <v>30.11906586185742</v>
+        <v>30.1190658618574</v>
       </c>
     </row>
     <row r="753">
@@ -19471,7 +19471,7 @@
         </is>
       </c>
       <c r="E754" t="n">
-        <v>45.72856341409004</v>
+        <v>45.72856341409001</v>
       </c>
     </row>
     <row r="755">
@@ -19496,7 +19496,7 @@
         </is>
       </c>
       <c r="E755" t="n">
-        <v>37.5702393810769</v>
+        <v>37.57023938107693</v>
       </c>
     </row>
     <row r="756">
@@ -19521,7 +19521,7 @@
         </is>
       </c>
       <c r="E756" t="n">
-        <v>57.21733624357664</v>
+        <v>57.21733624357659</v>
       </c>
     </row>
     <row r="757">
@@ -19546,7 +19546,7 @@
         </is>
       </c>
       <c r="E757" t="n">
-        <v>59.66775831696734</v>
+        <v>59.66775831696735</v>
       </c>
     </row>
     <row r="758">
@@ -19571,7 +19571,7 @@
         </is>
       </c>
       <c r="E758" t="n">
-        <v>11.48450405595693</v>
+        <v>11.4845040559569</v>
       </c>
     </row>
     <row r="759">
@@ -19596,7 +19596,7 @@
         </is>
       </c>
       <c r="E759" t="n">
-        <v>66.50178200103907</v>
+        <v>66.50178200103895</v>
       </c>
     </row>
     <row r="760">
@@ -19696,7 +19696,7 @@
         </is>
       </c>
       <c r="E763" t="n">
-        <v>84.62113884180205</v>
+        <v>84.62113884180195</v>
       </c>
     </row>
     <row r="764">
@@ -19721,7 +19721,7 @@
         </is>
       </c>
       <c r="E764" t="n">
-        <v>37.90397876001728</v>
+        <v>37.90397876001734</v>
       </c>
     </row>
     <row r="765">
@@ -19746,7 +19746,7 @@
         </is>
       </c>
       <c r="E765" t="n">
-        <v>75.60253672122035</v>
+        <v>75.60253672122042</v>
       </c>
     </row>
     <row r="766">
@@ -19771,7 +19771,7 @@
         </is>
       </c>
       <c r="E766" t="n">
-        <v>80.8274829871639</v>
+        <v>80.82748298716396</v>
       </c>
     </row>
     <row r="767">
@@ -19796,7 +19796,7 @@
         </is>
       </c>
       <c r="E767" t="n">
-        <v>18.32383787121221</v>
+        <v>18.32383787121226</v>
       </c>
     </row>
     <row r="768">
@@ -19821,7 +19821,7 @@
         </is>
       </c>
       <c r="E768" t="n">
-        <v>31.28345111073471</v>
+        <v>31.28345111073473</v>
       </c>
     </row>
     <row r="769">
@@ -19846,7 +19846,7 @@
         </is>
       </c>
       <c r="E769" t="n">
-        <v>36.68459574486082</v>
+        <v>36.68459574486079</v>
       </c>
     </row>
     <row r="770">
@@ -19871,7 +19871,7 @@
         </is>
       </c>
       <c r="E770" t="n">
-        <v>4.887192019479794</v>
+        <v>4.887192019479784</v>
       </c>
     </row>
     <row r="771">
@@ -19896,7 +19896,7 @@
         </is>
       </c>
       <c r="E771" t="n">
-        <v>26.06594184392613</v>
+        <v>26.06594184392612</v>
       </c>
     </row>
     <row r="772">
@@ -19921,7 +19921,7 @@
         </is>
       </c>
       <c r="E772" t="n">
-        <v>41.80496973292622</v>
+        <v>41.80496973292624</v>
       </c>
     </row>
     <row r="773">
@@ -19946,7 +19946,7 @@
         </is>
       </c>
       <c r="E773" t="n">
-        <v>5.509983170632353</v>
+        <v>5.509983170632317</v>
       </c>
     </row>
     <row r="774">
@@ -19971,7 +19971,7 @@
         </is>
       </c>
       <c r="E774" t="n">
-        <v>51.14377160256537</v>
+        <v>51.14377160256542</v>
       </c>
     </row>
     <row r="775">
@@ -19996,7 +19996,7 @@
         </is>
       </c>
       <c r="E775" t="n">
-        <v>55.88929014635827</v>
+        <v>55.88929014635833</v>
       </c>
     </row>
     <row r="776">
@@ -20021,7 +20021,7 @@
         </is>
       </c>
       <c r="E776" t="n">
-        <v>57.06719969086809</v>
+        <v>57.06719969086807</v>
       </c>
     </row>
     <row r="777">
@@ -20046,7 +20046,7 @@
         </is>
       </c>
       <c r="E777" t="n">
-        <v>60.70698916349217</v>
+        <v>60.70698916349214</v>
       </c>
     </row>
     <row r="778">
@@ -20071,7 +20071,7 @@
         </is>
       </c>
       <c r="E778" t="n">
-        <v>62.79512117621579</v>
+        <v>62.79512117621577</v>
       </c>
     </row>
     <row r="779">
@@ -20096,7 +20096,7 @@
         </is>
       </c>
       <c r="E779" t="n">
-        <v>15.12008699855341</v>
+        <v>15.12008699855338</v>
       </c>
     </row>
     <row r="780">
@@ -20121,7 +20121,7 @@
         </is>
       </c>
       <c r="E780" t="n">
-        <v>56.72328369444013</v>
+        <v>56.72328369444016</v>
       </c>
     </row>
     <row r="781">
@@ -20146,7 +20146,7 @@
         </is>
       </c>
       <c r="E781" t="n">
-        <v>63.80966611156705</v>
+        <v>63.80966611156708</v>
       </c>
     </row>
     <row r="782">
@@ -20171,7 +20171,7 @@
         </is>
       </c>
       <c r="E782" t="n">
-        <v>15.55419548932066</v>
+        <v>15.5541954893207</v>
       </c>
     </row>
     <row r="783">
@@ -20196,7 +20196,7 @@
         </is>
       </c>
       <c r="E783" t="n">
-        <v>32.7158433804501</v>
+        <v>32.71584338045011</v>
       </c>
     </row>
     <row r="784">
@@ -20221,7 +20221,7 @@
         </is>
       </c>
       <c r="E784" t="n">
-        <v>35.23538898988721</v>
+        <v>35.23538898988727</v>
       </c>
     </row>
     <row r="785">
@@ -20246,7 +20246,7 @@
         </is>
       </c>
       <c r="E785" t="n">
-        <v>3.274944288148742</v>
+        <v>3.274944288148749</v>
       </c>
     </row>
     <row r="786">
@@ -20271,7 +20271,7 @@
         </is>
       </c>
       <c r="E786" t="n">
-        <v>27.88254460694744</v>
+        <v>27.88254460694749</v>
       </c>
     </row>
     <row r="787">
@@ -20296,7 +20296,7 @@
         </is>
       </c>
       <c r="E787" t="n">
-        <v>33.21944842405566</v>
+        <v>33.21944842405565</v>
       </c>
     </row>
     <row r="788">
@@ -20321,7 +20321,7 @@
         </is>
       </c>
       <c r="E788" t="n">
-        <v>3.318463452449233</v>
+        <v>3.318463452449201</v>
       </c>
     </row>
     <row r="789">
@@ -20346,7 +20346,7 @@
         </is>
       </c>
       <c r="E789" t="n">
-        <v>45.45302487090895</v>
+        <v>45.45302487090905</v>
       </c>
     </row>
     <row r="790">
@@ -20371,7 +20371,7 @@
         </is>
       </c>
       <c r="E790" t="n">
-        <v>52.95695170534547</v>
+        <v>52.9569517053455</v>
       </c>
     </row>
     <row r="791">
@@ -20396,7 +20396,7 @@
         </is>
       </c>
       <c r="E791" t="n">
-        <v>41.5297182503046</v>
+        <v>41.52971825030457</v>
       </c>
     </row>
     <row r="792">
@@ -20421,7 +20421,7 @@
         </is>
       </c>
       <c r="E792" t="n">
-        <v>49.86669975293051</v>
+        <v>49.86669975293054</v>
       </c>
     </row>
     <row r="793">
@@ -20446,7 +20446,7 @@
         </is>
       </c>
       <c r="E793" t="n">
-        <v>49.45015912292226</v>
+        <v>49.45015912292236</v>
       </c>
     </row>
     <row r="794">
@@ -20471,7 +20471,7 @@
         </is>
       </c>
       <c r="E794" t="n">
-        <v>8.398927745487438</v>
+        <v>8.398927745487406</v>
       </c>
     </row>
     <row r="795">
@@ -20496,7 +20496,7 @@
         </is>
       </c>
       <c r="E795" t="n">
-        <v>42.81546287340926</v>
+        <v>42.81546287340936</v>
       </c>
     </row>
     <row r="796">
@@ -20521,7 +20521,7 @@
         </is>
       </c>
       <c r="E796" t="n">
-        <v>55.92215365954478</v>
+        <v>55.92215365954489</v>
       </c>
     </row>
     <row r="797">
@@ -20546,7 +20546,7 @@
         </is>
       </c>
       <c r="E797" t="n">
-        <v>16.54661262826355</v>
+        <v>16.54661262826356</v>
       </c>
     </row>
     <row r="798">
@@ -20571,7 +20571,7 @@
         </is>
       </c>
       <c r="E798" t="n">
-        <v>36.37115200380318</v>
+        <v>36.37115200380313</v>
       </c>
     </row>
     <row r="799">
@@ -20596,7 +20596,7 @@
         </is>
       </c>
       <c r="E799" t="n">
-        <v>42.23677121961347</v>
+        <v>42.23677121961349</v>
       </c>
     </row>
     <row r="800">
@@ -20621,7 +20621,7 @@
         </is>
       </c>
       <c r="E800" t="n">
-        <v>3.62817390607411</v>
+        <v>3.628173906074142</v>
       </c>
     </row>
     <row r="801">
@@ -20646,7 +20646,7 @@
         </is>
       </c>
       <c r="E801" t="n">
-        <v>35.83285726242753</v>
+        <v>35.83285726242755</v>
       </c>
     </row>
     <row r="802">
@@ -20671,7 +20671,7 @@
         </is>
       </c>
       <c r="E802" t="n">
-        <v>43.72188497684933</v>
+        <v>43.72188497684932</v>
       </c>
     </row>
     <row r="803">
@@ -20696,7 +20696,7 @@
         </is>
       </c>
       <c r="E803" t="n">
-        <v>3.673742856972197</v>
+        <v>3.67374285697219</v>
       </c>
     </row>
     <row r="804">
@@ -20721,7 +20721,7 @@
         </is>
       </c>
       <c r="E804" t="n">
-        <v>54.36440316871917</v>
+        <v>54.36440316871914</v>
       </c>
     </row>
     <row r="805">
@@ -20746,7 +20746,7 @@
         </is>
       </c>
       <c r="E805" t="n">
-        <v>63.11613035546751</v>
+        <v>63.11613035546752</v>
       </c>
     </row>
     <row r="806">
@@ -20771,7 +20771,7 @@
         </is>
       </c>
       <c r="E806" t="n">
-        <v>62.72986202908687</v>
+        <v>62.7298620290869</v>
       </c>
     </row>
     <row r="807">
@@ -20796,7 +20796,7 @@
         </is>
       </c>
       <c r="E807" t="n">
-        <v>74.25966711832291</v>
+        <v>74.25966711832295</v>
       </c>
     </row>
     <row r="808">
@@ -20821,7 +20821,7 @@
         </is>
       </c>
       <c r="E808" t="n">
-        <v>79.33567645398938</v>
+        <v>79.33567645398921</v>
       </c>
     </row>
     <row r="809">
@@ -20846,7 +20846,7 @@
         </is>
       </c>
       <c r="E809" t="n">
-        <v>7.793227714822798</v>
+        <v>7.793227714822748</v>
       </c>
     </row>
     <row r="810">
@@ -20871,7 +20871,7 @@
         </is>
       </c>
       <c r="E810" t="n">
-        <v>66.2820948621829</v>
+        <v>66.28209486218287</v>
       </c>
     </row>
     <row r="811">
@@ -20896,7 +20896,7 @@
         </is>
       </c>
       <c r="E811" t="n">
-        <v>75.51752880045504</v>
+        <v>75.51752880045507</v>
       </c>
     </row>
     <row r="812">
@@ -20946,7 +20946,7 @@
         </is>
       </c>
       <c r="E813" t="n">
-        <v>17.57407677280179</v>
+        <v>17.57407677280172</v>
       </c>
     </row>
     <row r="814">
@@ -20971,7 +20971,7 @@
         </is>
       </c>
       <c r="E814" t="n">
-        <v>19.50750143883877</v>
+        <v>19.50750143883875</v>
       </c>
     </row>
     <row r="815">
@@ -20996,7 +20996,7 @@
         </is>
       </c>
       <c r="E815" t="n">
-        <v>5.843388620152155</v>
+        <v>5.843388620152108</v>
       </c>
     </row>
     <row r="816">
@@ -21046,7 +21046,7 @@
         </is>
       </c>
       <c r="E817" t="n">
-        <v>23.20307801443665</v>
+        <v>23.20307801443656</v>
       </c>
     </row>
     <row r="818">
@@ -21071,7 +21071,7 @@
         </is>
       </c>
       <c r="E818" t="n">
-        <v>9.863034867785984</v>
+        <v>9.863034867785931</v>
       </c>
     </row>
     <row r="819">
@@ -21096,7 +21096,7 @@
         </is>
       </c>
       <c r="E819" t="n">
-        <v>28.91367631594877</v>
+        <v>28.91367631594884</v>
       </c>
     </row>
     <row r="820">
@@ -21121,7 +21121,7 @@
         </is>
       </c>
       <c r="E820" t="n">
-        <v>30.04991200018148</v>
+        <v>30.0499120001815</v>
       </c>
     </row>
     <row r="821">
@@ -21146,7 +21146,7 @@
         </is>
       </c>
       <c r="E821" t="n">
-        <v>24.74687001381636</v>
+        <v>24.74687001381629</v>
       </c>
     </row>
     <row r="822">
@@ -21171,7 +21171,7 @@
         </is>
       </c>
       <c r="E822" t="n">
-        <v>29.14357927194652</v>
+        <v>29.14357927194654</v>
       </c>
     </row>
     <row r="823">
@@ -21196,7 +21196,7 @@
         </is>
       </c>
       <c r="E823" t="n">
-        <v>31.46316924426754</v>
+        <v>31.46316924426753</v>
       </c>
     </row>
     <row r="824">
@@ -21221,7 +21221,7 @@
         </is>
       </c>
       <c r="E824" t="n">
-        <v>21.06815771830025</v>
+        <v>21.06815771830017</v>
       </c>
     </row>
     <row r="825">
@@ -21246,7 +21246,7 @@
         </is>
       </c>
       <c r="E825" t="n">
-        <v>24.90907059582727</v>
+        <v>24.90907059582729</v>
       </c>
     </row>
     <row r="826">
@@ -21271,7 +21271,7 @@
         </is>
       </c>
       <c r="E826" t="n">
-        <v>30.08841445118543</v>
+        <v>30.08841445118544</v>
       </c>
     </row>
     <row r="827">
@@ -21321,7 +21321,7 @@
         </is>
       </c>
       <c r="E828" t="n">
-        <v>30.01680829421375</v>
+        <v>30.01680829421371</v>
       </c>
     </row>
     <row r="829">
@@ -21346,7 +21346,7 @@
         </is>
       </c>
       <c r="E829" t="n">
-        <v>35.78814598803223</v>
+        <v>35.78814598803221</v>
       </c>
     </row>
     <row r="830">
@@ -21371,7 +21371,7 @@
         </is>
       </c>
       <c r="E830" t="n">
-        <v>9.95082758770641</v>
+        <v>9.950827587706399</v>
       </c>
     </row>
     <row r="831">
@@ -21396,7 +21396,7 @@
         </is>
       </c>
       <c r="E831" t="n">
-        <v>30.07979275922557</v>
+        <v>30.07979275922554</v>
       </c>
     </row>
     <row r="832">
@@ -21471,7 +21471,7 @@
         </is>
       </c>
       <c r="E834" t="n">
-        <v>44.53718269799548</v>
+        <v>44.53718269799551</v>
       </c>
     </row>
     <row r="835">
@@ -21496,7 +21496,7 @@
         </is>
       </c>
       <c r="E835" t="n">
-        <v>56.75444532370029</v>
+        <v>56.75444532370027</v>
       </c>
     </row>
     <row r="836">
@@ -21521,7 +21521,7 @@
         </is>
       </c>
       <c r="E836" t="n">
-        <v>41.75393363319301</v>
+        <v>41.753933633193</v>
       </c>
     </row>
     <row r="837">
@@ -21546,7 +21546,7 @@
         </is>
       </c>
       <c r="E837" t="n">
-        <v>46.8236056380603</v>
+        <v>46.82360563806029</v>
       </c>
     </row>
     <row r="838">
@@ -21571,7 +21571,7 @@
         </is>
       </c>
       <c r="E838" t="n">
-        <v>55.18165024769928</v>
+        <v>55.1816502476992</v>
       </c>
     </row>
     <row r="839">
@@ -21596,7 +21596,7 @@
         </is>
       </c>
       <c r="E839" t="n">
-        <v>15.36933282801667</v>
+        <v>15.36933282801666</v>
       </c>
     </row>
     <row r="840">
@@ -21621,7 +21621,7 @@
         </is>
       </c>
       <c r="E840" t="n">
-        <v>47.054932550756</v>
+        <v>47.05493255075601</v>
       </c>
     </row>
     <row r="841">
@@ -21646,7 +21646,7 @@
         </is>
       </c>
       <c r="E841" t="n">
-        <v>55.29280371232501</v>
+        <v>55.29280371232508</v>
       </c>
     </row>
     <row r="842">
@@ -21671,7 +21671,7 @@
         </is>
       </c>
       <c r="E842" t="n">
-        <v>21.39121953866812</v>
+        <v>21.39121953866811</v>
       </c>
     </row>
     <row r="843">
@@ -21696,7 +21696,7 @@
         </is>
       </c>
       <c r="E843" t="n">
-        <v>36.11361475760702</v>
+        <v>36.11361475760699</v>
       </c>
     </row>
     <row r="844">
@@ -21721,7 +21721,7 @@
         </is>
       </c>
       <c r="E844" t="n">
-        <v>44.78124373140516</v>
+        <v>44.78124373140518</v>
       </c>
     </row>
     <row r="845">
@@ -21746,7 +21746,7 @@
         </is>
       </c>
       <c r="E845" t="n">
-        <v>9.271849240416724</v>
+        <v>9.271849240416753</v>
       </c>
     </row>
     <row r="846">
@@ -21796,7 +21796,7 @@
         </is>
       </c>
       <c r="E847" t="n">
-        <v>47.21070197406141</v>
+        <v>47.21070197406138</v>
       </c>
     </row>
     <row r="848">
@@ -21821,7 +21821,7 @@
         </is>
       </c>
       <c r="E848" t="n">
-        <v>14.37727437938066</v>
+        <v>14.37727437938064</v>
       </c>
     </row>
     <row r="849">
@@ -21846,7 +21846,7 @@
         </is>
       </c>
       <c r="E849" t="n">
-        <v>55.18338331254339</v>
+        <v>55.18338331254347</v>
       </c>
     </row>
     <row r="850">
@@ -21871,7 +21871,7 @@
         </is>
       </c>
       <c r="E850" t="n">
-        <v>67.48967959055383</v>
+        <v>67.48967959055389</v>
       </c>
     </row>
     <row r="851">
@@ -21896,7 +21896,7 @@
         </is>
       </c>
       <c r="E851" t="n">
-        <v>55.68290196775825</v>
+        <v>55.68290196775821</v>
       </c>
     </row>
     <row r="852">
@@ -21921,7 +21921,7 @@
         </is>
       </c>
       <c r="E852" t="n">
-        <v>61.04677691316097</v>
+        <v>61.04677691316091</v>
       </c>
     </row>
     <row r="853">
@@ -21946,7 +21946,7 @@
         </is>
       </c>
       <c r="E853" t="n">
-        <v>78.93171526414537</v>
+        <v>78.93171526414532</v>
       </c>
     </row>
     <row r="854">
@@ -22021,7 +22021,7 @@
         </is>
       </c>
       <c r="E856" t="n">
-        <v>74.23265448662903</v>
+        <v>74.23265448662913</v>
       </c>
     </row>
     <row r="857">
@@ -22046,7 +22046,7 @@
         </is>
       </c>
       <c r="E857" t="n">
-        <v>16.41608243651957</v>
+        <v>16.41608243651949</v>
       </c>
     </row>
     <row r="858">
@@ -22071,7 +22071,7 @@
         </is>
       </c>
       <c r="E858" t="n">
-        <v>16.47673774018421</v>
+        <v>16.4767377401841</v>
       </c>
     </row>
     <row r="859">
@@ -22096,7 +22096,7 @@
         </is>
       </c>
       <c r="E859" t="n">
-        <v>19.97468535770565</v>
+        <v>19.97468535770568</v>
       </c>
     </row>
     <row r="860">
@@ -22121,7 +22121,7 @@
         </is>
       </c>
       <c r="E860" t="n">
-        <v>1.627378767158731</v>
+        <v>1.627378767158667</v>
       </c>
     </row>
     <row r="861">
@@ -22146,7 +22146,7 @@
         </is>
       </c>
       <c r="E861" t="n">
-        <v>27.31948225062022</v>
+        <v>27.31948225062024</v>
       </c>
     </row>
     <row r="862">
@@ -22171,7 +22171,7 @@
         </is>
       </c>
       <c r="E862" t="n">
-        <v>30.02239753002885</v>
+        <v>30.02239753002875</v>
       </c>
     </row>
     <row r="863">
@@ -22196,7 +22196,7 @@
         </is>
       </c>
       <c r="E863" t="n">
-        <v>3.021305012661763</v>
+        <v>3.021305012661845</v>
       </c>
     </row>
     <row r="864">
@@ -22221,7 +22221,7 @@
         </is>
       </c>
       <c r="E864" t="n">
-        <v>37.21178114064939</v>
+        <v>37.21178114064932</v>
       </c>
     </row>
     <row r="865">
@@ -22246,7 +22246,7 @@
         </is>
       </c>
       <c r="E865" t="n">
-        <v>36.24117394175224</v>
+        <v>36.24117394175211</v>
       </c>
     </row>
     <row r="866">
@@ -22271,7 +22271,7 @@
         </is>
       </c>
       <c r="E866" t="n">
-        <v>32.78305737846006</v>
+        <v>32.78305737846011</v>
       </c>
     </row>
     <row r="867">
@@ -22296,7 +22296,7 @@
         </is>
       </c>
       <c r="E867" t="n">
-        <v>40.57816083205236</v>
+        <v>40.57816083205241</v>
       </c>
     </row>
     <row r="868">
@@ -22321,7 +22321,7 @@
         </is>
       </c>
       <c r="E868" t="n">
-        <v>45.43572093260777</v>
+        <v>45.43572093260791</v>
       </c>
     </row>
     <row r="869">
@@ -22346,7 +22346,7 @@
         </is>
       </c>
       <c r="E869" t="n">
-        <v>20.60308119588619</v>
+        <v>20.60308119588636</v>
       </c>
     </row>
     <row r="870">
@@ -22371,7 +22371,7 @@
         </is>
       </c>
       <c r="E870" t="n">
-        <v>38.12246063876287</v>
+        <v>38.12246063876285</v>
       </c>
     </row>
     <row r="871">
@@ -22396,7 +22396,7 @@
         </is>
       </c>
       <c r="E871" t="n">
-        <v>48.08488972716331</v>
+        <v>48.08488972716326</v>
       </c>
     </row>
     <row r="872">
@@ -22421,7 +22421,7 @@
         </is>
       </c>
       <c r="E872" t="n">
-        <v>9.154433450480429</v>
+        <v>9.15443345048044</v>
       </c>
     </row>
     <row r="873">
@@ -22446,7 +22446,7 @@
         </is>
       </c>
       <c r="E873" t="n">
-        <v>19.18982973189296</v>
+        <v>19.18982973189302</v>
       </c>
     </row>
     <row r="874">
@@ -22471,7 +22471,7 @@
         </is>
       </c>
       <c r="E874" t="n">
-        <v>29.80908838660083</v>
+        <v>29.80908838660079</v>
       </c>
     </row>
     <row r="875">
@@ -22496,7 +22496,7 @@
         </is>
       </c>
       <c r="E875" t="n">
-        <v>8.084877971518885</v>
+        <v>8.084877971518953</v>
       </c>
     </row>
     <row r="876">
@@ -22521,7 +22521,7 @@
         </is>
       </c>
       <c r="E876" t="n">
-        <v>21.04801884161561</v>
+        <v>21.04801884161571</v>
       </c>
     </row>
     <row r="877">
@@ -22546,7 +22546,7 @@
         </is>
       </c>
       <c r="E877" t="n">
-        <v>47.27827821487501</v>
+        <v>47.278278214875</v>
       </c>
     </row>
     <row r="878">
@@ -22571,7 +22571,7 @@
         </is>
       </c>
       <c r="E878" t="n">
-        <v>-0.3932097188135657</v>
+        <v>-0.3932097188136083</v>
       </c>
     </row>
     <row r="879">
@@ -22596,7 +22596,7 @@
         </is>
       </c>
       <c r="E879" t="n">
-        <v>31.41373306082621</v>
+        <v>31.41373306082625</v>
       </c>
     </row>
     <row r="880">
@@ -22621,7 +22621,7 @@
         </is>
       </c>
       <c r="E880" t="n">
-        <v>50.31780141407425</v>
+        <v>50.31780141407427</v>
       </c>
     </row>
     <row r="881">
@@ -22646,7 +22646,7 @@
         </is>
       </c>
       <c r="E881" t="n">
-        <v>30.72705682241085</v>
+        <v>30.72705682241081</v>
       </c>
     </row>
     <row r="882">
@@ -22671,7 +22671,7 @@
         </is>
       </c>
       <c r="E882" t="n">
-        <v>41.2055082771221</v>
+        <v>41.20550827712198</v>
       </c>
     </row>
     <row r="883">
@@ -22696,7 +22696,7 @@
         </is>
       </c>
       <c r="E883" t="n">
-        <v>51.94227629227952</v>
+        <v>51.94227629227954</v>
       </c>
     </row>
     <row r="884">
@@ -22721,7 +22721,7 @@
         </is>
       </c>
       <c r="E884" t="n">
-        <v>10.70442794576428</v>
+        <v>10.70442794576434</v>
       </c>
     </row>
     <row r="885">
@@ -22746,7 +22746,7 @@
         </is>
       </c>
       <c r="E885" t="n">
-        <v>43.95102186695789</v>
+        <v>43.95102186695797</v>
       </c>
     </row>
     <row r="886">
@@ -22771,7 +22771,7 @@
         </is>
       </c>
       <c r="E886" t="n">
-        <v>55.00441087978042</v>
+        <v>55.00441087978041</v>
       </c>
     </row>
     <row r="887">
@@ -22796,7 +22796,7 @@
         </is>
       </c>
       <c r="E887" t="n">
-        <v>18.79284165259216</v>
+        <v>18.79284165259221</v>
       </c>
     </row>
     <row r="888">
@@ -22821,7 +22821,7 @@
         </is>
       </c>
       <c r="E888" t="n">
-        <v>28.81917692675416</v>
+        <v>28.81917692675418</v>
       </c>
     </row>
     <row r="889">
@@ -22871,7 +22871,7 @@
         </is>
       </c>
       <c r="E890" t="n">
-        <v>8.812259251412527</v>
+        <v>8.812259251412442</v>
       </c>
     </row>
     <row r="891">
@@ -22896,7 +22896,7 @@
         </is>
       </c>
       <c r="E891" t="n">
-        <v>26.32662618110873</v>
+        <v>26.32662618110869</v>
       </c>
     </row>
     <row r="892">
@@ -22921,7 +22921,7 @@
         </is>
       </c>
       <c r="E892" t="n">
-        <v>42.99384709161558</v>
+        <v>42.99384709161546</v>
       </c>
     </row>
     <row r="893">
@@ -22971,7 +22971,7 @@
         </is>
       </c>
       <c r="E894" t="n">
-        <v>42.38455269425212</v>
+        <v>42.38455269425211</v>
       </c>
     </row>
     <row r="895">
@@ -22996,7 +22996,7 @@
         </is>
       </c>
       <c r="E895" t="n">
-        <v>58.35880316221651</v>
+        <v>58.35880316221662</v>
       </c>
     </row>
     <row r="896">
@@ -23021,7 +23021,7 @@
         </is>
       </c>
       <c r="E896" t="n">
-        <v>58.38889944657077</v>
+        <v>58.38889944657073</v>
       </c>
     </row>
     <row r="897">
@@ -23071,7 +23071,7 @@
         </is>
       </c>
       <c r="E898" t="n">
-        <v>72.77191998144217</v>
+        <v>72.77191998144227</v>
       </c>
     </row>
     <row r="899">
@@ -23096,7 +23096,7 @@
         </is>
       </c>
       <c r="E899" t="n">
-        <v>16.08400658070217</v>
+        <v>16.08400658070221</v>
       </c>
     </row>
     <row r="900">
@@ -23121,7 +23121,7 @@
         </is>
       </c>
       <c r="E900" t="n">
-        <v>50.05398512931671</v>
+        <v>50.05398512931653</v>
       </c>
     </row>
     <row r="901">
@@ -23146,7 +23146,7 @@
         </is>
       </c>
       <c r="E901" t="n">
-        <v>68.78724211503888</v>
+        <v>68.78724211503891</v>
       </c>
     </row>
     <row r="902">
@@ -23171,7 +23171,7 @@
         </is>
       </c>
       <c r="E902" t="n">
-        <v>23.7407260781998</v>
+        <v>23.74072607819989</v>
       </c>
     </row>
     <row r="903">
@@ -23196,7 +23196,7 @@
         </is>
       </c>
       <c r="E903" t="n">
-        <v>31.78310171088565</v>
+        <v>31.78310171088568</v>
       </c>
     </row>
     <row r="904">
@@ -23221,7 +23221,7 @@
         </is>
       </c>
       <c r="E904" t="n">
-        <v>36.02845244177687</v>
+        <v>36.02845244177692</v>
       </c>
     </row>
     <row r="905">
@@ -23246,7 +23246,7 @@
         </is>
       </c>
       <c r="E905" t="n">
-        <v>10.47147633865014</v>
+        <v>10.47147633865017</v>
       </c>
     </row>
     <row r="906">
@@ -23271,7 +23271,7 @@
         </is>
       </c>
       <c r="E906" t="n">
-        <v>44.63121693437469</v>
+        <v>44.63121693437466</v>
       </c>
     </row>
     <row r="907">
@@ -23296,7 +23296,7 @@
         </is>
       </c>
       <c r="E907" t="n">
-        <v>46.14207791683982</v>
+        <v>46.1420779168398</v>
       </c>
     </row>
     <row r="908">
@@ -23321,7 +23321,7 @@
         </is>
       </c>
       <c r="E908" t="n">
-        <v>12.59774371013152</v>
+        <v>12.59774371013157</v>
       </c>
     </row>
     <row r="909">
@@ -23346,7 +23346,7 @@
         </is>
       </c>
       <c r="E909" t="n">
-        <v>58.75260254314672</v>
+        <v>58.75260254314661</v>
       </c>
     </row>
     <row r="910">
@@ -23371,7 +23371,7 @@
         </is>
       </c>
       <c r="E910" t="n">
-        <v>56.28165940007104</v>
+        <v>56.28165940007102</v>
       </c>
     </row>
     <row r="911">
@@ -23396,7 +23396,7 @@
         </is>
       </c>
       <c r="E911" t="n">
-        <v>59.17293855965174</v>
+        <v>59.17293855965168</v>
       </c>
     </row>
     <row r="912">
@@ -23421,7 +23421,7 @@
         </is>
       </c>
       <c r="E912" t="n">
-        <v>62.85750000256571</v>
+        <v>62.85750000256577</v>
       </c>
     </row>
     <row r="913">
@@ -23471,7 +23471,7 @@
         </is>
       </c>
       <c r="E914" t="n">
-        <v>28.90821133781578</v>
+        <v>28.90821133781577</v>
       </c>
     </row>
     <row r="915">
@@ -23496,7 +23496,7 @@
         </is>
       </c>
       <c r="E915" t="n">
-        <v>41.11048323995259</v>
+        <v>41.11048323995258</v>
       </c>
     </row>
     <row r="916">
@@ -23521,7 +23521,7 @@
         </is>
       </c>
       <c r="E916" t="n">
-        <v>66.23249774102422</v>
+        <v>66.23249774102419</v>
       </c>
     </row>
     <row r="917">
@@ -23546,7 +23546,7 @@
         </is>
       </c>
       <c r="E917" t="n">
-        <v>27.21203673734338</v>
+        <v>27.2120367373434</v>
       </c>
     </row>
     <row r="918">
@@ -23596,7 +23596,7 @@
         </is>
       </c>
       <c r="E919" t="n">
-        <v>40.0192863311091</v>
+        <v>40.01928633110919</v>
       </c>
     </row>
     <row r="920">
@@ -23621,7 +23621,7 @@
         </is>
       </c>
       <c r="E920" t="n">
-        <v>9.71290522623007</v>
+        <v>9.712905226230099</v>
       </c>
     </row>
     <row r="921">
@@ -23646,7 +23646,7 @@
         </is>
       </c>
       <c r="E921" t="n">
-        <v>37.01903111292409</v>
+        <v>37.0190311129241</v>
       </c>
     </row>
     <row r="922">
@@ -23671,7 +23671,7 @@
         </is>
       </c>
       <c r="E922" t="n">
-        <v>40.0746900146401</v>
+        <v>40.07469001464008</v>
       </c>
     </row>
     <row r="923">
@@ -23696,7 +23696,7 @@
         </is>
       </c>
       <c r="E923" t="n">
-        <v>10.48012144422738</v>
+        <v>10.48012144422739</v>
       </c>
     </row>
     <row r="924">
@@ -23721,7 +23721,7 @@
         </is>
       </c>
       <c r="E924" t="n">
-        <v>54.42519918888041</v>
+        <v>54.42519918888048</v>
       </c>
     </row>
     <row r="925">
@@ -23746,7 +23746,7 @@
         </is>
       </c>
       <c r="E925" t="n">
-        <v>55.95122622296439</v>
+        <v>55.95122622296444</v>
       </c>
     </row>
     <row r="926">
@@ -23771,7 +23771,7 @@
         </is>
       </c>
       <c r="E926" t="n">
-        <v>51.44620069372445</v>
+        <v>51.44620069372451</v>
       </c>
     </row>
     <row r="927">
@@ -23796,7 +23796,7 @@
         </is>
       </c>
       <c r="E927" t="n">
-        <v>55.77160817206649</v>
+        <v>55.77160817206655</v>
       </c>
     </row>
     <row r="928">
@@ -23821,7 +23821,7 @@
         </is>
       </c>
       <c r="E928" t="n">
-        <v>56.67960228284869</v>
+        <v>56.67960228284875</v>
       </c>
     </row>
     <row r="929">
@@ -23846,7 +23846,7 @@
         </is>
       </c>
       <c r="E929" t="n">
-        <v>28.63893323913032</v>
+        <v>28.63893323913036</v>
       </c>
     </row>
     <row r="930">
@@ -23871,7 +23871,7 @@
         </is>
       </c>
       <c r="E930" t="n">
-        <v>58.49181285301967</v>
+        <v>58.49181285301966</v>
       </c>
     </row>
     <row r="931">
@@ -23896,7 +23896,7 @@
         </is>
       </c>
       <c r="E931" t="n">
-        <v>60.89504686020865</v>
+        <v>60.89504686020871</v>
       </c>
     </row>
     <row r="932">
@@ -23921,7 +23921,7 @@
         </is>
       </c>
       <c r="E932" t="n">
-        <v>27.16202106998691</v>
+        <v>27.16202106998688</v>
       </c>
     </row>
     <row r="933">
@@ -23971,7 +23971,7 @@
         </is>
       </c>
       <c r="E934" t="n">
-        <v>44.79632049442903</v>
+        <v>44.79632049442899</v>
       </c>
     </row>
     <row r="935">
@@ -23996,7 +23996,7 @@
         </is>
       </c>
       <c r="E935" t="n">
-        <v>10.12967511604816</v>
+        <v>10.12967511604813</v>
       </c>
     </row>
     <row r="936">
@@ -24021,7 +24021,7 @@
         </is>
       </c>
       <c r="E936" t="n">
-        <v>43.00187093527572</v>
+        <v>43.00187093527578</v>
       </c>
     </row>
     <row r="937">
@@ -24046,7 +24046,7 @@
         </is>
       </c>
       <c r="E937" t="n">
-        <v>45.85932955755577</v>
+        <v>45.8593295575558</v>
       </c>
     </row>
     <row r="938">
@@ -24071,7 +24071,7 @@
         </is>
       </c>
       <c r="E938" t="n">
-        <v>10.11642787765275</v>
+        <v>10.11642787765277</v>
       </c>
     </row>
     <row r="939">
@@ -24096,7 +24096,7 @@
         </is>
       </c>
       <c r="E939" t="n">
-        <v>65.31245709418685</v>
+        <v>65.31245709418693</v>
       </c>
     </row>
     <row r="940">
@@ -24121,7 +24121,7 @@
         </is>
       </c>
       <c r="E940" t="n">
-        <v>64.07908494716447</v>
+        <v>64.07908494716452</v>
       </c>
     </row>
     <row r="941">
@@ -24146,7 +24146,7 @@
         </is>
       </c>
       <c r="E941" t="n">
-        <v>73.50548955977318</v>
+        <v>73.5054895597732</v>
       </c>
     </row>
     <row r="942">
@@ -24196,7 +24196,7 @@
         </is>
       </c>
       <c r="E943" t="n">
-        <v>78.12967214798671</v>
+        <v>78.12967214798672</v>
       </c>
     </row>
     <row r="944">
@@ -24221,7 +24221,7 @@
         </is>
       </c>
       <c r="E944" t="n">
-        <v>32.15288972105709</v>
+        <v>32.15288972105714</v>
       </c>
     </row>
     <row r="945">
@@ -24246,7 +24246,7 @@
         </is>
       </c>
       <c r="E945" t="n">
-        <v>68.98782439841673</v>
+        <v>68.98782439841671</v>
       </c>
     </row>
     <row r="946">
@@ -24271,7 +24271,7 @@
         </is>
       </c>
       <c r="E946" t="n">
-        <v>76.03065791062009</v>
+        <v>76.03065791062011</v>
       </c>
     </row>
     <row r="947">
@@ -24296,7 +24296,7 @@
         </is>
       </c>
       <c r="E947" t="n">
-        <v>18.68764682763628</v>
+        <v>18.68764682763631</v>
       </c>
     </row>
     <row r="948">
@@ -24321,7 +24321,7 @@
         </is>
       </c>
       <c r="E948" t="n">
-        <v>31.53246713209022</v>
+        <v>31.53246713209023</v>
       </c>
     </row>
     <row r="949">
@@ -24346,7 +24346,7 @@
         </is>
       </c>
       <c r="E949" t="n">
-        <v>35.59055131316131</v>
+        <v>35.5905513131613</v>
       </c>
     </row>
     <row r="950">
@@ -24371,7 +24371,7 @@
         </is>
       </c>
       <c r="E950" t="n">
-        <v>6.874301105844314</v>
+        <v>6.87430110584436</v>
       </c>
     </row>
     <row r="951">
@@ -24396,7 +24396,7 @@
         </is>
       </c>
       <c r="E951" t="n">
-        <v>33.52467363638672</v>
+        <v>33.52467363638673</v>
       </c>
     </row>
     <row r="952">
@@ -24421,7 +24421,7 @@
         </is>
       </c>
       <c r="E952" t="n">
-        <v>42.3398229461954</v>
+        <v>42.33982294619545</v>
       </c>
     </row>
     <row r="953">
@@ -24446,7 +24446,7 @@
         </is>
       </c>
       <c r="E953" t="n">
-        <v>6.410561506418144</v>
+        <v>6.410561506418134</v>
       </c>
     </row>
     <row r="954">
@@ -24471,7 +24471,7 @@
         </is>
       </c>
       <c r="E954" t="n">
-        <v>51.64897004906732</v>
+        <v>51.64897004906738</v>
       </c>
     </row>
     <row r="955">
@@ -24496,7 +24496,7 @@
         </is>
       </c>
       <c r="E955" t="n">
-        <v>53.95582149350135</v>
+        <v>53.95582149350128</v>
       </c>
     </row>
     <row r="956">
@@ -24521,7 +24521,7 @@
         </is>
       </c>
       <c r="E956" t="n">
-        <v>54.18387767711114</v>
+        <v>54.18387767711116</v>
       </c>
     </row>
     <row r="957">
@@ -24546,7 +24546,7 @@
         </is>
       </c>
       <c r="E957" t="n">
-        <v>61.740407433317</v>
+        <v>61.74040743331695</v>
       </c>
     </row>
     <row r="958">
@@ -24571,7 +24571,7 @@
         </is>
       </c>
       <c r="E958" t="n">
-        <v>59.71950503059995</v>
+        <v>59.71950503059992</v>
       </c>
     </row>
     <row r="959">
@@ -24596,7 +24596,7 @@
         </is>
       </c>
       <c r="E959" t="n">
-        <v>14.90753229322625</v>
+        <v>14.90753229322628</v>
       </c>
     </row>
     <row r="960">
@@ -24646,7 +24646,7 @@
         </is>
       </c>
       <c r="E961" t="n">
-        <v>63.02612523532433</v>
+        <v>63.02612523532437</v>
       </c>
     </row>
     <row r="962">
@@ -24671,7 +24671,7 @@
         </is>
       </c>
       <c r="E962" t="n">
-        <v>17.03021756374552</v>
+        <v>17.03021756374553</v>
       </c>
     </row>
     <row r="963">
@@ -24696,7 +24696,7 @@
         </is>
       </c>
       <c r="E963" t="n">
-        <v>34.38020579381051</v>
+        <v>34.38020579381058</v>
       </c>
     </row>
     <row r="964">
@@ -24721,7 +24721,7 @@
         </is>
       </c>
       <c r="E964" t="n">
-        <v>36.05335815830054</v>
+        <v>36.05335815830063</v>
       </c>
     </row>
     <row r="965">
@@ -24746,7 +24746,7 @@
         </is>
       </c>
       <c r="E965" t="n">
-        <v>6.829759805030282</v>
+        <v>6.829759805030342</v>
       </c>
     </row>
     <row r="966">
@@ -24771,7 +24771,7 @@
         </is>
       </c>
       <c r="E966" t="n">
-        <v>32.68371844756983</v>
+        <v>32.68371844756982</v>
       </c>
     </row>
     <row r="967">
@@ -24796,7 +24796,7 @@
         </is>
       </c>
       <c r="E967" t="n">
-        <v>36.33040792360579</v>
+        <v>36.33040792360582</v>
       </c>
     </row>
     <row r="968">
@@ -24821,7 +24821,7 @@
         </is>
       </c>
       <c r="E968" t="n">
-        <v>7.417791012225756</v>
+        <v>7.417791012225749</v>
       </c>
     </row>
     <row r="969">
@@ -24846,7 +24846,7 @@
         </is>
       </c>
       <c r="E969" t="n">
-        <v>49.66813177532694</v>
+        <v>49.66813177532691</v>
       </c>
     </row>
     <row r="970">
@@ -24871,7 +24871,7 @@
         </is>
       </c>
       <c r="E970" t="n">
-        <v>55.3071280292025</v>
+        <v>55.30712802920244</v>
       </c>
     </row>
     <row r="971">
@@ -24896,7 +24896,7 @@
         </is>
       </c>
       <c r="E971" t="n">
-        <v>46.36034062210036</v>
+        <v>46.36034062210042</v>
       </c>
     </row>
     <row r="972">
@@ -24921,7 +24921,7 @@
         </is>
       </c>
       <c r="E972" t="n">
-        <v>54.38897179063491</v>
+        <v>54.38897179063499</v>
       </c>
     </row>
     <row r="973">
@@ -24946,7 +24946,7 @@
         </is>
       </c>
       <c r="E973" t="n">
-        <v>53.83387594292299</v>
+        <v>53.83387594292294</v>
       </c>
     </row>
     <row r="974">
@@ -24971,7 +24971,7 @@
         </is>
       </c>
       <c r="E974" t="n">
-        <v>13.18291459102448</v>
+        <v>13.18291459102447</v>
       </c>
     </row>
     <row r="975">
@@ -24996,7 +24996,7 @@
         </is>
       </c>
       <c r="E975" t="n">
-        <v>56.58166876544752</v>
+        <v>56.5816687654475</v>
       </c>
     </row>
     <row r="976">
@@ -25046,7 +25046,7 @@
         </is>
       </c>
       <c r="E977" t="n">
-        <v>15.31324767326582</v>
+        <v>15.31324767326591</v>
       </c>
     </row>
     <row r="978">
@@ -25071,7 +25071,7 @@
         </is>
       </c>
       <c r="E978" t="n">
-        <v>33.61197344194016</v>
+        <v>33.61197344194022</v>
       </c>
     </row>
     <row r="979">
@@ -25096,7 +25096,7 @@
         </is>
       </c>
       <c r="E979" t="n">
-        <v>40.03303378549292</v>
+        <v>40.03303378549304</v>
       </c>
     </row>
     <row r="980">
@@ -25121,7 +25121,7 @@
         </is>
       </c>
       <c r="E980" t="n">
-        <v>4.546779086958644</v>
+        <v>4.546779086958669</v>
       </c>
     </row>
     <row r="981">
@@ -25146,7 +25146,7 @@
         </is>
       </c>
       <c r="E981" t="n">
-        <v>35.70076106009101</v>
+        <v>35.70076106009107</v>
       </c>
     </row>
     <row r="982">
@@ -25171,7 +25171,7 @@
         </is>
       </c>
       <c r="E982" t="n">
-        <v>42.97701072419407</v>
+        <v>42.97701072419409</v>
       </c>
     </row>
     <row r="983">
@@ -25196,7 +25196,7 @@
         </is>
       </c>
       <c r="E983" t="n">
-        <v>4.851654370041739</v>
+        <v>4.851654370041761</v>
       </c>
     </row>
     <row r="984">
@@ -25221,7 +25221,7 @@
         </is>
       </c>
       <c r="E984" t="n">
-        <v>50.63837032130318</v>
+        <v>50.63837032130324</v>
       </c>
     </row>
     <row r="985">
@@ -25246,7 +25246,7 @@
         </is>
       </c>
       <c r="E985" t="n">
-        <v>61.21113078910591</v>
+        <v>61.21113078910588</v>
       </c>
     </row>
     <row r="986">
@@ -25271,7 +25271,7 @@
         </is>
       </c>
       <c r="E986" t="n">
-        <v>57.3814775267636</v>
+        <v>57.38147752676363</v>
       </c>
     </row>
     <row r="987">
@@ -25296,7 +25296,7 @@
         </is>
       </c>
       <c r="E987" t="n">
-        <v>68.99840852885225</v>
+        <v>68.99840852885218</v>
       </c>
     </row>
     <row r="988">
@@ -25321,7 +25321,7 @@
         </is>
       </c>
       <c r="E988" t="n">
-        <v>76.5625649039869</v>
+        <v>76.56256490398673</v>
       </c>
     </row>
     <row r="989">
@@ -25346,7 +25346,7 @@
         </is>
       </c>
       <c r="E989" t="n">
-        <v>11.02001585509259</v>
+        <v>11.0200158550926</v>
       </c>
     </row>
     <row r="990">
@@ -25371,7 +25371,7 @@
         </is>
       </c>
       <c r="E990" t="n">
-        <v>60.30426961226472</v>
+        <v>60.30426961226485</v>
       </c>
     </row>
     <row r="991">
@@ -25396,7 +25396,7 @@
         </is>
       </c>
       <c r="E991" t="n">
-        <v>72.20544643754459</v>
+        <v>72.20544643754457</v>
       </c>
     </row>
   </sheetData>

--- a/yield_prediction/results/graph_descriptors/WLpolynomial_5/out_of_sample/ligand/LOO_XPhos/results.xlsx
+++ b/yield_prediction/results/graph_descriptors/WLpolynomial_5/out_of_sample/ligand/LOO_XPhos/results.xlsx
@@ -462,7 +462,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -498,7 +498,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.539</v>
+        <v>0.516</v>
       </c>
     </row>
     <row r="3">
@@ -508,7 +508,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>17.61</v>
+        <v>18.223</v>
       </c>
     </row>
   </sheetData>
@@ -544,7 +544,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>-0.832</v>
+        <v>-0.5639999999999999</v>
       </c>
     </row>
     <row r="3">
@@ -554,7 +554,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>23.72</v>
+        <v>21.915</v>
       </c>
     </row>
   </sheetData>
@@ -590,7 +590,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.976</v>
+        <v>0.997</v>
       </c>
     </row>
     <row r="3">
@@ -600,7 +600,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>4.46</v>
+        <v>1.468</v>
       </c>
     </row>
   </sheetData>
@@ -671,7 +671,7 @@
         </is>
       </c>
       <c r="E2" t="n">
-        <v>17.99903458551939</v>
+        <v>17.51664379849076</v>
       </c>
     </row>
     <row r="3">
@@ -696,7 +696,7 @@
         </is>
       </c>
       <c r="E3" t="n">
-        <v>15.70394478400523</v>
+        <v>18.6946253864525</v>
       </c>
     </row>
     <row r="4">
@@ -721,7 +721,7 @@
         </is>
       </c>
       <c r="E4" t="n">
-        <v>18.29433146912364</v>
+        <v>18.84560486336092</v>
       </c>
     </row>
     <row r="5">
@@ -746,7 +746,7 @@
         </is>
       </c>
       <c r="E5" t="n">
-        <v>3.446747235579231</v>
+        <v>9.396240169855588</v>
       </c>
     </row>
     <row r="6">
@@ -771,7 +771,7 @@
         </is>
       </c>
       <c r="E6" t="n">
-        <v>20.07984849886601</v>
+        <v>20.06467232675056</v>
       </c>
     </row>
     <row r="7">
@@ -796,7 +796,7 @@
         </is>
       </c>
       <c r="E7" t="n">
-        <v>23.3740850909147</v>
+        <v>23.54970120805431</v>
       </c>
     </row>
     <row r="8">
@@ -821,7 +821,7 @@
         </is>
       </c>
       <c r="E8" t="n">
-        <v>5.714403485993159</v>
+        <v>11.89719237636792</v>
       </c>
     </row>
     <row r="9">
@@ -846,7 +846,7 @@
         </is>
       </c>
       <c r="E9" t="n">
-        <v>26.73739698579841</v>
+        <v>27.33135562541019</v>
       </c>
     </row>
     <row r="10">
@@ -871,7 +871,7 @@
         </is>
       </c>
       <c r="E10" t="n">
-        <v>27.16136704635768</v>
+        <v>28.26390659424654</v>
       </c>
     </row>
     <row r="11">
@@ -896,7 +896,7 @@
         </is>
       </c>
       <c r="E11" t="n">
-        <v>23.15043711049093</v>
+        <v>26.21864275803814</v>
       </c>
     </row>
     <row r="12">
@@ -921,7 +921,7 @@
         </is>
       </c>
       <c r="E12" t="n">
-        <v>29.17881708955438</v>
+        <v>30.66586331419124</v>
       </c>
     </row>
     <row r="13">
@@ -946,7 +946,7 @@
         </is>
       </c>
       <c r="E13" t="n">
-        <v>27.86454247300979</v>
+        <v>31.67883116455899</v>
       </c>
     </row>
     <row r="14">
@@ -971,7 +971,7 @@
         </is>
       </c>
       <c r="E14" t="n">
-        <v>17.67338135142625</v>
+        <v>15.69579538318299</v>
       </c>
     </row>
     <row r="15">
@@ -996,7 +996,7 @@
         </is>
       </c>
       <c r="E15" t="n">
-        <v>26.09907314753358</v>
+        <v>24.68863566534437</v>
       </c>
     </row>
     <row r="16">
@@ -1021,7 +1021,7 @@
         </is>
       </c>
       <c r="E16" t="n">
-        <v>28.03964940078366</v>
+        <v>26.73274878726906</v>
       </c>
     </row>
     <row r="17">
@@ -1046,7 +1046,7 @@
         </is>
       </c>
       <c r="E17" t="n">
-        <v>20.10282222895661</v>
+        <v>17.98947594314361</v>
       </c>
     </row>
     <row r="18">
@@ -1071,7 +1071,7 @@
         </is>
       </c>
       <c r="E18" t="n">
-        <v>34.29246224841665</v>
+        <v>34.04374273172556</v>
       </c>
     </row>
     <row r="19">
@@ -1096,7 +1096,7 @@
         </is>
       </c>
       <c r="E19" t="n">
-        <v>41.86063524934895</v>
+        <v>41.13115422827814</v>
       </c>
     </row>
     <row r="20">
@@ -1121,7 +1121,7 @@
         </is>
       </c>
       <c r="E20" t="n">
-        <v>10.30096532383743</v>
+        <v>9.203062706277322</v>
       </c>
     </row>
     <row r="21">
@@ -1146,7 +1146,7 @@
         </is>
       </c>
       <c r="E21" t="n">
-        <v>31.7492404960077</v>
+        <v>28.7581175242309</v>
       </c>
     </row>
     <row r="22">
@@ -1171,7 +1171,7 @@
         </is>
       </c>
       <c r="E22" t="n">
-        <v>46.38569156535201</v>
+        <v>40.56126935597648</v>
       </c>
     </row>
     <row r="23">
@@ -1196,7 +1196,7 @@
         </is>
       </c>
       <c r="E23" t="n">
-        <v>10.72341014551033</v>
+        <v>9.839164877080716</v>
       </c>
     </row>
     <row r="24">
@@ -1221,7 +1221,7 @@
         </is>
       </c>
       <c r="E24" t="n">
-        <v>48.4515447910612</v>
+        <v>46.24494100539919</v>
       </c>
     </row>
     <row r="25">
@@ -1246,7 +1246,7 @@
         </is>
       </c>
       <c r="E25" t="n">
-        <v>66.49194736423507</v>
+        <v>64.58380275378914</v>
       </c>
     </row>
     <row r="26">
@@ -1271,7 +1271,7 @@
         </is>
       </c>
       <c r="E26" t="n">
-        <v>50.16005915521629</v>
+        <v>47.74154202971049</v>
       </c>
     </row>
     <row r="27">
@@ -1296,7 +1296,7 @@
         </is>
       </c>
       <c r="E27" t="n">
-        <v>61.05468974293353</v>
+        <v>57.13720554973675</v>
       </c>
     </row>
     <row r="28">
@@ -1321,7 +1321,7 @@
         </is>
       </c>
       <c r="E28" t="n">
-        <v>68.64597140094554</v>
+        <v>64.48066317183213</v>
       </c>
     </row>
     <row r="29">
@@ -1346,7 +1346,7 @@
         </is>
       </c>
       <c r="E29" t="n">
-        <v>21.0671487852743</v>
+        <v>16.95861506263081</v>
       </c>
     </row>
     <row r="30">
@@ -1371,7 +1371,7 @@
         </is>
       </c>
       <c r="E30" t="n">
-        <v>66.67775538687931</v>
+        <v>61.59172128040092</v>
       </c>
     </row>
     <row r="31">
@@ -1396,7 +1396,7 @@
         </is>
       </c>
       <c r="E31" t="n">
-        <v>71.95453834490843</v>
+        <v>69.24629909589494</v>
       </c>
     </row>
     <row r="32">
@@ -1421,7 +1421,7 @@
         </is>
       </c>
       <c r="E32" t="n">
-        <v>27.21939697097973</v>
+        <v>25.60452213423002</v>
       </c>
     </row>
     <row r="33">
@@ -1446,7 +1446,7 @@
         </is>
       </c>
       <c r="E33" t="n">
-        <v>44.63488396223703</v>
+        <v>43.55592126898745</v>
       </c>
     </row>
     <row r="34">
@@ -1471,7 +1471,7 @@
         </is>
       </c>
       <c r="E34" t="n">
-        <v>49.84837975478507</v>
+        <v>48.08233340301177</v>
       </c>
     </row>
     <row r="35">
@@ -1496,7 +1496,7 @@
         </is>
       </c>
       <c r="E35" t="n">
-        <v>12.82971776629777</v>
+        <v>10.5500519578662</v>
       </c>
     </row>
     <row r="36">
@@ -1521,7 +1521,7 @@
         </is>
       </c>
       <c r="E36" t="n">
-        <v>40.19559748500123</v>
+        <v>35.60594326787746</v>
       </c>
     </row>
     <row r="37">
@@ -1546,7 +1546,7 @@
         </is>
       </c>
       <c r="E37" t="n">
-        <v>52.89936053922838</v>
+        <v>48.76032149953524</v>
       </c>
     </row>
     <row r="38">
@@ -1571,7 +1571,7 @@
         </is>
       </c>
       <c r="E38" t="n">
-        <v>15.33914918395966</v>
+        <v>16.07880327979866</v>
       </c>
     </row>
     <row r="39">
@@ -1596,7 +1596,7 @@
         </is>
       </c>
       <c r="E39" t="n">
-        <v>68.466988367352</v>
+        <v>64.11672888018269</v>
       </c>
     </row>
     <row r="40">
@@ -1621,7 +1621,7 @@
         </is>
       </c>
       <c r="E40" t="n">
-        <v>74.86247129631144</v>
+        <v>69.14671329669366</v>
       </c>
     </row>
     <row r="41">
@@ -1646,7 +1646,7 @@
         </is>
       </c>
       <c r="E41" t="n">
-        <v>73.72892468444353</v>
+        <v>68.54242321567015</v>
       </c>
     </row>
     <row r="42">
@@ -1671,7 +1671,7 @@
         </is>
       </c>
       <c r="E42" t="n">
-        <v>84.52908501954948</v>
+        <v>77.60551938203602</v>
       </c>
     </row>
     <row r="43">
@@ -1696,7 +1696,7 @@
         </is>
       </c>
       <c r="E43" t="n">
-        <v>89.61065201823885</v>
+        <v>82.1137671185403</v>
       </c>
     </row>
     <row r="44">
@@ -1721,7 +1721,7 @@
         </is>
       </c>
       <c r="E44" t="n">
-        <v>36.04335571741603</v>
+        <v>30.03167687122754</v>
       </c>
     </row>
     <row r="45">
@@ -1746,7 +1746,7 @@
         </is>
       </c>
       <c r="E45" t="n">
-        <v>86.47970119932009</v>
+        <v>80.01490126078184</v>
       </c>
     </row>
     <row r="46">
@@ -1771,7 +1771,7 @@
         </is>
       </c>
       <c r="E46" t="n">
-        <v>86.4170892346485</v>
+        <v>81.12494127086873</v>
       </c>
     </row>
     <row r="47">
@@ -1796,7 +1796,7 @@
         </is>
       </c>
       <c r="E47" t="n">
-        <v>13.97951269055615</v>
+        <v>12.503071854856</v>
       </c>
     </row>
     <row r="48">
@@ -1821,7 +1821,7 @@
         </is>
       </c>
       <c r="E48" t="n">
-        <v>41.02306060743829</v>
+        <v>40.4296650916347</v>
       </c>
     </row>
     <row r="49">
@@ -1846,7 +1846,7 @@
         </is>
       </c>
       <c r="E49" t="n">
-        <v>41.60763477528252</v>
+        <v>42.25982876079796</v>
       </c>
     </row>
     <row r="50">
@@ -1871,7 +1871,7 @@
         </is>
       </c>
       <c r="E50" t="n">
-        <v>6.727747751150169</v>
+        <v>8.895807080111933</v>
       </c>
     </row>
     <row r="51">
@@ -1896,7 +1896,7 @@
         </is>
       </c>
       <c r="E51" t="n">
-        <v>42.60648268108957</v>
+        <v>41.65944119012004</v>
       </c>
     </row>
     <row r="52">
@@ -1921,7 +1921,7 @@
         </is>
       </c>
       <c r="E52" t="n">
-        <v>46.21384381598738</v>
+        <v>46.93203785535246</v>
       </c>
     </row>
     <row r="53">
@@ -1946,7 +1946,7 @@
         </is>
       </c>
       <c r="E53" t="n">
-        <v>6.471597886449214</v>
+        <v>9.431585060340289</v>
       </c>
     </row>
     <row r="54">
@@ -1971,7 +1971,7 @@
         </is>
       </c>
       <c r="E54" t="n">
-        <v>60.69705017628874</v>
+        <v>61.0866214560581</v>
       </c>
     </row>
     <row r="55">
@@ -1996,7 +1996,7 @@
         </is>
       </c>
       <c r="E55" t="n">
-        <v>59.75900493388365</v>
+        <v>60.6332209981562</v>
       </c>
     </row>
     <row r="56">
@@ -2021,7 +2021,7 @@
         </is>
       </c>
       <c r="E56" t="n">
-        <v>56.2277548861552</v>
+        <v>53.82999183512421</v>
       </c>
     </row>
     <row r="57">
@@ -2046,7 +2046,7 @@
         </is>
       </c>
       <c r="E57" t="n">
-        <v>61.62578389795474</v>
+        <v>56.65558864102566</v>
       </c>
     </row>
     <row r="58">
@@ -2071,7 +2071,7 @@
         </is>
       </c>
       <c r="E58" t="n">
-        <v>60.63969920407276</v>
+        <v>58.90136367322545</v>
       </c>
     </row>
     <row r="59">
@@ -2096,7 +2096,7 @@
         </is>
       </c>
       <c r="E59" t="n">
-        <v>14.34880309939015</v>
+        <v>13.23911576138542</v>
       </c>
     </row>
     <row r="60">
@@ -2121,7 +2121,7 @@
         </is>
       </c>
       <c r="E60" t="n">
-        <v>58.85108048494797</v>
+        <v>56.30212950644824</v>
       </c>
     </row>
     <row r="61">
@@ -2146,7 +2146,7 @@
         </is>
       </c>
       <c r="E61" t="n">
-        <v>64.20654405221316</v>
+        <v>61.41256321268025</v>
       </c>
     </row>
     <row r="62">
@@ -2171,7 +2171,7 @@
         </is>
       </c>
       <c r="E62" t="n">
-        <v>15.45351585841633</v>
+        <v>13.1795819799911</v>
       </c>
     </row>
     <row r="63">
@@ -2196,7 +2196,7 @@
         </is>
       </c>
       <c r="E63" t="n">
-        <v>37.91859305527582</v>
+        <v>39.1301163806918</v>
       </c>
     </row>
     <row r="64">
@@ -2221,7 +2221,7 @@
         </is>
       </c>
       <c r="E64" t="n">
-        <v>43.12486780730887</v>
+        <v>42.71898529979561</v>
       </c>
     </row>
     <row r="65">
@@ -2246,7 +2246,7 @@
         </is>
       </c>
       <c r="E65" t="n">
-        <v>7.672056171677784</v>
+        <v>8.933531995673601</v>
       </c>
     </row>
     <row r="66">
@@ -2271,7 +2271,7 @@
         </is>
       </c>
       <c r="E66" t="n">
-        <v>33.90962537697607</v>
+        <v>31.82052988468823</v>
       </c>
     </row>
     <row r="67">
@@ -2296,7 +2296,7 @@
         </is>
       </c>
       <c r="E67" t="n">
-        <v>44.11793035919123</v>
+        <v>41.21330869692134</v>
       </c>
     </row>
     <row r="68">
@@ -2321,7 +2321,7 @@
         </is>
       </c>
       <c r="E68" t="n">
-        <v>9.180606177853779</v>
+        <v>9.160173610694176</v>
       </c>
     </row>
     <row r="69">
@@ -2346,7 +2346,7 @@
         </is>
       </c>
       <c r="E69" t="n">
-        <v>55.87462492390256</v>
+        <v>52.62774548256938</v>
       </c>
     </row>
     <row r="70">
@@ -2371,7 +2371,7 @@
         </is>
       </c>
       <c r="E70" t="n">
-        <v>69.63498261979107</v>
+        <v>69.26847736893629</v>
       </c>
     </row>
     <row r="71">
@@ -2396,7 +2396,7 @@
         </is>
       </c>
       <c r="E71" t="n">
-        <v>51.49237239012353</v>
+        <v>50.12948532895329</v>
       </c>
     </row>
     <row r="72">
@@ -2421,7 +2421,7 @@
         </is>
       </c>
       <c r="E72" t="n">
-        <v>64.08648801631693</v>
+        <v>61.09685978881548</v>
       </c>
     </row>
     <row r="73">
@@ -2446,7 +2446,7 @@
         </is>
       </c>
       <c r="E73" t="n">
-        <v>67.08821576468935</v>
+        <v>67.35541309010752</v>
       </c>
     </row>
     <row r="74">
@@ -2471,7 +2471,7 @@
         </is>
       </c>
       <c r="E74" t="n">
-        <v>12.40607450244036</v>
+        <v>10.83920117349289</v>
       </c>
     </row>
     <row r="75">
@@ -2496,7 +2496,7 @@
         </is>
       </c>
       <c r="E75" t="n">
-        <v>64.78534215410257</v>
+        <v>63.48552214805102</v>
       </c>
     </row>
     <row r="76">
@@ -2521,7 +2521,7 @@
         </is>
       </c>
       <c r="E76" t="n">
-        <v>71.76404142820726</v>
+        <v>70.25210489641739</v>
       </c>
     </row>
     <row r="77">
@@ -2546,7 +2546,7 @@
         </is>
       </c>
       <c r="E77" t="n">
-        <v>14.68206076428905</v>
+        <v>13.07044636917501</v>
       </c>
     </row>
     <row r="78">
@@ -2571,7 +2571,7 @@
         </is>
       </c>
       <c r="E78" t="n">
-        <v>44.72978728660357</v>
+        <v>44.00418313489481</v>
       </c>
     </row>
     <row r="79">
@@ -2596,7 +2596,7 @@
         </is>
       </c>
       <c r="E79" t="n">
-        <v>46.98069109647972</v>
+        <v>47.78747321992969</v>
       </c>
     </row>
     <row r="80">
@@ -2621,7 +2621,7 @@
         </is>
       </c>
       <c r="E80" t="n">
-        <v>6.084982569585591</v>
+        <v>8.828421181467281</v>
       </c>
     </row>
     <row r="81">
@@ -2646,7 +2646,7 @@
         </is>
       </c>
       <c r="E81" t="n">
-        <v>43.08249631505864</v>
+        <v>41.30346592149154</v>
       </c>
     </row>
     <row r="82">
@@ -2671,7 +2671,7 @@
         </is>
       </c>
       <c r="E82" t="n">
-        <v>50.48248189732291</v>
+        <v>50.60403892152684</v>
       </c>
     </row>
     <row r="83">
@@ -2696,7 +2696,7 @@
         </is>
       </c>
       <c r="E83" t="n">
-        <v>7.876696221935617</v>
+        <v>8.87181869157661</v>
       </c>
     </row>
     <row r="84">
@@ -2721,7 +2721,7 @@
         </is>
       </c>
       <c r="E84" t="n">
-        <v>69.67384914531365</v>
+        <v>65.18571301255531</v>
       </c>
     </row>
     <row r="85">
@@ -2746,7 +2746,7 @@
         </is>
       </c>
       <c r="E85" t="n">
-        <v>73.37519882035485</v>
+        <v>73.17096406673591</v>
       </c>
     </row>
     <row r="86">
@@ -2771,7 +2771,7 @@
         </is>
       </c>
       <c r="E86" t="n">
-        <v>73.87893892259834</v>
+        <v>70.69845646181903</v>
       </c>
     </row>
     <row r="87">
@@ -2796,7 +2796,7 @@
         </is>
       </c>
       <c r="E87" t="n">
-        <v>87.38775206131945</v>
+        <v>82.02192944124442</v>
       </c>
     </row>
     <row r="88">
@@ -2821,7 +2821,7 @@
         </is>
       </c>
       <c r="E88" t="n">
-        <v>86.47991510694158</v>
+        <v>83.8682636342138</v>
       </c>
     </row>
     <row r="89">
@@ -2846,7 +2846,7 @@
         </is>
       </c>
       <c r="E89" t="n">
-        <v>11.90349053592943</v>
+        <v>11.1251207335353</v>
       </c>
     </row>
     <row r="90">
@@ -2871,7 +2871,7 @@
         </is>
       </c>
       <c r="E90" t="n">
-        <v>81.35758760308141</v>
+        <v>76.71637783888447</v>
       </c>
     </row>
     <row r="91">
@@ -2896,7 +2896,7 @@
         </is>
       </c>
       <c r="E91" t="n">
-        <v>83.76770659436454</v>
+        <v>80.55366756310086</v>
       </c>
     </row>
     <row r="92">
@@ -2921,7 +2921,7 @@
         </is>
       </c>
       <c r="E92" t="n">
-        <v>29.87492343606142</v>
+        <v>30.5743260436114</v>
       </c>
     </row>
     <row r="93">
@@ -2946,7 +2946,7 @@
         </is>
       </c>
       <c r="E93" t="n">
-        <v>42.0025445842798</v>
+        <v>39.33076966754398</v>
       </c>
     </row>
     <row r="94">
@@ -2971,7 +2971,7 @@
         </is>
       </c>
       <c r="E94" t="n">
-        <v>43.45130027854756</v>
+        <v>41.27809864661725</v>
       </c>
     </row>
     <row r="95">
@@ -2996,7 +2996,7 @@
         </is>
       </c>
       <c r="E95" t="n">
-        <v>11.20958159142718</v>
+        <v>9.445325783974361</v>
       </c>
     </row>
     <row r="96">
@@ -3021,7 +3021,7 @@
         </is>
       </c>
       <c r="E96" t="n">
-        <v>45.37128768128583</v>
+        <v>43.59184566210926</v>
       </c>
     </row>
     <row r="97">
@@ -3046,7 +3046,7 @@
         </is>
       </c>
       <c r="E97" t="n">
-        <v>48.28138110940989</v>
+        <v>45.74482166112993</v>
       </c>
     </row>
     <row r="98">
@@ -3071,7 +3071,7 @@
         </is>
       </c>
       <c r="E98" t="n">
-        <v>11.36436603437255</v>
+        <v>10.65664493450303</v>
       </c>
     </row>
     <row r="99">
@@ -3096,7 +3096,7 @@
         </is>
       </c>
       <c r="E99" t="n">
-        <v>65.58541518114978</v>
+        <v>64.29109145124183</v>
       </c>
     </row>
     <row r="100">
@@ -3121,7 +3121,7 @@
         </is>
       </c>
       <c r="E100" t="n">
-        <v>59.91315391870049</v>
+        <v>59.91528051889865</v>
       </c>
     </row>
     <row r="101">
@@ -3146,7 +3146,7 @@
         </is>
       </c>
       <c r="E101" t="n">
-        <v>56.41684032920637</v>
+        <v>54.11441339761026</v>
       </c>
     </row>
     <row r="102">
@@ -3171,7 +3171,7 @@
         </is>
       </c>
       <c r="E102" t="n">
-        <v>66.31164300147663</v>
+        <v>65.50870964090078</v>
       </c>
     </row>
     <row r="103">
@@ -3196,7 +3196,7 @@
         </is>
       </c>
       <c r="E103" t="n">
-        <v>64.7838326645776</v>
+        <v>64.65972130526714</v>
       </c>
     </row>
     <row r="104">
@@ -3221,7 +3221,7 @@
         </is>
       </c>
       <c r="E104" t="n">
-        <v>30.83335481150877</v>
+        <v>27.41492447295185</v>
       </c>
     </row>
     <row r="105">
@@ -3246,7 +3246,7 @@
         </is>
       </c>
       <c r="E105" t="n">
-        <v>60.40603934223836</v>
+        <v>56.59839331126192</v>
       </c>
     </row>
     <row r="106">
@@ -3271,7 +3271,7 @@
         </is>
       </c>
       <c r="E106" t="n">
-        <v>64.67426211406024</v>
+        <v>58.09090861839758</v>
       </c>
     </row>
     <row r="107">
@@ -3296,7 +3296,7 @@
         </is>
       </c>
       <c r="E107" t="n">
-        <v>25.51171648160761</v>
+        <v>26.10491953284696</v>
       </c>
     </row>
     <row r="108">
@@ -3321,7 +3321,7 @@
         </is>
       </c>
       <c r="E108" t="n">
-        <v>44.21237486045753</v>
+        <v>41.53317457100685</v>
       </c>
     </row>
     <row r="109">
@@ -3346,7 +3346,7 @@
         </is>
       </c>
       <c r="E109" t="n">
-        <v>46.23470691143792</v>
+        <v>43.18180155777269</v>
       </c>
     </row>
     <row r="110">
@@ -3371,7 +3371,7 @@
         </is>
       </c>
       <c r="E110" t="n">
-        <v>9.536797437716906</v>
+        <v>9.167205191525809</v>
       </c>
     </row>
     <row r="111">
@@ -3396,7 +3396,7 @@
         </is>
       </c>
       <c r="E111" t="n">
-        <v>41.40255861426074</v>
+        <v>38.85930530167689</v>
       </c>
     </row>
     <row r="112">
@@ -3421,7 +3421,7 @@
         </is>
       </c>
       <c r="E112" t="n">
-        <v>45.37212799018843</v>
+        <v>42.5111419121335</v>
       </c>
     </row>
     <row r="113">
@@ -3446,7 +3446,7 @@
         </is>
       </c>
       <c r="E113" t="n">
-        <v>10.54713533457782</v>
+        <v>10.25189721592823</v>
       </c>
     </row>
     <row r="114">
@@ -3471,7 +3471,7 @@
         </is>
       </c>
       <c r="E114" t="n">
-        <v>64.30209321775921</v>
+        <v>60.86823634206606</v>
       </c>
     </row>
     <row r="115">
@@ -3496,7 +3496,7 @@
         </is>
       </c>
       <c r="E115" t="n">
-        <v>69.68346935498677</v>
+        <v>69.88654774852918</v>
       </c>
     </row>
     <row r="116">
@@ -3521,7 +3521,7 @@
         </is>
       </c>
       <c r="E116" t="n">
-        <v>57.61374068288976</v>
+        <v>54.53854594106941</v>
       </c>
     </row>
     <row r="117">
@@ -3546,7 +3546,7 @@
         </is>
       </c>
       <c r="E117" t="n">
-        <v>67.84752274096405</v>
+        <v>64.82166063691076</v>
       </c>
     </row>
     <row r="118">
@@ -3571,7 +3571,7 @@
         </is>
       </c>
       <c r="E118" t="n">
-        <v>66.96991928570279</v>
+        <v>67.2849734036768</v>
       </c>
     </row>
     <row r="119">
@@ -3596,7 +3596,7 @@
         </is>
       </c>
       <c r="E119" t="n">
-        <v>27.87732334730163</v>
+        <v>27.19525050990098</v>
       </c>
     </row>
     <row r="120">
@@ -3621,7 +3621,7 @@
         </is>
       </c>
       <c r="E120" t="n">
-        <v>68.31111075137042</v>
+        <v>64.92095007269671</v>
       </c>
     </row>
     <row r="121">
@@ -3646,7 +3646,7 @@
         </is>
       </c>
       <c r="E121" t="n">
-        <v>69.54528052599042</v>
+        <v>67.77818906892121</v>
       </c>
     </row>
     <row r="122">
@@ -3671,7 +3671,7 @@
         </is>
       </c>
       <c r="E122" t="n">
-        <v>32.66204549478966</v>
+        <v>31.77936536115598</v>
       </c>
     </row>
     <row r="123">
@@ -3696,7 +3696,7 @@
         </is>
       </c>
       <c r="E123" t="n">
-        <v>51.32049406051529</v>
+        <v>47.92064774129862</v>
       </c>
     </row>
     <row r="124">
@@ -3721,7 +3721,7 @@
         </is>
       </c>
       <c r="E124" t="n">
-        <v>51.88901315023438</v>
+        <v>47.02122870935153</v>
       </c>
     </row>
     <row r="125">
@@ -3746,7 +3746,7 @@
         </is>
       </c>
       <c r="E125" t="n">
-        <v>10.49101631549503</v>
+        <v>9.542400679932477</v>
       </c>
     </row>
     <row r="126">
@@ -3771,7 +3771,7 @@
         </is>
       </c>
       <c r="E126" t="n">
-        <v>50.81258380743298</v>
+        <v>48.07975910253577</v>
       </c>
     </row>
     <row r="127">
@@ -3796,7 +3796,7 @@
         </is>
       </c>
       <c r="E127" t="n">
-        <v>52.02295100154141</v>
+        <v>48.40286607732098</v>
       </c>
     </row>
     <row r="128">
@@ -3821,7 +3821,7 @@
         </is>
       </c>
       <c r="E128" t="n">
-        <v>11.44019306609515</v>
+        <v>10.77812156163426</v>
       </c>
     </row>
     <row r="129">
@@ -3846,7 +3846,7 @@
         </is>
       </c>
       <c r="E129" t="n">
-        <v>76.13757860760526</v>
+        <v>69.84353567630427</v>
       </c>
     </row>
     <row r="130">
@@ -3871,7 +3871,7 @@
         </is>
       </c>
       <c r="E130" t="n">
-        <v>73.54902540522832</v>
+        <v>69.6297455922474</v>
       </c>
     </row>
     <row r="131">
@@ -3896,7 +3896,7 @@
         </is>
       </c>
       <c r="E131" t="n">
-        <v>80.02720299846627</v>
+        <v>74.08972158565604</v>
       </c>
     </row>
     <row r="132">
@@ -3921,7 +3921,7 @@
         </is>
       </c>
       <c r="E132" t="n">
-        <v>86.33403873267191</v>
+        <v>76.766257421367</v>
       </c>
     </row>
     <row r="133">
@@ -3946,7 +3946,7 @@
         </is>
       </c>
       <c r="E133" t="n">
-        <v>88.96120767486485</v>
+        <v>81.33033536680151</v>
       </c>
     </row>
     <row r="134">
@@ -3971,7 +3971,7 @@
         </is>
       </c>
       <c r="E134" t="n">
-        <v>34.72228713039514</v>
+        <v>32.65251949855473</v>
       </c>
     </row>
     <row r="135">
@@ -3996,7 +3996,7 @@
         </is>
       </c>
       <c r="E135" t="n">
-        <v>85.29796466124156</v>
+        <v>78.04184481173371</v>
       </c>
     </row>
     <row r="136">
@@ -4021,7 +4021,7 @@
         </is>
       </c>
       <c r="E136" t="n">
-        <v>86.09469192538312</v>
+        <v>78.44870497234599</v>
       </c>
     </row>
     <row r="137">
@@ -4046,7 +4046,7 @@
         </is>
       </c>
       <c r="E137" t="n">
-        <v>19.08546416902733</v>
+        <v>17.85212162545499</v>
       </c>
     </row>
     <row r="138">
@@ -4071,7 +4071,7 @@
         </is>
       </c>
       <c r="E138" t="n">
-        <v>19.71475659456999</v>
+        <v>21.02704492741749</v>
       </c>
     </row>
     <row r="139">
@@ -4096,7 +4096,7 @@
         </is>
       </c>
       <c r="E139" t="n">
-        <v>20.22080998883848</v>
+        <v>21.3908512363725</v>
       </c>
     </row>
     <row r="140">
@@ -4121,7 +4121,7 @@
         </is>
       </c>
       <c r="E140" t="n">
-        <v>4.984456252860976</v>
+        <v>9.800593283019477</v>
       </c>
     </row>
     <row r="141">
@@ -4146,7 +4146,7 @@
         </is>
       </c>
       <c r="E141" t="n">
-        <v>23.55575913843968</v>
+        <v>20.94746098380885</v>
       </c>
     </row>
     <row r="142">
@@ -4171,7 +4171,7 @@
         </is>
       </c>
       <c r="E142" t="n">
-        <v>23.78094533584881</v>
+        <v>22.60690675789858</v>
       </c>
     </row>
     <row r="143">
@@ -4196,7 +4196,7 @@
         </is>
       </c>
       <c r="E143" t="n">
-        <v>7.069360250959033</v>
+        <v>12.53160052036743</v>
       </c>
     </row>
     <row r="144">
@@ -4221,7 +4221,7 @@
         </is>
       </c>
       <c r="E144" t="n">
-        <v>30.71755333625456</v>
+        <v>28.32435922104675</v>
       </c>
     </row>
     <row r="145">
@@ -4246,7 +4246,7 @@
         </is>
       </c>
       <c r="E145" t="n">
-        <v>28.41886884505205</v>
+        <v>28.55888691154519</v>
       </c>
     </row>
     <row r="146">
@@ -4271,7 +4271,7 @@
         </is>
       </c>
       <c r="E146" t="n">
-        <v>25.95854829158529</v>
+        <v>28.13752135328237</v>
       </c>
     </row>
     <row r="147">
@@ -4296,7 +4296,7 @@
         </is>
       </c>
       <c r="E147" t="n">
-        <v>29.19193818314935</v>
+        <v>30.17332789458558</v>
       </c>
     </row>
     <row r="148">
@@ -4321,7 +4321,7 @@
         </is>
       </c>
       <c r="E148" t="n">
-        <v>31.58484449242541</v>
+        <v>34.31797666957351</v>
       </c>
     </row>
     <row r="149">
@@ -4346,7 +4346,7 @@
         </is>
       </c>
       <c r="E149" t="n">
-        <v>63.72293071602522</v>
+        <v>61.04186391013064</v>
       </c>
     </row>
     <row r="150">
@@ -4371,7 +4371,7 @@
         </is>
       </c>
       <c r="E150" t="n">
-        <v>65.1147729497243</v>
+        <v>63.68720795970012</v>
       </c>
     </row>
     <row r="151">
@@ -4396,7 +4396,7 @@
         </is>
       </c>
       <c r="E151" t="n">
-        <v>62.54437260415339</v>
+        <v>61.30550182236465</v>
       </c>
     </row>
     <row r="152">
@@ -4421,7 +4421,7 @@
         </is>
       </c>
       <c r="E152" t="n">
-        <v>17.3752609536256</v>
+        <v>15.19740626783633</v>
       </c>
     </row>
     <row r="153">
@@ -4446,7 +4446,7 @@
         </is>
       </c>
       <c r="E153" t="n">
-        <v>36.37592053964682</v>
+        <v>35.36736889467312</v>
       </c>
     </row>
     <row r="154">
@@ -4471,7 +4471,7 @@
         </is>
       </c>
       <c r="E154" t="n">
-        <v>41.20924010700128</v>
+        <v>40.79316525190244</v>
       </c>
     </row>
     <row r="155">
@@ -4496,7 +4496,7 @@
         </is>
       </c>
       <c r="E155" t="n">
-        <v>9.921032131690925</v>
+        <v>9.193117625834372</v>
       </c>
     </row>
     <row r="156">
@@ -4521,7 +4521,7 @@
         </is>
       </c>
       <c r="E156" t="n">
-        <v>36.68062399847726</v>
+        <v>35.52870177020849</v>
       </c>
     </row>
     <row r="157">
@@ -4546,7 +4546,7 @@
         </is>
       </c>
       <c r="E157" t="n">
-        <v>49.21857569096714</v>
+        <v>48.68399955439011</v>
       </c>
     </row>
     <row r="158">
@@ -4571,7 +4571,7 @@
         </is>
       </c>
       <c r="E158" t="n">
-        <v>13.34718732316257</v>
+        <v>13.7909125824903</v>
       </c>
     </row>
     <row r="159">
@@ -4596,7 +4596,7 @@
         </is>
       </c>
       <c r="E159" t="n">
-        <v>50.83666700026035</v>
+        <v>50.50179320934733</v>
       </c>
     </row>
     <row r="160">
@@ -4621,7 +4621,7 @@
         </is>
       </c>
       <c r="E160" t="n">
-        <v>67.5410625827144</v>
+        <v>64.32902718107768</v>
       </c>
     </row>
     <row r="161">
@@ -4646,7 +4646,7 @@
         </is>
       </c>
       <c r="E161" t="n">
-        <v>44.73570006668285</v>
+        <v>45.27255890290427</v>
       </c>
     </row>
     <row r="162">
@@ -4671,7 +4671,7 @@
         </is>
       </c>
       <c r="E162" t="n">
-        <v>53.36391826568828</v>
+        <v>50.39519670753777</v>
       </c>
     </row>
     <row r="163">
@@ -4696,7 +4696,7 @@
         </is>
       </c>
       <c r="E163" t="n">
-        <v>65.27129530055717</v>
+        <v>61.94096081889472</v>
       </c>
     </row>
     <row r="164">
@@ -4721,7 +4721,7 @@
         </is>
       </c>
       <c r="E164" t="n">
-        <v>18.70525815913549</v>
+        <v>15.70284644182109</v>
       </c>
     </row>
     <row r="165">
@@ -4746,7 +4746,7 @@
         </is>
       </c>
       <c r="E165" t="n">
-        <v>62.67501760564604</v>
+        <v>57.5325014573781</v>
       </c>
     </row>
     <row r="166">
@@ -4771,7 +4771,7 @@
         </is>
       </c>
       <c r="E166" t="n">
-        <v>68.14452112970773</v>
+        <v>64.38350409373921</v>
       </c>
     </row>
     <row r="167">
@@ -4796,7 +4796,7 @@
         </is>
       </c>
       <c r="E167" t="n">
-        <v>29.2727739053867</v>
+        <v>26.59238088754433</v>
       </c>
     </row>
     <row r="168">
@@ -4821,7 +4821,7 @@
         </is>
       </c>
       <c r="E168" t="n">
-        <v>45.62061471120755</v>
+        <v>42.7622959888504</v>
       </c>
     </row>
     <row r="169">
@@ -4846,7 +4846,7 @@
         </is>
       </c>
       <c r="E169" t="n">
-        <v>52.31080823725112</v>
+        <v>47.68233632636506</v>
       </c>
     </row>
     <row r="170">
@@ -4871,7 +4871,7 @@
         </is>
       </c>
       <c r="E170" t="n">
-        <v>12.97676160165865</v>
+        <v>11.25643844818289</v>
       </c>
     </row>
     <row r="171">
@@ -4896,7 +4896,7 @@
         </is>
       </c>
       <c r="E171" t="n">
-        <v>42.98236769384157</v>
+        <v>40.70735491248868</v>
       </c>
     </row>
     <row r="172">
@@ -4921,7 +4921,7 @@
         </is>
       </c>
       <c r="E172" t="n">
-        <v>50.44174591140777</v>
+        <v>49.63543844517304</v>
       </c>
     </row>
     <row r="173">
@@ -4946,7 +4946,7 @@
         </is>
       </c>
       <c r="E173" t="n">
-        <v>17.42717459352526</v>
+        <v>17.80228503754342</v>
       </c>
     </row>
     <row r="174">
@@ -4971,7 +4971,7 @@
         </is>
       </c>
       <c r="E174" t="n">
-        <v>65.39824334533161</v>
+        <v>60.19743207970144</v>
       </c>
     </row>
     <row r="175">
@@ -4996,7 +4996,7 @@
         </is>
       </c>
       <c r="E175" t="n">
-        <v>74.58221448872465</v>
+        <v>68.78303037461117</v>
       </c>
     </row>
     <row r="176">
@@ -5021,7 +5021,7 @@
         </is>
       </c>
       <c r="E176" t="n">
-        <v>64.79612925334433</v>
+        <v>61.98889999697022</v>
       </c>
     </row>
     <row r="177">
@@ -5046,7 +5046,7 @@
         </is>
       </c>
       <c r="E177" t="n">
-        <v>74.28939234310184</v>
+        <v>68.97881227034638</v>
       </c>
     </row>
     <row r="178">
@@ -5071,7 +5071,7 @@
         </is>
       </c>
       <c r="E178" t="n">
-        <v>87.46244975772021</v>
+        <v>79.23526111906455</v>
       </c>
     </row>
     <row r="179">
@@ -5096,7 +5096,7 @@
         </is>
       </c>
       <c r="E179" t="n">
-        <v>38.50726123801626</v>
+        <v>34.09131784483153</v>
       </c>
     </row>
     <row r="180">
@@ -5121,7 +5121,7 @@
         </is>
       </c>
       <c r="E180" t="n">
-        <v>78.45422601032324</v>
+        <v>71.83874057264336</v>
       </c>
     </row>
     <row r="181">
@@ -5146,7 +5146,7 @@
         </is>
       </c>
       <c r="E181" t="n">
-        <v>82.89423150812721</v>
+        <v>76.9053372684094</v>
       </c>
     </row>
     <row r="182">
@@ -5171,7 +5171,7 @@
         </is>
       </c>
       <c r="E182" t="n">
-        <v>28.07394251634214</v>
+        <v>25.8883606983343</v>
       </c>
     </row>
     <row r="183">
@@ -5196,7 +5196,7 @@
         </is>
       </c>
       <c r="E183" t="n">
-        <v>43.56548356899317</v>
+        <v>44.60346428389294</v>
       </c>
     </row>
     <row r="184">
@@ -5221,7 +5221,7 @@
         </is>
       </c>
       <c r="E184" t="n">
-        <v>41.02294309727097</v>
+        <v>42.52787915257159</v>
       </c>
     </row>
     <row r="185">
@@ -5246,7 +5246,7 @@
         </is>
       </c>
       <c r="E185" t="n">
-        <v>10.82809839052964</v>
+        <v>9.90230283365786</v>
       </c>
     </row>
     <row r="186">
@@ -5271,7 +5271,7 @@
         </is>
       </c>
       <c r="E186" t="n">
-        <v>46.43175089997641</v>
+        <v>48.30184723737538</v>
       </c>
     </row>
     <row r="187">
@@ -5296,7 +5296,7 @@
         </is>
       </c>
       <c r="E187" t="n">
-        <v>49.55484152709427</v>
+        <v>49.52952495845364</v>
       </c>
     </row>
     <row r="188">
@@ -5321,7 +5321,7 @@
         </is>
       </c>
       <c r="E188" t="n">
-        <v>12.78418747780963</v>
+        <v>12.32517163961105</v>
       </c>
     </row>
     <row r="189">
@@ -5346,7 +5346,7 @@
         </is>
       </c>
       <c r="E189" t="n">
-        <v>70.6923171312643</v>
+        <v>72.20596622746768</v>
       </c>
     </row>
     <row r="190">
@@ -5371,7 +5371,7 @@
         </is>
       </c>
       <c r="E190" t="n">
-        <v>63.10963443605648</v>
+        <v>64.32988040776429</v>
       </c>
     </row>
     <row r="191">
@@ -5396,7 +5396,7 @@
         </is>
       </c>
       <c r="E191" t="n">
-        <v>57.18920594677925</v>
+        <v>55.6541260142557</v>
       </c>
     </row>
     <row r="192">
@@ -5421,7 +5421,7 @@
         </is>
       </c>
       <c r="E192" t="n">
-        <v>69.45018105412066</v>
+        <v>66.65534345895497</v>
       </c>
     </row>
     <row r="193">
@@ -5446,7 +5446,7 @@
         </is>
       </c>
       <c r="E193" t="n">
-        <v>70.4860999552957</v>
+        <v>69.98158707961014</v>
       </c>
     </row>
     <row r="194">
@@ -5471,7 +5471,7 @@
         </is>
       </c>
       <c r="E194" t="n">
-        <v>24.81277861945219</v>
+        <v>20.00219461875417</v>
       </c>
     </row>
     <row r="195">
@@ -5496,7 +5496,7 @@
         </is>
       </c>
       <c r="E195" t="n">
-        <v>15.46096961425756</v>
+        <v>9.908336216573691</v>
       </c>
     </row>
     <row r="196">
@@ -5521,7 +5521,7 @@
         </is>
       </c>
       <c r="E196" t="n">
-        <v>16.92605173465638</v>
+        <v>10.33235074755401</v>
       </c>
     </row>
     <row r="197">
@@ -5546,7 +5546,7 @@
         </is>
       </c>
       <c r="E197" t="n">
-        <v>32.35131523006627</v>
+        <v>33.87755078932837</v>
       </c>
     </row>
     <row r="198">
@@ -5571,7 +5571,7 @@
         </is>
       </c>
       <c r="E198" t="n">
-        <v>50.61597317859103</v>
+        <v>47.21925638387963</v>
       </c>
     </row>
     <row r="199">
@@ -5596,7 +5596,7 @@
         </is>
       </c>
       <c r="E199" t="n">
-        <v>49.64712833881899</v>
+        <v>46.73369849084712</v>
       </c>
     </row>
     <row r="200">
@@ -5621,7 +5621,7 @@
         </is>
       </c>
       <c r="E200" t="n">
-        <v>10.95325593490018</v>
+        <v>9.55173757637278</v>
       </c>
     </row>
     <row r="201">
@@ -5646,7 +5646,7 @@
         </is>
       </c>
       <c r="E201" t="n">
-        <v>46.34171693431286</v>
+        <v>43.94522899210794</v>
       </c>
     </row>
     <row r="202">
@@ -5671,7 +5671,7 @@
         </is>
       </c>
       <c r="E202" t="n">
-        <v>51.16631004624215</v>
+        <v>47.32580120350541</v>
       </c>
     </row>
     <row r="203">
@@ -5696,7 +5696,7 @@
         </is>
       </c>
       <c r="E203" t="n">
-        <v>12.91101418814114</v>
+        <v>12.24471411397566</v>
       </c>
     </row>
     <row r="204">
@@ -5721,7 +5721,7 @@
         </is>
       </c>
       <c r="E204" t="n">
-        <v>69.6403722723191</v>
+        <v>66.5896319148347</v>
       </c>
     </row>
     <row r="205">
@@ -5746,7 +5746,7 @@
         </is>
       </c>
       <c r="E205" t="n">
-        <v>70.72631443542411</v>
+        <v>68.35882665993819</v>
       </c>
     </row>
     <row r="206">
@@ -5771,7 +5771,7 @@
         </is>
       </c>
       <c r="E206" t="n">
-        <v>68.65261516954607</v>
+        <v>63.65383640122013</v>
       </c>
     </row>
     <row r="207">
@@ -5796,7 +5796,7 @@
         </is>
       </c>
       <c r="E207" t="n">
-        <v>74.55516808042074</v>
+        <v>67.64521170962362</v>
       </c>
     </row>
     <row r="208">
@@ -5821,7 +5821,7 @@
         </is>
       </c>
       <c r="E208" t="n">
-        <v>75.9243032515928</v>
+        <v>70.75042787116058</v>
       </c>
     </row>
     <row r="209">
@@ -5846,7 +5846,7 @@
         </is>
       </c>
       <c r="E209" t="n">
-        <v>41.62352149367594</v>
+        <v>41.05403543016455</v>
       </c>
     </row>
     <row r="210">
@@ -5871,7 +5871,7 @@
         </is>
       </c>
       <c r="E210" t="n">
-        <v>76.69428386270373</v>
+        <v>72.52241427235157</v>
       </c>
     </row>
     <row r="211">
@@ -5896,7 +5896,7 @@
         </is>
       </c>
       <c r="E211" t="n">
-        <v>76.11866047804922</v>
+        <v>74.22601117668404</v>
       </c>
     </row>
     <row r="212">
@@ -5921,7 +5921,7 @@
         </is>
       </c>
       <c r="E212" t="n">
-        <v>37.18379652645398</v>
+        <v>37.60667893959166</v>
       </c>
     </row>
     <row r="213">
@@ -5946,7 +5946,7 @@
         </is>
       </c>
       <c r="E213" t="n">
-        <v>53.58951759257189</v>
+        <v>49.5027529416224</v>
       </c>
     </row>
     <row r="214">
@@ -5971,7 +5971,7 @@
         </is>
       </c>
       <c r="E214" t="n">
-        <v>54.67084294748762</v>
+        <v>49.57768292190985</v>
       </c>
     </row>
     <row r="215">
@@ -5996,7 +5996,7 @@
         </is>
       </c>
       <c r="E215" t="n">
-        <v>11.57516763976567</v>
+        <v>9.945256506793655</v>
       </c>
     </row>
     <row r="216">
@@ -6021,7 +6021,7 @@
         </is>
       </c>
       <c r="E216" t="n">
-        <v>48.26656310443426</v>
+        <v>48.86153524529841</v>
       </c>
     </row>
     <row r="217">
@@ -6046,7 +6046,7 @@
         </is>
       </c>
       <c r="E217" t="n">
-        <v>52.01925194293391</v>
+        <v>47.53601197684012</v>
       </c>
     </row>
     <row r="218">
@@ -6071,7 +6071,7 @@
         </is>
       </c>
       <c r="E218" t="n">
-        <v>14.40068663764308</v>
+        <v>12.51245382115018</v>
       </c>
     </row>
     <row r="219">
@@ -6096,7 +6096,7 @@
         </is>
       </c>
       <c r="E219" t="n">
-        <v>75.58023181473277</v>
+        <v>71.01633625290674</v>
       </c>
     </row>
     <row r="220">
@@ -6121,7 +6121,7 @@
         </is>
       </c>
       <c r="E220" t="n">
-        <v>77.36352865436004</v>
+        <v>70.24685370639716</v>
       </c>
     </row>
     <row r="221">
@@ -6146,7 +6146,7 @@
         </is>
       </c>
       <c r="E221" t="n">
-        <v>83.3344379745856</v>
+        <v>76.11543690998602</v>
       </c>
     </row>
     <row r="222">
@@ -6171,7 +6171,7 @@
         </is>
       </c>
       <c r="E222" t="n">
-        <v>86.83925381781859</v>
+        <v>79.37272966683111</v>
       </c>
     </row>
     <row r="223">
@@ -6196,7 +6196,7 @@
         </is>
       </c>
       <c r="E223" t="n">
-        <v>90.26475327884508</v>
+        <v>81.22543123352264</v>
       </c>
     </row>
     <row r="224">
@@ -6221,7 +6221,7 @@
         </is>
       </c>
       <c r="E224" t="n">
-        <v>52.67667184505211</v>
+        <v>49.66477857415132</v>
       </c>
     </row>
     <row r="225">
@@ -6246,7 +6246,7 @@
         </is>
       </c>
       <c r="E225" t="n">
-        <v>89.04980883671612</v>
+        <v>82.00594821505723</v>
       </c>
     </row>
     <row r="226">
@@ -6271,7 +6271,7 @@
         </is>
       </c>
       <c r="E226" t="n">
-        <v>83.98459474197378</v>
+        <v>79.40391942269289</v>
       </c>
     </row>
     <row r="227">
@@ -6296,7 +6296,7 @@
         </is>
       </c>
       <c r="E227" t="n">
-        <v>22.65075051479042</v>
+        <v>23.6861781126385</v>
       </c>
     </row>
     <row r="228">
@@ -6321,7 +6321,7 @@
         </is>
       </c>
       <c r="E228" t="n">
-        <v>35.52083157616015</v>
+        <v>33.78558894123761</v>
       </c>
     </row>
     <row r="229">
@@ -6346,7 +6346,7 @@
         </is>
       </c>
       <c r="E229" t="n">
-        <v>39.4082446482181</v>
+        <v>39.20593332704552</v>
       </c>
     </row>
     <row r="230">
@@ -6371,7 +6371,7 @@
         </is>
       </c>
       <c r="E230" t="n">
-        <v>9.580593145138604</v>
+        <v>9.011536325928461</v>
       </c>
     </row>
     <row r="231">
@@ -6396,7 +6396,7 @@
         </is>
       </c>
       <c r="E231" t="n">
-        <v>44.55906264453459</v>
+        <v>45.20693375178011</v>
       </c>
     </row>
     <row r="232">
@@ -6421,7 +6421,7 @@
         </is>
       </c>
       <c r="E232" t="n">
-        <v>47.48918139908528</v>
+        <v>49.07821416884119</v>
       </c>
     </row>
     <row r="233">
@@ -6446,7 +6446,7 @@
         </is>
       </c>
       <c r="E233" t="n">
-        <v>10.47710352155082</v>
+        <v>10.46785438260775</v>
       </c>
     </row>
     <row r="234">
@@ -6471,7 +6471,7 @@
         </is>
       </c>
       <c r="E234" t="n">
-        <v>68.63070330227163</v>
+        <v>68.7275259336075</v>
       </c>
     </row>
     <row r="235">
@@ -6496,7 +6496,7 @@
         </is>
       </c>
       <c r="E235" t="n">
-        <v>64.09748521162402</v>
+        <v>64.52829867052034</v>
       </c>
     </row>
     <row r="236">
@@ -6521,7 +6521,7 @@
         </is>
       </c>
       <c r="E236" t="n">
-        <v>59.93350602236818</v>
+        <v>58.70874818324339</v>
       </c>
     </row>
     <row r="237">
@@ -6546,7 +6546,7 @@
         </is>
       </c>
       <c r="E237" t="n">
-        <v>65.76061065991929</v>
+        <v>64.64900157582426</v>
       </c>
     </row>
     <row r="238">
@@ -6571,7 +6571,7 @@
         </is>
       </c>
       <c r="E238" t="n">
-        <v>67.42035859187166</v>
+        <v>66.21327551722109</v>
       </c>
     </row>
     <row r="239">
@@ -6596,7 +6596,7 @@
         </is>
       </c>
       <c r="E239" t="n">
-        <v>17.45714684790168</v>
+        <v>18.43340041904598</v>
       </c>
     </row>
     <row r="240">
@@ -6621,7 +6621,7 @@
         </is>
       </c>
       <c r="E240" t="n">
-        <v>10.47842199491811</v>
+        <v>9.348722563284916</v>
       </c>
     </row>
     <row r="241">
@@ -6646,7 +6646,7 @@
         </is>
       </c>
       <c r="E241" t="n">
-        <v>9.803982093211165</v>
+        <v>8.978458951590298</v>
       </c>
     </row>
     <row r="242">
@@ -6671,7 +6671,7 @@
         </is>
       </c>
       <c r="E242" t="n">
-        <v>27.20618145698445</v>
+        <v>26.81831536025732</v>
       </c>
     </row>
     <row r="243">
@@ -6696,7 +6696,7 @@
         </is>
       </c>
       <c r="E243" t="n">
-        <v>48.09707295735645</v>
+        <v>46.65214306611979</v>
       </c>
     </row>
     <row r="244">
@@ -6721,7 +6721,7 @@
         </is>
       </c>
       <c r="E244" t="n">
-        <v>49.84369863851053</v>
+        <v>48.71099643624206</v>
       </c>
     </row>
     <row r="245">
@@ -6746,7 +6746,7 @@
         </is>
       </c>
       <c r="E245" t="n">
-        <v>10.03344881071666</v>
+        <v>9.219917349178061</v>
       </c>
     </row>
     <row r="246">
@@ -6771,7 +6771,7 @@
         </is>
       </c>
       <c r="E246" t="n">
-        <v>46.31304654571506</v>
+        <v>41.63186831797281</v>
       </c>
     </row>
     <row r="247">
@@ -6796,7 +6796,7 @@
         </is>
       </c>
       <c r="E247" t="n">
-        <v>50.20492080419863</v>
+        <v>48.71457316291757</v>
       </c>
     </row>
     <row r="248">
@@ -6821,7 +6821,7 @@
         </is>
       </c>
       <c r="E248" t="n">
-        <v>11.4569444240484</v>
+        <v>10.54075524544617</v>
       </c>
     </row>
     <row r="249">
@@ -6846,7 +6846,7 @@
         </is>
       </c>
       <c r="E249" t="n">
-        <v>70.00613275341807</v>
+        <v>66.54859669591337</v>
       </c>
     </row>
     <row r="250">
@@ -6871,7 +6871,7 @@
         </is>
       </c>
       <c r="E250" t="n">
-        <v>72.13335122525194</v>
+        <v>70.80566155194495</v>
       </c>
     </row>
     <row r="251">
@@ -6896,7 +6896,7 @@
         </is>
       </c>
       <c r="E251" t="n">
-        <v>55.73144666541569</v>
+        <v>53.83785660098039</v>
       </c>
     </row>
     <row r="252">
@@ -6921,7 +6921,7 @@
         </is>
       </c>
       <c r="E252" t="n">
-        <v>70.12728081078582</v>
+        <v>66.26487907663548</v>
       </c>
     </row>
     <row r="253">
@@ -6946,7 +6946,7 @@
         </is>
       </c>
       <c r="E253" t="n">
-        <v>72.37393212505211</v>
+        <v>72.19877780195127</v>
       </c>
     </row>
     <row r="254">
@@ -6971,7 +6971,7 @@
         </is>
       </c>
       <c r="E254" t="n">
-        <v>25.7765675945415</v>
+        <v>25.96493162823319</v>
       </c>
     </row>
     <row r="255">
@@ -6996,7 +6996,7 @@
         </is>
       </c>
       <c r="E255" t="n">
-        <v>75.38399650568215</v>
+        <v>73.07160470928339</v>
       </c>
     </row>
     <row r="256">
@@ -7021,7 +7021,7 @@
         </is>
       </c>
       <c r="E256" t="n">
-        <v>78.26414921403446</v>
+        <v>76.04622804889237</v>
       </c>
     </row>
     <row r="257">
@@ -7046,7 +7046,7 @@
         </is>
       </c>
       <c r="E257" t="n">
-        <v>27.76301764214396</v>
+        <v>28.00223917161317</v>
       </c>
     </row>
     <row r="258">
@@ -7071,7 +7071,7 @@
         </is>
       </c>
       <c r="E258" t="n">
-        <v>48.05835563118345</v>
+        <v>47.55096461219178</v>
       </c>
     </row>
     <row r="259">
@@ -7096,7 +7096,7 @@
         </is>
       </c>
       <c r="E259" t="n">
-        <v>50.14819853370901</v>
+        <v>49.94895996609351</v>
       </c>
     </row>
     <row r="260">
@@ -7121,7 +7121,7 @@
         </is>
       </c>
       <c r="E260" t="n">
-        <v>9.620159641733988</v>
+        <v>9.331309655023055</v>
       </c>
     </row>
     <row r="261">
@@ -7146,7 +7146,7 @@
         </is>
       </c>
       <c r="E261" t="n">
-        <v>47.61883490787447</v>
+        <v>44.07021466955668</v>
       </c>
     </row>
     <row r="262">
@@ -7171,7 +7171,7 @@
         </is>
       </c>
       <c r="E262" t="n">
-        <v>49.04300695391829</v>
+        <v>46.93383285173184</v>
       </c>
     </row>
     <row r="263">
@@ -7196,7 +7196,7 @@
         </is>
       </c>
       <c r="E263" t="n">
-        <v>10.88830382648861</v>
+        <v>10.63783721438701</v>
       </c>
     </row>
     <row r="264">
@@ -7221,7 +7221,7 @@
         </is>
       </c>
       <c r="E264" t="n">
-        <v>72.90760581845223</v>
+        <v>68.81220388320914</v>
       </c>
     </row>
     <row r="265">
@@ -7246,7 +7246,7 @@
         </is>
       </c>
       <c r="E265" t="n">
-        <v>70.89847526792556</v>
+        <v>69.84653372625661</v>
       </c>
     </row>
     <row r="266">
@@ -7271,7 +7271,7 @@
         </is>
       </c>
       <c r="E266" t="n">
-        <v>74.01281058182234</v>
+        <v>71.71982230404285</v>
       </c>
     </row>
     <row r="267">
@@ -7296,7 +7296,7 @@
         </is>
       </c>
       <c r="E267" t="n">
-        <v>81.65715500100069</v>
+        <v>77.26510898907799</v>
       </c>
     </row>
     <row r="268">
@@ -7321,7 +7321,7 @@
         </is>
       </c>
       <c r="E268" t="n">
-        <v>82.57842511713778</v>
+        <v>79.6428462340016</v>
       </c>
     </row>
     <row r="269">
@@ -7346,7 +7346,7 @@
         </is>
       </c>
       <c r="E269" t="n">
-        <v>26.05414412290519</v>
+        <v>25.25953687876827</v>
       </c>
     </row>
     <row r="270">
@@ -7371,7 +7371,7 @@
         </is>
       </c>
       <c r="E270" t="n">
-        <v>81.89927059975386</v>
+        <v>76.22471727767217</v>
       </c>
     </row>
     <row r="271">
@@ -7396,7 +7396,7 @@
         </is>
       </c>
       <c r="E271" t="n">
-        <v>81.23897706311382</v>
+        <v>79.21125354370217</v>
       </c>
     </row>
     <row r="272">
@@ -7421,7 +7421,7 @@
         </is>
       </c>
       <c r="E272" t="n">
-        <v>11.52143294068409</v>
+        <v>13.82180305237939</v>
       </c>
     </row>
     <row r="273">
@@ -7446,7 +7446,7 @@
         </is>
       </c>
       <c r="E273" t="n">
-        <v>11.31829004467664</v>
+        <v>15.15768433306168</v>
       </c>
     </row>
     <row r="274">
@@ -7471,7 +7471,7 @@
         </is>
       </c>
       <c r="E274" t="n">
-        <v>13.72443481304979</v>
+        <v>14.66946892911292</v>
       </c>
     </row>
     <row r="275">
@@ -7496,7 +7496,7 @@
         </is>
       </c>
       <c r="E275" t="n">
-        <v>2.404515452742732</v>
+        <v>8.893813527523115</v>
       </c>
     </row>
     <row r="276">
@@ -7521,7 +7521,7 @@
         </is>
       </c>
       <c r="E276" t="n">
-        <v>16.51187372491675</v>
+        <v>18.00508314648074</v>
       </c>
     </row>
     <row r="277">
@@ -7546,7 +7546,7 @@
         </is>
       </c>
       <c r="E277" t="n">
-        <v>19.68000676758176</v>
+        <v>20.0476542767525</v>
       </c>
     </row>
     <row r="278">
@@ -7571,7 +7571,7 @@
         </is>
       </c>
       <c r="E278" t="n">
-        <v>2.843997344246063</v>
+        <v>9.595659226626072</v>
       </c>
     </row>
     <row r="279">
@@ -7596,7 +7596,7 @@
         </is>
       </c>
       <c r="E279" t="n">
-        <v>22.53474547177546</v>
+        <v>21.45638991184893</v>
       </c>
     </row>
     <row r="280">
@@ -7621,7 +7621,7 @@
         </is>
       </c>
       <c r="E280" t="n">
-        <v>23.11685369562357</v>
+        <v>23.16141730913398</v>
       </c>
     </row>
     <row r="281">
@@ -7646,7 +7646,7 @@
         </is>
       </c>
       <c r="E281" t="n">
-        <v>24.39315330639778</v>
+        <v>26.54381246124008</v>
       </c>
     </row>
     <row r="282">
@@ -7671,7 +7671,7 @@
         </is>
       </c>
       <c r="E282" t="n">
-        <v>30.60788299935789</v>
+        <v>32.0217294202147</v>
       </c>
     </row>
     <row r="283">
@@ -7696,7 +7696,7 @@
         </is>
       </c>
       <c r="E283" t="n">
-        <v>31.97433353294868</v>
+        <v>34.16468491068157</v>
       </c>
     </row>
     <row r="284">
@@ -7721,7 +7721,7 @@
         </is>
       </c>
       <c r="E284" t="n">
-        <v>14.23529807952982</v>
+        <v>14.61847515452615</v>
       </c>
     </row>
     <row r="285">
@@ -7746,7 +7746,7 @@
         </is>
       </c>
       <c r="E285" t="n">
-        <v>20.05950255649857</v>
+        <v>19.52183279866612</v>
       </c>
     </row>
     <row r="286">
@@ -7771,7 +7771,7 @@
         </is>
       </c>
       <c r="E286" t="n">
-        <v>21.2902073222844</v>
+        <v>20.60657380642915</v>
       </c>
     </row>
     <row r="287">
@@ -7796,7 +7796,7 @@
         </is>
       </c>
       <c r="E287" t="n">
-        <v>16.02288265877618</v>
+        <v>14.62598081515654</v>
       </c>
     </row>
     <row r="288">
@@ -7821,7 +7821,7 @@
         </is>
       </c>
       <c r="E288" t="n">
-        <v>29.29476138574431</v>
+        <v>30.89419939308069</v>
       </c>
     </row>
     <row r="289">
@@ -7846,7 +7846,7 @@
         </is>
       </c>
       <c r="E289" t="n">
-        <v>34.81414747554854</v>
+        <v>36.0218837715152</v>
       </c>
     </row>
     <row r="290">
@@ -7871,7 +7871,7 @@
         </is>
       </c>
       <c r="E290" t="n">
-        <v>8.198941690128816</v>
+        <v>8.939514477255191</v>
       </c>
     </row>
     <row r="291">
@@ -7896,7 +7896,7 @@
         </is>
       </c>
       <c r="E291" t="n">
-        <v>28.17279335426014</v>
+        <v>30.03301412960229</v>
       </c>
     </row>
     <row r="292">
@@ -7921,7 +7921,7 @@
         </is>
       </c>
       <c r="E292" t="n">
-        <v>37.77436642544946</v>
+        <v>38.0739853313006</v>
       </c>
     </row>
     <row r="293">
@@ -7946,7 +7946,7 @@
         </is>
       </c>
       <c r="E293" t="n">
-        <v>9.108608753100594</v>
+        <v>9.115281518375191</v>
       </c>
     </row>
     <row r="294">
@@ -7971,7 +7971,7 @@
         </is>
       </c>
       <c r="E294" t="n">
-        <v>43.1067363912961</v>
+        <v>42.68944777317288</v>
       </c>
     </row>
     <row r="295">
@@ -7996,7 +7996,7 @@
         </is>
       </c>
       <c r="E295" t="n">
-        <v>54.44034605231187</v>
+        <v>51.68898582302295</v>
       </c>
     </row>
     <row r="296">
@@ -8021,7 +8021,7 @@
         </is>
       </c>
       <c r="E296" t="n">
-        <v>40.38294527686725</v>
+        <v>41.0851075202328</v>
       </c>
     </row>
     <row r="297">
@@ -8046,7 +8046,7 @@
         </is>
       </c>
       <c r="E297" t="n">
-        <v>50.10739610162646</v>
+        <v>47.78978702155273</v>
       </c>
     </row>
     <row r="298">
@@ -8071,7 +8071,7 @@
         </is>
       </c>
       <c r="E298" t="n">
-        <v>51.65821775661172</v>
+        <v>50.3206736568015</v>
       </c>
     </row>
     <row r="299">
@@ -8096,7 +8096,7 @@
         </is>
       </c>
       <c r="E299" t="n">
-        <v>17.94289677300448</v>
+        <v>15.47185020331995</v>
       </c>
     </row>
     <row r="300">
@@ -8121,7 +8121,7 @@
         </is>
       </c>
       <c r="E300" t="n">
-        <v>49.86897591488788</v>
+        <v>47.70303607796213</v>
       </c>
     </row>
     <row r="301">
@@ -8146,7 +8146,7 @@
         </is>
       </c>
       <c r="E301" t="n">
-        <v>53.35853561878293</v>
+        <v>49.78786085565525</v>
       </c>
     </row>
     <row r="302">
@@ -8171,7 +8171,7 @@
         </is>
       </c>
       <c r="E302" t="n">
-        <v>20.28703144456947</v>
+        <v>21.68537329557012</v>
       </c>
     </row>
     <row r="303">
@@ -8196,7 +8196,7 @@
         </is>
       </c>
       <c r="E303" t="n">
-        <v>38.68133741748969</v>
+        <v>34.71325066511717</v>
       </c>
     </row>
     <row r="304">
@@ -8221,7 +8221,7 @@
         </is>
       </c>
       <c r="E304" t="n">
-        <v>42.97920331716259</v>
+        <v>44.05206530678964</v>
       </c>
     </row>
     <row r="305">
@@ -8246,7 +8246,7 @@
         </is>
       </c>
       <c r="E305" t="n">
-        <v>10.5833999185176</v>
+        <v>9.394148175971978</v>
       </c>
     </row>
     <row r="306">
@@ -8271,7 +8271,7 @@
         </is>
       </c>
       <c r="E306" t="n">
-        <v>40.8745638481179</v>
+        <v>41.55240068286101</v>
       </c>
     </row>
     <row r="307">
@@ -8296,7 +8296,7 @@
         </is>
       </c>
       <c r="E307" t="n">
-        <v>47.43816243007932</v>
+        <v>47.97054331357803</v>
       </c>
     </row>
     <row r="308">
@@ -8321,7 +8321,7 @@
         </is>
       </c>
       <c r="E308" t="n">
-        <v>13.11039362521089</v>
+        <v>11.58982666648764</v>
       </c>
     </row>
     <row r="309">
@@ -8346,7 +8346,7 @@
         </is>
       </c>
       <c r="E309" t="n">
-        <v>63.71443735879602</v>
+        <v>59.90578997727673</v>
       </c>
     </row>
     <row r="310">
@@ -8371,7 +8371,7 @@
         </is>
       </c>
       <c r="E310" t="n">
-        <v>65.41441285344025</v>
+        <v>62.66527440449004</v>
       </c>
     </row>
     <row r="311">
@@ -8396,7 +8396,7 @@
         </is>
       </c>
       <c r="E311" t="n">
-        <v>68.19663940759312</v>
+        <v>63.03514788584292</v>
       </c>
     </row>
     <row r="312">
@@ -8421,7 +8421,7 @@
         </is>
       </c>
       <c r="E312" t="n">
-        <v>76.17033545050943</v>
+        <v>70.67606535476057</v>
       </c>
     </row>
     <row r="313">
@@ -8446,7 +8446,7 @@
         </is>
       </c>
       <c r="E313" t="n">
-        <v>77.95614686514048</v>
+        <v>73.01860156517932</v>
       </c>
     </row>
     <row r="314">
@@ -8471,7 +8471,7 @@
         </is>
       </c>
       <c r="E314" t="n">
-        <v>32.56715517673753</v>
+        <v>30.5691656405959</v>
       </c>
     </row>
     <row r="315">
@@ -8496,7 +8496,7 @@
         </is>
       </c>
       <c r="E315" t="n">
-        <v>76.54359223424704</v>
+        <v>70.76459420704956</v>
       </c>
     </row>
     <row r="316">
@@ -8521,7 +8521,7 @@
         </is>
       </c>
       <c r="E316" t="n">
-        <v>81.91949187322784</v>
+        <v>76.51871622135924</v>
       </c>
     </row>
     <row r="317">
@@ -8546,7 +8546,7 @@
         </is>
       </c>
       <c r="E317" t="n">
-        <v>13.70806265295857</v>
+        <v>13.24239270113876</v>
       </c>
     </row>
     <row r="318">
@@ -8571,7 +8571,7 @@
         </is>
       </c>
       <c r="E318" t="n">
-        <v>12.55811773705375</v>
+        <v>15.07410309563061</v>
       </c>
     </row>
     <row r="319">
@@ -8596,7 +8596,7 @@
         </is>
       </c>
       <c r="E319" t="n">
-        <v>12.97540370486055</v>
+        <v>14.16028637891074</v>
       </c>
     </row>
     <row r="320">
@@ -8621,7 +8621,7 @@
         </is>
       </c>
       <c r="E320" t="n">
-        <v>2.021302219368287</v>
+        <v>8.055930679649521</v>
       </c>
     </row>
     <row r="321">
@@ -8646,7 +8646,7 @@
         </is>
       </c>
       <c r="E321" t="n">
-        <v>15.40057591811813</v>
+        <v>15.66084565410717</v>
       </c>
     </row>
     <row r="322">
@@ -8671,7 +8671,7 @@
         </is>
       </c>
       <c r="E322" t="n">
-        <v>17.90022719282677</v>
+        <v>19.53130572227255</v>
       </c>
     </row>
     <row r="323">
@@ -8696,7 +8696,7 @@
         </is>
       </c>
       <c r="E323" t="n">
-        <v>2.344068276020035</v>
+        <v>9.509658615404948</v>
       </c>
     </row>
     <row r="324">
@@ -8721,7 +8721,7 @@
         </is>
       </c>
       <c r="E324" t="n">
-        <v>17.9433767988913</v>
+        <v>17.37413070483735</v>
       </c>
     </row>
     <row r="325">
@@ -8746,7 +8746,7 @@
         </is>
       </c>
       <c r="E325" t="n">
-        <v>14.19754325566965</v>
+        <v>16.55702610233017</v>
       </c>
     </row>
     <row r="326">
@@ -8771,7 +8771,7 @@
         </is>
       </c>
       <c r="E326" t="n">
-        <v>13.2095289192457</v>
+        <v>18.13441071793612</v>
       </c>
     </row>
     <row r="327">
@@ -8796,7 +8796,7 @@
         </is>
       </c>
       <c r="E327" t="n">
-        <v>15.56700816228533</v>
+        <v>18.91388419659386</v>
       </c>
     </row>
     <row r="328">
@@ -8821,7 +8821,7 @@
         </is>
       </c>
       <c r="E328" t="n">
-        <v>13.05629908818977</v>
+        <v>18.14290264231828</v>
       </c>
     </row>
     <row r="329">
@@ -8846,7 +8846,7 @@
         </is>
       </c>
       <c r="E329" t="n">
-        <v>14.66405795227488</v>
+        <v>14.18961595915496</v>
       </c>
     </row>
     <row r="330">
@@ -8871,7 +8871,7 @@
         </is>
       </c>
       <c r="E330" t="n">
-        <v>16.04590915771276</v>
+        <v>16.03446904152559</v>
       </c>
     </row>
     <row r="331">
@@ -8896,7 +8896,7 @@
         </is>
       </c>
       <c r="E331" t="n">
-        <v>17.47193264121952</v>
+        <v>15.64855678348641</v>
       </c>
     </row>
     <row r="332">
@@ -8921,7 +8921,7 @@
         </is>
       </c>
       <c r="E332" t="n">
-        <v>7.660994906128543</v>
+        <v>8.349449801820011</v>
       </c>
     </row>
     <row r="333">
@@ -8946,7 +8946,7 @@
         </is>
       </c>
       <c r="E333" t="n">
-        <v>11.45861983725528</v>
+        <v>12.38886330635372</v>
       </c>
     </row>
     <row r="334">
@@ -8971,7 +8971,7 @@
         </is>
       </c>
       <c r="E334" t="n">
-        <v>14.60378951589286</v>
+        <v>15.351894768714</v>
       </c>
     </row>
     <row r="335">
@@ -8996,7 +8996,7 @@
         </is>
       </c>
       <c r="E335" t="n">
-        <v>1.017414885549329</v>
+        <v>7.15452898810274</v>
       </c>
     </row>
     <row r="336">
@@ -9021,7 +9021,7 @@
         </is>
       </c>
       <c r="E336" t="n">
-        <v>11.49444420050732</v>
+        <v>12.60438615829595</v>
       </c>
     </row>
     <row r="337">
@@ -9046,7 +9046,7 @@
         </is>
       </c>
       <c r="E337" t="n">
-        <v>16.93552535048641</v>
+        <v>17.19624507817746</v>
       </c>
     </row>
     <row r="338">
@@ -9071,7 +9071,7 @@
         </is>
       </c>
       <c r="E338" t="n">
-        <v>0.7084535936923473</v>
+        <v>6.889147842688256</v>
       </c>
     </row>
     <row r="339">
@@ -9096,7 +9096,7 @@
         </is>
       </c>
       <c r="E339" t="n">
-        <v>15.92641007573473</v>
+        <v>16.00970994850662</v>
       </c>
     </row>
     <row r="340">
@@ -9121,7 +9121,7 @@
         </is>
       </c>
       <c r="E340" t="n">
-        <v>26.27961113939801</v>
+        <v>26.11780516675013</v>
       </c>
     </row>
     <row r="341">
@@ -9146,7 +9146,7 @@
         </is>
       </c>
       <c r="E341" t="n">
-        <v>11.52665854428452</v>
+        <v>12.67796398969288</v>
       </c>
     </row>
     <row r="342">
@@ -9171,7 +9171,7 @@
         </is>
       </c>
       <c r="E342" t="n">
-        <v>23.17928805256008</v>
+        <v>26.38341084957622</v>
       </c>
     </row>
     <row r="343">
@@ -9196,7 +9196,7 @@
         </is>
       </c>
       <c r="E343" t="n">
-        <v>34.42254873098553</v>
+        <v>36.06986797733914</v>
       </c>
     </row>
     <row r="344">
@@ -9221,7 +9221,7 @@
         </is>
       </c>
       <c r="E344" t="n">
-        <v>4.273816322418025</v>
+        <v>8.187789184068187</v>
       </c>
     </row>
     <row r="345">
@@ -9246,7 +9246,7 @@
         </is>
       </c>
       <c r="E345" t="n">
-        <v>22.2819437741009</v>
+        <v>19.40616762576661</v>
       </c>
     </row>
     <row r="346">
@@ -9271,7 +9271,7 @@
         </is>
       </c>
       <c r="E346" t="n">
-        <v>18.26548040952861</v>
+        <v>16.86883514846562</v>
       </c>
     </row>
     <row r="347">
@@ -9296,7 +9296,7 @@
         </is>
       </c>
       <c r="E347" t="n">
-        <v>9.031381310399528</v>
+        <v>8.83889491770946</v>
       </c>
     </row>
     <row r="348">
@@ -9321,7 +9321,7 @@
         </is>
       </c>
       <c r="E348" t="n">
-        <v>17.69661994291137</v>
+        <v>16.31769093197918</v>
       </c>
     </row>
     <row r="349">
@@ -9346,7 +9346,7 @@
         </is>
       </c>
       <c r="E349" t="n">
-        <v>33.74658047131506</v>
+        <v>35.43720245840397</v>
       </c>
     </row>
     <row r="350">
@@ -9371,7 +9371,7 @@
         </is>
       </c>
       <c r="E350" t="n">
-        <v>2.216454416723458</v>
+        <v>7.209337645045569</v>
       </c>
     </row>
     <row r="351">
@@ -9396,7 +9396,7 @@
         </is>
       </c>
       <c r="E351" t="n">
-        <v>17.8756434111561</v>
+        <v>16.80870250567211</v>
       </c>
     </row>
     <row r="352">
@@ -9421,7 +9421,7 @@
         </is>
       </c>
       <c r="E352" t="n">
-        <v>34.77649135848293</v>
+        <v>35.93517805354744</v>
       </c>
     </row>
     <row r="353">
@@ -9446,7 +9446,7 @@
         </is>
       </c>
       <c r="E353" t="n">
-        <v>2.142326620982118</v>
+        <v>6.919992395148686</v>
       </c>
     </row>
     <row r="354">
@@ -9471,7 +9471,7 @@
         </is>
       </c>
       <c r="E354" t="n">
-        <v>26.76051676287569</v>
+        <v>23.21847958783861</v>
       </c>
     </row>
     <row r="355">
@@ -9496,7 +9496,7 @@
         </is>
       </c>
       <c r="E355" t="n">
-        <v>59.62907505761939</v>
+        <v>59.53437320464884</v>
       </c>
     </row>
     <row r="356">
@@ -9521,7 +9521,7 @@
         </is>
       </c>
       <c r="E356" t="n">
-        <v>24.48455691793798</v>
+        <v>18.88855457886258</v>
       </c>
     </row>
     <row r="357">
@@ -9546,7 +9546,7 @@
         </is>
       </c>
       <c r="E357" t="n">
-        <v>49.24874968130216</v>
+        <v>46.75618473617183</v>
       </c>
     </row>
     <row r="358">
@@ -9571,7 +9571,7 @@
         </is>
       </c>
       <c r="E358" t="n">
-        <v>69.89859770822675</v>
+        <v>68.97574641495237</v>
       </c>
     </row>
     <row r="359">
@@ -9596,7 +9596,7 @@
         </is>
       </c>
       <c r="E359" t="n">
-        <v>8.084401063602179</v>
+        <v>8.187767111055482</v>
       </c>
     </row>
     <row r="360">
@@ -9621,7 +9621,7 @@
         </is>
       </c>
       <c r="E360" t="n">
-        <v>34.10576423538106</v>
+        <v>34.71052268738502</v>
       </c>
     </row>
     <row r="361">
@@ -9646,7 +9646,7 @@
         </is>
       </c>
       <c r="E361" t="n">
-        <v>43.13411455930592</v>
+        <v>44.54599406266704</v>
       </c>
     </row>
     <row r="362">
@@ -9671,7 +9671,7 @@
         </is>
       </c>
       <c r="E362" t="n">
-        <v>18.98965358120615</v>
+        <v>19.24204042088208</v>
       </c>
     </row>
     <row r="363">
@@ -9696,7 +9696,7 @@
         </is>
       </c>
       <c r="E363" t="n">
-        <v>26.41735481068903</v>
+        <v>21.78072764898539</v>
       </c>
     </row>
     <row r="364">
@@ -9721,7 +9721,7 @@
         </is>
       </c>
       <c r="E364" t="n">
-        <v>39.07834091228338</v>
+        <v>36.11602943716768</v>
       </c>
     </row>
     <row r="365">
@@ -9746,7 +9746,7 @@
         </is>
       </c>
       <c r="E365" t="n">
-        <v>10.3676345959901</v>
+        <v>9.773063523154988</v>
       </c>
     </row>
     <row r="366">
@@ -9771,7 +9771,7 @@
         </is>
       </c>
       <c r="E366" t="n">
-        <v>44.97774435351186</v>
+        <v>43.00419750132208</v>
       </c>
     </row>
     <row r="367">
@@ -9796,7 +9796,7 @@
         </is>
       </c>
       <c r="E367" t="n">
-        <v>51.03428440836282</v>
+        <v>45.04498136102606</v>
       </c>
     </row>
     <row r="368">
@@ -9821,7 +9821,7 @@
         </is>
       </c>
       <c r="E368" t="n">
-        <v>11.86657096923045</v>
+        <v>14.65953244108407</v>
       </c>
     </row>
     <row r="369">
@@ -9846,7 +9846,7 @@
         </is>
       </c>
       <c r="E369" t="n">
-        <v>63.57905633383773</v>
+        <v>60.14687886719484</v>
       </c>
     </row>
     <row r="370">
@@ -9871,7 +9871,7 @@
         </is>
       </c>
       <c r="E370" t="n">
-        <v>65.2411229521841</v>
+        <v>61.10444938558962</v>
       </c>
     </row>
     <row r="371">
@@ -9896,7 +9896,7 @@
         </is>
       </c>
       <c r="E371" t="n">
-        <v>60.79350497059801</v>
+        <v>58.35782637544783</v>
       </c>
     </row>
     <row r="372">
@@ -9921,7 +9921,7 @@
         </is>
       </c>
       <c r="E372" t="n">
-        <v>70.91060199694485</v>
+        <v>66.08728231749932</v>
       </c>
     </row>
     <row r="373">
@@ -9946,7 +9946,7 @@
         </is>
       </c>
       <c r="E373" t="n">
-        <v>69.69742098834985</v>
+        <v>64.73045833081503</v>
       </c>
     </row>
     <row r="374">
@@ -9971,7 +9971,7 @@
         </is>
       </c>
       <c r="E374" t="n">
-        <v>32.41251524317067</v>
+        <v>35.68700095373146</v>
       </c>
     </row>
     <row r="375">
@@ -9996,7 +9996,7 @@
         </is>
       </c>
       <c r="E375" t="n">
-        <v>56.56089355751244</v>
+        <v>52.02352845913364</v>
       </c>
     </row>
     <row r="376">
@@ -10021,7 +10021,7 @@
         </is>
       </c>
       <c r="E376" t="n">
-        <v>72.49298535282938</v>
+        <v>66.39162196794658</v>
       </c>
     </row>
     <row r="377">
@@ -10046,7 +10046,7 @@
         </is>
       </c>
       <c r="E377" t="n">
-        <v>21.49357106387321</v>
+        <v>22.74781079054601</v>
       </c>
     </row>
     <row r="378">
@@ -10071,7 +10071,7 @@
         </is>
       </c>
       <c r="E378" t="n">
-        <v>35.27034804397393</v>
+        <v>34.42848801973266</v>
       </c>
     </row>
     <row r="379">
@@ -10096,7 +10096,7 @@
         </is>
       </c>
       <c r="E379" t="n">
-        <v>38.96827876282579</v>
+        <v>36.42488459001758</v>
       </c>
     </row>
     <row r="380">
@@ -10121,7 +10121,7 @@
         </is>
       </c>
       <c r="E380" t="n">
-        <v>8.051540764886962</v>
+        <v>9.310977235039218</v>
       </c>
     </row>
     <row r="381">
@@ -10146,7 +10146,7 @@
         </is>
       </c>
       <c r="E381" t="n">
-        <v>35.44220779118468</v>
+        <v>35.52401719021596</v>
       </c>
     </row>
     <row r="382">
@@ -10171,7 +10171,7 @@
         </is>
       </c>
       <c r="E382" t="n">
-        <v>38.77250014051141</v>
+        <v>37.08803402069199</v>
       </c>
     </row>
     <row r="383">
@@ -10196,7 +10196,7 @@
         </is>
       </c>
       <c r="E383" t="n">
-        <v>9.4658538804701</v>
+        <v>10.94846548911058</v>
       </c>
     </row>
     <row r="384">
@@ -10221,7 +10221,7 @@
         </is>
       </c>
       <c r="E384" t="n">
-        <v>54.30328544737571</v>
+        <v>50.54243264994205</v>
       </c>
     </row>
     <row r="385">
@@ -10246,7 +10246,7 @@
         </is>
       </c>
       <c r="E385" t="n">
-        <v>59.33867639960929</v>
+        <v>53.79136615212383</v>
       </c>
     </row>
     <row r="386">
@@ -10271,7 +10271,7 @@
         </is>
       </c>
       <c r="E386" t="n">
-        <v>48.23129444741075</v>
+        <v>44.35775837283985</v>
       </c>
     </row>
     <row r="387">
@@ -10296,7 +10296,7 @@
         </is>
       </c>
       <c r="E387" t="n">
-        <v>55.51222827598119</v>
+        <v>49.82574698211499</v>
       </c>
     </row>
     <row r="388">
@@ -10321,7 +10321,7 @@
         </is>
       </c>
       <c r="E388" t="n">
-        <v>55.44688242007852</v>
+        <v>51.09551394629766</v>
       </c>
     </row>
     <row r="389">
@@ -10346,7 +10346,7 @@
         </is>
       </c>
       <c r="E389" t="n">
-        <v>28.97148909091149</v>
+        <v>29.42197739922507</v>
       </c>
     </row>
     <row r="390">
@@ -10371,7 +10371,7 @@
         </is>
       </c>
       <c r="E390" t="n">
-        <v>60.58375601225632</v>
+        <v>54.3753378409594</v>
       </c>
     </row>
     <row r="391">
@@ -10396,7 +10396,7 @@
         </is>
       </c>
       <c r="E391" t="n">
-        <v>61.7345008740644</v>
+        <v>55.06623738507147</v>
       </c>
     </row>
     <row r="392">
@@ -10421,7 +10421,7 @@
         </is>
       </c>
       <c r="E392" t="n">
-        <v>22.56204463967116</v>
+        <v>24.52522241048137</v>
       </c>
     </row>
     <row r="393">
@@ -10446,7 +10446,7 @@
         </is>
       </c>
       <c r="E393" t="n">
-        <v>38.88097350688679</v>
+        <v>35.53689973407919</v>
       </c>
     </row>
     <row r="394">
@@ -10471,7 +10471,7 @@
         </is>
       </c>
       <c r="E394" t="n">
-        <v>43.51010363045961</v>
+        <v>43.6624009157178</v>
       </c>
     </row>
     <row r="395">
@@ -10496,7 +10496,7 @@
         </is>
       </c>
       <c r="E395" t="n">
-        <v>10.00240015730729</v>
+        <v>9.584445355631463</v>
       </c>
     </row>
     <row r="396">
@@ -10521,7 +10521,7 @@
         </is>
       </c>
       <c r="E396" t="n">
-        <v>45.78470935754761</v>
+        <v>45.60843375139898</v>
       </c>
     </row>
     <row r="397">
@@ -10546,7 +10546,7 @@
         </is>
       </c>
       <c r="E397" t="n">
-        <v>47.72916159700738</v>
+        <v>47.47702435800539</v>
       </c>
     </row>
     <row r="398">
@@ -10571,7 +10571,7 @@
         </is>
       </c>
       <c r="E398" t="n">
-        <v>12.2817866075345</v>
+        <v>11.54697375297247</v>
       </c>
     </row>
     <row r="399">
@@ -10596,7 +10596,7 @@
         </is>
       </c>
       <c r="E399" t="n">
-        <v>68.44387257111093</v>
+        <v>64.45447090842487</v>
       </c>
     </row>
     <row r="400">
@@ -10621,7 +10621,7 @@
         </is>
       </c>
       <c r="E400" t="n">
-        <v>67.99849794143637</v>
+        <v>65.71137333696529</v>
       </c>
     </row>
     <row r="401">
@@ -10646,7 +10646,7 @@
         </is>
       </c>
       <c r="E401" t="n">
-        <v>71.00251575187596</v>
+        <v>66.45244916337514</v>
       </c>
     </row>
     <row r="402">
@@ -10671,7 +10671,7 @@
         </is>
       </c>
       <c r="E402" t="n">
-        <v>77.17494130973907</v>
+        <v>72.09623291416902</v>
       </c>
     </row>
     <row r="403">
@@ -10696,7 +10696,7 @@
         </is>
       </c>
       <c r="E403" t="n">
-        <v>78.73285299750769</v>
+        <v>72.43798863140094</v>
       </c>
     </row>
     <row r="404">
@@ -10721,7 +10721,7 @@
         </is>
       </c>
       <c r="E404" t="n">
-        <v>34.03582372964421</v>
+        <v>32.36279185078607</v>
       </c>
     </row>
     <row r="405">
@@ -10746,7 +10746,7 @@
         </is>
       </c>
       <c r="E405" t="n">
-        <v>75.89323268243048</v>
+        <v>70.14361081564715</v>
       </c>
     </row>
     <row r="406">
@@ -10771,7 +10771,7 @@
         </is>
       </c>
       <c r="E406" t="n">
-        <v>82.20199591137032</v>
+        <v>75.40150167384026</v>
       </c>
     </row>
     <row r="407">
@@ -10796,7 +10796,7 @@
         </is>
       </c>
       <c r="E407" t="n">
-        <v>11.58744502178681</v>
+        <v>13.53687992735107</v>
       </c>
     </row>
     <row r="408">
@@ -10821,7 +10821,7 @@
         </is>
       </c>
       <c r="E408" t="n">
-        <v>15.15306841503091</v>
+        <v>14.74364084737316</v>
       </c>
     </row>
     <row r="409">
@@ -10846,7 +10846,7 @@
         </is>
       </c>
       <c r="E409" t="n">
-        <v>16.01025065448677</v>
+        <v>15.64007861787886</v>
       </c>
     </row>
     <row r="410">
@@ -10871,7 +10871,7 @@
         </is>
       </c>
       <c r="E410" t="n">
-        <v>2.310544144407881</v>
+        <v>7.96752635246305</v>
       </c>
     </row>
     <row r="411">
@@ -10896,7 +10896,7 @@
         </is>
       </c>
       <c r="E411" t="n">
-        <v>11.92574264912673</v>
+        <v>13.63160122081078</v>
       </c>
     </row>
     <row r="412">
@@ -10921,7 +10921,7 @@
         </is>
       </c>
       <c r="E412" t="n">
-        <v>17.72612919923033</v>
+        <v>16.76488278108119</v>
       </c>
     </row>
     <row r="413">
@@ -10946,7 +10946,7 @@
         </is>
       </c>
       <c r="E413" t="n">
-        <v>1.937612992291186</v>
+        <v>9.048298827856357</v>
       </c>
     </row>
     <row r="414">
@@ -10971,7 +10971,7 @@
         </is>
       </c>
       <c r="E414" t="n">
-        <v>20.53147479515854</v>
+        <v>19.18526114695918</v>
       </c>
     </row>
     <row r="415">
@@ -10996,7 +10996,7 @@
         </is>
       </c>
       <c r="E415" t="n">
-        <v>20.85487360256099</v>
+        <v>20.53646571736756</v>
       </c>
     </row>
     <row r="416">
@@ -11021,7 +11021,7 @@
         </is>
       </c>
       <c r="E416" t="n">
-        <v>19.31699159343071</v>
+        <v>19.27612611980853</v>
       </c>
     </row>
     <row r="417">
@@ -11046,7 +11046,7 @@
         </is>
       </c>
       <c r="E417" t="n">
-        <v>23.73144096580486</v>
+        <v>22.37073126226856</v>
       </c>
     </row>
     <row r="418">
@@ -11071,7 +11071,7 @@
         </is>
       </c>
       <c r="E418" t="n">
-        <v>24.11655668913504</v>
+        <v>24.62618524850986</v>
       </c>
     </row>
     <row r="419">
@@ -11096,7 +11096,7 @@
         </is>
       </c>
       <c r="E419" t="n">
-        <v>11.99566508038412</v>
+        <v>13.11174656909759</v>
       </c>
     </row>
     <row r="420">
@@ -11121,7 +11121,7 @@
         </is>
       </c>
       <c r="E420" t="n">
-        <v>19.71857731216812</v>
+        <v>18.50552231752269</v>
       </c>
     </row>
     <row r="421">
@@ -11146,7 +11146,7 @@
         </is>
       </c>
       <c r="E421" t="n">
-        <v>23.27149091513384</v>
+        <v>19.94255688190437</v>
       </c>
     </row>
     <row r="422">
@@ -11171,7 +11171,7 @@
         </is>
       </c>
       <c r="E422" t="n">
-        <v>11.01438672935063</v>
+        <v>10.41501500637606</v>
       </c>
     </row>
     <row r="423">
@@ -11196,7 +11196,7 @@
         </is>
       </c>
       <c r="E423" t="n">
-        <v>23.33164149092155</v>
+        <v>21.76320951614468</v>
       </c>
     </row>
     <row r="424">
@@ -11221,7 +11221,7 @@
         </is>
       </c>
       <c r="E424" t="n">
-        <v>30.48347325860038</v>
+        <v>27.66785407048049</v>
       </c>
     </row>
     <row r="425">
@@ -11246,7 +11246,7 @@
         </is>
       </c>
       <c r="E425" t="n">
-        <v>6.086336376479018</v>
+        <v>8.187679873496371</v>
       </c>
     </row>
     <row r="426">
@@ -11271,7 +11271,7 @@
         </is>
       </c>
       <c r="E426" t="n">
-        <v>20.01308191879051</v>
+        <v>21.17269268890995</v>
       </c>
     </row>
     <row r="427">
@@ -11296,7 +11296,7 @@
         </is>
       </c>
       <c r="E427" t="n">
-        <v>32.53978673140365</v>
+        <v>31.75704385892683</v>
       </c>
     </row>
     <row r="428">
@@ -11321,7 +11321,7 @@
         </is>
       </c>
       <c r="E428" t="n">
-        <v>6.671980756493443</v>
+        <v>8.051428433491115</v>
       </c>
     </row>
     <row r="429">
@@ -11346,7 +11346,7 @@
         </is>
       </c>
       <c r="E429" t="n">
-        <v>32.98636079563084</v>
+        <v>32.3715098422463</v>
       </c>
     </row>
     <row r="430">
@@ -11371,7 +11371,7 @@
         </is>
       </c>
       <c r="E430" t="n">
-        <v>48.00904569734504</v>
+        <v>43.26368894305274</v>
       </c>
     </row>
     <row r="431">
@@ -11396,7 +11396,7 @@
         </is>
       </c>
       <c r="E431" t="n">
-        <v>24.75911745649091</v>
+        <v>26.58729543027161</v>
       </c>
     </row>
     <row r="432">
@@ -11421,7 +11421,7 @@
         </is>
       </c>
       <c r="E432" t="n">
-        <v>37.35924044948898</v>
+        <v>34.58531111475293</v>
       </c>
     </row>
     <row r="433">
@@ -11446,7 +11446,7 @@
         </is>
       </c>
       <c r="E433" t="n">
-        <v>38.83524288565867</v>
+        <v>38.28280023930434</v>
       </c>
     </row>
     <row r="434">
@@ -11471,7 +11471,7 @@
         </is>
       </c>
       <c r="E434" t="n">
-        <v>9.162263021351176</v>
+        <v>9.898124178180318</v>
       </c>
     </row>
     <row r="435">
@@ -11496,7 +11496,7 @@
         </is>
       </c>
       <c r="E435" t="n">
-        <v>35.95035685221445</v>
+        <v>32.84684395488884</v>
       </c>
     </row>
     <row r="436">
@@ -11521,7 +11521,7 @@
         </is>
       </c>
       <c r="E436" t="n">
-        <v>43.71152898612628</v>
+        <v>39.45071328113972</v>
       </c>
     </row>
     <row r="437">
@@ -11546,7 +11546,7 @@
         </is>
       </c>
       <c r="E437" t="n">
-        <v>19.24047571426573</v>
+        <v>17.19991401841985</v>
       </c>
     </row>
     <row r="438">
@@ -11571,7 +11571,7 @@
         </is>
       </c>
       <c r="E438" t="n">
-        <v>33.74321199516082</v>
+        <v>29.37133986892013</v>
       </c>
     </row>
     <row r="439">
@@ -11596,7 +11596,7 @@
         </is>
       </c>
       <c r="E439" t="n">
-        <v>42.87200636760943</v>
+        <v>41.87740048096371</v>
       </c>
     </row>
     <row r="440">
@@ -11621,7 +11621,7 @@
         </is>
       </c>
       <c r="E440" t="n">
-        <v>10.98784165467147</v>
+        <v>11.26623989519092</v>
       </c>
     </row>
     <row r="441">
@@ -11646,7 +11646,7 @@
         </is>
       </c>
       <c r="E441" t="n">
-        <v>30.93415758640194</v>
+        <v>28.97639595199223</v>
       </c>
     </row>
     <row r="442">
@@ -11671,7 +11671,7 @@
         </is>
       </c>
       <c r="E442" t="n">
-        <v>43.0507311887657</v>
+        <v>40.37190869996674</v>
       </c>
     </row>
     <row r="443">
@@ -11696,7 +11696,7 @@
         </is>
       </c>
       <c r="E443" t="n">
-        <v>14.70914752878014</v>
+        <v>15.82965316357544</v>
       </c>
     </row>
     <row r="444">
@@ -11721,7 +11721,7 @@
         </is>
       </c>
       <c r="E444" t="n">
-        <v>47.34463154820375</v>
+        <v>44.63160331841542</v>
       </c>
     </row>
     <row r="445">
@@ -11746,7 +11746,7 @@
         </is>
       </c>
       <c r="E445" t="n">
-        <v>60.63431271144526</v>
+        <v>57.33425624630692</v>
       </c>
     </row>
     <row r="446">
@@ -11771,7 +11771,7 @@
         </is>
       </c>
       <c r="E446" t="n">
-        <v>48.41282665845009</v>
+        <v>46.46232957712095</v>
       </c>
     </row>
     <row r="447">
@@ -11796,7 +11796,7 @@
         </is>
       </c>
       <c r="E447" t="n">
-        <v>59.1823926541869</v>
+        <v>56.94619744633304</v>
       </c>
     </row>
     <row r="448">
@@ -11821,7 +11821,7 @@
         </is>
       </c>
       <c r="E448" t="n">
-        <v>76.24986610273785</v>
+        <v>71.37293531797319</v>
       </c>
     </row>
     <row r="449">
@@ -11846,7 +11846,7 @@
         </is>
       </c>
       <c r="E449" t="n">
-        <v>26.93194647555642</v>
+        <v>22.56991967194119</v>
       </c>
     </row>
     <row r="450">
@@ -11871,7 +11871,7 @@
         </is>
       </c>
       <c r="E450" t="n">
-        <v>58.63210988782014</v>
+        <v>53.17404195264838</v>
       </c>
     </row>
     <row r="451">
@@ -11896,7 +11896,7 @@
         </is>
       </c>
       <c r="E451" t="n">
-        <v>68.07502217606802</v>
+        <v>62.78500867604718</v>
       </c>
     </row>
     <row r="452">
@@ -11921,7 +11921,7 @@
         </is>
       </c>
       <c r="E452" t="n">
-        <v>7.58991728625104</v>
+        <v>8.187829454005485</v>
       </c>
     </row>
     <row r="453">
@@ -11946,7 +11946,7 @@
         </is>
       </c>
       <c r="E453" t="n">
-        <v>6.438331878430564</v>
+        <v>8.535419128345644</v>
       </c>
     </row>
     <row r="454">
@@ -11971,7 +11971,7 @@
         </is>
       </c>
       <c r="E454" t="n">
-        <v>9.994400854586804</v>
+        <v>12.15222078125778</v>
       </c>
     </row>
     <row r="455">
@@ -11996,7 +11996,7 @@
         </is>
       </c>
       <c r="E455" t="n">
-        <v>-0.2947920357075446</v>
+        <v>7.135885358263526</v>
       </c>
     </row>
     <row r="456">
@@ -12021,7 +12021,7 @@
         </is>
       </c>
       <c r="E456" t="n">
-        <v>8.218349098072572</v>
+        <v>9.145141990155466</v>
       </c>
     </row>
     <row r="457">
@@ -12046,7 +12046,7 @@
         </is>
       </c>
       <c r="E457" t="n">
-        <v>13.38443159333795</v>
+        <v>12.91333948407026</v>
       </c>
     </row>
     <row r="458">
@@ -12071,7 +12071,7 @@
         </is>
       </c>
       <c r="E458" t="n">
-        <v>-2.111807035015609</v>
+        <v>6.39017610441708</v>
       </c>
     </row>
     <row r="459">
@@ -12096,7 +12096,7 @@
         </is>
       </c>
       <c r="E459" t="n">
-        <v>8.407217192209753</v>
+        <v>9.228632972863679</v>
       </c>
     </row>
     <row r="460">
@@ -12121,7 +12121,7 @@
         </is>
       </c>
       <c r="E460" t="n">
-        <v>13.26819884769905</v>
+        <v>14.37913662798431</v>
       </c>
     </row>
     <row r="461">
@@ -12146,7 +12146,7 @@
         </is>
       </c>
       <c r="E461" t="n">
-        <v>5.629707337867732</v>
+        <v>9.342326789827187</v>
       </c>
     </row>
     <row r="462">
@@ -12171,7 +12171,7 @@
         </is>
       </c>
       <c r="E462" t="n">
-        <v>5.978173772268033</v>
+        <v>11.49852451844371</v>
       </c>
     </row>
     <row r="463">
@@ -12196,7 +12196,7 @@
         </is>
       </c>
       <c r="E463" t="n">
-        <v>17.04754837560377</v>
+        <v>17.44456627180979</v>
       </c>
     </row>
     <row r="464">
@@ -12221,7 +12221,7 @@
         </is>
       </c>
       <c r="E464" t="n">
-        <v>6.844871189514151</v>
+        <v>8.187808198472631</v>
       </c>
     </row>
     <row r="465">
@@ -12246,7 +12246,7 @@
         </is>
       </c>
       <c r="E465" t="n">
-        <v>9.569265743803385</v>
+        <v>8.933997468856862</v>
       </c>
     </row>
     <row r="466">
@@ -12271,7 +12271,7 @@
         </is>
       </c>
       <c r="E466" t="n">
-        <v>15.50010731237369</v>
+        <v>14.98614845126324</v>
       </c>
     </row>
     <row r="467">
@@ -12296,7 +12296,7 @@
         </is>
       </c>
       <c r="E467" t="n">
-        <v>20.45955776716028</v>
+        <v>22.76967268089802</v>
       </c>
     </row>
     <row r="468">
@@ -12321,7 +12321,7 @@
         </is>
       </c>
       <c r="E468" t="n">
-        <v>36.3075261022901</v>
+        <v>35.11968132381592</v>
       </c>
     </row>
     <row r="469">
@@ -12346,7 +12346,7 @@
         </is>
       </c>
       <c r="E469" t="n">
-        <v>37.36174966666126</v>
+        <v>35.73960175007909</v>
       </c>
     </row>
     <row r="470">
@@ -12371,7 +12371,7 @@
         </is>
       </c>
       <c r="E470" t="n">
-        <v>9.022443433900307</v>
+        <v>9.136423002506724</v>
       </c>
     </row>
     <row r="471">
@@ -12396,7 +12396,7 @@
         </is>
       </c>
       <c r="E471" t="n">
-        <v>34.98063084583711</v>
+        <v>34.46846323225022</v>
       </c>
     </row>
     <row r="472">
@@ -12421,7 +12421,7 @@
         </is>
       </c>
       <c r="E472" t="n">
-        <v>38.24236919351372</v>
+        <v>37.81145913901431</v>
       </c>
     </row>
     <row r="473">
@@ -12446,7 +12446,7 @@
         </is>
       </c>
       <c r="E473" t="n">
-        <v>9.637795605314572</v>
+        <v>9.824638135494236</v>
       </c>
     </row>
     <row r="474">
@@ -12471,7 +12471,7 @@
         </is>
       </c>
       <c r="E474" t="n">
-        <v>53.66039879316773</v>
+        <v>49.48985895975549</v>
       </c>
     </row>
     <row r="475">
@@ -12496,7 +12496,7 @@
         </is>
       </c>
       <c r="E475" t="n">
-        <v>55.54797049583401</v>
+        <v>53.4257255778339</v>
       </c>
     </row>
     <row r="476">
@@ -12521,7 +12521,7 @@
         </is>
       </c>
       <c r="E476" t="n">
-        <v>46.92355435325063</v>
+        <v>47.81826137004218</v>
       </c>
     </row>
     <row r="477">
@@ -12546,7 +12546,7 @@
         </is>
       </c>
       <c r="E477" t="n">
-        <v>53.79067986529175</v>
+        <v>49.5847892941435</v>
       </c>
     </row>
     <row r="478">
@@ -12571,7 +12571,7 @@
         </is>
       </c>
       <c r="E478" t="n">
-        <v>54.41557380004503</v>
+        <v>51.99065745491275</v>
       </c>
     </row>
     <row r="479">
@@ -12596,7 +12596,7 @@
         </is>
       </c>
       <c r="E479" t="n">
-        <v>21.26363988380584</v>
+        <v>23.98784856199492</v>
       </c>
     </row>
     <row r="480">
@@ -12621,7 +12621,7 @@
         </is>
       </c>
       <c r="E480" t="n">
-        <v>57.51978164959939</v>
+        <v>52.56048617494778</v>
       </c>
     </row>
     <row r="481">
@@ -12646,7 +12646,7 @@
         </is>
       </c>
       <c r="E481" t="n">
-        <v>58.62976387338848</v>
+        <v>54.20769707408952</v>
       </c>
     </row>
     <row r="482">
@@ -12671,7 +12671,7 @@
         </is>
       </c>
       <c r="E482" t="n">
-        <v>24.8680713148792</v>
+        <v>25.21750707708807</v>
       </c>
     </row>
     <row r="483">
@@ -12696,7 +12696,7 @@
         </is>
       </c>
       <c r="E483" t="n">
-        <v>43.43163569299099</v>
+        <v>39.21503048948977</v>
       </c>
     </row>
     <row r="484">
@@ -12721,7 +12721,7 @@
         </is>
       </c>
       <c r="E484" t="n">
-        <v>45.82837416317116</v>
+        <v>46.90571700899391</v>
       </c>
     </row>
     <row r="485">
@@ -12746,7 +12746,7 @@
         </is>
       </c>
       <c r="E485" t="n">
-        <v>9.569187702451636</v>
+        <v>9.349082696342471</v>
       </c>
     </row>
     <row r="486">
@@ -12771,7 +12771,7 @@
         </is>
       </c>
       <c r="E486" t="n">
-        <v>46.52712282903424</v>
+        <v>46.14418835441284</v>
       </c>
     </row>
     <row r="487">
@@ -12796,7 +12796,7 @@
         </is>
       </c>
       <c r="E487" t="n">
-        <v>50.35476066434065</v>
+        <v>50.13348577372619</v>
       </c>
     </row>
     <row r="488">
@@ -12821,7 +12821,7 @@
         </is>
       </c>
       <c r="E488" t="n">
-        <v>10.06287439156497</v>
+        <v>10.07867288099058</v>
       </c>
     </row>
     <row r="489">
@@ -12846,7 +12846,7 @@
         </is>
       </c>
       <c r="E489" t="n">
-        <v>69.38298673998803</v>
+        <v>64.93363291418962</v>
       </c>
     </row>
     <row r="490">
@@ -12871,7 +12871,7 @@
         </is>
       </c>
       <c r="E490" t="n">
-        <v>66.6799735261352</v>
+        <v>66.10818023842731</v>
       </c>
     </row>
     <row r="491">
@@ -12896,7 +12896,7 @@
         </is>
       </c>
       <c r="E491" t="n">
-        <v>74.64228010608512</v>
+        <v>71.38674087023973</v>
       </c>
     </row>
     <row r="492">
@@ -12921,7 +12921,7 @@
         </is>
       </c>
       <c r="E492" t="n">
-        <v>82.77561641319832</v>
+        <v>76.8013883289608</v>
       </c>
     </row>
     <row r="493">
@@ -12946,7 +12946,7 @@
         </is>
       </c>
       <c r="E493" t="n">
-        <v>81.55313226226477</v>
+        <v>78.11046158413052</v>
       </c>
     </row>
     <row r="494">
@@ -12971,7 +12971,7 @@
         </is>
       </c>
       <c r="E494" t="n">
-        <v>26.20790835015731</v>
+        <v>26.43707844614369</v>
       </c>
     </row>
     <row r="495">
@@ -12996,7 +12996,7 @@
         </is>
       </c>
       <c r="E495" t="n">
-        <v>80.89975667538079</v>
+        <v>75.6776556471782</v>
       </c>
     </row>
     <row r="496">
@@ -13021,7 +13021,7 @@
         </is>
       </c>
       <c r="E496" t="n">
-        <v>79.17363759471232</v>
+        <v>73.51787822917015</v>
       </c>
     </row>
     <row r="497">
@@ -13046,7 +13046,7 @@
         </is>
       </c>
       <c r="E497" t="n">
-        <v>14.41962988100248</v>
+        <v>16.24730450000459</v>
       </c>
     </row>
     <row r="498">
@@ -13071,7 +13071,7 @@
         </is>
       </c>
       <c r="E498" t="n">
-        <v>17.22603513472511</v>
+        <v>18.47691912219747</v>
       </c>
     </row>
     <row r="499">
@@ -13096,7 +13096,7 @@
         </is>
       </c>
       <c r="E499" t="n">
-        <v>19.78949243734572</v>
+        <v>18.45979697375737</v>
       </c>
     </row>
     <row r="500">
@@ -13121,7 +13121,7 @@
         </is>
       </c>
       <c r="E500" t="n">
-        <v>1.551463945194325</v>
+        <v>8.083450504783929</v>
       </c>
     </row>
     <row r="501">
@@ -13146,7 +13146,7 @@
         </is>
       </c>
       <c r="E501" t="n">
-        <v>16.12075005334998</v>
+        <v>18.62038080964739</v>
       </c>
     </row>
     <row r="502">
@@ -13171,7 +13171,7 @@
         </is>
       </c>
       <c r="E502" t="n">
-        <v>20.55676416778979</v>
+        <v>21.03483264617405</v>
       </c>
     </row>
     <row r="503">
@@ -13196,7 +13196,7 @@
         </is>
       </c>
       <c r="E503" t="n">
-        <v>2.013782479240888</v>
+        <v>9.241930634674791</v>
       </c>
     </row>
     <row r="504">
@@ -13221,7 +13221,7 @@
         </is>
       </c>
       <c r="E504" t="n">
-        <v>22.61126871278501</v>
+        <v>22.54451169426299</v>
       </c>
     </row>
     <row r="505">
@@ -13246,7 +13246,7 @@
         </is>
       </c>
       <c r="E505" t="n">
-        <v>26.50843589803399</v>
+        <v>25.73426844772275</v>
       </c>
     </row>
     <row r="506">
@@ -13271,7 +13271,7 @@
         </is>
       </c>
       <c r="E506" t="n">
-        <v>21.87040911127151</v>
+        <v>22.55739234894057</v>
       </c>
     </row>
     <row r="507">
@@ -13296,7 +13296,7 @@
         </is>
       </c>
       <c r="E507" t="n">
-        <v>25.09477450990607</v>
+        <v>28.46986436684676</v>
       </c>
     </row>
     <row r="508">
@@ -13321,7 +13321,7 @@
         </is>
       </c>
       <c r="E508" t="n">
-        <v>27.80332889122651</v>
+        <v>29.27916974714242</v>
       </c>
     </row>
     <row r="509">
@@ -13346,7 +13346,7 @@
         </is>
       </c>
       <c r="E509" t="n">
-        <v>14.67013288938547</v>
+        <v>15.06759214425447</v>
       </c>
     </row>
     <row r="510">
@@ -13371,7 +13371,7 @@
         </is>
       </c>
       <c r="E510" t="n">
-        <v>24.58311890981619</v>
+        <v>22.49427829529368</v>
       </c>
     </row>
     <row r="511">
@@ -13396,7 +13396,7 @@
         </is>
       </c>
       <c r="E511" t="n">
-        <v>28.41201496187259</v>
+        <v>24.23666185048852</v>
       </c>
     </row>
     <row r="512">
@@ -13421,7 +13421,7 @@
         </is>
       </c>
       <c r="E512" t="n">
-        <v>8.80033000581999</v>
+        <v>8.469905362219631</v>
       </c>
     </row>
     <row r="513">
@@ -13446,7 +13446,7 @@
         </is>
       </c>
       <c r="E513" t="n">
-        <v>15.71214247294811</v>
+        <v>14.31530394337162</v>
       </c>
     </row>
     <row r="514">
@@ -13471,7 +13471,7 @@
         </is>
       </c>
       <c r="E514" t="n">
-        <v>22.45194410397009</v>
+        <v>22.88285136848915</v>
       </c>
     </row>
     <row r="515">
@@ -13496,7 +13496,7 @@
         </is>
       </c>
       <c r="E515" t="n">
-        <v>0.8225343398622087</v>
+        <v>7.233877838922069</v>
       </c>
     </row>
     <row r="516">
@@ -13521,7 +13521,7 @@
         </is>
       </c>
       <c r="E516" t="n">
-        <v>11.59512743587717</v>
+        <v>12.39161024349012</v>
       </c>
     </row>
     <row r="517">
@@ -13546,7 +13546,7 @@
         </is>
       </c>
       <c r="E517" t="n">
-        <v>21.47799398051966</v>
+        <v>24.3055662898358</v>
       </c>
     </row>
     <row r="518">
@@ -13571,7 +13571,7 @@
         </is>
       </c>
       <c r="E518" t="n">
-        <v>0.3421012973845521</v>
+        <v>7.206114859774388</v>
       </c>
     </row>
     <row r="519">
@@ -13596,7 +13596,7 @@
         </is>
       </c>
       <c r="E519" t="n">
-        <v>18.89952006449481</v>
+        <v>16.53602242055697</v>
       </c>
     </row>
     <row r="520">
@@ -13621,7 +13621,7 @@
         </is>
       </c>
       <c r="E520" t="n">
-        <v>34.23672869384836</v>
+        <v>35.26688859882449</v>
       </c>
     </row>
     <row r="521">
@@ -13646,7 +13646,7 @@
         </is>
       </c>
       <c r="E521" t="n">
-        <v>13.65874458165846</v>
+        <v>14.73062241117458</v>
       </c>
     </row>
     <row r="522">
@@ -13671,7 +13671,7 @@
         </is>
       </c>
       <c r="E522" t="n">
-        <v>23.0836458949565</v>
+        <v>25.11226166699871</v>
       </c>
     </row>
     <row r="523">
@@ -13696,7 +13696,7 @@
         </is>
       </c>
       <c r="E523" t="n">
-        <v>29.78508274300729</v>
+        <v>31.68611217674879</v>
       </c>
     </row>
     <row r="524">
@@ -13721,7 +13721,7 @@
         </is>
       </c>
       <c r="E524" t="n">
-        <v>6.494929219018712</v>
+        <v>8.187839302326612</v>
       </c>
     </row>
     <row r="525">
@@ -13746,7 +13746,7 @@
         </is>
       </c>
       <c r="E525" t="n">
-        <v>22.87187575055703</v>
+        <v>24.06060374591373</v>
       </c>
     </row>
     <row r="526">
@@ -13771,7 +13771,7 @@
         </is>
       </c>
       <c r="E526" t="n">
-        <v>29.96546253660336</v>
+        <v>30.88241739002286</v>
       </c>
     </row>
     <row r="527">
@@ -13796,7 +13796,7 @@
         </is>
       </c>
       <c r="E527" t="n">
-        <v>21.79164934724174</v>
+        <v>20.50192043957626</v>
       </c>
     </row>
     <row r="528">
@@ -13821,7 +13821,7 @@
         </is>
       </c>
       <c r="E528" t="n">
-        <v>31.33268950881478</v>
+        <v>28.92363301789903</v>
       </c>
     </row>
     <row r="529">
@@ -13846,7 +13846,7 @@
         </is>
       </c>
       <c r="E529" t="n">
-        <v>37.15444141215328</v>
+        <v>37.33046689069899</v>
       </c>
     </row>
     <row r="530">
@@ -13871,7 +13871,7 @@
         </is>
       </c>
       <c r="E530" t="n">
-        <v>5.237845914101811</v>
+        <v>8.966356722803763</v>
       </c>
     </row>
     <row r="531">
@@ -13896,7 +13896,7 @@
         </is>
       </c>
       <c r="E531" t="n">
-        <v>26.30163260339614</v>
+        <v>25.45763028283756</v>
       </c>
     </row>
     <row r="532">
@@ -13921,7 +13921,7 @@
         </is>
       </c>
       <c r="E532" t="n">
-        <v>32.48870141955094</v>
+        <v>31.65112074826122</v>
       </c>
     </row>
     <row r="533">
@@ -13946,7 +13946,7 @@
         </is>
       </c>
       <c r="E533" t="n">
-        <v>9.645759201261242</v>
+        <v>14.07454659629229</v>
       </c>
     </row>
     <row r="534">
@@ -13971,7 +13971,7 @@
         </is>
       </c>
       <c r="E534" t="n">
-        <v>44.69475907691565</v>
+        <v>41.87580698371843</v>
       </c>
     </row>
     <row r="535">
@@ -13996,7 +13996,7 @@
         </is>
       </c>
       <c r="E535" t="n">
-        <v>52.51935809200954</v>
+        <v>51.74677878598548</v>
       </c>
     </row>
     <row r="536">
@@ -14021,7 +14021,7 @@
         </is>
       </c>
       <c r="E536" t="n">
-        <v>48.11191044714273</v>
+        <v>45.31453224763194</v>
       </c>
     </row>
     <row r="537">
@@ -14046,7 +14046,7 @@
         </is>
       </c>
       <c r="E537" t="n">
-        <v>55.92097066213155</v>
+        <v>51.04943236108429</v>
       </c>
     </row>
     <row r="538">
@@ -14071,7 +14071,7 @@
         </is>
       </c>
       <c r="E538" t="n">
-        <v>64.6183550841227</v>
+        <v>60.19984900685802</v>
       </c>
     </row>
     <row r="539">
@@ -14096,7 +14096,7 @@
         </is>
       </c>
       <c r="E539" t="n">
-        <v>27.57987156378794</v>
+        <v>27.0219481413899</v>
       </c>
     </row>
     <row r="540">
@@ -14121,7 +14121,7 @@
         </is>
       </c>
       <c r="E540" t="n">
-        <v>51.88201397421756</v>
+        <v>46.44266998442877</v>
       </c>
     </row>
     <row r="541">
@@ -14146,7 +14146,7 @@
         </is>
       </c>
       <c r="E541" t="n">
-        <v>53.93230608069734</v>
+        <v>50.4718217066372</v>
       </c>
     </row>
     <row r="542">
@@ -14171,7 +14171,7 @@
         </is>
       </c>
       <c r="E542" t="n">
-        <v>8.528272930286413</v>
+        <v>8.811315682739071</v>
       </c>
     </row>
     <row r="543">
@@ -14196,7 +14196,7 @@
         </is>
       </c>
       <c r="E543" t="n">
-        <v>9.594007581560412</v>
+        <v>11.35286384795766</v>
       </c>
     </row>
     <row r="544">
@@ -14221,7 +14221,7 @@
         </is>
       </c>
       <c r="E544" t="n">
-        <v>10.49087037102702</v>
+        <v>11.24734548765295</v>
       </c>
     </row>
     <row r="545">
@@ -14246,7 +14246,7 @@
         </is>
       </c>
       <c r="E545" t="n">
-        <v>-0.3081355514780668</v>
+        <v>7.226990067624726</v>
       </c>
     </row>
     <row r="546">
@@ -14271,7 +14271,7 @@
         </is>
       </c>
       <c r="E546" t="n">
-        <v>7.867191768259321</v>
+        <v>9.964785129903785</v>
       </c>
     </row>
     <row r="547">
@@ -14296,7 +14296,7 @@
         </is>
       </c>
       <c r="E547" t="n">
-        <v>10.74667907858345</v>
+        <v>12.08202246384021</v>
       </c>
     </row>
     <row r="548">
@@ -14321,7 +14321,7 @@
         </is>
       </c>
       <c r="E548" t="n">
-        <v>1.20075829495206</v>
+        <v>7.516623717808855</v>
       </c>
     </row>
     <row r="549">
@@ -14346,7 +14346,7 @@
         </is>
       </c>
       <c r="E549" t="n">
-        <v>10.05865955445595</v>
+        <v>10.84810496109645</v>
       </c>
     </row>
     <row r="550">
@@ -14371,7 +14371,7 @@
         </is>
       </c>
       <c r="E550" t="n">
-        <v>10.88184739478071</v>
+        <v>13.54835270226546</v>
       </c>
     </row>
     <row r="551">
@@ -14396,7 +14396,7 @@
         </is>
       </c>
       <c r="E551" t="n">
-        <v>7.324339905721715</v>
+        <v>9.881121101849015</v>
       </c>
     </row>
     <row r="552">
@@ -14421,7 +14421,7 @@
         </is>
       </c>
       <c r="E552" t="n">
-        <v>6.718330949384594</v>
+        <v>10.50245302770269</v>
       </c>
     </row>
     <row r="553">
@@ -14446,7 +14446,7 @@
         </is>
       </c>
       <c r="E553" t="n">
-        <v>10.05880257443424</v>
+        <v>14.60717238497806</v>
       </c>
     </row>
     <row r="554">
@@ -14471,7 +14471,7 @@
         </is>
       </c>
       <c r="E554" t="n">
-        <v>9.575111627473952</v>
+        <v>9.269910953064038</v>
       </c>
     </row>
     <row r="555">
@@ -14496,7 +14496,7 @@
         </is>
       </c>
       <c r="E555" t="n">
-        <v>12.49236268206921</v>
+        <v>10.58048740789945</v>
       </c>
     </row>
     <row r="556">
@@ -14521,7 +14521,7 @@
         </is>
       </c>
       <c r="E556" t="n">
-        <v>15.15344412686866</v>
+        <v>13.16442678936389</v>
       </c>
     </row>
     <row r="557">
@@ -14546,7 +14546,7 @@
         </is>
       </c>
       <c r="E557" t="n">
-        <v>6.514737610962872</v>
+        <v>8.193992490303255</v>
       </c>
     </row>
     <row r="558">
@@ -14571,7 +14571,7 @@
         </is>
       </c>
       <c r="E558" t="n">
-        <v>9.630079921689809</v>
+        <v>9.858232526520453</v>
       </c>
     </row>
     <row r="559">
@@ -14596,7 +14596,7 @@
         </is>
       </c>
       <c r="E559" t="n">
-        <v>11.41303797179541</v>
+        <v>10.6760616486033</v>
       </c>
     </row>
     <row r="560">
@@ -14621,7 +14621,7 @@
         </is>
       </c>
       <c r="E560" t="n">
-        <v>0.3715495147894003</v>
+        <v>7.209185500378144</v>
       </c>
     </row>
     <row r="561">
@@ -14646,7 +14646,7 @@
         </is>
       </c>
       <c r="E561" t="n">
-        <v>5.645927576501983</v>
+        <v>9.24126973388919</v>
       </c>
     </row>
     <row r="562">
@@ -14671,7 +14671,7 @@
         </is>
       </c>
       <c r="E562" t="n">
-        <v>10.31600612821</v>
+        <v>10.27756487662654</v>
       </c>
     </row>
     <row r="563">
@@ -14696,7 +14696,7 @@
         </is>
       </c>
       <c r="E563" t="n">
-        <v>-0.1063236205746563</v>
+        <v>7.38583304561023</v>
       </c>
     </row>
     <row r="564">
@@ -14721,7 +14721,7 @@
         </is>
       </c>
       <c r="E564" t="n">
-        <v>8.98649621641291</v>
+        <v>9.740951612573291</v>
       </c>
     </row>
     <row r="565">
@@ -14746,7 +14746,7 @@
         </is>
       </c>
       <c r="E565" t="n">
-        <v>12.21300085912034</v>
+        <v>12.29252826056072</v>
       </c>
     </row>
     <row r="566">
@@ -14771,7 +14771,7 @@
         </is>
       </c>
       <c r="E566" t="n">
-        <v>6.537586370195697</v>
+        <v>8.97899164492885</v>
       </c>
     </row>
     <row r="567">
@@ -14796,7 +14796,7 @@
         </is>
       </c>
       <c r="E567" t="n">
-        <v>9.246348559489988</v>
+        <v>10.95234171613445</v>
       </c>
     </row>
     <row r="568">
@@ -14821,7 +14821,7 @@
         </is>
       </c>
       <c r="E568" t="n">
-        <v>7.584314915055941</v>
+        <v>12.34987076326402</v>
       </c>
     </row>
     <row r="569">
@@ -14846,7 +14846,7 @@
         </is>
       </c>
       <c r="E569" t="n">
-        <v>2.437905459596976</v>
+        <v>7.36279327184177</v>
       </c>
     </row>
     <row r="570">
@@ -14871,7 +14871,7 @@
         </is>
       </c>
       <c r="E570" t="n">
-        <v>10.14908659849745</v>
+        <v>9.796743233643742</v>
       </c>
     </row>
     <row r="571">
@@ -14896,7 +14896,7 @@
         </is>
       </c>
       <c r="E571" t="n">
-        <v>11.65806258338061</v>
+        <v>10.98288763418905</v>
       </c>
     </row>
     <row r="572">
@@ -14921,7 +14921,7 @@
         </is>
       </c>
       <c r="E572" t="n">
-        <v>20.87564943125574</v>
+        <v>23.49805904303303</v>
       </c>
     </row>
     <row r="573">
@@ -14946,7 +14946,7 @@
         </is>
       </c>
       <c r="E573" t="n">
-        <v>25.61912272807574</v>
+        <v>25.73759300847085</v>
       </c>
     </row>
     <row r="574">
@@ -14971,7 +14971,7 @@
         </is>
       </c>
       <c r="E574" t="n">
-        <v>29.54128787372413</v>
+        <v>27.13257990254878</v>
       </c>
     </row>
     <row r="575">
@@ -14996,7 +14996,7 @@
         </is>
       </c>
       <c r="E575" t="n">
-        <v>4.873887898273711</v>
+        <v>9.307022256349345</v>
       </c>
     </row>
     <row r="576">
@@ -15021,7 +15021,7 @@
         </is>
       </c>
       <c r="E576" t="n">
-        <v>19.49139147805283</v>
+        <v>21.14307426349811</v>
       </c>
     </row>
     <row r="577">
@@ -15046,7 +15046,7 @@
         </is>
       </c>
       <c r="E577" t="n">
-        <v>24.12399694184783</v>
+        <v>23.71837669851939</v>
       </c>
     </row>
     <row r="578">
@@ -15071,7 +15071,7 @@
         </is>
       </c>
       <c r="E578" t="n">
-        <v>9.732135882754744</v>
+        <v>15.90299649775301</v>
       </c>
     </row>
     <row r="579">
@@ -15096,7 +15096,7 @@
         </is>
       </c>
       <c r="E579" t="n">
-        <v>31.32353625736732</v>
+        <v>30.49401544315198</v>
       </c>
     </row>
     <row r="580">
@@ -15121,7 +15121,7 @@
         </is>
       </c>
       <c r="E580" t="n">
-        <v>35.17654996571157</v>
+        <v>33.24842426975358</v>
       </c>
     </row>
     <row r="581">
@@ -15146,7 +15146,7 @@
         </is>
       </c>
       <c r="E581" t="n">
-        <v>38.43406477152488</v>
+        <v>37.7002554069873</v>
       </c>
     </row>
     <row r="582">
@@ -15171,7 +15171,7 @@
         </is>
       </c>
       <c r="E582" t="n">
-        <v>43.84625078012298</v>
+        <v>39.96576572991167</v>
       </c>
     </row>
     <row r="583">
@@ -15196,7 +15196,7 @@
         </is>
       </c>
       <c r="E583" t="n">
-        <v>41.81503425535843</v>
+        <v>42.05393041298274</v>
       </c>
     </row>
     <row r="584">
@@ -15221,7 +15221,7 @@
         </is>
       </c>
       <c r="E584" t="n">
-        <v>25.37446411963489</v>
+        <v>27.13677652051967</v>
       </c>
     </row>
     <row r="585">
@@ -15246,7 +15246,7 @@
         </is>
       </c>
       <c r="E585" t="n">
-        <v>34.47468140856842</v>
+        <v>31.14501333585593</v>
       </c>
     </row>
     <row r="586">
@@ -15271,7 +15271,7 @@
         </is>
       </c>
       <c r="E586" t="n">
-        <v>39.02486525226565</v>
+        <v>36.11640724583095</v>
       </c>
     </row>
     <row r="587">
@@ -15296,7 +15296,7 @@
         </is>
       </c>
       <c r="E587" t="n">
-        <v>20.40694322809367</v>
+        <v>19.74824809707261</v>
       </c>
     </row>
     <row r="588">
@@ -15321,7 +15321,7 @@
         </is>
       </c>
       <c r="E588" t="n">
-        <v>24.02764701098404</v>
+        <v>27.18980466241763</v>
       </c>
     </row>
     <row r="589">
@@ -15346,7 +15346,7 @@
         </is>
       </c>
       <c r="E589" t="n">
-        <v>31.22127791874393</v>
+        <v>34.44849693310432</v>
       </c>
     </row>
     <row r="590">
@@ -15371,7 +15371,7 @@
         </is>
       </c>
       <c r="E590" t="n">
-        <v>4.204161388399676</v>
+        <v>8.738755300092542</v>
       </c>
     </row>
     <row r="591">
@@ -15396,7 +15396,7 @@
         </is>
       </c>
       <c r="E591" t="n">
-        <v>23.42605817739078</v>
+        <v>24.04889389929244</v>
       </c>
     </row>
     <row r="592">
@@ -15421,7 +15421,7 @@
         </is>
       </c>
       <c r="E592" t="n">
-        <v>29.84592745625352</v>
+        <v>29.27481223931245</v>
       </c>
     </row>
     <row r="593">
@@ -15446,7 +15446,7 @@
         </is>
       </c>
       <c r="E593" t="n">
-        <v>6.242791752126447</v>
+        <v>10.6729441516324</v>
       </c>
     </row>
     <row r="594">
@@ -15471,7 +15471,7 @@
         </is>
       </c>
       <c r="E594" t="n">
-        <v>36.6554303718689</v>
+        <v>38.49795027421742</v>
       </c>
     </row>
     <row r="595">
@@ -15496,7 +15496,7 @@
         </is>
       </c>
       <c r="E595" t="n">
-        <v>41.30581121963931</v>
+        <v>45.6311823438037</v>
       </c>
     </row>
     <row r="596">
@@ -15521,7 +15521,7 @@
         </is>
       </c>
       <c r="E596" t="n">
-        <v>33.19749909695378</v>
+        <v>36.70562452467473</v>
       </c>
     </row>
     <row r="597">
@@ -15546,7 +15546,7 @@
         </is>
       </c>
       <c r="E597" t="n">
-        <v>41.86466380045443</v>
+        <v>43.94168863313418</v>
       </c>
     </row>
     <row r="598">
@@ -15571,7 +15571,7 @@
         </is>
       </c>
       <c r="E598" t="n">
-        <v>46.63230995430747</v>
+        <v>49.13575082116907</v>
       </c>
     </row>
     <row r="599">
@@ -15596,7 +15596,7 @@
         </is>
       </c>
       <c r="E599" t="n">
-        <v>33.99953808925755</v>
+        <v>29.29969107820024</v>
       </c>
     </row>
     <row r="600">
@@ -15621,7 +15621,7 @@
         </is>
       </c>
       <c r="E600" t="n">
-        <v>51.67910038205915</v>
+        <v>49.13637803738816</v>
       </c>
     </row>
     <row r="601">
@@ -15646,7 +15646,7 @@
         </is>
       </c>
       <c r="E601" t="n">
-        <v>63.40149010389835</v>
+        <v>61.3592083998925</v>
       </c>
     </row>
     <row r="602">
@@ -15671,7 +15671,7 @@
         </is>
       </c>
       <c r="E602" t="n">
-        <v>14.28255637386279</v>
+        <v>17.68970524365173</v>
       </c>
     </row>
     <row r="603">
@@ -15696,7 +15696,7 @@
         </is>
       </c>
       <c r="E603" t="n">
-        <v>24.76128387579294</v>
+        <v>26.68409940206299</v>
       </c>
     </row>
     <row r="604">
@@ -15721,7 +15721,7 @@
         </is>
       </c>
       <c r="E604" t="n">
-        <v>26.45723530144222</v>
+        <v>31.10449553943279</v>
       </c>
     </row>
     <row r="605">
@@ -15746,7 +15746,7 @@
         </is>
       </c>
       <c r="E605" t="n">
-        <v>1.209338888925814</v>
+        <v>7.743181538792214</v>
       </c>
     </row>
     <row r="606">
@@ -15771,7 +15771,7 @@
         </is>
       </c>
       <c r="E606" t="n">
-        <v>18.68808313364067</v>
+        <v>18.53055926535925</v>
       </c>
     </row>
     <row r="607">
@@ -15796,7 +15796,7 @@
         </is>
       </c>
       <c r="E607" t="n">
-        <v>23.71370433142771</v>
+        <v>23.45438175936813</v>
       </c>
     </row>
     <row r="608">
@@ -15821,7 +15821,7 @@
         </is>
       </c>
       <c r="E608" t="n">
-        <v>2.799031268697497</v>
+        <v>8.806986882165901</v>
       </c>
     </row>
     <row r="609">
@@ -15846,7 +15846,7 @@
         </is>
       </c>
       <c r="E609" t="n">
-        <v>32.83382523171041</v>
+        <v>31.26770232144542</v>
       </c>
     </row>
     <row r="610">
@@ -15871,7 +15871,7 @@
         </is>
       </c>
       <c r="E610" t="n">
-        <v>35.13086062349425</v>
+        <v>35.33832193032769</v>
       </c>
     </row>
     <row r="611">
@@ -15896,7 +15896,7 @@
         </is>
       </c>
       <c r="E611" t="n">
-        <v>31.90622138790904</v>
+        <v>29.3758610284651</v>
       </c>
     </row>
     <row r="612">
@@ -15921,7 +15921,7 @@
         </is>
       </c>
       <c r="E612" t="n">
-        <v>39.99554414388253</v>
+        <v>36.91690431678195</v>
       </c>
     </row>
     <row r="613">
@@ -15946,7 +15946,7 @@
         </is>
       </c>
       <c r="E613" t="n">
-        <v>39.15015678981219</v>
+        <v>36.31756207703705</v>
       </c>
     </row>
     <row r="614">
@@ -15971,7 +15971,7 @@
         </is>
       </c>
       <c r="E614" t="n">
-        <v>18.76309998245873</v>
+        <v>22.50371134377583</v>
       </c>
     </row>
     <row r="615">
@@ -15996,7 +15996,7 @@
         </is>
       </c>
       <c r="E615" t="n">
-        <v>43.02791742996592</v>
+        <v>41.47207033177906</v>
       </c>
     </row>
     <row r="616">
@@ -16021,7 +16021,7 @@
         </is>
       </c>
       <c r="E616" t="n">
-        <v>46.92510961112636</v>
+        <v>45.66924273870542</v>
       </c>
     </row>
     <row r="617">
@@ -16046,7 +16046,7 @@
         </is>
       </c>
       <c r="E617" t="n">
-        <v>23.59012093952003</v>
+        <v>25.56869756254504</v>
       </c>
     </row>
     <row r="618">
@@ -16071,7 +16071,7 @@
         </is>
       </c>
       <c r="E618" t="n">
-        <v>37.58521583658428</v>
+        <v>35.16346521975949</v>
       </c>
     </row>
     <row r="619">
@@ -16096,7 +16096,7 @@
         </is>
       </c>
       <c r="E619" t="n">
-        <v>42.46400214127607</v>
+        <v>45.02579719111522</v>
       </c>
     </row>
     <row r="620">
@@ -16121,7 +16121,7 @@
         </is>
       </c>
       <c r="E620" t="n">
-        <v>7.874531652867585</v>
+        <v>9.166181990738036</v>
       </c>
     </row>
     <row r="621">
@@ -16146,7 +16146,7 @@
         </is>
       </c>
       <c r="E621" t="n">
-        <v>32.91974675230936</v>
+        <v>32.83462476342676</v>
       </c>
     </row>
     <row r="622">
@@ -16171,7 +16171,7 @@
         </is>
       </c>
       <c r="E622" t="n">
-        <v>38.08815030713581</v>
+        <v>37.00441497754397</v>
       </c>
     </row>
     <row r="623">
@@ -16196,7 +16196,7 @@
         </is>
       </c>
       <c r="E623" t="n">
-        <v>10.24324042738309</v>
+        <v>12.92963433307903</v>
       </c>
     </row>
     <row r="624">
@@ -16221,7 +16221,7 @@
         </is>
       </c>
       <c r="E624" t="n">
-        <v>56.49813109541179</v>
+        <v>53.31766358132603</v>
       </c>
     </row>
     <row r="625">
@@ -16246,7 +16246,7 @@
         </is>
       </c>
       <c r="E625" t="n">
-        <v>59.36416884158977</v>
+        <v>56.84614769415489</v>
       </c>
     </row>
     <row r="626">
@@ -16271,7 +16271,7 @@
         </is>
       </c>
       <c r="E626" t="n">
-        <v>64.86480107346605</v>
+        <v>61.40070509625589</v>
       </c>
     </row>
     <row r="627">
@@ -16296,7 +16296,7 @@
         </is>
       </c>
       <c r="E627" t="n">
-        <v>70.46000845405106</v>
+        <v>66.7146932594643</v>
       </c>
     </row>
     <row r="628">
@@ -16321,7 +16321,7 @@
         </is>
       </c>
       <c r="E628" t="n">
-        <v>76.95407791964843</v>
+        <v>70.83547519281449</v>
       </c>
     </row>
     <row r="629">
@@ -16346,7 +16346,7 @@
         </is>
       </c>
       <c r="E629" t="n">
-        <v>31.81036351766828</v>
+        <v>30.83588460747553</v>
       </c>
     </row>
     <row r="630">
@@ -16371,7 +16371,7 @@
         </is>
       </c>
       <c r="E630" t="n">
-        <v>64.37703138692864</v>
+        <v>57.19801510860167</v>
       </c>
     </row>
     <row r="631">
@@ -16396,7 +16396,7 @@
         </is>
       </c>
       <c r="E631" t="n">
-        <v>71.02171697851816</v>
+        <v>65.37389509015492</v>
       </c>
     </row>
     <row r="632">
@@ -16421,7 +16421,7 @@
         </is>
       </c>
       <c r="E632" t="n">
-        <v>20.68091360083417</v>
+        <v>21.52324277834949</v>
       </c>
     </row>
     <row r="633">
@@ -16446,7 +16446,7 @@
         </is>
       </c>
       <c r="E633" t="n">
-        <v>38.46356886245641</v>
+        <v>33.2238197864252</v>
       </c>
     </row>
     <row r="634">
@@ -16471,7 +16471,7 @@
         </is>
       </c>
       <c r="E634" t="n">
-        <v>40.06825388275599</v>
+        <v>37.69250511088276</v>
       </c>
     </row>
     <row r="635">
@@ -16496,7 +16496,7 @@
         </is>
       </c>
       <c r="E635" t="n">
-        <v>11.27322183214434</v>
+        <v>10.50083372250643</v>
       </c>
     </row>
     <row r="636">
@@ -16521,7 +16521,7 @@
         </is>
       </c>
       <c r="E636" t="n">
-        <v>41.26327503625277</v>
+        <v>40.66535219452115</v>
       </c>
     </row>
     <row r="637">
@@ -16546,7 +16546,7 @@
         </is>
       </c>
       <c r="E637" t="n">
-        <v>45.37883045561979</v>
+        <v>41.93280516262767</v>
       </c>
     </row>
     <row r="638">
@@ -16571,7 +16571,7 @@
         </is>
       </c>
       <c r="E638" t="n">
-        <v>12.31075559320513</v>
+        <v>13.69567971425534</v>
       </c>
     </row>
     <row r="639">
@@ -16596,7 +16596,7 @@
         </is>
       </c>
       <c r="E639" t="n">
-        <v>56.97105317577038</v>
+        <v>55.41141481139604</v>
       </c>
     </row>
     <row r="640">
@@ -16621,7 +16621,7 @@
         </is>
       </c>
       <c r="E640" t="n">
-        <v>58.41084846432167</v>
+        <v>59.61890938575063</v>
       </c>
     </row>
     <row r="641">
@@ -16646,7 +16646,7 @@
         </is>
       </c>
       <c r="E641" t="n">
-        <v>64.50661145927224</v>
+        <v>62.69795684609348</v>
       </c>
     </row>
     <row r="642">
@@ -16671,7 +16671,7 @@
         </is>
       </c>
       <c r="E642" t="n">
-        <v>67.47386013198644</v>
+        <v>64.70591200650772</v>
       </c>
     </row>
     <row r="643">
@@ -16696,7 +16696,7 @@
         </is>
       </c>
       <c r="E643" t="n">
-        <v>66.70640910678085</v>
+        <v>67.48247057736393</v>
       </c>
     </row>
     <row r="644">
@@ -16721,7 +16721,7 @@
         </is>
       </c>
       <c r="E644" t="n">
-        <v>24.92931873107833</v>
+        <v>23.62653205159764</v>
       </c>
     </row>
     <row r="645">
@@ -16746,7 +16746,7 @@
         </is>
       </c>
       <c r="E645" t="n">
-        <v>62.79403576966868</v>
+        <v>56.99450491217061</v>
       </c>
     </row>
     <row r="646">
@@ -16771,7 +16771,7 @@
         </is>
       </c>
       <c r="E646" t="n">
-        <v>66.84916750549998</v>
+        <v>61.59436766079202</v>
       </c>
     </row>
     <row r="647">
@@ -16796,7 +16796,7 @@
         </is>
       </c>
       <c r="E647" t="n">
-        <v>18.29609859339136</v>
+        <v>19.38586772930267</v>
       </c>
     </row>
     <row r="648">
@@ -16821,7 +16821,7 @@
         </is>
       </c>
       <c r="E648" t="n">
-        <v>34.47052071788984</v>
+        <v>32.60875335119362</v>
       </c>
     </row>
     <row r="649">
@@ -16846,7 +16846,7 @@
         </is>
       </c>
       <c r="E649" t="n">
-        <v>38.39770863346408</v>
+        <v>39.04056093219616</v>
       </c>
     </row>
     <row r="650">
@@ -16871,7 +16871,7 @@
         </is>
       </c>
       <c r="E650" t="n">
-        <v>8.724282827172907</v>
+        <v>8.919838909133674</v>
       </c>
     </row>
     <row r="651">
@@ -16896,7 +16896,7 @@
         </is>
       </c>
       <c r="E651" t="n">
-        <v>30.59205502586369</v>
+        <v>32.36208675094839</v>
       </c>
     </row>
     <row r="652">
@@ -16921,7 +16921,7 @@
         </is>
       </c>
       <c r="E652" t="n">
-        <v>38.07759009049498</v>
+        <v>36.07278125316454</v>
       </c>
     </row>
     <row r="653">
@@ -16946,7 +16946,7 @@
         </is>
       </c>
       <c r="E653" t="n">
-        <v>8.943540203133711</v>
+        <v>9.526210727267987</v>
       </c>
     </row>
     <row r="654">
@@ -16971,7 +16971,7 @@
         </is>
       </c>
       <c r="E654" t="n">
-        <v>47.17316290839453</v>
+        <v>46.57321163936668</v>
       </c>
     </row>
     <row r="655">
@@ -16996,7 +16996,7 @@
         </is>
       </c>
       <c r="E655" t="n">
-        <v>56.69986137206489</v>
+        <v>55.97644403307524</v>
       </c>
     </row>
     <row r="656">
@@ -17021,7 +17021,7 @@
         </is>
       </c>
       <c r="E656" t="n">
-        <v>44.84292074206779</v>
+        <v>43.5410247440485</v>
       </c>
     </row>
     <row r="657">
@@ -17046,7 +17046,7 @@
         </is>
       </c>
       <c r="E657" t="n">
-        <v>53.6870353630752</v>
+        <v>50.90054091208403</v>
       </c>
     </row>
     <row r="658">
@@ -17071,7 +17071,7 @@
         </is>
       </c>
       <c r="E658" t="n">
-        <v>52.47729958315549</v>
+        <v>48.2389855209417</v>
       </c>
     </row>
     <row r="659">
@@ -17096,7 +17096,7 @@
         </is>
       </c>
       <c r="E659" t="n">
-        <v>17.88804770716354</v>
+        <v>18.96068594629712</v>
       </c>
     </row>
     <row r="660">
@@ -17121,7 +17121,7 @@
         </is>
       </c>
       <c r="E660" t="n">
-        <v>55.25978423636404</v>
+        <v>52.73415452982611</v>
       </c>
     </row>
     <row r="661">
@@ -17146,7 +17146,7 @@
         </is>
       </c>
       <c r="E661" t="n">
-        <v>60.54795462455861</v>
+        <v>59.18757617918137</v>
       </c>
     </row>
     <row r="662">
@@ -17171,7 +17171,7 @@
         </is>
       </c>
       <c r="E662" t="n">
-        <v>20.50337143349163</v>
+        <v>20.6833158568476</v>
       </c>
     </row>
     <row r="663">
@@ -17196,7 +17196,7 @@
         </is>
       </c>
       <c r="E663" t="n">
-        <v>40.97020306718352</v>
+        <v>36.08706342449849</v>
       </c>
     </row>
     <row r="664">
@@ -17221,7 +17221,7 @@
         </is>
       </c>
       <c r="E664" t="n">
-        <v>45.34941903733119</v>
+        <v>42.38692191153248</v>
       </c>
     </row>
     <row r="665">
@@ -17246,7 +17246,7 @@
         </is>
       </c>
       <c r="E665" t="n">
-        <v>8.928285301303621</v>
+        <v>9.051571175106492</v>
       </c>
     </row>
     <row r="666">
@@ -17271,7 +17271,7 @@
         </is>
       </c>
       <c r="E666" t="n">
-        <v>39.16750672095063</v>
+        <v>39.7117488261342</v>
       </c>
     </row>
     <row r="667">
@@ -17296,7 +17296,7 @@
         </is>
       </c>
       <c r="E667" t="n">
-        <v>46.11787439992004</v>
+        <v>43.26661815090689</v>
       </c>
     </row>
     <row r="668">
@@ -17321,7 +17321,7 @@
         </is>
       </c>
       <c r="E668" t="n">
-        <v>8.989896734470577</v>
+        <v>9.523316421858212</v>
       </c>
     </row>
     <row r="669">
@@ -17346,7 +17346,7 @@
         </is>
       </c>
       <c r="E669" t="n">
-        <v>58.53128387364326</v>
+        <v>54.5794684200865</v>
       </c>
     </row>
     <row r="670">
@@ -17371,7 +17371,7 @@
         </is>
       </c>
       <c r="E670" t="n">
-        <v>64.69487197787927</v>
+        <v>62.51849384832469</v>
       </c>
     </row>
     <row r="671">
@@ -17396,7 +17396,7 @@
         </is>
       </c>
       <c r="E671" t="n">
-        <v>65.88312218069721</v>
+        <v>61.80149638512175</v>
       </c>
     </row>
     <row r="672">
@@ -17421,7 +17421,7 @@
         </is>
       </c>
       <c r="E672" t="n">
-        <v>75.77420626186228</v>
+        <v>68.38116877186133</v>
       </c>
     </row>
     <row r="673">
@@ -17446,7 +17446,7 @@
         </is>
       </c>
       <c r="E673" t="n">
-        <v>81.33588669355389</v>
+        <v>75.75538037075009</v>
       </c>
     </row>
     <row r="674">
@@ -17471,7 +17471,7 @@
         </is>
       </c>
       <c r="E674" t="n">
-        <v>19.36548945420692</v>
+        <v>19.99890700203554</v>
       </c>
     </row>
     <row r="675">
@@ -17496,7 +17496,7 @@
         </is>
       </c>
       <c r="E675" t="n">
-        <v>70.63916030913003</v>
+        <v>64.23478959231105</v>
       </c>
     </row>
     <row r="676">
@@ -17521,7 +17521,7 @@
         </is>
       </c>
       <c r="E676" t="n">
-        <v>76.80131570206339</v>
+        <v>71.54113653915837</v>
       </c>
     </row>
     <row r="677">
@@ -17546,7 +17546,7 @@
         </is>
       </c>
       <c r="E677" t="n">
-        <v>25.23807356274639</v>
+        <v>23.39122561429961</v>
       </c>
     </row>
     <row r="678">
@@ -17571,7 +17571,7 @@
         </is>
       </c>
       <c r="E678" t="n">
-        <v>31.24905229371776</v>
+        <v>29.07668209880138</v>
       </c>
     </row>
     <row r="679">
@@ -17596,7 +17596,7 @@
         </is>
       </c>
       <c r="E679" t="n">
-        <v>36.92051190473799</v>
+        <v>35.39677760194726</v>
       </c>
     </row>
     <row r="680">
@@ -17621,7 +17621,7 @@
         </is>
       </c>
       <c r="E680" t="n">
-        <v>10.15584122218657</v>
+        <v>9.378136652508179</v>
       </c>
     </row>
     <row r="681">
@@ -17646,7 +17646,7 @@
         </is>
       </c>
       <c r="E681" t="n">
-        <v>41.81224352390964</v>
+        <v>41.36408053455953</v>
       </c>
     </row>
     <row r="682">
@@ -17671,7 +17671,7 @@
         </is>
       </c>
       <c r="E682" t="n">
-        <v>46.27826655910417</v>
+        <v>43.62905011539748</v>
       </c>
     </row>
     <row r="683">
@@ -17696,7 +17696,7 @@
         </is>
       </c>
       <c r="E683" t="n">
-        <v>11.95065642089849</v>
+        <v>12.91460795747336</v>
       </c>
     </row>
     <row r="684">
@@ -17721,7 +17721,7 @@
         </is>
       </c>
       <c r="E684" t="n">
-        <v>55.5007797972707</v>
+        <v>56.49332116231937</v>
       </c>
     </row>
     <row r="685">
@@ -17746,7 +17746,7 @@
         </is>
       </c>
       <c r="E685" t="n">
-        <v>56.87243962454544</v>
+        <v>57.86385355852346</v>
       </c>
     </row>
     <row r="686">
@@ -17771,7 +17771,7 @@
         </is>
       </c>
       <c r="E686" t="n">
-        <v>59.69846725168527</v>
+        <v>55.31358740547901</v>
       </c>
     </row>
     <row r="687">
@@ -17796,7 +17796,7 @@
         </is>
       </c>
       <c r="E687" t="n">
-        <v>61.83076546206249</v>
+        <v>56.43889850682292</v>
       </c>
     </row>
     <row r="688">
@@ -17821,7 +17821,7 @@
         </is>
       </c>
       <c r="E688" t="n">
-        <v>63.24791464477864</v>
+        <v>60.00947814376499</v>
       </c>
     </row>
     <row r="689">
@@ -17846,7 +17846,7 @@
         </is>
       </c>
       <c r="E689" t="n">
-        <v>24.93995828587235</v>
+        <v>24.67826239219401</v>
       </c>
     </row>
     <row r="690">
@@ -17871,7 +17871,7 @@
         </is>
       </c>
       <c r="E690" t="n">
-        <v>43.94693618178858</v>
+        <v>43.59605764394647</v>
       </c>
     </row>
     <row r="691">
@@ -17896,7 +17896,7 @@
         </is>
       </c>
       <c r="E691" t="n">
-        <v>63.24001085598887</v>
+        <v>63.71130408194148</v>
       </c>
     </row>
     <row r="692">
@@ -17921,7 +17921,7 @@
         </is>
       </c>
       <c r="E692" t="n">
-        <v>24.64876682342937</v>
+        <v>24.88028207271736</v>
       </c>
     </row>
     <row r="693">
@@ -17946,7 +17946,7 @@
         </is>
       </c>
       <c r="E693" t="n">
-        <v>37.94666583358845</v>
+        <v>36.31811277725001</v>
       </c>
     </row>
     <row r="694">
@@ -17971,7 +17971,7 @@
         </is>
       </c>
       <c r="E694" t="n">
-        <v>39.99126494401644</v>
+        <v>37.2449325147805</v>
       </c>
     </row>
     <row r="695">
@@ -17996,7 +17996,7 @@
         </is>
       </c>
       <c r="E695" t="n">
-        <v>8.833685232934812</v>
+        <v>8.548153760021684</v>
       </c>
     </row>
     <row r="696">
@@ -18021,7 +18021,7 @@
         </is>
       </c>
       <c r="E696" t="n">
-        <v>35.70133412081864</v>
+        <v>34.7892224003668</v>
       </c>
     </row>
     <row r="697">
@@ -18046,7 +18046,7 @@
         </is>
       </c>
       <c r="E697" t="n">
-        <v>40.45174159700634</v>
+        <v>36.6131765733297</v>
       </c>
     </row>
     <row r="698">
@@ -18071,7 +18071,7 @@
         </is>
       </c>
       <c r="E698" t="n">
-        <v>7.861950759588559</v>
+        <v>9.392512404379826</v>
       </c>
     </row>
     <row r="699">
@@ -18096,7 +18096,7 @@
         </is>
       </c>
       <c r="E699" t="n">
-        <v>52.89074045578961</v>
+        <v>48.3777239576227</v>
       </c>
     </row>
     <row r="700">
@@ -18121,7 +18121,7 @@
         </is>
       </c>
       <c r="E700" t="n">
-        <v>60.44822954544063</v>
+        <v>56.57614584992827</v>
       </c>
     </row>
     <row r="701">
@@ -18146,7 +18146,7 @@
         </is>
       </c>
       <c r="E701" t="n">
-        <v>51.459690826876</v>
+        <v>48.85310284818661</v>
       </c>
     </row>
     <row r="702">
@@ -18171,7 +18171,7 @@
         </is>
       </c>
       <c r="E702" t="n">
-        <v>57.14590271807221</v>
+        <v>50.84747114057183</v>
       </c>
     </row>
     <row r="703">
@@ -18196,7 +18196,7 @@
         </is>
       </c>
       <c r="E703" t="n">
-        <v>57.87624024478714</v>
+        <v>51.850968528487</v>
       </c>
     </row>
     <row r="704">
@@ -18221,7 +18221,7 @@
         </is>
       </c>
       <c r="E704" t="n">
-        <v>24.89220911261227</v>
+        <v>25.39725809611421</v>
       </c>
     </row>
     <row r="705">
@@ -18246,7 +18246,7 @@
         </is>
       </c>
       <c r="E705" t="n">
-        <v>61.99141014898478</v>
+        <v>56.49358568303186</v>
       </c>
     </row>
     <row r="706">
@@ -18271,7 +18271,7 @@
         </is>
       </c>
       <c r="E706" t="n">
-        <v>65.25609911991184</v>
+        <v>59.41093511978345</v>
       </c>
     </row>
     <row r="707">
@@ -18296,7 +18296,7 @@
         </is>
       </c>
       <c r="E707" t="n">
-        <v>26.7779264678847</v>
+        <v>26.00813041738443</v>
       </c>
     </row>
     <row r="708">
@@ -18321,7 +18321,7 @@
         </is>
       </c>
       <c r="E708" t="n">
-        <v>43.15156980780261</v>
+        <v>38.7236966956598</v>
       </c>
     </row>
     <row r="709">
@@ -18346,7 +18346,7 @@
         </is>
       </c>
       <c r="E709" t="n">
-        <v>46.75022372072884</v>
+        <v>42.49364731902189</v>
       </c>
     </row>
     <row r="710">
@@ -18371,7 +18371,7 @@
         </is>
       </c>
       <c r="E710" t="n">
-        <v>10.51576338616083</v>
+        <v>9.232005978259416</v>
       </c>
     </row>
     <row r="711">
@@ -18396,7 +18396,7 @@
         </is>
       </c>
       <c r="E711" t="n">
-        <v>43.49440042410004</v>
+        <v>41.52442493174944</v>
       </c>
     </row>
     <row r="712">
@@ -18421,7 +18421,7 @@
         </is>
       </c>
       <c r="E712" t="n">
-        <v>49.14617417456897</v>
+        <v>44.68599643730524</v>
       </c>
     </row>
     <row r="713">
@@ -18446,7 +18446,7 @@
         </is>
       </c>
       <c r="E713" t="n">
-        <v>9.137366030017745</v>
+        <v>9.924239511637388</v>
       </c>
     </row>
     <row r="714">
@@ -18471,7 +18471,7 @@
         </is>
       </c>
       <c r="E714" t="n">
-        <v>66.41662153591946</v>
+        <v>59.44365132731614</v>
       </c>
     </row>
     <row r="715">
@@ -18496,7 +18496,7 @@
         </is>
       </c>
       <c r="E715" t="n">
-        <v>69.68671638131195</v>
+        <v>62.31716895999173</v>
       </c>
     </row>
     <row r="716">
@@ -18521,7 +18521,7 @@
         </is>
       </c>
       <c r="E716" t="n">
-        <v>75.68858774572344</v>
+        <v>68.02461400388694</v>
       </c>
     </row>
     <row r="717">
@@ -18546,7 +18546,7 @@
         </is>
       </c>
       <c r="E717" t="n">
-        <v>80.32980883723756</v>
+        <v>72.52652581581719</v>
       </c>
     </row>
     <row r="718">
@@ -18571,7 +18571,7 @@
         </is>
       </c>
       <c r="E718" t="n">
-        <v>82.93612663623014</v>
+        <v>74.93323890712796</v>
       </c>
     </row>
     <row r="719">
@@ -18596,7 +18596,7 @@
         </is>
       </c>
       <c r="E719" t="n">
-        <v>27.59488639013115</v>
+        <v>25.4773370918637</v>
       </c>
     </row>
     <row r="720">
@@ -18621,7 +18621,7 @@
         </is>
       </c>
       <c r="E720" t="n">
-        <v>74.96573862318981</v>
+        <v>66.3618545314871</v>
       </c>
     </row>
     <row r="721">
@@ -18646,7 +18646,7 @@
         </is>
       </c>
       <c r="E721" t="n">
-        <v>78.83566642875658</v>
+        <v>70.30777323273475</v>
       </c>
     </row>
     <row r="722">
@@ -18671,7 +18671,7 @@
         </is>
       </c>
       <c r="E722" t="n">
-        <v>23.94762301879598</v>
+        <v>24.56769978919931</v>
       </c>
     </row>
     <row r="723">
@@ -18696,7 +18696,7 @@
         </is>
       </c>
       <c r="E723" t="n">
-        <v>26.18904945271087</v>
+        <v>29.00523637484938</v>
       </c>
     </row>
     <row r="724">
@@ -18721,7 +18721,7 @@
         </is>
       </c>
       <c r="E724" t="n">
-        <v>31.21443034807297</v>
+        <v>34.62155800489187</v>
       </c>
     </row>
     <row r="725">
@@ -18746,7 +18746,7 @@
         </is>
       </c>
       <c r="E725" t="n">
-        <v>15.70786716885428</v>
+        <v>14.98809301696305</v>
       </c>
     </row>
     <row r="726">
@@ -18771,7 +18771,7 @@
         </is>
       </c>
       <c r="E726" t="n">
-        <v>56.43648474454675</v>
+        <v>58.48090415597975</v>
       </c>
     </row>
     <row r="727">
@@ -18796,7 +18796,7 @@
         </is>
       </c>
       <c r="E727" t="n">
-        <v>55.66261260496728</v>
+        <v>57.23299542864665</v>
       </c>
     </row>
     <row r="728">
@@ -18821,7 +18821,7 @@
         </is>
       </c>
       <c r="E728" t="n">
-        <v>11.70396270485318</v>
+        <v>13.64915759181213</v>
       </c>
     </row>
     <row r="729">
@@ -18846,7 +18846,7 @@
         </is>
       </c>
       <c r="E729" t="n">
-        <v>57.67787769290479</v>
+        <v>59.2908571821885</v>
       </c>
     </row>
     <row r="730">
@@ -18871,7 +18871,7 @@
         </is>
       </c>
       <c r="E730" t="n">
-        <v>53.97060039399312</v>
+        <v>57.26990827480909</v>
       </c>
     </row>
     <row r="731">
@@ -18896,7 +18896,7 @@
         </is>
       </c>
       <c r="E731" t="n">
-        <v>60.60362839645667</v>
+        <v>60.1062905953186</v>
       </c>
     </row>
     <row r="732">
@@ -18921,7 +18921,7 @@
         </is>
       </c>
       <c r="E732" t="n">
-        <v>62.90211690532371</v>
+        <v>61.09165276908011</v>
       </c>
     </row>
     <row r="733">
@@ -18946,7 +18946,7 @@
         </is>
       </c>
       <c r="E733" t="n">
-        <v>62.51196580818284</v>
+        <v>62.68135383128299</v>
       </c>
     </row>
     <row r="734">
@@ -18971,7 +18971,7 @@
         </is>
       </c>
       <c r="E734" t="n">
-        <v>28.79003140248648</v>
+        <v>25.29079500945497</v>
       </c>
     </row>
     <row r="735">
@@ -18996,7 +18996,7 @@
         </is>
       </c>
       <c r="E735" t="n">
-        <v>44.19103673792415</v>
+        <v>40.66743881070865</v>
       </c>
     </row>
     <row r="736">
@@ -19021,7 +19021,7 @@
         </is>
       </c>
       <c r="E736" t="n">
-        <v>59.53417370042506</v>
+        <v>58.84639967518885</v>
       </c>
     </row>
     <row r="737">
@@ -19046,7 +19046,7 @@
         </is>
       </c>
       <c r="E737" t="n">
-        <v>26.01635535559314</v>
+        <v>28.66752124346579</v>
       </c>
     </row>
     <row r="738">
@@ -19071,7 +19071,7 @@
         </is>
       </c>
       <c r="E738" t="n">
-        <v>35.20309085875289</v>
+        <v>36.42781417540288</v>
       </c>
     </row>
     <row r="739">
@@ -19096,7 +19096,7 @@
         </is>
       </c>
       <c r="E739" t="n">
-        <v>37.45303485974463</v>
+        <v>38.14857722633827</v>
       </c>
     </row>
     <row r="740">
@@ -19121,7 +19121,7 @@
         </is>
       </c>
       <c r="E740" t="n">
-        <v>36.10526021281461</v>
+        <v>39.07160399922555</v>
       </c>
     </row>
     <row r="741">
@@ -19146,7 +19146,7 @@
         </is>
       </c>
       <c r="E741" t="n">
-        <v>51.28985402942604</v>
+        <v>52.37223653222988</v>
       </c>
     </row>
     <row r="742">
@@ -19171,7 +19171,7 @@
         </is>
       </c>
       <c r="E742" t="n">
-        <v>55.54327574311976</v>
+        <v>50.48973689538165</v>
       </c>
     </row>
     <row r="743">
@@ -19196,7 +19196,7 @@
         </is>
       </c>
       <c r="E743" t="n">
-        <v>10.73313614789741</v>
+        <v>11.43409523511617</v>
       </c>
     </row>
     <row r="744">
@@ -19221,7 +19221,7 @@
         </is>
       </c>
       <c r="E744" t="n">
-        <v>51.93956646508921</v>
+        <v>51.64803128461344</v>
       </c>
     </row>
     <row r="745">
@@ -19246,7 +19246,7 @@
         </is>
       </c>
       <c r="E745" t="n">
-        <v>58.01403083438285</v>
+        <v>55.20135724248031</v>
       </c>
     </row>
     <row r="746">
@@ -19271,7 +19271,7 @@
         </is>
       </c>
       <c r="E746" t="n">
-        <v>49.40992523629991</v>
+        <v>45.86398074689659</v>
       </c>
     </row>
     <row r="747">
@@ -19296,7 +19296,7 @@
         </is>
       </c>
       <c r="E747" t="n">
-        <v>56.40308310994259</v>
+        <v>51.5786529727682</v>
       </c>
     </row>
     <row r="748">
@@ -19321,7 +19321,7 @@
         </is>
       </c>
       <c r="E748" t="n">
-        <v>55.0965122851803</v>
+        <v>50.5822791213609</v>
       </c>
     </row>
     <row r="749">
@@ -19346,7 +19346,7 @@
         </is>
       </c>
       <c r="E749" t="n">
-        <v>30.74193844427847</v>
+        <v>30.94672580934863</v>
       </c>
     </row>
     <row r="750">
@@ -19371,7 +19371,7 @@
         </is>
       </c>
       <c r="E750" t="n">
-        <v>59.9469845643914</v>
+        <v>54.88074174770931</v>
       </c>
     </row>
     <row r="751">
@@ -19396,7 +19396,7 @@
         </is>
       </c>
       <c r="E751" t="n">
-        <v>63.36178680670747</v>
+        <v>58.34691372259691</v>
       </c>
     </row>
     <row r="752">
@@ -19421,7 +19421,7 @@
         </is>
       </c>
       <c r="E752" t="n">
-        <v>30.1190658618574</v>
+        <v>30.7376193381345</v>
       </c>
     </row>
     <row r="753">
@@ -19446,7 +19446,7 @@
         </is>
       </c>
       <c r="E753" t="n">
-        <v>43.12452091755682</v>
+        <v>38.9985419071369</v>
       </c>
     </row>
     <row r="754">
@@ -19471,7 +19471,7 @@
         </is>
       </c>
       <c r="E754" t="n">
-        <v>45.72856341409001</v>
+        <v>41.98678260635339</v>
       </c>
     </row>
     <row r="755">
@@ -19496,7 +19496,7 @@
         </is>
       </c>
       <c r="E755" t="n">
-        <v>37.57023938107693</v>
+        <v>40.46236454131003</v>
       </c>
     </row>
     <row r="756">
@@ -19521,7 +19521,7 @@
         </is>
       </c>
       <c r="E756" t="n">
-        <v>57.21733624357659</v>
+        <v>58.25153478787205</v>
       </c>
     </row>
     <row r="757">
@@ -19546,7 +19546,7 @@
         </is>
       </c>
       <c r="E757" t="n">
-        <v>59.66775831696735</v>
+        <v>55.48736145861093</v>
       </c>
     </row>
     <row r="758">
@@ -19571,7 +19571,7 @@
         </is>
       </c>
       <c r="E758" t="n">
-        <v>11.4845040559569</v>
+        <v>11.42652996123754</v>
       </c>
     </row>
     <row r="759">
@@ -19596,7 +19596,7 @@
         </is>
       </c>
       <c r="E759" t="n">
-        <v>66.50178200103895</v>
+        <v>61.77109707996115</v>
       </c>
     </row>
     <row r="760">
@@ -19621,7 +19621,7 @@
         </is>
       </c>
       <c r="E760" t="n">
-        <v>67.08182813475815</v>
+        <v>61.28266753429972</v>
       </c>
     </row>
     <row r="761">
@@ -19646,7 +19646,7 @@
         </is>
       </c>
       <c r="E761" t="n">
-        <v>79.18206670868184</v>
+        <v>74.69811141953438</v>
       </c>
     </row>
     <row r="762">
@@ -19671,7 +19671,7 @@
         </is>
       </c>
       <c r="E762" t="n">
-        <v>79.23122232667956</v>
+        <v>73.35834632670594</v>
       </c>
     </row>
     <row r="763">
@@ -19696,7 +19696,7 @@
         </is>
       </c>
       <c r="E763" t="n">
-        <v>84.62113884180195</v>
+        <v>77.11145647176349</v>
       </c>
     </row>
     <row r="764">
@@ -19721,7 +19721,7 @@
         </is>
       </c>
       <c r="E764" t="n">
-        <v>37.90397876001734</v>
+        <v>36.11520405675868</v>
       </c>
     </row>
     <row r="765">
@@ -19746,7 +19746,7 @@
         </is>
       </c>
       <c r="E765" t="n">
-        <v>75.60253672122042</v>
+        <v>69.54937109919757</v>
       </c>
     </row>
     <row r="766">
@@ -19771,7 +19771,7 @@
         </is>
       </c>
       <c r="E766" t="n">
-        <v>80.82748298716396</v>
+        <v>72.5527076086759</v>
       </c>
     </row>
     <row r="767">
@@ -19796,7 +19796,7 @@
         </is>
       </c>
       <c r="E767" t="n">
-        <v>18.32383787121226</v>
+        <v>17.12646394468147</v>
       </c>
     </row>
     <row r="768">
@@ -19821,7 +19821,7 @@
         </is>
       </c>
       <c r="E768" t="n">
-        <v>31.28345111073473</v>
+        <v>30.55409247429163</v>
       </c>
     </row>
     <row r="769">
@@ -19846,7 +19846,7 @@
         </is>
       </c>
       <c r="E769" t="n">
-        <v>36.68459574486079</v>
+        <v>35.27526923524039</v>
       </c>
     </row>
     <row r="770">
@@ -19871,7 +19871,7 @@
         </is>
       </c>
       <c r="E770" t="n">
-        <v>4.887192019479784</v>
+        <v>8.006991177669761</v>
       </c>
     </row>
     <row r="771">
@@ -19896,7 +19896,7 @@
         </is>
       </c>
       <c r="E771" t="n">
-        <v>26.06594184392612</v>
+        <v>25.41503731583449</v>
       </c>
     </row>
     <row r="772">
@@ -19921,7 +19921,7 @@
         </is>
       </c>
       <c r="E772" t="n">
-        <v>41.80496973292624</v>
+        <v>41.51031007978077</v>
       </c>
     </row>
     <row r="773">
@@ -19946,7 +19946,7 @@
         </is>
       </c>
       <c r="E773" t="n">
-        <v>5.509983170632317</v>
+        <v>8.671166300258168</v>
       </c>
     </row>
     <row r="774">
@@ -19971,7 +19971,7 @@
         </is>
       </c>
       <c r="E774" t="n">
-        <v>51.14377160256542</v>
+        <v>51.96247166168803</v>
       </c>
     </row>
     <row r="775">
@@ -19996,7 +19996,7 @@
         </is>
       </c>
       <c r="E775" t="n">
-        <v>55.88929014635833</v>
+        <v>57.817651514235</v>
       </c>
     </row>
     <row r="776">
@@ -20021,7 +20021,7 @@
         </is>
       </c>
       <c r="E776" t="n">
-        <v>57.06719969086807</v>
+        <v>56.62547381386938</v>
       </c>
     </row>
     <row r="777">
@@ -20046,7 +20046,7 @@
         </is>
       </c>
       <c r="E777" t="n">
-        <v>60.70698916349214</v>
+        <v>59.46920677268056</v>
       </c>
     </row>
     <row r="778">
@@ -20071,7 +20071,7 @@
         </is>
       </c>
       <c r="E778" t="n">
-        <v>62.79512117621577</v>
+        <v>64.22060257097196</v>
       </c>
     </row>
     <row r="779">
@@ -20096,7 +20096,7 @@
         </is>
       </c>
       <c r="E779" t="n">
-        <v>15.12008699855338</v>
+        <v>13.46312268812697</v>
       </c>
     </row>
     <row r="780">
@@ -20121,7 +20121,7 @@
         </is>
       </c>
       <c r="E780" t="n">
-        <v>56.72328369444016</v>
+        <v>54.88012065437418</v>
       </c>
     </row>
     <row r="781">
@@ -20146,7 +20146,7 @@
         </is>
       </c>
       <c r="E781" t="n">
-        <v>63.80966611156708</v>
+        <v>58.85087797866977</v>
       </c>
     </row>
     <row r="782">
@@ -20171,7 +20171,7 @@
         </is>
       </c>
       <c r="E782" t="n">
-        <v>15.5541954893207</v>
+        <v>15.18755729974978</v>
       </c>
     </row>
     <row r="783">
@@ -20196,7 +20196,7 @@
         </is>
       </c>
       <c r="E783" t="n">
-        <v>32.71584338045011</v>
+        <v>33.55649901852538</v>
       </c>
     </row>
     <row r="784">
@@ -20221,7 +20221,7 @@
         </is>
       </c>
       <c r="E784" t="n">
-        <v>35.23538898988727</v>
+        <v>35.2411249658391</v>
       </c>
     </row>
     <row r="785">
@@ -20246,7 +20246,7 @@
         </is>
       </c>
       <c r="E785" t="n">
-        <v>3.274944288148749</v>
+        <v>7.185829578946198</v>
       </c>
     </row>
     <row r="786">
@@ -20271,7 +20271,7 @@
         </is>
       </c>
       <c r="E786" t="n">
-        <v>27.88254460694749</v>
+        <v>30.91525861554604</v>
       </c>
     </row>
     <row r="787">
@@ -20296,7 +20296,7 @@
         </is>
       </c>
       <c r="E787" t="n">
-        <v>33.21944842405565</v>
+        <v>33.292565336825</v>
       </c>
     </row>
     <row r="788">
@@ -20321,7 +20321,7 @@
         </is>
       </c>
       <c r="E788" t="n">
-        <v>3.318463452449201</v>
+        <v>8.255830871924704</v>
       </c>
     </row>
     <row r="789">
@@ -20346,7 +20346,7 @@
         </is>
       </c>
       <c r="E789" t="n">
-        <v>45.45302487090905</v>
+        <v>45.19430711957433</v>
       </c>
     </row>
     <row r="790">
@@ -20371,7 +20371,7 @@
         </is>
       </c>
       <c r="E790" t="n">
-        <v>52.9569517053455</v>
+        <v>51.85312319115515</v>
       </c>
     </row>
     <row r="791">
@@ -20396,7 +20396,7 @@
         </is>
       </c>
       <c r="E791" t="n">
-        <v>41.52971825030457</v>
+        <v>42.67248219609344</v>
       </c>
     </row>
     <row r="792">
@@ -20421,7 +20421,7 @@
         </is>
       </c>
       <c r="E792" t="n">
-        <v>49.86669975293054</v>
+        <v>49.93922209935894</v>
       </c>
     </row>
     <row r="793">
@@ -20446,7 +20446,7 @@
         </is>
       </c>
       <c r="E793" t="n">
-        <v>49.45015912292236</v>
+        <v>48.97532150915828</v>
       </c>
     </row>
     <row r="794">
@@ -20471,7 +20471,7 @@
         </is>
       </c>
       <c r="E794" t="n">
-        <v>8.398927745487406</v>
+        <v>11.59243486551659</v>
       </c>
     </row>
     <row r="795">
@@ -20496,7 +20496,7 @@
         </is>
       </c>
       <c r="E795" t="n">
-        <v>42.81546287340936</v>
+        <v>36.10695978887548</v>
       </c>
     </row>
     <row r="796">
@@ -20521,7 +20521,7 @@
         </is>
       </c>
       <c r="E796" t="n">
-        <v>55.92215365954489</v>
+        <v>55.88275096582453</v>
       </c>
     </row>
     <row r="797">
@@ -20546,7 +20546,7 @@
         </is>
       </c>
       <c r="E797" t="n">
-        <v>16.54661262826356</v>
+        <v>15.10969226983924</v>
       </c>
     </row>
     <row r="798">
@@ -20571,7 +20571,7 @@
         </is>
       </c>
       <c r="E798" t="n">
-        <v>36.37115200380313</v>
+        <v>35.14827755745931</v>
       </c>
     </row>
     <row r="799">
@@ -20596,7 +20596,7 @@
         </is>
       </c>
       <c r="E799" t="n">
-        <v>42.23677121961349</v>
+        <v>39.94438648537043</v>
       </c>
     </row>
     <row r="800">
@@ -20621,7 +20621,7 @@
         </is>
       </c>
       <c r="E800" t="n">
-        <v>3.628173906074142</v>
+        <v>7.859061978985913</v>
       </c>
     </row>
     <row r="801">
@@ -20646,7 +20646,7 @@
         </is>
       </c>
       <c r="E801" t="n">
-        <v>35.83285726242755</v>
+        <v>36.63278849595243</v>
       </c>
     </row>
     <row r="802">
@@ -20671,7 +20671,7 @@
         </is>
       </c>
       <c r="E802" t="n">
-        <v>43.72188497684932</v>
+        <v>42.79654656617328</v>
       </c>
     </row>
     <row r="803">
@@ -20696,7 +20696,7 @@
         </is>
       </c>
       <c r="E803" t="n">
-        <v>3.67374285697219</v>
+        <v>8.221363981187906</v>
       </c>
     </row>
     <row r="804">
@@ -20721,7 +20721,7 @@
         </is>
       </c>
       <c r="E804" t="n">
-        <v>54.36440316871914</v>
+        <v>51.62461543352022</v>
       </c>
     </row>
     <row r="805">
@@ -20746,7 +20746,7 @@
         </is>
       </c>
       <c r="E805" t="n">
-        <v>63.11613035546752</v>
+        <v>59.56146959320989</v>
       </c>
     </row>
     <row r="806">
@@ -20771,7 +20771,7 @@
         </is>
       </c>
       <c r="E806" t="n">
-        <v>62.7298620290869</v>
+        <v>60.04310935180359</v>
       </c>
     </row>
     <row r="807">
@@ -20796,7 +20796,7 @@
         </is>
       </c>
       <c r="E807" t="n">
-        <v>74.25966711832295</v>
+        <v>66.44287017516372</v>
       </c>
     </row>
     <row r="808">
@@ -20821,7 +20821,7 @@
         </is>
       </c>
       <c r="E808" t="n">
-        <v>79.33567645398921</v>
+        <v>74.06257754327333</v>
       </c>
     </row>
     <row r="809">
@@ -20846,7 +20846,7 @@
         </is>
       </c>
       <c r="E809" t="n">
-        <v>7.793227714822748</v>
+        <v>8.558043813724456</v>
       </c>
     </row>
     <row r="810">
@@ -20871,7 +20871,7 @@
         </is>
       </c>
       <c r="E810" t="n">
-        <v>66.28209486218287</v>
+        <v>62.33219807907155</v>
       </c>
     </row>
     <row r="811">
@@ -20896,7 +20896,7 @@
         </is>
       </c>
       <c r="E811" t="n">
-        <v>75.51752880045507</v>
+        <v>70.73412741577134</v>
       </c>
     </row>
     <row r="812">
@@ -20921,7 +20921,7 @@
         </is>
       </c>
       <c r="E812" t="n">
-        <v>17.67467368048608</v>
+        <v>17.63631701633206</v>
       </c>
     </row>
     <row r="813">
@@ -20946,7 +20946,7 @@
         </is>
       </c>
       <c r="E813" t="n">
-        <v>17.57407677280172</v>
+        <v>19.71527866901388</v>
       </c>
     </row>
     <row r="814">
@@ -20971,7 +20971,7 @@
         </is>
       </c>
       <c r="E814" t="n">
-        <v>19.50750143883875</v>
+        <v>19.06652988236285</v>
       </c>
     </row>
     <row r="815">
@@ -20996,7 +20996,7 @@
         </is>
       </c>
       <c r="E815" t="n">
-        <v>5.843388620152108</v>
+        <v>9.932970108319438</v>
       </c>
     </row>
     <row r="816">
@@ -21021,7 +21021,7 @@
         </is>
       </c>
       <c r="E816" t="n">
-        <v>20.18285608423646</v>
+        <v>20.2148193784097</v>
       </c>
     </row>
     <row r="817">
@@ -21046,7 +21046,7 @@
         </is>
       </c>
       <c r="E817" t="n">
-        <v>23.20307801443656</v>
+        <v>21.3372868868992</v>
       </c>
     </row>
     <row r="818">
@@ -21071,7 +21071,7 @@
         </is>
       </c>
       <c r="E818" t="n">
-        <v>9.863034867785931</v>
+        <v>13.04027751985545</v>
       </c>
     </row>
     <row r="819">
@@ -21096,7 +21096,7 @@
         </is>
       </c>
       <c r="E819" t="n">
-        <v>28.91367631594884</v>
+        <v>26.66791945168533</v>
       </c>
     </row>
     <row r="820">
@@ -21121,7 +21121,7 @@
         </is>
       </c>
       <c r="E820" t="n">
-        <v>30.0499120001815</v>
+        <v>29.36327548503802</v>
       </c>
     </row>
     <row r="821">
@@ -21146,7 +21146,7 @@
         </is>
       </c>
       <c r="E821" t="n">
-        <v>24.74687001381629</v>
+        <v>26.81484834264566</v>
       </c>
     </row>
     <row r="822">
@@ -21171,7 +21171,7 @@
         </is>
       </c>
       <c r="E822" t="n">
-        <v>29.14357927194654</v>
+        <v>30.11499307933055</v>
       </c>
     </row>
     <row r="823">
@@ -21196,7 +21196,7 @@
         </is>
       </c>
       <c r="E823" t="n">
-        <v>31.46316924426753</v>
+        <v>33.65804756080338</v>
       </c>
     </row>
     <row r="824">
@@ -21221,7 +21221,7 @@
         </is>
       </c>
       <c r="E824" t="n">
-        <v>21.06815771830017</v>
+        <v>20.99812198500648</v>
       </c>
     </row>
     <row r="825">
@@ -21246,7 +21246,7 @@
         </is>
       </c>
       <c r="E825" t="n">
-        <v>24.90907059582729</v>
+        <v>24.16642853702918</v>
       </c>
     </row>
     <row r="826">
@@ -21271,7 +21271,7 @@
         </is>
       </c>
       <c r="E826" t="n">
-        <v>30.08841445118544</v>
+        <v>26.01624565526626</v>
       </c>
     </row>
     <row r="827">
@@ -21296,7 +21296,7 @@
         </is>
       </c>
       <c r="E827" t="n">
-        <v>16.7176831245014</v>
+        <v>13.98747658967365</v>
       </c>
     </row>
     <row r="828">
@@ -21321,7 +21321,7 @@
         </is>
       </c>
       <c r="E828" t="n">
-        <v>30.01680829421371</v>
+        <v>28.77396800898307</v>
       </c>
     </row>
     <row r="829">
@@ -21346,7 +21346,7 @@
         </is>
       </c>
       <c r="E829" t="n">
-        <v>35.78814598803221</v>
+        <v>35.1976751259314</v>
       </c>
     </row>
     <row r="830">
@@ -21371,7 +21371,7 @@
         </is>
       </c>
       <c r="E830" t="n">
-        <v>9.950827587706399</v>
+        <v>9.078863346951234</v>
       </c>
     </row>
     <row r="831">
@@ -21396,7 +21396,7 @@
         </is>
       </c>
       <c r="E831" t="n">
-        <v>30.07979275922554</v>
+        <v>29.33065292244395</v>
       </c>
     </row>
     <row r="832">
@@ -21421,7 +21421,7 @@
         </is>
       </c>
       <c r="E832" t="n">
-        <v>39.9034562835367</v>
+        <v>37.82531668077347</v>
       </c>
     </row>
     <row r="833">
@@ -21446,7 +21446,7 @@
         </is>
       </c>
       <c r="E833" t="n">
-        <v>10.59315886721651</v>
+        <v>9.611066101588662</v>
       </c>
     </row>
     <row r="834">
@@ -21471,7 +21471,7 @@
         </is>
       </c>
       <c r="E834" t="n">
-        <v>44.53718269799551</v>
+        <v>41.8691473144145</v>
       </c>
     </row>
     <row r="835">
@@ -21496,7 +21496,7 @@
         </is>
       </c>
       <c r="E835" t="n">
-        <v>56.75444532370027</v>
+        <v>54.83678384965145</v>
       </c>
     </row>
     <row r="836">
@@ -21521,7 +21521,7 @@
         </is>
       </c>
       <c r="E836" t="n">
-        <v>41.753933633193</v>
+        <v>40.27997758669652</v>
       </c>
     </row>
     <row r="837">
@@ -21546,7 +21546,7 @@
         </is>
       </c>
       <c r="E837" t="n">
-        <v>46.82360563806029</v>
+        <v>45.88455115074664</v>
       </c>
     </row>
     <row r="838">
@@ -21571,7 +21571,7 @@
         </is>
       </c>
       <c r="E838" t="n">
-        <v>55.1816502476992</v>
+        <v>51.58464018969827</v>
       </c>
     </row>
     <row r="839">
@@ -21596,7 +21596,7 @@
         </is>
       </c>
       <c r="E839" t="n">
-        <v>15.36933282801666</v>
+        <v>13.18046967893433</v>
       </c>
     </row>
     <row r="840">
@@ -21621,7 +21621,7 @@
         </is>
       </c>
       <c r="E840" t="n">
-        <v>47.05493255075601</v>
+        <v>44.40500737253393</v>
       </c>
     </row>
     <row r="841">
@@ -21646,7 +21646,7 @@
         </is>
       </c>
       <c r="E841" t="n">
-        <v>55.29280371232508</v>
+        <v>53.57858566092997</v>
       </c>
     </row>
     <row r="842">
@@ -21671,7 +21671,7 @@
         </is>
       </c>
       <c r="E842" t="n">
-        <v>21.39121953866811</v>
+        <v>19.40741791337055</v>
       </c>
     </row>
     <row r="843">
@@ -21696,7 +21696,7 @@
         </is>
       </c>
       <c r="E843" t="n">
-        <v>36.11361475760699</v>
+        <v>35.85347540408292</v>
       </c>
     </row>
     <row r="844">
@@ -21721,7 +21721,7 @@
         </is>
       </c>
       <c r="E844" t="n">
-        <v>44.78124373140518</v>
+        <v>43.42152932344733</v>
       </c>
     </row>
     <row r="845">
@@ -21746,7 +21746,7 @@
         </is>
       </c>
       <c r="E845" t="n">
-        <v>9.271849240416753</v>
+        <v>10.28225979587475</v>
       </c>
     </row>
     <row r="846">
@@ -21771,7 +21771,7 @@
         </is>
       </c>
       <c r="E846" t="n">
-        <v>35.08187214014286</v>
+        <v>37.02811446226889</v>
       </c>
     </row>
     <row r="847">
@@ -21796,7 +21796,7 @@
         </is>
       </c>
       <c r="E847" t="n">
-        <v>47.21070197406138</v>
+        <v>45.35950883197611</v>
       </c>
     </row>
     <row r="848">
@@ -21821,7 +21821,7 @@
         </is>
       </c>
       <c r="E848" t="n">
-        <v>14.37727437938064</v>
+        <v>13.93363087621202</v>
       </c>
     </row>
     <row r="849">
@@ -21846,7 +21846,7 @@
         </is>
       </c>
       <c r="E849" t="n">
-        <v>55.18338331254347</v>
+        <v>50.97288596877147</v>
       </c>
     </row>
     <row r="850">
@@ -21871,7 +21871,7 @@
         </is>
       </c>
       <c r="E850" t="n">
-        <v>67.48967959055389</v>
+        <v>64.18331263247671</v>
       </c>
     </row>
     <row r="851">
@@ -21896,7 +21896,7 @@
         </is>
       </c>
       <c r="E851" t="n">
-        <v>55.68290196775821</v>
+        <v>52.14251794581225</v>
       </c>
     </row>
     <row r="852">
@@ -21921,7 +21921,7 @@
         </is>
       </c>
       <c r="E852" t="n">
-        <v>61.04677691316091</v>
+        <v>55.81106913739817</v>
       </c>
     </row>
     <row r="853">
@@ -21946,7 +21946,7 @@
         </is>
       </c>
       <c r="E853" t="n">
-        <v>78.93171526414532</v>
+        <v>73.07185415578951</v>
       </c>
     </row>
     <row r="854">
@@ -21971,7 +21971,7 @@
         </is>
       </c>
       <c r="E854" t="n">
-        <v>23.20840182195639</v>
+        <v>23.98067998930488</v>
       </c>
     </row>
     <row r="855">
@@ -21996,7 +21996,7 @@
         </is>
       </c>
       <c r="E855" t="n">
-        <v>55.1013740249109</v>
+        <v>51.40363436996041</v>
       </c>
     </row>
     <row r="856">
@@ -22021,7 +22021,7 @@
         </is>
       </c>
       <c r="E856" t="n">
-        <v>74.23265448662913</v>
+        <v>68.05069175100088</v>
       </c>
     </row>
     <row r="857">
@@ -22046,7 +22046,7 @@
         </is>
       </c>
       <c r="E857" t="n">
-        <v>16.41608243651949</v>
+        <v>17.39930815070434</v>
       </c>
     </row>
     <row r="858">
@@ -22071,7 +22071,7 @@
         </is>
       </c>
       <c r="E858" t="n">
-        <v>16.4767377401841</v>
+        <v>19.91183171047563</v>
       </c>
     </row>
     <row r="859">
@@ -22096,7 +22096,7 @@
         </is>
       </c>
       <c r="E859" t="n">
-        <v>19.97468535770568</v>
+        <v>21.57768298603479</v>
       </c>
     </row>
     <row r="860">
@@ -22121,7 +22121,7 @@
         </is>
       </c>
       <c r="E860" t="n">
-        <v>1.627378767158667</v>
+        <v>8.314347256830214</v>
       </c>
     </row>
     <row r="861">
@@ -22146,7 +22146,7 @@
         </is>
       </c>
       <c r="E861" t="n">
-        <v>27.31948225062024</v>
+        <v>23.93673027316746</v>
       </c>
     </row>
     <row r="862">
@@ -22171,7 +22171,7 @@
         </is>
       </c>
       <c r="E862" t="n">
-        <v>30.02239753002875</v>
+        <v>25.34235466018659</v>
       </c>
     </row>
     <row r="863">
@@ -22196,7 +22196,7 @@
         </is>
       </c>
       <c r="E863" t="n">
-        <v>3.021305012661845</v>
+        <v>11.05034238243583</v>
       </c>
     </row>
     <row r="864">
@@ -22221,7 +22221,7 @@
         </is>
       </c>
       <c r="E864" t="n">
-        <v>37.21178114064932</v>
+        <v>34.68238685670896</v>
       </c>
     </row>
     <row r="865">
@@ -22246,7 +22246,7 @@
         </is>
       </c>
       <c r="E865" t="n">
-        <v>36.24117394175211</v>
+        <v>34.35707842257473</v>
       </c>
     </row>
     <row r="866">
@@ -22271,7 +22271,7 @@
         </is>
       </c>
       <c r="E866" t="n">
-        <v>32.78305737846011</v>
+        <v>36.61153142165536</v>
       </c>
     </row>
     <row r="867">
@@ -22296,7 +22296,7 @@
         </is>
       </c>
       <c r="E867" t="n">
-        <v>40.57816083205241</v>
+        <v>41.58368968318322</v>
       </c>
     </row>
     <row r="868">
@@ -22321,7 +22321,7 @@
         </is>
       </c>
       <c r="E868" t="n">
-        <v>45.43572093260791</v>
+        <v>45.42092382563662</v>
       </c>
     </row>
     <row r="869">
@@ -22346,7 +22346,7 @@
         </is>
       </c>
       <c r="E869" t="n">
-        <v>20.60308119588636</v>
+        <v>19.69693311427054</v>
       </c>
     </row>
     <row r="870">
@@ -22371,7 +22371,7 @@
         </is>
       </c>
       <c r="E870" t="n">
-        <v>38.12246063876285</v>
+        <v>42.2592803947692</v>
       </c>
     </row>
     <row r="871">
@@ -22396,7 +22396,7 @@
         </is>
       </c>
       <c r="E871" t="n">
-        <v>48.08488972716326</v>
+        <v>44.80108737596139</v>
       </c>
     </row>
     <row r="872">
@@ -22421,7 +22421,7 @@
         </is>
       </c>
       <c r="E872" t="n">
-        <v>9.15443345048044</v>
+        <v>10.3764525576024</v>
       </c>
     </row>
     <row r="873">
@@ -22446,7 +22446,7 @@
         </is>
       </c>
       <c r="E873" t="n">
-        <v>19.18982973189302</v>
+        <v>20.430739101901</v>
       </c>
     </row>
     <row r="874">
@@ -22471,7 +22471,7 @@
         </is>
       </c>
       <c r="E874" t="n">
-        <v>29.80908838660079</v>
+        <v>34.68404125739751</v>
       </c>
     </row>
     <row r="875">
@@ -22496,7 +22496,7 @@
         </is>
       </c>
       <c r="E875" t="n">
-        <v>8.084877971518953</v>
+        <v>8.510344933857887</v>
       </c>
     </row>
     <row r="876">
@@ -22521,7 +22521,7 @@
         </is>
       </c>
       <c r="E876" t="n">
-        <v>21.04801884161571</v>
+        <v>16.27609210545413</v>
       </c>
     </row>
     <row r="877">
@@ -22546,7 +22546,7 @@
         </is>
       </c>
       <c r="E877" t="n">
-        <v>47.278278214875</v>
+        <v>49.59678064049173</v>
       </c>
     </row>
     <row r="878">
@@ -22571,7 +22571,7 @@
         </is>
       </c>
       <c r="E878" t="n">
-        <v>-0.3932097188136083</v>
+        <v>7.834038379103731</v>
       </c>
     </row>
     <row r="879">
@@ -22596,7 +22596,7 @@
         </is>
       </c>
       <c r="E879" t="n">
-        <v>31.41373306082625</v>
+        <v>27.64821223873154</v>
       </c>
     </row>
     <row r="880">
@@ -22621,7 +22621,7 @@
         </is>
       </c>
       <c r="E880" t="n">
-        <v>50.31780141407427</v>
+        <v>51.38191220424935</v>
       </c>
     </row>
     <row r="881">
@@ -22646,7 +22646,7 @@
         </is>
       </c>
       <c r="E881" t="n">
-        <v>30.72705682241081</v>
+        <v>29.4354055110291</v>
       </c>
     </row>
     <row r="882">
@@ -22671,7 +22671,7 @@
         </is>
       </c>
       <c r="E882" t="n">
-        <v>41.20550827712198</v>
+        <v>40.21730309181722</v>
       </c>
     </row>
     <row r="883">
@@ -22696,7 +22696,7 @@
         </is>
       </c>
       <c r="E883" t="n">
-        <v>51.94227629227954</v>
+        <v>52.14919344349875</v>
       </c>
     </row>
     <row r="884">
@@ -22721,7 +22721,7 @@
         </is>
       </c>
       <c r="E884" t="n">
-        <v>10.70442794576434</v>
+        <v>10.38577330677163</v>
       </c>
     </row>
     <row r="885">
@@ -22746,7 +22746,7 @@
         </is>
       </c>
       <c r="E885" t="n">
-        <v>43.95102186695797</v>
+        <v>41.90463888093495</v>
       </c>
     </row>
     <row r="886">
@@ -22771,7 +22771,7 @@
         </is>
       </c>
       <c r="E886" t="n">
-        <v>55.00441087978041</v>
+        <v>53.48409806317221</v>
       </c>
     </row>
     <row r="887">
@@ -22796,7 +22796,7 @@
         </is>
       </c>
       <c r="E887" t="n">
-        <v>18.79284165259221</v>
+        <v>17.65694924344838</v>
       </c>
     </row>
     <row r="888">
@@ -22821,7 +22821,7 @@
         </is>
       </c>
       <c r="E888" t="n">
-        <v>28.81917692675418</v>
+        <v>30.30942883199814</v>
       </c>
     </row>
     <row r="889">
@@ -22846,7 +22846,7 @@
         </is>
       </c>
       <c r="E889" t="n">
-        <v>38.67319083390409</v>
+        <v>38.64386981473432</v>
       </c>
     </row>
     <row r="890">
@@ -22871,7 +22871,7 @@
         </is>
       </c>
       <c r="E890" t="n">
-        <v>8.812259251412442</v>
+        <v>9.10208183053361</v>
       </c>
     </row>
     <row r="891">
@@ -22896,7 +22896,7 @@
         </is>
       </c>
       <c r="E891" t="n">
-        <v>26.32662618110869</v>
+        <v>22.21194233145209</v>
       </c>
     </row>
     <row r="892">
@@ -22921,7 +22921,7 @@
         </is>
       </c>
       <c r="E892" t="n">
-        <v>42.99384709161546</v>
+        <v>41.81827665180217</v>
       </c>
     </row>
     <row r="893">
@@ -22946,7 +22946,7 @@
         </is>
       </c>
       <c r="E893" t="n">
-        <v>1.82005519934906</v>
+        <v>8.877894972387029</v>
       </c>
     </row>
     <row r="894">
@@ -22971,7 +22971,7 @@
         </is>
       </c>
       <c r="E894" t="n">
-        <v>42.38455269425211</v>
+        <v>35.76802428782683</v>
       </c>
     </row>
     <row r="895">
@@ -22996,7 +22996,7 @@
         </is>
       </c>
       <c r="E895" t="n">
-        <v>58.35880316221662</v>
+        <v>58.74256571315017</v>
       </c>
     </row>
     <row r="896">
@@ -23021,7 +23021,7 @@
         </is>
       </c>
       <c r="E896" t="n">
-        <v>58.38889944657073</v>
+        <v>53.5727830513483</v>
       </c>
     </row>
     <row r="897">
@@ -23046,7 +23046,7 @@
         </is>
       </c>
       <c r="E897" t="n">
-        <v>59.83692599478609</v>
+        <v>54.63875267640532</v>
       </c>
     </row>
     <row r="898">
@@ -23071,7 +23071,7 @@
         </is>
       </c>
       <c r="E898" t="n">
-        <v>72.77191998144227</v>
+        <v>71.74248648996196</v>
       </c>
     </row>
     <row r="899">
@@ -23096,7 +23096,7 @@
         </is>
       </c>
       <c r="E899" t="n">
-        <v>16.08400658070221</v>
+        <v>13.9892329300643</v>
       </c>
     </row>
     <row r="900">
@@ -23121,7 +23121,7 @@
         </is>
       </c>
       <c r="E900" t="n">
-        <v>50.05398512931653</v>
+        <v>40.97150074493574</v>
       </c>
     </row>
     <row r="901">
@@ -23146,7 +23146,7 @@
         </is>
       </c>
       <c r="E901" t="n">
-        <v>68.78724211503891</v>
+        <v>65.18805640539078</v>
       </c>
     </row>
     <row r="902">
@@ -23171,7 +23171,7 @@
         </is>
       </c>
       <c r="E902" t="n">
-        <v>23.74072607819989</v>
+        <v>24.02558313317253</v>
       </c>
     </row>
     <row r="903">
@@ -23196,7 +23196,7 @@
         </is>
       </c>
       <c r="E903" t="n">
-        <v>31.78310171088568</v>
+        <v>30.17885647530732</v>
       </c>
     </row>
     <row r="904">
@@ -23221,7 +23221,7 @@
         </is>
       </c>
       <c r="E904" t="n">
-        <v>36.02845244177692</v>
+        <v>34.47174082975785</v>
       </c>
     </row>
     <row r="905">
@@ -23246,7 +23246,7 @@
         </is>
       </c>
       <c r="E905" t="n">
-        <v>10.47147633865017</v>
+        <v>9.94374527518552</v>
       </c>
     </row>
     <row r="906">
@@ -23271,7 +23271,7 @@
         </is>
       </c>
       <c r="E906" t="n">
-        <v>44.63121693437466</v>
+        <v>45.0505882857682</v>
       </c>
     </row>
     <row r="907">
@@ -23296,7 +23296,7 @@
         </is>
       </c>
       <c r="E907" t="n">
-        <v>46.1420779168398</v>
+        <v>43.55291366390747</v>
       </c>
     </row>
     <row r="908">
@@ -23321,7 +23321,7 @@
         </is>
       </c>
       <c r="E908" t="n">
-        <v>12.59774371013157</v>
+        <v>14.62166596012951</v>
       </c>
     </row>
     <row r="909">
@@ -23346,7 +23346,7 @@
         </is>
       </c>
       <c r="E909" t="n">
-        <v>58.75260254314661</v>
+        <v>59.35824786343315</v>
       </c>
     </row>
     <row r="910">
@@ -23371,7 +23371,7 @@
         </is>
       </c>
       <c r="E910" t="n">
-        <v>56.28165940007102</v>
+        <v>57.8454632179569</v>
       </c>
     </row>
     <row r="911">
@@ -23396,7 +23396,7 @@
         </is>
       </c>
       <c r="E911" t="n">
-        <v>59.17293855965168</v>
+        <v>54.87567436165737</v>
       </c>
     </row>
     <row r="912">
@@ -23421,7 +23421,7 @@
         </is>
       </c>
       <c r="E912" t="n">
-        <v>62.85750000256577</v>
+        <v>59.92758126347501</v>
       </c>
     </row>
     <row r="913">
@@ -23446,7 +23446,7 @@
         </is>
       </c>
       <c r="E913" t="n">
-        <v>65.09951156667245</v>
+        <v>62.97378594659411</v>
       </c>
     </row>
     <row r="914">
@@ -23471,7 +23471,7 @@
         </is>
       </c>
       <c r="E914" t="n">
-        <v>28.90821133781577</v>
+        <v>33.17610439258256</v>
       </c>
     </row>
     <row r="915">
@@ -23496,7 +23496,7 @@
         </is>
       </c>
       <c r="E915" t="n">
-        <v>41.11048323995258</v>
+        <v>43.11359153933442</v>
       </c>
     </row>
     <row r="916">
@@ -23521,7 +23521,7 @@
         </is>
       </c>
       <c r="E916" t="n">
-        <v>66.23249774102419</v>
+        <v>64.01942012196861</v>
       </c>
     </row>
     <row r="917">
@@ -23546,7 +23546,7 @@
         </is>
       </c>
       <c r="E917" t="n">
-        <v>27.2120367373434</v>
+        <v>28.67726176658526</v>
       </c>
     </row>
     <row r="918">
@@ -23571,7 +23571,7 @@
         </is>
       </c>
       <c r="E918" t="n">
-        <v>39.34405756328481</v>
+        <v>36.55530385235667</v>
       </c>
     </row>
     <row r="919">
@@ -23596,7 +23596,7 @@
         </is>
       </c>
       <c r="E919" t="n">
-        <v>40.01928633110919</v>
+        <v>37.21741904741811</v>
       </c>
     </row>
     <row r="920">
@@ -23621,7 +23621,7 @@
         </is>
       </c>
       <c r="E920" t="n">
-        <v>9.712905226230099</v>
+        <v>9.504489907160082</v>
       </c>
     </row>
     <row r="921">
@@ -23646,7 +23646,7 @@
         </is>
       </c>
       <c r="E921" t="n">
-        <v>37.0190311129241</v>
+        <v>37.66039726496818</v>
       </c>
     </row>
     <row r="922">
@@ -23671,7 +23671,7 @@
         </is>
       </c>
       <c r="E922" t="n">
-        <v>40.07469001464008</v>
+        <v>36.95164710037015</v>
       </c>
     </row>
     <row r="923">
@@ -23696,7 +23696,7 @@
         </is>
       </c>
       <c r="E923" t="n">
-        <v>10.48012144422739</v>
+        <v>10.35350902285569</v>
       </c>
     </row>
     <row r="924">
@@ -23721,7 +23721,7 @@
         </is>
       </c>
       <c r="E924" t="n">
-        <v>54.42519918888048</v>
+        <v>52.57404544968711</v>
       </c>
     </row>
     <row r="925">
@@ -23746,7 +23746,7 @@
         </is>
       </c>
       <c r="E925" t="n">
-        <v>55.95122622296444</v>
+        <v>53.32052467974061</v>
       </c>
     </row>
     <row r="926">
@@ -23771,7 +23771,7 @@
         </is>
       </c>
       <c r="E926" t="n">
-        <v>51.44620069372451</v>
+        <v>50.31966149770908</v>
       </c>
     </row>
     <row r="927">
@@ -23796,7 +23796,7 @@
         </is>
       </c>
       <c r="E927" t="n">
-        <v>55.77160817206655</v>
+        <v>52.2309305060452</v>
       </c>
     </row>
     <row r="928">
@@ -23821,7 +23821,7 @@
         </is>
       </c>
       <c r="E928" t="n">
-        <v>56.67960228284875</v>
+        <v>53.99975925715877</v>
       </c>
     </row>
     <row r="929">
@@ -23846,7 +23846,7 @@
         </is>
       </c>
       <c r="E929" t="n">
-        <v>28.63893323913036</v>
+        <v>29.01188303518835</v>
       </c>
     </row>
     <row r="930">
@@ -23871,7 +23871,7 @@
         </is>
       </c>
       <c r="E930" t="n">
-        <v>58.49181285301966</v>
+        <v>54.90248020103578</v>
       </c>
     </row>
     <row r="931">
@@ -23896,7 +23896,7 @@
         </is>
       </c>
       <c r="E931" t="n">
-        <v>60.89504686020871</v>
+        <v>55.56491430079664</v>
       </c>
     </row>
     <row r="932">
@@ -23921,7 +23921,7 @@
         </is>
       </c>
       <c r="E932" t="n">
-        <v>27.16202106998688</v>
+        <v>27.39433825566958</v>
       </c>
     </row>
     <row r="933">
@@ -23946,7 +23946,7 @@
         </is>
       </c>
       <c r="E933" t="n">
-        <v>41.69740380694546</v>
+        <v>37.69293694734334</v>
       </c>
     </row>
     <row r="934">
@@ -23971,7 +23971,7 @@
         </is>
       </c>
       <c r="E934" t="n">
-        <v>44.79632049442899</v>
+        <v>40.62595951446794</v>
       </c>
     </row>
     <row r="935">
@@ -23996,7 +23996,7 @@
         </is>
       </c>
       <c r="E935" t="n">
-        <v>10.12967511604813</v>
+        <v>9.908590746523807</v>
       </c>
     </row>
     <row r="936">
@@ -24021,7 +24021,7 @@
         </is>
       </c>
       <c r="E936" t="n">
-        <v>43.00187093527578</v>
+        <v>44.03823672452007</v>
       </c>
     </row>
     <row r="937">
@@ -24046,7 +24046,7 @@
         </is>
       </c>
       <c r="E937" t="n">
-        <v>45.8593295575558</v>
+        <v>42.42248647145826</v>
       </c>
     </row>
     <row r="938">
@@ -24071,7 +24071,7 @@
         </is>
       </c>
       <c r="E938" t="n">
-        <v>10.11642787765277</v>
+        <v>10.31992533883582</v>
       </c>
     </row>
     <row r="939">
@@ -24096,7 +24096,7 @@
         </is>
       </c>
       <c r="E939" t="n">
-        <v>65.31245709418693</v>
+        <v>62.48271088178303</v>
       </c>
     </row>
     <row r="940">
@@ -24121,7 +24121,7 @@
         </is>
       </c>
       <c r="E940" t="n">
-        <v>64.07908494716452</v>
+        <v>63.64332164271816</v>
       </c>
     </row>
     <row r="941">
@@ -24146,7 +24146,7 @@
         </is>
       </c>
       <c r="E941" t="n">
-        <v>73.5054895597732</v>
+        <v>69.93568239380673</v>
       </c>
     </row>
     <row r="942">
@@ -24171,7 +24171,7 @@
         </is>
       </c>
       <c r="E942" t="n">
-        <v>74.45752494871414</v>
+        <v>70.35981168362946</v>
       </c>
     </row>
     <row r="943">
@@ -24196,7 +24196,7 @@
         </is>
       </c>
       <c r="E943" t="n">
-        <v>78.12967214798672</v>
+        <v>70.8966456577806</v>
       </c>
     </row>
     <row r="944">
@@ -24221,7 +24221,7 @@
         </is>
       </c>
       <c r="E944" t="n">
-        <v>32.15288972105714</v>
+        <v>31.17418330533938</v>
       </c>
     </row>
     <row r="945">
@@ -24246,7 +24246,7 @@
         </is>
       </c>
       <c r="E945" t="n">
-        <v>68.98782439841671</v>
+        <v>63.78008293787845</v>
       </c>
     </row>
     <row r="946">
@@ -24271,7 +24271,7 @@
         </is>
       </c>
       <c r="E946" t="n">
-        <v>76.03065791062011</v>
+        <v>68.2501137443852</v>
       </c>
     </row>
     <row r="947">
@@ -24296,7 +24296,7 @@
         </is>
       </c>
       <c r="E947" t="n">
-        <v>18.68764682763631</v>
+        <v>16.71146890305076</v>
       </c>
     </row>
     <row r="948">
@@ -24321,7 +24321,7 @@
         </is>
       </c>
       <c r="E948" t="n">
-        <v>31.53246713209023</v>
+        <v>32.45117209345665</v>
       </c>
     </row>
     <row r="949">
@@ -24346,7 +24346,7 @@
         </is>
       </c>
       <c r="E949" t="n">
-        <v>35.5905513131613</v>
+        <v>33.85688968460175</v>
       </c>
     </row>
     <row r="950">
@@ -24371,7 +24371,7 @@
         </is>
       </c>
       <c r="E950" t="n">
-        <v>6.87430110584436</v>
+        <v>8.944587299155387</v>
       </c>
     </row>
     <row r="951">
@@ -24396,7 +24396,7 @@
         </is>
       </c>
       <c r="E951" t="n">
-        <v>33.52467363638673</v>
+        <v>36.09256761331515</v>
       </c>
     </row>
     <row r="952">
@@ -24421,7 +24421,7 @@
         </is>
       </c>
       <c r="E952" t="n">
-        <v>42.33982294619545</v>
+        <v>41.39129328723254</v>
       </c>
     </row>
     <row r="953">
@@ -24446,7 +24446,7 @@
         </is>
       </c>
       <c r="E953" t="n">
-        <v>6.410561506418134</v>
+        <v>8.817920350199298</v>
       </c>
     </row>
     <row r="954">
@@ -24471,7 +24471,7 @@
         </is>
       </c>
       <c r="E954" t="n">
-        <v>51.64897004906738</v>
+        <v>52.10038916743056</v>
       </c>
     </row>
     <row r="955">
@@ -24496,7 +24496,7 @@
         </is>
       </c>
       <c r="E955" t="n">
-        <v>53.95582149350128</v>
+        <v>55.66910559601925</v>
       </c>
     </row>
     <row r="956">
@@ -24521,7 +24521,7 @@
         </is>
       </c>
       <c r="E956" t="n">
-        <v>54.18387767711116</v>
+        <v>53.76045673429734</v>
       </c>
     </row>
     <row r="957">
@@ -24546,7 +24546,7 @@
         </is>
       </c>
       <c r="E957" t="n">
-        <v>61.74040743331695</v>
+        <v>60.98704854683344</v>
       </c>
     </row>
     <row r="958">
@@ -24571,7 +24571,7 @@
         </is>
       </c>
       <c r="E958" t="n">
-        <v>59.71950503059992</v>
+        <v>59.7253655266629</v>
       </c>
     </row>
     <row r="959">
@@ -24596,7 +24596,7 @@
         </is>
       </c>
       <c r="E959" t="n">
-        <v>14.90753229322628</v>
+        <v>13.33176965408531</v>
       </c>
     </row>
     <row r="960">
@@ -24621,7 +24621,7 @@
         </is>
       </c>
       <c r="E960" t="n">
-        <v>54.46475816981022</v>
+        <v>52.90433340481783</v>
       </c>
     </row>
     <row r="961">
@@ -24646,7 +24646,7 @@
         </is>
       </c>
       <c r="E961" t="n">
-        <v>63.02612523532437</v>
+        <v>57.42783484889249</v>
       </c>
     </row>
     <row r="962">
@@ -24671,7 +24671,7 @@
         </is>
       </c>
       <c r="E962" t="n">
-        <v>17.03021756374553</v>
+        <v>14.98494374024607</v>
       </c>
     </row>
     <row r="963">
@@ -24696,7 +24696,7 @@
         </is>
       </c>
       <c r="E963" t="n">
-        <v>34.38020579381058</v>
+        <v>33.37373629434776</v>
       </c>
     </row>
     <row r="964">
@@ -24721,7 +24721,7 @@
         </is>
       </c>
       <c r="E964" t="n">
-        <v>36.05335815830063</v>
+        <v>34.89353698013675</v>
       </c>
     </row>
     <row r="965">
@@ -24746,7 +24746,7 @@
         </is>
       </c>
       <c r="E965" t="n">
-        <v>6.829759805030342</v>
+        <v>7.70846205355247</v>
       </c>
     </row>
     <row r="966">
@@ -24771,7 +24771,7 @@
         </is>
       </c>
       <c r="E966" t="n">
-        <v>32.68371844756982</v>
+        <v>30.69885954597866</v>
       </c>
     </row>
     <row r="967">
@@ -24796,7 +24796,7 @@
         </is>
       </c>
       <c r="E967" t="n">
-        <v>36.33040792360582</v>
+        <v>34.06968124710746</v>
       </c>
     </row>
     <row r="968">
@@ -24821,7 +24821,7 @@
         </is>
       </c>
       <c r="E968" t="n">
-        <v>7.417791012225749</v>
+        <v>8.445128485393774</v>
       </c>
     </row>
     <row r="969">
@@ -24846,7 +24846,7 @@
         </is>
       </c>
       <c r="E969" t="n">
-        <v>49.66813177532691</v>
+        <v>43.92663088248497</v>
       </c>
     </row>
     <row r="970">
@@ -24871,7 +24871,7 @@
         </is>
       </c>
       <c r="E970" t="n">
-        <v>55.30712802920244</v>
+        <v>52.0030626244606</v>
       </c>
     </row>
     <row r="971">
@@ -24896,7 +24896,7 @@
         </is>
       </c>
       <c r="E971" t="n">
-        <v>46.36034062210042</v>
+        <v>45.54964360200907</v>
       </c>
     </row>
     <row r="972">
@@ -24921,7 +24921,7 @@
         </is>
       </c>
       <c r="E972" t="n">
-        <v>54.38897179063499</v>
+        <v>49.86768483054924</v>
       </c>
     </row>
     <row r="973">
@@ -24946,7 +24946,7 @@
         </is>
       </c>
       <c r="E973" t="n">
-        <v>53.83387594292294</v>
+        <v>52.44745646322364</v>
       </c>
     </row>
     <row r="974">
@@ -24971,7 +24971,7 @@
         </is>
       </c>
       <c r="E974" t="n">
-        <v>13.18291459102447</v>
+        <v>12.42222862213014</v>
       </c>
     </row>
     <row r="975">
@@ -24996,7 +24996,7 @@
         </is>
       </c>
       <c r="E975" t="n">
-        <v>56.5816687654475</v>
+        <v>53.38329120199719</v>
       </c>
     </row>
     <row r="976">
@@ -25021,7 +25021,7 @@
         </is>
       </c>
       <c r="E976" t="n">
-        <v>59.4733384061427</v>
+        <v>54.71804548974961</v>
       </c>
     </row>
     <row r="977">
@@ -25046,7 +25046,7 @@
         </is>
       </c>
       <c r="E977" t="n">
-        <v>15.31324767326591</v>
+        <v>14.83818989091106</v>
       </c>
     </row>
     <row r="978">
@@ -25071,7 +25071,7 @@
         </is>
       </c>
       <c r="E978" t="n">
-        <v>33.61197344194022</v>
+        <v>34.02398289244337</v>
       </c>
     </row>
     <row r="979">
@@ -25096,7 +25096,7 @@
         </is>
       </c>
       <c r="E979" t="n">
-        <v>40.03303378549304</v>
+        <v>40.38201632026743</v>
       </c>
     </row>
     <row r="980">
@@ -25121,7 +25121,7 @@
         </is>
       </c>
       <c r="E980" t="n">
-        <v>4.546779086958669</v>
+        <v>8.193886978007196</v>
       </c>
     </row>
     <row r="981">
@@ -25146,7 +25146,7 @@
         </is>
       </c>
       <c r="E981" t="n">
-        <v>35.70076106009107</v>
+        <v>36.19047579788555</v>
       </c>
     </row>
     <row r="982">
@@ -25171,7 +25171,7 @@
         </is>
       </c>
       <c r="E982" t="n">
-        <v>42.97701072419409</v>
+        <v>42.16064503996466</v>
       </c>
     </row>
     <row r="983">
@@ -25196,7 +25196,7 @@
         </is>
       </c>
       <c r="E983" t="n">
-        <v>4.851654370041761</v>
+        <v>8.251002101235844</v>
       </c>
     </row>
     <row r="984">
@@ -25221,7 +25221,7 @@
         </is>
       </c>
       <c r="E984" t="n">
-        <v>50.63837032130324</v>
+        <v>48.73178174781556</v>
       </c>
     </row>
     <row r="985">
@@ -25246,7 +25246,7 @@
         </is>
       </c>
       <c r="E985" t="n">
-        <v>61.21113078910588</v>
+        <v>61.24132352600707</v>
       </c>
     </row>
     <row r="986">
@@ -25271,7 +25271,7 @@
         </is>
       </c>
       <c r="E986" t="n">
-        <v>57.38147752676363</v>
+        <v>55.50850983703553</v>
       </c>
     </row>
     <row r="987">
@@ -25296,7 +25296,7 @@
         </is>
       </c>
       <c r="E987" t="n">
-        <v>68.99840852885218</v>
+        <v>62.2231683159954</v>
       </c>
     </row>
     <row r="988">
@@ -25321,7 +25321,7 @@
         </is>
       </c>
       <c r="E988" t="n">
-        <v>76.56256490398673</v>
+        <v>72.5635002813987</v>
       </c>
     </row>
     <row r="989">
@@ -25346,7 +25346,7 @@
         </is>
       </c>
       <c r="E989" t="n">
-        <v>11.0200158550926</v>
+        <v>11.88106981906605</v>
       </c>
     </row>
     <row r="990">
@@ -25371,7 +25371,7 @@
         </is>
       </c>
       <c r="E990" t="n">
-        <v>60.30426961226485</v>
+        <v>55.25326612544501</v>
       </c>
     </row>
     <row r="991">
@@ -25396,7 +25396,7 @@
         </is>
       </c>
       <c r="E991" t="n">
-        <v>72.20544643754457</v>
+        <v>66.73626241818161</v>
       </c>
     </row>
   </sheetData>

--- a/yield_prediction/results/graph_descriptors/WLpolynomial_5/out_of_sample/ligand/LOO_XPhos/results.xlsx
+++ b/yield_prediction/results/graph_descriptors/WLpolynomial_5/out_of_sample/ligand/LOO_XPhos/results.xlsx
@@ -452,7 +452,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>100</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="3">
@@ -498,7 +498,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.516</v>
+        <v>0.422</v>
       </c>
     </row>
     <row r="3">
@@ -508,7 +508,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>18.223</v>
+        <v>20.286</v>
       </c>
     </row>
   </sheetData>
@@ -544,7 +544,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>-0.5639999999999999</v>
+        <v>-0.41</v>
       </c>
     </row>
     <row r="3">
@@ -554,7 +554,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>21.915</v>
+        <v>20.809</v>
       </c>
     </row>
   </sheetData>
@@ -590,7 +590,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.997</v>
+        <v>0.999</v>
       </c>
     </row>
     <row r="3">
@@ -600,7 +600,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1.468</v>
+        <v>0.969</v>
       </c>
     </row>
   </sheetData>
@@ -671,7 +671,7 @@
         </is>
       </c>
       <c r="E2" t="n">
-        <v>17.51664379849076</v>
+        <v>21.17420683117496</v>
       </c>
     </row>
     <row r="3">
@@ -696,7 +696,7 @@
         </is>
       </c>
       <c r="E3" t="n">
-        <v>18.6946253864525</v>
+        <v>23.0299543816116</v>
       </c>
     </row>
     <row r="4">
@@ -721,7 +721,7 @@
         </is>
       </c>
       <c r="E4" t="n">
-        <v>18.84560486336092</v>
+        <v>22.45603426925997</v>
       </c>
     </row>
     <row r="5">
@@ -746,7 +746,7 @@
         </is>
       </c>
       <c r="E5" t="n">
-        <v>9.396240169855588</v>
+        <v>14.7709271013181</v>
       </c>
     </row>
     <row r="6">
@@ -771,7 +771,7 @@
         </is>
       </c>
       <c r="E6" t="n">
-        <v>20.06467232675056</v>
+        <v>23.36539799972985</v>
       </c>
     </row>
     <row r="7">
@@ -796,7 +796,7 @@
         </is>
       </c>
       <c r="E7" t="n">
-        <v>23.54970120805431</v>
+        <v>26.08814428489768</v>
       </c>
     </row>
     <row r="8">
@@ -821,7 +821,7 @@
         </is>
       </c>
       <c r="E8" t="n">
-        <v>11.89719237636792</v>
+        <v>16.79265660357392</v>
       </c>
     </row>
     <row r="9">
@@ -846,7 +846,7 @@
         </is>
       </c>
       <c r="E9" t="n">
-        <v>27.33135562541019</v>
+        <v>29.1340784286651</v>
       </c>
     </row>
     <row r="10">
@@ -871,7 +871,7 @@
         </is>
       </c>
       <c r="E10" t="n">
-        <v>28.26390659424654</v>
+        <v>30.326378397217</v>
       </c>
     </row>
     <row r="11">
@@ -896,7 +896,7 @@
         </is>
       </c>
       <c r="E11" t="n">
-        <v>26.21864275803814</v>
+        <v>28.42148508532762</v>
       </c>
     </row>
     <row r="12">
@@ -921,7 +921,7 @@
         </is>
       </c>
       <c r="E12" t="n">
-        <v>30.66586331419124</v>
+        <v>31.92733796722119</v>
       </c>
     </row>
     <row r="13">
@@ -946,7 +946,7 @@
         </is>
       </c>
       <c r="E13" t="n">
-        <v>31.67883116455899</v>
+        <v>32.86257899659914</v>
       </c>
     </row>
     <row r="14">
@@ -971,7 +971,7 @@
         </is>
       </c>
       <c r="E14" t="n">
-        <v>15.69579538318299</v>
+        <v>19.78769722281748</v>
       </c>
     </row>
     <row r="15">
@@ -996,7 +996,7 @@
         </is>
       </c>
       <c r="E15" t="n">
-        <v>24.68863566534437</v>
+        <v>27.4412719430125</v>
       </c>
     </row>
     <row r="16">
@@ -1021,7 +1021,7 @@
         </is>
       </c>
       <c r="E16" t="n">
-        <v>26.73274878726906</v>
+        <v>28.51198521395187</v>
       </c>
     </row>
     <row r="17">
@@ -1046,7 +1046,7 @@
         </is>
       </c>
       <c r="E17" t="n">
-        <v>17.98947594314361</v>
+        <v>21.59626419098048</v>
       </c>
     </row>
     <row r="18">
@@ -1071,7 +1071,7 @@
         </is>
       </c>
       <c r="E18" t="n">
-        <v>34.04374273172556</v>
+        <v>34.42229565539953</v>
       </c>
     </row>
     <row r="19">
@@ -1096,7 +1096,7 @@
         </is>
       </c>
       <c r="E19" t="n">
-        <v>41.13115422827814</v>
+        <v>39.82373190903581</v>
       </c>
     </row>
     <row r="20">
@@ -1121,7 +1121,7 @@
         </is>
       </c>
       <c r="E20" t="n">
-        <v>9.203062706277322</v>
+        <v>14.64749212508393</v>
       </c>
     </row>
     <row r="21">
@@ -1146,7 +1146,7 @@
         </is>
       </c>
       <c r="E21" t="n">
-        <v>28.7581175242309</v>
+        <v>30.05786996149356</v>
       </c>
     </row>
     <row r="22">
@@ -1171,7 +1171,7 @@
         </is>
       </c>
       <c r="E22" t="n">
-        <v>40.56126935597648</v>
+        <v>39.27459767914042</v>
       </c>
     </row>
     <row r="23">
@@ -1196,7 +1196,7 @@
         </is>
       </c>
       <c r="E23" t="n">
-        <v>9.839164877080716</v>
+        <v>15.54709128708267</v>
       </c>
     </row>
     <row r="24">
@@ -1221,7 +1221,7 @@
         </is>
       </c>
       <c r="E24" t="n">
-        <v>46.24494100539919</v>
+        <v>45.47088573486141</v>
       </c>
     </row>
     <row r="25">
@@ -1246,7 +1246,7 @@
         </is>
       </c>
       <c r="E25" t="n">
-        <v>64.58380275378914</v>
+        <v>58.74258641729604</v>
       </c>
     </row>
     <row r="26">
@@ -1271,7 +1271,7 @@
         </is>
       </c>
       <c r="E26" t="n">
-        <v>47.74154202971049</v>
+        <v>44.98995296943334</v>
       </c>
     </row>
     <row r="27">
@@ -1296,7 +1296,7 @@
         </is>
       </c>
       <c r="E27" t="n">
-        <v>57.13720554973675</v>
+        <v>52.77746530177787</v>
       </c>
     </row>
     <row r="28">
@@ -1321,7 +1321,7 @@
         </is>
       </c>
       <c r="E28" t="n">
-        <v>64.48066317183213</v>
+        <v>59.40089817423137</v>
       </c>
     </row>
     <row r="29">
@@ -1346,7 +1346,7 @@
         </is>
       </c>
       <c r="E29" t="n">
-        <v>16.95861506263081</v>
+        <v>20.55108665094847</v>
       </c>
     </row>
     <row r="30">
@@ -1371,7 +1371,7 @@
         </is>
       </c>
       <c r="E30" t="n">
-        <v>61.59172128040092</v>
+        <v>56.4158805375156</v>
       </c>
     </row>
     <row r="31">
@@ -1396,7 +1396,7 @@
         </is>
       </c>
       <c r="E31" t="n">
-        <v>69.24629909589494</v>
+        <v>62.97729069589107</v>
       </c>
     </row>
     <row r="32">
@@ -1421,7 +1421,7 @@
         </is>
       </c>
       <c r="E32" t="n">
-        <v>25.60452213423002</v>
+        <v>27.24863777395222</v>
       </c>
     </row>
     <row r="33">
@@ -1446,7 +1446,7 @@
         </is>
       </c>
       <c r="E33" t="n">
-        <v>43.55592126898745</v>
+        <v>42.071470524143</v>
       </c>
     </row>
     <row r="34">
@@ -1471,7 +1471,7 @@
         </is>
       </c>
       <c r="E34" t="n">
-        <v>48.08233340301177</v>
+        <v>45.23201141163599</v>
       </c>
     </row>
     <row r="35">
@@ -1496,7 +1496,7 @@
         </is>
       </c>
       <c r="E35" t="n">
-        <v>10.5500519578662</v>
+        <v>15.64386285806801</v>
       </c>
     </row>
     <row r="36">
@@ -1521,7 +1521,7 @@
         </is>
       </c>
       <c r="E36" t="n">
-        <v>35.60594326787746</v>
+        <v>35.9244710323446</v>
       </c>
     </row>
     <row r="37">
@@ -1546,7 +1546,7 @@
         </is>
       </c>
       <c r="E37" t="n">
-        <v>48.76032149953524</v>
+        <v>46.00856461185472</v>
       </c>
     </row>
     <row r="38">
@@ -1571,7 +1571,7 @@
         </is>
       </c>
       <c r="E38" t="n">
-        <v>16.07880327979866</v>
+        <v>19.91069583802024</v>
       </c>
     </row>
     <row r="39">
@@ -1596,7 +1596,7 @@
         </is>
       </c>
       <c r="E39" t="n">
-        <v>64.11672888018269</v>
+        <v>58.38617803139989</v>
       </c>
     </row>
     <row r="40">
@@ -1621,7 +1621,7 @@
         </is>
       </c>
       <c r="E40" t="n">
-        <v>69.14671329669366</v>
+        <v>62.31519974614127</v>
       </c>
     </row>
     <row r="41">
@@ -1646,7 +1646,7 @@
         </is>
       </c>
       <c r="E41" t="n">
-        <v>68.54242321567015</v>
+        <v>62.1473215028109</v>
       </c>
     </row>
     <row r="42">
@@ -1671,7 +1671,7 @@
         </is>
       </c>
       <c r="E42" t="n">
-        <v>77.60551938203602</v>
+        <v>68.80802325718918</v>
       </c>
     </row>
     <row r="43">
@@ -1696,7 +1696,7 @@
         </is>
       </c>
       <c r="E43" t="n">
-        <v>82.1137671185403</v>
+        <v>73.14467582304691</v>
       </c>
     </row>
     <row r="44">
@@ -1721,7 +1721,7 @@
         </is>
       </c>
       <c r="E44" t="n">
-        <v>30.03167687122754</v>
+        <v>31.15433034823521</v>
       </c>
     </row>
     <row r="45">
@@ -1746,7 +1746,7 @@
         </is>
       </c>
       <c r="E45" t="n">
-        <v>80.01490126078184</v>
+        <v>71.39067350683152</v>
       </c>
     </row>
     <row r="46">
@@ -1771,7 +1771,7 @@
         </is>
       </c>
       <c r="E46" t="n">
-        <v>81.12494127086873</v>
+        <v>72.59542574526323</v>
       </c>
     </row>
     <row r="47">
@@ -1796,7 +1796,7 @@
         </is>
       </c>
       <c r="E47" t="n">
-        <v>12.503071854856</v>
+        <v>17.18109752595455</v>
       </c>
     </row>
     <row r="48">
@@ -1821,7 +1821,7 @@
         </is>
       </c>
       <c r="E48" t="n">
-        <v>40.4296650916347</v>
+        <v>39.15673752240575</v>
       </c>
     </row>
     <row r="49">
@@ -1846,7 +1846,7 @@
         </is>
       </c>
       <c r="E49" t="n">
-        <v>42.25982876079796</v>
+        <v>41.1566021115731</v>
       </c>
     </row>
     <row r="50">
@@ -1871,7 +1871,7 @@
         </is>
       </c>
       <c r="E50" t="n">
-        <v>8.895807080111933</v>
+        <v>14.45754650586976</v>
       </c>
     </row>
     <row r="51">
@@ -1896,7 +1896,7 @@
         </is>
       </c>
       <c r="E51" t="n">
-        <v>41.65944119012004</v>
+        <v>40.18235411242685</v>
       </c>
     </row>
     <row r="52">
@@ -1921,7 +1921,7 @@
         </is>
       </c>
       <c r="E52" t="n">
-        <v>46.93203785535246</v>
+        <v>44.87680012762063</v>
       </c>
     </row>
     <row r="53">
@@ -1946,7 +1946,7 @@
         </is>
       </c>
       <c r="E53" t="n">
-        <v>9.431585060340289</v>
+        <v>14.89551308646169</v>
       </c>
     </row>
     <row r="54">
@@ -1971,7 +1971,7 @@
         </is>
       </c>
       <c r="E54" t="n">
-        <v>61.0866214560581</v>
+        <v>56.28302555555258</v>
       </c>
     </row>
     <row r="55">
@@ -1996,7 +1996,7 @@
         </is>
       </c>
       <c r="E55" t="n">
-        <v>60.6332209981562</v>
+        <v>56.12252504516817</v>
       </c>
     </row>
     <row r="56">
@@ -2021,7 +2021,7 @@
         </is>
       </c>
       <c r="E56" t="n">
-        <v>53.82999183512421</v>
+        <v>51.08255332897667</v>
       </c>
     </row>
     <row r="57">
@@ -2046,7 +2046,7 @@
         </is>
       </c>
       <c r="E57" t="n">
-        <v>56.65558864102566</v>
+        <v>53.66127471034903</v>
       </c>
     </row>
     <row r="58">
@@ -2071,7 +2071,7 @@
         </is>
       </c>
       <c r="E58" t="n">
-        <v>58.90136367322545</v>
+        <v>54.18068744475825</v>
       </c>
     </row>
     <row r="59">
@@ -2096,7 +2096,7 @@
         </is>
       </c>
       <c r="E59" t="n">
-        <v>13.23911576138542</v>
+        <v>18.37125424045969</v>
       </c>
     </row>
     <row r="60">
@@ -2121,7 +2121,7 @@
         </is>
       </c>
       <c r="E60" t="n">
-        <v>56.30212950644824</v>
+        <v>52.1279346804142</v>
       </c>
     </row>
     <row r="61">
@@ -2146,7 +2146,7 @@
         </is>
       </c>
       <c r="E61" t="n">
-        <v>61.41256321268025</v>
+        <v>56.21724235245917</v>
       </c>
     </row>
     <row r="62">
@@ -2171,7 +2171,7 @@
         </is>
       </c>
       <c r="E62" t="n">
-        <v>13.1795819799911</v>
+        <v>17.76586704013817</v>
       </c>
     </row>
     <row r="63">
@@ -2196,7 +2196,7 @@
         </is>
       </c>
       <c r="E63" t="n">
-        <v>39.1301163806918</v>
+        <v>38.59939019874495</v>
       </c>
     </row>
     <row r="64">
@@ -2221,7 +2221,7 @@
         </is>
       </c>
       <c r="E64" t="n">
-        <v>42.71898529979561</v>
+        <v>41.33540902323229</v>
       </c>
     </row>
     <row r="65">
@@ -2246,7 +2246,7 @@
         </is>
       </c>
       <c r="E65" t="n">
-        <v>8.933531995673601</v>
+        <v>14.34711935364111</v>
       </c>
     </row>
     <row r="66">
@@ -2271,7 +2271,7 @@
         </is>
       </c>
       <c r="E66" t="n">
-        <v>31.82052988468823</v>
+        <v>32.67952787682191</v>
       </c>
     </row>
     <row r="67">
@@ -2296,7 +2296,7 @@
         </is>
       </c>
       <c r="E67" t="n">
-        <v>41.21330869692134</v>
+        <v>40.39429321435731</v>
       </c>
     </row>
     <row r="68">
@@ -2321,7 +2321,7 @@
         </is>
       </c>
       <c r="E68" t="n">
-        <v>9.160173610694176</v>
+        <v>14.56761486844811</v>
       </c>
     </row>
     <row r="69">
@@ -2346,7 +2346,7 @@
         </is>
       </c>
       <c r="E69" t="n">
-        <v>52.62774548256938</v>
+        <v>49.33247963130944</v>
       </c>
     </row>
     <row r="70">
@@ -2371,7 +2371,7 @@
         </is>
       </c>
       <c r="E70" t="n">
-        <v>69.26847736893629</v>
+        <v>62.98494114922225</v>
       </c>
     </row>
     <row r="71">
@@ -2396,7 +2396,7 @@
         </is>
       </c>
       <c r="E71" t="n">
-        <v>50.12948532895329</v>
+        <v>47.53375171084676</v>
       </c>
     </row>
     <row r="72">
@@ -2421,7 +2421,7 @@
         </is>
       </c>
       <c r="E72" t="n">
-        <v>61.09685978881548</v>
+        <v>55.94341484529066</v>
       </c>
     </row>
     <row r="73">
@@ -2446,7 +2446,7 @@
         </is>
       </c>
       <c r="E73" t="n">
-        <v>67.35541309010752</v>
+        <v>61.63724145264855</v>
       </c>
     </row>
     <row r="74">
@@ -2471,7 +2471,7 @@
         </is>
       </c>
       <c r="E74" t="n">
-        <v>10.83920117349289</v>
+        <v>15.90904775363613</v>
       </c>
     </row>
     <row r="75">
@@ -2496,7 +2496,7 @@
         </is>
       </c>
       <c r="E75" t="n">
-        <v>63.48552214805102</v>
+        <v>58.30744798128688</v>
       </c>
     </row>
     <row r="76">
@@ -2521,7 +2521,7 @@
         </is>
       </c>
       <c r="E76" t="n">
-        <v>70.25210489641739</v>
+        <v>63.62696253025613</v>
       </c>
     </row>
     <row r="77">
@@ -2546,7 +2546,7 @@
         </is>
       </c>
       <c r="E77" t="n">
-        <v>13.07044636917501</v>
+        <v>17.86336539673144</v>
       </c>
     </row>
     <row r="78">
@@ -2571,7 +2571,7 @@
         </is>
       </c>
       <c r="E78" t="n">
-        <v>44.00418313489481</v>
+        <v>42.49806274956656</v>
       </c>
     </row>
     <row r="79">
@@ -2596,7 +2596,7 @@
         </is>
       </c>
       <c r="E79" t="n">
-        <v>47.78747321992969</v>
+        <v>45.67369251230431</v>
       </c>
     </row>
     <row r="80">
@@ -2621,7 +2621,7 @@
         </is>
       </c>
       <c r="E80" t="n">
-        <v>8.828421181467281</v>
+        <v>14.34692318728381</v>
       </c>
     </row>
     <row r="81">
@@ -2646,7 +2646,7 @@
         </is>
       </c>
       <c r="E81" t="n">
-        <v>41.30346592149154</v>
+        <v>39.99142380508987</v>
       </c>
     </row>
     <row r="82">
@@ -2671,7 +2671,7 @@
         </is>
       </c>
       <c r="E82" t="n">
-        <v>50.60403892152684</v>
+        <v>47.80103850042013</v>
       </c>
     </row>
     <row r="83">
@@ -2696,7 +2696,7 @@
         </is>
       </c>
       <c r="E83" t="n">
-        <v>8.87181869157661</v>
+        <v>14.74475249158999</v>
       </c>
     </row>
     <row r="84">
@@ -2721,7 +2721,7 @@
         </is>
       </c>
       <c r="E84" t="n">
-        <v>65.18571301255531</v>
+        <v>59.64018962239095</v>
       </c>
     </row>
     <row r="85">
@@ -2746,7 +2746,7 @@
         </is>
       </c>
       <c r="E85" t="n">
-        <v>73.17096406673591</v>
+        <v>66.23088492035174</v>
       </c>
     </row>
     <row r="86">
@@ -2771,7 +2771,7 @@
         </is>
       </c>
       <c r="E86" t="n">
-        <v>70.69845646181903</v>
+        <v>63.45917342713781</v>
       </c>
     </row>
     <row r="87">
@@ -2796,7 +2796,7 @@
         </is>
       </c>
       <c r="E87" t="n">
-        <v>82.02192944124442</v>
+        <v>73.08176246438671</v>
       </c>
     </row>
     <row r="88">
@@ -2821,7 +2821,7 @@
         </is>
       </c>
       <c r="E88" t="n">
-        <v>83.8682636342138</v>
+        <v>74.89997233583534</v>
       </c>
     </row>
     <row r="89">
@@ -2846,7 +2846,7 @@
         </is>
       </c>
       <c r="E89" t="n">
-        <v>11.1251207335353</v>
+        <v>16.50176494945735</v>
       </c>
     </row>
     <row r="90">
@@ -2871,7 +2871,7 @@
         </is>
       </c>
       <c r="E90" t="n">
-        <v>76.71637783888447</v>
+        <v>69.00089448996789</v>
       </c>
     </row>
     <row r="91">
@@ -2896,7 +2896,7 @@
         </is>
       </c>
       <c r="E91" t="n">
-        <v>80.55366756310086</v>
+        <v>72.07667312020914</v>
       </c>
     </row>
     <row r="92">
@@ -2921,7 +2921,7 @@
         </is>
       </c>
       <c r="E92" t="n">
-        <v>30.5743260436114</v>
+        <v>32.15476196092983</v>
       </c>
     </row>
     <row r="93">
@@ -2946,7 +2946,7 @@
         </is>
       </c>
       <c r="E93" t="n">
-        <v>39.33076966754398</v>
+        <v>37.89153279708094</v>
       </c>
     </row>
     <row r="94">
@@ -2971,7 +2971,7 @@
         </is>
       </c>
       <c r="E94" t="n">
-        <v>41.27809864661725</v>
+        <v>39.91641767739058</v>
       </c>
     </row>
     <row r="95">
@@ -2996,7 +2996,7 @@
         </is>
       </c>
       <c r="E95" t="n">
-        <v>9.445325783974361</v>
+        <v>14.74443173279983</v>
       </c>
     </row>
     <row r="96">
@@ -3021,7 +3021,7 @@
         </is>
       </c>
       <c r="E96" t="n">
-        <v>43.59184566210926</v>
+        <v>41.75107318771384</v>
       </c>
     </row>
     <row r="97">
@@ -3046,7 +3046,7 @@
         </is>
       </c>
       <c r="E97" t="n">
-        <v>45.74482166112993</v>
+        <v>43.99351204644519</v>
       </c>
     </row>
     <row r="98">
@@ -3071,7 +3071,7 @@
         </is>
       </c>
       <c r="E98" t="n">
-        <v>10.65664493450303</v>
+        <v>15.79400102582015</v>
       </c>
     </row>
     <row r="99">
@@ -3096,7 +3096,7 @@
         </is>
       </c>
       <c r="E99" t="n">
-        <v>64.29109145124183</v>
+        <v>58.900714576461</v>
       </c>
     </row>
     <row r="100">
@@ -3121,7 +3121,7 @@
         </is>
       </c>
       <c r="E100" t="n">
-        <v>59.91528051889865</v>
+        <v>55.44181267324868</v>
       </c>
     </row>
     <row r="101">
@@ -3146,7 +3146,7 @@
         </is>
       </c>
       <c r="E101" t="n">
-        <v>54.11441339761026</v>
+        <v>50.97219179291083</v>
       </c>
     </row>
     <row r="102">
@@ -3171,7 +3171,7 @@
         </is>
       </c>
       <c r="E102" t="n">
-        <v>65.50870964090078</v>
+        <v>60.04485976637613</v>
       </c>
     </row>
     <row r="103">
@@ -3196,7 +3196,7 @@
         </is>
       </c>
       <c r="E103" t="n">
-        <v>64.65972130526714</v>
+        <v>59.45722587395852</v>
       </c>
     </row>
     <row r="104">
@@ -3221,7 +3221,7 @@
         </is>
       </c>
       <c r="E104" t="n">
-        <v>27.41492447295185</v>
+        <v>28.65361223768825</v>
       </c>
     </row>
     <row r="105">
@@ -3246,7 +3246,7 @@
         </is>
       </c>
       <c r="E105" t="n">
-        <v>56.59839331126192</v>
+        <v>52.15572767593498</v>
       </c>
     </row>
     <row r="106">
@@ -3271,7 +3271,7 @@
         </is>
       </c>
       <c r="E106" t="n">
-        <v>58.09090861839758</v>
+        <v>53.29365648059412</v>
       </c>
     </row>
     <row r="107">
@@ -3296,7 +3296,7 @@
         </is>
       </c>
       <c r="E107" t="n">
-        <v>26.10491953284696</v>
+        <v>28.23220480516832</v>
       </c>
     </row>
     <row r="108">
@@ -3321,7 +3321,7 @@
         </is>
       </c>
       <c r="E108" t="n">
-        <v>41.53317457100685</v>
+        <v>40.12465049217047</v>
       </c>
     </row>
     <row r="109">
@@ -3346,7 +3346,7 @@
         </is>
       </c>
       <c r="E109" t="n">
-        <v>43.18180155777269</v>
+        <v>41.50256502543394</v>
       </c>
     </row>
     <row r="110">
@@ -3371,7 +3371,7 @@
         </is>
       </c>
       <c r="E110" t="n">
-        <v>9.167205191525809</v>
+        <v>14.6730949698099</v>
       </c>
     </row>
     <row r="111">
@@ -3396,7 +3396,7 @@
         </is>
       </c>
       <c r="E111" t="n">
-        <v>38.85930530167689</v>
+        <v>38.57248961906922</v>
       </c>
     </row>
     <row r="112">
@@ -3421,7 +3421,7 @@
         </is>
       </c>
       <c r="E112" t="n">
-        <v>42.5111419121335</v>
+        <v>40.81983686296307</v>
       </c>
     </row>
     <row r="113">
@@ -3446,7 +3446,7 @@
         </is>
       </c>
       <c r="E113" t="n">
-        <v>10.25189721592823</v>
+        <v>15.53120649707902</v>
       </c>
     </row>
     <row r="114">
@@ -3471,7 +3471,7 @@
         </is>
       </c>
       <c r="E114" t="n">
-        <v>60.86823634206606</v>
+        <v>56.21680378360631</v>
       </c>
     </row>
     <row r="115">
@@ -3496,7 +3496,7 @@
         </is>
       </c>
       <c r="E115" t="n">
-        <v>69.88654774852918</v>
+        <v>63.40239529559609</v>
       </c>
     </row>
     <row r="116">
@@ -3521,7 +3521,7 @@
         </is>
       </c>
       <c r="E116" t="n">
-        <v>54.53854594106941</v>
+        <v>51.09655475985601</v>
       </c>
     </row>
     <row r="117">
@@ -3546,7 +3546,7 @@
         </is>
       </c>
       <c r="E117" t="n">
-        <v>64.82166063691076</v>
+        <v>58.94481310595787</v>
       </c>
     </row>
     <row r="118">
@@ -3571,7 +3571,7 @@
         </is>
       </c>
       <c r="E118" t="n">
-        <v>67.2849734036768</v>
+        <v>61.60432550809732</v>
       </c>
     </row>
     <row r="119">
@@ -3596,7 +3596,7 @@
         </is>
       </c>
       <c r="E119" t="n">
-        <v>27.19525050990098</v>
+        <v>29.03884622152459</v>
       </c>
     </row>
     <row r="120">
@@ -3621,7 +3621,7 @@
         </is>
       </c>
       <c r="E120" t="n">
-        <v>64.92095007269671</v>
+        <v>59.16112273592523</v>
       </c>
     </row>
     <row r="121">
@@ -3646,7 +3646,7 @@
         </is>
       </c>
       <c r="E121" t="n">
-        <v>67.77818906892121</v>
+        <v>61.78864467439568</v>
       </c>
     </row>
     <row r="122">
@@ -3671,7 +3671,7 @@
         </is>
       </c>
       <c r="E122" t="n">
-        <v>31.77936536115598</v>
+        <v>32.56661017047501</v>
       </c>
     </row>
     <row r="123">
@@ -3696,7 +3696,7 @@
         </is>
       </c>
       <c r="E123" t="n">
-        <v>47.92064774129862</v>
+        <v>45.28031085836605</v>
       </c>
     </row>
     <row r="124">
@@ -3721,7 +3721,7 @@
         </is>
       </c>
       <c r="E124" t="n">
-        <v>47.02122870935153</v>
+        <v>44.53472064290583</v>
       </c>
     </row>
     <row r="125">
@@ -3746,7 +3746,7 @@
         </is>
       </c>
       <c r="E125" t="n">
-        <v>9.542400679932477</v>
+        <v>14.86825198744775</v>
       </c>
     </row>
     <row r="126">
@@ -3771,7 +3771,7 @@
         </is>
       </c>
       <c r="E126" t="n">
-        <v>48.07975910253577</v>
+        <v>45.90771123429643</v>
       </c>
     </row>
     <row r="127">
@@ -3796,7 +3796,7 @@
         </is>
       </c>
       <c r="E127" t="n">
-        <v>48.40286607732098</v>
+        <v>45.85077231218811</v>
       </c>
     </row>
     <row r="128">
@@ -3821,7 +3821,7 @@
         </is>
       </c>
       <c r="E128" t="n">
-        <v>10.77812156163426</v>
+        <v>16.35965146404939</v>
       </c>
     </row>
     <row r="129">
@@ -3846,7 +3846,7 @@
         </is>
       </c>
       <c r="E129" t="n">
-        <v>69.84353567630427</v>
+        <v>62.94512507265789</v>
       </c>
     </row>
     <row r="130">
@@ -3871,7 +3871,7 @@
         </is>
       </c>
       <c r="E130" t="n">
-        <v>69.6297455922474</v>
+        <v>62.78336630969756</v>
       </c>
     </row>
     <row r="131">
@@ -3896,7 +3896,7 @@
         </is>
       </c>
       <c r="E131" t="n">
-        <v>74.08972158565604</v>
+        <v>66.22727314591435</v>
       </c>
     </row>
     <row r="132">
@@ -3921,7 +3921,7 @@
         </is>
       </c>
       <c r="E132" t="n">
-        <v>76.766257421367</v>
+        <v>68.52244640821934</v>
       </c>
     </row>
     <row r="133">
@@ -3946,7 +3946,7 @@
         </is>
       </c>
       <c r="E133" t="n">
-        <v>81.33033536680151</v>
+        <v>71.78881808745621</v>
       </c>
     </row>
     <row r="134">
@@ -3971,7 +3971,7 @@
         </is>
       </c>
       <c r="E134" t="n">
-        <v>32.65251949855473</v>
+        <v>33.1859447401934</v>
       </c>
     </row>
     <row r="135">
@@ -3996,7 +3996,7 @@
         </is>
       </c>
       <c r="E135" t="n">
-        <v>78.04184481173371</v>
+        <v>69.41893227833208</v>
       </c>
     </row>
     <row r="136">
@@ -4021,7 +4021,7 @@
         </is>
       </c>
       <c r="E136" t="n">
-        <v>78.44870497234599</v>
+        <v>70.40997677675313</v>
       </c>
     </row>
     <row r="137">
@@ -4046,7 +4046,7 @@
         </is>
       </c>
       <c r="E137" t="n">
-        <v>17.85212162545499</v>
+        <v>21.69730598684522</v>
       </c>
     </row>
     <row r="138">
@@ -4071,7 +4071,7 @@
         </is>
       </c>
       <c r="E138" t="n">
-        <v>21.02704492741749</v>
+        <v>24.69475257495413</v>
       </c>
     </row>
     <row r="139">
@@ -4096,7 +4096,7 @@
         </is>
       </c>
       <c r="E139" t="n">
-        <v>21.3908512363725</v>
+        <v>24.39093347381136</v>
       </c>
     </row>
     <row r="140">
@@ -4121,7 +4121,7 @@
         </is>
       </c>
       <c r="E140" t="n">
-        <v>9.800593283019477</v>
+        <v>15.62731038413208</v>
       </c>
     </row>
     <row r="141">
@@ -4146,7 +4146,7 @@
         </is>
       </c>
       <c r="E141" t="n">
-        <v>20.94746098380885</v>
+        <v>24.01077100897432</v>
       </c>
     </row>
     <row r="142">
@@ -4171,7 +4171,7 @@
         </is>
       </c>
       <c r="E142" t="n">
-        <v>22.60690675789858</v>
+        <v>25.29481554524779</v>
       </c>
     </row>
     <row r="143">
@@ -4196,7 +4196,7 @@
         </is>
       </c>
       <c r="E143" t="n">
-        <v>12.53160052036743</v>
+        <v>17.62740814944331</v>
       </c>
     </row>
     <row r="144">
@@ -4221,7 +4221,7 @@
         </is>
       </c>
       <c r="E144" t="n">
-        <v>28.32435922104675</v>
+        <v>29.98183872921737</v>
       </c>
     </row>
     <row r="145">
@@ -4246,7 +4246,7 @@
         </is>
       </c>
       <c r="E145" t="n">
-        <v>28.55888691154519</v>
+        <v>30.71235658017853</v>
       </c>
     </row>
     <row r="146">
@@ -4271,7 +4271,7 @@
         </is>
       </c>
       <c r="E146" t="n">
-        <v>28.13752135328237</v>
+        <v>29.86299291448538</v>
       </c>
     </row>
     <row r="147">
@@ -4296,7 +4296,7 @@
         </is>
       </c>
       <c r="E147" t="n">
-        <v>30.17332789458558</v>
+        <v>31.47694657912516</v>
       </c>
     </row>
     <row r="148">
@@ -4321,7 +4321,7 @@
         </is>
       </c>
       <c r="E148" t="n">
-        <v>34.31797666957351</v>
+        <v>34.95685402455132</v>
       </c>
     </row>
     <row r="149">
@@ -4346,7 +4346,7 @@
         </is>
       </c>
       <c r="E149" t="n">
-        <v>61.04186391013064</v>
+        <v>55.82229575407928</v>
       </c>
     </row>
     <row r="150">
@@ -4371,7 +4371,7 @@
         </is>
       </c>
       <c r="E150" t="n">
-        <v>63.68720795970012</v>
+        <v>58.47303967211312</v>
       </c>
     </row>
     <row r="151">
@@ -4396,7 +4396,7 @@
         </is>
       </c>
       <c r="E151" t="n">
-        <v>61.30550182236465</v>
+        <v>56.53315244832284</v>
       </c>
     </row>
     <row r="152">
@@ -4421,7 +4421,7 @@
         </is>
       </c>
       <c r="E152" t="n">
-        <v>15.19740626783633</v>
+        <v>19.8241520795035</v>
       </c>
     </row>
     <row r="153">
@@ -4446,7 +4446,7 @@
         </is>
       </c>
       <c r="E153" t="n">
-        <v>35.36736889467312</v>
+        <v>35.55971894704913</v>
       </c>
     </row>
     <row r="154">
@@ -4471,7 +4471,7 @@
         </is>
       </c>
       <c r="E154" t="n">
-        <v>40.79316525190244</v>
+        <v>39.84019065639098</v>
       </c>
     </row>
     <row r="155">
@@ -4496,7 +4496,7 @@
         </is>
       </c>
       <c r="E155" t="n">
-        <v>9.193117625834372</v>
+        <v>14.62171335765278</v>
       </c>
     </row>
     <row r="156">
@@ -4521,7 +4521,7 @@
         </is>
       </c>
       <c r="E156" t="n">
-        <v>35.52870177020849</v>
+        <v>35.06645843363476</v>
       </c>
     </row>
     <row r="157">
@@ -4546,7 +4546,7 @@
         </is>
       </c>
       <c r="E157" t="n">
-        <v>48.68399955439011</v>
+        <v>45.91534560824104</v>
       </c>
     </row>
     <row r="158">
@@ -4571,7 +4571,7 @@
         </is>
       </c>
       <c r="E158" t="n">
-        <v>13.7909125824903</v>
+        <v>18.73932734970795</v>
       </c>
     </row>
     <row r="159">
@@ -4596,7 +4596,7 @@
         </is>
       </c>
       <c r="E159" t="n">
-        <v>50.50179320934733</v>
+        <v>47.23322749742604</v>
       </c>
     </row>
     <row r="160">
@@ -4621,7 +4621,7 @@
         </is>
       </c>
       <c r="E160" t="n">
-        <v>64.32902718107768</v>
+        <v>58.84076002645384</v>
       </c>
     </row>
     <row r="161">
@@ -4646,7 +4646,7 @@
         </is>
       </c>
       <c r="E161" t="n">
-        <v>45.27255890290427</v>
+        <v>43.07038195335023</v>
       </c>
     </row>
     <row r="162">
@@ -4671,7 +4671,7 @@
         </is>
       </c>
       <c r="E162" t="n">
-        <v>50.39519670753777</v>
+        <v>47.4833402751933</v>
       </c>
     </row>
     <row r="163">
@@ -4696,7 +4696,7 @@
         </is>
       </c>
       <c r="E163" t="n">
-        <v>61.94096081889472</v>
+        <v>56.65235357260958</v>
       </c>
     </row>
     <row r="164">
@@ -4721,7 +4721,7 @@
         </is>
       </c>
       <c r="E164" t="n">
-        <v>15.70284644182109</v>
+        <v>20.15996014942502</v>
       </c>
     </row>
     <row r="165">
@@ -4746,7 +4746,7 @@
         </is>
       </c>
       <c r="E165" t="n">
-        <v>57.5325014573781</v>
+        <v>53.29030037004592</v>
       </c>
     </row>
     <row r="166">
@@ -4771,7 +4771,7 @@
         </is>
       </c>
       <c r="E166" t="n">
-        <v>64.38350409373921</v>
+        <v>58.55760604376609</v>
       </c>
     </row>
     <row r="167">
@@ -4796,7 +4796,7 @@
         </is>
       </c>
       <c r="E167" t="n">
-        <v>26.59238088754433</v>
+        <v>28.59228922751061</v>
       </c>
     </row>
     <row r="168">
@@ -4821,7 +4821,7 @@
         </is>
       </c>
       <c r="E168" t="n">
-        <v>42.7622959888504</v>
+        <v>41.56123729800093</v>
       </c>
     </row>
     <row r="169">
@@ -4846,7 +4846,7 @@
         </is>
       </c>
       <c r="E169" t="n">
-        <v>47.68233632636506</v>
+        <v>45.02177362385203</v>
       </c>
     </row>
     <row r="170">
@@ -4871,7 +4871,7 @@
         </is>
       </c>
       <c r="E170" t="n">
-        <v>11.25643844818289</v>
+        <v>16.23229374039003</v>
       </c>
     </row>
     <row r="171">
@@ -4896,7 +4896,7 @@
         </is>
       </c>
       <c r="E171" t="n">
-        <v>40.70735491248868</v>
+        <v>39.36609906764215</v>
       </c>
     </row>
     <row r="172">
@@ -4921,7 +4921,7 @@
         </is>
       </c>
       <c r="E172" t="n">
-        <v>49.63543844517304</v>
+        <v>46.71588477444165</v>
       </c>
     </row>
     <row r="173">
@@ -4946,7 +4946,7 @@
         </is>
       </c>
       <c r="E173" t="n">
-        <v>17.80228503754342</v>
+        <v>22.12503985828635</v>
       </c>
     </row>
     <row r="174">
@@ -4971,7 +4971,7 @@
         </is>
       </c>
       <c r="E174" t="n">
-        <v>60.19743207970144</v>
+        <v>55.45090266815858</v>
       </c>
     </row>
     <row r="175">
@@ -4996,7 +4996,7 @@
         </is>
       </c>
       <c r="E175" t="n">
-        <v>68.78303037461117</v>
+        <v>61.82012617964503</v>
       </c>
     </row>
     <row r="176">
@@ -5021,7 +5021,7 @@
         </is>
       </c>
       <c r="E176" t="n">
-        <v>61.98889999697022</v>
+        <v>57.27914079785342</v>
       </c>
     </row>
     <row r="177">
@@ -5046,7 +5046,7 @@
         </is>
       </c>
       <c r="E177" t="n">
-        <v>68.97881227034638</v>
+        <v>62.48762048448891</v>
       </c>
     </row>
     <row r="178">
@@ -5071,7 +5071,7 @@
         </is>
       </c>
       <c r="E178" t="n">
-        <v>79.23526111906455</v>
+        <v>70.45566076409418</v>
       </c>
     </row>
     <row r="179">
@@ -5096,7 +5096,7 @@
         </is>
       </c>
       <c r="E179" t="n">
-        <v>34.09131784483153</v>
+        <v>34.54894113870146</v>
       </c>
     </row>
     <row r="180">
@@ -5121,7 +5121,7 @@
         </is>
       </c>
       <c r="E180" t="n">
-        <v>71.83874057264336</v>
+        <v>64.90172760202795</v>
       </c>
     </row>
     <row r="181">
@@ -5146,7 +5146,7 @@
         </is>
       </c>
       <c r="E181" t="n">
-        <v>76.9053372684094</v>
+        <v>68.58698538438884</v>
       </c>
     </row>
     <row r="182">
@@ -5171,7 +5171,7 @@
         </is>
       </c>
       <c r="E182" t="n">
-        <v>25.8883606983343</v>
+        <v>27.56635952398935</v>
       </c>
     </row>
     <row r="183">
@@ -5196,7 +5196,7 @@
         </is>
       </c>
       <c r="E183" t="n">
-        <v>44.60346428389294</v>
+        <v>42.7403112804345</v>
       </c>
     </row>
     <row r="184">
@@ -5221,7 +5221,7 @@
         </is>
       </c>
       <c r="E184" t="n">
-        <v>42.52787915257159</v>
+        <v>41.22490863948095</v>
       </c>
     </row>
     <row r="185">
@@ -5246,7 +5246,7 @@
         </is>
       </c>
       <c r="E185" t="n">
-        <v>9.90230283365786</v>
+        <v>15.10501795380765</v>
       </c>
     </row>
     <row r="186">
@@ -5271,7 +5271,7 @@
         </is>
       </c>
       <c r="E186" t="n">
-        <v>48.30184723737538</v>
+        <v>45.80488541593733</v>
       </c>
     </row>
     <row r="187">
@@ -5296,7 +5296,7 @@
         </is>
       </c>
       <c r="E187" t="n">
-        <v>49.52952495845364</v>
+        <v>47.05084005834122</v>
       </c>
     </row>
     <row r="188">
@@ -5321,7 +5321,7 @@
         </is>
       </c>
       <c r="E188" t="n">
-        <v>12.32517163961105</v>
+        <v>17.10552735036027</v>
       </c>
     </row>
     <row r="189">
@@ -5346,7 +5346,7 @@
         </is>
       </c>
       <c r="E189" t="n">
-        <v>72.20596622746768</v>
+        <v>65.05626824752204</v>
       </c>
     </row>
     <row r="190">
@@ -5371,7 +5371,7 @@
         </is>
       </c>
       <c r="E190" t="n">
-        <v>64.32988040776429</v>
+        <v>59.10176362936167</v>
       </c>
     </row>
     <row r="191">
@@ -5396,7 +5396,7 @@
         </is>
       </c>
       <c r="E191" t="n">
-        <v>55.6541260142557</v>
+        <v>52.36888533526714</v>
       </c>
     </row>
     <row r="192">
@@ -5421,7 +5421,7 @@
         </is>
       </c>
       <c r="E192" t="n">
-        <v>66.65534345895497</v>
+        <v>61.31815969952762</v>
       </c>
     </row>
     <row r="193">
@@ -5446,7 +5446,7 @@
         </is>
       </c>
       <c r="E193" t="n">
-        <v>69.98158707961014</v>
+        <v>63.59351954373435</v>
       </c>
     </row>
     <row r="194">
@@ -5471,7 +5471,7 @@
         </is>
       </c>
       <c r="E194" t="n">
-        <v>20.00219461875417</v>
+        <v>23.57902062395298</v>
       </c>
     </row>
     <row r="195">
@@ -5496,7 +5496,7 @@
         </is>
       </c>
       <c r="E195" t="n">
-        <v>9.908336216573691</v>
+        <v>15.23764562952898</v>
       </c>
     </row>
     <row r="196">
@@ -5521,7 +5521,7 @@
         </is>
       </c>
       <c r="E196" t="n">
-        <v>10.33235074755401</v>
+        <v>15.63964110768014</v>
       </c>
     </row>
     <row r="197">
@@ -5546,7 +5546,7 @@
         </is>
       </c>
       <c r="E197" t="n">
-        <v>33.87755078932837</v>
+        <v>34.30698172733558</v>
       </c>
     </row>
     <row r="198">
@@ -5571,7 +5571,7 @@
         </is>
       </c>
       <c r="E198" t="n">
-        <v>47.21925638387963</v>
+        <v>45.23550963670792</v>
       </c>
     </row>
     <row r="199">
@@ -5596,7 +5596,7 @@
         </is>
       </c>
       <c r="E199" t="n">
-        <v>46.73369849084712</v>
+        <v>43.74514221801861</v>
       </c>
     </row>
     <row r="200">
@@ -5621,7 +5621,7 @@
         </is>
       </c>
       <c r="E200" t="n">
-        <v>9.55173757637278</v>
+        <v>14.97801920713322</v>
       </c>
     </row>
     <row r="201">
@@ -5646,7 +5646,7 @@
         </is>
       </c>
       <c r="E201" t="n">
-        <v>43.94522899210794</v>
+        <v>41.7907210178144</v>
       </c>
     </row>
     <row r="202">
@@ -5671,7 +5671,7 @@
         </is>
       </c>
       <c r="E202" t="n">
-        <v>47.32580120350541</v>
+        <v>45.25840011256039</v>
       </c>
     </row>
     <row r="203">
@@ -5696,7 +5696,7 @@
         </is>
       </c>
       <c r="E203" t="n">
-        <v>12.24471411397566</v>
+        <v>18.26018331920076</v>
       </c>
     </row>
     <row r="204">
@@ -5721,7 +5721,7 @@
         </is>
       </c>
       <c r="E204" t="n">
-        <v>66.5896319148347</v>
+        <v>60.48834904119693</v>
       </c>
     </row>
     <row r="205">
@@ -5746,7 +5746,7 @@
         </is>
       </c>
       <c r="E205" t="n">
-        <v>68.35882665993819</v>
+        <v>62.45175536522719</v>
       </c>
     </row>
     <row r="206">
@@ -5771,7 +5771,7 @@
         </is>
       </c>
       <c r="E206" t="n">
-        <v>63.65383640122013</v>
+        <v>57.85610736441528</v>
       </c>
     </row>
     <row r="207">
@@ -5796,7 +5796,7 @@
         </is>
       </c>
       <c r="E207" t="n">
-        <v>67.64521170962362</v>
+        <v>61.68805540892094</v>
       </c>
     </row>
     <row r="208">
@@ -5821,7 +5821,7 @@
         </is>
       </c>
       <c r="E208" t="n">
-        <v>70.75042787116058</v>
+        <v>63.84629106379154</v>
       </c>
     </row>
     <row r="209">
@@ -5846,7 +5846,7 @@
         </is>
       </c>
       <c r="E209" t="n">
-        <v>41.05403543016455</v>
+        <v>40.18588374137254</v>
       </c>
     </row>
     <row r="210">
@@ -5871,7 +5871,7 @@
         </is>
       </c>
       <c r="E210" t="n">
-        <v>72.52241427235157</v>
+        <v>65.60471735598387</v>
       </c>
     </row>
     <row r="211">
@@ -5896,7 +5896,7 @@
         </is>
       </c>
       <c r="E211" t="n">
-        <v>74.22601117668404</v>
+        <v>67.11613584769509</v>
       </c>
     </row>
     <row r="212">
@@ -5921,7 +5921,7 @@
         </is>
       </c>
       <c r="E212" t="n">
-        <v>37.60667893959166</v>
+        <v>37.09509434025945</v>
       </c>
     </row>
     <row r="213">
@@ -5946,7 +5946,7 @@
         </is>
       </c>
       <c r="E213" t="n">
-        <v>49.5027529416224</v>
+        <v>46.19723447213613</v>
       </c>
     </row>
     <row r="214">
@@ -5971,7 +5971,7 @@
         </is>
       </c>
       <c r="E214" t="n">
-        <v>49.57768292190985</v>
+        <v>46.37296742520589</v>
       </c>
     </row>
     <row r="215">
@@ -5996,7 +5996,7 @@
         </is>
       </c>
       <c r="E215" t="n">
-        <v>9.945256506793655</v>
+        <v>15.14497272013398</v>
       </c>
     </row>
     <row r="216">
@@ -6021,7 +6021,7 @@
         </is>
       </c>
       <c r="E216" t="n">
-        <v>48.86153524529841</v>
+        <v>46.13182404986706</v>
       </c>
     </row>
     <row r="217">
@@ -6046,7 +6046,7 @@
         </is>
       </c>
       <c r="E217" t="n">
-        <v>47.53601197684012</v>
+        <v>45.38676217684402</v>
       </c>
     </row>
     <row r="218">
@@ -6071,7 +6071,7 @@
         </is>
       </c>
       <c r="E218" t="n">
-        <v>12.51245382115018</v>
+        <v>17.42258423341186</v>
       </c>
     </row>
     <row r="219">
@@ -6096,7 +6096,7 @@
         </is>
       </c>
       <c r="E219" t="n">
-        <v>71.01633625290674</v>
+        <v>64.27435759534265</v>
       </c>
     </row>
     <row r="220">
@@ -6121,7 +6121,7 @@
         </is>
       </c>
       <c r="E220" t="n">
-        <v>70.24685370639716</v>
+        <v>63.33196205574646</v>
       </c>
     </row>
     <row r="221">
@@ -6146,7 +6146,7 @@
         </is>
       </c>
       <c r="E221" t="n">
-        <v>76.11543690998602</v>
+        <v>67.97970582236078</v>
       </c>
     </row>
     <row r="222">
@@ -6171,7 +6171,7 @@
         </is>
       </c>
       <c r="E222" t="n">
-        <v>79.37272966683111</v>
+        <v>70.41709486752308</v>
       </c>
     </row>
     <row r="223">
@@ -6196,7 +6196,7 @@
         </is>
       </c>
       <c r="E223" t="n">
-        <v>81.22543123352264</v>
+        <v>72.10342332098753</v>
       </c>
     </row>
     <row r="224">
@@ -6221,7 +6221,7 @@
         </is>
       </c>
       <c r="E224" t="n">
-        <v>49.66477857415132</v>
+        <v>46.86322929728499</v>
       </c>
     </row>
     <row r="225">
@@ -6246,7 +6246,7 @@
         </is>
       </c>
       <c r="E225" t="n">
-        <v>82.00594821505723</v>
+        <v>72.33907796539877</v>
       </c>
     </row>
     <row r="226">
@@ -6271,7 +6271,7 @@
         </is>
       </c>
       <c r="E226" t="n">
-        <v>79.40391942269289</v>
+        <v>71.05272693758218</v>
       </c>
     </row>
     <row r="227">
@@ -6296,7 +6296,7 @@
         </is>
       </c>
       <c r="E227" t="n">
-        <v>23.6861781126385</v>
+        <v>25.69382367576764</v>
       </c>
     </row>
     <row r="228">
@@ -6321,7 +6321,7 @@
         </is>
       </c>
       <c r="E228" t="n">
-        <v>33.78558894123761</v>
+        <v>34.09135356905679</v>
       </c>
     </row>
     <row r="229">
@@ -6346,7 +6346,7 @@
         </is>
       </c>
       <c r="E229" t="n">
-        <v>39.20593332704552</v>
+        <v>38.39532949346465</v>
       </c>
     </row>
     <row r="230">
@@ -6371,7 +6371,7 @@
         </is>
       </c>
       <c r="E230" t="n">
-        <v>9.011536325928461</v>
+        <v>14.49465401534216</v>
       </c>
     </row>
     <row r="231">
@@ -6396,7 +6396,7 @@
         </is>
       </c>
       <c r="E231" t="n">
-        <v>45.20693375178011</v>
+        <v>43.42053912509456</v>
       </c>
     </row>
     <row r="232">
@@ -6421,7 +6421,7 @@
         </is>
       </c>
       <c r="E232" t="n">
-        <v>49.07821416884119</v>
+        <v>46.3930926136516</v>
       </c>
     </row>
     <row r="233">
@@ -6446,7 +6446,7 @@
         </is>
       </c>
       <c r="E233" t="n">
-        <v>10.46785438260775</v>
+        <v>15.72858730222534</v>
       </c>
     </row>
     <row r="234">
@@ -6471,7 +6471,7 @@
         </is>
       </c>
       <c r="E234" t="n">
-        <v>68.7275259336075</v>
+        <v>62.37119708516447</v>
       </c>
     </row>
     <row r="235">
@@ -6496,7 +6496,7 @@
         </is>
       </c>
       <c r="E235" t="n">
-        <v>64.52829867052034</v>
+        <v>59.22540565635289</v>
       </c>
     </row>
     <row r="236">
@@ -6521,7 +6521,7 @@
         </is>
       </c>
       <c r="E236" t="n">
-        <v>58.70874818324339</v>
+        <v>54.72913168214545</v>
       </c>
     </row>
     <row r="237">
@@ -6546,7 +6546,7 @@
         </is>
       </c>
       <c r="E237" t="n">
-        <v>64.64900157582426</v>
+        <v>59.85998192162619</v>
       </c>
     </row>
     <row r="238">
@@ -6571,7 +6571,7 @@
         </is>
       </c>
       <c r="E238" t="n">
-        <v>66.21327551722109</v>
+        <v>61.21186660473136</v>
       </c>
     </row>
     <row r="239">
@@ -6596,7 +6596,7 @@
         </is>
       </c>
       <c r="E239" t="n">
-        <v>18.43340041904598</v>
+        <v>21.74297578918141</v>
       </c>
     </row>
     <row r="240">
@@ -6621,7 +6621,7 @@
         </is>
       </c>
       <c r="E240" t="n">
-        <v>9.348722563284916</v>
+        <v>14.83955104498282</v>
       </c>
     </row>
     <row r="241">
@@ -6646,7 +6646,7 @@
         </is>
       </c>
       <c r="E241" t="n">
-        <v>8.978458951590298</v>
+        <v>14.54067781698372</v>
       </c>
     </row>
     <row r="242">
@@ -6671,7 +6671,7 @@
         </is>
       </c>
       <c r="E242" t="n">
-        <v>26.81831536025732</v>
+        <v>28.49059316024331</v>
       </c>
     </row>
     <row r="243">
@@ -6696,7 +6696,7 @@
         </is>
       </c>
       <c r="E243" t="n">
-        <v>46.65214306611979</v>
+        <v>43.99510374743394</v>
       </c>
     </row>
     <row r="244">
@@ -6721,7 +6721,7 @@
         </is>
       </c>
       <c r="E244" t="n">
-        <v>48.71099643624206</v>
+        <v>45.68516941781971</v>
       </c>
     </row>
     <row r="245">
@@ -6746,7 +6746,7 @@
         </is>
       </c>
       <c r="E245" t="n">
-        <v>9.219917349178061</v>
+        <v>14.70257517349418</v>
       </c>
     </row>
     <row r="246">
@@ -6771,7 +6771,7 @@
         </is>
       </c>
       <c r="E246" t="n">
-        <v>41.63186831797281</v>
+        <v>40.55196003621056</v>
       </c>
     </row>
     <row r="247">
@@ -6796,7 +6796,7 @@
         </is>
       </c>
       <c r="E247" t="n">
-        <v>48.71457316291757</v>
+        <v>45.93066260147374</v>
       </c>
     </row>
     <row r="248">
@@ -6821,7 +6821,7 @@
         </is>
       </c>
       <c r="E248" t="n">
-        <v>10.54075524544617</v>
+        <v>15.70681218957118</v>
       </c>
     </row>
     <row r="249">
@@ -6846,7 +6846,7 @@
         </is>
       </c>
       <c r="E249" t="n">
-        <v>66.54859669591337</v>
+        <v>60.85217134900781</v>
       </c>
     </row>
     <row r="250">
@@ -6871,7 +6871,7 @@
         </is>
       </c>
       <c r="E250" t="n">
-        <v>70.80566155194495</v>
+        <v>64.27673559622593</v>
       </c>
     </row>
     <row r="251">
@@ -6896,7 +6896,7 @@
         </is>
       </c>
       <c r="E251" t="n">
-        <v>53.83785660098039</v>
+        <v>50.67836732106716</v>
       </c>
     </row>
     <row r="252">
@@ -6921,7 +6921,7 @@
         </is>
       </c>
       <c r="E252" t="n">
-        <v>66.26487907663548</v>
+        <v>60.1068565446124</v>
       </c>
     </row>
     <row r="253">
@@ -6946,7 +6946,7 @@
         </is>
       </c>
       <c r="E253" t="n">
-        <v>72.19877780195127</v>
+        <v>65.54403743581736</v>
       </c>
     </row>
     <row r="254">
@@ -6971,7 +6971,7 @@
         </is>
       </c>
       <c r="E254" t="n">
-        <v>25.96493162823319</v>
+        <v>27.8746306540216</v>
       </c>
     </row>
     <row r="255">
@@ -6996,7 +6996,7 @@
         </is>
       </c>
       <c r="E255" t="n">
-        <v>73.07160470928339</v>
+        <v>65.99673848864705</v>
       </c>
     </row>
     <row r="256">
@@ -7021,7 +7021,7 @@
         </is>
       </c>
       <c r="E256" t="n">
-        <v>76.04622804889237</v>
+        <v>68.37857877401902</v>
       </c>
     </row>
     <row r="257">
@@ -7046,7 +7046,7 @@
         </is>
       </c>
       <c r="E257" t="n">
-        <v>28.00223917161317</v>
+        <v>29.55103147481851</v>
       </c>
     </row>
     <row r="258">
@@ -7071,7 +7071,7 @@
         </is>
       </c>
       <c r="E258" t="n">
-        <v>47.55096461219178</v>
+        <v>44.204643956455</v>
       </c>
     </row>
     <row r="259">
@@ -7096,7 +7096,7 @@
         </is>
       </c>
       <c r="E259" t="n">
-        <v>49.94895996609351</v>
+        <v>46.01632920883377</v>
       </c>
     </row>
     <row r="260">
@@ -7121,7 +7121,7 @@
         </is>
       </c>
       <c r="E260" t="n">
-        <v>9.331309655023055</v>
+        <v>14.79773083683871</v>
       </c>
     </row>
     <row r="261">
@@ -7146,7 +7146,7 @@
         </is>
       </c>
       <c r="E261" t="n">
-        <v>44.07021466955668</v>
+        <v>42.81016990364012</v>
       </c>
     </row>
     <row r="262">
@@ -7171,7 +7171,7 @@
         </is>
       </c>
       <c r="E262" t="n">
-        <v>46.93383285173184</v>
+        <v>44.92039791025184</v>
       </c>
     </row>
     <row r="263">
@@ -7196,7 +7196,7 @@
         </is>
       </c>
       <c r="E263" t="n">
-        <v>10.63783721438701</v>
+        <v>15.90440044955976</v>
       </c>
     </row>
     <row r="264">
@@ -7221,7 +7221,7 @@
         </is>
       </c>
       <c r="E264" t="n">
-        <v>68.81220388320914</v>
+        <v>62.68353800931632</v>
       </c>
     </row>
     <row r="265">
@@ -7246,7 +7246,7 @@
         </is>
       </c>
       <c r="E265" t="n">
-        <v>69.84653372625661</v>
+        <v>63.60285382709299</v>
       </c>
     </row>
     <row r="266">
@@ -7271,7 +7271,7 @@
         </is>
       </c>
       <c r="E266" t="n">
-        <v>71.71982230404285</v>
+        <v>65.13267435599406</v>
       </c>
     </row>
     <row r="267">
@@ -7296,7 +7296,7 @@
         </is>
       </c>
       <c r="E267" t="n">
-        <v>77.26510898907799</v>
+        <v>69.54724076287653</v>
       </c>
     </row>
     <row r="268">
@@ -7321,7 +7321,7 @@
         </is>
       </c>
       <c r="E268" t="n">
-        <v>79.6428462340016</v>
+        <v>70.90950060598804</v>
       </c>
     </row>
     <row r="269">
@@ -7346,7 +7346,7 @@
         </is>
       </c>
       <c r="E269" t="n">
-        <v>25.25953687876827</v>
+        <v>27.34679029023891</v>
       </c>
     </row>
     <row r="270">
@@ -7371,7 +7371,7 @@
         </is>
       </c>
       <c r="E270" t="n">
-        <v>76.22471727767217</v>
+        <v>68.75452083650933</v>
       </c>
     </row>
     <row r="271">
@@ -7396,7 +7396,7 @@
         </is>
       </c>
       <c r="E271" t="n">
-        <v>79.21125354370217</v>
+        <v>71.06137595895048</v>
       </c>
     </row>
     <row r="272">
@@ -7421,7 +7421,7 @@
         </is>
       </c>
       <c r="E272" t="n">
-        <v>13.82180305237939</v>
+        <v>18.34080359952724</v>
       </c>
     </row>
     <row r="273">
@@ -7446,7 +7446,7 @@
         </is>
       </c>
       <c r="E273" t="n">
-        <v>15.15768433306168</v>
+        <v>19.44065459053391</v>
       </c>
     </row>
     <row r="274">
@@ -7471,7 +7471,7 @@
         </is>
       </c>
       <c r="E274" t="n">
-        <v>14.66946892911292</v>
+        <v>19.12187827455692</v>
       </c>
     </row>
     <row r="275">
@@ -7496,7 +7496,7 @@
         </is>
       </c>
       <c r="E275" t="n">
-        <v>8.893813527523115</v>
+        <v>15.29064458474638</v>
       </c>
     </row>
     <row r="276">
@@ -7521,7 +7521,7 @@
         </is>
       </c>
       <c r="E276" t="n">
-        <v>18.00508314648074</v>
+        <v>22.02780696436405</v>
       </c>
     </row>
     <row r="277">
@@ -7546,7 +7546,7 @@
         </is>
       </c>
       <c r="E277" t="n">
-        <v>20.0476542767525</v>
+        <v>23.26760395243172</v>
       </c>
     </row>
     <row r="278">
@@ -7571,7 +7571,7 @@
         </is>
       </c>
       <c r="E278" t="n">
-        <v>9.595659226626072</v>
+        <v>15.49548090329316</v>
       </c>
     </row>
     <row r="279">
@@ -7596,7 +7596,7 @@
         </is>
       </c>
       <c r="E279" t="n">
-        <v>21.45638991184893</v>
+        <v>24.48139421129037</v>
       </c>
     </row>
     <row r="280">
@@ -7621,7 +7621,7 @@
         </is>
       </c>
       <c r="E280" t="n">
-        <v>23.16141730913398</v>
+        <v>25.88939630835396</v>
       </c>
     </row>
     <row r="281">
@@ -7646,7 +7646,7 @@
         </is>
       </c>
       <c r="E281" t="n">
-        <v>26.54381246124008</v>
+        <v>28.77541995525903</v>
       </c>
     </row>
     <row r="282">
@@ -7671,7 +7671,7 @@
         </is>
       </c>
       <c r="E282" t="n">
-        <v>32.0217294202147</v>
+        <v>33.06586088483518</v>
       </c>
     </row>
     <row r="283">
@@ -7696,7 +7696,7 @@
         </is>
       </c>
       <c r="E283" t="n">
-        <v>34.16468491068157</v>
+        <v>34.89626551294105</v>
       </c>
     </row>
     <row r="284">
@@ -7721,7 +7721,7 @@
         </is>
       </c>
       <c r="E284" t="n">
-        <v>14.61847515452615</v>
+        <v>19.28579379574166</v>
       </c>
     </row>
     <row r="285">
@@ -7746,7 +7746,7 @@
         </is>
       </c>
       <c r="E285" t="n">
-        <v>19.52183279866612</v>
+        <v>22.64388494127341</v>
       </c>
     </row>
     <row r="286">
@@ -7771,7 +7771,7 @@
         </is>
       </c>
       <c r="E286" t="n">
-        <v>20.60657380642915</v>
+        <v>23.50943082729437</v>
       </c>
     </row>
     <row r="287">
@@ -7796,7 +7796,7 @@
         </is>
       </c>
       <c r="E287" t="n">
-        <v>14.62598081515654</v>
+        <v>19.03877317254745</v>
       </c>
     </row>
     <row r="288">
@@ -7821,7 +7821,7 @@
         </is>
       </c>
       <c r="E288" t="n">
-        <v>30.89419939308069</v>
+        <v>31.5860758667862</v>
       </c>
     </row>
     <row r="289">
@@ -7846,7 +7846,7 @@
         </is>
       </c>
       <c r="E289" t="n">
-        <v>36.0218837715152</v>
+        <v>35.95641697839889</v>
       </c>
     </row>
     <row r="290">
@@ -7871,7 +7871,7 @@
         </is>
       </c>
       <c r="E290" t="n">
-        <v>8.939514477255191</v>
+        <v>14.46602606978131</v>
       </c>
     </row>
     <row r="291">
@@ -7896,7 +7896,7 @@
         </is>
       </c>
       <c r="E291" t="n">
-        <v>30.03301412960229</v>
+        <v>31.18988404564988</v>
       </c>
     </row>
     <row r="292">
@@ -7921,7 +7921,7 @@
         </is>
       </c>
       <c r="E292" t="n">
-        <v>38.0739853313006</v>
+        <v>37.90249457185153</v>
       </c>
     </row>
     <row r="293">
@@ -7946,7 +7946,7 @@
         </is>
       </c>
       <c r="E293" t="n">
-        <v>9.115281518375191</v>
+        <v>14.65294341634336</v>
       </c>
     </row>
     <row r="294">
@@ -7971,7 +7971,7 @@
         </is>
       </c>
       <c r="E294" t="n">
-        <v>42.68944777317288</v>
+        <v>41.43702486691863</v>
       </c>
     </row>
     <row r="295">
@@ -7996,7 +7996,7 @@
         </is>
       </c>
       <c r="E295" t="n">
-        <v>51.68898582302295</v>
+        <v>49.14010256201587</v>
       </c>
     </row>
     <row r="296">
@@ -8021,7 +8021,7 @@
         </is>
       </c>
       <c r="E296" t="n">
-        <v>41.0851075202328</v>
+        <v>40.2798425439744</v>
       </c>
     </row>
     <row r="297">
@@ -8046,7 +8046,7 @@
         </is>
       </c>
       <c r="E297" t="n">
-        <v>47.78978702155273</v>
+        <v>45.82391953398547</v>
       </c>
     </row>
     <row r="298">
@@ -8071,7 +8071,7 @@
         </is>
       </c>
       <c r="E298" t="n">
-        <v>50.3206736568015</v>
+        <v>47.82765884615856</v>
       </c>
     </row>
     <row r="299">
@@ -8096,7 +8096,7 @@
         </is>
       </c>
       <c r="E299" t="n">
-        <v>15.47185020331995</v>
+        <v>19.56130171541612</v>
       </c>
     </row>
     <row r="300">
@@ -8121,7 +8121,7 @@
         </is>
       </c>
       <c r="E300" t="n">
-        <v>47.70303607796213</v>
+        <v>44.82704560284136</v>
       </c>
     </row>
     <row r="301">
@@ -8146,7 +8146,7 @@
         </is>
       </c>
       <c r="E301" t="n">
-        <v>49.78786085565525</v>
+        <v>47.58254255455132</v>
       </c>
     </row>
     <row r="302">
@@ -8171,7 +8171,7 @@
         </is>
       </c>
       <c r="E302" t="n">
-        <v>21.68537329557012</v>
+        <v>24.33085268303428</v>
       </c>
     </row>
     <row r="303">
@@ -8196,7 +8196,7 @@
         </is>
       </c>
       <c r="E303" t="n">
-        <v>34.71325066511717</v>
+        <v>34.78176478309738</v>
       </c>
     </row>
     <row r="304">
@@ -8221,7 +8221,7 @@
         </is>
       </c>
       <c r="E304" t="n">
-        <v>44.05206530678964</v>
+        <v>42.24389854589536</v>
       </c>
     </row>
     <row r="305">
@@ -8246,7 +8246,7 @@
         </is>
       </c>
       <c r="E305" t="n">
-        <v>9.394148175971978</v>
+        <v>14.77558637575211</v>
       </c>
     </row>
     <row r="306">
@@ -8271,7 +8271,7 @@
         </is>
       </c>
       <c r="E306" t="n">
-        <v>41.55240068286101</v>
+        <v>40.52920773817539</v>
       </c>
     </row>
     <row r="307">
@@ -8296,7 +8296,7 @@
         </is>
       </c>
       <c r="E307" t="n">
-        <v>47.97054331357803</v>
+        <v>45.33878244190904</v>
       </c>
     </row>
     <row r="308">
@@ -8321,7 +8321,7 @@
         </is>
       </c>
       <c r="E308" t="n">
-        <v>11.58982666648764</v>
+        <v>16.5607939063969</v>
       </c>
     </row>
     <row r="309">
@@ -8346,7 +8346,7 @@
         </is>
       </c>
       <c r="E309" t="n">
-        <v>59.90578997727673</v>
+        <v>55.19772467142772</v>
       </c>
     </row>
     <row r="310">
@@ -8371,7 +8371,7 @@
         </is>
       </c>
       <c r="E310" t="n">
-        <v>62.66527440449004</v>
+        <v>57.80081001086805</v>
       </c>
     </row>
     <row r="311">
@@ -8396,7 +8396,7 @@
         </is>
       </c>
       <c r="E311" t="n">
-        <v>63.03514788584292</v>
+        <v>57.75898474258845</v>
       </c>
     </row>
     <row r="312">
@@ -8421,7 +8421,7 @@
         </is>
       </c>
       <c r="E312" t="n">
-        <v>70.67606535476057</v>
+        <v>64.1113338127459</v>
       </c>
     </row>
     <row r="313">
@@ -8446,7 +8446,7 @@
         </is>
       </c>
       <c r="E313" t="n">
-        <v>73.01860156517932</v>
+        <v>65.46362065304533</v>
       </c>
     </row>
     <row r="314">
@@ -8471,7 +8471,7 @@
         </is>
       </c>
       <c r="E314" t="n">
-        <v>30.5691656405959</v>
+        <v>31.21330162140663</v>
       </c>
     </row>
     <row r="315">
@@ -8496,7 +8496,7 @@
         </is>
       </c>
       <c r="E315" t="n">
-        <v>70.76459420704956</v>
+        <v>63.44832665986829</v>
       </c>
     </row>
     <row r="316">
@@ -8521,7 +8521,7 @@
         </is>
       </c>
       <c r="E316" t="n">
-        <v>76.51871622135924</v>
+        <v>68.23437045050321</v>
       </c>
     </row>
     <row r="317">
@@ -8546,7 +8546,7 @@
         </is>
       </c>
       <c r="E317" t="n">
-        <v>13.24239270113876</v>
+        <v>18.28382276227807</v>
       </c>
     </row>
     <row r="318">
@@ -8571,7 +8571,7 @@
         </is>
       </c>
       <c r="E318" t="n">
-        <v>15.07410309563061</v>
+        <v>20.01697773843331</v>
       </c>
     </row>
     <row r="319">
@@ -8596,7 +8596,7 @@
         </is>
       </c>
       <c r="E319" t="n">
-        <v>14.16028637891074</v>
+        <v>18.77250158665404</v>
       </c>
     </row>
     <row r="320">
@@ -8621,7 +8621,7 @@
         </is>
       </c>
       <c r="E320" t="n">
-        <v>8.055930679649521</v>
+        <v>14.48011660809994</v>
       </c>
     </row>
     <row r="321">
@@ -8646,7 +8646,7 @@
         </is>
       </c>
       <c r="E321" t="n">
-        <v>15.66084565410717</v>
+        <v>19.83636871427192</v>
       </c>
     </row>
     <row r="322">
@@ -8671,7 +8671,7 @@
         </is>
       </c>
       <c r="E322" t="n">
-        <v>19.53130572227255</v>
+        <v>23.28598569373654</v>
       </c>
     </row>
     <row r="323">
@@ -8696,7 +8696,7 @@
         </is>
       </c>
       <c r="E323" t="n">
-        <v>9.509658615404948</v>
+        <v>14.90312636726345</v>
       </c>
     </row>
     <row r="324">
@@ -8721,7 +8721,7 @@
         </is>
       </c>
       <c r="E324" t="n">
-        <v>17.37413070483735</v>
+        <v>21.25101247113565</v>
       </c>
     </row>
     <row r="325">
@@ -8746,7 +8746,7 @@
         </is>
       </c>
       <c r="E325" t="n">
-        <v>16.55702610233017</v>
+        <v>21.38507790687569</v>
       </c>
     </row>
     <row r="326">
@@ -8771,7 +8771,7 @@
         </is>
       </c>
       <c r="E326" t="n">
-        <v>18.13441071793612</v>
+        <v>21.87672760376251</v>
       </c>
     </row>
     <row r="327">
@@ -8796,7 +8796,7 @@
         </is>
       </c>
       <c r="E327" t="n">
-        <v>18.91388419659386</v>
+        <v>22.50014149402327</v>
       </c>
     </row>
     <row r="328">
@@ -8821,7 +8821,7 @@
         </is>
       </c>
       <c r="E328" t="n">
-        <v>18.14290264231828</v>
+        <v>21.95679047898577</v>
       </c>
     </row>
     <row r="329">
@@ -8846,7 +8846,7 @@
         </is>
       </c>
       <c r="E329" t="n">
-        <v>14.18961595915496</v>
+        <v>18.86954168451582</v>
       </c>
     </row>
     <row r="330">
@@ -8871,7 +8871,7 @@
         </is>
       </c>
       <c r="E330" t="n">
-        <v>16.03446904152559</v>
+        <v>20.86107422195661</v>
       </c>
     </row>
     <row r="331">
@@ -8896,7 +8896,7 @@
         </is>
       </c>
       <c r="E331" t="n">
-        <v>15.64855678348641</v>
+        <v>19.9901799961191</v>
       </c>
     </row>
     <row r="332">
@@ -8921,7 +8921,7 @@
         </is>
       </c>
       <c r="E332" t="n">
-        <v>8.349449801820011</v>
+        <v>14.50270055633165</v>
       </c>
     </row>
     <row r="333">
@@ -8946,7 +8946,7 @@
         </is>
       </c>
       <c r="E333" t="n">
-        <v>12.38886330635372</v>
+        <v>17.24692014548691</v>
       </c>
     </row>
     <row r="334">
@@ -8971,7 +8971,7 @@
         </is>
       </c>
       <c r="E334" t="n">
-        <v>15.351894768714</v>
+        <v>19.75448461724699</v>
       </c>
     </row>
     <row r="335">
@@ -8996,7 +8996,7 @@
         </is>
       </c>
       <c r="E335" t="n">
-        <v>7.15452898810274</v>
+        <v>14.34694604294412</v>
       </c>
     </row>
     <row r="336">
@@ -9021,7 +9021,7 @@
         </is>
       </c>
       <c r="E336" t="n">
-        <v>12.60438615829595</v>
+        <v>17.30662028211787</v>
       </c>
     </row>
     <row r="337">
@@ -9046,7 +9046,7 @@
         </is>
       </c>
       <c r="E337" t="n">
-        <v>17.19624507817746</v>
+        <v>21.26833162765202</v>
       </c>
     </row>
     <row r="338">
@@ -9071,7 +9071,7 @@
         </is>
       </c>
       <c r="E338" t="n">
-        <v>6.889147842688256</v>
+        <v>13.70596038490567</v>
       </c>
     </row>
     <row r="339">
@@ -9096,7 +9096,7 @@
         </is>
       </c>
       <c r="E339" t="n">
-        <v>16.00970994850662</v>
+        <v>20.10195817085338</v>
       </c>
     </row>
     <row r="340">
@@ -9121,7 +9121,7 @@
         </is>
       </c>
       <c r="E340" t="n">
-        <v>26.11780516675013</v>
+        <v>28.78499557854359</v>
       </c>
     </row>
     <row r="341">
@@ -9146,7 +9146,7 @@
         </is>
       </c>
       <c r="E341" t="n">
-        <v>12.67796398969288</v>
+        <v>18.05418665607048</v>
       </c>
     </row>
     <row r="342">
@@ -9171,7 +9171,7 @@
         </is>
       </c>
       <c r="E342" t="n">
-        <v>26.38341084957622</v>
+        <v>28.76625346764012</v>
       </c>
     </row>
     <row r="343">
@@ -9196,7 +9196,7 @@
         </is>
       </c>
       <c r="E343" t="n">
-        <v>36.06986797733914</v>
+        <v>36.40545818481986</v>
       </c>
     </row>
     <row r="344">
@@ -9221,7 +9221,7 @@
         </is>
       </c>
       <c r="E344" t="n">
-        <v>8.187789184068187</v>
+        <v>14.36797613067913</v>
       </c>
     </row>
     <row r="345">
@@ -9246,7 +9246,7 @@
         </is>
       </c>
       <c r="E345" t="n">
-        <v>19.40616762576661</v>
+        <v>22.79988760174969</v>
       </c>
     </row>
     <row r="346">
@@ -9271,7 +9271,7 @@
         </is>
       </c>
       <c r="E346" t="n">
-        <v>16.86883514846562</v>
+        <v>20.90031292165552</v>
       </c>
     </row>
     <row r="347">
@@ -9296,7 +9296,7 @@
         </is>
       </c>
       <c r="E347" t="n">
-        <v>8.83889491770946</v>
+        <v>14.6402978820451</v>
       </c>
     </row>
     <row r="348">
@@ -9321,7 +9321,7 @@
         </is>
       </c>
       <c r="E348" t="n">
-        <v>16.31769093197918</v>
+        <v>20.38290411765361</v>
       </c>
     </row>
     <row r="349">
@@ -9346,7 +9346,7 @@
         </is>
       </c>
       <c r="E349" t="n">
-        <v>35.43720245840397</v>
+        <v>35.77627285694142</v>
       </c>
     </row>
     <row r="350">
@@ -9371,7 +9371,7 @@
         </is>
       </c>
       <c r="E350" t="n">
-        <v>7.209337645045569</v>
+        <v>14.34695470968444</v>
       </c>
     </row>
     <row r="351">
@@ -9396,7 +9396,7 @@
         </is>
       </c>
       <c r="E351" t="n">
-        <v>16.80870250567211</v>
+        <v>20.64617104581925</v>
       </c>
     </row>
     <row r="352">
@@ -9421,7 +9421,7 @@
         </is>
       </c>
       <c r="E352" t="n">
-        <v>35.93517805354744</v>
+        <v>36.18587566476215</v>
       </c>
     </row>
     <row r="353">
@@ -9446,7 +9446,7 @@
         </is>
       </c>
       <c r="E353" t="n">
-        <v>6.919992395148686</v>
+        <v>14.21523827033225</v>
       </c>
     </row>
     <row r="354">
@@ -9471,7 +9471,7 @@
         </is>
       </c>
       <c r="E354" t="n">
-        <v>23.21847958783861</v>
+        <v>25.85568340400646</v>
       </c>
     </row>
     <row r="355">
@@ -9496,7 +9496,7 @@
         </is>
       </c>
       <c r="E355" t="n">
-        <v>59.53437320464884</v>
+        <v>55.39500775301617</v>
       </c>
     </row>
     <row r="356">
@@ -9521,7 +9521,7 @@
         </is>
       </c>
       <c r="E356" t="n">
-        <v>18.88855457886258</v>
+        <v>22.70263642696736</v>
       </c>
     </row>
     <row r="357">
@@ -9546,7 +9546,7 @@
         </is>
       </c>
       <c r="E357" t="n">
-        <v>46.75618473617183</v>
+        <v>44.80732369920657</v>
       </c>
     </row>
     <row r="358">
@@ -9571,7 +9571,7 @@
         </is>
       </c>
       <c r="E358" t="n">
-        <v>68.97574641495237</v>
+        <v>62.7752740303944</v>
       </c>
     </row>
     <row r="359">
@@ -9596,7 +9596,7 @@
         </is>
       </c>
       <c r="E359" t="n">
-        <v>8.187767111055482</v>
+        <v>14.42523996726361</v>
       </c>
     </row>
     <row r="360">
@@ -9621,7 +9621,7 @@
         </is>
       </c>
       <c r="E360" t="n">
-        <v>34.71052268738502</v>
+        <v>34.58938340173166</v>
       </c>
     </row>
     <row r="361">
@@ -9646,7 +9646,7 @@
         </is>
       </c>
       <c r="E361" t="n">
-        <v>44.54599406266704</v>
+        <v>42.99626663685836</v>
       </c>
     </row>
     <row r="362">
@@ -9671,7 +9671,7 @@
         </is>
       </c>
       <c r="E362" t="n">
-        <v>19.24204042088208</v>
+        <v>21.86302840993094</v>
       </c>
     </row>
     <row r="363">
@@ -9696,7 +9696,7 @@
         </is>
       </c>
       <c r="E363" t="n">
-        <v>21.78072764898539</v>
+        <v>24.75081590635502</v>
       </c>
     </row>
     <row r="364">
@@ -9721,7 +9721,7 @@
         </is>
       </c>
       <c r="E364" t="n">
-        <v>36.11602943716768</v>
+        <v>35.66628549674021</v>
       </c>
     </row>
     <row r="365">
@@ -9746,7 +9746,7 @@
         </is>
       </c>
       <c r="E365" t="n">
-        <v>9.773063523154988</v>
+        <v>15.10570533198133</v>
       </c>
     </row>
     <row r="366">
@@ -9771,7 +9771,7 @@
         </is>
       </c>
       <c r="E366" t="n">
-        <v>43.00419750132208</v>
+        <v>41.95382127992714</v>
       </c>
     </row>
     <row r="367">
@@ -9796,7 +9796,7 @@
         </is>
       </c>
       <c r="E367" t="n">
-        <v>45.04498136102606</v>
+        <v>42.41405521694074</v>
       </c>
     </row>
     <row r="368">
@@ -9821,7 +9821,7 @@
         </is>
       </c>
       <c r="E368" t="n">
-        <v>14.65953244108407</v>
+        <v>18.8643182410879</v>
       </c>
     </row>
     <row r="369">
@@ -9846,7 +9846,7 @@
         </is>
       </c>
       <c r="E369" t="n">
-        <v>60.14687886719484</v>
+        <v>55.29385914410406</v>
       </c>
     </row>
     <row r="370">
@@ -9871,7 +9871,7 @@
         </is>
       </c>
       <c r="E370" t="n">
-        <v>61.10444938558962</v>
+        <v>55.72456049549663</v>
       </c>
     </row>
     <row r="371">
@@ -9896,7 +9896,7 @@
         </is>
       </c>
       <c r="E371" t="n">
-        <v>58.35782637544783</v>
+        <v>54.51633466919526</v>
       </c>
     </row>
     <row r="372">
@@ -9921,7 +9921,7 @@
         </is>
       </c>
       <c r="E372" t="n">
-        <v>66.08728231749932</v>
+        <v>60.73936677200696</v>
       </c>
     </row>
     <row r="373">
@@ -9946,7 +9946,7 @@
         </is>
       </c>
       <c r="E373" t="n">
-        <v>64.73045833081503</v>
+        <v>59.73532186279506</v>
       </c>
     </row>
     <row r="374">
@@ -9971,7 +9971,7 @@
         </is>
       </c>
       <c r="E374" t="n">
-        <v>35.68700095373146</v>
+        <v>35.98816844918683</v>
       </c>
     </row>
     <row r="375">
@@ -9996,7 +9996,7 @@
         </is>
       </c>
       <c r="E375" t="n">
-        <v>52.02352845913364</v>
+        <v>48.76530870317713</v>
       </c>
     </row>
     <row r="376">
@@ -10021,7 +10021,7 @@
         </is>
       </c>
       <c r="E376" t="n">
-        <v>66.39162196794658</v>
+        <v>59.75901670372185</v>
       </c>
     </row>
     <row r="377">
@@ -10046,7 +10046,7 @@
         </is>
       </c>
       <c r="E377" t="n">
-        <v>22.74781079054601</v>
+        <v>25.4848044246099</v>
       </c>
     </row>
     <row r="378">
@@ -10071,7 +10071,7 @@
         </is>
       </c>
       <c r="E378" t="n">
-        <v>34.42848801973266</v>
+        <v>35.00505384726695</v>
       </c>
     </row>
     <row r="379">
@@ -10096,7 +10096,7 @@
         </is>
       </c>
       <c r="E379" t="n">
-        <v>36.42488459001758</v>
+        <v>36.58814766123319</v>
       </c>
     </row>
     <row r="380">
@@ -10121,7 +10121,7 @@
         </is>
       </c>
       <c r="E380" t="n">
-        <v>9.310977235039218</v>
+        <v>14.78208951645608</v>
       </c>
     </row>
     <row r="381">
@@ -10146,7 +10146,7 @@
         </is>
       </c>
       <c r="E381" t="n">
-        <v>35.52401719021596</v>
+        <v>35.88904442311168</v>
       </c>
     </row>
     <row r="382">
@@ -10171,7 +10171,7 @@
         </is>
       </c>
       <c r="E382" t="n">
-        <v>37.08803402069199</v>
+        <v>37.25782472846861</v>
       </c>
     </row>
     <row r="383">
@@ -10196,7 +10196,7 @@
         </is>
       </c>
       <c r="E383" t="n">
-        <v>10.94846548911058</v>
+        <v>16.16775295239836</v>
       </c>
     </row>
     <row r="384">
@@ -10221,7 +10221,7 @@
         </is>
       </c>
       <c r="E384" t="n">
-        <v>50.54243264994205</v>
+        <v>48.02670094151748</v>
       </c>
     </row>
     <row r="385">
@@ -10246,7 +10246,7 @@
         </is>
       </c>
       <c r="E385" t="n">
-        <v>53.79136615212383</v>
+        <v>50.02579217104852</v>
       </c>
     </row>
     <row r="386">
@@ -10271,7 +10271,7 @@
         </is>
       </c>
       <c r="E386" t="n">
-        <v>44.35775837283985</v>
+        <v>42.49187312182904</v>
       </c>
     </row>
     <row r="387">
@@ -10296,7 +10296,7 @@
         </is>
       </c>
       <c r="E387" t="n">
-        <v>49.82574698211499</v>
+        <v>47.525241999871</v>
       </c>
     </row>
     <row r="388">
@@ -10321,7 +10321,7 @@
         </is>
       </c>
       <c r="E388" t="n">
-        <v>51.09551394629766</v>
+        <v>48.17212564840156</v>
       </c>
     </row>
     <row r="389">
@@ -10346,7 +10346,7 @@
         </is>
       </c>
       <c r="E389" t="n">
-        <v>29.42197739922507</v>
+        <v>30.71833018043293</v>
       </c>
     </row>
     <row r="390">
@@ -10371,7 +10371,7 @@
         </is>
       </c>
       <c r="E390" t="n">
-        <v>54.3753378409594</v>
+        <v>50.58423060812567</v>
       </c>
     </row>
     <row r="391">
@@ -10396,7 +10396,7 @@
         </is>
       </c>
       <c r="E391" t="n">
-        <v>55.06623738507147</v>
+        <v>50.3681780474306</v>
       </c>
     </row>
     <row r="392">
@@ -10421,7 +10421,7 @@
         </is>
       </c>
       <c r="E392" t="n">
-        <v>24.52522241048137</v>
+        <v>26.78609161841586</v>
       </c>
     </row>
     <row r="393">
@@ -10446,7 +10446,7 @@
         </is>
       </c>
       <c r="E393" t="n">
-        <v>35.53689973407919</v>
+        <v>35.81360446988427</v>
       </c>
     </row>
     <row r="394">
@@ -10471,7 +10471,7 @@
         </is>
       </c>
       <c r="E394" t="n">
-        <v>43.6624009157178</v>
+        <v>42.11879277573298</v>
       </c>
     </row>
     <row r="395">
@@ -10496,7 +10496,7 @@
         </is>
       </c>
       <c r="E395" t="n">
-        <v>9.584445355631463</v>
+        <v>14.99419916364804</v>
       </c>
     </row>
     <row r="396">
@@ -10521,7 +10521,7 @@
         </is>
       </c>
       <c r="E396" t="n">
-        <v>45.60843375139898</v>
+        <v>43.7919383087589</v>
       </c>
     </row>
     <row r="397">
@@ -10546,7 +10546,7 @@
         </is>
       </c>
       <c r="E397" t="n">
-        <v>47.47702435800539</v>
+        <v>44.95955950628228</v>
       </c>
     </row>
     <row r="398">
@@ -10571,7 +10571,7 @@
         </is>
       </c>
       <c r="E398" t="n">
-        <v>11.54697375297247</v>
+        <v>16.59491116252795</v>
       </c>
     </row>
     <row r="399">
@@ -10596,7 +10596,7 @@
         </is>
       </c>
       <c r="E399" t="n">
-        <v>64.45447090842487</v>
+        <v>58.81223128108768</v>
       </c>
     </row>
     <row r="400">
@@ -10621,7 +10621,7 @@
         </is>
       </c>
       <c r="E400" t="n">
-        <v>65.71137333696529</v>
+        <v>60.31619714302064</v>
       </c>
     </row>
     <row r="401">
@@ -10646,7 +10646,7 @@
         </is>
       </c>
       <c r="E401" t="n">
-        <v>66.45244916337514</v>
+        <v>60.19017341889735</v>
       </c>
     </row>
     <row r="402">
@@ -10671,7 +10671,7 @@
         </is>
       </c>
       <c r="E402" t="n">
-        <v>72.09623291416902</v>
+        <v>65.15241391423018</v>
       </c>
     </row>
     <row r="403">
@@ -10696,7 +10696,7 @@
         </is>
       </c>
       <c r="E403" t="n">
-        <v>72.43798863140094</v>
+        <v>65.76342302198829</v>
       </c>
     </row>
     <row r="404">
@@ -10721,7 +10721,7 @@
         </is>
       </c>
       <c r="E404" t="n">
-        <v>32.36279185078607</v>
+        <v>32.92682070542953</v>
       </c>
     </row>
     <row r="405">
@@ -10746,7 +10746,7 @@
         </is>
       </c>
       <c r="E405" t="n">
-        <v>70.14361081564715</v>
+        <v>63.90854532506769</v>
       </c>
     </row>
     <row r="406">
@@ -10771,7 +10771,7 @@
         </is>
       </c>
       <c r="E406" t="n">
-        <v>75.40150167384026</v>
+        <v>67.93482082256887</v>
       </c>
     </row>
     <row r="407">
@@ -10796,7 +10796,7 @@
         </is>
       </c>
       <c r="E407" t="n">
-        <v>13.53687992735107</v>
+        <v>18.38009631139838</v>
       </c>
     </row>
     <row r="408">
@@ -10821,7 +10821,7 @@
         </is>
       </c>
       <c r="E408" t="n">
-        <v>14.74364084737316</v>
+        <v>19.13184835713878</v>
       </c>
     </row>
     <row r="409">
@@ -10846,7 +10846,7 @@
         </is>
       </c>
       <c r="E409" t="n">
-        <v>15.64007861787886</v>
+        <v>19.87332416720156</v>
       </c>
     </row>
     <row r="410">
@@ -10871,7 +10871,7 @@
         </is>
       </c>
       <c r="E410" t="n">
-        <v>7.96752635246305</v>
+        <v>15.01157936753514</v>
       </c>
     </row>
     <row r="411">
@@ -10896,7 +10896,7 @@
         </is>
       </c>
       <c r="E411" t="n">
-        <v>13.63160122081078</v>
+        <v>18.7192583964878</v>
       </c>
     </row>
     <row r="412">
@@ -10921,7 +10921,7 @@
         </is>
       </c>
       <c r="E412" t="n">
-        <v>16.76488278108119</v>
+        <v>21.32779296863254</v>
       </c>
     </row>
     <row r="413">
@@ -10946,7 +10946,7 @@
         </is>
       </c>
       <c r="E413" t="n">
-        <v>9.048298827856357</v>
+        <v>15.95684287026621</v>
       </c>
     </row>
     <row r="414">
@@ -10971,7 +10971,7 @@
         </is>
       </c>
       <c r="E414" t="n">
-        <v>19.18526114695918</v>
+        <v>22.6661262885731</v>
       </c>
     </row>
     <row r="415">
@@ -10996,7 +10996,7 @@
         </is>
       </c>
       <c r="E415" t="n">
-        <v>20.53646571736756</v>
+        <v>24.33514455670078</v>
       </c>
     </row>
     <row r="416">
@@ -11021,7 +11021,7 @@
         </is>
       </c>
       <c r="E416" t="n">
-        <v>19.27612611980853</v>
+        <v>22.93639565433779</v>
       </c>
     </row>
     <row r="417">
@@ -11046,7 +11046,7 @@
         </is>
       </c>
       <c r="E417" t="n">
-        <v>22.37073126226856</v>
+        <v>25.43125094058739</v>
       </c>
     </row>
     <row r="418">
@@ -11071,7 +11071,7 @@
         </is>
       </c>
       <c r="E418" t="n">
-        <v>24.62618524850986</v>
+        <v>27.68990174087985</v>
       </c>
     </row>
     <row r="419">
@@ -11096,7 +11096,7 @@
         </is>
       </c>
       <c r="E419" t="n">
-        <v>13.11174656909759</v>
+        <v>17.77193065836725</v>
       </c>
     </row>
     <row r="420">
@@ -11121,7 +11121,7 @@
         </is>
       </c>
       <c r="E420" t="n">
-        <v>18.50552231752269</v>
+        <v>21.97956392657268</v>
       </c>
     </row>
     <row r="421">
@@ -11146,7 +11146,7 @@
         </is>
       </c>
       <c r="E421" t="n">
-        <v>19.94255688190437</v>
+        <v>23.15003703292579</v>
       </c>
     </row>
     <row r="422">
@@ -11171,7 +11171,7 @@
         </is>
       </c>
       <c r="E422" t="n">
-        <v>10.41501500637606</v>
+        <v>16.06212513194366</v>
       </c>
     </row>
     <row r="423">
@@ -11196,7 +11196,7 @@
         </is>
       </c>
       <c r="E423" t="n">
-        <v>21.76320951614468</v>
+        <v>24.52972134301976</v>
       </c>
     </row>
     <row r="424">
@@ -11221,7 +11221,7 @@
         </is>
       </c>
       <c r="E424" t="n">
-        <v>27.66785407048049</v>
+        <v>29.50925139207644</v>
       </c>
     </row>
     <row r="425">
@@ -11246,7 +11246,7 @@
         </is>
       </c>
       <c r="E425" t="n">
-        <v>8.187679873496371</v>
+        <v>14.34716695674329</v>
       </c>
     </row>
     <row r="426">
@@ -11271,7 +11271,7 @@
         </is>
       </c>
       <c r="E426" t="n">
-        <v>21.17269268890995</v>
+        <v>23.91180933259709</v>
       </c>
     </row>
     <row r="427">
@@ -11296,7 +11296,7 @@
         </is>
       </c>
       <c r="E427" t="n">
-        <v>31.75704385892683</v>
+        <v>32.601686251153</v>
       </c>
     </row>
     <row r="428">
@@ -11321,7 +11321,7 @@
         </is>
       </c>
       <c r="E428" t="n">
-        <v>8.051428433491115</v>
+        <v>14.44191861827223</v>
       </c>
     </row>
     <row r="429">
@@ -11346,7 +11346,7 @@
         </is>
       </c>
       <c r="E429" t="n">
-        <v>32.3715098422463</v>
+        <v>32.57556896120785</v>
       </c>
     </row>
     <row r="430">
@@ -11371,7 +11371,7 @@
         </is>
       </c>
       <c r="E430" t="n">
-        <v>43.26368894305274</v>
+        <v>41.90670718993695</v>
       </c>
     </row>
     <row r="431">
@@ -11396,7 +11396,7 @@
         </is>
       </c>
       <c r="E431" t="n">
-        <v>26.58729543027161</v>
+        <v>28.27557564304619</v>
       </c>
     </row>
     <row r="432">
@@ -11421,7 +11421,7 @@
         </is>
       </c>
       <c r="E432" t="n">
-        <v>34.58531111475293</v>
+        <v>34.68593698638065</v>
       </c>
     </row>
     <row r="433">
@@ -11446,7 +11446,7 @@
         </is>
       </c>
       <c r="E433" t="n">
-        <v>38.28280023930434</v>
+        <v>38.23275329397687</v>
       </c>
     </row>
     <row r="434">
@@ -11471,7 +11471,7 @@
         </is>
       </c>
       <c r="E434" t="n">
-        <v>9.898124178180318</v>
+        <v>15.64199442883964</v>
       </c>
     </row>
     <row r="435">
@@ -11496,7 +11496,7 @@
         </is>
       </c>
       <c r="E435" t="n">
-        <v>32.84684395488884</v>
+        <v>33.45079561541893</v>
       </c>
     </row>
     <row r="436">
@@ -11521,7 +11521,7 @@
         </is>
       </c>
       <c r="E436" t="n">
-        <v>39.45071328113972</v>
+        <v>38.99813123308017</v>
       </c>
     </row>
     <row r="437">
@@ -11546,7 +11546,7 @@
         </is>
       </c>
       <c r="E437" t="n">
-        <v>17.19991401841985</v>
+        <v>21.2643610105194</v>
       </c>
     </row>
     <row r="438">
@@ -11571,7 +11571,7 @@
         </is>
       </c>
       <c r="E438" t="n">
-        <v>29.37133986892013</v>
+        <v>30.76034393841178</v>
       </c>
     </row>
     <row r="439">
@@ -11596,7 +11596,7 @@
         </is>
       </c>
       <c r="E439" t="n">
-        <v>41.87740048096371</v>
+        <v>41.01138958782326</v>
       </c>
     </row>
     <row r="440">
@@ -11621,7 +11621,7 @@
         </is>
       </c>
       <c r="E440" t="n">
-        <v>11.26623989519092</v>
+        <v>16.28634314977231</v>
       </c>
     </row>
     <row r="441">
@@ -11646,7 +11646,7 @@
         </is>
       </c>
       <c r="E441" t="n">
-        <v>28.97639595199223</v>
+        <v>29.63588987398842</v>
       </c>
     </row>
     <row r="442">
@@ -11671,7 +11671,7 @@
         </is>
       </c>
       <c r="E442" t="n">
-        <v>40.37190869996674</v>
+        <v>39.4459349469177</v>
       </c>
     </row>
     <row r="443">
@@ -11696,7 +11696,7 @@
         </is>
       </c>
       <c r="E443" t="n">
-        <v>15.82965316357544</v>
+        <v>20.52010350375165</v>
       </c>
     </row>
     <row r="444">
@@ -11721,7 +11721,7 @@
         </is>
       </c>
       <c r="E444" t="n">
-        <v>44.63160331841542</v>
+        <v>42.67228994617267</v>
       </c>
     </row>
     <row r="445">
@@ -11746,7 +11746,7 @@
         </is>
       </c>
       <c r="E445" t="n">
-        <v>57.33425624630692</v>
+        <v>53.70037489969909</v>
       </c>
     </row>
     <row r="446">
@@ -11771,7 +11771,7 @@
         </is>
       </c>
       <c r="E446" t="n">
-        <v>46.46232957712095</v>
+        <v>44.17592255396094</v>
       </c>
     </row>
     <row r="447">
@@ -11796,7 +11796,7 @@
         </is>
       </c>
       <c r="E447" t="n">
-        <v>56.94619744633304</v>
+        <v>52.45729612722701</v>
       </c>
     </row>
     <row r="448">
@@ -11821,7 +11821,7 @@
         </is>
       </c>
       <c r="E448" t="n">
-        <v>71.37293531797319</v>
+        <v>64.09961725193435</v>
       </c>
     </row>
     <row r="449">
@@ -11846,7 +11846,7 @@
         </is>
       </c>
       <c r="E449" t="n">
-        <v>22.56991967194119</v>
+        <v>25.53665877178388</v>
       </c>
     </row>
     <row r="450">
@@ -11871,7 +11871,7 @@
         </is>
       </c>
       <c r="E450" t="n">
-        <v>53.17404195264838</v>
+        <v>49.58529885104957</v>
       </c>
     </row>
     <row r="451">
@@ -11896,7 +11896,7 @@
         </is>
       </c>
       <c r="E451" t="n">
-        <v>62.78500867604718</v>
+        <v>57.75639357675579</v>
       </c>
     </row>
     <row r="452">
@@ -11921,7 +11921,7 @@
         </is>
       </c>
       <c r="E452" t="n">
-        <v>8.187829454005485</v>
+        <v>14.42534587573708</v>
       </c>
     </row>
     <row r="453">
@@ -11946,7 +11946,7 @@
         </is>
       </c>
       <c r="E453" t="n">
-        <v>8.535419128345644</v>
+        <v>14.34683583990438</v>
       </c>
     </row>
     <row r="454">
@@ -11971,7 +11971,7 @@
         </is>
       </c>
       <c r="E454" t="n">
-        <v>12.15222078125778</v>
+        <v>17.53931141524452</v>
       </c>
     </row>
     <row r="455">
@@ -11996,7 +11996,7 @@
         </is>
       </c>
       <c r="E455" t="n">
-        <v>7.135885358263526</v>
+        <v>14.16559019903881</v>
       </c>
     </row>
     <row r="456">
@@ -12021,7 +12021,7 @@
         </is>
       </c>
       <c r="E456" t="n">
-        <v>9.145141990155466</v>
+        <v>14.64362719307611</v>
       </c>
     </row>
     <row r="457">
@@ -12046,7 +12046,7 @@
         </is>
       </c>
       <c r="E457" t="n">
-        <v>12.91333948407026</v>
+        <v>17.62866365917809</v>
       </c>
     </row>
     <row r="458">
@@ -12071,7 +12071,7 @@
         </is>
       </c>
       <c r="E458" t="n">
-        <v>6.39017610441708</v>
+        <v>13.87414953776429</v>
       </c>
     </row>
     <row r="459">
@@ -12096,7 +12096,7 @@
         </is>
       </c>
       <c r="E459" t="n">
-        <v>9.228632972863679</v>
+        <v>14.93334076284636</v>
       </c>
     </row>
     <row r="460">
@@ -12121,7 +12121,7 @@
         </is>
       </c>
       <c r="E460" t="n">
-        <v>14.37913662798431</v>
+        <v>19.017586344239</v>
       </c>
     </row>
     <row r="461">
@@ -12146,7 +12146,7 @@
         </is>
       </c>
       <c r="E461" t="n">
-        <v>9.342326789827187</v>
+        <v>15.58178265604105</v>
       </c>
     </row>
     <row r="462">
@@ -12171,7 +12171,7 @@
         </is>
       </c>
       <c r="E462" t="n">
-        <v>11.49852451844371</v>
+        <v>16.91745953560896</v>
       </c>
     </row>
     <row r="463">
@@ -12196,7 +12196,7 @@
         </is>
       </c>
       <c r="E463" t="n">
-        <v>17.44456627180979</v>
+        <v>21.79249810868315</v>
       </c>
     </row>
     <row r="464">
@@ -12221,7 +12221,7 @@
         </is>
       </c>
       <c r="E464" t="n">
-        <v>8.187808198472631</v>
+        <v>14.42520890905648</v>
       </c>
     </row>
     <row r="465">
@@ -12246,7 +12246,7 @@
         </is>
       </c>
       <c r="E465" t="n">
-        <v>8.933997468856862</v>
+        <v>14.38905759397656</v>
       </c>
     </row>
     <row r="466">
@@ -12271,7 +12271,7 @@
         </is>
       </c>
       <c r="E466" t="n">
-        <v>14.98614845126324</v>
+        <v>19.06744781862904</v>
       </c>
     </row>
     <row r="467">
@@ -12296,7 +12296,7 @@
         </is>
       </c>
       <c r="E467" t="n">
-        <v>22.76967268089802</v>
+        <v>25.51979513952909</v>
       </c>
     </row>
     <row r="468">
@@ -12321,7 +12321,7 @@
         </is>
       </c>
       <c r="E468" t="n">
-        <v>35.11968132381592</v>
+        <v>35.56495657102475</v>
       </c>
     </row>
     <row r="469">
@@ -12346,7 +12346,7 @@
         </is>
       </c>
       <c r="E469" t="n">
-        <v>35.73960175007909</v>
+        <v>36.08721176499385</v>
       </c>
     </row>
     <row r="470">
@@ -12371,7 +12371,7 @@
         </is>
       </c>
       <c r="E470" t="n">
-        <v>9.136423002506724</v>
+        <v>14.65269078742667</v>
       </c>
     </row>
     <row r="471">
@@ -12396,7 +12396,7 @@
         </is>
       </c>
       <c r="E471" t="n">
-        <v>34.46846323225022</v>
+        <v>34.96860894449441</v>
       </c>
     </row>
     <row r="472">
@@ -12421,7 +12421,7 @@
         </is>
       </c>
       <c r="E472" t="n">
-        <v>37.81145913901431</v>
+        <v>37.61951819037964</v>
       </c>
     </row>
     <row r="473">
@@ -12446,7 +12446,7 @@
         </is>
       </c>
       <c r="E473" t="n">
-        <v>9.824638135494236</v>
+        <v>15.30735366398219</v>
       </c>
     </row>
     <row r="474">
@@ -12471,7 +12471,7 @@
         </is>
       </c>
       <c r="E474" t="n">
-        <v>49.48985895975549</v>
+        <v>46.99886144952076</v>
       </c>
     </row>
     <row r="475">
@@ -12496,7 +12496,7 @@
         </is>
       </c>
       <c r="E475" t="n">
-        <v>53.4257255778339</v>
+        <v>49.98534666360121</v>
       </c>
     </row>
     <row r="476">
@@ -12521,7 +12521,7 @@
         </is>
       </c>
       <c r="E476" t="n">
-        <v>47.81826137004218</v>
+        <v>45.89002697507601</v>
       </c>
     </row>
     <row r="477">
@@ -12546,7 +12546,7 @@
         </is>
       </c>
       <c r="E477" t="n">
-        <v>49.5847892941435</v>
+        <v>47.3106696221792</v>
       </c>
     </row>
     <row r="478">
@@ -12571,7 +12571,7 @@
         </is>
       </c>
       <c r="E478" t="n">
-        <v>51.99065745491275</v>
+        <v>48.99495716839903</v>
       </c>
     </row>
     <row r="479">
@@ -12596,7 +12596,7 @@
         </is>
       </c>
       <c r="E479" t="n">
-        <v>23.98784856199492</v>
+        <v>26.78563299841839</v>
       </c>
     </row>
     <row r="480">
@@ -12621,7 +12621,7 @@
         </is>
       </c>
       <c r="E480" t="n">
-        <v>52.56048617494778</v>
+        <v>49.21952308381151</v>
       </c>
     </row>
     <row r="481">
@@ -12646,7 +12646,7 @@
         </is>
       </c>
       <c r="E481" t="n">
-        <v>54.20769707408952</v>
+        <v>50.28660317616085</v>
       </c>
     </row>
     <row r="482">
@@ -12671,7 +12671,7 @@
         </is>
       </c>
       <c r="E482" t="n">
-        <v>25.21750707708807</v>
+        <v>27.55488445689042</v>
       </c>
     </row>
     <row r="483">
@@ -12696,7 +12696,7 @@
         </is>
       </c>
       <c r="E483" t="n">
-        <v>39.21503048948977</v>
+        <v>38.82749569164395</v>
       </c>
     </row>
     <row r="484">
@@ -12721,7 +12721,7 @@
         </is>
       </c>
       <c r="E484" t="n">
-        <v>46.90571700899391</v>
+        <v>44.84389908285004</v>
       </c>
     </row>
     <row r="485">
@@ -12746,7 +12746,7 @@
         </is>
       </c>
       <c r="E485" t="n">
-        <v>9.349082696342471</v>
+        <v>14.82071519255115</v>
       </c>
     </row>
     <row r="486">
@@ -12771,7 +12771,7 @@
         </is>
       </c>
       <c r="E486" t="n">
-        <v>46.14418835441284</v>
+        <v>44.08429061816223</v>
       </c>
     </row>
     <row r="487">
@@ -12796,7 +12796,7 @@
         </is>
       </c>
       <c r="E487" t="n">
-        <v>50.13348577372619</v>
+        <v>46.87902897293108</v>
       </c>
     </row>
     <row r="488">
@@ -12821,7 +12821,7 @@
         </is>
       </c>
       <c r="E488" t="n">
-        <v>10.07867288099058</v>
+        <v>15.47665418655903</v>
       </c>
     </row>
     <row r="489">
@@ -12846,7 +12846,7 @@
         </is>
       </c>
       <c r="E489" t="n">
-        <v>64.93363291418962</v>
+        <v>59.50169333461534</v>
       </c>
     </row>
     <row r="490">
@@ -12871,7 +12871,7 @@
         </is>
       </c>
       <c r="E490" t="n">
-        <v>66.10818023842731</v>
+        <v>60.49894589692674</v>
       </c>
     </row>
     <row r="491">
@@ -12896,7 +12896,7 @@
         </is>
       </c>
       <c r="E491" t="n">
-        <v>71.38674087023973</v>
+        <v>64.06971005058904</v>
       </c>
     </row>
     <row r="492">
@@ -12921,7 +12921,7 @@
         </is>
       </c>
       <c r="E492" t="n">
-        <v>76.8013883289608</v>
+        <v>68.38127821146992</v>
       </c>
     </row>
     <row r="493">
@@ -12946,7 +12946,7 @@
         </is>
       </c>
       <c r="E493" t="n">
-        <v>78.11046158413052</v>
+        <v>70.27341630703634</v>
       </c>
     </row>
     <row r="494">
@@ -12971,7 +12971,7 @@
         </is>
       </c>
       <c r="E494" t="n">
-        <v>26.43707844614369</v>
+        <v>28.22377560463502</v>
       </c>
     </row>
     <row r="495">
@@ -12996,7 +12996,7 @@
         </is>
       </c>
       <c r="E495" t="n">
-        <v>75.6776556471782</v>
+        <v>67.59020335461173</v>
       </c>
     </row>
     <row r="496">
@@ -13021,7 +13021,7 @@
         </is>
       </c>
       <c r="E496" t="n">
-        <v>73.51787822917015</v>
+        <v>65.72852005436748</v>
       </c>
     </row>
     <row r="497">
@@ -13046,7 +13046,7 @@
         </is>
       </c>
       <c r="E497" t="n">
-        <v>16.24730450000459</v>
+        <v>20.91300258408478</v>
       </c>
     </row>
     <row r="498">
@@ -13071,7 +13071,7 @@
         </is>
       </c>
       <c r="E498" t="n">
-        <v>18.47691912219747</v>
+        <v>22.66389203480441</v>
       </c>
     </row>
     <row r="499">
@@ -13096,7 +13096,7 @@
         </is>
       </c>
       <c r="E499" t="n">
-        <v>18.45979697375737</v>
+        <v>22.80294023250115</v>
       </c>
     </row>
     <row r="500">
@@ -13121,7 +13121,7 @@
         </is>
       </c>
       <c r="E500" t="n">
-        <v>8.083450504783929</v>
+        <v>15.18032959639534</v>
       </c>
     </row>
     <row r="501">
@@ -13146,7 +13146,7 @@
         </is>
       </c>
       <c r="E501" t="n">
-        <v>18.62038080964739</v>
+        <v>22.34160944917249</v>
       </c>
     </row>
     <row r="502">
@@ -13171,7 +13171,7 @@
         </is>
       </c>
       <c r="E502" t="n">
-        <v>21.03483264617405</v>
+        <v>24.92808524742188</v>
       </c>
     </row>
     <row r="503">
@@ -13196,7 +13196,7 @@
         </is>
       </c>
       <c r="E503" t="n">
-        <v>9.241930634674791</v>
+        <v>16.20288193215578</v>
       </c>
     </row>
     <row r="504">
@@ -13221,7 +13221,7 @@
         </is>
       </c>
       <c r="E504" t="n">
-        <v>22.54451169426299</v>
+        <v>25.6032712347654</v>
       </c>
     </row>
     <row r="505">
@@ -13246,7 +13246,7 @@
         </is>
       </c>
       <c r="E505" t="n">
-        <v>25.73426844772275</v>
+        <v>28.21282351757663</v>
       </c>
     </row>
     <row r="506">
@@ -13271,7 +13271,7 @@
         </is>
       </c>
       <c r="E506" t="n">
-        <v>22.55739234894057</v>
+        <v>25.9532151486585</v>
       </c>
     </row>
     <row r="507">
@@ -13296,7 +13296,7 @@
         </is>
       </c>
       <c r="E507" t="n">
-        <v>28.46986436684676</v>
+        <v>30.23506488775377</v>
       </c>
     </row>
     <row r="508">
@@ -13321,7 +13321,7 @@
         </is>
       </c>
       <c r="E508" t="n">
-        <v>29.27916974714242</v>
+        <v>31.06959790769985</v>
       </c>
     </row>
     <row r="509">
@@ -13346,7 +13346,7 @@
         </is>
       </c>
       <c r="E509" t="n">
-        <v>15.06759214425447</v>
+        <v>20.09203994824524</v>
       </c>
     </row>
     <row r="510">
@@ -13371,7 +13371,7 @@
         </is>
       </c>
       <c r="E510" t="n">
-        <v>22.49427829529368</v>
+        <v>25.37319878111798</v>
       </c>
     </row>
     <row r="511">
@@ -13396,7 +13396,7 @@
         </is>
       </c>
       <c r="E511" t="n">
-        <v>24.23666185048852</v>
+        <v>26.57290593896742</v>
       </c>
     </row>
     <row r="512">
@@ -13421,7 +13421,7 @@
         </is>
       </c>
       <c r="E512" t="n">
-        <v>8.469905362219631</v>
+        <v>14.58926190270627</v>
       </c>
     </row>
     <row r="513">
@@ -13446,7 +13446,7 @@
         </is>
       </c>
       <c r="E513" t="n">
-        <v>14.31530394337162</v>
+        <v>18.80090433480536</v>
       </c>
     </row>
     <row r="514">
@@ -13471,7 +13471,7 @@
         </is>
       </c>
       <c r="E514" t="n">
-        <v>22.88285136848915</v>
+        <v>25.71838077010194</v>
       </c>
     </row>
     <row r="515">
@@ -13496,7 +13496,7 @@
         </is>
       </c>
       <c r="E515" t="n">
-        <v>7.233877838922069</v>
+        <v>14.34723492881678</v>
       </c>
     </row>
     <row r="516">
@@ -13521,7 +13521,7 @@
         </is>
       </c>
       <c r="E516" t="n">
-        <v>12.39161024349012</v>
+        <v>17.13441287671666</v>
       </c>
     </row>
     <row r="517">
@@ -13546,7 +13546,7 @@
         </is>
       </c>
       <c r="E517" t="n">
-        <v>24.3055662898358</v>
+        <v>26.82082367098978</v>
       </c>
     </row>
     <row r="518">
@@ -13571,7 +13571,7 @@
         </is>
       </c>
       <c r="E518" t="n">
-        <v>7.206114859774388</v>
+        <v>14.30426366146</v>
       </c>
     </row>
     <row r="519">
@@ -13596,7 +13596,7 @@
         </is>
       </c>
       <c r="E519" t="n">
-        <v>16.53602242055697</v>
+        <v>20.48700503396087</v>
       </c>
     </row>
     <row r="520">
@@ -13621,7 +13621,7 @@
         </is>
       </c>
       <c r="E520" t="n">
-        <v>35.26688859882449</v>
+        <v>35.74371904883886</v>
       </c>
     </row>
     <row r="521">
@@ -13646,7 +13646,7 @@
         </is>
       </c>
       <c r="E521" t="n">
-        <v>14.73062241117458</v>
+        <v>19.69130575560768</v>
       </c>
     </row>
     <row r="522">
@@ -13671,7 +13671,7 @@
         </is>
       </c>
       <c r="E522" t="n">
-        <v>25.11226166699871</v>
+        <v>27.25505544905837</v>
       </c>
     </row>
     <row r="523">
@@ -13696,7 +13696,7 @@
         </is>
       </c>
       <c r="E523" t="n">
-        <v>31.68611217674879</v>
+        <v>32.8735221955758</v>
       </c>
     </row>
     <row r="524">
@@ -13721,7 +13721,7 @@
         </is>
       </c>
       <c r="E524" t="n">
-        <v>8.187839302326612</v>
+        <v>14.36548752667722</v>
       </c>
     </row>
     <row r="525">
@@ -13746,7 +13746,7 @@
         </is>
       </c>
       <c r="E525" t="n">
-        <v>24.06060374591373</v>
+        <v>26.44338880413338</v>
       </c>
     </row>
     <row r="526">
@@ -13771,7 +13771,7 @@
         </is>
       </c>
       <c r="E526" t="n">
-        <v>30.88241739002286</v>
+        <v>32.04288482495274</v>
       </c>
     </row>
     <row r="527">
@@ -13796,7 +13796,7 @@
         </is>
       </c>
       <c r="E527" t="n">
-        <v>20.50192043957626</v>
+        <v>23.82033609873915</v>
       </c>
     </row>
     <row r="528">
@@ -13821,7 +13821,7 @@
         </is>
       </c>
       <c r="E528" t="n">
-        <v>28.92363301789903</v>
+        <v>31.10047786388891</v>
       </c>
     </row>
     <row r="529">
@@ -13846,7 +13846,7 @@
         </is>
       </c>
       <c r="E529" t="n">
-        <v>37.33046689069899</v>
+        <v>37.60217434830751</v>
       </c>
     </row>
     <row r="530">
@@ -13871,7 +13871,7 @@
         </is>
       </c>
       <c r="E530" t="n">
-        <v>8.966356722803763</v>
+        <v>15.37414046483615</v>
       </c>
     </row>
     <row r="531">
@@ -13896,7 +13896,7 @@
         </is>
       </c>
       <c r="E531" t="n">
-        <v>25.45763028283756</v>
+        <v>28.46961697828917</v>
       </c>
     </row>
     <row r="532">
@@ -13921,7 +13921,7 @@
         </is>
       </c>
       <c r="E532" t="n">
-        <v>31.65112074826122</v>
+        <v>32.73504818394657</v>
       </c>
     </row>
     <row r="533">
@@ -13946,7 +13946,7 @@
         </is>
       </c>
       <c r="E533" t="n">
-        <v>14.07454659629229</v>
+        <v>18.60750732971362</v>
       </c>
     </row>
     <row r="534">
@@ -13971,7 +13971,7 @@
         </is>
       </c>
       <c r="E534" t="n">
-        <v>41.87580698371843</v>
+        <v>41.00854209682563</v>
       </c>
     </row>
     <row r="535">
@@ -13996,7 +13996,7 @@
         </is>
       </c>
       <c r="E535" t="n">
-        <v>51.74677878598548</v>
+        <v>49.08480460401826</v>
       </c>
     </row>
     <row r="536">
@@ -14021,7 +14021,7 @@
         </is>
       </c>
       <c r="E536" t="n">
-        <v>45.31453224763194</v>
+        <v>43.78248642099345</v>
       </c>
     </row>
     <row r="537">
@@ -14046,7 +14046,7 @@
         </is>
       </c>
       <c r="E537" t="n">
-        <v>51.04943236108429</v>
+        <v>48.49340279843777</v>
       </c>
     </row>
     <row r="538">
@@ -14071,7 +14071,7 @@
         </is>
       </c>
       <c r="E538" t="n">
-        <v>60.19984900685802</v>
+        <v>55.80791894245765</v>
       </c>
     </row>
     <row r="539">
@@ -14096,7 +14096,7 @@
         </is>
       </c>
       <c r="E539" t="n">
-        <v>27.0219481413899</v>
+        <v>28.6486058536111</v>
       </c>
     </row>
     <row r="540">
@@ -14121,7 +14121,7 @@
         </is>
       </c>
       <c r="E540" t="n">
-        <v>46.44266998442877</v>
+        <v>44.66450667947432</v>
       </c>
     </row>
     <row r="541">
@@ -14146,7 +14146,7 @@
         </is>
       </c>
       <c r="E541" t="n">
-        <v>50.4718217066372</v>
+        <v>47.70271021275215</v>
       </c>
     </row>
     <row r="542">
@@ -14171,7 +14171,7 @@
         </is>
       </c>
       <c r="E542" t="n">
-        <v>8.811315682739071</v>
+        <v>14.87500228760096</v>
       </c>
     </row>
     <row r="543">
@@ -14196,7 +14196,7 @@
         </is>
       </c>
       <c r="E543" t="n">
-        <v>11.35286384795766</v>
+        <v>16.86189299684361</v>
       </c>
     </row>
     <row r="544">
@@ -14221,7 +14221,7 @@
         </is>
       </c>
       <c r="E544" t="n">
-        <v>11.24734548765295</v>
+        <v>16.85669343437835</v>
       </c>
     </row>
     <row r="545">
@@ -14246,7 +14246,7 @@
         </is>
       </c>
       <c r="E545" t="n">
-        <v>7.226990067624726</v>
+        <v>14.48000512206101</v>
       </c>
     </row>
     <row r="546">
@@ -14271,7 +14271,7 @@
         </is>
       </c>
       <c r="E546" t="n">
-        <v>9.964785129903785</v>
+        <v>16.07265940964472</v>
       </c>
     </row>
     <row r="547">
@@ -14296,7 +14296,7 @@
         </is>
       </c>
       <c r="E547" t="n">
-        <v>12.08202246384021</v>
+        <v>16.95437906674875</v>
       </c>
     </row>
     <row r="548">
@@ -14321,7 +14321,7 @@
         </is>
       </c>
       <c r="E548" t="n">
-        <v>7.516623717808855</v>
+        <v>14.1971889132896</v>
       </c>
     </row>
     <row r="549">
@@ -14346,7 +14346,7 @@
         </is>
       </c>
       <c r="E549" t="n">
-        <v>10.84810496109645</v>
+        <v>16.2810884131173</v>
       </c>
     </row>
     <row r="550">
@@ -14371,7 +14371,7 @@
         </is>
       </c>
       <c r="E550" t="n">
-        <v>13.54835270226546</v>
+        <v>19.06406329823045</v>
       </c>
     </row>
     <row r="551">
@@ -14396,7 +14396,7 @@
         </is>
       </c>
       <c r="E551" t="n">
-        <v>9.881121101849015</v>
+        <v>15.45136481386395</v>
       </c>
     </row>
     <row r="552">
@@ -14421,7 +14421,7 @@
         </is>
       </c>
       <c r="E552" t="n">
-        <v>10.50245302770269</v>
+        <v>16.04516449638161</v>
       </c>
     </row>
     <row r="553">
@@ -14446,7 +14446,7 @@
         </is>
       </c>
       <c r="E553" t="n">
-        <v>14.60717238497806</v>
+        <v>19.37683314757083</v>
       </c>
     </row>
     <row r="554">
@@ -14471,7 +14471,7 @@
         </is>
       </c>
       <c r="E554" t="n">
-        <v>9.269910953064038</v>
+        <v>14.83190679918766</v>
       </c>
     </row>
     <row r="555">
@@ -14496,7 +14496,7 @@
         </is>
       </c>
       <c r="E555" t="n">
-        <v>10.58048740789945</v>
+        <v>15.87590649731204</v>
       </c>
     </row>
     <row r="556">
@@ -14521,7 +14521,7 @@
         </is>
       </c>
       <c r="E556" t="n">
-        <v>13.16442678936389</v>
+        <v>17.82768396331325</v>
       </c>
     </row>
     <row r="557">
@@ -14546,7 +14546,7 @@
         </is>
       </c>
       <c r="E557" t="n">
-        <v>8.193992490303255</v>
+        <v>14.3266158112818</v>
       </c>
     </row>
     <row r="558">
@@ -14571,7 +14571,7 @@
         </is>
       </c>
       <c r="E558" t="n">
-        <v>9.858232526520453</v>
+        <v>15.25229782379589</v>
       </c>
     </row>
     <row r="559">
@@ -14596,7 +14596,7 @@
         </is>
       </c>
       <c r="E559" t="n">
-        <v>10.6760616486033</v>
+        <v>15.92096618268911</v>
       </c>
     </row>
     <row r="560">
@@ -14621,7 +14621,7 @@
         </is>
       </c>
       <c r="E560" t="n">
-        <v>7.209185500378144</v>
+        <v>14.34697836829482</v>
       </c>
     </row>
     <row r="561">
@@ -14646,7 +14646,7 @@
         </is>
       </c>
       <c r="E561" t="n">
-        <v>9.24126973388919</v>
+        <v>14.59854535034636</v>
       </c>
     </row>
     <row r="562">
@@ -14671,7 +14671,7 @@
         </is>
       </c>
       <c r="E562" t="n">
-        <v>10.27756487662654</v>
+        <v>15.56184722914717</v>
       </c>
     </row>
     <row r="563">
@@ -14696,7 +14696,7 @@
         </is>
       </c>
       <c r="E563" t="n">
-        <v>7.38583304561023</v>
+        <v>14.08190301036235</v>
       </c>
     </row>
     <row r="564">
@@ -14721,7 +14721,7 @@
         </is>
       </c>
       <c r="E564" t="n">
-        <v>9.740951612573291</v>
+        <v>15.41752863251376</v>
       </c>
     </row>
     <row r="565">
@@ -14746,7 +14746,7 @@
         </is>
       </c>
       <c r="E565" t="n">
-        <v>12.29252826056072</v>
+        <v>17.22243464829114</v>
       </c>
     </row>
     <row r="566">
@@ -14771,7 +14771,7 @@
         </is>
       </c>
       <c r="E566" t="n">
-        <v>8.97899164492885</v>
+        <v>15.08261593404721</v>
       </c>
     </row>
     <row r="567">
@@ -14796,7 +14796,7 @@
         </is>
       </c>
       <c r="E567" t="n">
-        <v>10.95234171613445</v>
+        <v>16.62370914149981</v>
       </c>
     </row>
     <row r="568">
@@ -14821,7 +14821,7 @@
         </is>
       </c>
       <c r="E568" t="n">
-        <v>12.34987076326402</v>
+        <v>17.25886062541134</v>
       </c>
     </row>
     <row r="569">
@@ -14846,7 +14846,7 @@
         </is>
       </c>
       <c r="E569" t="n">
-        <v>7.36279327184177</v>
+        <v>14.34684605621309</v>
       </c>
     </row>
     <row r="570">
@@ -14871,7 +14871,7 @@
         </is>
       </c>
       <c r="E570" t="n">
-        <v>9.796743233643742</v>
+        <v>15.1673623707</v>
       </c>
     </row>
     <row r="571">
@@ -14896,7 +14896,7 @@
         </is>
       </c>
       <c r="E571" t="n">
-        <v>10.98288763418905</v>
+        <v>16.12358891668234</v>
       </c>
     </row>
     <row r="572">
@@ -14921,7 +14921,7 @@
         </is>
       </c>
       <c r="E572" t="n">
-        <v>23.49805904303303</v>
+        <v>26.16166971597285</v>
       </c>
     </row>
     <row r="573">
@@ -14946,7 +14946,7 @@
         </is>
       </c>
       <c r="E573" t="n">
-        <v>25.73759300847085</v>
+        <v>28.52908823861657</v>
       </c>
     </row>
     <row r="574">
@@ -14971,7 +14971,7 @@
         </is>
       </c>
       <c r="E574" t="n">
-        <v>27.13257990254878</v>
+        <v>29.10592050398554</v>
       </c>
     </row>
     <row r="575">
@@ -14996,7 +14996,7 @@
         </is>
       </c>
       <c r="E575" t="n">
-        <v>9.307022256349345</v>
+        <v>15.81218326206113</v>
       </c>
     </row>
     <row r="576">
@@ -15021,7 +15021,7 @@
         </is>
       </c>
       <c r="E576" t="n">
-        <v>21.14307426349811</v>
+        <v>24.82724856591341</v>
       </c>
     </row>
     <row r="577">
@@ -15046,7 +15046,7 @@
         </is>
       </c>
       <c r="E577" t="n">
-        <v>23.71837669851939</v>
+        <v>26.39396278619903</v>
       </c>
     </row>
     <row r="578">
@@ -15071,7 +15071,7 @@
         </is>
       </c>
       <c r="E578" t="n">
-        <v>15.90299649775301</v>
+        <v>20.46042254757642</v>
       </c>
     </row>
     <row r="579">
@@ -15096,7 +15096,7 @@
         </is>
       </c>
       <c r="E579" t="n">
-        <v>30.49401544315198</v>
+        <v>32.4152517925724</v>
       </c>
     </row>
     <row r="580">
@@ -15121,7 +15121,7 @@
         </is>
       </c>
       <c r="E580" t="n">
-        <v>33.24842426975358</v>
+        <v>34.13303950597971</v>
       </c>
     </row>
     <row r="581">
@@ -15146,7 +15146,7 @@
         </is>
       </c>
       <c r="E581" t="n">
-        <v>37.7002554069873</v>
+        <v>37.72352580008663</v>
       </c>
     </row>
     <row r="582">
@@ -15171,7 +15171,7 @@
         </is>
       </c>
       <c r="E582" t="n">
-        <v>39.96576572991167</v>
+        <v>39.34829452592245</v>
       </c>
     </row>
     <row r="583">
@@ -15196,7 +15196,7 @@
         </is>
       </c>
       <c r="E583" t="n">
-        <v>42.05393041298274</v>
+        <v>41.14512139595226</v>
       </c>
     </row>
     <row r="584">
@@ -15221,7 +15221,7 @@
         </is>
       </c>
       <c r="E584" t="n">
-        <v>27.13677652051967</v>
+        <v>29.75690163494798</v>
       </c>
     </row>
     <row r="585">
@@ -15246,7 +15246,7 @@
         </is>
       </c>
       <c r="E585" t="n">
-        <v>31.14501333585593</v>
+        <v>32.34821028883373</v>
       </c>
     </row>
     <row r="586">
@@ -15271,7 +15271,7 @@
         </is>
       </c>
       <c r="E586" t="n">
-        <v>36.11640724583095</v>
+        <v>36.32340621650362</v>
       </c>
     </row>
     <row r="587">
@@ -15296,7 +15296,7 @@
         </is>
       </c>
       <c r="E587" t="n">
-        <v>19.74824809707261</v>
+        <v>23.71448255205355</v>
       </c>
     </row>
     <row r="588">
@@ -15321,7 +15321,7 @@
         </is>
       </c>
       <c r="E588" t="n">
-        <v>27.18980466241763</v>
+        <v>29.2976792266622</v>
       </c>
     </row>
     <row r="589">
@@ -15346,7 +15346,7 @@
         </is>
       </c>
       <c r="E589" t="n">
-        <v>34.44849693310432</v>
+        <v>35.05546211832722</v>
       </c>
     </row>
     <row r="590">
@@ -15371,7 +15371,7 @@
         </is>
       </c>
       <c r="E590" t="n">
-        <v>8.738755300092542</v>
+        <v>14.92231520760648</v>
       </c>
     </row>
     <row r="591">
@@ -15396,7 +15396,7 @@
         </is>
       </c>
       <c r="E591" t="n">
-        <v>24.04889389929244</v>
+        <v>26.70452893124255</v>
       </c>
     </row>
     <row r="592">
@@ -15421,7 +15421,7 @@
         </is>
       </c>
       <c r="E592" t="n">
-        <v>29.27481223931245</v>
+        <v>31.36474040307056</v>
       </c>
     </row>
     <row r="593">
@@ -15446,7 +15446,7 @@
         </is>
       </c>
       <c r="E593" t="n">
-        <v>10.6729441516324</v>
+        <v>16.64989723868106</v>
       </c>
     </row>
     <row r="594">
@@ -15471,7 +15471,7 @@
         </is>
       </c>
       <c r="E594" t="n">
-        <v>38.49795027421742</v>
+        <v>38.62018114995509</v>
       </c>
     </row>
     <row r="595">
@@ -15496,7 +15496,7 @@
         </is>
       </c>
       <c r="E595" t="n">
-        <v>45.6311823438037</v>
+        <v>44.39313045097433</v>
       </c>
     </row>
     <row r="596">
@@ -15521,7 +15521,7 @@
         </is>
       </c>
       <c r="E596" t="n">
-        <v>36.70562452467473</v>
+        <v>37.25462233462407</v>
       </c>
     </row>
     <row r="597">
@@ -15546,7 +15546,7 @@
         </is>
       </c>
       <c r="E597" t="n">
-        <v>43.94168863313418</v>
+        <v>42.99039809697172</v>
       </c>
     </row>
     <row r="598">
@@ -15571,7 +15571,7 @@
         </is>
       </c>
       <c r="E598" t="n">
-        <v>49.13575082116907</v>
+        <v>47.20362056767974</v>
       </c>
     </row>
     <row r="599">
@@ -15596,7 +15596,7 @@
         </is>
       </c>
       <c r="E599" t="n">
-        <v>29.29969107820024</v>
+        <v>31.00114044317362</v>
       </c>
     </row>
     <row r="600">
@@ -15621,7 +15621,7 @@
         </is>
       </c>
       <c r="E600" t="n">
-        <v>49.13637803738816</v>
+        <v>47.24976889179815</v>
       </c>
     </row>
     <row r="601">
@@ -15646,7 +15646,7 @@
         </is>
       </c>
       <c r="E601" t="n">
-        <v>61.3592083998925</v>
+        <v>56.80829460851913</v>
       </c>
     </row>
     <row r="602">
@@ -15671,7 +15671,7 @@
         </is>
       </c>
       <c r="E602" t="n">
-        <v>17.68970524365173</v>
+        <v>22.01318196061015</v>
       </c>
     </row>
     <row r="603">
@@ -15696,7 +15696,7 @@
         </is>
       </c>
       <c r="E603" t="n">
-        <v>26.68409940206299</v>
+        <v>29.44649703723072</v>
       </c>
     </row>
     <row r="604">
@@ -15721,7 +15721,7 @@
         </is>
       </c>
       <c r="E604" t="n">
-        <v>31.10449553943279</v>
+        <v>33.19578133077749</v>
       </c>
     </row>
     <row r="605">
@@ -15746,7 +15746,7 @@
         </is>
       </c>
       <c r="E605" t="n">
-        <v>7.743181538792214</v>
+        <v>14.43543636959708</v>
       </c>
     </row>
     <row r="606">
@@ -15771,7 +15771,7 @@
         </is>
       </c>
       <c r="E606" t="n">
-        <v>18.53055926535925</v>
+        <v>22.19958523474345</v>
       </c>
     </row>
     <row r="607">
@@ -15796,7 +15796,7 @@
         </is>
       </c>
       <c r="E607" t="n">
-        <v>23.45438175936813</v>
+        <v>26.30836815437678</v>
       </c>
     </row>
     <row r="608">
@@ -15821,7 +15821,7 @@
         </is>
       </c>
       <c r="E608" t="n">
-        <v>8.806986882165901</v>
+        <v>15.84324945817001</v>
       </c>
     </row>
     <row r="609">
@@ -15846,7 +15846,7 @@
         </is>
       </c>
       <c r="E609" t="n">
-        <v>31.26770232144542</v>
+        <v>33.23777287711436</v>
       </c>
     </row>
     <row r="610">
@@ -15871,7 +15871,7 @@
         </is>
       </c>
       <c r="E610" t="n">
-        <v>35.33832193032769</v>
+        <v>36.14365822898303</v>
       </c>
     </row>
     <row r="611">
@@ -15896,7 +15896,7 @@
         </is>
       </c>
       <c r="E611" t="n">
-        <v>29.3758610284651</v>
+        <v>31.07856069028457</v>
       </c>
     </row>
     <row r="612">
@@ -15921,7 +15921,7 @@
         </is>
       </c>
       <c r="E612" t="n">
-        <v>36.91690431678195</v>
+        <v>37.01473934470963</v>
       </c>
     </row>
     <row r="613">
@@ -15946,7 +15946,7 @@
         </is>
       </c>
       <c r="E613" t="n">
-        <v>36.31756207703705</v>
+        <v>37.55365687200459</v>
       </c>
     </row>
     <row r="614">
@@ -15971,7 +15971,7 @@
         </is>
       </c>
       <c r="E614" t="n">
-        <v>22.50371134377583</v>
+        <v>25.49557201262859</v>
       </c>
     </row>
     <row r="615">
@@ -15996,7 +15996,7 @@
         </is>
       </c>
       <c r="E615" t="n">
-        <v>41.47207033177906</v>
+        <v>41.1039089558468</v>
       </c>
     </row>
     <row r="616">
@@ -16021,7 +16021,7 @@
         </is>
       </c>
       <c r="E616" t="n">
-        <v>45.66924273870542</v>
+        <v>44.33972345655759</v>
       </c>
     </row>
     <row r="617">
@@ -16046,7 +16046,7 @@
         </is>
       </c>
       <c r="E617" t="n">
-        <v>25.56869756254504</v>
+        <v>28.35044924127251</v>
       </c>
     </row>
     <row r="618">
@@ -16071,7 +16071,7 @@
         </is>
       </c>
       <c r="E618" t="n">
-        <v>35.16346521975949</v>
+        <v>36.04483108442213</v>
       </c>
     </row>
     <row r="619">
@@ -16096,7 +16096,7 @@
         </is>
       </c>
       <c r="E619" t="n">
-        <v>45.02579719111522</v>
+        <v>43.17215300048661</v>
       </c>
     </row>
     <row r="620">
@@ -16121,7 +16121,7 @@
         </is>
       </c>
       <c r="E620" t="n">
-        <v>9.166181990738036</v>
+        <v>15.21262266333018</v>
       </c>
     </row>
     <row r="621">
@@ -16146,7 +16146,7 @@
         </is>
       </c>
       <c r="E621" t="n">
-        <v>32.83462476342676</v>
+        <v>33.67825096906694</v>
       </c>
     </row>
     <row r="622">
@@ -16171,7 +16171,7 @@
         </is>
       </c>
       <c r="E622" t="n">
-        <v>37.00441497754397</v>
+        <v>37.18096037995998</v>
       </c>
     </row>
     <row r="623">
@@ -16196,7 +16196,7 @@
         </is>
       </c>
       <c r="E623" t="n">
-        <v>12.92963433307903</v>
+        <v>18.57432295493775</v>
       </c>
     </row>
     <row r="624">
@@ -16221,7 +16221,7 @@
         </is>
       </c>
       <c r="E624" t="n">
-        <v>53.31766358132603</v>
+        <v>50.33172108159329</v>
       </c>
     </row>
     <row r="625">
@@ -16246,7 +16246,7 @@
         </is>
       </c>
       <c r="E625" t="n">
-        <v>56.84614769415489</v>
+        <v>53.36608436526522</v>
       </c>
     </row>
     <row r="626">
@@ -16271,7 +16271,7 @@
         </is>
       </c>
       <c r="E626" t="n">
-        <v>61.40070509625589</v>
+        <v>56.93635088229862</v>
       </c>
     </row>
     <row r="627">
@@ -16296,7 +16296,7 @@
         </is>
       </c>
       <c r="E627" t="n">
-        <v>66.7146932594643</v>
+        <v>60.42127217673223</v>
       </c>
     </row>
     <row r="628">
@@ -16321,7 +16321,7 @@
         </is>
       </c>
       <c r="E628" t="n">
-        <v>70.83547519281449</v>
+        <v>64.35335056425627</v>
       </c>
     </row>
     <row r="629">
@@ -16346,7 +16346,7 @@
         </is>
       </c>
       <c r="E629" t="n">
-        <v>30.83588460747553</v>
+        <v>32.25442506560844</v>
       </c>
     </row>
     <row r="630">
@@ -16371,7 +16371,7 @@
         </is>
       </c>
       <c r="E630" t="n">
-        <v>57.19801510860167</v>
+        <v>53.67687649954873</v>
       </c>
     </row>
     <row r="631">
@@ -16396,7 +16396,7 @@
         </is>
       </c>
       <c r="E631" t="n">
-        <v>65.37389509015492</v>
+        <v>60.0537678526986</v>
       </c>
     </row>
     <row r="632">
@@ -16421,7 +16421,7 @@
         </is>
       </c>
       <c r="E632" t="n">
-        <v>21.52324277834949</v>
+        <v>24.27717455714585</v>
       </c>
     </row>
     <row r="633">
@@ -16446,7 +16446,7 @@
         </is>
       </c>
       <c r="E633" t="n">
-        <v>33.2238197864252</v>
+        <v>33.70705224472848</v>
       </c>
     </row>
     <row r="634">
@@ -16471,7 +16471,7 @@
         </is>
       </c>
       <c r="E634" t="n">
-        <v>37.69250511088276</v>
+        <v>37.53034829845923</v>
       </c>
     </row>
     <row r="635">
@@ -16496,7 +16496,7 @@
         </is>
       </c>
       <c r="E635" t="n">
-        <v>10.50083372250643</v>
+        <v>15.68918074821592</v>
       </c>
     </row>
     <row r="636">
@@ -16521,7 +16521,7 @@
         </is>
       </c>
       <c r="E636" t="n">
-        <v>40.66535219452115</v>
+        <v>39.56286505913403</v>
       </c>
     </row>
     <row r="637">
@@ -16546,7 +16546,7 @@
         </is>
       </c>
       <c r="E637" t="n">
-        <v>41.93280516262767</v>
+        <v>41.0122878417539</v>
       </c>
     </row>
     <row r="638">
@@ -16571,7 +16571,7 @@
         </is>
       </c>
       <c r="E638" t="n">
-        <v>13.69567971425534</v>
+        <v>18.77815291176381</v>
       </c>
     </row>
     <row r="639">
@@ -16596,7 +16596,7 @@
         </is>
       </c>
       <c r="E639" t="n">
-        <v>55.41141481139604</v>
+        <v>51.72722128527808</v>
       </c>
     </row>
     <row r="640">
@@ -16621,7 +16621,7 @@
         </is>
       </c>
       <c r="E640" t="n">
-        <v>59.61890938575063</v>
+        <v>54.59363723249794</v>
       </c>
     </row>
     <row r="641">
@@ -16646,7 +16646,7 @@
         </is>
       </c>
       <c r="E641" t="n">
-        <v>62.69795684609348</v>
+        <v>57.81257655117221</v>
       </c>
     </row>
     <row r="642">
@@ -16671,7 +16671,7 @@
         </is>
       </c>
       <c r="E642" t="n">
-        <v>64.70591200650772</v>
+        <v>58.79052080323066</v>
       </c>
     </row>
     <row r="643">
@@ -16696,7 +16696,7 @@
         </is>
       </c>
       <c r="E643" t="n">
-        <v>67.48247057736393</v>
+        <v>60.90341601120109</v>
       </c>
     </row>
     <row r="644">
@@ -16721,7 +16721,7 @@
         </is>
       </c>
       <c r="E644" t="n">
-        <v>23.62653205159764</v>
+        <v>25.87298033868375</v>
       </c>
     </row>
     <row r="645">
@@ -16746,7 +16746,7 @@
         </is>
       </c>
       <c r="E645" t="n">
-        <v>56.99450491217061</v>
+        <v>52.12544914831464</v>
       </c>
     </row>
     <row r="646">
@@ -16771,7 +16771,7 @@
         </is>
       </c>
       <c r="E646" t="n">
-        <v>61.59436766079202</v>
+        <v>56.33041406585774</v>
       </c>
     </row>
     <row r="647">
@@ -16796,7 +16796,7 @@
         </is>
       </c>
       <c r="E647" t="n">
-        <v>19.38586772930267</v>
+        <v>22.53594007235486</v>
       </c>
     </row>
     <row r="648">
@@ -16821,7 +16821,7 @@
         </is>
       </c>
       <c r="E648" t="n">
-        <v>32.60875335119362</v>
+        <v>33.58268076362918</v>
       </c>
     </row>
     <row r="649">
@@ -16846,7 +16846,7 @@
         </is>
       </c>
       <c r="E649" t="n">
-        <v>39.04056093219616</v>
+        <v>38.01945246567524</v>
       </c>
     </row>
     <row r="650">
@@ -16871,7 +16871,7 @@
         </is>
       </c>
       <c r="E650" t="n">
-        <v>8.919838909133674</v>
+        <v>14.47293643460769</v>
       </c>
     </row>
     <row r="651">
@@ -16896,7 +16896,7 @@
         </is>
       </c>
       <c r="E651" t="n">
-        <v>32.36208675094839</v>
+        <v>33.15956866630437</v>
       </c>
     </row>
     <row r="652">
@@ -16921,7 +16921,7 @@
         </is>
       </c>
       <c r="E652" t="n">
-        <v>36.07278125316454</v>
+        <v>36.49350749443346</v>
       </c>
     </row>
     <row r="653">
@@ -16946,7 +16946,7 @@
         </is>
       </c>
       <c r="E653" t="n">
-        <v>9.526210727267987</v>
+        <v>14.91307292816655</v>
       </c>
     </row>
     <row r="654">
@@ -16971,7 +16971,7 @@
         </is>
       </c>
       <c r="E654" t="n">
-        <v>46.57321163936668</v>
+        <v>43.71965618320296</v>
       </c>
     </row>
     <row r="655">
@@ -16996,7 +16996,7 @@
         </is>
       </c>
       <c r="E655" t="n">
-        <v>55.97644403307524</v>
+        <v>52.42757300529876</v>
       </c>
     </row>
     <row r="656">
@@ -17021,7 +17021,7 @@
         </is>
       </c>
       <c r="E656" t="n">
-        <v>43.5410247440485</v>
+        <v>42.18705164791577</v>
       </c>
     </row>
     <row r="657">
@@ -17046,7 +17046,7 @@
         </is>
       </c>
       <c r="E657" t="n">
-        <v>50.90054091208403</v>
+        <v>48.19143208213373</v>
       </c>
     </row>
     <row r="658">
@@ -17071,7 +17071,7 @@
         </is>
       </c>
       <c r="E658" t="n">
-        <v>48.2389855209417</v>
+        <v>46.56262828885374</v>
       </c>
     </row>
     <row r="659">
@@ -17096,7 +17096,7 @@
         </is>
       </c>
       <c r="E659" t="n">
-        <v>18.96068594629712</v>
+        <v>22.17828951633916</v>
       </c>
     </row>
     <row r="660">
@@ -17121,7 +17121,7 @@
         </is>
       </c>
       <c r="E660" t="n">
-        <v>52.73415452982611</v>
+        <v>48.98458017852016</v>
       </c>
     </row>
     <row r="661">
@@ -17146,7 +17146,7 @@
         </is>
       </c>
       <c r="E661" t="n">
-        <v>59.18757617918137</v>
+        <v>54.7958599984118</v>
       </c>
     </row>
     <row r="662">
@@ -17171,7 +17171,7 @@
         </is>
       </c>
       <c r="E662" t="n">
-        <v>20.6833158568476</v>
+        <v>23.5121075866215</v>
       </c>
     </row>
     <row r="663">
@@ -17196,7 +17196,7 @@
         </is>
       </c>
       <c r="E663" t="n">
-        <v>36.08706342449849</v>
+        <v>36.40084123849303</v>
       </c>
     </row>
     <row r="664">
@@ -17221,7 +17221,7 @@
         </is>
       </c>
       <c r="E664" t="n">
-        <v>42.38692191153248</v>
+        <v>41.31525867719739</v>
       </c>
     </row>
     <row r="665">
@@ -17246,7 +17246,7 @@
         </is>
       </c>
       <c r="E665" t="n">
-        <v>9.051571175106492</v>
+        <v>14.4949268993138</v>
       </c>
     </row>
     <row r="666">
@@ -17271,7 +17271,7 @@
         </is>
       </c>
       <c r="E666" t="n">
-        <v>39.7117488261342</v>
+        <v>39.28277558715687</v>
       </c>
     </row>
     <row r="667">
@@ -17296,7 +17296,7 @@
         </is>
       </c>
       <c r="E667" t="n">
-        <v>43.26661815090689</v>
+        <v>42.0760874893118</v>
       </c>
     </row>
     <row r="668">
@@ -17321,7 +17321,7 @@
         </is>
       </c>
       <c r="E668" t="n">
-        <v>9.523316421858212</v>
+        <v>14.94516740626497</v>
       </c>
     </row>
     <row r="669">
@@ -17346,7 +17346,7 @@
         </is>
       </c>
       <c r="E669" t="n">
-        <v>54.5794684200865</v>
+        <v>50.75012804693416</v>
       </c>
     </row>
     <row r="670">
@@ -17371,7 +17371,7 @@
         </is>
       </c>
       <c r="E670" t="n">
-        <v>62.51849384832469</v>
+        <v>57.2890874460512</v>
       </c>
     </row>
     <row r="671">
@@ -17396,7 +17396,7 @@
         </is>
       </c>
       <c r="E671" t="n">
-        <v>61.80149638512175</v>
+        <v>56.96537239172736</v>
       </c>
     </row>
     <row r="672">
@@ -17421,7 +17421,7 @@
         </is>
       </c>
       <c r="E672" t="n">
-        <v>68.38116877186133</v>
+        <v>61.60635210646446</v>
       </c>
     </row>
     <row r="673">
@@ -17446,7 +17446,7 @@
         </is>
       </c>
       <c r="E673" t="n">
-        <v>75.75538037075009</v>
+        <v>68.05654322833851</v>
       </c>
     </row>
     <row r="674">
@@ -17471,7 +17471,7 @@
         </is>
       </c>
       <c r="E674" t="n">
-        <v>19.99890700203554</v>
+        <v>22.94700846628836</v>
       </c>
     </row>
     <row r="675">
@@ -17496,7 +17496,7 @@
         </is>
       </c>
       <c r="E675" t="n">
-        <v>64.23478959231105</v>
+        <v>58.32939830591634</v>
       </c>
     </row>
     <row r="676">
@@ -17521,7 +17521,7 @@
         </is>
       </c>
       <c r="E676" t="n">
-        <v>71.54113653915837</v>
+        <v>64.28025286274192</v>
       </c>
     </row>
     <row r="677">
@@ -17546,7 +17546,7 @@
         </is>
       </c>
       <c r="E677" t="n">
-        <v>23.39122561429961</v>
+        <v>25.47048777282887</v>
       </c>
     </row>
     <row r="678">
@@ -17571,7 +17571,7 @@
         </is>
       </c>
       <c r="E678" t="n">
-        <v>29.07668209880138</v>
+        <v>30.07748860429128</v>
       </c>
     </row>
     <row r="679">
@@ -17596,7 +17596,7 @@
         </is>
       </c>
       <c r="E679" t="n">
-        <v>35.39677760194726</v>
+        <v>34.63052890616272</v>
       </c>
     </row>
     <row r="680">
@@ -17621,7 +17621,7 @@
         </is>
       </c>
       <c r="E680" t="n">
-        <v>9.378136652508179</v>
+        <v>14.82031326882584</v>
       </c>
     </row>
     <row r="681">
@@ -17646,7 +17646,7 @@
         </is>
       </c>
       <c r="E681" t="n">
-        <v>41.36408053455953</v>
+        <v>40.54079345559768</v>
       </c>
     </row>
     <row r="682">
@@ -17671,7 +17671,7 @@
         </is>
       </c>
       <c r="E682" t="n">
-        <v>43.62905011539748</v>
+        <v>42.51507527093243</v>
       </c>
     </row>
     <row r="683">
@@ -17696,7 +17696,7 @@
         </is>
       </c>
       <c r="E683" t="n">
-        <v>12.91460795747336</v>
+        <v>17.68910067452384</v>
       </c>
     </row>
     <row r="684">
@@ -17721,7 +17721,7 @@
         </is>
       </c>
       <c r="E684" t="n">
-        <v>56.49332116231937</v>
+        <v>52.53469057257633</v>
       </c>
     </row>
     <row r="685">
@@ -17746,7 +17746,7 @@
         </is>
       </c>
       <c r="E685" t="n">
-        <v>57.86385355852346</v>
+        <v>53.99403495658063</v>
       </c>
     </row>
     <row r="686">
@@ -17771,7 +17771,7 @@
         </is>
       </c>
       <c r="E686" t="n">
-        <v>55.31358740547901</v>
+        <v>52.4373497111491</v>
       </c>
     </row>
     <row r="687">
@@ -17796,7 +17796,7 @@
         </is>
       </c>
       <c r="E687" t="n">
-        <v>56.43889850682292</v>
+        <v>53.21828013129055</v>
       </c>
     </row>
     <row r="688">
@@ -17821,7 +17821,7 @@
         </is>
       </c>
       <c r="E688" t="n">
-        <v>60.00947814376499</v>
+        <v>56.12041976159753</v>
       </c>
     </row>
     <row r="689">
@@ -17846,7 +17846,7 @@
         </is>
       </c>
       <c r="E689" t="n">
-        <v>24.67826239219401</v>
+        <v>32.84726750478199</v>
       </c>
     </row>
     <row r="690">
@@ -17871,7 +17871,7 @@
         </is>
       </c>
       <c r="E690" t="n">
-        <v>43.59605764394647</v>
+        <v>45.20248147617025</v>
       </c>
     </row>
     <row r="691">
@@ -17896,7 +17896,7 @@
         </is>
       </c>
       <c r="E691" t="n">
-        <v>63.71130408194148</v>
+        <v>58.05707944206249</v>
       </c>
     </row>
     <row r="692">
@@ -17921,7 +17921,7 @@
         </is>
       </c>
       <c r="E692" t="n">
-        <v>24.88028207271736</v>
+        <v>27.02028939368888</v>
       </c>
     </row>
     <row r="693">
@@ -17946,7 +17946,7 @@
         </is>
       </c>
       <c r="E693" t="n">
-        <v>36.31811277725001</v>
+        <v>36.48394563323509</v>
       </c>
     </row>
     <row r="694">
@@ -17971,7 +17971,7 @@
         </is>
       </c>
       <c r="E694" t="n">
-        <v>37.2449325147805</v>
+        <v>37.25479879761185</v>
       </c>
     </row>
     <row r="695">
@@ -17996,7 +17996,7 @@
         </is>
       </c>
       <c r="E695" t="n">
-        <v>8.548153760021684</v>
+        <v>14.61329269874696</v>
       </c>
     </row>
     <row r="696">
@@ -18021,7 +18021,7 @@
         </is>
       </c>
       <c r="E696" t="n">
-        <v>34.7892224003668</v>
+        <v>35.29264319358753</v>
       </c>
     </row>
     <row r="697">
@@ -18046,7 +18046,7 @@
         </is>
       </c>
       <c r="E697" t="n">
-        <v>36.6131765733297</v>
+        <v>36.62654471653141</v>
       </c>
     </row>
     <row r="698">
@@ -18071,7 +18071,7 @@
         </is>
       </c>
       <c r="E698" t="n">
-        <v>9.392512404379826</v>
+        <v>15.69448634101995</v>
       </c>
     </row>
     <row r="699">
@@ -18096,7 +18096,7 @@
         </is>
       </c>
       <c r="E699" t="n">
-        <v>48.3777239576227</v>
+        <v>46.38399989401948</v>
       </c>
     </row>
     <row r="700">
@@ -18121,7 +18121,7 @@
         </is>
       </c>
       <c r="E700" t="n">
-        <v>56.57614584992827</v>
+        <v>52.39800739720232</v>
       </c>
     </row>
     <row r="701">
@@ -18146,7 +18146,7 @@
         </is>
       </c>
       <c r="E701" t="n">
-        <v>48.85310284818661</v>
+        <v>46.55441138297317</v>
       </c>
     </row>
     <row r="702">
@@ -18171,7 +18171,7 @@
         </is>
       </c>
       <c r="E702" t="n">
-        <v>50.84747114057183</v>
+        <v>48.0110384457832</v>
       </c>
     </row>
     <row r="703">
@@ -18196,7 +18196,7 @@
         </is>
       </c>
       <c r="E703" t="n">
-        <v>51.850968528487</v>
+        <v>49.62470910499651</v>
       </c>
     </row>
     <row r="704">
@@ -18221,7 +18221,7 @@
         </is>
       </c>
       <c r="E704" t="n">
-        <v>25.39725809611421</v>
+        <v>27.239861180346</v>
       </c>
     </row>
     <row r="705">
@@ -18246,7 +18246,7 @@
         </is>
       </c>
       <c r="E705" t="n">
-        <v>56.49358568303186</v>
+        <v>52.57797057544023</v>
       </c>
     </row>
     <row r="706">
@@ -18271,7 +18271,7 @@
         </is>
       </c>
       <c r="E706" t="n">
-        <v>59.41093511978345</v>
+        <v>54.91632879504125</v>
       </c>
     </row>
     <row r="707">
@@ -18296,7 +18296,7 @@
         </is>
       </c>
       <c r="E707" t="n">
-        <v>26.00813041738443</v>
+        <v>27.79694869148489</v>
       </c>
     </row>
     <row r="708">
@@ -18321,7 +18321,7 @@
         </is>
       </c>
       <c r="E708" t="n">
-        <v>38.7236966956598</v>
+        <v>38.38044044719292</v>
       </c>
     </row>
     <row r="709">
@@ -18346,7 +18346,7 @@
         </is>
       </c>
       <c r="E709" t="n">
-        <v>42.49364731902189</v>
+        <v>41.2907241903135</v>
       </c>
     </row>
     <row r="710">
@@ -18371,7 +18371,7 @@
         </is>
       </c>
       <c r="E710" t="n">
-        <v>9.232005978259416</v>
+        <v>14.7738492260804</v>
       </c>
     </row>
     <row r="711">
@@ -18396,7 +18396,7 @@
         </is>
       </c>
       <c r="E711" t="n">
-        <v>41.52442493174944</v>
+        <v>40.41801037109691</v>
       </c>
     </row>
     <row r="712">
@@ -18421,7 +18421,7 @@
         </is>
       </c>
       <c r="E712" t="n">
-        <v>44.68599643730524</v>
+        <v>42.99658606297701</v>
       </c>
     </row>
     <row r="713">
@@ -18446,7 +18446,7 @@
         </is>
       </c>
       <c r="E713" t="n">
-        <v>9.924239511637388</v>
+        <v>15.89098527870919</v>
       </c>
     </row>
     <row r="714">
@@ -18471,7 +18471,7 @@
         </is>
       </c>
       <c r="E714" t="n">
-        <v>59.44365132731614</v>
+        <v>55.20487668549886</v>
       </c>
     </row>
     <row r="715">
@@ -18496,7 +18496,7 @@
         </is>
       </c>
       <c r="E715" t="n">
-        <v>62.31716895999173</v>
+        <v>57.86610817007885</v>
       </c>
     </row>
     <row r="716">
@@ -18521,7 +18521,7 @@
         </is>
       </c>
       <c r="E716" t="n">
-        <v>68.02461400388694</v>
+        <v>62.18515295890381</v>
       </c>
     </row>
     <row r="717">
@@ -18546,7 +18546,7 @@
         </is>
       </c>
       <c r="E717" t="n">
-        <v>72.52652581581719</v>
+        <v>65.78809501997836</v>
       </c>
     </row>
     <row r="718">
@@ -18571,7 +18571,7 @@
         </is>
       </c>
       <c r="E718" t="n">
-        <v>74.93323890712796</v>
+        <v>67.70209233742879</v>
       </c>
     </row>
     <row r="719">
@@ -18596,7 +18596,7 @@
         </is>
       </c>
       <c r="E719" t="n">
-        <v>25.4773370918637</v>
+        <v>27.2362181105327</v>
       </c>
     </row>
     <row r="720">
@@ -18621,7 +18621,7 @@
         </is>
       </c>
       <c r="E720" t="n">
-        <v>66.3618545314871</v>
+        <v>60.68909337800175</v>
       </c>
     </row>
     <row r="721">
@@ -18646,7 +18646,7 @@
         </is>
       </c>
       <c r="E721" t="n">
-        <v>70.30777323273475</v>
+        <v>63.42025361614746</v>
       </c>
     </row>
     <row r="722">
@@ -18671,7 +18671,7 @@
         </is>
       </c>
       <c r="E722" t="n">
-        <v>24.56769978919931</v>
+        <v>26.77358359233259</v>
       </c>
     </row>
     <row r="723">
@@ -18696,7 +18696,7 @@
         </is>
       </c>
       <c r="E723" t="n">
-        <v>29.00523637484938</v>
+        <v>30.6080858010881</v>
       </c>
     </row>
     <row r="724">
@@ -18721,7 +18721,7 @@
         </is>
       </c>
       <c r="E724" t="n">
-        <v>34.62155800489187</v>
+        <v>35.21396513797244</v>
       </c>
     </row>
     <row r="725">
@@ -18746,7 +18746,7 @@
         </is>
       </c>
       <c r="E725" t="n">
-        <v>14.98809301696305</v>
+        <v>19.27295746057344</v>
       </c>
     </row>
     <row r="726">
@@ -18771,7 +18771,7 @@
         </is>
       </c>
       <c r="E726" t="n">
-        <v>58.48090415597975</v>
+        <v>54.17324821584125</v>
       </c>
     </row>
     <row r="727">
@@ -18796,7 +18796,7 @@
         </is>
       </c>
       <c r="E727" t="n">
-        <v>57.23299542864665</v>
+        <v>53.323306054582</v>
       </c>
     </row>
     <row r="728">
@@ -18821,7 +18821,7 @@
         </is>
       </c>
       <c r="E728" t="n">
-        <v>13.64915759181213</v>
+        <v>18.27809267111265</v>
       </c>
     </row>
     <row r="729">
@@ -18846,7 +18846,7 @@
         </is>
       </c>
       <c r="E729" t="n">
-        <v>59.2908571821885</v>
+        <v>55.03871753136926</v>
       </c>
     </row>
     <row r="730">
@@ -18871,7 +18871,7 @@
         </is>
       </c>
       <c r="E730" t="n">
-        <v>57.26990827480909</v>
+        <v>53.59039133087646</v>
       </c>
     </row>
     <row r="731">
@@ -18896,7 +18896,7 @@
         </is>
       </c>
       <c r="E731" t="n">
-        <v>60.1062905953186</v>
+        <v>56.03810590871144</v>
       </c>
     </row>
     <row r="732">
@@ -18921,7 +18921,7 @@
         </is>
       </c>
       <c r="E732" t="n">
-        <v>61.09165276908011</v>
+        <v>56.75396854083338</v>
       </c>
     </row>
     <row r="733">
@@ -18946,7 +18946,7 @@
         </is>
       </c>
       <c r="E733" t="n">
-        <v>62.68135383128299</v>
+        <v>58.04983840795664</v>
       </c>
     </row>
     <row r="734">
@@ -18971,7 +18971,7 @@
         </is>
       </c>
       <c r="E734" t="n">
-        <v>25.29079500945497</v>
+        <v>39.01099383190494</v>
       </c>
     </row>
     <row r="735">
@@ -18996,7 +18996,7 @@
         </is>
       </c>
       <c r="E735" t="n">
-        <v>40.66743881070865</v>
+        <v>46.55688332788834</v>
       </c>
     </row>
     <row r="736">
@@ -19021,7 +19021,7 @@
         </is>
       </c>
       <c r="E736" t="n">
-        <v>58.84639967518885</v>
+        <v>57.35193375343587</v>
       </c>
     </row>
     <row r="737">
@@ -19046,7 +19046,7 @@
         </is>
       </c>
       <c r="E737" t="n">
-        <v>28.66752124346579</v>
+        <v>29.9796384226333</v>
       </c>
     </row>
     <row r="738">
@@ -19071,7 +19071,7 @@
         </is>
       </c>
       <c r="E738" t="n">
-        <v>36.42781417540288</v>
+        <v>36.58894794529888</v>
       </c>
     </row>
     <row r="739">
@@ -19096,7 +19096,7 @@
         </is>
       </c>
       <c r="E739" t="n">
-        <v>38.14857722633827</v>
+        <v>37.88905791404896</v>
       </c>
     </row>
     <row r="740">
@@ -19121,7 +19121,7 @@
         </is>
       </c>
       <c r="E740" t="n">
-        <v>39.07160399922555</v>
+        <v>38.71126923177349</v>
       </c>
     </row>
     <row r="741">
@@ -19146,7 +19146,7 @@
         </is>
       </c>
       <c r="E741" t="n">
-        <v>52.37223653222988</v>
+        <v>49.47096790039929</v>
       </c>
     </row>
     <row r="742">
@@ -19171,7 +19171,7 @@
         </is>
       </c>
       <c r="E742" t="n">
-        <v>50.48973689538165</v>
+        <v>48.09043032033296</v>
       </c>
     </row>
     <row r="743">
@@ -19196,7 +19196,7 @@
         </is>
       </c>
       <c r="E743" t="n">
-        <v>11.43409523511617</v>
+        <v>16.62130666714451</v>
       </c>
     </row>
     <row r="744">
@@ -19221,7 +19221,7 @@
         </is>
       </c>
       <c r="E744" t="n">
-        <v>51.64803128461344</v>
+        <v>48.98800911462494</v>
       </c>
     </row>
     <row r="745">
@@ -19246,7 +19246,7 @@
         </is>
       </c>
       <c r="E745" t="n">
-        <v>55.20135724248031</v>
+        <v>51.96435933688388</v>
       </c>
     </row>
     <row r="746">
@@ -19271,7 +19271,7 @@
         </is>
       </c>
       <c r="E746" t="n">
-        <v>45.86398074689659</v>
+        <v>44.36759272291214</v>
       </c>
     </row>
     <row r="747">
@@ -19296,7 +19296,7 @@
         </is>
       </c>
       <c r="E747" t="n">
-        <v>51.5786529727682</v>
+        <v>47.92323478375205</v>
       </c>
     </row>
     <row r="748">
@@ -19321,7 +19321,7 @@
         </is>
       </c>
       <c r="E748" t="n">
-        <v>50.5822791213609</v>
+        <v>48.48105500620897</v>
       </c>
     </row>
     <row r="749">
@@ -19346,7 +19346,7 @@
         </is>
       </c>
       <c r="E749" t="n">
-        <v>30.94672580934863</v>
+        <v>32.04183313626894</v>
       </c>
     </row>
     <row r="750">
@@ -19371,7 +19371,7 @@
         </is>
       </c>
       <c r="E750" t="n">
-        <v>54.88074174770931</v>
+        <v>50.78923975486695</v>
       </c>
     </row>
     <row r="751">
@@ -19396,7 +19396,7 @@
         </is>
       </c>
       <c r="E751" t="n">
-        <v>58.34691372259691</v>
+        <v>53.62333659666253</v>
       </c>
     </row>
     <row r="752">
@@ -19421,7 +19421,7 @@
         </is>
       </c>
       <c r="E752" t="n">
-        <v>30.7376193381345</v>
+        <v>31.94341410487891</v>
       </c>
     </row>
     <row r="753">
@@ -19446,7 +19446,7 @@
         </is>
       </c>
       <c r="E753" t="n">
-        <v>38.9985419071369</v>
+        <v>38.43705714505798</v>
       </c>
     </row>
     <row r="754">
@@ -19471,7 +19471,7 @@
         </is>
       </c>
       <c r="E754" t="n">
-        <v>41.98678260635339</v>
+        <v>40.8955288767865</v>
       </c>
     </row>
     <row r="755">
@@ -19496,7 +19496,7 @@
         </is>
       </c>
       <c r="E755" t="n">
-        <v>40.46236454131003</v>
+        <v>39.84512769442632</v>
       </c>
     </row>
     <row r="756">
@@ -19521,7 +19521,7 @@
         </is>
       </c>
       <c r="E756" t="n">
-        <v>58.25153478787205</v>
+        <v>54.31427512520013</v>
       </c>
     </row>
     <row r="757">
@@ -19546,7 +19546,7 @@
         </is>
       </c>
       <c r="E757" t="n">
-        <v>55.48736145861093</v>
+        <v>52.10484918539157</v>
       </c>
     </row>
     <row r="758">
@@ -19571,7 +19571,7 @@
         </is>
       </c>
       <c r="E758" t="n">
-        <v>11.42652996123754</v>
+        <v>16.70143923299124</v>
       </c>
     </row>
     <row r="759">
@@ -19596,7 +19596,7 @@
         </is>
       </c>
       <c r="E759" t="n">
-        <v>61.77109707996115</v>
+        <v>57.20698884311908</v>
       </c>
     </row>
     <row r="760">
@@ -19621,7 +19621,7 @@
         </is>
       </c>
       <c r="E760" t="n">
-        <v>61.28266753429972</v>
+        <v>57.24073133726534</v>
       </c>
     </row>
     <row r="761">
@@ -19646,7 +19646,7 @@
         </is>
       </c>
       <c r="E761" t="n">
-        <v>74.69811141953438</v>
+        <v>67.54067949111617</v>
       </c>
     </row>
     <row r="762">
@@ -19671,7 +19671,7 @@
         </is>
       </c>
       <c r="E762" t="n">
-        <v>73.35834632670594</v>
+        <v>66.42669070358041</v>
       </c>
     </row>
     <row r="763">
@@ -19696,7 +19696,7 @@
         </is>
       </c>
       <c r="E763" t="n">
-        <v>77.11145647176349</v>
+        <v>69.15802489393576</v>
       </c>
     </row>
     <row r="764">
@@ -19721,7 +19721,7 @@
         </is>
       </c>
       <c r="E764" t="n">
-        <v>36.11520405675868</v>
+        <v>36.24891700779749</v>
       </c>
     </row>
     <row r="765">
@@ -19746,7 +19746,7 @@
         </is>
       </c>
       <c r="E765" t="n">
-        <v>69.54937109919757</v>
+        <v>63.17347253269949</v>
       </c>
     </row>
     <row r="766">
@@ -19771,7 +19771,7 @@
         </is>
       </c>
       <c r="E766" t="n">
-        <v>72.5527076086759</v>
+        <v>65.73717796602821</v>
       </c>
     </row>
     <row r="767">
@@ -19796,7 +19796,7 @@
         </is>
       </c>
       <c r="E767" t="n">
-        <v>17.12646394468147</v>
+        <v>20.50994360623301</v>
       </c>
     </row>
     <row r="768">
@@ -19821,7 +19821,7 @@
         </is>
       </c>
       <c r="E768" t="n">
-        <v>30.55409247429163</v>
+        <v>31.66648894416097</v>
       </c>
     </row>
     <row r="769">
@@ -19846,7 +19846,7 @@
         </is>
       </c>
       <c r="E769" t="n">
-        <v>35.27526923524039</v>
+        <v>35.56409788467863</v>
       </c>
     </row>
     <row r="770">
@@ -19871,7 +19871,7 @@
         </is>
       </c>
       <c r="E770" t="n">
-        <v>8.006991177669761</v>
+        <v>14.34683622532076</v>
       </c>
     </row>
     <row r="771">
@@ -19896,7 +19896,7 @@
         </is>
       </c>
       <c r="E771" t="n">
-        <v>25.41503731583449</v>
+        <v>28.01901386031779</v>
       </c>
     </row>
     <row r="772">
@@ -19921,7 +19921,7 @@
         </is>
       </c>
       <c r="E772" t="n">
-        <v>41.51031007978077</v>
+        <v>40.61180262941481</v>
       </c>
     </row>
     <row r="773">
@@ -19946,7 +19946,7 @@
         </is>
       </c>
       <c r="E773" t="n">
-        <v>8.671166300258168</v>
+        <v>14.39896187720566</v>
       </c>
     </row>
     <row r="774">
@@ -19971,7 +19971,7 @@
         </is>
       </c>
       <c r="E774" t="n">
-        <v>51.96247166168803</v>
+        <v>48.81024144712398</v>
       </c>
     </row>
     <row r="775">
@@ -19996,7 +19996,7 @@
         </is>
       </c>
       <c r="E775" t="n">
-        <v>57.817651514235</v>
+        <v>53.89542905707519</v>
       </c>
     </row>
     <row r="776">
@@ -20021,7 +20021,7 @@
         </is>
       </c>
       <c r="E776" t="n">
-        <v>56.62547381386938</v>
+        <v>52.85888452320212</v>
       </c>
     </row>
     <row r="777">
@@ -20046,7 +20046,7 @@
         </is>
       </c>
       <c r="E777" t="n">
-        <v>59.46920677268056</v>
+        <v>54.71350942570271</v>
       </c>
     </row>
     <row r="778">
@@ -20071,7 +20071,7 @@
         </is>
       </c>
       <c r="E778" t="n">
-        <v>64.22060257097196</v>
+        <v>59.08669777332788</v>
       </c>
     </row>
     <row r="779">
@@ -20096,7 +20096,7 @@
         </is>
       </c>
       <c r="E779" t="n">
-        <v>13.46312268812697</v>
+        <v>17.81123482281037</v>
       </c>
     </row>
     <row r="780">
@@ -20121,7 +20121,7 @@
         </is>
       </c>
       <c r="E780" t="n">
-        <v>54.88012065437418</v>
+        <v>50.90175744535706</v>
       </c>
     </row>
     <row r="781">
@@ -20146,7 +20146,7 @@
         </is>
       </c>
       <c r="E781" t="n">
-        <v>58.85087797866977</v>
+        <v>53.53862219260022</v>
       </c>
     </row>
     <row r="782">
@@ -20171,7 +20171,7 @@
         </is>
       </c>
       <c r="E782" t="n">
-        <v>15.18755729974978</v>
+        <v>19.39134693617687</v>
       </c>
     </row>
     <row r="783">
@@ -20196,7 +20196,7 @@
         </is>
       </c>
       <c r="E783" t="n">
-        <v>33.55649901852538</v>
+        <v>34.08872098808045</v>
       </c>
     </row>
     <row r="784">
@@ -20221,7 +20221,7 @@
         </is>
       </c>
       <c r="E784" t="n">
-        <v>35.2411249658391</v>
+        <v>35.56163690541018</v>
       </c>
     </row>
     <row r="785">
@@ -20246,7 +20246,7 @@
         </is>
       </c>
       <c r="E785" t="n">
-        <v>7.185829578946198</v>
+        <v>14.34679997628672</v>
       </c>
     </row>
     <row r="786">
@@ -20271,7 +20271,7 @@
         </is>
       </c>
       <c r="E786" t="n">
-        <v>30.91525861554604</v>
+        <v>32.68695048079032</v>
       </c>
     </row>
     <row r="787">
@@ -20296,7 +20296,7 @@
         </is>
       </c>
       <c r="E787" t="n">
-        <v>33.292565336825</v>
+        <v>34.35759837305557</v>
       </c>
     </row>
     <row r="788">
@@ -20321,7 +20321,7 @@
         </is>
       </c>
       <c r="E788" t="n">
-        <v>8.255830871924704</v>
+        <v>14.58154133472318</v>
       </c>
     </row>
     <row r="789">
@@ -20346,7 +20346,7 @@
         </is>
       </c>
       <c r="E789" t="n">
-        <v>45.19430711957433</v>
+        <v>43.49160268645578</v>
       </c>
     </row>
     <row r="790">
@@ -20371,7 +20371,7 @@
         </is>
       </c>
       <c r="E790" t="n">
-        <v>51.85312319115515</v>
+        <v>49.27361704595143</v>
       </c>
     </row>
     <row r="791">
@@ -20396,7 +20396,7 @@
         </is>
       </c>
       <c r="E791" t="n">
-        <v>42.67248219609344</v>
+        <v>42.30019215086932</v>
       </c>
     </row>
     <row r="792">
@@ -20421,7 +20421,7 @@
         </is>
       </c>
       <c r="E792" t="n">
-        <v>49.93922209935894</v>
+        <v>48.05999406382643</v>
       </c>
     </row>
     <row r="793">
@@ -20446,7 +20446,7 @@
         </is>
       </c>
       <c r="E793" t="n">
-        <v>48.97532150915828</v>
+        <v>46.84977523918078</v>
       </c>
     </row>
     <row r="794">
@@ -20471,7 +20471,7 @@
         </is>
       </c>
       <c r="E794" t="n">
-        <v>11.59243486551659</v>
+        <v>17.1614813291802</v>
       </c>
     </row>
     <row r="795">
@@ -20496,7 +20496,7 @@
         </is>
       </c>
       <c r="E795" t="n">
-        <v>36.10695978887548</v>
+        <v>34.76452626011915</v>
       </c>
     </row>
     <row r="796">
@@ -20521,7 +20521,7 @@
         </is>
       </c>
       <c r="E796" t="n">
-        <v>55.88275096582453</v>
+        <v>52.33565892117681</v>
       </c>
     </row>
     <row r="797">
@@ -20546,7 +20546,7 @@
         </is>
       </c>
       <c r="E797" t="n">
-        <v>15.10969226983924</v>
+        <v>19.30662468084533</v>
       </c>
     </row>
     <row r="798">
@@ -20571,7 +20571,7 @@
         </is>
       </c>
       <c r="E798" t="n">
-        <v>35.14827755745931</v>
+        <v>35.76873099529563</v>
       </c>
     </row>
     <row r="799">
@@ -20596,7 +20596,7 @@
         </is>
       </c>
       <c r="E799" t="n">
-        <v>39.94438648537043</v>
+        <v>39.16655710598062</v>
       </c>
     </row>
     <row r="800">
@@ -20621,7 +20621,7 @@
         </is>
       </c>
       <c r="E800" t="n">
-        <v>7.859061978985913</v>
+        <v>14.3470351322432</v>
       </c>
     </row>
     <row r="801">
@@ -20646,7 +20646,7 @@
         </is>
       </c>
       <c r="E801" t="n">
-        <v>36.63278849595243</v>
+        <v>36.7399100697731</v>
       </c>
     </row>
     <row r="802">
@@ -20671,7 +20671,7 @@
         </is>
       </c>
       <c r="E802" t="n">
-        <v>42.79654656617328</v>
+        <v>41.67037291996395</v>
       </c>
     </row>
     <row r="803">
@@ -20696,7 +20696,7 @@
         </is>
       </c>
       <c r="E803" t="n">
-        <v>8.221363981187906</v>
+        <v>14.54360161217727</v>
       </c>
     </row>
     <row r="804">
@@ -20721,7 +20721,7 @@
         </is>
       </c>
       <c r="E804" t="n">
-        <v>51.62461543352022</v>
+        <v>48.80155340249357</v>
       </c>
     </row>
     <row r="805">
@@ -20746,7 +20746,7 @@
         </is>
       </c>
       <c r="E805" t="n">
-        <v>59.56146959320989</v>
+        <v>55.42347404021622</v>
       </c>
     </row>
     <row r="806">
@@ -20771,7 +20771,7 @@
         </is>
       </c>
       <c r="E806" t="n">
-        <v>60.04310935180359</v>
+        <v>55.77607805468921</v>
       </c>
     </row>
     <row r="807">
@@ -20796,7 +20796,7 @@
         </is>
       </c>
       <c r="E807" t="n">
-        <v>66.44287017516372</v>
+        <v>60.67746543616983</v>
       </c>
     </row>
     <row r="808">
@@ -20821,7 +20821,7 @@
         </is>
       </c>
       <c r="E808" t="n">
-        <v>74.06257754327333</v>
+        <v>67.14764464790927</v>
       </c>
     </row>
     <row r="809">
@@ -20846,7 +20846,7 @@
         </is>
       </c>
       <c r="E809" t="n">
-        <v>8.558043813724456</v>
+        <v>14.7878961855024</v>
       </c>
     </row>
     <row r="810">
@@ -20871,7 +20871,7 @@
         </is>
       </c>
       <c r="E810" t="n">
-        <v>62.33219807907155</v>
+        <v>57.01134893479797</v>
       </c>
     </row>
     <row r="811">
@@ -20896,7 +20896,7 @@
         </is>
       </c>
       <c r="E811" t="n">
-        <v>70.73412741577134</v>
+        <v>63.85590313135775</v>
       </c>
     </row>
     <row r="812">
@@ -20921,7 +20921,7 @@
         </is>
       </c>
       <c r="E812" t="n">
-        <v>17.63631701633206</v>
+        <v>21.87227181361221</v>
       </c>
     </row>
     <row r="813">
@@ -20946,7 +20946,7 @@
         </is>
       </c>
       <c r="E813" t="n">
-        <v>19.71527866901388</v>
+        <v>23.6111939939218</v>
       </c>
     </row>
     <row r="814">
@@ -20971,7 +20971,7 @@
         </is>
       </c>
       <c r="E814" t="n">
-        <v>19.06652988236285</v>
+        <v>22.99294165886803</v>
       </c>
     </row>
     <row r="815">
@@ -20996,7 +20996,7 @@
         </is>
       </c>
       <c r="E815" t="n">
-        <v>9.932970108319438</v>
+        <v>15.43681561531021</v>
       </c>
     </row>
     <row r="816">
@@ -21021,7 +21021,7 @@
         </is>
       </c>
       <c r="E816" t="n">
-        <v>20.2148193784097</v>
+        <v>24.05045855564242</v>
       </c>
     </row>
     <row r="817">
@@ -21046,7 +21046,7 @@
         </is>
       </c>
       <c r="E817" t="n">
-        <v>21.3372868868992</v>
+        <v>24.39765530434832</v>
       </c>
     </row>
     <row r="818">
@@ -21071,7 +21071,7 @@
         </is>
       </c>
       <c r="E818" t="n">
-        <v>13.04027751985545</v>
+        <v>17.92802765954252</v>
       </c>
     </row>
     <row r="819">
@@ -21096,7 +21096,7 @@
         </is>
       </c>
       <c r="E819" t="n">
-        <v>26.66791945168533</v>
+        <v>28.71371183851006</v>
       </c>
     </row>
     <row r="820">
@@ -21121,7 +21121,7 @@
         </is>
       </c>
       <c r="E820" t="n">
-        <v>29.36327548503802</v>
+        <v>31.08792415463487</v>
       </c>
     </row>
     <row r="821">
@@ -21146,7 +21146,7 @@
         </is>
       </c>
       <c r="E821" t="n">
-        <v>26.81484834264566</v>
+        <v>29.50654870087705</v>
       </c>
     </row>
     <row r="822">
@@ -21171,7 +21171,7 @@
         </is>
       </c>
       <c r="E822" t="n">
-        <v>30.11499307933055</v>
+        <v>32.21582436751177</v>
       </c>
     </row>
     <row r="823">
@@ -21196,7 +21196,7 @@
         </is>
       </c>
       <c r="E823" t="n">
-        <v>33.65804756080338</v>
+        <v>34.36363472794586</v>
       </c>
     </row>
     <row r="824">
@@ -21221,7 +21221,7 @@
         </is>
       </c>
       <c r="E824" t="n">
-        <v>20.99812198500648</v>
+        <v>24.47054397174177</v>
       </c>
     </row>
     <row r="825">
@@ -21246,7 +21246,7 @@
         </is>
       </c>
       <c r="E825" t="n">
-        <v>24.16642853702918</v>
+        <v>27.1677817115522</v>
       </c>
     </row>
     <row r="826">
@@ -21271,7 +21271,7 @@
         </is>
       </c>
       <c r="E826" t="n">
-        <v>26.01624565526626</v>
+        <v>28.04968298092044</v>
       </c>
     </row>
     <row r="827">
@@ -21296,7 +21296,7 @@
         </is>
       </c>
       <c r="E827" t="n">
-        <v>13.98747658967365</v>
+        <v>18.40935970406962</v>
       </c>
     </row>
     <row r="828">
@@ -21321,7 +21321,7 @@
         </is>
       </c>
       <c r="E828" t="n">
-        <v>28.77396800898307</v>
+        <v>30.207994673559</v>
       </c>
     </row>
     <row r="829">
@@ -21346,7 +21346,7 @@
         </is>
       </c>
       <c r="E829" t="n">
-        <v>35.1976751259314</v>
+        <v>35.28926689062722</v>
       </c>
     </row>
     <row r="830">
@@ -21371,7 +21371,7 @@
         </is>
       </c>
       <c r="E830" t="n">
-        <v>9.078863346951234</v>
+        <v>14.46997158409439</v>
       </c>
     </row>
     <row r="831">
@@ -21396,7 +21396,7 @@
         </is>
       </c>
       <c r="E831" t="n">
-        <v>29.33065292244395</v>
+        <v>30.39882601209501</v>
       </c>
     </row>
     <row r="832">
@@ -21421,7 +21421,7 @@
         </is>
       </c>
       <c r="E832" t="n">
-        <v>37.82531668077347</v>
+        <v>37.52229149639411</v>
       </c>
     </row>
     <row r="833">
@@ -21446,7 +21446,7 @@
         </is>
       </c>
       <c r="E833" t="n">
-        <v>9.611066101588662</v>
+        <v>14.95084339271581</v>
       </c>
     </row>
     <row r="834">
@@ -21471,7 +21471,7 @@
         </is>
       </c>
       <c r="E834" t="n">
-        <v>41.8691473144145</v>
+        <v>40.33408468346317</v>
       </c>
     </row>
     <row r="835">
@@ -21496,7 +21496,7 @@
         </is>
       </c>
       <c r="E835" t="n">
-        <v>54.83678384965145</v>
+        <v>50.62914733836146</v>
       </c>
     </row>
     <row r="836">
@@ -21521,7 +21521,7 @@
         </is>
       </c>
       <c r="E836" t="n">
-        <v>40.27997758669652</v>
+        <v>39.32381241415437</v>
       </c>
     </row>
     <row r="837">
@@ -21546,7 +21546,7 @@
         </is>
       </c>
       <c r="E837" t="n">
-        <v>45.88455115074664</v>
+        <v>43.9840332093986</v>
       </c>
     </row>
     <row r="838">
@@ -21571,7 +21571,7 @@
         </is>
       </c>
       <c r="E838" t="n">
-        <v>51.58464018969827</v>
+        <v>48.90419549412326</v>
       </c>
     </row>
     <row r="839">
@@ -21596,7 +21596,7 @@
         </is>
       </c>
       <c r="E839" t="n">
-        <v>13.18046967893433</v>
+        <v>17.62409632840583</v>
       </c>
     </row>
     <row r="840">
@@ -21621,7 +21621,7 @@
         </is>
       </c>
       <c r="E840" t="n">
-        <v>44.40500737253393</v>
+        <v>42.938336755157</v>
       </c>
     </row>
     <row r="841">
@@ -21646,7 +21646,7 @@
         </is>
       </c>
       <c r="E841" t="n">
-        <v>53.57858566092997</v>
+        <v>50.32119844774078</v>
       </c>
     </row>
     <row r="842">
@@ -21671,7 +21671,7 @@
         </is>
       </c>
       <c r="E842" t="n">
-        <v>19.40741791337055</v>
+        <v>22.73229877595483</v>
       </c>
     </row>
     <row r="843">
@@ -21696,7 +21696,7 @@
         </is>
       </c>
       <c r="E843" t="n">
-        <v>35.85347540408292</v>
+        <v>35.92289395049982</v>
       </c>
     </row>
     <row r="844">
@@ -21721,7 +21721,7 @@
         </is>
       </c>
       <c r="E844" t="n">
-        <v>43.42152932344733</v>
+        <v>42.14113483593366</v>
       </c>
     </row>
     <row r="845">
@@ -21746,7 +21746,7 @@
         </is>
       </c>
       <c r="E845" t="n">
-        <v>10.28225979587475</v>
+        <v>15.46988727455387</v>
       </c>
     </row>
     <row r="846">
@@ -21771,7 +21771,7 @@
         </is>
       </c>
       <c r="E846" t="n">
-        <v>37.02811446226889</v>
+        <v>37.06917137745874</v>
       </c>
     </row>
     <row r="847">
@@ -21796,7 +21796,7 @@
         </is>
       </c>
       <c r="E847" t="n">
-        <v>45.35950883197611</v>
+        <v>43.27037225084668</v>
       </c>
     </row>
     <row r="848">
@@ -21821,7 +21821,7 @@
         </is>
       </c>
       <c r="E848" t="n">
-        <v>13.93363087621202</v>
+        <v>18.4674372040542</v>
       </c>
     </row>
     <row r="849">
@@ -21846,7 +21846,7 @@
         </is>
       </c>
       <c r="E849" t="n">
-        <v>50.97288596877147</v>
+        <v>48.13494965939496</v>
       </c>
     </row>
     <row r="850">
@@ -21871,7 +21871,7 @@
         </is>
       </c>
       <c r="E850" t="n">
-        <v>64.18331263247671</v>
+        <v>58.22152034768766</v>
       </c>
     </row>
     <row r="851">
@@ -21896,7 +21896,7 @@
         </is>
       </c>
       <c r="E851" t="n">
-        <v>52.14251794581225</v>
+        <v>49.26357418778895</v>
       </c>
     </row>
     <row r="852">
@@ -21921,7 +21921,7 @@
         </is>
       </c>
       <c r="E852" t="n">
-        <v>55.81106913739817</v>
+        <v>52.30634500972755</v>
       </c>
     </row>
     <row r="853">
@@ -21946,7 +21946,7 @@
         </is>
       </c>
       <c r="E853" t="n">
-        <v>73.07185415578951</v>
+        <v>65.34305755321961</v>
       </c>
     </row>
     <row r="854">
@@ -21971,7 +21971,7 @@
         </is>
       </c>
       <c r="E854" t="n">
-        <v>23.98067998930488</v>
+        <v>25.93582323339339</v>
       </c>
     </row>
     <row r="855">
@@ -21996,7 +21996,7 @@
         </is>
       </c>
       <c r="E855" t="n">
-        <v>51.40363436996041</v>
+        <v>48.48352462530568</v>
       </c>
     </row>
     <row r="856">
@@ -22021,7 +22021,7 @@
         </is>
       </c>
       <c r="E856" t="n">
-        <v>68.05069175100088</v>
+        <v>61.70361933218533</v>
       </c>
     </row>
     <row r="857">
@@ -22046,7 +22046,7 @@
         </is>
       </c>
       <c r="E857" t="n">
-        <v>17.39930815070434</v>
+        <v>21.44494869163206</v>
       </c>
     </row>
     <row r="858">
@@ -22071,7 +22071,7 @@
         </is>
       </c>
       <c r="E858" t="n">
-        <v>19.91183171047563</v>
+        <v>23.75256832560743</v>
       </c>
     </row>
     <row r="859">
@@ -22096,7 +22096,7 @@
         </is>
       </c>
       <c r="E859" t="n">
-        <v>21.57768298603479</v>
+        <v>25.14272526037002</v>
       </c>
     </row>
     <row r="860">
@@ -22121,7 +22121,7 @@
         </is>
       </c>
       <c r="E860" t="n">
-        <v>8.314347256830214</v>
+        <v>14.58059432443448</v>
       </c>
     </row>
     <row r="861">
@@ -22146,7 +22146,7 @@
         </is>
       </c>
       <c r="E861" t="n">
-        <v>23.93673027316746</v>
+        <v>24.92165994971955</v>
       </c>
     </row>
     <row r="862">
@@ -22171,7 +22171,7 @@
         </is>
       </c>
       <c r="E862" t="n">
-        <v>25.34235466018659</v>
+        <v>26.65409030857342</v>
       </c>
     </row>
     <row r="863">
@@ -22196,7 +22196,7 @@
         </is>
       </c>
       <c r="E863" t="n">
-        <v>11.05034238243583</v>
+        <v>16.68220619162309</v>
       </c>
     </row>
     <row r="864">
@@ -22221,7 +22221,7 @@
         </is>
       </c>
       <c r="E864" t="n">
-        <v>34.68238685670896</v>
+        <v>31.8412424077219</v>
       </c>
     </row>
     <row r="865">
@@ -22246,7 +22246,7 @@
         </is>
       </c>
       <c r="E865" t="n">
-        <v>34.35707842257473</v>
+        <v>34.07799582524282</v>
       </c>
     </row>
     <row r="866">
@@ -22271,7 +22271,7 @@
         </is>
       </c>
       <c r="E866" t="n">
-        <v>36.61153142165536</v>
+        <v>36.94392332686628</v>
       </c>
     </row>
     <row r="867">
@@ -22296,7 +22296,7 @@
         </is>
       </c>
       <c r="E867" t="n">
-        <v>41.58368968318322</v>
+        <v>42.34516292247842</v>
       </c>
     </row>
     <row r="868">
@@ -22321,7 +22321,7 @@
         </is>
       </c>
       <c r="E868" t="n">
-        <v>45.42092382563662</v>
+        <v>46.17466229990026</v>
       </c>
     </row>
     <row r="869">
@@ -22346,7 +22346,7 @@
         </is>
       </c>
       <c r="E869" t="n">
-        <v>19.69693311427054</v>
+        <v>23.08241400606528</v>
       </c>
     </row>
     <row r="870">
@@ -22371,7 +22371,7 @@
         </is>
       </c>
       <c r="E870" t="n">
-        <v>42.2592803947692</v>
+        <v>33.74010116503773</v>
       </c>
     </row>
     <row r="871">
@@ -22396,7 +22396,7 @@
         </is>
       </c>
       <c r="E871" t="n">
-        <v>44.80108737596139</v>
+        <v>35.5592935935252</v>
       </c>
     </row>
     <row r="872">
@@ -22421,7 +22421,7 @@
         </is>
       </c>
       <c r="E872" t="n">
-        <v>10.3764525576024</v>
+        <v>15.76247406908505</v>
       </c>
     </row>
     <row r="873">
@@ -22446,7 +22446,7 @@
         </is>
       </c>
       <c r="E873" t="n">
-        <v>20.430739101901</v>
+        <v>23.00163417962699</v>
       </c>
     </row>
     <row r="874">
@@ -22471,7 +22471,7 @@
         </is>
       </c>
       <c r="E874" t="n">
-        <v>34.68404125739751</v>
+        <v>35.01726317706493</v>
       </c>
     </row>
     <row r="875">
@@ -22496,7 +22496,7 @@
         </is>
       </c>
       <c r="E875" t="n">
-        <v>8.510344933857887</v>
+        <v>14.34695726278704</v>
       </c>
     </row>
     <row r="876">
@@ -22521,7 +22521,7 @@
         </is>
       </c>
       <c r="E876" t="n">
-        <v>16.27609210545413</v>
+        <v>20.65373842101415</v>
       </c>
     </row>
     <row r="877">
@@ -22546,7 +22546,7 @@
         </is>
       </c>
       <c r="E877" t="n">
-        <v>49.59678064049173</v>
+        <v>47.02678240969885</v>
       </c>
     </row>
     <row r="878">
@@ -22571,7 +22571,7 @@
         </is>
       </c>
       <c r="E878" t="n">
-        <v>7.834038379103731</v>
+        <v>14.16772438178277</v>
       </c>
     </row>
     <row r="879">
@@ -22596,7 +22596,7 @@
         </is>
       </c>
       <c r="E879" t="n">
-        <v>27.64821223873154</v>
+        <v>30.01063499221756</v>
       </c>
     </row>
     <row r="880">
@@ -22621,7 +22621,7 @@
         </is>
       </c>
       <c r="E880" t="n">
-        <v>51.38191220424935</v>
+        <v>48.95590766688033</v>
       </c>
     </row>
     <row r="881">
@@ -22646,7 +22646,7 @@
         </is>
       </c>
       <c r="E881" t="n">
-        <v>29.4354055110291</v>
+        <v>31.59661061871437</v>
       </c>
     </row>
     <row r="882">
@@ -22671,7 +22671,7 @@
         </is>
       </c>
       <c r="E882" t="n">
-        <v>40.21730309181722</v>
+        <v>39.50338270858195</v>
       </c>
     </row>
     <row r="883">
@@ -22696,7 +22696,7 @@
         </is>
       </c>
       <c r="E883" t="n">
-        <v>52.14919344349875</v>
+        <v>49.81814925604298</v>
       </c>
     </row>
     <row r="884">
@@ -22721,7 +22721,7 @@
         </is>
       </c>
       <c r="E884" t="n">
-        <v>10.38577330677163</v>
+        <v>15.61244439252237</v>
       </c>
     </row>
     <row r="885">
@@ -22746,7 +22746,7 @@
         </is>
       </c>
       <c r="E885" t="n">
-        <v>41.90463888093495</v>
+        <v>41.23549658930737</v>
       </c>
     </row>
     <row r="886">
@@ -22771,7 +22771,7 @@
         </is>
       </c>
       <c r="E886" t="n">
-        <v>53.48409806317221</v>
+        <v>50.33131554175169</v>
       </c>
     </row>
     <row r="887">
@@ -22796,7 +22796,7 @@
         </is>
       </c>
       <c r="E887" t="n">
-        <v>17.65694924344838</v>
+        <v>21.43068271925177</v>
       </c>
     </row>
     <row r="888">
@@ -22821,7 +22821,7 @@
         </is>
       </c>
       <c r="E888" t="n">
-        <v>30.30942883199814</v>
+        <v>31.87785542177146</v>
       </c>
     </row>
     <row r="889">
@@ -22846,7 +22846,7 @@
         </is>
       </c>
       <c r="E889" t="n">
-        <v>38.64386981473432</v>
+        <v>38.14027733490324</v>
       </c>
     </row>
     <row r="890">
@@ -22871,7 +22871,7 @@
         </is>
       </c>
       <c r="E890" t="n">
-        <v>9.10208183053361</v>
+        <v>14.61102543606199</v>
       </c>
     </row>
     <row r="891">
@@ -22896,7 +22896,7 @@
         </is>
       </c>
       <c r="E891" t="n">
-        <v>22.21194233145209</v>
+        <v>22.25457744788885</v>
       </c>
     </row>
     <row r="892">
@@ -22921,7 +22921,7 @@
         </is>
       </c>
       <c r="E892" t="n">
-        <v>41.81827665180217</v>
+        <v>41.66366425381665</v>
       </c>
     </row>
     <row r="893">
@@ -22946,7 +22946,7 @@
         </is>
       </c>
       <c r="E893" t="n">
-        <v>8.877894972387029</v>
+        <v>14.63445342861738</v>
       </c>
     </row>
     <row r="894">
@@ -22971,7 +22971,7 @@
         </is>
       </c>
       <c r="E894" t="n">
-        <v>35.76802428782683</v>
+        <v>36.61421135264531</v>
       </c>
     </row>
     <row r="895">
@@ -22996,7 +22996,7 @@
         </is>
       </c>
       <c r="E895" t="n">
-        <v>58.74256571315017</v>
+        <v>54.91150669761203</v>
       </c>
     </row>
     <row r="896">
@@ -23021,7 +23021,7 @@
         </is>
       </c>
       <c r="E896" t="n">
-        <v>53.5727830513483</v>
+        <v>49.18185990582383</v>
       </c>
     </row>
     <row r="897">
@@ -23046,7 +23046,7 @@
         </is>
       </c>
       <c r="E897" t="n">
-        <v>54.63875267640532</v>
+        <v>51.47983744931023</v>
       </c>
     </row>
     <row r="898">
@@ -23071,7 +23071,7 @@
         </is>
       </c>
       <c r="E898" t="n">
-        <v>71.74248648996196</v>
+        <v>65.09949414205113</v>
       </c>
     </row>
     <row r="899">
@@ -23096,7 +23096,7 @@
         </is>
       </c>
       <c r="E899" t="n">
-        <v>13.9892329300643</v>
+        <v>18.94635355522353</v>
       </c>
     </row>
     <row r="900">
@@ -23121,7 +23121,7 @@
         </is>
       </c>
       <c r="E900" t="n">
-        <v>40.97150074493574</v>
+        <v>40.47812537104978</v>
       </c>
     </row>
     <row r="901">
@@ -23146,7 +23146,7 @@
         </is>
       </c>
       <c r="E901" t="n">
-        <v>65.18805640539078</v>
+        <v>59.91385815263179</v>
       </c>
     </row>
     <row r="902">
@@ -23171,7 +23171,7 @@
         </is>
       </c>
       <c r="E902" t="n">
-        <v>24.02558313317253</v>
+        <v>26.27988508027533</v>
       </c>
     </row>
     <row r="903">
@@ -23196,7 +23196,7 @@
         </is>
       </c>
       <c r="E903" t="n">
-        <v>30.17885647530732</v>
+        <v>30.76464109690925</v>
       </c>
     </row>
     <row r="904">
@@ -23221,7 +23221,7 @@
         </is>
       </c>
       <c r="E904" t="n">
-        <v>34.47174082975785</v>
+        <v>34.20600385642459</v>
       </c>
     </row>
     <row r="905">
@@ -23246,7 +23246,7 @@
         </is>
       </c>
       <c r="E905" t="n">
-        <v>9.94374527518552</v>
+        <v>15.25805547176749</v>
       </c>
     </row>
     <row r="906">
@@ -23271,7 +23271,7 @@
         </is>
       </c>
       <c r="E906" t="n">
-        <v>45.0505882857682</v>
+        <v>43.06553665858672</v>
       </c>
     </row>
     <row r="907">
@@ -23296,7 +23296,7 @@
         </is>
       </c>
       <c r="E907" t="n">
-        <v>43.55291366390747</v>
+        <v>42.16068079557088</v>
       </c>
     </row>
     <row r="908">
@@ -23321,7 +23321,7 @@
         </is>
       </c>
       <c r="E908" t="n">
-        <v>14.62166596012951</v>
+        <v>19.09514105807098</v>
       </c>
     </row>
     <row r="909">
@@ -23346,7 +23346,7 @@
         </is>
       </c>
       <c r="E909" t="n">
-        <v>59.35824786343315</v>
+        <v>54.373515067037</v>
       </c>
     </row>
     <row r="910">
@@ -23371,7 +23371,7 @@
         </is>
       </c>
       <c r="E910" t="n">
-        <v>57.8454632179569</v>
+        <v>53.71241819974491</v>
       </c>
     </row>
     <row r="911">
@@ -23396,7 +23396,7 @@
         </is>
       </c>
       <c r="E911" t="n">
-        <v>54.87567436165737</v>
+        <v>52.0614123351044</v>
       </c>
     </row>
     <row r="912">
@@ -23421,7 +23421,7 @@
         </is>
       </c>
       <c r="E912" t="n">
-        <v>59.92758126347501</v>
+        <v>55.81152599520063</v>
       </c>
     </row>
     <row r="913">
@@ -23446,7 +23446,7 @@
         </is>
       </c>
       <c r="E913" t="n">
-        <v>62.97378594659411</v>
+        <v>58.35188897070679</v>
       </c>
     </row>
     <row r="914">
@@ -23471,7 +23471,7 @@
         </is>
       </c>
       <c r="E914" t="n">
-        <v>33.17610439258256</v>
+        <v>33.76362455782005</v>
       </c>
     </row>
     <row r="915">
@@ -23496,7 +23496,7 @@
         </is>
       </c>
       <c r="E915" t="n">
-        <v>43.11359153933442</v>
+        <v>43.25788248316911</v>
       </c>
     </row>
     <row r="916">
@@ -23521,7 +23521,7 @@
         </is>
       </c>
       <c r="E916" t="n">
-        <v>64.01942012196861</v>
+        <v>58.42023824021936</v>
       </c>
     </row>
     <row r="917">
@@ -23546,7 +23546,7 @@
         </is>
       </c>
       <c r="E917" t="n">
-        <v>28.67726176658526</v>
+        <v>30.25674903403978</v>
       </c>
     </row>
     <row r="918">
@@ -23571,7 +23571,7 @@
         </is>
       </c>
       <c r="E918" t="n">
-        <v>36.55530385235667</v>
+        <v>36.56310829913519</v>
       </c>
     </row>
     <row r="919">
@@ -23596,7 +23596,7 @@
         </is>
       </c>
       <c r="E919" t="n">
-        <v>37.21741904741811</v>
+        <v>37.10624705311994</v>
       </c>
     </row>
     <row r="920">
@@ -23621,7 +23621,7 @@
         </is>
       </c>
       <c r="E920" t="n">
-        <v>9.504489907160082</v>
+        <v>14.95486016688836</v>
       </c>
     </row>
     <row r="921">
@@ -23646,7 +23646,7 @@
         </is>
       </c>
       <c r="E921" t="n">
-        <v>37.66039726496818</v>
+        <v>37.33460829924353</v>
       </c>
     </row>
     <row r="922">
@@ -23671,7 +23671,7 @@
         </is>
       </c>
       <c r="E922" t="n">
-        <v>36.95164710037015</v>
+        <v>36.80379387155904</v>
       </c>
     </row>
     <row r="923">
@@ -23696,7 +23696,7 @@
         </is>
       </c>
       <c r="E923" t="n">
-        <v>10.35350902285569</v>
+        <v>15.70633252808371</v>
       </c>
     </row>
     <row r="924">
@@ -23721,7 +23721,7 @@
         </is>
       </c>
       <c r="E924" t="n">
-        <v>52.57404544968711</v>
+        <v>48.87709172090501</v>
       </c>
     </row>
     <row r="925">
@@ -23746,7 +23746,7 @@
         </is>
       </c>
       <c r="E925" t="n">
-        <v>53.32052467974061</v>
+        <v>50.39868141685759</v>
       </c>
     </row>
     <row r="926">
@@ -23771,7 +23771,7 @@
         </is>
       </c>
       <c r="E926" t="n">
-        <v>50.31966149770908</v>
+        <v>47.50487249405667</v>
       </c>
     </row>
     <row r="927">
@@ -23796,7 +23796,7 @@
         </is>
       </c>
       <c r="E927" t="n">
-        <v>52.2309305060452</v>
+        <v>49.52530134090991</v>
       </c>
     </row>
     <row r="928">
@@ -23821,7 +23821,7 @@
         </is>
       </c>
       <c r="E928" t="n">
-        <v>53.99975925715877</v>
+        <v>50.57177347198706</v>
       </c>
     </row>
     <row r="929">
@@ -23846,7 +23846,7 @@
         </is>
       </c>
       <c r="E929" t="n">
-        <v>29.01188303518835</v>
+        <v>30.48373011034526</v>
       </c>
     </row>
     <row r="930">
@@ -23871,7 +23871,7 @@
         </is>
       </c>
       <c r="E930" t="n">
-        <v>54.90248020103578</v>
+        <v>51.36566269172539</v>
       </c>
     </row>
     <row r="931">
@@ -23896,7 +23896,7 @@
         </is>
       </c>
       <c r="E931" t="n">
-        <v>55.56491430079664</v>
+        <v>52.08460776468092</v>
       </c>
     </row>
     <row r="932">
@@ -23921,7 +23921,7 @@
         </is>
       </c>
       <c r="E932" t="n">
-        <v>27.39433825566958</v>
+        <v>29.21619478131738</v>
       </c>
     </row>
     <row r="933">
@@ -23946,7 +23946,7 @@
         </is>
       </c>
       <c r="E933" t="n">
-        <v>37.69293694734334</v>
+        <v>37.64457253856692</v>
       </c>
     </row>
     <row r="934">
@@ -23971,7 +23971,7 @@
         </is>
       </c>
       <c r="E934" t="n">
-        <v>40.62595951446794</v>
+        <v>39.90633838427605</v>
       </c>
     </row>
     <row r="935">
@@ -23996,7 +23996,7 @@
         </is>
       </c>
       <c r="E935" t="n">
-        <v>9.908590746523807</v>
+        <v>15.26608029052672</v>
       </c>
     </row>
     <row r="936">
@@ -24021,7 +24021,7 @@
         </is>
       </c>
       <c r="E936" t="n">
-        <v>44.03823672452007</v>
+        <v>42.38169624688263</v>
       </c>
     </row>
     <row r="937">
@@ -24046,7 +24046,7 @@
         </is>
       </c>
       <c r="E937" t="n">
-        <v>42.42248647145826</v>
+        <v>41.46347446588889</v>
       </c>
     </row>
     <row r="938">
@@ -24071,7 +24071,7 @@
         </is>
       </c>
       <c r="E938" t="n">
-        <v>10.31992533883582</v>
+        <v>15.67791900210353</v>
       </c>
     </row>
     <row r="939">
@@ -24096,7 +24096,7 @@
         </is>
       </c>
       <c r="E939" t="n">
-        <v>62.48271088178303</v>
+        <v>56.93676499749097</v>
       </c>
     </row>
     <row r="940">
@@ -24121,7 +24121,7 @@
         </is>
       </c>
       <c r="E940" t="n">
-        <v>63.64332164271816</v>
+        <v>58.74557687075569</v>
       </c>
     </row>
     <row r="941">
@@ -24146,7 +24146,7 @@
         </is>
       </c>
       <c r="E941" t="n">
-        <v>69.93568239380673</v>
+        <v>63.53049531513427</v>
       </c>
     </row>
     <row r="942">
@@ -24171,7 +24171,7 @@
         </is>
       </c>
       <c r="E942" t="n">
-        <v>70.35981168362946</v>
+        <v>64.03182300390252</v>
       </c>
     </row>
     <row r="943">
@@ -24196,7 +24196,7 @@
         </is>
       </c>
       <c r="E943" t="n">
-        <v>70.8966456577806</v>
+        <v>64.01716999783321</v>
       </c>
     </row>
     <row r="944">
@@ -24221,7 +24221,7 @@
         </is>
       </c>
       <c r="E944" t="n">
-        <v>31.17418330533938</v>
+        <v>32.02949557914111</v>
       </c>
     </row>
     <row r="945">
@@ -24246,7 +24246,7 @@
         </is>
       </c>
       <c r="E945" t="n">
-        <v>63.78008293787845</v>
+        <v>57.66280782092849</v>
       </c>
     </row>
     <row r="946">
@@ -24271,7 +24271,7 @@
         </is>
       </c>
       <c r="E946" t="n">
-        <v>68.2501137443852</v>
+        <v>61.68536765136868</v>
       </c>
     </row>
     <row r="947">
@@ -24296,7 +24296,7 @@
         </is>
       </c>
       <c r="E947" t="n">
-        <v>16.71146890305076</v>
+        <v>20.43998459415287</v>
       </c>
     </row>
     <row r="948">
@@ -24321,7 +24321,7 @@
         </is>
       </c>
       <c r="E948" t="n">
-        <v>32.45117209345665</v>
+        <v>33.3532990869141</v>
       </c>
     </row>
     <row r="949">
@@ -24346,7 +24346,7 @@
         </is>
       </c>
       <c r="E949" t="n">
-        <v>33.85688968460175</v>
+        <v>34.45534004423451</v>
       </c>
     </row>
     <row r="950">
@@ -24371,7 +24371,7 @@
         </is>
       </c>
       <c r="E950" t="n">
-        <v>8.944587299155387</v>
+        <v>14.49181028492163</v>
       </c>
     </row>
     <row r="951">
@@ -24396,7 +24396,7 @@
         </is>
       </c>
       <c r="E951" t="n">
-        <v>36.09256761331515</v>
+        <v>36.84312707085117</v>
       </c>
     </row>
     <row r="952">
@@ -24421,7 +24421,7 @@
         </is>
       </c>
       <c r="E952" t="n">
-        <v>41.39129328723254</v>
+        <v>40.30061224892471</v>
       </c>
     </row>
     <row r="953">
@@ -24446,7 +24446,7 @@
         </is>
       </c>
       <c r="E953" t="n">
-        <v>8.817920350199298</v>
+        <v>14.44018486482553</v>
       </c>
     </row>
     <row r="954">
@@ -24471,7 +24471,7 @@
         </is>
       </c>
       <c r="E954" t="n">
-        <v>52.10038916743056</v>
+        <v>48.69217806029582</v>
       </c>
     </row>
     <row r="955">
@@ -24496,7 +24496,7 @@
         </is>
       </c>
       <c r="E955" t="n">
-        <v>55.66910559601925</v>
+        <v>52.22113303207479</v>
       </c>
     </row>
     <row r="956">
@@ -24521,7 +24521,7 @@
         </is>
       </c>
       <c r="E956" t="n">
-        <v>53.76045673429734</v>
+        <v>49.78455001589509</v>
       </c>
     </row>
     <row r="957">
@@ -24546,7 +24546,7 @@
         </is>
       </c>
       <c r="E957" t="n">
-        <v>60.98704854683344</v>
+        <v>56.45119624204186</v>
       </c>
     </row>
     <row r="958">
@@ -24571,7 +24571,7 @@
         </is>
       </c>
       <c r="E958" t="n">
-        <v>59.7253655266629</v>
+        <v>55.55378363296568</v>
       </c>
     </row>
     <row r="959">
@@ -24596,7 +24596,7 @@
         </is>
       </c>
       <c r="E959" t="n">
-        <v>13.33176965408531</v>
+        <v>17.71303873117439</v>
       </c>
     </row>
     <row r="960">
@@ -24621,7 +24621,7 @@
         </is>
       </c>
       <c r="E960" t="n">
-        <v>52.90433340481783</v>
+        <v>49.29521390750031</v>
       </c>
     </row>
     <row r="961">
@@ -24646,7 +24646,7 @@
         </is>
       </c>
       <c r="E961" t="n">
-        <v>57.42783484889249</v>
+        <v>53.02318315783218</v>
       </c>
     </row>
     <row r="962">
@@ -24671,7 +24671,7 @@
         </is>
       </c>
       <c r="E962" t="n">
-        <v>14.98494374024607</v>
+        <v>19.67979685342577</v>
       </c>
     </row>
     <row r="963">
@@ -24696,7 +24696,7 @@
         </is>
       </c>
       <c r="E963" t="n">
-        <v>33.37373629434776</v>
+        <v>34.47642785683772</v>
       </c>
     </row>
     <row r="964">
@@ -24721,7 +24721,7 @@
         </is>
       </c>
       <c r="E964" t="n">
-        <v>34.89353698013675</v>
+        <v>35.32473952925051</v>
       </c>
     </row>
     <row r="965">
@@ -24746,7 +24746,7 @@
         </is>
       </c>
       <c r="E965" t="n">
-        <v>7.70846205355247</v>
+        <v>14.44058158481565</v>
       </c>
     </row>
     <row r="966">
@@ -24771,7 +24771,7 @@
         </is>
       </c>
       <c r="E966" t="n">
-        <v>30.69885954597866</v>
+        <v>32.02342046701818</v>
       </c>
     </row>
     <row r="967">
@@ -24796,7 +24796,7 @@
         </is>
       </c>
       <c r="E967" t="n">
-        <v>34.06968124710746</v>
+        <v>34.89850860123678</v>
       </c>
     </row>
     <row r="968">
@@ -24821,7 +24821,7 @@
         </is>
       </c>
       <c r="E968" t="n">
-        <v>8.445128485393774</v>
+        <v>14.64666655082053</v>
       </c>
     </row>
     <row r="969">
@@ -24846,7 +24846,7 @@
         </is>
       </c>
       <c r="E969" t="n">
-        <v>43.92663088248497</v>
+        <v>42.76168832289219</v>
       </c>
     </row>
     <row r="970">
@@ -24871,7 +24871,7 @@
         </is>
       </c>
       <c r="E970" t="n">
-        <v>52.0030626244606</v>
+        <v>49.37294040555318</v>
       </c>
     </row>
     <row r="971">
@@ -24896,7 +24896,7 @@
         </is>
       </c>
       <c r="E971" t="n">
-        <v>45.54964360200907</v>
+        <v>44.05786853205667</v>
       </c>
     </row>
     <row r="972">
@@ -24921,7 +24921,7 @@
         </is>
       </c>
       <c r="E972" t="n">
-        <v>49.86768483054924</v>
+        <v>47.47138725005044</v>
       </c>
     </row>
     <row r="973">
@@ -24946,7 +24946,7 @@
         </is>
       </c>
       <c r="E973" t="n">
-        <v>52.44745646322364</v>
+        <v>49.72159976156068</v>
       </c>
     </row>
     <row r="974">
@@ -24971,7 +24971,7 @@
         </is>
       </c>
       <c r="E974" t="n">
-        <v>12.42222862213014</v>
+        <v>17.21644644784984</v>
       </c>
     </row>
     <row r="975">
@@ -24996,7 +24996,7 @@
         </is>
       </c>
       <c r="E975" t="n">
-        <v>53.38329120199719</v>
+        <v>49.50813320319069</v>
       </c>
     </row>
     <row r="976">
@@ -25021,7 +25021,7 @@
         </is>
       </c>
       <c r="E976" t="n">
-        <v>54.71804548974961</v>
+        <v>50.82693389457772</v>
       </c>
     </row>
     <row r="977">
@@ -25046,7 +25046,7 @@
         </is>
       </c>
       <c r="E977" t="n">
-        <v>14.83818989091106</v>
+        <v>19.26668040659723</v>
       </c>
     </row>
     <row r="978">
@@ -25071,7 +25071,7 @@
         </is>
       </c>
       <c r="E978" t="n">
-        <v>34.02398289244337</v>
+        <v>34.37734777864276</v>
       </c>
     </row>
     <row r="979">
@@ -25096,7 +25096,7 @@
         </is>
       </c>
       <c r="E979" t="n">
-        <v>40.38201632026743</v>
+        <v>39.49076627590006</v>
       </c>
     </row>
     <row r="980">
@@ -25121,7 +25121,7 @@
         </is>
       </c>
       <c r="E980" t="n">
-        <v>8.193886978007196</v>
+        <v>14.48831674218659</v>
       </c>
     </row>
     <row r="981">
@@ -25146,7 +25146,7 @@
         </is>
       </c>
       <c r="E981" t="n">
-        <v>36.19047579788555</v>
+        <v>36.36013045338676</v>
       </c>
     </row>
     <row r="982">
@@ -25171,7 +25171,7 @@
         </is>
       </c>
       <c r="E982" t="n">
-        <v>42.16064503996466</v>
+        <v>41.30978817416805</v>
       </c>
     </row>
     <row r="983">
@@ -25196,7 +25196,7 @@
         </is>
       </c>
       <c r="E983" t="n">
-        <v>8.251002101235844</v>
+        <v>14.61837340090792</v>
       </c>
     </row>
     <row r="984">
@@ -25221,7 +25221,7 @@
         </is>
       </c>
       <c r="E984" t="n">
-        <v>48.73178174781556</v>
+        <v>46.61839142397567</v>
       </c>
     </row>
     <row r="985">
@@ -25246,7 +25246,7 @@
         </is>
       </c>
       <c r="E985" t="n">
-        <v>61.24132352600707</v>
+        <v>56.8582181943909</v>
       </c>
     </row>
     <row r="986">
@@ -25271,7 +25271,7 @@
         </is>
       </c>
       <c r="E986" t="n">
-        <v>55.50850983703553</v>
+        <v>52.26065546908715</v>
       </c>
     </row>
     <row r="987">
@@ -25296,7 +25296,7 @@
         </is>
       </c>
       <c r="E987" t="n">
-        <v>62.2231683159954</v>
+        <v>57.29568635532203</v>
       </c>
     </row>
     <row r="988">
@@ -25321,7 +25321,7 @@
         </is>
       </c>
       <c r="E988" t="n">
-        <v>72.5635002813987</v>
+        <v>65.52321569905699</v>
       </c>
     </row>
     <row r="989">
@@ -25346,7 +25346,7 @@
         </is>
       </c>
       <c r="E989" t="n">
-        <v>11.88106981906605</v>
+        <v>17.34825239422679</v>
       </c>
     </row>
     <row r="990">
@@ -25371,7 +25371,7 @@
         </is>
       </c>
       <c r="E990" t="n">
-        <v>55.25326612544501</v>
+        <v>51.82329516990202</v>
       </c>
     </row>
     <row r="991">
@@ -25396,7 +25396,7 @@
         </is>
       </c>
       <c r="E991" t="n">
-        <v>66.73626241818161</v>
+        <v>61.17142582081536</v>
       </c>
     </row>
   </sheetData>

--- a/yield_prediction/results/graph_descriptors/WLpolynomial_5/out_of_sample/ligand/LOO_XPhos/results.xlsx
+++ b/yield_prediction/results/graph_descriptors/WLpolynomial_5/out_of_sample/ligand/LOO_XPhos/results.xlsx
@@ -452,7 +452,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1000</v>
+        <v>100</v>
       </c>
     </row>
     <row r="3">
@@ -498,7 +498,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.422</v>
+        <v>0.535</v>
       </c>
     </row>
     <row r="3">
@@ -508,7 +508,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>20.286</v>
+        <v>17.673</v>
       </c>
     </row>
   </sheetData>
@@ -544,7 +544,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>-0.41</v>
+        <v>-0.698</v>
       </c>
     </row>
     <row r="3">
@@ -554,7 +554,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>20.809</v>
+        <v>22.836</v>
       </c>
     </row>
   </sheetData>
@@ -590,7 +590,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.999</v>
+        <v>0.994</v>
       </c>
     </row>
     <row r="3">
@@ -600,7 +600,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.969</v>
+        <v>2.193</v>
       </c>
     </row>
   </sheetData>
@@ -671,7 +671,7 @@
         </is>
       </c>
       <c r="E2" t="n">
-        <v>21.17420683117496</v>
+        <v>15.79846575522864</v>
       </c>
     </row>
     <row r="3">
@@ -696,7 +696,7 @@
         </is>
       </c>
       <c r="E3" t="n">
-        <v>23.0299543816116</v>
+        <v>17.12414603035603</v>
       </c>
     </row>
     <row r="4">
@@ -721,7 +721,7 @@
         </is>
       </c>
       <c r="E4" t="n">
-        <v>22.45603426925997</v>
+        <v>17.16475918131</v>
       </c>
     </row>
     <row r="5">
@@ -746,7 +746,7 @@
         </is>
       </c>
       <c r="E5" t="n">
-        <v>14.7709271013181</v>
+        <v>6.787115282952524</v>
       </c>
     </row>
     <row r="6">
@@ -771,7 +771,7 @@
         </is>
       </c>
       <c r="E6" t="n">
-        <v>23.36539799972985</v>
+        <v>18.46676219957352</v>
       </c>
     </row>
     <row r="7">
@@ -796,7 +796,7 @@
         </is>
       </c>
       <c r="E7" t="n">
-        <v>26.08814428489768</v>
+        <v>22.37695590589278</v>
       </c>
     </row>
     <row r="8">
@@ -821,7 +821,7 @@
         </is>
       </c>
       <c r="E8" t="n">
-        <v>16.79265660357392</v>
+        <v>9.464896335503575</v>
       </c>
     </row>
     <row r="9">
@@ -846,7 +846,7 @@
         </is>
       </c>
       <c r="E9" t="n">
-        <v>29.1340784286651</v>
+        <v>26.54068193176705</v>
       </c>
     </row>
     <row r="10">
@@ -871,7 +871,7 @@
         </is>
       </c>
       <c r="E10" t="n">
-        <v>30.326378397217</v>
+        <v>27.73940941963168</v>
       </c>
     </row>
     <row r="11">
@@ -896,7 +896,7 @@
         </is>
       </c>
       <c r="E11" t="n">
-        <v>28.42148508532762</v>
+        <v>25.15695182341907</v>
       </c>
     </row>
     <row r="12">
@@ -921,7 +921,7 @@
         </is>
       </c>
       <c r="E12" t="n">
-        <v>31.92733796722119</v>
+        <v>30.11986879384743</v>
       </c>
     </row>
     <row r="13">
@@ -946,7 +946,7 @@
         </is>
       </c>
       <c r="E13" t="n">
-        <v>32.86257899659914</v>
+        <v>31.1228448692581</v>
       </c>
     </row>
     <row r="14">
@@ -971,7 +971,7 @@
         </is>
       </c>
       <c r="E14" t="n">
-        <v>19.78769722281748</v>
+        <v>15.15414959209805</v>
       </c>
     </row>
     <row r="15">
@@ -996,7 +996,7 @@
         </is>
       </c>
       <c r="E15" t="n">
-        <v>27.4412719430125</v>
+        <v>23.57875565085488</v>
       </c>
     </row>
     <row r="16">
@@ -1021,7 +1021,7 @@
         </is>
       </c>
       <c r="E16" t="n">
-        <v>28.51198521395187</v>
+        <v>24.99643098185584</v>
       </c>
     </row>
     <row r="17">
@@ -1046,7 +1046,7 @@
         </is>
       </c>
       <c r="E17" t="n">
-        <v>21.59626419098048</v>
+        <v>15.90862166158565</v>
       </c>
     </row>
     <row r="18">
@@ -1071,7 +1071,7 @@
         </is>
       </c>
       <c r="E18" t="n">
-        <v>34.42229565539953</v>
+        <v>33.87847254635206</v>
       </c>
     </row>
     <row r="19">
@@ -1096,7 +1096,7 @@
         </is>
       </c>
       <c r="E19" t="n">
-        <v>39.82373190903581</v>
+        <v>41.57416096711759</v>
       </c>
     </row>
     <row r="20">
@@ -1121,7 +1121,7 @@
         </is>
       </c>
       <c r="E20" t="n">
-        <v>14.64749212508393</v>
+        <v>6.214474063643053</v>
       </c>
     </row>
     <row r="21">
@@ -1146,7 +1146,7 @@
         </is>
       </c>
       <c r="E21" t="n">
-        <v>30.05786996149356</v>
+        <v>28.32403363375975</v>
       </c>
     </row>
     <row r="22">
@@ -1171,7 +1171,7 @@
         </is>
       </c>
       <c r="E22" t="n">
-        <v>39.27459767914042</v>
+        <v>41.00921037074566</v>
       </c>
     </row>
     <row r="23">
@@ -1196,7 +1196,7 @@
         </is>
       </c>
       <c r="E23" t="n">
-        <v>15.54709128708267</v>
+        <v>7.173016523712896</v>
       </c>
     </row>
     <row r="24">
@@ -1221,7 +1221,7 @@
         </is>
       </c>
       <c r="E24" t="n">
-        <v>45.47088573486141</v>
+        <v>43.96865913368845</v>
       </c>
     </row>
     <row r="25">
@@ -1246,7 +1246,7 @@
         </is>
       </c>
       <c r="E25" t="n">
-        <v>58.74258641729604</v>
+        <v>67.43991076721244</v>
       </c>
     </row>
     <row r="26">
@@ -1271,7 +1271,7 @@
         </is>
       </c>
       <c r="E26" t="n">
-        <v>44.98995296943334</v>
+        <v>47.41881213743159</v>
       </c>
     </row>
     <row r="27">
@@ -1296,7 +1296,7 @@
         </is>
       </c>
       <c r="E27" t="n">
-        <v>52.77746530177787</v>
+        <v>58.00082589820438</v>
       </c>
     </row>
     <row r="28">
@@ -1321,7 +1321,7 @@
         </is>
       </c>
       <c r="E28" t="n">
-        <v>59.40089817423137</v>
+        <v>67.39220401867397</v>
       </c>
     </row>
     <row r="29">
@@ -1346,7 +1346,7 @@
         </is>
       </c>
       <c r="E29" t="n">
-        <v>20.55108665094847</v>
+        <v>15.0929655254986</v>
       </c>
     </row>
     <row r="30">
@@ -1371,7 +1371,7 @@
         </is>
       </c>
       <c r="E30" t="n">
-        <v>56.4158805375156</v>
+        <v>62.0333049864067</v>
       </c>
     </row>
     <row r="31">
@@ -1396,7 +1396,7 @@
         </is>
       </c>
       <c r="E31" t="n">
-        <v>62.97729069589107</v>
+        <v>72.83287256157493</v>
       </c>
     </row>
     <row r="32">
@@ -1421,7 +1421,7 @@
         </is>
       </c>
       <c r="E32" t="n">
-        <v>27.24863777395222</v>
+        <v>25.05042184062511</v>
       </c>
     </row>
     <row r="33">
@@ -1446,7 +1446,7 @@
         </is>
       </c>
       <c r="E33" t="n">
-        <v>42.071470524143</v>
+        <v>44.51235437130967</v>
       </c>
     </row>
     <row r="34">
@@ -1471,7 +1471,7 @@
         </is>
       </c>
       <c r="E34" t="n">
-        <v>45.23201141163599</v>
+        <v>49.37741911717858</v>
       </c>
     </row>
     <row r="35">
@@ -1496,7 +1496,7 @@
         </is>
       </c>
       <c r="E35" t="n">
-        <v>15.64386285806801</v>
+        <v>8.035168150421292</v>
       </c>
     </row>
     <row r="36">
@@ -1521,7 +1521,7 @@
         </is>
       </c>
       <c r="E36" t="n">
-        <v>35.9244710323446</v>
+        <v>37.3852125980719</v>
       </c>
     </row>
     <row r="37">
@@ -1546,7 +1546,7 @@
         </is>
       </c>
       <c r="E37" t="n">
-        <v>46.00856461185472</v>
+        <v>49.92838189900538</v>
       </c>
     </row>
     <row r="38">
@@ -1571,7 +1571,7 @@
         </is>
       </c>
       <c r="E38" t="n">
-        <v>19.91069583802024</v>
+        <v>14.26880044183096</v>
       </c>
     </row>
     <row r="39">
@@ -1596,7 +1596,7 @@
         </is>
       </c>
       <c r="E39" t="n">
-        <v>58.38617803139989</v>
+        <v>65.84251653677737</v>
       </c>
     </row>
     <row r="40">
@@ -1621,7 +1621,7 @@
         </is>
       </c>
       <c r="E40" t="n">
-        <v>62.31519974614127</v>
+        <v>72.95625413224107</v>
       </c>
     </row>
     <row r="41">
@@ -1646,7 +1646,7 @@
         </is>
       </c>
       <c r="E41" t="n">
-        <v>62.1473215028109</v>
+        <v>72.05009917023027</v>
       </c>
     </row>
     <row r="42">
@@ -1671,7 +1671,7 @@
         </is>
       </c>
       <c r="E42" t="n">
-        <v>68.80802325718918</v>
+        <v>81.91899530241601</v>
       </c>
     </row>
     <row r="43">
@@ -1696,7 +1696,7 @@
         </is>
       </c>
       <c r="E43" t="n">
-        <v>73.14467582304691</v>
+        <v>87.38931439380252</v>
       </c>
     </row>
     <row r="44">
@@ -1721,7 +1721,7 @@
         </is>
       </c>
       <c r="E44" t="n">
-        <v>31.15433034823521</v>
+        <v>29.66609014221342</v>
       </c>
     </row>
     <row r="45">
@@ -1746,7 +1746,7 @@
         </is>
       </c>
       <c r="E45" t="n">
-        <v>71.39067350683152</v>
+        <v>84.66075701614717</v>
       </c>
     </row>
     <row r="46">
@@ -1771,7 +1771,7 @@
         </is>
       </c>
       <c r="E46" t="n">
-        <v>72.59542574526323</v>
+        <v>86.20597240795983</v>
       </c>
     </row>
     <row r="47">
@@ -1796,7 +1796,7 @@
         </is>
       </c>
       <c r="E47" t="n">
-        <v>17.18109752595455</v>
+        <v>10.58747840992866</v>
       </c>
     </row>
     <row r="48">
@@ -1821,7 +1821,7 @@
         </is>
       </c>
       <c r="E48" t="n">
-        <v>39.15673752240575</v>
+        <v>38.77624470367749</v>
       </c>
     </row>
     <row r="49">
@@ -1846,7 +1846,7 @@
         </is>
       </c>
       <c r="E49" t="n">
-        <v>41.1566021115731</v>
+        <v>42.95722600182637</v>
       </c>
     </row>
     <row r="50">
@@ -1871,7 +1871,7 @@
         </is>
       </c>
       <c r="E50" t="n">
-        <v>14.45754650586976</v>
+        <v>5.92917167271343</v>
       </c>
     </row>
     <row r="51">
@@ -1896,7 +1896,7 @@
         </is>
       </c>
       <c r="E51" t="n">
-        <v>40.18235411242685</v>
+        <v>42.32842569387054</v>
       </c>
     </row>
     <row r="52">
@@ -1921,7 +1921,7 @@
         </is>
       </c>
       <c r="E52" t="n">
-        <v>44.87680012762063</v>
+        <v>48.13159946421079</v>
       </c>
     </row>
     <row r="53">
@@ -1946,7 +1946,7 @@
         </is>
       </c>
       <c r="E53" t="n">
-        <v>14.89551308646169</v>
+        <v>6.024067359032586</v>
       </c>
     </row>
     <row r="54">
@@ -1971,7 +1971,7 @@
         </is>
       </c>
       <c r="E54" t="n">
-        <v>56.28302555555258</v>
+        <v>63.70473328179474</v>
       </c>
     </row>
     <row r="55">
@@ -1996,7 +1996,7 @@
         </is>
       </c>
       <c r="E55" t="n">
-        <v>56.12252504516817</v>
+        <v>63.6332099723281</v>
       </c>
     </row>
     <row r="56">
@@ -2021,7 +2021,7 @@
         </is>
       </c>
       <c r="E56" t="n">
-        <v>51.08255332897667</v>
+        <v>56.26770979036539</v>
       </c>
     </row>
     <row r="57">
@@ -2046,7 +2046,7 @@
         </is>
       </c>
       <c r="E57" t="n">
-        <v>53.66127471034903</v>
+        <v>59.46858346912509</v>
       </c>
     </row>
     <row r="58">
@@ -2071,7 +2071,7 @@
         </is>
       </c>
       <c r="E58" t="n">
-        <v>54.18068744475825</v>
+        <v>61.07992969504127</v>
       </c>
     </row>
     <row r="59">
@@ -2096,7 +2096,7 @@
         </is>
       </c>
       <c r="E59" t="n">
-        <v>18.37125424045969</v>
+        <v>11.39662858666981</v>
       </c>
     </row>
     <row r="60">
@@ -2121,7 +2121,7 @@
         </is>
       </c>
       <c r="E60" t="n">
-        <v>52.1279346804142</v>
+        <v>58.72395644589095</v>
       </c>
     </row>
     <row r="61">
@@ -2146,7 +2146,7 @@
         </is>
       </c>
       <c r="E61" t="n">
-        <v>56.21724235245917</v>
+        <v>64.36592770176847</v>
       </c>
     </row>
     <row r="62">
@@ -2171,7 +2171,7 @@
         </is>
       </c>
       <c r="E62" t="n">
-        <v>17.76586704013817</v>
+        <v>10.59988748884743</v>
       </c>
     </row>
     <row r="63">
@@ -2196,7 +2196,7 @@
         </is>
       </c>
       <c r="E63" t="n">
-        <v>38.59939019874495</v>
+        <v>39.62099580917432</v>
       </c>
     </row>
     <row r="64">
@@ -2221,7 +2221,7 @@
         </is>
       </c>
       <c r="E64" t="n">
-        <v>41.33540902323229</v>
+        <v>44.36241055799125</v>
       </c>
     </row>
     <row r="65">
@@ -2246,7 +2246,7 @@
         </is>
       </c>
       <c r="E65" t="n">
-        <v>14.34711935364111</v>
+        <v>6.197239920525348</v>
       </c>
     </row>
     <row r="66">
@@ -2271,7 +2271,7 @@
         </is>
       </c>
       <c r="E66" t="n">
-        <v>32.67952787682191</v>
+        <v>31.54895626589484</v>
       </c>
     </row>
     <row r="67">
@@ -2296,7 +2296,7 @@
         </is>
       </c>
       <c r="E67" t="n">
-        <v>40.39429321435731</v>
+        <v>42.51193346259272</v>
       </c>
     </row>
     <row r="68">
@@ -2321,7 +2321,7 @@
         </is>
       </c>
       <c r="E68" t="n">
-        <v>14.56761486844811</v>
+        <v>6.470266721235394</v>
       </c>
     </row>
     <row r="69">
@@ -2346,7 +2346,7 @@
         </is>
       </c>
       <c r="E69" t="n">
-        <v>49.33247963130944</v>
+        <v>54.55114592420332</v>
       </c>
     </row>
     <row r="70">
@@ -2371,7 +2371,7 @@
         </is>
       </c>
       <c r="E70" t="n">
-        <v>62.98494114922225</v>
+        <v>72.68356155228039</v>
       </c>
     </row>
     <row r="71">
@@ -2396,7 +2396,7 @@
         </is>
       </c>
       <c r="E71" t="n">
-        <v>47.53375171084676</v>
+        <v>51.61539838277274</v>
       </c>
     </row>
     <row r="72">
@@ -2421,7 +2421,7 @@
         </is>
       </c>
       <c r="E72" t="n">
-        <v>55.94341484529066</v>
+        <v>63.71071995214363</v>
       </c>
     </row>
     <row r="73">
@@ -2446,7 +2446,7 @@
         </is>
       </c>
       <c r="E73" t="n">
-        <v>61.63724145264855</v>
+        <v>70.33883566286389</v>
       </c>
     </row>
     <row r="74">
@@ -2471,7 +2471,7 @@
         </is>
       </c>
       <c r="E74" t="n">
-        <v>15.90904775363613</v>
+        <v>8.308576213770476</v>
       </c>
     </row>
     <row r="75">
@@ -2496,7 +2496,7 @@
         </is>
       </c>
       <c r="E75" t="n">
-        <v>58.30744798128688</v>
+        <v>67.28820068734849</v>
       </c>
     </row>
     <row r="76">
@@ -2521,7 +2521,7 @@
         </is>
       </c>
       <c r="E76" t="n">
-        <v>63.62696253025613</v>
+        <v>73.82071734313462</v>
       </c>
     </row>
     <row r="77">
@@ -2546,7 +2546,7 @@
         </is>
       </c>
       <c r="E77" t="n">
-        <v>17.86336539673144</v>
+        <v>11.49053547433231</v>
       </c>
     </row>
     <row r="78">
@@ -2571,7 +2571,7 @@
         </is>
       </c>
       <c r="E78" t="n">
-        <v>42.49806274956656</v>
+        <v>44.9493841780048</v>
       </c>
     </row>
     <row r="79">
@@ -2596,7 +2596,7 @@
         </is>
       </c>
       <c r="E79" t="n">
-        <v>45.67369251230431</v>
+        <v>49.06040490107593</v>
       </c>
     </row>
     <row r="80">
@@ -2621,7 +2621,7 @@
         </is>
       </c>
       <c r="E80" t="n">
-        <v>14.34692318728381</v>
+        <v>5.686641699602152</v>
       </c>
     </row>
     <row r="81">
@@ -2646,7 +2646,7 @@
         </is>
       </c>
       <c r="E81" t="n">
-        <v>39.99142380508987</v>
+        <v>41.77699467751805</v>
       </c>
     </row>
     <row r="82">
@@ -2671,7 +2671,7 @@
         </is>
       </c>
       <c r="E82" t="n">
-        <v>47.80103850042013</v>
+        <v>52.19992382521916</v>
       </c>
     </row>
     <row r="83">
@@ -2696,7 +2696,7 @@
         </is>
       </c>
       <c r="E83" t="n">
-        <v>14.74475249158999</v>
+        <v>5.691136722135102</v>
       </c>
     </row>
     <row r="84">
@@ -2721,7 +2721,7 @@
         </is>
       </c>
       <c r="E84" t="n">
-        <v>59.64018962239095</v>
+        <v>68.23458890654204</v>
       </c>
     </row>
     <row r="85">
@@ -2746,7 +2746,7 @@
         </is>
       </c>
       <c r="E85" t="n">
-        <v>66.23088492035174</v>
+        <v>76.84931557261919</v>
       </c>
     </row>
     <row r="86">
@@ -2771,7 +2771,7 @@
         </is>
       </c>
       <c r="E86" t="n">
-        <v>63.45917342713781</v>
+        <v>74.28484666527828</v>
       </c>
     </row>
     <row r="87">
@@ -2796,7 +2796,7 @@
         </is>
       </c>
       <c r="E87" t="n">
-        <v>73.08176246438671</v>
+        <v>87.23522108892755</v>
       </c>
     </row>
     <row r="88">
@@ -2821,7 +2821,7 @@
         </is>
       </c>
       <c r="E88" t="n">
-        <v>74.89997233583534</v>
+        <v>88.89090656698872</v>
       </c>
     </row>
     <row r="89">
@@ -2846,7 +2846,7 @@
         </is>
       </c>
       <c r="E89" t="n">
-        <v>16.50176494945735</v>
+        <v>11.18736494025216</v>
       </c>
     </row>
     <row r="90">
@@ -2871,7 +2871,7 @@
         </is>
       </c>
       <c r="E90" t="n">
-        <v>69.00089448996789</v>
+        <v>81.60662642618811</v>
       </c>
     </row>
     <row r="91">
@@ -2896,7 +2896,7 @@
         </is>
       </c>
       <c r="E91" t="n">
-        <v>72.07667312020914</v>
+        <v>85.57454166815623</v>
       </c>
     </row>
     <row r="92">
@@ -2921,7 +2921,7 @@
         </is>
       </c>
       <c r="E92" t="n">
-        <v>32.15476196092983</v>
+        <v>25.26983026322553</v>
       </c>
     </row>
     <row r="93">
@@ -2946,7 +2946,7 @@
         </is>
       </c>
       <c r="E93" t="n">
-        <v>37.89153279708094</v>
+        <v>39.5221195367569</v>
       </c>
     </row>
     <row r="94">
@@ -2971,7 +2971,7 @@
         </is>
       </c>
       <c r="E94" t="n">
-        <v>39.91641767739058</v>
+        <v>42.25841456188009</v>
       </c>
     </row>
     <row r="95">
@@ -2996,7 +2996,7 @@
         </is>
       </c>
       <c r="E95" t="n">
-        <v>14.74443173279983</v>
+        <v>6.773145580915092</v>
       </c>
     </row>
     <row r="96">
@@ -3021,7 +3021,7 @@
         </is>
       </c>
       <c r="E96" t="n">
-        <v>41.75107318771384</v>
+        <v>44.33831807354043</v>
       </c>
     </row>
     <row r="97">
@@ -3046,7 +3046,7 @@
         </is>
       </c>
       <c r="E97" t="n">
-        <v>43.99351204644519</v>
+        <v>46.72769685215528</v>
       </c>
     </row>
     <row r="98">
@@ -3071,7 +3071,7 @@
         </is>
       </c>
       <c r="E98" t="n">
-        <v>15.79400102582015</v>
+        <v>8.118453319909165</v>
       </c>
     </row>
     <row r="99">
@@ -3096,7 +3096,7 @@
         </is>
       </c>
       <c r="E99" t="n">
-        <v>58.900714576461</v>
+        <v>67.14884693250744</v>
       </c>
     </row>
     <row r="100">
@@ -3121,7 +3121,7 @@
         </is>
       </c>
       <c r="E100" t="n">
-        <v>55.44181267324868</v>
+        <v>62.31401398556068</v>
       </c>
     </row>
     <row r="101">
@@ -3146,7 +3146,7 @@
         </is>
       </c>
       <c r="E101" t="n">
-        <v>50.97219179291083</v>
+        <v>55.75041370851548</v>
       </c>
     </row>
     <row r="102">
@@ -3171,7 +3171,7 @@
         </is>
       </c>
       <c r="E102" t="n">
-        <v>60.04485976637613</v>
+        <v>69.50740502242331</v>
       </c>
     </row>
     <row r="103">
@@ -3196,7 +3196,7 @@
         </is>
       </c>
       <c r="E103" t="n">
-        <v>59.45722587395852</v>
+        <v>67.43192781607414</v>
       </c>
     </row>
     <row r="104">
@@ -3221,7 +3221,7 @@
         </is>
       </c>
       <c r="E104" t="n">
-        <v>28.65361223768825</v>
+        <v>25.59891510019595</v>
       </c>
     </row>
     <row r="105">
@@ -3246,7 +3246,7 @@
         </is>
       </c>
       <c r="E105" t="n">
-        <v>52.15572767593498</v>
+        <v>59.24298813535665</v>
       </c>
     </row>
     <row r="106">
@@ -3271,7 +3271,7 @@
         </is>
       </c>
       <c r="E106" t="n">
-        <v>53.29365648059412</v>
+        <v>61.77721032426206</v>
       </c>
     </row>
     <row r="107">
@@ -3296,7 +3296,7 @@
         </is>
       </c>
       <c r="E107" t="n">
-        <v>28.23220480516832</v>
+        <v>25.68307905491432</v>
       </c>
     </row>
     <row r="108">
@@ -3321,7 +3321,7 @@
         </is>
       </c>
       <c r="E108" t="n">
-        <v>40.12465049217047</v>
+        <v>41.93937835741282</v>
       </c>
     </row>
     <row r="109">
@@ -3346,7 +3346,7 @@
         </is>
       </c>
       <c r="E109" t="n">
-        <v>41.50256502543394</v>
+        <v>44.16991142142736</v>
       </c>
     </row>
     <row r="110">
@@ -3371,7 +3371,7 @@
         </is>
       </c>
       <c r="E110" t="n">
-        <v>14.6730949698099</v>
+        <v>6.400537599691454</v>
       </c>
     </row>
     <row r="111">
@@ -3396,7 +3396,7 @@
         </is>
       </c>
       <c r="E111" t="n">
-        <v>38.57248961906922</v>
+        <v>39.07811963556168</v>
       </c>
     </row>
     <row r="112">
@@ -3421,7 +3421,7 @@
         </is>
       </c>
       <c r="E112" t="n">
-        <v>40.81983686296307</v>
+        <v>43.61373200606073</v>
       </c>
     </row>
     <row r="113">
@@ -3446,7 +3446,7 @@
         </is>
       </c>
       <c r="E113" t="n">
-        <v>15.53120649707902</v>
+        <v>7.609113710500466</v>
       </c>
     </row>
     <row r="114">
@@ -3471,7 +3471,7 @@
         </is>
       </c>
       <c r="E114" t="n">
-        <v>56.21680378360631</v>
+        <v>63.75579355251894</v>
       </c>
     </row>
     <row r="115">
@@ -3496,7 +3496,7 @@
         </is>
       </c>
       <c r="E115" t="n">
-        <v>63.40239529559609</v>
+        <v>73.35660800432781</v>
       </c>
     </row>
     <row r="116">
@@ -3521,7 +3521,7 @@
         </is>
       </c>
       <c r="E116" t="n">
-        <v>51.09655475985601</v>
+        <v>56.60241967276199</v>
       </c>
     </row>
     <row r="117">
@@ -3546,7 +3546,7 @@
         </is>
       </c>
       <c r="E117" t="n">
-        <v>58.94481310595787</v>
+        <v>67.63110512968821</v>
       </c>
     </row>
     <row r="118">
@@ -3571,7 +3571,7 @@
         </is>
       </c>
       <c r="E118" t="n">
-        <v>61.60432550809732</v>
+        <v>70.24203594993614</v>
       </c>
     </row>
     <row r="119">
@@ -3596,7 +3596,7 @@
         </is>
       </c>
       <c r="E119" t="n">
-        <v>29.03884622152459</v>
+        <v>26.50730338505898</v>
       </c>
     </row>
     <row r="120">
@@ -3621,7 +3621,7 @@
         </is>
       </c>
       <c r="E120" t="n">
-        <v>59.16112273592523</v>
+        <v>68.43840134996731</v>
       </c>
     </row>
     <row r="121">
@@ -3646,7 +3646,7 @@
         </is>
       </c>
       <c r="E121" t="n">
-        <v>61.78864467439568</v>
+        <v>72.03396550854393</v>
       </c>
     </row>
     <row r="122">
@@ -3671,7 +3671,7 @@
         </is>
       </c>
       <c r="E122" t="n">
-        <v>32.56661017047501</v>
+        <v>31.59060301915018</v>
       </c>
     </row>
     <row r="123">
@@ -3696,7 +3696,7 @@
         </is>
       </c>
       <c r="E123" t="n">
-        <v>45.28031085836605</v>
+        <v>49.18247148222235</v>
       </c>
     </row>
     <row r="124">
@@ -3721,7 +3721,7 @@
         </is>
       </c>
       <c r="E124" t="n">
-        <v>44.53472064290583</v>
+        <v>48.17971858081999</v>
       </c>
     </row>
     <row r="125">
@@ -3746,7 +3746,7 @@
         </is>
       </c>
       <c r="E125" t="n">
-        <v>14.86825198744775</v>
+        <v>6.648369447385754</v>
       </c>
     </row>
     <row r="126">
@@ -3771,7 +3771,7 @@
         </is>
       </c>
       <c r="E126" t="n">
-        <v>45.90771123429643</v>
+        <v>49.25965428476539</v>
       </c>
     </row>
     <row r="127">
@@ -3796,7 +3796,7 @@
         </is>
       </c>
       <c r="E127" t="n">
-        <v>45.85077231218811</v>
+        <v>49.55867186882884</v>
       </c>
     </row>
     <row r="128">
@@ -3821,7 +3821,7 @@
         </is>
       </c>
       <c r="E128" t="n">
-        <v>16.35965146404939</v>
+        <v>7.550147790705822</v>
       </c>
     </row>
     <row r="129">
@@ -3846,7 +3846,7 @@
         </is>
       </c>
       <c r="E129" t="n">
-        <v>62.94512507265789</v>
+        <v>73.20658538128535</v>
       </c>
     </row>
     <row r="130">
@@ -3871,7 +3871,7 @@
         </is>
       </c>
       <c r="E130" t="n">
-        <v>62.78336630969756</v>
+        <v>72.93167700739188</v>
       </c>
     </row>
     <row r="131">
@@ -3896,7 +3896,7 @@
         </is>
       </c>
       <c r="E131" t="n">
-        <v>66.22727314591435</v>
+        <v>77.78141119811752</v>
       </c>
     </row>
     <row r="132">
@@ -3921,7 +3921,7 @@
         </is>
       </c>
       <c r="E132" t="n">
-        <v>68.52244640821934</v>
+        <v>80.70029821207086</v>
       </c>
     </row>
     <row r="133">
@@ -3946,7 +3946,7 @@
         </is>
       </c>
       <c r="E133" t="n">
-        <v>71.78881808745621</v>
+        <v>85.84348657979004</v>
       </c>
     </row>
     <row r="134">
@@ -3971,7 +3971,7 @@
         </is>
       </c>
       <c r="E134" t="n">
-        <v>33.1859447401934</v>
+        <v>32.7342538323944</v>
       </c>
     </row>
     <row r="135">
@@ -3996,7 +3996,7 @@
         </is>
       </c>
       <c r="E135" t="n">
-        <v>69.41893227833208</v>
+        <v>82.38597581565128</v>
       </c>
     </row>
     <row r="136">
@@ -4021,7 +4021,7 @@
         </is>
       </c>
       <c r="E136" t="n">
-        <v>70.40997677675313</v>
+        <v>82.70913438037233</v>
       </c>
     </row>
     <row r="137">
@@ -4046,7 +4046,7 @@
         </is>
       </c>
       <c r="E137" t="n">
-        <v>21.69730598684522</v>
+        <v>16.11000607574228</v>
       </c>
     </row>
     <row r="138">
@@ -4071,7 +4071,7 @@
         </is>
       </c>
       <c r="E138" t="n">
-        <v>24.69475257495413</v>
+        <v>19.5838718344545</v>
       </c>
     </row>
     <row r="139">
@@ -4096,7 +4096,7 @@
         </is>
       </c>
       <c r="E139" t="n">
-        <v>24.39093347381136</v>
+        <v>19.96537268680771</v>
       </c>
     </row>
     <row r="140">
@@ -4121,7 +4121,7 @@
         </is>
       </c>
       <c r="E140" t="n">
-        <v>15.62731038413208</v>
+        <v>6.687604587473167</v>
       </c>
     </row>
     <row r="141">
@@ -4146,7 +4146,7 @@
         </is>
       </c>
       <c r="E141" t="n">
-        <v>24.01077100897432</v>
+        <v>19.75600316738178</v>
       </c>
     </row>
     <row r="142">
@@ -4171,7 +4171,7 @@
         </is>
       </c>
       <c r="E142" t="n">
-        <v>25.29481554524779</v>
+        <v>21.7815567069288</v>
       </c>
     </row>
     <row r="143">
@@ -4196,7 +4196,7 @@
         </is>
       </c>
       <c r="E143" t="n">
-        <v>17.62740814944331</v>
+        <v>9.945142414921914</v>
       </c>
     </row>
     <row r="144">
@@ -4221,7 +4221,7 @@
         </is>
       </c>
       <c r="E144" t="n">
-        <v>29.98183872921737</v>
+        <v>27.51553054916031</v>
       </c>
     </row>
     <row r="145">
@@ -4246,7 +4246,7 @@
         </is>
       </c>
       <c r="E145" t="n">
-        <v>30.71235658017853</v>
+        <v>27.73457589281782</v>
       </c>
     </row>
     <row r="146">
@@ -4271,7 +4271,7 @@
         </is>
       </c>
       <c r="E146" t="n">
-        <v>29.86299291448538</v>
+        <v>27.35946227492671</v>
       </c>
     </row>
     <row r="147">
@@ -4296,7 +4296,7 @@
         </is>
       </c>
       <c r="E147" t="n">
-        <v>31.47694657912516</v>
+        <v>29.62567757454367</v>
       </c>
     </row>
     <row r="148">
@@ -4321,7 +4321,7 @@
         </is>
       </c>
       <c r="E148" t="n">
-        <v>34.95685402455132</v>
+        <v>34.0546967624232</v>
       </c>
     </row>
     <row r="149">
@@ -4346,7 +4346,7 @@
         </is>
       </c>
       <c r="E149" t="n">
-        <v>55.82229575407928</v>
+        <v>63.90039414113591</v>
       </c>
     </row>
     <row r="150">
@@ -4371,7 +4371,7 @@
         </is>
       </c>
       <c r="E150" t="n">
-        <v>58.47303967211312</v>
+        <v>66.47873607727355</v>
       </c>
     </row>
     <row r="151">
@@ -4396,7 +4396,7 @@
         </is>
       </c>
       <c r="E151" t="n">
-        <v>56.53315244832284</v>
+        <v>63.8772942364035</v>
       </c>
     </row>
     <row r="152">
@@ -4421,7 +4421,7 @@
         </is>
       </c>
       <c r="E152" t="n">
-        <v>19.8241520795035</v>
+        <v>13.07755772182071</v>
       </c>
     </row>
     <row r="153">
@@ -4446,7 +4446,7 @@
         </is>
       </c>
       <c r="E153" t="n">
-        <v>35.55971894704913</v>
+        <v>35.44316319909823</v>
       </c>
     </row>
     <row r="154">
@@ -4471,7 +4471,7 @@
         </is>
       </c>
       <c r="E154" t="n">
-        <v>39.84019065639098</v>
+        <v>41.57231584356006</v>
       </c>
     </row>
     <row r="155">
@@ -4496,7 +4496,7 @@
         </is>
       </c>
       <c r="E155" t="n">
-        <v>14.62171335765278</v>
+        <v>6.412722110359873</v>
       </c>
     </row>
     <row r="156">
@@ -4521,7 +4521,7 @@
         </is>
       </c>
       <c r="E156" t="n">
-        <v>35.06645843363476</v>
+        <v>33.91072135547</v>
       </c>
     </row>
     <row r="157">
@@ -4546,7 +4546,7 @@
         </is>
       </c>
       <c r="E157" t="n">
-        <v>45.91534560824104</v>
+        <v>50.18817299009303</v>
       </c>
     </row>
     <row r="158">
@@ -4571,7 +4571,7 @@
         </is>
       </c>
       <c r="E158" t="n">
-        <v>18.73932734970795</v>
+        <v>10.2043686751284</v>
       </c>
     </row>
     <row r="159">
@@ -4596,7 +4596,7 @@
         </is>
       </c>
       <c r="E159" t="n">
-        <v>47.23322749742604</v>
+        <v>47.15492009631046</v>
       </c>
     </row>
     <row r="160">
@@ -4621,7 +4621,7 @@
         </is>
       </c>
       <c r="E160" t="n">
-        <v>58.84076002645384</v>
+        <v>67.08202212614745</v>
       </c>
     </row>
     <row r="161">
@@ -4646,7 +4646,7 @@
         </is>
       </c>
       <c r="E161" t="n">
-        <v>43.07038195335023</v>
+        <v>42.74608683339996</v>
       </c>
     </row>
     <row r="162">
@@ -4671,7 +4671,7 @@
         </is>
       </c>
       <c r="E162" t="n">
-        <v>47.4833402751933</v>
+        <v>52.11390697001933</v>
       </c>
     </row>
     <row r="163">
@@ -4696,7 +4696,7 @@
         </is>
       </c>
       <c r="E163" t="n">
-        <v>56.65235357260958</v>
+        <v>63.6721566113454</v>
       </c>
     </row>
     <row r="164">
@@ -4721,7 +4721,7 @@
         </is>
       </c>
       <c r="E164" t="n">
-        <v>20.15996014942502</v>
+        <v>13.48163237669534</v>
       </c>
     </row>
     <row r="165">
@@ -4746,7 +4746,7 @@
         </is>
       </c>
       <c r="E165" t="n">
-        <v>53.29030037004592</v>
+        <v>59.82746719367061</v>
       </c>
     </row>
     <row r="166">
@@ -4771,7 +4771,7 @@
         </is>
       </c>
       <c r="E166" t="n">
-        <v>58.55760604376609</v>
+        <v>67.24813509686847</v>
       </c>
     </row>
     <row r="167">
@@ -4796,7 +4796,7 @@
         </is>
       </c>
       <c r="E167" t="n">
-        <v>28.59228922751061</v>
+        <v>25.68045591790727</v>
       </c>
     </row>
     <row r="168">
@@ -4821,7 +4821,7 @@
         </is>
       </c>
       <c r="E168" t="n">
-        <v>41.56123729800093</v>
+        <v>43.52965625686466</v>
       </c>
     </row>
     <row r="169">
@@ -4846,7 +4846,7 @@
         </is>
       </c>
       <c r="E169" t="n">
-        <v>45.02177362385203</v>
+        <v>48.75169569821318</v>
       </c>
     </row>
     <row r="170">
@@ -4871,7 +4871,7 @@
         </is>
       </c>
       <c r="E170" t="n">
-        <v>16.23229374039003</v>
+        <v>8.798964283089173</v>
       </c>
     </row>
     <row r="171">
@@ -4896,7 +4896,7 @@
         </is>
       </c>
       <c r="E171" t="n">
-        <v>39.36609906764215</v>
+        <v>41.17689543918998</v>
       </c>
     </row>
     <row r="172">
@@ -4921,7 +4921,7 @@
         </is>
       </c>
       <c r="E172" t="n">
-        <v>46.71588477444165</v>
+        <v>51.23942738721161</v>
       </c>
     </row>
     <row r="173">
@@ -4946,7 +4946,7 @@
         </is>
       </c>
       <c r="E173" t="n">
-        <v>22.12503985828635</v>
+        <v>15.22233753238148</v>
       </c>
     </row>
     <row r="174">
@@ -4971,7 +4971,7 @@
         </is>
       </c>
       <c r="E174" t="n">
-        <v>55.45090266815858</v>
+        <v>61.76441157020732</v>
       </c>
     </row>
     <row r="175">
@@ -4996,7 +4996,7 @@
         </is>
       </c>
       <c r="E175" t="n">
-        <v>61.82012617964503</v>
+        <v>71.94322443360068</v>
       </c>
     </row>
     <row r="176">
@@ -5021,7 +5021,7 @@
         </is>
       </c>
       <c r="E176" t="n">
-        <v>57.27914079785342</v>
+        <v>60.17814696343778</v>
       </c>
     </row>
     <row r="177">
@@ -5046,7 +5046,7 @@
         </is>
       </c>
       <c r="E177" t="n">
-        <v>62.48762048448891</v>
+        <v>72.52165711080301</v>
       </c>
     </row>
     <row r="178">
@@ -5071,7 +5071,7 @@
         </is>
       </c>
       <c r="E178" t="n">
-        <v>70.45566076409418</v>
+        <v>83.41849198959449</v>
       </c>
     </row>
     <row r="179">
@@ -5096,7 +5096,7 @@
         </is>
       </c>
       <c r="E179" t="n">
-        <v>34.54894113870146</v>
+        <v>34.00856062808025</v>
       </c>
     </row>
     <row r="180">
@@ -5121,7 +5121,7 @@
         </is>
       </c>
       <c r="E180" t="n">
-        <v>64.90172760202795</v>
+        <v>76.26056724962824</v>
       </c>
     </row>
     <row r="181">
@@ -5146,7 +5146,7 @@
         </is>
       </c>
       <c r="E181" t="n">
-        <v>68.58698538438884</v>
+        <v>81.03664512756909</v>
       </c>
     </row>
     <row r="182">
@@ -5171,7 +5171,7 @@
         </is>
       </c>
       <c r="E182" t="n">
-        <v>27.56635952398935</v>
+        <v>25.094320873481</v>
       </c>
     </row>
     <row r="183">
@@ -5196,7 +5196,7 @@
         </is>
       </c>
       <c r="E183" t="n">
-        <v>42.7403112804345</v>
+        <v>45.8193549673224</v>
       </c>
     </row>
     <row r="184">
@@ -5221,7 +5221,7 @@
         </is>
       </c>
       <c r="E184" t="n">
-        <v>41.22490863948095</v>
+        <v>44.09677658341592</v>
       </c>
     </row>
     <row r="185">
@@ -5246,7 +5246,7 @@
         </is>
       </c>
       <c r="E185" t="n">
-        <v>15.10501795380765</v>
+        <v>7.282176402825716</v>
       </c>
     </row>
     <row r="186">
@@ -5271,7 +5271,7 @@
         </is>
       </c>
       <c r="E186" t="n">
-        <v>45.80488541593733</v>
+        <v>49.79730159561402</v>
       </c>
     </row>
     <row r="187">
@@ -5296,7 +5296,7 @@
         </is>
       </c>
       <c r="E187" t="n">
-        <v>47.05084005834122</v>
+        <v>51.66196944385081</v>
       </c>
     </row>
     <row r="188">
@@ -5321,7 +5321,7 @@
         </is>
       </c>
       <c r="E188" t="n">
-        <v>17.10552735036027</v>
+        <v>9.870478153385413</v>
       </c>
     </row>
     <row r="189">
@@ -5346,7 +5346,7 @@
         </is>
       </c>
       <c r="E189" t="n">
-        <v>65.05626824752204</v>
+        <v>73.44244215769963</v>
       </c>
     </row>
     <row r="190">
@@ -5371,7 +5371,7 @@
         </is>
       </c>
       <c r="E190" t="n">
-        <v>59.10176362936167</v>
+        <v>67.07185656134692</v>
       </c>
     </row>
     <row r="191">
@@ -5396,7 +5396,7 @@
         </is>
       </c>
       <c r="E191" t="n">
-        <v>52.36888533526714</v>
+        <v>57.28710251093832</v>
       </c>
     </row>
     <row r="192">
@@ -5421,7 +5421,7 @@
         </is>
       </c>
       <c r="E192" t="n">
-        <v>61.31815969952762</v>
+        <v>69.35221054561151</v>
       </c>
     </row>
     <row r="193">
@@ -5446,7 +5446,7 @@
         </is>
       </c>
       <c r="E193" t="n">
-        <v>63.59351954373435</v>
+        <v>73.02139221537013</v>
       </c>
     </row>
     <row r="194">
@@ -5471,7 +5471,7 @@
         </is>
       </c>
       <c r="E194" t="n">
-        <v>23.57902062395298</v>
+        <v>18.16835714961905</v>
       </c>
     </row>
     <row r="195">
@@ -5496,7 +5496,7 @@
         </is>
       </c>
       <c r="E195" t="n">
-        <v>15.23764562952898</v>
+        <v>7.172895389053576</v>
       </c>
     </row>
     <row r="196">
@@ -5521,7 +5521,7 @@
         </is>
       </c>
       <c r="E196" t="n">
-        <v>15.63964110768014</v>
+        <v>8.368024035680005</v>
       </c>
     </row>
     <row r="197">
@@ -5546,7 +5546,7 @@
         </is>
       </c>
       <c r="E197" t="n">
-        <v>34.30698172733558</v>
+        <v>33.89740982280557</v>
       </c>
     </row>
     <row r="198">
@@ -5571,7 +5571,7 @@
         </is>
       </c>
       <c r="E198" t="n">
-        <v>45.23550963670792</v>
+        <v>49.62118333464176</v>
       </c>
     </row>
     <row r="199">
@@ -5596,7 +5596,7 @@
         </is>
       </c>
       <c r="E199" t="n">
-        <v>43.74514221801861</v>
+        <v>48.0419897659509</v>
       </c>
     </row>
     <row r="200">
@@ -5621,7 +5621,7 @@
         </is>
       </c>
       <c r="E200" t="n">
-        <v>14.97801920713322</v>
+        <v>6.826945515428029</v>
       </c>
     </row>
     <row r="201">
@@ -5646,7 +5646,7 @@
         </is>
       </c>
       <c r="E201" t="n">
-        <v>41.7907210178144</v>
+        <v>44.85746714217729</v>
       </c>
     </row>
     <row r="202">
@@ -5671,7 +5671,7 @@
         </is>
       </c>
       <c r="E202" t="n">
-        <v>45.25840011256039</v>
+        <v>48.51054062244769</v>
       </c>
     </row>
     <row r="203">
@@ -5696,7 +5696,7 @@
         </is>
       </c>
       <c r="E203" t="n">
-        <v>18.26018331920076</v>
+        <v>9.005226705992833</v>
       </c>
     </row>
     <row r="204">
@@ -5721,7 +5721,7 @@
         </is>
       </c>
       <c r="E204" t="n">
-        <v>60.48834904119693</v>
+        <v>69.56104676403089</v>
       </c>
     </row>
     <row r="205">
@@ -5746,7 +5746,7 @@
         </is>
       </c>
       <c r="E205" t="n">
-        <v>62.45175536522719</v>
+        <v>71.4920064745742</v>
       </c>
     </row>
     <row r="206">
@@ -5771,7 +5771,7 @@
         </is>
       </c>
       <c r="E206" t="n">
-        <v>57.85610736441528</v>
+        <v>66.32552016680654</v>
       </c>
     </row>
     <row r="207">
@@ -5796,7 +5796,7 @@
         </is>
       </c>
       <c r="E207" t="n">
-        <v>61.68805540892094</v>
+        <v>70.69322077822675</v>
       </c>
     </row>
     <row r="208">
@@ -5821,7 +5821,7 @@
         </is>
       </c>
       <c r="E208" t="n">
-        <v>63.84629106379154</v>
+        <v>73.99909836516912</v>
       </c>
     </row>
     <row r="209">
@@ -5846,7 +5846,7 @@
         </is>
       </c>
       <c r="E209" t="n">
-        <v>40.18588374137254</v>
+        <v>41.80252613489841</v>
       </c>
     </row>
     <row r="210">
@@ -5871,7 +5871,7 @@
         </is>
       </c>
       <c r="E210" t="n">
-        <v>65.60471735598387</v>
+        <v>76.25629734861266</v>
       </c>
     </row>
     <row r="211">
@@ -5896,7 +5896,7 @@
         </is>
       </c>
       <c r="E211" t="n">
-        <v>67.11613584769509</v>
+        <v>77.96525799903213</v>
       </c>
     </row>
     <row r="212">
@@ -5921,7 +5921,7 @@
         </is>
       </c>
       <c r="E212" t="n">
-        <v>37.09509434025945</v>
+        <v>37.82716808275308</v>
       </c>
     </row>
     <row r="213">
@@ -5946,7 +5946,7 @@
         </is>
       </c>
       <c r="E213" t="n">
-        <v>46.19723447213613</v>
+        <v>51.00159812426547</v>
       </c>
     </row>
     <row r="214">
@@ -5971,7 +5971,7 @@
         </is>
       </c>
       <c r="E214" t="n">
-        <v>46.37296742520589</v>
+        <v>51.33526082750912</v>
       </c>
     </row>
     <row r="215">
@@ -5996,7 +5996,7 @@
         </is>
       </c>
       <c r="E215" t="n">
-        <v>15.14497272013398</v>
+        <v>7.324970393186661</v>
       </c>
     </row>
     <row r="216">
@@ -6021,7 +6021,7 @@
         </is>
       </c>
       <c r="E216" t="n">
-        <v>46.13182404986706</v>
+        <v>50.48030413554581</v>
       </c>
     </row>
     <row r="217">
@@ -6046,7 +6046,7 @@
         </is>
       </c>
       <c r="E217" t="n">
-        <v>45.38676217684402</v>
+        <v>48.86084155436358</v>
       </c>
     </row>
     <row r="218">
@@ -6071,7 +6071,7 @@
         </is>
       </c>
       <c r="E218" t="n">
-        <v>17.42258423341186</v>
+        <v>10.03388683587422</v>
       </c>
     </row>
     <row r="219">
@@ -6096,7 +6096,7 @@
         </is>
       </c>
       <c r="E219" t="n">
-        <v>64.27435759534265</v>
+        <v>74.70968617410961</v>
       </c>
     </row>
     <row r="220">
@@ -6121,7 +6121,7 @@
         </is>
       </c>
       <c r="E220" t="n">
-        <v>63.33196205574646</v>
+        <v>73.72040322977327</v>
       </c>
     </row>
     <row r="221">
@@ -6146,7 +6146,7 @@
         </is>
       </c>
       <c r="E221" t="n">
-        <v>67.97970582236078</v>
+        <v>80.05284308147733</v>
       </c>
     </row>
     <row r="222">
@@ -6171,7 +6171,7 @@
         </is>
       </c>
       <c r="E222" t="n">
-        <v>70.41709486752308</v>
+        <v>83.7551854810057</v>
       </c>
     </row>
     <row r="223">
@@ -6196,7 +6196,7 @@
         </is>
       </c>
       <c r="E223" t="n">
-        <v>72.10342332098753</v>
+        <v>85.73533707009449</v>
       </c>
     </row>
     <row r="224">
@@ -6221,7 +6221,7 @@
         </is>
       </c>
       <c r="E224" t="n">
-        <v>46.86322929728499</v>
+        <v>51.26681977164206</v>
       </c>
     </row>
     <row r="225">
@@ -6246,7 +6246,7 @@
         </is>
       </c>
       <c r="E225" t="n">
-        <v>72.33907796539877</v>
+        <v>86.76255917101636</v>
       </c>
     </row>
     <row r="226">
@@ -6271,7 +6271,7 @@
         </is>
       </c>
       <c r="E226" t="n">
-        <v>71.05272693758218</v>
+        <v>83.90882792069135</v>
       </c>
     </row>
     <row r="227">
@@ -6296,7 +6296,7 @@
         </is>
       </c>
       <c r="E227" t="n">
-        <v>25.69382367576764</v>
+        <v>22.17230991915736</v>
       </c>
     </row>
     <row r="228">
@@ -6321,7 +6321,7 @@
         </is>
       </c>
       <c r="E228" t="n">
-        <v>34.09135356905679</v>
+        <v>33.8880259776989</v>
       </c>
     </row>
     <row r="229">
@@ -6346,7 +6346,7 @@
         </is>
       </c>
       <c r="E229" t="n">
-        <v>38.39532949346465</v>
+        <v>40.72630934299509</v>
       </c>
     </row>
     <row r="230">
@@ -6371,7 +6371,7 @@
         </is>
       </c>
       <c r="E230" t="n">
-        <v>14.49465401534216</v>
+        <v>6.420557827188762</v>
       </c>
     </row>
     <row r="231">
@@ -6396,7 +6396,7 @@
         </is>
       </c>
       <c r="E231" t="n">
-        <v>43.42053912509456</v>
+        <v>46.45172684244029</v>
       </c>
     </row>
     <row r="232">
@@ -6421,7 +6421,7 @@
         </is>
       </c>
       <c r="E232" t="n">
-        <v>46.3930926136516</v>
+        <v>50.67966805528174</v>
       </c>
     </row>
     <row r="233">
@@ -6446,7 +6446,7 @@
         </is>
       </c>
       <c r="E233" t="n">
-        <v>15.72858730222534</v>
+        <v>7.755236809900627</v>
       </c>
     </row>
     <row r="234">
@@ -6471,7 +6471,7 @@
         </is>
       </c>
       <c r="E234" t="n">
-        <v>62.37119708516447</v>
+        <v>72.1575904738138</v>
       </c>
     </row>
     <row r="235">
@@ -6496,7 +6496,7 @@
         </is>
       </c>
       <c r="E235" t="n">
-        <v>59.22540565635289</v>
+        <v>67.97887337354888</v>
       </c>
     </row>
     <row r="236">
@@ -6521,7 +6521,7 @@
         </is>
       </c>
       <c r="E236" t="n">
-        <v>54.72913168214545</v>
+        <v>60.70374382181078</v>
       </c>
     </row>
     <row r="237">
@@ -6546,7 +6546,7 @@
         </is>
       </c>
       <c r="E237" t="n">
-        <v>59.85998192162619</v>
+        <v>66.97807654084016</v>
       </c>
     </row>
     <row r="238">
@@ -6571,7 +6571,7 @@
         </is>
       </c>
       <c r="E238" t="n">
-        <v>61.21186660473136</v>
+        <v>68.61408597025172</v>
       </c>
     </row>
     <row r="239">
@@ -6596,7 +6596,7 @@
         </is>
       </c>
       <c r="E239" t="n">
-        <v>21.74297578918141</v>
+        <v>16.96553531900035</v>
       </c>
     </row>
     <row r="240">
@@ -6621,7 +6621,7 @@
         </is>
       </c>
       <c r="E240" t="n">
-        <v>14.83955104498282</v>
+        <v>6.742457874656296</v>
       </c>
     </row>
     <row r="241">
@@ -6646,7 +6646,7 @@
         </is>
       </c>
       <c r="E241" t="n">
-        <v>14.54067781698372</v>
+        <v>6.332125591136265</v>
       </c>
     </row>
     <row r="242">
@@ -6671,7 +6671,7 @@
         </is>
       </c>
       <c r="E242" t="n">
-        <v>28.49059316024331</v>
+        <v>26.20197221486193</v>
       </c>
     </row>
     <row r="243">
@@ -6696,7 +6696,7 @@
         </is>
       </c>
       <c r="E243" t="n">
-        <v>43.99510374743394</v>
+        <v>47.76091791137929</v>
       </c>
     </row>
     <row r="244">
@@ -6721,7 +6721,7 @@
         </is>
       </c>
       <c r="E244" t="n">
-        <v>45.68516941781971</v>
+        <v>50.00239644645322</v>
       </c>
     </row>
     <row r="245">
@@ -6746,7 +6746,7 @@
         </is>
       </c>
       <c r="E245" t="n">
-        <v>14.70257517349418</v>
+        <v>6.469157547211772</v>
       </c>
     </row>
     <row r="246">
@@ -6771,7 +6771,7 @@
         </is>
       </c>
       <c r="E246" t="n">
-        <v>40.55196003621056</v>
+        <v>42.38496084239938</v>
       </c>
     </row>
     <row r="247">
@@ -6796,7 +6796,7 @@
         </is>
       </c>
       <c r="E247" t="n">
-        <v>45.93066260147374</v>
+        <v>50.96009846008981</v>
       </c>
     </row>
     <row r="248">
@@ -6821,7 +6821,7 @@
         </is>
       </c>
       <c r="E248" t="n">
-        <v>15.70681218957118</v>
+        <v>7.978334812070347</v>
       </c>
     </row>
     <row r="249">
@@ -6846,7 +6846,7 @@
         </is>
       </c>
       <c r="E249" t="n">
-        <v>60.85217134900781</v>
+        <v>70.0823511859188</v>
       </c>
     </row>
     <row r="250">
@@ -6871,7 +6871,7 @@
         </is>
       </c>
       <c r="E250" t="n">
-        <v>64.27673559622593</v>
+        <v>74.07010878973011</v>
       </c>
     </row>
     <row r="251">
@@ -6896,7 +6896,7 @@
         </is>
       </c>
       <c r="E251" t="n">
-        <v>50.67836732106716</v>
+        <v>55.60215845735681</v>
       </c>
     </row>
     <row r="252">
@@ -6921,7 +6921,7 @@
         </is>
       </c>
       <c r="E252" t="n">
-        <v>60.1068565446124</v>
+        <v>69.28676661173037</v>
       </c>
     </row>
     <row r="253">
@@ -6946,7 +6946,7 @@
         </is>
       </c>
       <c r="E253" t="n">
-        <v>65.54403743581736</v>
+        <v>75.65810132352979</v>
       </c>
     </row>
     <row r="254">
@@ -6971,7 +6971,7 @@
         </is>
       </c>
       <c r="E254" t="n">
-        <v>27.8746306540216</v>
+        <v>25.19277198880086</v>
       </c>
     </row>
     <row r="255">
@@ -6996,7 +6996,7 @@
         </is>
       </c>
       <c r="E255" t="n">
-        <v>65.99673848864705</v>
+        <v>76.80170974428182</v>
       </c>
     </row>
     <row r="256">
@@ -7021,7 +7021,7 @@
         </is>
       </c>
       <c r="E256" t="n">
-        <v>68.37857877401902</v>
+        <v>80.24328111033205</v>
       </c>
     </row>
     <row r="257">
@@ -7046,7 +7046,7 @@
         </is>
       </c>
       <c r="E257" t="n">
-        <v>29.55103147481851</v>
+        <v>27.40499069386874</v>
       </c>
     </row>
     <row r="258">
@@ -7071,7 +7071,7 @@
         </is>
       </c>
       <c r="E258" t="n">
-        <v>44.204643956455</v>
+        <v>49.31564250572316</v>
       </c>
     </row>
     <row r="259">
@@ -7096,7 +7096,7 @@
         </is>
       </c>
       <c r="E259" t="n">
-        <v>46.01632920883377</v>
+        <v>51.78886338535526</v>
       </c>
     </row>
     <row r="260">
@@ -7121,7 +7121,7 @@
         </is>
       </c>
       <c r="E260" t="n">
-        <v>14.79773083683871</v>
+        <v>6.55367447768386</v>
       </c>
     </row>
     <row r="261">
@@ -7146,7 +7146,7 @@
         </is>
       </c>
       <c r="E261" t="n">
-        <v>42.81016990364012</v>
+        <v>44.76693129159513</v>
       </c>
     </row>
     <row r="262">
@@ -7171,7 +7171,7 @@
         </is>
       </c>
       <c r="E262" t="n">
-        <v>44.92039791025184</v>
+        <v>48.2885558041081</v>
       </c>
     </row>
     <row r="263">
@@ -7196,7 +7196,7 @@
         </is>
       </c>
       <c r="E263" t="n">
-        <v>15.90440044955976</v>
+        <v>7.978219426694729</v>
       </c>
     </row>
     <row r="264">
@@ -7221,7 +7221,7 @@
         </is>
       </c>
       <c r="E264" t="n">
-        <v>62.68353800931632</v>
+        <v>73.06410459932545</v>
       </c>
     </row>
     <row r="265">
@@ -7246,7 +7246,7 @@
         </is>
       </c>
       <c r="E265" t="n">
-        <v>63.60285382709299</v>
+        <v>73.60556086728297</v>
       </c>
     </row>
     <row r="266">
@@ -7271,7 +7271,7 @@
         </is>
       </c>
       <c r="E266" t="n">
-        <v>65.13267435599406</v>
+        <v>75.70630375916265</v>
       </c>
     </row>
     <row r="267">
@@ -7296,7 +7296,7 @@
         </is>
       </c>
       <c r="E267" t="n">
-        <v>69.54724076287653</v>
+        <v>81.67275447474617</v>
       </c>
     </row>
     <row r="268">
@@ -7321,7 +7321,7 @@
         </is>
       </c>
       <c r="E268" t="n">
-        <v>70.90950060598804</v>
+        <v>84.70937317116291</v>
       </c>
     </row>
     <row r="269">
@@ -7346,7 +7346,7 @@
         </is>
       </c>
       <c r="E269" t="n">
-        <v>27.34679029023891</v>
+        <v>24.95529262064639</v>
       </c>
     </row>
     <row r="270">
@@ -7371,7 +7371,7 @@
         </is>
       </c>
       <c r="E270" t="n">
-        <v>68.75452083650933</v>
+        <v>80.94687505453695</v>
       </c>
     </row>
     <row r="271">
@@ -7396,7 +7396,7 @@
         </is>
       </c>
       <c r="E271" t="n">
-        <v>71.06137595895048</v>
+        <v>83.47367547359204</v>
       </c>
     </row>
     <row r="272">
@@ -7421,7 +7421,7 @@
         </is>
       </c>
       <c r="E272" t="n">
-        <v>18.34080359952724</v>
+        <v>11.40193382765919</v>
       </c>
     </row>
     <row r="273">
@@ -7446,7 +7446,7 @@
         </is>
       </c>
       <c r="E273" t="n">
-        <v>19.44065459053391</v>
+        <v>12.60935222584725</v>
       </c>
     </row>
     <row r="274">
@@ -7471,7 +7471,7 @@
         </is>
       </c>
       <c r="E274" t="n">
-        <v>19.12187827455692</v>
+        <v>12.63096225576859</v>
       </c>
     </row>
     <row r="275">
@@ -7496,7 +7496,7 @@
         </is>
       </c>
       <c r="E275" t="n">
-        <v>15.29064458474638</v>
+        <v>5.959503151346052</v>
       </c>
     </row>
     <row r="276">
@@ -7521,7 +7521,7 @@
         </is>
       </c>
       <c r="E276" t="n">
-        <v>22.02780696436405</v>
+        <v>16.16377178223361</v>
       </c>
     </row>
     <row r="277">
@@ -7546,7 +7546,7 @@
         </is>
       </c>
       <c r="E277" t="n">
-        <v>23.26760395243172</v>
+        <v>18.52687350198668</v>
       </c>
     </row>
     <row r="278">
@@ -7571,7 +7571,7 @@
         </is>
       </c>
       <c r="E278" t="n">
-        <v>15.49548090329316</v>
+        <v>6.785804697491034</v>
       </c>
     </row>
     <row r="279">
@@ -7596,7 +7596,7 @@
         </is>
       </c>
       <c r="E279" t="n">
-        <v>24.48139421129037</v>
+        <v>20.01390297315443</v>
       </c>
     </row>
     <row r="280">
@@ -7621,7 +7621,7 @@
         </is>
       </c>
       <c r="E280" t="n">
-        <v>25.88939630835396</v>
+        <v>21.62595971691121</v>
       </c>
     </row>
     <row r="281">
@@ -7646,7 +7646,7 @@
         </is>
       </c>
       <c r="E281" t="n">
-        <v>28.77541995525903</v>
+        <v>25.37534434763628</v>
       </c>
     </row>
     <row r="282">
@@ -7671,7 +7671,7 @@
         </is>
       </c>
       <c r="E282" t="n">
-        <v>33.06586088483518</v>
+        <v>31.57093186847557</v>
       </c>
     </row>
     <row r="283">
@@ -7696,7 +7696,7 @@
         </is>
       </c>
       <c r="E283" t="n">
-        <v>34.89626551294105</v>
+        <v>33.82995959880758</v>
       </c>
     </row>
     <row r="284">
@@ -7721,7 +7721,7 @@
         </is>
       </c>
       <c r="E284" t="n">
-        <v>19.28579379574166</v>
+        <v>12.66122681212265</v>
       </c>
     </row>
     <row r="285">
@@ -7746,7 +7746,7 @@
         </is>
       </c>
       <c r="E285" t="n">
-        <v>22.64388494127341</v>
+        <v>18.14132548916491</v>
       </c>
     </row>
     <row r="286">
@@ -7771,7 +7771,7 @@
         </is>
       </c>
       <c r="E286" t="n">
-        <v>23.50943082729437</v>
+        <v>19.34119723955406</v>
       </c>
     </row>
     <row r="287">
@@ -7796,7 +7796,7 @@
         </is>
       </c>
       <c r="E287" t="n">
-        <v>19.03877317254745</v>
+        <v>12.48068600409803</v>
       </c>
     </row>
     <row r="288">
@@ -7821,7 +7821,7 @@
         </is>
       </c>
       <c r="E288" t="n">
-        <v>31.5860758667862</v>
+        <v>30.49066391505505</v>
       </c>
     </row>
     <row r="289">
@@ -7846,7 +7846,7 @@
         </is>
       </c>
       <c r="E289" t="n">
-        <v>35.95641697839889</v>
+        <v>35.81982466016823</v>
       </c>
     </row>
     <row r="290">
@@ -7871,7 +7871,7 @@
         </is>
       </c>
       <c r="E290" t="n">
-        <v>14.46602606978131</v>
+        <v>6.186904577679037</v>
       </c>
     </row>
     <row r="291">
@@ -7896,7 +7896,7 @@
         </is>
       </c>
       <c r="E291" t="n">
-        <v>31.18988404564988</v>
+        <v>29.51185420055718</v>
       </c>
     </row>
     <row r="292">
@@ -7921,7 +7921,7 @@
         </is>
       </c>
       <c r="E292" t="n">
-        <v>37.90249457185153</v>
+        <v>38.4857340058245</v>
       </c>
     </row>
     <row r="293">
@@ -7946,7 +7946,7 @@
         </is>
       </c>
       <c r="E293" t="n">
-        <v>14.65294341634336</v>
+        <v>6.258051853511954</v>
       </c>
     </row>
     <row r="294">
@@ -7971,7 +7971,7 @@
         </is>
       </c>
       <c r="E294" t="n">
-        <v>41.43702486691863</v>
+        <v>43.50624819872269</v>
       </c>
     </row>
     <row r="295">
@@ -7996,7 +7996,7 @@
         </is>
       </c>
       <c r="E295" t="n">
-        <v>49.14010256201587</v>
+        <v>52.97523688220303</v>
       </c>
     </row>
     <row r="296">
@@ -8021,7 +8021,7 @@
         </is>
       </c>
       <c r="E296" t="n">
-        <v>40.2798425439744</v>
+        <v>41.5416998008651</v>
       </c>
     </row>
     <row r="297">
@@ -8046,7 +8046,7 @@
         </is>
       </c>
       <c r="E297" t="n">
-        <v>45.82391953398547</v>
+        <v>49.76941494455572</v>
       </c>
     </row>
     <row r="298">
@@ -8071,7 +8071,7 @@
         </is>
       </c>
       <c r="E298" t="n">
-        <v>47.82765884615856</v>
+        <v>51.65059080959084</v>
       </c>
     </row>
     <row r="299">
@@ -8096,7 +8096,7 @@
         </is>
       </c>
       <c r="E299" t="n">
-        <v>19.56130171541612</v>
+        <v>13.50836276991847</v>
       </c>
     </row>
     <row r="300">
@@ -8121,7 +8121,7 @@
         </is>
       </c>
       <c r="E300" t="n">
-        <v>44.82704560284136</v>
+        <v>49.51961741096927</v>
       </c>
     </row>
     <row r="301">
@@ -8146,7 +8146,7 @@
         </is>
       </c>
       <c r="E301" t="n">
-        <v>47.58254255455132</v>
+        <v>50.91299311365997</v>
       </c>
     </row>
     <row r="302">
@@ -8171,7 +8171,7 @@
         </is>
       </c>
       <c r="E302" t="n">
-        <v>24.33085268303428</v>
+        <v>19.9858245523948</v>
       </c>
     </row>
     <row r="303">
@@ -8196,7 +8196,7 @@
         </is>
       </c>
       <c r="E303" t="n">
-        <v>34.78176478309738</v>
+        <v>34.8084479052082</v>
       </c>
     </row>
     <row r="304">
@@ -8221,7 +8221,7 @@
         </is>
       </c>
       <c r="E304" t="n">
-        <v>42.24389854589536</v>
+        <v>45.20264965526496</v>
       </c>
     </row>
     <row r="305">
@@ -8246,7 +8246,7 @@
         </is>
       </c>
       <c r="E305" t="n">
-        <v>14.77558637575211</v>
+        <v>6.837616955592335</v>
       </c>
     </row>
     <row r="306">
@@ -8271,7 +8271,7 @@
         </is>
       </c>
       <c r="E306" t="n">
-        <v>40.52920773817539</v>
+        <v>42.23193877535012</v>
       </c>
     </row>
     <row r="307">
@@ -8296,7 +8296,7 @@
         </is>
       </c>
       <c r="E307" t="n">
-        <v>45.33878244190904</v>
+        <v>49.15229125681451</v>
       </c>
     </row>
     <row r="308">
@@ -8321,7 +8321,7 @@
         </is>
       </c>
       <c r="E308" t="n">
-        <v>16.5607939063969</v>
+        <v>9.119309243276192</v>
       </c>
     </row>
     <row r="309">
@@ -8346,7 +8346,7 @@
         </is>
       </c>
       <c r="E309" t="n">
-        <v>55.19772467142772</v>
+        <v>63.13045813977374</v>
       </c>
     </row>
     <row r="310">
@@ -8371,7 +8371,7 @@
         </is>
       </c>
       <c r="E310" t="n">
-        <v>57.80081001086805</v>
+        <v>65.2463588112944</v>
       </c>
     </row>
     <row r="311">
@@ -8396,7 +8396,7 @@
         </is>
       </c>
       <c r="E311" t="n">
-        <v>57.75898474258845</v>
+        <v>65.55163847073484</v>
       </c>
     </row>
     <row r="312">
@@ -8421,7 +8421,7 @@
         </is>
       </c>
       <c r="E312" t="n">
-        <v>64.1113338127459</v>
+        <v>73.91151574732316</v>
       </c>
     </row>
     <row r="313">
@@ -8446,7 +8446,7 @@
         </is>
       </c>
       <c r="E313" t="n">
-        <v>65.46362065304533</v>
+        <v>76.56813542637174</v>
       </c>
     </row>
     <row r="314">
@@ -8471,7 +8471,7 @@
         </is>
       </c>
       <c r="E314" t="n">
-        <v>31.21330162140663</v>
+        <v>30.11835540725575</v>
       </c>
     </row>
     <row r="315">
@@ -8496,7 +8496,7 @@
         </is>
       </c>
       <c r="E315" t="n">
-        <v>63.44832665986829</v>
+        <v>74.25180382027398</v>
       </c>
     </row>
     <row r="316">
@@ -8521,7 +8521,7 @@
         </is>
       </c>
       <c r="E316" t="n">
-        <v>68.23437045050321</v>
+        <v>80.43706970764535</v>
       </c>
     </row>
     <row r="317">
@@ -8546,7 +8546,7 @@
         </is>
       </c>
       <c r="E317" t="n">
-        <v>18.28382276227807</v>
+        <v>11.03982408916994</v>
       </c>
     </row>
     <row r="318">
@@ -8571,7 +8571,7 @@
         </is>
       </c>
       <c r="E318" t="n">
-        <v>20.01697773843331</v>
+        <v>12.90071014760236</v>
       </c>
     </row>
     <row r="319">
@@ -8596,7 +8596,7 @@
         </is>
       </c>
       <c r="E319" t="n">
-        <v>18.77250158665404</v>
+        <v>11.82968062658516</v>
       </c>
     </row>
     <row r="320">
@@ -8621,7 +8621,7 @@
         </is>
       </c>
       <c r="E320" t="n">
-        <v>14.48011660809994</v>
+        <v>5.479043324364326</v>
       </c>
     </row>
     <row r="321">
@@ -8646,7 +8646,7 @@
         </is>
       </c>
       <c r="E321" t="n">
-        <v>19.83636871427192</v>
+        <v>13.38171038881202</v>
       </c>
     </row>
     <row r="322">
@@ -8671,7 +8671,7 @@
         </is>
       </c>
       <c r="E322" t="n">
-        <v>23.28598569373654</v>
+        <v>17.92437387184761</v>
       </c>
     </row>
     <row r="323">
@@ -8696,7 +8696,7 @@
         </is>
       </c>
       <c r="E323" t="n">
-        <v>14.90312636726345</v>
+        <v>6.742327783593794</v>
       </c>
     </row>
     <row r="324">
@@ -8721,7 +8721,7 @@
         </is>
       </c>
       <c r="E324" t="n">
-        <v>21.25101247113565</v>
+        <v>15.39345252998872</v>
       </c>
     </row>
     <row r="325">
@@ -8746,7 +8746,7 @@
         </is>
       </c>
       <c r="E325" t="n">
-        <v>21.38507790687569</v>
+        <v>14.51572796357036</v>
       </c>
     </row>
     <row r="326">
@@ -8771,7 +8771,7 @@
         </is>
       </c>
       <c r="E326" t="n">
-        <v>21.87672760376251</v>
+        <v>16.29427016060869</v>
       </c>
     </row>
     <row r="327">
@@ -8796,7 +8796,7 @@
         </is>
       </c>
       <c r="E327" t="n">
-        <v>22.50014149402327</v>
+        <v>17.15826752727419</v>
       </c>
     </row>
     <row r="328">
@@ -8821,7 +8821,7 @@
         </is>
       </c>
       <c r="E328" t="n">
-        <v>21.95679047898577</v>
+        <v>16.27859010001959</v>
       </c>
     </row>
     <row r="329">
@@ -8846,7 +8846,7 @@
         </is>
       </c>
       <c r="E329" t="n">
-        <v>18.86954168451582</v>
+        <v>12.08187912533544</v>
       </c>
     </row>
     <row r="330">
@@ -8871,7 +8871,7 @@
         </is>
       </c>
       <c r="E330" t="n">
-        <v>20.86107422195661</v>
+        <v>13.89672461814267</v>
       </c>
     </row>
     <row r="331">
@@ -8896,7 +8896,7 @@
         </is>
       </c>
       <c r="E331" t="n">
-        <v>19.9901799961191</v>
+        <v>13.44763699976441</v>
       </c>
     </row>
     <row r="332">
@@ -8921,7 +8921,7 @@
         </is>
       </c>
       <c r="E332" t="n">
-        <v>14.50270055633165</v>
+        <v>5.544743359805874</v>
       </c>
     </row>
     <row r="333">
@@ -8946,7 +8946,7 @@
         </is>
       </c>
       <c r="E333" t="n">
-        <v>17.24692014548691</v>
+        <v>9.865707461724213</v>
       </c>
     </row>
     <row r="334">
@@ -8971,7 +8971,7 @@
         </is>
       </c>
       <c r="E334" t="n">
-        <v>19.75448461724699</v>
+        <v>13.1139937147019</v>
       </c>
     </row>
     <row r="335">
@@ -8996,7 +8996,7 @@
         </is>
       </c>
       <c r="E335" t="n">
-        <v>14.34694604294412</v>
+        <v>4.055786000350434</v>
       </c>
     </row>
     <row r="336">
@@ -9021,7 +9021,7 @@
         </is>
       </c>
       <c r="E336" t="n">
-        <v>17.30662028211787</v>
+        <v>9.559869756647366</v>
       </c>
     </row>
     <row r="337">
@@ -9046,7 +9046,7 @@
         </is>
       </c>
       <c r="E337" t="n">
-        <v>21.26833162765202</v>
+        <v>14.37879371972668</v>
       </c>
     </row>
     <row r="338">
@@ -9071,7 +9071,7 @@
         </is>
       </c>
       <c r="E338" t="n">
-        <v>13.70596038490567</v>
+        <v>3.779077240016022</v>
       </c>
     </row>
     <row r="339">
@@ -9096,7 +9096,7 @@
         </is>
       </c>
       <c r="E339" t="n">
-        <v>20.10195817085338</v>
+        <v>13.17266448206806</v>
       </c>
     </row>
     <row r="340">
@@ -9121,7 +9121,7 @@
         </is>
       </c>
       <c r="E340" t="n">
-        <v>28.78499557854359</v>
+        <v>24.92289049824335</v>
       </c>
     </row>
     <row r="341">
@@ -9146,7 +9146,7 @@
         </is>
       </c>
       <c r="E341" t="n">
-        <v>18.05418665607048</v>
+        <v>11.64863395505742</v>
       </c>
     </row>
     <row r="342">
@@ -9171,7 +9171,7 @@
         </is>
       </c>
       <c r="E342" t="n">
-        <v>28.76625346764012</v>
+        <v>25.64337525925889</v>
       </c>
     </row>
     <row r="343">
@@ -9196,7 +9196,7 @@
         </is>
       </c>
       <c r="E343" t="n">
-        <v>36.40545818481986</v>
+        <v>35.56622129660209</v>
       </c>
     </row>
     <row r="344">
@@ -9221,7 +9221,7 @@
         </is>
       </c>
       <c r="E344" t="n">
-        <v>14.36797613067913</v>
+        <v>5.359457481488882</v>
       </c>
     </row>
     <row r="345">
@@ -9246,7 +9246,7 @@
         </is>
       </c>
       <c r="E345" t="n">
-        <v>22.79988760174969</v>
+        <v>17.78531043314096</v>
       </c>
     </row>
     <row r="346">
@@ -9271,7 +9271,7 @@
         </is>
       </c>
       <c r="E346" t="n">
-        <v>20.90031292165552</v>
+        <v>14.85791767745826</v>
       </c>
     </row>
     <row r="347">
@@ -9296,7 +9296,7 @@
         </is>
       </c>
       <c r="E347" t="n">
-        <v>14.6402978820451</v>
+        <v>5.84340068393097</v>
       </c>
     </row>
     <row r="348">
@@ -9321,7 +9321,7 @@
         </is>
       </c>
       <c r="E348" t="n">
-        <v>20.38290411765361</v>
+        <v>13.85778134387071</v>
       </c>
     </row>
     <row r="349">
@@ -9346,7 +9346,7 @@
         </is>
       </c>
       <c r="E349" t="n">
-        <v>35.77627285694142</v>
+        <v>35.3414074072082</v>
       </c>
     </row>
     <row r="350">
@@ -9371,7 +9371,7 @@
         </is>
       </c>
       <c r="E350" t="n">
-        <v>14.34695470968444</v>
+        <v>4.277348729526508</v>
       </c>
     </row>
     <row r="351">
@@ -9396,7 +9396,7 @@
         </is>
       </c>
       <c r="E351" t="n">
-        <v>20.64617104581925</v>
+        <v>15.04651397235885</v>
       </c>
     </row>
     <row r="352">
@@ -9421,7 +9421,7 @@
         </is>
       </c>
       <c r="E352" t="n">
-        <v>36.18587566476215</v>
+        <v>35.88372095476274</v>
       </c>
     </row>
     <row r="353">
@@ -9446,7 +9446,7 @@
         </is>
       </c>
       <c r="E353" t="n">
-        <v>14.21523827033225</v>
+        <v>3.823318223797617</v>
       </c>
     </row>
     <row r="354">
@@ -9471,7 +9471,7 @@
         </is>
       </c>
       <c r="E354" t="n">
-        <v>25.85568340400646</v>
+        <v>21.99360765148162</v>
       </c>
     </row>
     <row r="355">
@@ -9496,7 +9496,7 @@
         </is>
       </c>
       <c r="E355" t="n">
-        <v>55.39500775301617</v>
+        <v>61.85883139662484</v>
       </c>
     </row>
     <row r="356">
@@ -9521,7 +9521,7 @@
         </is>
       </c>
       <c r="E356" t="n">
-        <v>22.70263642696736</v>
+        <v>19.12018096611186</v>
       </c>
     </row>
     <row r="357">
@@ -9546,7 +9546,7 @@
         </is>
       </c>
       <c r="E357" t="n">
-        <v>44.80732369920657</v>
+        <v>47.92408956986652</v>
       </c>
     </row>
     <row r="358">
@@ -9571,7 +9571,7 @@
         </is>
       </c>
       <c r="E358" t="n">
-        <v>62.7752740303944</v>
+        <v>72.25652119393959</v>
       </c>
     </row>
     <row r="359">
@@ -9596,7 +9596,7 @@
         </is>
       </c>
       <c r="E359" t="n">
-        <v>14.42523996726361</v>
+        <v>6.558647097725796</v>
       </c>
     </row>
     <row r="360">
@@ -9621,7 +9621,7 @@
         </is>
       </c>
       <c r="E360" t="n">
-        <v>34.58938340173166</v>
+        <v>31.3499449221637</v>
       </c>
     </row>
     <row r="361">
@@ -9646,7 +9646,7 @@
         </is>
       </c>
       <c r="E361" t="n">
-        <v>42.99626663685836</v>
+        <v>44.5622632104045</v>
       </c>
     </row>
     <row r="362">
@@ -9671,7 +9671,7 @@
         </is>
       </c>
       <c r="E362" t="n">
-        <v>21.86302840993094</v>
+        <v>17.35718057389312</v>
       </c>
     </row>
     <row r="363">
@@ -9696,7 +9696,7 @@
         </is>
       </c>
       <c r="E363" t="n">
-        <v>24.75081590635502</v>
+        <v>20.32450715732413</v>
       </c>
     </row>
     <row r="364">
@@ -9721,7 +9721,7 @@
         </is>
       </c>
       <c r="E364" t="n">
-        <v>35.66628549674021</v>
+        <v>36.42054844640876</v>
       </c>
     </row>
     <row r="365">
@@ -9746,7 +9746,7 @@
         </is>
       </c>
       <c r="E365" t="n">
-        <v>15.10570533198133</v>
+        <v>6.793000218303973</v>
       </c>
     </row>
     <row r="366">
@@ -9771,7 +9771,7 @@
         </is>
       </c>
       <c r="E366" t="n">
-        <v>41.95382127992714</v>
+        <v>43.59802575810048</v>
       </c>
     </row>
     <row r="367">
@@ -9796,7 +9796,7 @@
         </is>
       </c>
       <c r="E367" t="n">
-        <v>42.41405521694074</v>
+        <v>45.74118794044141</v>
       </c>
     </row>
     <row r="368">
@@ -9821,7 +9821,7 @@
         </is>
       </c>
       <c r="E368" t="n">
-        <v>18.8643182410879</v>
+        <v>11.9574434127092</v>
       </c>
     </row>
     <row r="369">
@@ -9846,7 +9846,7 @@
         </is>
       </c>
       <c r="E369" t="n">
-        <v>55.29385914410406</v>
+        <v>62.84229342788871</v>
       </c>
     </row>
     <row r="370">
@@ -9871,7 +9871,7 @@
         </is>
       </c>
       <c r="E370" t="n">
-        <v>55.72456049549663</v>
+        <v>64.08307634382312</v>
       </c>
     </row>
     <row r="371">
@@ -9896,7 +9896,7 @@
         </is>
       </c>
       <c r="E371" t="n">
-        <v>54.51633466919526</v>
+        <v>60.18321914316316</v>
       </c>
     </row>
     <row r="372">
@@ -9921,7 +9921,7 @@
         </is>
       </c>
       <c r="E372" t="n">
-        <v>60.73936677200696</v>
+        <v>68.88460018906179</v>
       </c>
     </row>
     <row r="373">
@@ -9946,7 +9946,7 @@
         </is>
       </c>
       <c r="E373" t="n">
-        <v>59.73532186279506</v>
+        <v>67.23422975434337</v>
       </c>
     </row>
     <row r="374">
@@ -9971,7 +9971,7 @@
         </is>
       </c>
       <c r="E374" t="n">
-        <v>35.98816844918683</v>
+        <v>29.26164587140171</v>
       </c>
     </row>
     <row r="375">
@@ -9996,7 +9996,7 @@
         </is>
       </c>
       <c r="E375" t="n">
-        <v>48.76530870317713</v>
+        <v>53.9735165178764</v>
       </c>
     </row>
     <row r="376">
@@ -10021,7 +10021,7 @@
         </is>
       </c>
       <c r="E376" t="n">
-        <v>59.75901670372185</v>
+        <v>69.59816752141202</v>
       </c>
     </row>
     <row r="377">
@@ -10046,7 +10046,7 @@
         </is>
       </c>
       <c r="E377" t="n">
-        <v>25.4848044246099</v>
+        <v>21.53858224639339</v>
       </c>
     </row>
     <row r="378">
@@ -10071,7 +10071,7 @@
         </is>
       </c>
       <c r="E378" t="n">
-        <v>35.00505384726695</v>
+        <v>34.20771677871572</v>
       </c>
     </row>
     <row r="379">
@@ -10096,7 +10096,7 @@
         </is>
       </c>
       <c r="E379" t="n">
-        <v>36.58814766123319</v>
+        <v>36.07542851975087</v>
       </c>
     </row>
     <row r="380">
@@ -10121,7 +10121,7 @@
         </is>
       </c>
       <c r="E380" t="n">
-        <v>14.78208951645608</v>
+        <v>5.631378493026418</v>
       </c>
     </row>
     <row r="381">
@@ -10146,7 +10146,7 @@
         </is>
       </c>
       <c r="E381" t="n">
-        <v>35.88904442311168</v>
+        <v>34.9538012049596</v>
       </c>
     </row>
     <row r="382">
@@ -10171,7 +10171,7 @@
         </is>
       </c>
       <c r="E382" t="n">
-        <v>37.25782472846861</v>
+        <v>36.98920963607948</v>
       </c>
     </row>
     <row r="383">
@@ -10196,7 +10196,7 @@
         </is>
       </c>
       <c r="E383" t="n">
-        <v>16.16775295239836</v>
+        <v>7.627878553847097</v>
       </c>
     </row>
     <row r="384">
@@ -10221,7 +10221,7 @@
         </is>
       </c>
       <c r="E384" t="n">
-        <v>48.02670094151748</v>
+        <v>52.55041083666623</v>
       </c>
     </row>
     <row r="385">
@@ -10246,7 +10246,7 @@
         </is>
       </c>
       <c r="E385" t="n">
-        <v>50.02579217104852</v>
+        <v>55.38416502058257</v>
       </c>
     </row>
     <row r="386">
@@ -10271,7 +10271,7 @@
         </is>
       </c>
       <c r="E386" t="n">
-        <v>42.49187312182904</v>
+        <v>44.98379146704348</v>
       </c>
     </row>
     <row r="387">
@@ -10296,7 +10296,7 @@
         </is>
       </c>
       <c r="E387" t="n">
-        <v>47.525241999871</v>
+        <v>51.25985911285403</v>
       </c>
     </row>
     <row r="388">
@@ -10321,7 +10321,7 @@
         </is>
       </c>
       <c r="E388" t="n">
-        <v>48.17212564840156</v>
+        <v>52.47631995873066</v>
       </c>
     </row>
     <row r="389">
@@ -10346,7 +10346,7 @@
         </is>
       </c>
       <c r="E389" t="n">
-        <v>30.71833018043293</v>
+        <v>28.12961443537096</v>
       </c>
     </row>
     <row r="390">
@@ -10371,7 +10371,7 @@
         </is>
       </c>
       <c r="E390" t="n">
-        <v>50.58423060812567</v>
+        <v>56.83716935964462</v>
       </c>
     </row>
     <row r="391">
@@ -10396,7 +10396,7 @@
         </is>
       </c>
       <c r="E391" t="n">
-        <v>50.3681780474306</v>
+        <v>56.83363958664847</v>
       </c>
     </row>
     <row r="392">
@@ -10421,7 +10421,7 @@
         </is>
       </c>
       <c r="E392" t="n">
-        <v>26.78609161841586</v>
+        <v>22.73817574758488</v>
       </c>
     </row>
     <row r="393">
@@ -10446,7 +10446,7 @@
         </is>
       </c>
       <c r="E393" t="n">
-        <v>35.81360446988427</v>
+        <v>35.4462155369194</v>
       </c>
     </row>
     <row r="394">
@@ -10471,7 +10471,7 @@
         </is>
       </c>
       <c r="E394" t="n">
-        <v>42.11879277573298</v>
+        <v>44.2821981250111</v>
       </c>
     </row>
     <row r="395">
@@ -10496,7 +10496,7 @@
         </is>
       </c>
       <c r="E395" t="n">
-        <v>14.99419916364804</v>
+        <v>6.872876199409045</v>
       </c>
     </row>
     <row r="396">
@@ -10521,7 +10521,7 @@
         </is>
       </c>
       <c r="E396" t="n">
-        <v>43.7919383087589</v>
+        <v>46.50065185615175</v>
       </c>
     </row>
     <row r="397">
@@ -10546,7 +10546,7 @@
         </is>
       </c>
       <c r="E397" t="n">
-        <v>44.95955950628228</v>
+        <v>48.57043989495799</v>
       </c>
     </row>
     <row r="398">
@@ -10571,7 +10571,7 @@
         </is>
       </c>
       <c r="E398" t="n">
-        <v>16.59491116252795</v>
+        <v>9.062248821441507</v>
       </c>
     </row>
     <row r="399">
@@ -10596,7 +10596,7 @@
         </is>
       </c>
       <c r="E399" t="n">
-        <v>58.81223128108768</v>
+        <v>67.57477666836944</v>
       </c>
     </row>
     <row r="400">
@@ -10621,7 +10621,7 @@
         </is>
       </c>
       <c r="E400" t="n">
-        <v>60.31619714302064</v>
+        <v>69.2719528518241</v>
       </c>
     </row>
     <row r="401">
@@ -10646,7 +10646,7 @@
         </is>
       </c>
       <c r="E401" t="n">
-        <v>60.19017341889735</v>
+        <v>69.12269901933428</v>
       </c>
     </row>
     <row r="402">
@@ -10671,7 +10671,7 @@
         </is>
       </c>
       <c r="E402" t="n">
-        <v>65.15241391423018</v>
+        <v>75.50088222687361</v>
       </c>
     </row>
     <row r="403">
@@ -10696,7 +10696,7 @@
         </is>
       </c>
       <c r="E403" t="n">
-        <v>65.76342302198829</v>
+        <v>76.56528634682577</v>
       </c>
     </row>
     <row r="404">
@@ -10721,7 +10721,7 @@
         </is>
       </c>
       <c r="E404" t="n">
-        <v>32.92682070542953</v>
+        <v>32.33703426769443</v>
       </c>
     </row>
     <row r="405">
@@ -10746,7 +10746,7 @@
         </is>
       </c>
       <c r="E405" t="n">
-        <v>63.90854532506769</v>
+        <v>73.36231648489937</v>
       </c>
     </row>
     <row r="406">
@@ -10771,7 +10771,7 @@
         </is>
       </c>
       <c r="E406" t="n">
-        <v>67.93482082256887</v>
+        <v>79.11642479803515</v>
       </c>
     </row>
     <row r="407">
@@ -10796,7 +10796,7 @@
         </is>
       </c>
       <c r="E407" t="n">
-        <v>18.38009631139838</v>
+        <v>10.92117783319374</v>
       </c>
     </row>
     <row r="408">
@@ -10821,7 +10821,7 @@
         </is>
       </c>
       <c r="E408" t="n">
-        <v>19.13184835713878</v>
+        <v>11.93189868771472</v>
       </c>
     </row>
     <row r="409">
@@ -10846,7 +10846,7 @@
         </is>
       </c>
       <c r="E409" t="n">
-        <v>19.87332416720156</v>
+        <v>12.9147085184905</v>
       </c>
     </row>
     <row r="410">
@@ -10871,7 +10871,7 @@
         </is>
       </c>
       <c r="E410" t="n">
-        <v>15.01157936753514</v>
+        <v>5.018438576220536</v>
       </c>
     </row>
     <row r="411">
@@ -10896,7 +10896,7 @@
         </is>
       </c>
       <c r="E411" t="n">
-        <v>18.7192583964878</v>
+        <v>11.21159235151368</v>
       </c>
     </row>
     <row r="412">
@@ -10921,7 +10921,7 @@
         </is>
       </c>
       <c r="E412" t="n">
-        <v>21.32779296863254</v>
+        <v>14.60267782666727</v>
       </c>
     </row>
     <row r="413">
@@ -10946,7 +10946,7 @@
         </is>
       </c>
       <c r="E413" t="n">
-        <v>15.95684287026621</v>
+        <v>6.176167858317438</v>
       </c>
     </row>
     <row r="414">
@@ -10971,7 +10971,7 @@
         </is>
       </c>
       <c r="E414" t="n">
-        <v>22.6661262885731</v>
+        <v>17.48610504348039</v>
       </c>
     </row>
     <row r="415">
@@ -10996,7 +10996,7 @@
         </is>
       </c>
       <c r="E415" t="n">
-        <v>24.33514455670078</v>
+        <v>18.44449606732907</v>
       </c>
     </row>
     <row r="416">
@@ -11021,7 +11021,7 @@
         </is>
       </c>
       <c r="E416" t="n">
-        <v>22.93639565433779</v>
+        <v>17.24436255363498</v>
       </c>
     </row>
     <row r="417">
@@ -11046,7 +11046,7 @@
         </is>
       </c>
       <c r="E417" t="n">
-        <v>25.43125094058739</v>
+        <v>21.20894934887716</v>
       </c>
     </row>
     <row r="418">
@@ -11071,7 +11071,7 @@
         </is>
       </c>
       <c r="E418" t="n">
-        <v>27.68990174087985</v>
+        <v>23.0385906536839</v>
       </c>
     </row>
     <row r="419">
@@ -11096,7 +11096,7 @@
         </is>
       </c>
       <c r="E419" t="n">
-        <v>17.77193065836725</v>
+        <v>9.448656295118695</v>
       </c>
     </row>
     <row r="420">
@@ -11121,7 +11121,7 @@
         </is>
       </c>
       <c r="E420" t="n">
-        <v>21.97956392657268</v>
+        <v>15.96449706391841</v>
       </c>
     </row>
     <row r="421">
@@ -11146,7 +11146,7 @@
         </is>
       </c>
       <c r="E421" t="n">
-        <v>23.15003703292579</v>
+        <v>18.20690610649171</v>
       </c>
     </row>
     <row r="422">
@@ -11171,7 +11171,7 @@
         </is>
       </c>
       <c r="E422" t="n">
-        <v>16.06212513194366</v>
+        <v>7.885112867363667</v>
       </c>
     </row>
     <row r="423">
@@ -11196,7 +11196,7 @@
         </is>
       </c>
       <c r="E423" t="n">
-        <v>24.52972134301976</v>
+        <v>20.53932487025189</v>
       </c>
     </row>
     <row r="424">
@@ -11221,7 +11221,7 @@
         </is>
       </c>
       <c r="E424" t="n">
-        <v>29.50925139207644</v>
+        <v>26.53788419473531</v>
       </c>
     </row>
     <row r="425">
@@ -11246,7 +11246,7 @@
         </is>
       </c>
       <c r="E425" t="n">
-        <v>14.34716695674329</v>
+        <v>5.359384475109817</v>
       </c>
     </row>
     <row r="426">
@@ -11271,7 +11271,7 @@
         </is>
       </c>
       <c r="E426" t="n">
-        <v>23.91180933259709</v>
+        <v>19.3023430846393</v>
       </c>
     </row>
     <row r="427">
@@ -11296,7 +11296,7 @@
         </is>
       </c>
       <c r="E427" t="n">
-        <v>32.601686251153</v>
+        <v>31.27686578795158</v>
       </c>
     </row>
     <row r="428">
@@ -11321,7 +11321,7 @@
         </is>
       </c>
       <c r="E428" t="n">
-        <v>14.44191861827223</v>
+        <v>5.096403482960689</v>
       </c>
     </row>
     <row r="429">
@@ -11346,7 +11346,7 @@
         </is>
       </c>
       <c r="E429" t="n">
-        <v>32.57556896120785</v>
+        <v>30.34370599056711</v>
       </c>
     </row>
     <row r="430">
@@ -11371,7 +11371,7 @@
         </is>
       </c>
       <c r="E430" t="n">
-        <v>41.90670718993695</v>
+        <v>43.71782239906401</v>
       </c>
     </row>
     <row r="431">
@@ -11396,7 +11396,7 @@
         </is>
       </c>
       <c r="E431" t="n">
-        <v>28.27557564304619</v>
+        <v>25.14753533285705</v>
       </c>
     </row>
     <row r="432">
@@ -11421,7 +11421,7 @@
         </is>
       </c>
       <c r="E432" t="n">
-        <v>34.68593698638065</v>
+        <v>34.82535043995154</v>
       </c>
     </row>
     <row r="433">
@@ -11446,7 +11446,7 @@
         </is>
       </c>
       <c r="E433" t="n">
-        <v>38.23275329397687</v>
+        <v>38.3724017060101</v>
       </c>
     </row>
     <row r="434">
@@ -11471,7 +11471,7 @@
         </is>
       </c>
       <c r="E434" t="n">
-        <v>15.64199442883964</v>
+        <v>7.319454743675294</v>
       </c>
     </row>
     <row r="435">
@@ -11496,7 +11496,7 @@
         </is>
       </c>
       <c r="E435" t="n">
-        <v>33.45079561541893</v>
+        <v>32.74938261509308</v>
       </c>
     </row>
     <row r="436">
@@ -11521,7 +11521,7 @@
         </is>
       </c>
       <c r="E436" t="n">
-        <v>38.99813123308017</v>
+        <v>39.79330442198821</v>
       </c>
     </row>
     <row r="437">
@@ -11546,7 +11546,7 @@
         </is>
       </c>
       <c r="E437" t="n">
-        <v>21.2643610105194</v>
+        <v>14.99449013236761</v>
       </c>
     </row>
     <row r="438">
@@ -11571,7 +11571,7 @@
         </is>
       </c>
       <c r="E438" t="n">
-        <v>30.76034393841178</v>
+        <v>29.75508486831498</v>
       </c>
     </row>
     <row r="439">
@@ -11596,7 +11596,7 @@
         </is>
       </c>
       <c r="E439" t="n">
-        <v>41.01138958782326</v>
+        <v>42.34502835546589</v>
       </c>
     </row>
     <row r="440">
@@ -11621,7 +11621,7 @@
         </is>
       </c>
       <c r="E440" t="n">
-        <v>16.28634314977231</v>
+        <v>8.189325830887508</v>
       </c>
     </row>
     <row r="441">
@@ -11646,7 +11646,7 @@
         </is>
       </c>
       <c r="E441" t="n">
-        <v>29.63588987398842</v>
+        <v>27.83823893610145</v>
       </c>
     </row>
     <row r="442">
@@ -11671,7 +11671,7 @@
         </is>
       </c>
       <c r="E442" t="n">
-        <v>39.4459349469177</v>
+        <v>40.73662627677935</v>
       </c>
     </row>
     <row r="443">
@@ -11696,7 +11696,7 @@
         </is>
       </c>
       <c r="E443" t="n">
-        <v>20.52010350375165</v>
+        <v>13.49235309997254</v>
       </c>
     </row>
     <row r="444">
@@ -11721,7 +11721,7 @@
         </is>
       </c>
       <c r="E444" t="n">
-        <v>42.67228994617267</v>
+        <v>45.31699418464272</v>
       </c>
     </row>
     <row r="445">
@@ -11746,7 +11746,7 @@
         </is>
       </c>
       <c r="E445" t="n">
-        <v>53.70037489969909</v>
+        <v>59.17237917122085</v>
       </c>
     </row>
     <row r="446">
@@ -11771,7 +11771,7 @@
         </is>
       </c>
       <c r="E446" t="n">
-        <v>44.17592255396094</v>
+        <v>47.1071975165415</v>
       </c>
     </row>
     <row r="447">
@@ -11796,7 +11796,7 @@
         </is>
       </c>
       <c r="E447" t="n">
-        <v>52.45729612722701</v>
+        <v>55.36599732656261</v>
       </c>
     </row>
     <row r="448">
@@ -11821,7 +11821,7 @@
         </is>
       </c>
       <c r="E448" t="n">
-        <v>64.09961725193435</v>
+        <v>74.78197212851259</v>
       </c>
     </row>
     <row r="449">
@@ -11846,7 +11846,7 @@
         </is>
       </c>
       <c r="E449" t="n">
-        <v>25.53665877178388</v>
+        <v>21.30189602816657</v>
       </c>
     </row>
     <row r="450">
@@ -11871,7 +11871,7 @@
         </is>
       </c>
       <c r="E450" t="n">
-        <v>49.58529885104957</v>
+        <v>55.32892403878074</v>
       </c>
     </row>
     <row r="451">
@@ -11896,7 +11896,7 @@
         </is>
       </c>
       <c r="E451" t="n">
-        <v>57.75639357675579</v>
+        <v>66.15099268994922</v>
       </c>
     </row>
     <row r="452">
@@ -11921,7 +11921,7 @@
         </is>
       </c>
       <c r="E452" t="n">
-        <v>14.42534587573708</v>
+        <v>5.359437881247995</v>
       </c>
     </row>
     <row r="453">
@@ -11946,7 +11946,7 @@
         </is>
       </c>
       <c r="E453" t="n">
-        <v>14.34683583990438</v>
+        <v>5.154170077061963</v>
       </c>
     </row>
     <row r="454">
@@ -11971,7 +11971,7 @@
         </is>
       </c>
       <c r="E454" t="n">
-        <v>17.53931141524452</v>
+        <v>9.406628756861387</v>
       </c>
     </row>
     <row r="455">
@@ -11996,7 +11996,7 @@
         </is>
       </c>
       <c r="E455" t="n">
-        <v>14.16559019903881</v>
+        <v>4.058477279371985</v>
       </c>
     </row>
     <row r="456">
@@ -12021,7 +12021,7 @@
         </is>
       </c>
       <c r="E456" t="n">
-        <v>14.64362719307611</v>
+        <v>6.387267399770238</v>
       </c>
     </row>
     <row r="457">
@@ -12046,7 +12046,7 @@
         </is>
       </c>
       <c r="E457" t="n">
-        <v>17.62866365917809</v>
+        <v>10.57099961356911</v>
       </c>
     </row>
     <row r="458">
@@ -12071,7 +12071,7 @@
         </is>
       </c>
       <c r="E458" t="n">
-        <v>13.87414953776429</v>
+        <v>3.062714576177374</v>
       </c>
     </row>
     <row r="459">
@@ -12096,7 +12096,7 @@
         </is>
       </c>
       <c r="E459" t="n">
-        <v>14.93334076284636</v>
+        <v>6.273956790668546</v>
       </c>
     </row>
     <row r="460">
@@ -12121,7 +12121,7 @@
         </is>
       </c>
       <c r="E460" t="n">
-        <v>19.017586344239</v>
+        <v>11.98802069300916</v>
       </c>
     </row>
     <row r="461">
@@ -12146,7 +12146,7 @@
         </is>
       </c>
       <c r="E461" t="n">
-        <v>15.58178265604105</v>
+        <v>6.511424422429453</v>
       </c>
     </row>
     <row r="462">
@@ -12171,7 +12171,7 @@
         </is>
       </c>
       <c r="E462" t="n">
-        <v>16.91745953560896</v>
+        <v>8.65205537357048</v>
       </c>
     </row>
     <row r="463">
@@ -12196,7 +12196,7 @@
         </is>
       </c>
       <c r="E463" t="n">
-        <v>21.79249810868315</v>
+        <v>15.08778121743707</v>
       </c>
     </row>
     <row r="464">
@@ -12221,7 +12221,7 @@
         </is>
       </c>
       <c r="E464" t="n">
-        <v>14.42520890905648</v>
+        <v>5.359776401171651</v>
       </c>
     </row>
     <row r="465">
@@ -12246,7 +12246,7 @@
         </is>
       </c>
       <c r="E465" t="n">
-        <v>14.38905759397656</v>
+        <v>6.197025260786464</v>
       </c>
     </row>
     <row r="466">
@@ -12271,7 +12271,7 @@
         </is>
       </c>
       <c r="E466" t="n">
-        <v>19.06744781862904</v>
+        <v>13.03858673800856</v>
       </c>
     </row>
     <row r="467">
@@ -12296,7 +12296,7 @@
         </is>
       </c>
       <c r="E467" t="n">
-        <v>25.51979513952909</v>
+        <v>21.21601131014324</v>
       </c>
     </row>
     <row r="468">
@@ -12321,7 +12321,7 @@
         </is>
       </c>
       <c r="E468" t="n">
-        <v>35.56495657102475</v>
+        <v>34.40412866985668</v>
       </c>
     </row>
     <row r="469">
@@ -12346,7 +12346,7 @@
         </is>
       </c>
       <c r="E469" t="n">
-        <v>36.08721176499385</v>
+        <v>35.22335378489362</v>
       </c>
     </row>
     <row r="470">
@@ -12371,7 +12371,7 @@
         </is>
       </c>
       <c r="E470" t="n">
-        <v>14.65269078742667</v>
+        <v>6.362011420620828</v>
       </c>
     </row>
     <row r="471">
@@ -12396,7 +12396,7 @@
         </is>
       </c>
       <c r="E471" t="n">
-        <v>34.96860894449441</v>
+        <v>34.31084261161448</v>
       </c>
     </row>
     <row r="472">
@@ -12421,7 +12421,7 @@
         </is>
       </c>
       <c r="E472" t="n">
-        <v>37.61951819037964</v>
+        <v>38.02570523915569</v>
       </c>
     </row>
     <row r="473">
@@ -12446,7 +12446,7 @@
         </is>
       </c>
       <c r="E473" t="n">
-        <v>15.30735366398219</v>
+        <v>6.938562272982349</v>
       </c>
     </row>
     <row r="474">
@@ -12471,7 +12471,7 @@
         </is>
       </c>
       <c r="E474" t="n">
-        <v>46.99886144952076</v>
+        <v>50.91985650678137</v>
       </c>
     </row>
     <row r="475">
@@ -12496,7 +12496,7 @@
         </is>
       </c>
       <c r="E475" t="n">
-        <v>49.98534666360121</v>
+        <v>55.06758510950096</v>
       </c>
     </row>
     <row r="476">
@@ -12521,7 +12521,7 @@
         </is>
       </c>
       <c r="E476" t="n">
-        <v>45.89002697507601</v>
+        <v>49.68901567134493</v>
       </c>
     </row>
     <row r="477">
@@ -12546,7 +12546,7 @@
         </is>
       </c>
       <c r="E477" t="n">
-        <v>47.3106696221792</v>
+        <v>50.80288343119409</v>
       </c>
     </row>
     <row r="478">
@@ -12571,7 +12571,7 @@
         </is>
       </c>
       <c r="E478" t="n">
-        <v>48.99495716839903</v>
+        <v>52.96939950048242</v>
       </c>
     </row>
     <row r="479">
@@ -12596,7 +12596,7 @@
         </is>
       </c>
       <c r="E479" t="n">
-        <v>26.78563299841839</v>
+        <v>22.57014760758566</v>
       </c>
     </row>
     <row r="480">
@@ -12621,7 +12621,7 @@
         </is>
       </c>
       <c r="E480" t="n">
-        <v>49.21952308381151</v>
+        <v>55.16986823803951</v>
       </c>
     </row>
     <row r="481">
@@ -12646,7 +12646,7 @@
         </is>
       </c>
       <c r="E481" t="n">
-        <v>50.28660317616085</v>
+        <v>55.89208893470749</v>
       </c>
     </row>
     <row r="482">
@@ -12671,7 +12671,7 @@
         </is>
       </c>
       <c r="E482" t="n">
-        <v>27.55488445689042</v>
+        <v>23.580840324593</v>
       </c>
     </row>
     <row r="483">
@@ -12696,7 +12696,7 @@
         </is>
       </c>
       <c r="E483" t="n">
-        <v>38.82749569164395</v>
+        <v>39.1624605669432</v>
       </c>
     </row>
     <row r="484">
@@ -12721,7 +12721,7 @@
         </is>
       </c>
       <c r="E484" t="n">
-        <v>44.84389908285004</v>
+        <v>47.68685375394085</v>
       </c>
     </row>
     <row r="485">
@@ -12746,7 +12746,7 @@
         </is>
       </c>
       <c r="E485" t="n">
-        <v>14.82071519255115</v>
+        <v>6.657761623081964</v>
       </c>
     </row>
     <row r="486">
@@ -12771,7 +12771,7 @@
         </is>
       </c>
       <c r="E486" t="n">
-        <v>44.08429061816223</v>
+        <v>47.60213947543937</v>
       </c>
     </row>
     <row r="487">
@@ -12796,7 +12796,7 @@
         </is>
       </c>
       <c r="E487" t="n">
-        <v>46.87902897293108</v>
+        <v>51.65780809585797</v>
       </c>
     </row>
     <row r="488">
@@ -12821,7 +12821,7 @@
         </is>
       </c>
       <c r="E488" t="n">
-        <v>15.47665418655903</v>
+        <v>7.222783347695319</v>
       </c>
     </row>
     <row r="489">
@@ -12846,7 +12846,7 @@
         </is>
       </c>
       <c r="E489" t="n">
-        <v>59.50169333461534</v>
+        <v>67.62907466517879</v>
       </c>
     </row>
     <row r="490">
@@ -12871,7 +12871,7 @@
         </is>
       </c>
       <c r="E490" t="n">
-        <v>60.49894589692674</v>
+        <v>68.72067729938678</v>
       </c>
     </row>
     <row r="491">
@@ -12896,7 +12896,7 @@
         </is>
       </c>
       <c r="E491" t="n">
-        <v>64.06971005058904</v>
+        <v>74.8231596534898</v>
       </c>
     </row>
     <row r="492">
@@ -12921,7 +12921,7 @@
         </is>
       </c>
       <c r="E492" t="n">
-        <v>68.38127821146992</v>
+        <v>80.8174598784197</v>
       </c>
     </row>
     <row r="493">
@@ -12946,7 +12946,7 @@
         </is>
       </c>
       <c r="E493" t="n">
-        <v>70.27341630703634</v>
+        <v>82.23877984587823</v>
       </c>
     </row>
     <row r="494">
@@ -12971,7 +12971,7 @@
         </is>
       </c>
       <c r="E494" t="n">
-        <v>28.22377560463502</v>
+        <v>25.74182429411281</v>
       </c>
     </row>
     <row r="495">
@@ -12996,7 +12996,7 @@
         </is>
       </c>
       <c r="E495" t="n">
-        <v>67.59020335461173</v>
+        <v>79.7509338106006</v>
       </c>
     </row>
     <row r="496">
@@ -13021,7 +13021,7 @@
         </is>
       </c>
       <c r="E496" t="n">
-        <v>65.72852005436748</v>
+        <v>77.93148099614473</v>
       </c>
     </row>
     <row r="497">
@@ -13046,7 +13046,7 @@
         </is>
       </c>
       <c r="E497" t="n">
-        <v>20.91300258408478</v>
+        <v>14.23521321378847</v>
       </c>
     </row>
     <row r="498">
@@ -13071,7 +13071,7 @@
         </is>
       </c>
       <c r="E498" t="n">
-        <v>22.66389203480441</v>
+        <v>16.38200150523572</v>
       </c>
     </row>
     <row r="499">
@@ -13096,7 +13096,7 @@
         </is>
       </c>
       <c r="E499" t="n">
-        <v>22.80294023250115</v>
+        <v>16.64845798058657</v>
       </c>
     </row>
     <row r="500">
@@ -13121,7 +13121,7 @@
         </is>
       </c>
       <c r="E500" t="n">
-        <v>15.18032959639534</v>
+        <v>5.155725208301931</v>
       </c>
     </row>
     <row r="501">
@@ -13146,7 +13146,7 @@
         </is>
       </c>
       <c r="E501" t="n">
-        <v>22.34160944917249</v>
+        <v>15.68924093199414</v>
       </c>
     </row>
     <row r="502">
@@ -13171,7 +13171,7 @@
         </is>
       </c>
       <c r="E502" t="n">
-        <v>24.92808524742188</v>
+        <v>19.42742848341332</v>
       </c>
     </row>
     <row r="503">
@@ -13196,7 +13196,7 @@
         </is>
       </c>
       <c r="E503" t="n">
-        <v>16.20288193215578</v>
+        <v>6.231367694291912</v>
       </c>
     </row>
     <row r="504">
@@ -13221,7 +13221,7 @@
         </is>
       </c>
       <c r="E504" t="n">
-        <v>25.6032712347654</v>
+        <v>20.0290600750692</v>
       </c>
     </row>
     <row r="505">
@@ -13246,7 +13246,7 @@
         </is>
       </c>
       <c r="E505" t="n">
-        <v>28.21282351757663</v>
+        <v>24.22858116700855</v>
       </c>
     </row>
     <row r="506">
@@ -13271,7 +13271,7 @@
         </is>
       </c>
       <c r="E506" t="n">
-        <v>25.9532151486585</v>
+        <v>20.3311304745925</v>
       </c>
     </row>
     <row r="507">
@@ -13296,7 +13296,7 @@
         </is>
       </c>
       <c r="E507" t="n">
-        <v>30.23506488775377</v>
+        <v>27.63874515645239</v>
       </c>
     </row>
     <row r="508">
@@ -13321,7 +13321,7 @@
         </is>
       </c>
       <c r="E508" t="n">
-        <v>31.06959790769985</v>
+        <v>27.99980870215642</v>
       </c>
     </row>
     <row r="509">
@@ -13346,7 +13346,7 @@
         </is>
       </c>
       <c r="E509" t="n">
-        <v>20.09203994824524</v>
+        <v>12.81844870384051</v>
       </c>
     </row>
     <row r="510">
@@ -13371,7 +13371,7 @@
         </is>
       </c>
       <c r="E510" t="n">
-        <v>25.37319878111798</v>
+        <v>20.67992259934805</v>
       </c>
     </row>
     <row r="511">
@@ -13396,7 +13396,7 @@
         </is>
       </c>
       <c r="E511" t="n">
-        <v>26.57290593896742</v>
+        <v>23.13068230852864</v>
       </c>
     </row>
     <row r="512">
@@ -13421,7 +13421,7 @@
         </is>
       </c>
       <c r="E512" t="n">
-        <v>14.58926190270627</v>
+        <v>5.658173089690777</v>
       </c>
     </row>
     <row r="513">
@@ -13446,7 +13446,7 @@
         </is>
       </c>
       <c r="E513" t="n">
-        <v>18.80090433480536</v>
+        <v>11.73042680138974</v>
       </c>
     </row>
     <row r="514">
@@ -13471,7 +13471,7 @@
         </is>
       </c>
       <c r="E514" t="n">
-        <v>25.71838077010194</v>
+        <v>21.46259027735818</v>
       </c>
     </row>
     <row r="515">
@@ -13496,7 +13496,7 @@
         </is>
       </c>
       <c r="E515" t="n">
-        <v>14.34723492881678</v>
+        <v>4.238699367280528</v>
       </c>
     </row>
     <row r="516">
@@ -13521,7 +13521,7 @@
         </is>
       </c>
       <c r="E516" t="n">
-        <v>17.13441287671666</v>
+        <v>9.664666335470006</v>
       </c>
     </row>
     <row r="517">
@@ -13546,7 +13546,7 @@
         </is>
       </c>
       <c r="E517" t="n">
-        <v>26.82082367098978</v>
+        <v>22.84414597442824</v>
       </c>
     </row>
     <row r="518">
@@ -13571,7 +13571,7 @@
         </is>
       </c>
       <c r="E518" t="n">
-        <v>14.30426366146</v>
+        <v>4.210264194274551</v>
       </c>
     </row>
     <row r="519">
@@ -13596,7 +13596,7 @@
         </is>
       </c>
       <c r="E519" t="n">
-        <v>20.48700503396087</v>
+        <v>14.62752620626699</v>
       </c>
     </row>
     <row r="520">
@@ -13621,7 +13621,7 @@
         </is>
       </c>
       <c r="E520" t="n">
-        <v>35.74371904883886</v>
+        <v>35.07908458899478</v>
       </c>
     </row>
     <row r="521">
@@ -13646,7 +13646,7 @@
         </is>
       </c>
       <c r="E521" t="n">
-        <v>19.69130575560768</v>
+        <v>12.67463190551004</v>
       </c>
     </row>
     <row r="522">
@@ -13671,7 +13671,7 @@
         </is>
       </c>
       <c r="E522" t="n">
-        <v>27.25505544905837</v>
+        <v>23.59208348865207</v>
       </c>
     </row>
     <row r="523">
@@ -13696,7 +13696,7 @@
         </is>
       </c>
       <c r="E523" t="n">
-        <v>32.8735221955758</v>
+        <v>31.14558969081099</v>
       </c>
     </row>
     <row r="524">
@@ -13721,7 +13721,7 @@
         </is>
       </c>
       <c r="E524" t="n">
-        <v>14.36548752667722</v>
+        <v>5.359848786419505</v>
       </c>
     </row>
     <row r="525">
@@ -13746,7 +13746,7 @@
         </is>
       </c>
       <c r="E525" t="n">
-        <v>26.44338880413338</v>
+        <v>23.00920307750976</v>
       </c>
     </row>
     <row r="526">
@@ -13771,7 +13771,7 @@
         </is>
       </c>
       <c r="E526" t="n">
-        <v>32.04288482495274</v>
+        <v>30.41780050749843</v>
       </c>
     </row>
     <row r="527">
@@ -13796,7 +13796,7 @@
         </is>
       </c>
       <c r="E527" t="n">
-        <v>23.82033609873915</v>
+        <v>18.87130448053479</v>
       </c>
     </row>
     <row r="528">
@@ -13821,7 +13821,7 @@
         </is>
       </c>
       <c r="E528" t="n">
-        <v>31.10047786388891</v>
+        <v>28.05179039203728</v>
       </c>
     </row>
     <row r="529">
@@ -13846,7 +13846,7 @@
         </is>
       </c>
       <c r="E529" t="n">
-        <v>37.60217434830751</v>
+        <v>36.98647511639413</v>
       </c>
     </row>
     <row r="530">
@@ -13871,7 +13871,7 @@
         </is>
       </c>
       <c r="E530" t="n">
-        <v>15.37414046483615</v>
+        <v>5.77279462613523</v>
       </c>
     </row>
     <row r="531">
@@ -13896,7 +13896,7 @@
         </is>
       </c>
       <c r="E531" t="n">
-        <v>28.46961697828917</v>
+        <v>24.23263656110262</v>
       </c>
     </row>
     <row r="532">
@@ -13921,7 +13921,7 @@
         </is>
       </c>
       <c r="E532" t="n">
-        <v>32.73504818394657</v>
+        <v>31.18410094267638</v>
       </c>
     </row>
     <row r="533">
@@ -13946,7 +13946,7 @@
         </is>
       </c>
       <c r="E533" t="n">
-        <v>18.60750732971362</v>
+        <v>11.82556050523296</v>
       </c>
     </row>
     <row r="534">
@@ -13971,7 +13971,7 @@
         </is>
       </c>
       <c r="E534" t="n">
-        <v>41.00854209682563</v>
+        <v>42.39216057996538</v>
       </c>
     </row>
     <row r="535">
@@ -13996,7 +13996,7 @@
         </is>
       </c>
       <c r="E535" t="n">
-        <v>49.08480460401826</v>
+        <v>53.13413778482061</v>
       </c>
     </row>
     <row r="536">
@@ -14021,7 +14021,7 @@
         </is>
       </c>
       <c r="E536" t="n">
-        <v>43.78248642099345</v>
+        <v>46.17092159342495</v>
       </c>
     </row>
     <row r="537">
@@ -14046,7 +14046,7 @@
         </is>
       </c>
       <c r="E537" t="n">
-        <v>48.49340279843777</v>
+        <v>52.24163582690195</v>
       </c>
     </row>
     <row r="538">
@@ -14071,7 +14071,7 @@
         </is>
       </c>
       <c r="E538" t="n">
-        <v>55.80791894245765</v>
+        <v>62.3435161422946</v>
       </c>
     </row>
     <row r="539">
@@ -14096,7 +14096,7 @@
         </is>
       </c>
       <c r="E539" t="n">
-        <v>28.6486058536111</v>
+        <v>25.45719486680624</v>
       </c>
     </row>
     <row r="540">
@@ -14121,7 +14121,7 @@
         </is>
       </c>
       <c r="E540" t="n">
-        <v>44.66450667947432</v>
+        <v>46.94458897545699</v>
       </c>
     </row>
     <row r="541">
@@ -14146,7 +14146,7 @@
         </is>
       </c>
       <c r="E541" t="n">
-        <v>47.70271021275215</v>
+        <v>52.06330225761941</v>
       </c>
     </row>
     <row r="542">
@@ -14171,7 +14171,7 @@
         </is>
       </c>
       <c r="E542" t="n">
-        <v>14.87500228760096</v>
+        <v>5.986547606972053</v>
       </c>
     </row>
     <row r="543">
@@ -14196,7 +14196,7 @@
         </is>
       </c>
       <c r="E543" t="n">
-        <v>16.86189299684361</v>
+        <v>8.65091034659876</v>
       </c>
     </row>
     <row r="544">
@@ -14221,7 +14221,7 @@
         </is>
       </c>
       <c r="E544" t="n">
-        <v>16.85669343437835</v>
+        <v>8.305119064136406</v>
       </c>
     </row>
     <row r="545">
@@ -14246,7 +14246,7 @@
         </is>
       </c>
       <c r="E545" t="n">
-        <v>14.48000512206101</v>
+        <v>4.181076404941429</v>
       </c>
     </row>
     <row r="546">
@@ -14271,7 +14271,7 @@
         </is>
       </c>
       <c r="E546" t="n">
-        <v>16.07265940964472</v>
+        <v>7.189132858899384</v>
       </c>
     </row>
     <row r="547">
@@ -14296,7 +14296,7 @@
         </is>
       </c>
       <c r="E547" t="n">
-        <v>16.95437906674875</v>
+        <v>9.601171619078105</v>
       </c>
     </row>
     <row r="548">
@@ -14321,7 +14321,7 @@
         </is>
       </c>
       <c r="E548" t="n">
-        <v>14.1971889132896</v>
+        <v>4.339690642616461</v>
       </c>
     </row>
     <row r="549">
@@ -14346,7 +14346,7 @@
         </is>
       </c>
       <c r="E549" t="n">
-        <v>16.2810884131173</v>
+        <v>8.023288020040646</v>
       </c>
     </row>
     <row r="550">
@@ -14371,7 +14371,7 @@
         </is>
       </c>
       <c r="E550" t="n">
-        <v>19.06406329823045</v>
+        <v>11.10856514484539</v>
       </c>
     </row>
     <row r="551">
@@ -14396,7 +14396,7 @@
         </is>
       </c>
       <c r="E551" t="n">
-        <v>15.45136481386395</v>
+        <v>6.176016507695223</v>
       </c>
     </row>
     <row r="552">
@@ -14421,7 +14421,7 @@
         </is>
       </c>
       <c r="E552" t="n">
-        <v>16.04516449638161</v>
+        <v>6.772778690926891</v>
       </c>
     </row>
     <row r="553">
@@ -14446,7 +14446,7 @@
         </is>
       </c>
       <c r="E553" t="n">
-        <v>19.37683314757083</v>
+        <v>11.4565827149244</v>
       </c>
     </row>
     <row r="554">
@@ -14471,7 +14471,7 @@
         </is>
       </c>
       <c r="E554" t="n">
-        <v>14.83190679918766</v>
+        <v>5.063929709022947</v>
       </c>
     </row>
     <row r="555">
@@ -14496,7 +14496,7 @@
         </is>
       </c>
       <c r="E555" t="n">
-        <v>15.87590649731204</v>
+        <v>7.895962247245517</v>
       </c>
     </row>
     <row r="556">
@@ -14521,7 +14521,7 @@
         </is>
       </c>
       <c r="E556" t="n">
-        <v>17.82768396331325</v>
+        <v>10.78512523580499</v>
       </c>
     </row>
     <row r="557">
@@ -14546,7 +14546,7 @@
         </is>
       </c>
       <c r="E557" t="n">
-        <v>14.3266158112818</v>
+        <v>5.417117215099903</v>
       </c>
     </row>
     <row r="558">
@@ -14571,7 +14571,7 @@
         </is>
       </c>
       <c r="E558" t="n">
-        <v>15.25229782379589</v>
+        <v>7.140076507730736</v>
       </c>
     </row>
     <row r="559">
@@ -14596,7 +14596,7 @@
         </is>
       </c>
       <c r="E559" t="n">
-        <v>15.92096618268911</v>
+        <v>8.030991059734873</v>
       </c>
     </row>
     <row r="560">
@@ -14621,7 +14621,7 @@
         </is>
       </c>
       <c r="E560" t="n">
-        <v>14.34697836829482</v>
+        <v>4.348748365830382</v>
       </c>
     </row>
     <row r="561">
@@ -14646,7 +14646,7 @@
         </is>
       </c>
       <c r="E561" t="n">
-        <v>14.59854535034636</v>
+        <v>6.329815100355244</v>
       </c>
     </row>
     <row r="562">
@@ -14671,7 +14671,7 @@
         </is>
       </c>
       <c r="E562" t="n">
-        <v>15.56184722914717</v>
+        <v>7.615220786858536</v>
       </c>
     </row>
     <row r="563">
@@ -14696,7 +14696,7 @@
         </is>
       </c>
       <c r="E563" t="n">
-        <v>14.08190301036235</v>
+        <v>4.363964445546092</v>
       </c>
     </row>
     <row r="564">
@@ -14721,7 +14721,7 @@
         </is>
       </c>
       <c r="E564" t="n">
-        <v>15.41752863251376</v>
+        <v>6.793738721196767</v>
       </c>
     </row>
     <row r="565">
@@ -14746,7 +14746,7 @@
         </is>
       </c>
       <c r="E565" t="n">
-        <v>17.22243464829114</v>
+        <v>9.529148958758981</v>
       </c>
     </row>
     <row r="566">
@@ -14771,7 +14771,7 @@
         </is>
       </c>
       <c r="E566" t="n">
-        <v>15.08261593404721</v>
+        <v>6.383392264321095</v>
       </c>
     </row>
     <row r="567">
@@ -14796,7 +14796,7 @@
         </is>
       </c>
       <c r="E567" t="n">
-        <v>16.62370914149981</v>
+        <v>8.658362072387654</v>
       </c>
     </row>
     <row r="568">
@@ -14821,7 +14821,7 @@
         </is>
       </c>
       <c r="E568" t="n">
-        <v>17.25886062541134</v>
+        <v>8.679805850768098</v>
       </c>
     </row>
     <row r="569">
@@ -14846,7 +14846,7 @@
         </is>
       </c>
       <c r="E569" t="n">
-        <v>14.34684605621309</v>
+        <v>4.384845678668327</v>
       </c>
     </row>
     <row r="570">
@@ -14871,7 +14871,7 @@
         </is>
       </c>
       <c r="E570" t="n">
-        <v>15.1673623707</v>
+        <v>7.215873365808452</v>
       </c>
     </row>
     <row r="571">
@@ -14896,7 +14896,7 @@
         </is>
       </c>
       <c r="E571" t="n">
-        <v>16.12358891668234</v>
+        <v>8.410535728905437</v>
       </c>
     </row>
     <row r="572">
@@ -14921,7 +14921,7 @@
         </is>
       </c>
       <c r="E572" t="n">
-        <v>26.16166971597285</v>
+        <v>22.22009714145194</v>
       </c>
     </row>
     <row r="573">
@@ -14946,7 +14946,7 @@
         </is>
       </c>
       <c r="E573" t="n">
-        <v>28.52908823861657</v>
+        <v>24.4586176585321</v>
       </c>
     </row>
     <row r="574">
@@ -14971,7 +14971,7 @@
         </is>
       </c>
       <c r="E574" t="n">
-        <v>29.10592050398554</v>
+        <v>25.82356153054383</v>
       </c>
     </row>
     <row r="575">
@@ -14996,7 +14996,7 @@
         </is>
       </c>
       <c r="E575" t="n">
-        <v>15.81218326206113</v>
+        <v>6.378031477650282</v>
       </c>
     </row>
     <row r="576">
@@ -15021,7 +15021,7 @@
         </is>
       </c>
       <c r="E576" t="n">
-        <v>24.82724856591341</v>
+        <v>19.6372237594274</v>
       </c>
     </row>
     <row r="577">
@@ -15046,7 +15046,7 @@
         </is>
       </c>
       <c r="E577" t="n">
-        <v>26.39396278619903</v>
+        <v>22.53080073659016</v>
       </c>
     </row>
     <row r="578">
@@ -15071,7 +15071,7 @@
         </is>
       </c>
       <c r="E578" t="n">
-        <v>20.46042254757642</v>
+        <v>13.98226070286316</v>
       </c>
     </row>
     <row r="579">
@@ -15096,7 +15096,7 @@
         </is>
       </c>
       <c r="E579" t="n">
-        <v>32.4152517925724</v>
+        <v>29.8440842564459</v>
       </c>
     </row>
     <row r="580">
@@ -15121,7 +15121,7 @@
         </is>
       </c>
       <c r="E580" t="n">
-        <v>34.13303950597971</v>
+        <v>32.76036948732029</v>
       </c>
     </row>
     <row r="581">
@@ -15146,7 +15146,7 @@
         </is>
       </c>
       <c r="E581" t="n">
-        <v>37.72352580008663</v>
+        <v>37.58313692679464</v>
       </c>
     </row>
     <row r="582">
@@ -15171,7 +15171,7 @@
         </is>
       </c>
       <c r="E582" t="n">
-        <v>39.34829452592245</v>
+        <v>40.29137056413477</v>
       </c>
     </row>
     <row r="583">
@@ -15196,7 +15196,7 @@
         </is>
       </c>
       <c r="E583" t="n">
-        <v>41.14512139595226</v>
+        <v>42.60564693227944</v>
       </c>
     </row>
     <row r="584">
@@ -15221,7 +15221,7 @@
         </is>
       </c>
       <c r="E584" t="n">
-        <v>29.75690163494798</v>
+        <v>26.15479912646911</v>
       </c>
     </row>
     <row r="585">
@@ -15246,7 +15246,7 @@
         </is>
       </c>
       <c r="E585" t="n">
-        <v>32.34821028883373</v>
+        <v>30.56096681460876</v>
       </c>
     </row>
     <row r="586">
@@ -15271,7 +15271,7 @@
         </is>
       </c>
       <c r="E586" t="n">
-        <v>36.32340621650362</v>
+        <v>35.48415745396917</v>
       </c>
     </row>
     <row r="587">
@@ -15296,7 +15296,7 @@
         </is>
       </c>
       <c r="E587" t="n">
-        <v>23.71448255205355</v>
+        <v>18.06755032807323</v>
       </c>
     </row>
     <row r="588">
@@ -15321,7 +15321,7 @@
         </is>
       </c>
       <c r="E588" t="n">
-        <v>29.2976792266622</v>
+        <v>26.02273923677642</v>
       </c>
     </row>
     <row r="589">
@@ -15346,7 +15346,7 @@
         </is>
       </c>
       <c r="E589" t="n">
-        <v>35.05546211832722</v>
+        <v>34.06524584032909</v>
       </c>
     </row>
     <row r="590">
@@ -15371,7 +15371,7 @@
         </is>
       </c>
       <c r="E590" t="n">
-        <v>14.92231520760648</v>
+        <v>5.848901617326653</v>
       </c>
     </row>
     <row r="591">
@@ -15396,7 +15396,7 @@
         </is>
       </c>
       <c r="E591" t="n">
-        <v>26.70452893124255</v>
+        <v>22.74306270909236</v>
       </c>
     </row>
     <row r="592">
@@ -15421,7 +15421,7 @@
         </is>
       </c>
       <c r="E592" t="n">
-        <v>31.36474040307056</v>
+        <v>28.29825205908334</v>
       </c>
     </row>
     <row r="593">
@@ -15446,7 +15446,7 @@
         </is>
       </c>
       <c r="E593" t="n">
-        <v>16.64989723868106</v>
+        <v>7.896595177518705</v>
       </c>
     </row>
     <row r="594">
@@ -15471,7 +15471,7 @@
         </is>
       </c>
       <c r="E594" t="n">
-        <v>38.62018114995509</v>
+        <v>38.39763410212765</v>
       </c>
     </row>
     <row r="595">
@@ -15496,7 +15496,7 @@
         </is>
       </c>
       <c r="E595" t="n">
-        <v>44.39313045097433</v>
+        <v>46.54661441685944</v>
       </c>
     </row>
     <row r="596">
@@ -15521,7 +15521,7 @@
         </is>
       </c>
       <c r="E596" t="n">
-        <v>37.25462233462407</v>
+        <v>36.27574459200657</v>
       </c>
     </row>
     <row r="597">
@@ -15546,7 +15546,7 @@
         </is>
       </c>
       <c r="E597" t="n">
-        <v>42.99039809697172</v>
+        <v>44.26048682701308</v>
       </c>
     </row>
     <row r="598">
@@ -15571,7 +15571,7 @@
         </is>
       </c>
       <c r="E598" t="n">
-        <v>47.20362056767974</v>
+        <v>49.95396699661188</v>
       </c>
     </row>
     <row r="599">
@@ -15596,7 +15596,7 @@
         </is>
       </c>
       <c r="E599" t="n">
-        <v>31.00114044317362</v>
+        <v>28.4715414019586</v>
       </c>
     </row>
     <row r="600">
@@ -15621,7 +15621,7 @@
         </is>
       </c>
       <c r="E600" t="n">
-        <v>47.24976889179815</v>
+        <v>49.63354680726101</v>
       </c>
     </row>
     <row r="601">
@@ -15646,7 +15646,7 @@
         </is>
       </c>
       <c r="E601" t="n">
-        <v>56.80829460851913</v>
+        <v>62.31159289962962</v>
       </c>
     </row>
     <row r="602">
@@ -15671,7 +15671,7 @@
         </is>
       </c>
       <c r="E602" t="n">
-        <v>22.01318196061015</v>
+        <v>15.88886797910545</v>
       </c>
     </row>
     <row r="603">
@@ -15696,7 +15696,7 @@
         </is>
       </c>
       <c r="E603" t="n">
-        <v>29.44649703723072</v>
+        <v>25.51115070783875</v>
       </c>
     </row>
     <row r="604">
@@ -15721,7 +15721,7 @@
         </is>
       </c>
       <c r="E604" t="n">
-        <v>33.19578133077749</v>
+        <v>30.43254487355166</v>
       </c>
     </row>
     <row r="605">
@@ -15746,7 +15746,7 @@
         </is>
       </c>
       <c r="E605" t="n">
-        <v>14.43543636959708</v>
+        <v>4.69099938103037</v>
       </c>
     </row>
     <row r="606">
@@ -15771,7 +15771,7 @@
         </is>
       </c>
       <c r="E606" t="n">
-        <v>22.19958523474345</v>
+        <v>16.29429062434872</v>
       </c>
     </row>
     <row r="607">
@@ -15796,7 +15796,7 @@
         </is>
       </c>
       <c r="E607" t="n">
-        <v>26.30836815437678</v>
+        <v>21.54280329877536</v>
       </c>
     </row>
     <row r="608">
@@ -15821,7 +15821,7 @@
         </is>
       </c>
       <c r="E608" t="n">
-        <v>15.84324945817001</v>
+        <v>6.202605286948454</v>
       </c>
     </row>
     <row r="609">
@@ -15846,7 +15846,7 @@
         </is>
       </c>
       <c r="E609" t="n">
-        <v>33.23777287711436</v>
+        <v>30.54864704475495</v>
       </c>
     </row>
     <row r="610">
@@ -15871,7 +15871,7 @@
         </is>
       </c>
       <c r="E610" t="n">
-        <v>36.14365822898303</v>
+        <v>34.90818315541883</v>
       </c>
     </row>
     <row r="611">
@@ -15896,7 +15896,7 @@
         </is>
       </c>
       <c r="E611" t="n">
-        <v>31.07856069028457</v>
+        <v>28.54015776493124</v>
       </c>
     </row>
     <row r="612">
@@ -15921,7 +15921,7 @@
         </is>
       </c>
       <c r="E612" t="n">
-        <v>37.01473934470963</v>
+        <v>36.88237346329984</v>
       </c>
     </row>
     <row r="613">
@@ -15946,7 +15946,7 @@
         </is>
       </c>
       <c r="E613" t="n">
-        <v>37.55365687200459</v>
+        <v>36.04023076417701</v>
       </c>
     </row>
     <row r="614">
@@ -15971,7 +15971,7 @@
         </is>
       </c>
       <c r="E614" t="n">
-        <v>25.49557201262859</v>
+        <v>20.95132227799718</v>
       </c>
     </row>
     <row r="615">
@@ -15996,7 +15996,7 @@
         </is>
       </c>
       <c r="E615" t="n">
-        <v>41.1039089558468</v>
+        <v>41.74029653040525</v>
       </c>
     </row>
     <row r="616">
@@ -16021,7 +16021,7 @@
         </is>
       </c>
       <c r="E616" t="n">
-        <v>44.33972345655759</v>
+        <v>46.30951541901531</v>
       </c>
     </row>
     <row r="617">
@@ -16046,7 +16046,7 @@
         </is>
       </c>
       <c r="E617" t="n">
-        <v>28.35044924127251</v>
+        <v>24.56093523807571</v>
       </c>
     </row>
     <row r="618">
@@ -16071,7 +16071,7 @@
         </is>
       </c>
       <c r="E618" t="n">
-        <v>36.04483108442213</v>
+        <v>34.92783751477512</v>
       </c>
     </row>
     <row r="619">
@@ -16096,7 +16096,7 @@
         </is>
       </c>
       <c r="E619" t="n">
-        <v>43.17215300048661</v>
+        <v>45.95123074029269</v>
       </c>
     </row>
     <row r="620">
@@ -16121,7 +16121,7 @@
         </is>
       </c>
       <c r="E620" t="n">
-        <v>15.21262266333018</v>
+        <v>5.664435608387436</v>
       </c>
     </row>
     <row r="621">
@@ -16146,7 +16146,7 @@
         </is>
       </c>
       <c r="E621" t="n">
-        <v>33.67825096906694</v>
+        <v>32.48680079683571</v>
       </c>
     </row>
     <row r="622">
@@ -16171,7 +16171,7 @@
         </is>
       </c>
       <c r="E622" t="n">
-        <v>37.18096037995998</v>
+        <v>36.63850792397981</v>
       </c>
     </row>
     <row r="623">
@@ -16196,7 +16196,7 @@
         </is>
       </c>
       <c r="E623" t="n">
-        <v>18.57432295493775</v>
+        <v>10.3434883732829</v>
       </c>
     </row>
     <row r="624">
@@ -16221,7 +16221,7 @@
         </is>
       </c>
       <c r="E624" t="n">
-        <v>50.33172108159329</v>
+        <v>54.88929608139641</v>
       </c>
     </row>
     <row r="625">
@@ -16246,7 +16246,7 @@
         </is>
       </c>
       <c r="E625" t="n">
-        <v>53.36608436526522</v>
+        <v>58.65019327599801</v>
       </c>
     </row>
     <row r="626">
@@ -16271,7 +16271,7 @@
         </is>
       </c>
       <c r="E626" t="n">
-        <v>56.93635088229862</v>
+        <v>63.70561188435551</v>
       </c>
     </row>
     <row r="627">
@@ -16296,7 +16296,7 @@
         </is>
       </c>
       <c r="E627" t="n">
-        <v>60.42127217673223</v>
+        <v>69.60000695887686</v>
       </c>
     </row>
     <row r="628">
@@ -16321,7 +16321,7 @@
         </is>
       </c>
       <c r="E628" t="n">
-        <v>64.35335056425627</v>
+        <v>74.40311430775026</v>
       </c>
     </row>
     <row r="629">
@@ -16346,7 +16346,7 @@
         </is>
       </c>
       <c r="E629" t="n">
-        <v>32.25442506560844</v>
+        <v>30.16421753711474</v>
       </c>
     </row>
     <row r="630">
@@ -16371,7 +16371,7 @@
         </is>
       </c>
       <c r="E630" t="n">
-        <v>53.67687649954873</v>
+        <v>58.97932631565542</v>
       </c>
     </row>
     <row r="631">
@@ -16396,7 +16396,7 @@
         </is>
       </c>
       <c r="E631" t="n">
-        <v>60.0537678526986</v>
+        <v>68.07750375374184</v>
       </c>
     </row>
     <row r="632">
@@ -16421,7 +16421,7 @@
         </is>
       </c>
       <c r="E632" t="n">
-        <v>24.27717455714585</v>
+        <v>20.32268224606297</v>
       </c>
     </row>
     <row r="633">
@@ -16446,7 +16446,7 @@
         </is>
       </c>
       <c r="E633" t="n">
-        <v>33.70705224472848</v>
+        <v>33.07018971960539</v>
       </c>
     </row>
     <row r="634">
@@ -16471,7 +16471,7 @@
         </is>
       </c>
       <c r="E634" t="n">
-        <v>37.53034829845923</v>
+        <v>38.64780151137451</v>
       </c>
     </row>
     <row r="635">
@@ -16496,7 +16496,7 @@
         </is>
       </c>
       <c r="E635" t="n">
-        <v>15.68918074821592</v>
+        <v>7.94142428249603</v>
       </c>
     </row>
     <row r="636">
@@ -16521,7 +16521,7 @@
         </is>
       </c>
       <c r="E636" t="n">
-        <v>39.56286505913403</v>
+        <v>41.7923942687584</v>
       </c>
     </row>
     <row r="637">
@@ -16546,7 +16546,7 @@
         </is>
       </c>
       <c r="E637" t="n">
-        <v>41.0122878417539</v>
+        <v>42.54603156173856</v>
       </c>
     </row>
     <row r="638">
@@ -16571,7 +16571,7 @@
         </is>
       </c>
       <c r="E638" t="n">
-        <v>18.77815291176381</v>
+        <v>10.98552790949709</v>
       </c>
     </row>
     <row r="639">
@@ -16596,7 +16596,7 @@
         </is>
       </c>
       <c r="E639" t="n">
-        <v>51.72722128527808</v>
+        <v>57.51366127691693</v>
       </c>
     </row>
     <row r="640">
@@ -16621,7 +16621,7 @@
         </is>
       </c>
       <c r="E640" t="n">
-        <v>54.59363723249794</v>
+        <v>61.9090806491064</v>
       </c>
     </row>
     <row r="641">
@@ -16646,7 +16646,7 @@
         </is>
       </c>
       <c r="E641" t="n">
-        <v>57.81257655117221</v>
+        <v>66.29088462989186</v>
       </c>
     </row>
     <row r="642">
@@ -16671,7 +16671,7 @@
         </is>
       </c>
       <c r="E642" t="n">
-        <v>58.79052080323066</v>
+        <v>67.7774573965319</v>
       </c>
     </row>
     <row r="643">
@@ -16696,7 +16696,7 @@
         </is>
       </c>
       <c r="E643" t="n">
-        <v>60.90341601120109</v>
+        <v>70.54193552047627</v>
       </c>
     </row>
     <row r="644">
@@ -16721,7 +16721,7 @@
         </is>
       </c>
       <c r="E644" t="n">
-        <v>25.87298033868375</v>
+        <v>22.72679969200509</v>
       </c>
     </row>
     <row r="645">
@@ -16746,7 +16746,7 @@
         </is>
       </c>
       <c r="E645" t="n">
-        <v>52.12544914831464</v>
+        <v>59.54629435631444</v>
       </c>
     </row>
     <row r="646">
@@ -16771,7 +16771,7 @@
         </is>
       </c>
       <c r="E646" t="n">
-        <v>56.33041406585774</v>
+        <v>65.30307141434157</v>
       </c>
     </row>
     <row r="647">
@@ -16796,7 +16796,7 @@
         </is>
       </c>
       <c r="E647" t="n">
-        <v>22.53594007235486</v>
+        <v>17.91745021681085</v>
       </c>
     </row>
     <row r="648">
@@ -16821,7 +16821,7 @@
         </is>
       </c>
       <c r="E648" t="n">
-        <v>33.58268076362918</v>
+        <v>32.16942529431751</v>
       </c>
     </row>
     <row r="649">
@@ -16846,7 +16846,7 @@
         </is>
       </c>
       <c r="E649" t="n">
-        <v>38.01945246567524</v>
+        <v>39.32352844917427</v>
       </c>
     </row>
     <row r="650">
@@ -16871,7 +16871,7 @@
         </is>
       </c>
       <c r="E650" t="n">
-        <v>14.47293643460769</v>
+        <v>5.895638119024298</v>
       </c>
     </row>
     <row r="651">
@@ -16896,7 +16896,7 @@
         </is>
       </c>
       <c r="E651" t="n">
-        <v>33.15956866630437</v>
+        <v>31.8977818338</v>
       </c>
     </row>
     <row r="652">
@@ -16921,7 +16921,7 @@
         </is>
       </c>
       <c r="E652" t="n">
-        <v>36.49350749443346</v>
+        <v>35.8576765201295</v>
       </c>
     </row>
     <row r="653">
@@ -16946,7 +16946,7 @@
         </is>
       </c>
       <c r="E653" t="n">
-        <v>14.91307292816655</v>
+        <v>6.18466499327911</v>
       </c>
     </row>
     <row r="654">
@@ -16971,7 +16971,7 @@
         </is>
       </c>
       <c r="E654" t="n">
-        <v>43.71965618320296</v>
+        <v>47.89215081440869</v>
       </c>
     </row>
     <row r="655">
@@ -16996,7 +16996,7 @@
         </is>
       </c>
       <c r="E655" t="n">
-        <v>52.42757300529876</v>
+        <v>57.89961933825596</v>
       </c>
     </row>
     <row r="656">
@@ -17021,7 +17021,7 @@
         </is>
       </c>
       <c r="E656" t="n">
-        <v>42.18705164791577</v>
+        <v>44.85847933852649</v>
       </c>
     </row>
     <row r="657">
@@ -17046,7 +17046,7 @@
         </is>
       </c>
       <c r="E657" t="n">
-        <v>48.19143208213373</v>
+        <v>52.42919796848369</v>
       </c>
     </row>
     <row r="658">
@@ -17071,7 +17071,7 @@
         </is>
       </c>
       <c r="E658" t="n">
-        <v>46.56262828885374</v>
+        <v>49.01587371706509</v>
       </c>
     </row>
     <row r="659">
@@ -17096,7 +17096,7 @@
         </is>
       </c>
       <c r="E659" t="n">
-        <v>22.17828951633916</v>
+        <v>17.53598277356377</v>
       </c>
     </row>
     <row r="660">
@@ -17121,7 +17121,7 @@
         </is>
       </c>
       <c r="E660" t="n">
-        <v>48.98458017852016</v>
+        <v>54.53472256191165</v>
       </c>
     </row>
     <row r="661">
@@ -17146,7 +17146,7 @@
         </is>
       </c>
       <c r="E661" t="n">
-        <v>54.7958599984118</v>
+        <v>62.36768769121189</v>
       </c>
     </row>
     <row r="662">
@@ -17171,7 +17171,7 @@
         </is>
       </c>
       <c r="E662" t="n">
-        <v>23.5121075866215</v>
+        <v>19.02865683822125</v>
       </c>
     </row>
     <row r="663">
@@ -17196,7 +17196,7 @@
         </is>
       </c>
       <c r="E663" t="n">
-        <v>36.40084123849303</v>
+        <v>35.98514058665089</v>
       </c>
     </row>
     <row r="664">
@@ -17221,7 +17221,7 @@
         </is>
       </c>
       <c r="E664" t="n">
-        <v>41.31525867719739</v>
+        <v>42.97562415912546</v>
       </c>
     </row>
     <row r="665">
@@ -17246,7 +17246,7 @@
         </is>
       </c>
       <c r="E665" t="n">
-        <v>14.4949268993138</v>
+        <v>6.082681145430328</v>
       </c>
     </row>
     <row r="666">
@@ -17271,7 +17271,7 @@
         </is>
       </c>
       <c r="E666" t="n">
-        <v>39.28277558715687</v>
+        <v>40.02834850241043</v>
       </c>
     </row>
     <row r="667">
@@ -17296,7 +17296,7 @@
         </is>
       </c>
       <c r="E667" t="n">
-        <v>42.0760874893118</v>
+        <v>44.33484363340973</v>
       </c>
     </row>
     <row r="668">
@@ -17321,7 +17321,7 @@
         </is>
       </c>
       <c r="E668" t="n">
-        <v>14.94516740626497</v>
+        <v>6.264658823992363</v>
       </c>
     </row>
     <row r="669">
@@ -17346,7 +17346,7 @@
         </is>
       </c>
       <c r="E669" t="n">
-        <v>50.75012804693416</v>
+        <v>56.4579475853735</v>
       </c>
     </row>
     <row r="670">
@@ -17371,7 +17371,7 @@
         </is>
       </c>
       <c r="E670" t="n">
-        <v>57.2890874460512</v>
+        <v>64.97285905978924</v>
       </c>
     </row>
     <row r="671">
@@ -17396,7 +17396,7 @@
         </is>
       </c>
       <c r="E671" t="n">
-        <v>56.96537239172736</v>
+        <v>64.42858705634794</v>
       </c>
     </row>
     <row r="672">
@@ -17421,7 +17421,7 @@
         </is>
       </c>
       <c r="E672" t="n">
-        <v>61.60635210646446</v>
+        <v>71.56492394389663</v>
       </c>
     </row>
     <row r="673">
@@ -17446,7 +17446,7 @@
         </is>
       </c>
       <c r="E673" t="n">
-        <v>68.05654322833851</v>
+        <v>79.51330810729907</v>
       </c>
     </row>
     <row r="674">
@@ -17471,7 +17471,7 @@
         </is>
       </c>
       <c r="E674" t="n">
-        <v>22.94700846628836</v>
+        <v>18.71250738157176</v>
       </c>
     </row>
     <row r="675">
@@ -17496,7 +17496,7 @@
         </is>
       </c>
       <c r="E675" t="n">
-        <v>58.32939830591634</v>
+        <v>68.14291752154293</v>
       </c>
     </row>
     <row r="676">
@@ -17521,7 +17521,7 @@
         </is>
       </c>
       <c r="E676" t="n">
-        <v>64.28025286274192</v>
+        <v>75.05749077532195</v>
       </c>
     </row>
     <row r="677">
@@ -17546,7 +17546,7 @@
         </is>
       </c>
       <c r="E677" t="n">
-        <v>25.47048777282887</v>
+        <v>20.29010695337455</v>
       </c>
     </row>
     <row r="678">
@@ -17571,7 +17571,7 @@
         </is>
       </c>
       <c r="E678" t="n">
-        <v>30.07748860429128</v>
+        <v>28.19027497011863</v>
       </c>
     </row>
     <row r="679">
@@ -17596,7 +17596,7 @@
         </is>
       </c>
       <c r="E679" t="n">
-        <v>34.63052890616272</v>
+        <v>35.40824536952202</v>
       </c>
     </row>
     <row r="680">
@@ -17621,7 +17621,7 @@
         </is>
       </c>
       <c r="E680" t="n">
-        <v>14.82031326882584</v>
+        <v>6.471928890001671</v>
       </c>
     </row>
     <row r="681">
@@ -17646,7 +17646,7 @@
         </is>
       </c>
       <c r="E681" t="n">
-        <v>40.54079345559768</v>
+        <v>42.52734773714698</v>
       </c>
     </row>
     <row r="682">
@@ -17671,7 +17671,7 @@
         </is>
       </c>
       <c r="E682" t="n">
-        <v>42.51507527093243</v>
+        <v>44.37941175189289</v>
       </c>
     </row>
     <row r="683">
@@ -17696,7 +17696,7 @@
         </is>
       </c>
       <c r="E683" t="n">
-        <v>17.68910067452384</v>
+        <v>9.896226819072172</v>
       </c>
     </row>
     <row r="684">
@@ -17721,7 +17721,7 @@
         </is>
       </c>
       <c r="E684" t="n">
-        <v>52.53469057257633</v>
+        <v>58.4889345949092</v>
       </c>
     </row>
     <row r="685">
@@ -17746,7 +17746,7 @@
         </is>
       </c>
       <c r="E685" t="n">
-        <v>53.99403495658063</v>
+        <v>59.87552827385967</v>
       </c>
     </row>
     <row r="686">
@@ -17771,7 +17771,7 @@
         </is>
       </c>
       <c r="E686" t="n">
-        <v>52.4373497111491</v>
+        <v>61.86520798731829</v>
       </c>
     </row>
     <row r="687">
@@ -17796,7 +17796,7 @@
         </is>
       </c>
       <c r="E687" t="n">
-        <v>53.21828013129055</v>
+        <v>62.57985544006059</v>
       </c>
     </row>
     <row r="688">
@@ -17821,7 +17821,7 @@
         </is>
       </c>
       <c r="E688" t="n">
-        <v>56.12041976159753</v>
+        <v>66.96450391066892</v>
       </c>
     </row>
     <row r="689">
@@ -17846,7 +17846,7 @@
         </is>
       </c>
       <c r="E689" t="n">
-        <v>32.84726750478199</v>
+        <v>19.48245472810502</v>
       </c>
     </row>
     <row r="690">
@@ -17871,7 +17871,7 @@
         </is>
       </c>
       <c r="E690" t="n">
-        <v>45.20248147617025</v>
+        <v>39.10909004300054</v>
       </c>
     </row>
     <row r="691">
@@ -17896,7 +17896,7 @@
         </is>
       </c>
       <c r="E691" t="n">
-        <v>58.05707944206249</v>
+        <v>62.62904425985287</v>
       </c>
     </row>
     <row r="692">
@@ -17921,7 +17921,7 @@
         </is>
       </c>
       <c r="E692" t="n">
-        <v>27.02028939368888</v>
+        <v>23.92484617877623</v>
       </c>
     </row>
     <row r="693">
@@ -17946,7 +17946,7 @@
         </is>
       </c>
       <c r="E693" t="n">
-        <v>36.48394563323509</v>
+        <v>36.32699948664141</v>
       </c>
     </row>
     <row r="694">
@@ -17971,7 +17971,7 @@
         </is>
       </c>
       <c r="E694" t="n">
-        <v>37.25479879761185</v>
+        <v>37.31583065581677</v>
       </c>
     </row>
     <row r="695">
@@ -17996,7 +17996,7 @@
         </is>
       </c>
       <c r="E695" t="n">
-        <v>14.61329269874696</v>
+        <v>5.616284241459088</v>
       </c>
     </row>
     <row r="696">
@@ -18021,7 +18021,7 @@
         </is>
       </c>
       <c r="E696" t="n">
-        <v>35.29264319358753</v>
+        <v>34.71423696050074</v>
       </c>
     </row>
     <row r="697">
@@ -18046,7 +18046,7 @@
         </is>
       </c>
       <c r="E697" t="n">
-        <v>36.62654471653141</v>
+        <v>36.62191176185886</v>
       </c>
     </row>
     <row r="698">
@@ -18071,7 +18071,7 @@
         </is>
       </c>
       <c r="E698" t="n">
-        <v>15.69448634101995</v>
+        <v>7.49374653382765</v>
       </c>
     </row>
     <row r="699">
@@ -18096,7 +18096,7 @@
         </is>
       </c>
       <c r="E699" t="n">
-        <v>46.38399989401948</v>
+        <v>50.16751057110383</v>
       </c>
     </row>
     <row r="700">
@@ -18121,7 +18121,7 @@
         </is>
       </c>
       <c r="E700" t="n">
-        <v>52.39800739720232</v>
+        <v>58.75712618383785</v>
       </c>
     </row>
     <row r="701">
@@ -18146,7 +18146,7 @@
         </is>
       </c>
       <c r="E701" t="n">
-        <v>46.55441138297317</v>
+        <v>49.91512886105667</v>
       </c>
     </row>
     <row r="702">
@@ -18171,7 +18171,7 @@
         </is>
       </c>
       <c r="E702" t="n">
-        <v>48.0110384457832</v>
+        <v>52.71600530526169</v>
       </c>
     </row>
     <row r="703">
@@ -18196,7 +18196,7 @@
         </is>
       </c>
       <c r="E703" t="n">
-        <v>49.62470910499651</v>
+        <v>53.24477488651846</v>
       </c>
     </row>
     <row r="704">
@@ -18221,7 +18221,7 @@
         </is>
       </c>
       <c r="E704" t="n">
-        <v>27.239861180346</v>
+        <v>21.98815772588441</v>
       </c>
     </row>
     <row r="705">
@@ -18246,7 +18246,7 @@
         </is>
       </c>
       <c r="E705" t="n">
-        <v>52.57797057544023</v>
+        <v>58.66825646787117</v>
       </c>
     </row>
     <row r="706">
@@ -18271,7 +18271,7 @@
         </is>
       </c>
       <c r="E706" t="n">
-        <v>54.91632879504125</v>
+        <v>61.65706156341308</v>
       </c>
     </row>
     <row r="707">
@@ -18296,7 +18296,7 @@
         </is>
       </c>
       <c r="E707" t="n">
-        <v>27.79694869148489</v>
+        <v>24.58197178008009</v>
       </c>
     </row>
     <row r="708">
@@ -18321,7 +18321,7 @@
         </is>
       </c>
       <c r="E708" t="n">
-        <v>38.38044044719292</v>
+        <v>39.00707144503006</v>
       </c>
     </row>
     <row r="709">
@@ -18346,7 +18346,7 @@
         </is>
       </c>
       <c r="E709" t="n">
-        <v>41.2907241903135</v>
+        <v>43.17282416402605</v>
       </c>
     </row>
     <row r="710">
@@ -18371,7 +18371,7 @@
         </is>
       </c>
       <c r="E710" t="n">
-        <v>14.7738492260804</v>
+        <v>5.514367333670386</v>
       </c>
     </row>
     <row r="711">
@@ -18396,7 +18396,7 @@
         </is>
       </c>
       <c r="E711" t="n">
-        <v>40.41801037109691</v>
+        <v>42.07132773364012</v>
       </c>
     </row>
     <row r="712">
@@ -18421,7 +18421,7 @@
         </is>
       </c>
       <c r="E712" t="n">
-        <v>42.99658606297701</v>
+        <v>44.81632912875595</v>
       </c>
     </row>
     <row r="713">
@@ -18446,7 +18446,7 @@
         </is>
       </c>
       <c r="E713" t="n">
-        <v>15.89098527870919</v>
+        <v>7.21303432590884</v>
       </c>
     </row>
     <row r="714">
@@ -18471,7 +18471,7 @@
         </is>
       </c>
       <c r="E714" t="n">
-        <v>55.20487668549886</v>
+        <v>61.8770654999698</v>
       </c>
     </row>
     <row r="715">
@@ -18496,7 +18496,7 @@
         </is>
       </c>
       <c r="E715" t="n">
-        <v>57.86610817007885</v>
+        <v>64.62648749661933</v>
       </c>
     </row>
     <row r="716">
@@ -18521,7 +18521,7 @@
         </is>
       </c>
       <c r="E716" t="n">
-        <v>62.18515295890381</v>
+        <v>71.76824585242801</v>
       </c>
     </row>
     <row r="717">
@@ -18546,7 +18546,7 @@
         </is>
       </c>
       <c r="E717" t="n">
-        <v>65.78809501997836</v>
+        <v>75.33092839952603</v>
       </c>
     </row>
     <row r="718">
@@ -18571,7 +18571,7 @@
         </is>
       </c>
       <c r="E718" t="n">
-        <v>67.70209233742879</v>
+        <v>79.05137480474517</v>
       </c>
     </row>
     <row r="719">
@@ -18596,7 +18596,7 @@
         </is>
       </c>
       <c r="E719" t="n">
-        <v>27.2362181105327</v>
+        <v>23.569528246505</v>
       </c>
     </row>
     <row r="720">
@@ -18621,7 +18621,7 @@
         </is>
       </c>
       <c r="E720" t="n">
-        <v>60.68909337800175</v>
+        <v>69.38833473558313</v>
       </c>
     </row>
     <row r="721">
@@ -18646,7 +18646,7 @@
         </is>
       </c>
       <c r="E721" t="n">
-        <v>63.42025361614746</v>
+        <v>73.6471598578527</v>
       </c>
     </row>
     <row r="722">
@@ -18671,7 +18671,7 @@
         </is>
       </c>
       <c r="E722" t="n">
-        <v>26.77358359233259</v>
+        <v>22.36689454848641</v>
       </c>
     </row>
     <row r="723">
@@ -18696,7 +18696,7 @@
         </is>
       </c>
       <c r="E723" t="n">
-        <v>30.6080858010881</v>
+        <v>28.64982660950626</v>
       </c>
     </row>
     <row r="724">
@@ -18721,7 +18721,7 @@
         </is>
       </c>
       <c r="E724" t="n">
-        <v>35.21396513797244</v>
+        <v>34.42283378665802</v>
       </c>
     </row>
     <row r="725">
@@ -18746,7 +18746,7 @@
         </is>
       </c>
       <c r="E725" t="n">
-        <v>19.27295746057344</v>
+        <v>12.88438191570345</v>
       </c>
     </row>
     <row r="726">
@@ -18771,7 +18771,7 @@
         </is>
       </c>
       <c r="E726" t="n">
-        <v>54.17324821584125</v>
+        <v>59.9158210311531</v>
       </c>
     </row>
     <row r="727">
@@ -18796,7 +18796,7 @@
         </is>
       </c>
       <c r="E727" t="n">
-        <v>53.323306054582</v>
+        <v>59.32908228327584</v>
       </c>
     </row>
     <row r="728">
@@ -18821,7 +18821,7 @@
         </is>
       </c>
       <c r="E728" t="n">
-        <v>18.27809267111265</v>
+        <v>11.28209415231222</v>
       </c>
     </row>
     <row r="729">
@@ -18846,7 +18846,7 @@
         </is>
       </c>
       <c r="E729" t="n">
-        <v>55.03871753136926</v>
+        <v>61.53623597026818</v>
       </c>
     </row>
     <row r="730">
@@ -18871,7 +18871,7 @@
         </is>
       </c>
       <c r="E730" t="n">
-        <v>53.59039133087646</v>
+        <v>59.24008094128723</v>
       </c>
     </row>
     <row r="731">
@@ -18896,7 +18896,7 @@
         </is>
       </c>
       <c r="E731" t="n">
-        <v>56.03810590871144</v>
+        <v>61.38363192693405</v>
       </c>
     </row>
     <row r="732">
@@ -18921,7 +18921,7 @@
         </is>
       </c>
       <c r="E732" t="n">
-        <v>56.75396854083338</v>
+        <v>65.27724265934651</v>
       </c>
     </row>
     <row r="733">
@@ -18946,7 +18946,7 @@
         </is>
       </c>
       <c r="E733" t="n">
-        <v>58.04983840795664</v>
+        <v>66.45006422551583</v>
       </c>
     </row>
     <row r="734">
@@ -18971,7 +18971,7 @@
         </is>
       </c>
       <c r="E734" t="n">
-        <v>39.01099383190494</v>
+        <v>20.58046007649527</v>
       </c>
     </row>
     <row r="735">
@@ -18996,7 +18996,7 @@
         </is>
       </c>
       <c r="E735" t="n">
-        <v>46.55688332788834</v>
+        <v>39.82272117954793</v>
       </c>
     </row>
     <row r="736">
@@ -19021,7 +19021,7 @@
         </is>
       </c>
       <c r="E736" t="n">
-        <v>57.35193375343587</v>
+        <v>58.08771248300424</v>
       </c>
     </row>
     <row r="737">
@@ -19046,7 +19046,7 @@
         </is>
       </c>
       <c r="E737" t="n">
-        <v>29.9796384226333</v>
+        <v>27.94453434667128</v>
       </c>
     </row>
     <row r="738">
@@ -19071,7 +19071,7 @@
         </is>
       </c>
       <c r="E738" t="n">
-        <v>36.58894794529888</v>
+        <v>36.31720888510906</v>
       </c>
     </row>
     <row r="739">
@@ -19096,7 +19096,7 @@
         </is>
       </c>
       <c r="E739" t="n">
-        <v>37.88905791404896</v>
+        <v>37.56817203773323</v>
       </c>
     </row>
     <row r="740">
@@ -19121,7 +19121,7 @@
         </is>
       </c>
       <c r="E740" t="n">
-        <v>38.71126923177349</v>
+        <v>39.17660000561671</v>
       </c>
     </row>
     <row r="741">
@@ -19146,7 +19146,7 @@
         </is>
       </c>
       <c r="E741" t="n">
-        <v>49.47096790039929</v>
+        <v>54.05222711141832</v>
       </c>
     </row>
     <row r="742">
@@ -19171,7 +19171,7 @@
         </is>
       </c>
       <c r="E742" t="n">
-        <v>48.09043032033296</v>
+        <v>52.751954182929</v>
       </c>
     </row>
     <row r="743">
@@ -19196,7 +19196,7 @@
         </is>
       </c>
       <c r="E743" t="n">
-        <v>16.62130666714451</v>
+        <v>8.785871833592452</v>
       </c>
     </row>
     <row r="744">
@@ -19221,7 +19221,7 @@
         </is>
       </c>
       <c r="E744" t="n">
-        <v>48.98800911462494</v>
+        <v>53.07369936029929</v>
       </c>
     </row>
     <row r="745">
@@ -19246,7 +19246,7 @@
         </is>
       </c>
       <c r="E745" t="n">
-        <v>51.96435933688388</v>
+        <v>56.91252369832131</v>
       </c>
     </row>
     <row r="746">
@@ -19271,7 +19271,7 @@
         </is>
       </c>
       <c r="E746" t="n">
-        <v>44.36759272291214</v>
+        <v>46.67272815615841</v>
       </c>
     </row>
     <row r="747">
@@ -19296,7 +19296,7 @@
         </is>
       </c>
       <c r="E747" t="n">
-        <v>47.92323478375205</v>
+        <v>53.14814577645056</v>
       </c>
     </row>
     <row r="748">
@@ -19321,7 +19321,7 @@
         </is>
       </c>
       <c r="E748" t="n">
-        <v>48.48105500620897</v>
+        <v>51.86697222722535</v>
       </c>
     </row>
     <row r="749">
@@ -19346,7 +19346,7 @@
         </is>
       </c>
       <c r="E749" t="n">
-        <v>32.04183313626894</v>
+        <v>30.3853531566962</v>
       </c>
     </row>
     <row r="750">
@@ -19371,7 +19371,7 @@
         </is>
       </c>
       <c r="E750" t="n">
-        <v>50.78923975486695</v>
+        <v>56.71419078870682</v>
       </c>
     </row>
     <row r="751">
@@ -19396,7 +19396,7 @@
         </is>
       </c>
       <c r="E751" t="n">
-        <v>53.62333659666253</v>
+        <v>60.55602421141975</v>
       </c>
     </row>
     <row r="752">
@@ -19421,7 +19421,7 @@
         </is>
       </c>
       <c r="E752" t="n">
-        <v>31.94341410487891</v>
+        <v>30.22708066969025</v>
       </c>
     </row>
     <row r="753">
@@ -19446,7 +19446,7 @@
         </is>
       </c>
       <c r="E753" t="n">
-        <v>38.43705714505798</v>
+        <v>38.92327254875327</v>
       </c>
     </row>
     <row r="754">
@@ -19471,7 +19471,7 @@
         </is>
       </c>
       <c r="E754" t="n">
-        <v>40.8955288767865</v>
+        <v>42.16195195105854</v>
       </c>
     </row>
     <row r="755">
@@ -19496,7 +19496,7 @@
         </is>
       </c>
       <c r="E755" t="n">
-        <v>39.84512769442632</v>
+        <v>40.82049615841131</v>
       </c>
     </row>
     <row r="756">
@@ -19521,7 +19521,7 @@
         </is>
       </c>
       <c r="E756" t="n">
-        <v>54.31427512520013</v>
+        <v>60.56967720558868</v>
       </c>
     </row>
     <row r="757">
@@ -19546,7 +19546,7 @@
         </is>
       </c>
       <c r="E757" t="n">
-        <v>52.10484918539157</v>
+        <v>57.23191146723758</v>
       </c>
     </row>
     <row r="758">
@@ -19571,7 +19571,7 @@
         </is>
       </c>
       <c r="E758" t="n">
-        <v>16.70143923299124</v>
+        <v>8.700238475843815</v>
       </c>
     </row>
     <row r="759">
@@ -19596,7 +19596,7 @@
         </is>
       </c>
       <c r="E759" t="n">
-        <v>57.20698884311908</v>
+        <v>65.3302130400248</v>
       </c>
     </row>
     <row r="760">
@@ -19621,7 +19621,7 @@
         </is>
       </c>
       <c r="E760" t="n">
-        <v>57.24073133726534</v>
+        <v>63.49340562736803</v>
       </c>
     </row>
     <row r="761">
@@ -19646,7 +19646,7 @@
         </is>
       </c>
       <c r="E761" t="n">
-        <v>67.54067949111617</v>
+        <v>76.94769274813149</v>
       </c>
     </row>
     <row r="762">
@@ -19671,7 +19671,7 @@
         </is>
       </c>
       <c r="E762" t="n">
-        <v>66.42669070358041</v>
+        <v>77.02260693661248</v>
       </c>
     </row>
     <row r="763">
@@ -19696,7 +19696,7 @@
         </is>
       </c>
       <c r="E763" t="n">
-        <v>69.15802489393576</v>
+        <v>80.94338643205893</v>
       </c>
     </row>
     <row r="764">
@@ -19721,7 +19721,7 @@
         </is>
       </c>
       <c r="E764" t="n">
-        <v>36.24891700779749</v>
+        <v>36.18020776438439</v>
       </c>
     </row>
     <row r="765">
@@ -19746,7 +19746,7 @@
         </is>
       </c>
       <c r="E765" t="n">
-        <v>63.17347253269949</v>
+        <v>72.89561767627282</v>
       </c>
     </row>
     <row r="766">
@@ -19771,7 +19771,7 @@
         </is>
       </c>
       <c r="E766" t="n">
-        <v>65.73717796602821</v>
+        <v>75.97787623149162</v>
       </c>
     </row>
     <row r="767">
@@ -19796,7 +19796,7 @@
         </is>
       </c>
       <c r="E767" t="n">
-        <v>20.50994360623301</v>
+        <v>14.44435203338208</v>
       </c>
     </row>
     <row r="768">
@@ -19821,7 +19821,7 @@
         </is>
       </c>
       <c r="E768" t="n">
-        <v>31.66648894416097</v>
+        <v>30.18739681070694</v>
       </c>
     </row>
     <row r="769">
@@ -19846,7 +19846,7 @@
         </is>
       </c>
       <c r="E769" t="n">
-        <v>35.56409788467863</v>
+        <v>35.29393662674728</v>
       </c>
     </row>
     <row r="770">
@@ -19871,7 +19871,7 @@
         </is>
       </c>
       <c r="E770" t="n">
-        <v>14.34683622532076</v>
+        <v>5.13898163417219</v>
       </c>
     </row>
     <row r="771">
@@ -19896,7 +19896,7 @@
         </is>
       </c>
       <c r="E771" t="n">
-        <v>28.01901386031779</v>
+        <v>28.57478612950149</v>
       </c>
     </row>
     <row r="772">
@@ -19921,7 +19921,7 @@
         </is>
       </c>
       <c r="E772" t="n">
-        <v>40.61180262941481</v>
+        <v>42.08172028333773</v>
       </c>
     </row>
     <row r="773">
@@ -19946,7 +19946,7 @@
         </is>
       </c>
       <c r="E773" t="n">
-        <v>14.39896187720566</v>
+        <v>5.166554481875789</v>
       </c>
     </row>
     <row r="774">
@@ -19971,7 +19971,7 @@
         </is>
       </c>
       <c r="E774" t="n">
-        <v>48.81024144712398</v>
+        <v>54.13590713324938</v>
       </c>
     </row>
     <row r="775">
@@ -19996,7 +19996,7 @@
         </is>
       </c>
       <c r="E775" t="n">
-        <v>53.89542905707519</v>
+        <v>59.92953004302873</v>
       </c>
     </row>
     <row r="776">
@@ -20021,7 +20021,7 @@
         </is>
       </c>
       <c r="E776" t="n">
-        <v>52.85888452320212</v>
+        <v>59.56480377964134</v>
       </c>
     </row>
     <row r="777">
@@ -20046,7 +20046,7 @@
         </is>
       </c>
       <c r="E777" t="n">
-        <v>54.71350942570271</v>
+        <v>61.84867944265238</v>
       </c>
     </row>
     <row r="778">
@@ -20071,7 +20071,7 @@
         </is>
       </c>
       <c r="E778" t="n">
-        <v>59.08669777332788</v>
+        <v>66.90012946856183</v>
       </c>
     </row>
     <row r="779">
@@ -20096,7 +20096,7 @@
         </is>
       </c>
       <c r="E779" t="n">
-        <v>17.81123482281037</v>
+        <v>10.86021734886983</v>
       </c>
     </row>
     <row r="780">
@@ -20121,7 +20121,7 @@
         </is>
       </c>
       <c r="E780" t="n">
-        <v>50.90175744535706</v>
+        <v>56.90505806862483</v>
       </c>
     </row>
     <row r="781">
@@ -20146,7 +20146,7 @@
         </is>
       </c>
       <c r="E781" t="n">
-        <v>53.53862219260022</v>
+        <v>61.59438329357606</v>
       </c>
     </row>
     <row r="782">
@@ -20171,7 +20171,7 @@
         </is>
       </c>
       <c r="E782" t="n">
-        <v>19.39134693617687</v>
+        <v>13.06576707344175</v>
       </c>
     </row>
     <row r="783">
@@ -20196,7 +20196,7 @@
         </is>
       </c>
       <c r="E783" t="n">
-        <v>34.08872098808045</v>
+        <v>33.28604876909355</v>
       </c>
     </row>
     <row r="784">
@@ -20221,7 +20221,7 @@
         </is>
       </c>
       <c r="E784" t="n">
-        <v>35.56163690541018</v>
+        <v>34.79195923225362</v>
       </c>
     </row>
     <row r="785">
@@ -20246,7 +20246,7 @@
         </is>
       </c>
       <c r="E785" t="n">
-        <v>14.34679997628672</v>
+        <v>3.97989632524504</v>
       </c>
     </row>
     <row r="786">
@@ -20271,7 +20271,7 @@
         </is>
       </c>
       <c r="E786" t="n">
-        <v>32.68695048079032</v>
+        <v>30.1652355014051</v>
       </c>
     </row>
     <row r="787">
@@ -20296,7 +20296,7 @@
         </is>
       </c>
       <c r="E787" t="n">
-        <v>34.35759837305557</v>
+        <v>32.70748695796558</v>
       </c>
     </row>
     <row r="788">
@@ -20321,7 +20321,7 @@
         </is>
       </c>
       <c r="E788" t="n">
-        <v>14.58154133472318</v>
+        <v>4.371444473619949</v>
       </c>
     </row>
     <row r="789">
@@ -20346,7 +20346,7 @@
         </is>
       </c>
       <c r="E789" t="n">
-        <v>43.49160268645578</v>
+        <v>46.12460895073138</v>
       </c>
     </row>
     <row r="790">
@@ -20371,7 +20371,7 @@
         </is>
       </c>
       <c r="E790" t="n">
-        <v>49.27361704595143</v>
+        <v>53.33396298081881</v>
       </c>
     </row>
     <row r="791">
@@ -20396,7 +20396,7 @@
         </is>
       </c>
       <c r="E791" t="n">
-        <v>42.30019215086932</v>
+        <v>43.41219603465317</v>
       </c>
     </row>
     <row r="792">
@@ -20421,7 +20421,7 @@
         </is>
       </c>
       <c r="E792" t="n">
-        <v>48.05999406382643</v>
+        <v>51.73854370078152</v>
       </c>
     </row>
     <row r="793">
@@ -20446,7 +20446,7 @@
         </is>
       </c>
       <c r="E793" t="n">
-        <v>46.84977523918078</v>
+        <v>50.01812519768981</v>
       </c>
     </row>
     <row r="794">
@@ -20471,7 +20471,7 @@
         </is>
       </c>
       <c r="E794" t="n">
-        <v>17.1614813291802</v>
+        <v>9.116105152781067</v>
       </c>
     </row>
     <row r="795">
@@ -20496,7 +20496,7 @@
         </is>
       </c>
       <c r="E795" t="n">
-        <v>34.76452626011915</v>
+        <v>44.67061729398273</v>
       </c>
     </row>
     <row r="796">
@@ -20521,7 +20521,7 @@
         </is>
       </c>
       <c r="E796" t="n">
-        <v>52.33565892117681</v>
+        <v>57.76796345130931</v>
       </c>
     </row>
     <row r="797">
@@ -20546,7 +20546,7 @@
         </is>
       </c>
       <c r="E797" t="n">
-        <v>19.30662468084533</v>
+        <v>12.40761165659402</v>
       </c>
     </row>
     <row r="798">
@@ -20571,7 +20571,7 @@
         </is>
       </c>
       <c r="E798" t="n">
-        <v>35.76873099529563</v>
+        <v>34.81801531013649</v>
       </c>
     </row>
     <row r="799">
@@ -20596,7 +20596,7 @@
         </is>
       </c>
       <c r="E799" t="n">
-        <v>39.16655710598062</v>
+        <v>40.19161977089465</v>
       </c>
     </row>
     <row r="800">
@@ -20621,7 +20621,7 @@
         </is>
       </c>
       <c r="E800" t="n">
-        <v>14.3470351322432</v>
+        <v>4.606821206487421</v>
       </c>
     </row>
     <row r="801">
@@ -20646,7 +20646,7 @@
         </is>
       </c>
       <c r="E801" t="n">
-        <v>36.7399100697731</v>
+        <v>36.68623730313565</v>
       </c>
     </row>
     <row r="802">
@@ -20671,7 +20671,7 @@
         </is>
       </c>
       <c r="E802" t="n">
-        <v>41.67037291996395</v>
+        <v>43.27947649096837</v>
       </c>
     </row>
     <row r="803">
@@ -20696,7 +20696,7 @@
         </is>
       </c>
       <c r="E803" t="n">
-        <v>14.54360161217727</v>
+        <v>5.201717586902735</v>
       </c>
     </row>
     <row r="804">
@@ -20721,7 +20721,7 @@
         </is>
       </c>
       <c r="E804" t="n">
-        <v>48.80155340249357</v>
+        <v>53.19806544225641</v>
       </c>
     </row>
     <row r="805">
@@ -20746,7 +20746,7 @@
         </is>
       </c>
       <c r="E805" t="n">
-        <v>55.42347404021622</v>
+        <v>61.687865404251</v>
       </c>
     </row>
     <row r="806">
@@ -20771,7 +20771,7 @@
         </is>
       </c>
       <c r="E806" t="n">
-        <v>55.77607805468921</v>
+        <v>62.33937910362257</v>
       </c>
     </row>
     <row r="807">
@@ -20796,7 +20796,7 @@
         </is>
       </c>
       <c r="E807" t="n">
-        <v>60.67746543616983</v>
+        <v>69.22340460793396</v>
       </c>
     </row>
     <row r="808">
@@ -20821,7 +20821,7 @@
         </is>
       </c>
       <c r="E808" t="n">
-        <v>67.14764464790927</v>
+        <v>77.6715082913621</v>
       </c>
     </row>
     <row r="809">
@@ -20846,7 +20846,7 @@
         </is>
       </c>
       <c r="E809" t="n">
-        <v>14.7878961855024</v>
+        <v>6.128650468275463</v>
       </c>
     </row>
     <row r="810">
@@ -20871,7 +20871,7 @@
         </is>
       </c>
       <c r="E810" t="n">
-        <v>57.01134893479797</v>
+        <v>64.84350276139617</v>
       </c>
     </row>
     <row r="811">
@@ -20896,7 +20896,7 @@
         </is>
       </c>
       <c r="E811" t="n">
-        <v>63.85590313135775</v>
+        <v>73.97066243873701</v>
       </c>
     </row>
     <row r="812">
@@ -20921,7 +20921,7 @@
         </is>
       </c>
       <c r="E812" t="n">
-        <v>21.87227181361221</v>
+        <v>15.83297041603049</v>
       </c>
     </row>
     <row r="813">
@@ -20946,7 +20946,7 @@
         </is>
       </c>
       <c r="E813" t="n">
-        <v>23.6111939939218</v>
+        <v>18.06708500445855</v>
       </c>
     </row>
     <row r="814">
@@ -20971,7 +20971,7 @@
         </is>
       </c>
       <c r="E814" t="n">
-        <v>22.99294165886803</v>
+        <v>16.91254143865548</v>
       </c>
     </row>
     <row r="815">
@@ -20996,7 +20996,7 @@
         </is>
       </c>
       <c r="E815" t="n">
-        <v>15.43681561531021</v>
+        <v>6.4187194126992</v>
       </c>
     </row>
     <row r="816">
@@ -21021,7 +21021,7 @@
         </is>
       </c>
       <c r="E816" t="n">
-        <v>24.05045855564242</v>
+        <v>18.71640618658184</v>
       </c>
     </row>
     <row r="817">
@@ -21046,7 +21046,7 @@
         </is>
       </c>
       <c r="E817" t="n">
-        <v>24.39765530434832</v>
+        <v>20.01566941306331</v>
       </c>
     </row>
     <row r="818">
@@ -21071,7 +21071,7 @@
         </is>
       </c>
       <c r="E818" t="n">
-        <v>17.92802765954252</v>
+        <v>10.53999051581899</v>
       </c>
     </row>
     <row r="819">
@@ -21096,7 +21096,7 @@
         </is>
       </c>
       <c r="E819" t="n">
-        <v>28.71371183851006</v>
+        <v>25.36174869681422</v>
       </c>
     </row>
     <row r="820">
@@ -21121,7 +21121,7 @@
         </is>
       </c>
       <c r="E820" t="n">
-        <v>31.08792415463487</v>
+        <v>28.73228412977269</v>
       </c>
     </row>
     <row r="821">
@@ -21146,7 +21146,7 @@
         </is>
       </c>
       <c r="E821" t="n">
-        <v>29.50654870087705</v>
+        <v>25.8698295611787</v>
       </c>
     </row>
     <row r="822">
@@ -21171,7 +21171,7 @@
         </is>
       </c>
       <c r="E822" t="n">
-        <v>32.21582436751177</v>
+        <v>29.67665331818197</v>
       </c>
     </row>
     <row r="823">
@@ -21196,7 +21196,7 @@
         </is>
       </c>
       <c r="E823" t="n">
-        <v>34.36363472794586</v>
+        <v>33.37978524372087</v>
       </c>
     </row>
     <row r="824">
@@ -21221,7 +21221,7 @@
         </is>
       </c>
       <c r="E824" t="n">
-        <v>24.47054397174177</v>
+        <v>19.68593474260112</v>
       </c>
     </row>
     <row r="825">
@@ -21246,7 +21246,7 @@
         </is>
       </c>
       <c r="E825" t="n">
-        <v>27.1677817115522</v>
+        <v>23.1818614784496</v>
       </c>
     </row>
     <row r="826">
@@ -21271,7 +21271,7 @@
         </is>
       </c>
       <c r="E826" t="n">
-        <v>28.04968298092044</v>
+        <v>25.12734430834535</v>
       </c>
     </row>
     <row r="827">
@@ -21296,7 +21296,7 @@
         </is>
       </c>
       <c r="E827" t="n">
-        <v>18.40935970406962</v>
+        <v>11.60525673390901</v>
       </c>
     </row>
     <row r="828">
@@ -21321,7 +21321,7 @@
         </is>
       </c>
       <c r="E828" t="n">
-        <v>30.207994673559</v>
+        <v>28.21938905830761</v>
       </c>
     </row>
     <row r="829">
@@ -21346,7 +21346,7 @@
         </is>
       </c>
       <c r="E829" t="n">
-        <v>35.28926689062722</v>
+        <v>35.10444163910077</v>
       </c>
     </row>
     <row r="830">
@@ -21371,7 +21371,7 @@
         </is>
       </c>
       <c r="E830" t="n">
-        <v>14.46997158409439</v>
+        <v>6.350583969767598</v>
       </c>
     </row>
     <row r="831">
@@ -21396,7 +21396,7 @@
         </is>
       </c>
       <c r="E831" t="n">
-        <v>30.39882601209501</v>
+        <v>29.06473458355732</v>
       </c>
     </row>
     <row r="832">
@@ -21421,7 +21421,7 @@
         </is>
       </c>
       <c r="E832" t="n">
-        <v>37.52229149639411</v>
+        <v>38.10877795371863</v>
       </c>
     </row>
     <row r="833">
@@ -21446,7 +21446,7 @@
         </is>
       </c>
       <c r="E833" t="n">
-        <v>14.95084339271581</v>
+        <v>6.915242677990896</v>
       </c>
     </row>
     <row r="834">
@@ -21471,7 +21471,7 @@
         </is>
       </c>
       <c r="E834" t="n">
-        <v>40.33408468346317</v>
+        <v>41.76897101093797</v>
       </c>
     </row>
     <row r="835">
@@ -21496,7 +21496,7 @@
         </is>
       </c>
       <c r="E835" t="n">
-        <v>50.62914733836146</v>
+        <v>56.71841590705306</v>
       </c>
     </row>
     <row r="836">
@@ -21521,7 +21521,7 @@
         </is>
       </c>
       <c r="E836" t="n">
-        <v>39.32381241415437</v>
+        <v>41.03167834577596</v>
       </c>
     </row>
     <row r="837">
@@ -21546,7 +21546,7 @@
         </is>
       </c>
       <c r="E837" t="n">
-        <v>43.9840332093986</v>
+        <v>46.62984533125626</v>
       </c>
     </row>
     <row r="838">
@@ -21571,7 +21571,7 @@
         </is>
       </c>
       <c r="E838" t="n">
-        <v>48.90419549412326</v>
+        <v>53.00908246358793</v>
       </c>
     </row>
     <row r="839">
@@ -21596,7 +21596,7 @@
         </is>
       </c>
       <c r="E839" t="n">
-        <v>17.62409632840583</v>
+        <v>11.00823372993918</v>
       </c>
     </row>
     <row r="840">
@@ -21621,7 +21621,7 @@
         </is>
       </c>
       <c r="E840" t="n">
-        <v>42.938336755157</v>
+        <v>46.01441447727277</v>
       </c>
     </row>
     <row r="841">
@@ -21646,7 +21646,7 @@
         </is>
       </c>
       <c r="E841" t="n">
-        <v>50.32119844774078</v>
+        <v>55.37796901977179</v>
       </c>
     </row>
     <row r="842">
@@ -21671,7 +21671,7 @@
         </is>
       </c>
       <c r="E842" t="n">
-        <v>22.73229877595483</v>
+        <v>17.75128629223335</v>
       </c>
     </row>
     <row r="843">
@@ -21696,7 +21696,7 @@
         </is>
       </c>
       <c r="E843" t="n">
-        <v>35.92289395049982</v>
+        <v>35.8444339857024</v>
       </c>
     </row>
     <row r="844">
@@ -21721,7 +21721,7 @@
         </is>
       </c>
       <c r="E844" t="n">
-        <v>42.14113483593366</v>
+        <v>44.01400521353295</v>
       </c>
     </row>
     <row r="845">
@@ -21746,7 +21746,7 @@
         </is>
       </c>
       <c r="E845" t="n">
-        <v>15.46988727455387</v>
+        <v>6.941610709342743</v>
       </c>
     </row>
     <row r="846">
@@ -21771,7 +21771,7 @@
         </is>
       </c>
       <c r="E846" t="n">
-        <v>37.06917137745874</v>
+        <v>36.75038079251136</v>
       </c>
     </row>
     <row r="847">
@@ -21796,7 +21796,7 @@
         </is>
       </c>
       <c r="E847" t="n">
-        <v>43.27037225084668</v>
+        <v>46.18109714642909</v>
       </c>
     </row>
     <row r="848">
@@ -21821,7 +21821,7 @@
         </is>
       </c>
       <c r="E848" t="n">
-        <v>18.4674372040542</v>
+        <v>10.85700867952228</v>
       </c>
     </row>
     <row r="849">
@@ -21846,7 +21846,7 @@
         </is>
       </c>
       <c r="E849" t="n">
-        <v>48.13494965939496</v>
+        <v>52.72788754301037</v>
       </c>
     </row>
     <row r="850">
@@ -21871,7 +21871,7 @@
         </is>
       </c>
       <c r="E850" t="n">
-        <v>58.22152034768766</v>
+        <v>66.86615043956996</v>
       </c>
     </row>
     <row r="851">
@@ -21896,7 +21896,7 @@
         </is>
       </c>
       <c r="E851" t="n">
-        <v>49.26357418778895</v>
+        <v>53.74822251028847</v>
       </c>
     </row>
     <row r="852">
@@ -21921,7 +21921,7 @@
         </is>
       </c>
       <c r="E852" t="n">
-        <v>52.30634500972755</v>
+        <v>57.69661079035468</v>
       </c>
     </row>
     <row r="853">
@@ -21946,7 +21946,7 @@
         </is>
       </c>
       <c r="E853" t="n">
-        <v>65.34305755321961</v>
+        <v>76.61775987660094</v>
       </c>
     </row>
     <row r="854">
@@ -21971,7 +21971,7 @@
         </is>
       </c>
       <c r="E854" t="n">
-        <v>25.93582323339339</v>
+        <v>22.09922183259411</v>
       </c>
     </row>
     <row r="855">
@@ -21996,7 +21996,7 @@
         </is>
       </c>
       <c r="E855" t="n">
-        <v>48.48352462530568</v>
+        <v>53.10356780667597</v>
       </c>
     </row>
     <row r="856">
@@ -22021,7 +22021,7 @@
         </is>
       </c>
       <c r="E856" t="n">
-        <v>61.70361933218533</v>
+        <v>71.10540992636976</v>
       </c>
     </row>
     <row r="857">
@@ -22046,7 +22046,7 @@
         </is>
       </c>
       <c r="E857" t="n">
-        <v>21.44494869163206</v>
+        <v>15.3233699138217</v>
       </c>
     </row>
     <row r="858">
@@ -22071,7 +22071,7 @@
         </is>
       </c>
       <c r="E858" t="n">
-        <v>23.75256832560743</v>
+        <v>17.82316247224754</v>
       </c>
     </row>
     <row r="859">
@@ -22096,7 +22096,7 @@
         </is>
       </c>
       <c r="E859" t="n">
-        <v>25.14272526037002</v>
+        <v>21.03081102174372</v>
       </c>
     </row>
     <row r="860">
@@ -22121,7 +22121,7 @@
         </is>
       </c>
       <c r="E860" t="n">
-        <v>14.58059432443448</v>
+        <v>3.880479111905856</v>
       </c>
     </row>
     <row r="861">
@@ -22146,7 +22146,7 @@
         </is>
       </c>
       <c r="E861" t="n">
-        <v>24.92165994971955</v>
+        <v>25.53569187451455</v>
       </c>
     </row>
     <row r="862">
@@ -22171,7 +22171,7 @@
         </is>
       </c>
       <c r="E862" t="n">
-        <v>26.65409030857342</v>
+        <v>28.14808263537945</v>
       </c>
     </row>
     <row r="863">
@@ -22196,7 +22196,7 @@
         </is>
       </c>
       <c r="E863" t="n">
-        <v>16.68220619162309</v>
+        <v>8.408033762782068</v>
       </c>
     </row>
     <row r="864">
@@ -22221,7 +22221,7 @@
         </is>
       </c>
       <c r="E864" t="n">
-        <v>31.8412424077219</v>
+        <v>36.9530841817269</v>
       </c>
     </row>
     <row r="865">
@@ -22246,7 +22246,7 @@
         </is>
       </c>
       <c r="E865" t="n">
-        <v>34.07799582524282</v>
+        <v>38.31225440675875</v>
       </c>
     </row>
     <row r="866">
@@ -22271,7 +22271,7 @@
         </is>
       </c>
       <c r="E866" t="n">
-        <v>36.94392332686628</v>
+        <v>32.70644178133681</v>
       </c>
     </row>
     <row r="867">
@@ -22296,7 +22296,7 @@
         </is>
       </c>
       <c r="E867" t="n">
-        <v>42.34516292247842</v>
+        <v>38.94230171651459</v>
       </c>
     </row>
     <row r="868">
@@ -22321,7 +22321,7 @@
         </is>
       </c>
       <c r="E868" t="n">
-        <v>46.17466229990026</v>
+        <v>44.19817643112852</v>
       </c>
     </row>
     <row r="869">
@@ -22346,7 +22346,7 @@
         </is>
       </c>
       <c r="E869" t="n">
-        <v>23.08241400606528</v>
+        <v>18.04583544072055</v>
       </c>
     </row>
     <row r="870">
@@ -22371,7 +22371,7 @@
         </is>
       </c>
       <c r="E870" t="n">
-        <v>33.74010116503773</v>
+        <v>39.47377307353729</v>
       </c>
     </row>
     <row r="871">
@@ -22396,7 +22396,7 @@
         </is>
       </c>
       <c r="E871" t="n">
-        <v>35.5592935935252</v>
+        <v>47.14746789327135</v>
       </c>
     </row>
     <row r="872">
@@ -22421,7 +22421,7 @@
         </is>
       </c>
       <c r="E872" t="n">
-        <v>15.76247406908505</v>
+        <v>7.388783572314434</v>
       </c>
     </row>
     <row r="873">
@@ -22446,7 +22446,7 @@
         </is>
       </c>
       <c r="E873" t="n">
-        <v>23.00163417962699</v>
+        <v>21.71285952922185</v>
       </c>
     </row>
     <row r="874">
@@ -22471,7 +22471,7 @@
         </is>
       </c>
       <c r="E874" t="n">
-        <v>35.01726317706493</v>
+        <v>34.57272272795518</v>
       </c>
     </row>
     <row r="875">
@@ -22496,7 +22496,7 @@
         </is>
       </c>
       <c r="E875" t="n">
-        <v>14.34695726278704</v>
+        <v>4.83201988641737</v>
       </c>
     </row>
     <row r="876">
@@ -22521,7 +22521,7 @@
         </is>
       </c>
       <c r="E876" t="n">
-        <v>20.65373842101415</v>
+        <v>17.54741773281565</v>
       </c>
     </row>
     <row r="877">
@@ -22546,7 +22546,7 @@
         </is>
       </c>
       <c r="E877" t="n">
-        <v>47.02678240969885</v>
+        <v>48.7953477488561</v>
       </c>
     </row>
     <row r="878">
@@ -22571,7 +22571,7 @@
         </is>
       </c>
       <c r="E878" t="n">
-        <v>14.16772438178277</v>
+        <v>5.250010080308222</v>
       </c>
     </row>
     <row r="879">
@@ -22596,7 +22596,7 @@
         </is>
       </c>
       <c r="E879" t="n">
-        <v>30.01063499221756</v>
+        <v>28.98816671956912</v>
       </c>
     </row>
     <row r="880">
@@ -22621,7 +22621,7 @@
         </is>
       </c>
       <c r="E880" t="n">
-        <v>48.95590766688033</v>
+        <v>53.22870422177894</v>
       </c>
     </row>
     <row r="881">
@@ -22646,7 +22646,7 @@
         </is>
       </c>
       <c r="E881" t="n">
-        <v>31.59661061871437</v>
+        <v>28.69576177884045</v>
       </c>
     </row>
     <row r="882">
@@ -22671,7 +22671,7 @@
         </is>
       </c>
       <c r="E882" t="n">
-        <v>39.50338270858195</v>
+        <v>40.73965393220093</v>
       </c>
     </row>
     <row r="883">
@@ -22696,7 +22696,7 @@
         </is>
       </c>
       <c r="E883" t="n">
-        <v>49.81814925604298</v>
+        <v>53.90288651746908</v>
       </c>
     </row>
     <row r="884">
@@ -22721,7 +22721,7 @@
         </is>
       </c>
       <c r="E884" t="n">
-        <v>15.61244439252237</v>
+        <v>7.784626487661946</v>
       </c>
     </row>
     <row r="885">
@@ -22746,7 +22746,7 @@
         </is>
       </c>
       <c r="E885" t="n">
-        <v>41.23549658930737</v>
+        <v>42.28909118855721</v>
       </c>
     </row>
     <row r="886">
@@ -22771,7 +22771,7 @@
         </is>
       </c>
       <c r="E886" t="n">
-        <v>50.33131554175169</v>
+        <v>55.18420383404509</v>
       </c>
     </row>
     <row r="887">
@@ -22796,7 +22796,7 @@
         </is>
       </c>
       <c r="E887" t="n">
-        <v>21.43068271925177</v>
+        <v>15.78543895976679</v>
       </c>
     </row>
     <row r="888">
@@ -22821,7 +22821,7 @@
         </is>
       </c>
       <c r="E888" t="n">
-        <v>31.87785542177146</v>
+        <v>29.54329352244045</v>
       </c>
     </row>
     <row r="889">
@@ -22846,7 +22846,7 @@
         </is>
       </c>
       <c r="E889" t="n">
-        <v>38.14027733490324</v>
+        <v>39.01861040119319</v>
       </c>
     </row>
     <row r="890">
@@ -22871,7 +22871,7 @@
         </is>
       </c>
       <c r="E890" t="n">
-        <v>14.61102543606199</v>
+        <v>6.33742732798077</v>
       </c>
     </row>
     <row r="891">
@@ -22896,7 +22896,7 @@
         </is>
       </c>
       <c r="E891" t="n">
-        <v>22.25457744788885</v>
+        <v>24.42843143951931</v>
       </c>
     </row>
     <row r="892">
@@ -22921,7 +22921,7 @@
         </is>
       </c>
       <c r="E892" t="n">
-        <v>41.66366425381665</v>
+        <v>42.18269455925683</v>
       </c>
     </row>
     <row r="893">
@@ -22946,7 +22946,7 @@
         </is>
       </c>
       <c r="E893" t="n">
-        <v>14.63445342861738</v>
+        <v>5.909671891128287</v>
       </c>
     </row>
     <row r="894">
@@ -22971,7 +22971,7 @@
         </is>
       </c>
       <c r="E894" t="n">
-        <v>36.61421135264531</v>
+        <v>37.15081908594089</v>
       </c>
     </row>
     <row r="895">
@@ -22996,7 +22996,7 @@
         </is>
       </c>
       <c r="E895" t="n">
-        <v>54.91150669761203</v>
+        <v>61.07666102823708</v>
       </c>
     </row>
     <row r="896">
@@ -23021,7 +23021,7 @@
         </is>
       </c>
       <c r="E896" t="n">
-        <v>49.18185990582383</v>
+        <v>58.33477965535333</v>
       </c>
     </row>
     <row r="897">
@@ -23046,7 +23046,7 @@
         </is>
       </c>
       <c r="E897" t="n">
-        <v>51.47983744931023</v>
+        <v>60.9226000718385</v>
       </c>
     </row>
     <row r="898">
@@ -23071,7 +23071,7 @@
         </is>
       </c>
       <c r="E898" t="n">
-        <v>65.09949414205113</v>
+        <v>75.16238867013541</v>
       </c>
     </row>
     <row r="899">
@@ -23096,7 +23096,7 @@
         </is>
       </c>
       <c r="E899" t="n">
-        <v>18.94635355522353</v>
+        <v>11.89226272700711</v>
       </c>
     </row>
     <row r="900">
@@ -23121,7 +23121,7 @@
         </is>
       </c>
       <c r="E900" t="n">
-        <v>40.47812537104978</v>
+        <v>44.40658400591765</v>
       </c>
     </row>
     <row r="901">
@@ -23146,7 +23146,7 @@
         </is>
       </c>
       <c r="E901" t="n">
-        <v>59.91385815263179</v>
+        <v>67.92952713274606</v>
       </c>
     </row>
     <row r="902">
@@ -23171,7 +23171,7 @@
         </is>
       </c>
       <c r="E902" t="n">
-        <v>26.27988508027533</v>
+        <v>23.09482537978366</v>
       </c>
     </row>
     <row r="903">
@@ -23196,7 +23196,7 @@
         </is>
       </c>
       <c r="E903" t="n">
-        <v>30.76464109690925</v>
+        <v>29.81047650870824</v>
       </c>
     </row>
     <row r="904">
@@ -23221,7 +23221,7 @@
         </is>
       </c>
       <c r="E904" t="n">
-        <v>34.20600385642459</v>
+        <v>34.65347408037806</v>
       </c>
     </row>
     <row r="905">
@@ -23246,7 +23246,7 @@
         </is>
       </c>
       <c r="E905" t="n">
-        <v>15.25805547176749</v>
+        <v>7.293036629508258</v>
       </c>
     </row>
     <row r="906">
@@ -23271,7 +23271,7 @@
         </is>
       </c>
       <c r="E906" t="n">
-        <v>43.06553665858672</v>
+        <v>45.93067378273386</v>
       </c>
     </row>
     <row r="907">
@@ -23296,7 +23296,7 @@
         </is>
       </c>
       <c r="E907" t="n">
-        <v>42.16068079557088</v>
+        <v>44.37036616228735</v>
       </c>
     </row>
     <row r="908">
@@ -23321,7 +23321,7 @@
         </is>
       </c>
       <c r="E908" t="n">
-        <v>19.09514105807098</v>
+        <v>11.35844194006228</v>
       </c>
     </row>
     <row r="909">
@@ -23346,7 +23346,7 @@
         </is>
       </c>
       <c r="E909" t="n">
-        <v>54.373515067037</v>
+        <v>61.39944232502246</v>
       </c>
     </row>
     <row r="910">
@@ -23371,7 +23371,7 @@
         </is>
       </c>
       <c r="E910" t="n">
-        <v>53.71241819974491</v>
+        <v>59.86062125442202</v>
       </c>
     </row>
     <row r="911">
@@ -23396,7 +23396,7 @@
         </is>
       </c>
       <c r="E911" t="n">
-        <v>52.0614123351044</v>
+        <v>58.68369367262257</v>
       </c>
     </row>
     <row r="912">
@@ -23421,7 +23421,7 @@
         </is>
       </c>
       <c r="E912" t="n">
-        <v>55.81152599520063</v>
+        <v>61.99868603578101</v>
       </c>
     </row>
     <row r="913">
@@ -23446,7 +23446,7 @@
         </is>
       </c>
       <c r="E913" t="n">
-        <v>58.35188897070679</v>
+        <v>65.2620310827119</v>
       </c>
     </row>
     <row r="914">
@@ -23471,7 +23471,7 @@
         </is>
       </c>
       <c r="E914" t="n">
-        <v>33.76362455782005</v>
+        <v>25.39596467456855</v>
       </c>
     </row>
     <row r="915">
@@ -23496,7 +23496,7 @@
         </is>
       </c>
       <c r="E915" t="n">
-        <v>43.25788248316911</v>
+        <v>37.10112590694956</v>
       </c>
     </row>
     <row r="916">
@@ -23521,7 +23521,7 @@
         </is>
       </c>
       <c r="E916" t="n">
-        <v>58.42023824021936</v>
+        <v>66.97764919974971</v>
       </c>
     </row>
     <row r="917">
@@ -23546,7 +23546,7 @@
         </is>
       </c>
       <c r="E917" t="n">
-        <v>30.25674903403978</v>
+        <v>27.95503148831897</v>
       </c>
     </row>
     <row r="918">
@@ -23571,7 +23571,7 @@
         </is>
       </c>
       <c r="E918" t="n">
-        <v>36.56310829913519</v>
+        <v>36.6042728090887</v>
       </c>
     </row>
     <row r="919">
@@ -23596,7 +23596,7 @@
         </is>
       </c>
       <c r="E919" t="n">
-        <v>37.10624705311994</v>
+        <v>37.47141833462629</v>
       </c>
     </row>
     <row r="920">
@@ -23621,7 +23621,7 @@
         </is>
       </c>
       <c r="E920" t="n">
-        <v>14.95486016688836</v>
+        <v>6.469292274794668</v>
       </c>
     </row>
     <row r="921">
@@ -23646,7 +23646,7 @@
         </is>
       </c>
       <c r="E921" t="n">
-        <v>37.33460829924353</v>
+        <v>37.97822167111909</v>
       </c>
     </row>
     <row r="922">
@@ -23671,7 +23671,7 @@
         </is>
       </c>
       <c r="E922" t="n">
-        <v>36.80379387155904</v>
+        <v>37.24430108896848</v>
       </c>
     </row>
     <row r="923">
@@ -23696,7 +23696,7 @@
         </is>
       </c>
       <c r="E923" t="n">
-        <v>15.70633252808371</v>
+        <v>7.590820747701862</v>
       </c>
     </row>
     <row r="924">
@@ -23721,7 +23721,7 @@
         </is>
       </c>
       <c r="E924" t="n">
-        <v>48.87709172090501</v>
+        <v>54.1668437825574</v>
       </c>
     </row>
     <row r="925">
@@ -23746,7 +23746,7 @@
         </is>
       </c>
       <c r="E925" t="n">
-        <v>50.39868141685759</v>
+        <v>55.58772472007009</v>
       </c>
     </row>
     <row r="926">
@@ -23771,7 +23771,7 @@
         </is>
       </c>
       <c r="E926" t="n">
-        <v>47.50487249405667</v>
+        <v>51.58883386426915</v>
       </c>
     </row>
     <row r="927">
@@ -23796,7 +23796,7 @@
         </is>
       </c>
       <c r="E927" t="n">
-        <v>49.52530134090991</v>
+        <v>53.63175612306677</v>
       </c>
     </row>
     <row r="928">
@@ -23821,7 +23821,7 @@
         </is>
       </c>
       <c r="E928" t="n">
-        <v>50.57177347198706</v>
+        <v>55.01330708893158</v>
       </c>
     </row>
     <row r="929">
@@ -23846,7 +23846,7 @@
         </is>
       </c>
       <c r="E929" t="n">
-        <v>30.48373011034526</v>
+        <v>28.50474467503948</v>
       </c>
     </row>
     <row r="930">
@@ -23871,7 +23871,7 @@
         </is>
       </c>
       <c r="E930" t="n">
-        <v>51.36566269172539</v>
+        <v>57.28455652643569</v>
       </c>
     </row>
     <row r="931">
@@ -23896,7 +23896,7 @@
         </is>
       </c>
       <c r="E931" t="n">
-        <v>52.08460776468092</v>
+        <v>57.91872662040934</v>
       </c>
     </row>
     <row r="932">
@@ -23921,7 +23921,7 @@
         </is>
       </c>
       <c r="E932" t="n">
-        <v>29.21619478131738</v>
+        <v>27.3823526621573</v>
       </c>
     </row>
     <row r="933">
@@ -23946,7 +23946,7 @@
         </is>
       </c>
       <c r="E933" t="n">
-        <v>37.64457253856692</v>
+        <v>37.78718781972992</v>
       </c>
     </row>
     <row r="934">
@@ -23971,7 +23971,7 @@
         </is>
       </c>
       <c r="E934" t="n">
-        <v>39.90633838427605</v>
+        <v>41.0281048484544</v>
       </c>
     </row>
     <row r="935">
@@ -23996,7 +23996,7 @@
         </is>
       </c>
       <c r="E935" t="n">
-        <v>15.26608029052672</v>
+        <v>7.042156520612181</v>
       </c>
     </row>
     <row r="936">
@@ -24021,7 +24021,7 @@
         </is>
       </c>
       <c r="E936" t="n">
-        <v>42.38169624688263</v>
+        <v>45.01498409434313</v>
       </c>
     </row>
     <row r="937">
@@ -24046,7 +24046,7 @@
         </is>
       </c>
       <c r="E937" t="n">
-        <v>41.46347446588889</v>
+        <v>43.12151110484169</v>
       </c>
     </row>
     <row r="938">
@@ -24071,7 +24071,7 @@
         </is>
       </c>
       <c r="E938" t="n">
-        <v>15.67791900210353</v>
+        <v>7.530563917354982</v>
       </c>
     </row>
     <row r="939">
@@ -24096,7 +24096,7 @@
         </is>
       </c>
       <c r="E939" t="n">
-        <v>56.93676499749097</v>
+        <v>64.99757224740306</v>
       </c>
     </row>
     <row r="940">
@@ -24121,7 +24121,7 @@
         </is>
       </c>
       <c r="E940" t="n">
-        <v>58.74557687075569</v>
+        <v>66.58948582049221</v>
       </c>
     </row>
     <row r="941">
@@ -24146,7 +24146,7 @@
         </is>
       </c>
       <c r="E941" t="n">
-        <v>63.53049531513427</v>
+        <v>73.55601798875614</v>
       </c>
     </row>
     <row r="942">
@@ -24171,7 +24171,7 @@
         </is>
       </c>
       <c r="E942" t="n">
-        <v>64.03182300390252</v>
+        <v>73.72212427929371</v>
       </c>
     </row>
     <row r="943">
@@ -24196,7 +24196,7 @@
         </is>
       </c>
       <c r="E943" t="n">
-        <v>64.01716999783321</v>
+        <v>75.07774771521278</v>
       </c>
     </row>
     <row r="944">
@@ -24221,7 +24221,7 @@
         </is>
       </c>
       <c r="E944" t="n">
-        <v>32.02949557914111</v>
+        <v>30.97682476321595</v>
       </c>
     </row>
     <row r="945">
@@ -24246,7 +24246,7 @@
         </is>
       </c>
       <c r="E945" t="n">
-        <v>57.66280782092849</v>
+        <v>66.92891056021772</v>
       </c>
     </row>
     <row r="946">
@@ -24271,7 +24271,7 @@
         </is>
       </c>
       <c r="E946" t="n">
-        <v>61.68536765136868</v>
+        <v>71.35029429677334</v>
       </c>
     </row>
     <row r="947">
@@ -24296,7 +24296,7 @@
         </is>
       </c>
       <c r="E947" t="n">
-        <v>20.43998459415287</v>
+        <v>14.72407464468925</v>
       </c>
     </row>
     <row r="948">
@@ -24321,7 +24321,7 @@
         </is>
       </c>
       <c r="E948" t="n">
-        <v>33.3532990869141</v>
+        <v>31.85040943878768</v>
       </c>
     </row>
     <row r="949">
@@ -24346,7 +24346,7 @@
         </is>
       </c>
       <c r="E949" t="n">
-        <v>34.45534004423451</v>
+        <v>34.19464101661777</v>
       </c>
     </row>
     <row r="950">
@@ -24371,7 +24371,7 @@
         </is>
       </c>
       <c r="E950" t="n">
-        <v>14.49181028492163</v>
+        <v>6.106455978475129</v>
       </c>
     </row>
     <row r="951">
@@ -24396,7 +24396,7 @@
         </is>
       </c>
       <c r="E951" t="n">
-        <v>36.84312707085117</v>
+        <v>36.55234430339227</v>
       </c>
     </row>
     <row r="952">
@@ -24421,7 +24421,7 @@
         </is>
       </c>
       <c r="E952" t="n">
-        <v>40.30061224892471</v>
+        <v>41.93593915815784</v>
       </c>
     </row>
     <row r="953">
@@ -24446,7 +24446,7 @@
         </is>
       </c>
       <c r="E953" t="n">
-        <v>14.44018486482553</v>
+        <v>5.606554587360648</v>
       </c>
     </row>
     <row r="954">
@@ -24471,7 +24471,7 @@
         </is>
       </c>
       <c r="E954" t="n">
-        <v>48.69217806029582</v>
+        <v>54.05658359225332</v>
       </c>
     </row>
     <row r="955">
@@ -24496,7 +24496,7 @@
         </is>
       </c>
       <c r="E955" t="n">
-        <v>52.22113303207479</v>
+        <v>57.97611931203184</v>
       </c>
     </row>
     <row r="956">
@@ -24521,7 +24521,7 @@
         </is>
       </c>
       <c r="E956" t="n">
-        <v>49.78455001589509</v>
+        <v>54.91292926998997</v>
       </c>
     </row>
     <row r="957">
@@ -24546,7 +24546,7 @@
         </is>
       </c>
       <c r="E957" t="n">
-        <v>56.45119624204186</v>
+        <v>64.10410681839096</v>
       </c>
     </row>
     <row r="958">
@@ -24571,7 +24571,7 @@
         </is>
       </c>
       <c r="E958" t="n">
-        <v>55.55378363296568</v>
+        <v>62.18778299341285</v>
       </c>
     </row>
     <row r="959">
@@ -24596,7 +24596,7 @@
         </is>
       </c>
       <c r="E959" t="n">
-        <v>17.71303873117439</v>
+        <v>10.37816759221115</v>
       </c>
     </row>
     <row r="960">
@@ -24621,7 +24621,7 @@
         </is>
       </c>
       <c r="E960" t="n">
-        <v>49.29521390750031</v>
+        <v>54.7421561210373</v>
       </c>
     </row>
     <row r="961">
@@ -24646,7 +24646,7 @@
         </is>
       </c>
       <c r="E961" t="n">
-        <v>53.02318315783218</v>
+        <v>59.99006622624211</v>
       </c>
     </row>
     <row r="962">
@@ -24671,7 +24671,7 @@
         </is>
       </c>
       <c r="E962" t="n">
-        <v>19.67979685342577</v>
+        <v>12.63587375140146</v>
       </c>
     </row>
     <row r="963">
@@ -24696,7 +24696,7 @@
         </is>
       </c>
       <c r="E963" t="n">
-        <v>34.47642785683772</v>
+        <v>32.92825422894934</v>
       </c>
     </row>
     <row r="964">
@@ -24721,7 +24721,7 @@
         </is>
       </c>
       <c r="E964" t="n">
-        <v>35.32473952925051</v>
+        <v>34.84058490355496</v>
       </c>
     </row>
     <row r="965">
@@ -24746,7 +24746,7 @@
         </is>
       </c>
       <c r="E965" t="n">
-        <v>14.44058158481565</v>
+        <v>4.305963570533255</v>
       </c>
     </row>
     <row r="966">
@@ -24771,7 +24771,7 @@
         </is>
       </c>
       <c r="E966" t="n">
-        <v>32.02342046701818</v>
+        <v>30.31925899447969</v>
       </c>
     </row>
     <row r="967">
@@ -24796,7 +24796,7 @@
         </is>
       </c>
       <c r="E967" t="n">
-        <v>34.89850860123678</v>
+        <v>33.62250371294175</v>
       </c>
     </row>
     <row r="968">
@@ -24821,7 +24821,7 @@
         </is>
       </c>
       <c r="E968" t="n">
-        <v>14.64666655082053</v>
+        <v>4.534679216506689</v>
       </c>
     </row>
     <row r="969">
@@ -24846,7 +24846,7 @@
         </is>
       </c>
       <c r="E969" t="n">
-        <v>42.76168832289219</v>
+        <v>44.49748209646665</v>
       </c>
     </row>
     <row r="970">
@@ -24871,7 +24871,7 @@
         </is>
       </c>
       <c r="E970" t="n">
-        <v>49.37294040555318</v>
+        <v>53.27342244067253</v>
       </c>
     </row>
     <row r="971">
@@ -24896,7 +24896,7 @@
         </is>
       </c>
       <c r="E971" t="n">
-        <v>44.05786853205667</v>
+        <v>46.23792506027577</v>
       </c>
     </row>
     <row r="972">
@@ -24921,7 +24921,7 @@
         </is>
       </c>
       <c r="E972" t="n">
-        <v>47.47138725005044</v>
+        <v>51.09561991360894</v>
       </c>
     </row>
     <row r="973">
@@ -24946,7 +24946,7 @@
         </is>
       </c>
       <c r="E973" t="n">
-        <v>49.72159976156068</v>
+        <v>53.74742604307019</v>
       </c>
     </row>
     <row r="974">
@@ -24971,7 +24971,7 @@
         </is>
       </c>
       <c r="E974" t="n">
-        <v>17.21644644784984</v>
+        <v>10.05680538358345</v>
       </c>
     </row>
     <row r="975">
@@ -24996,7 +24996,7 @@
         </is>
       </c>
       <c r="E975" t="n">
-        <v>49.50813320319069</v>
+        <v>55.10235060886928</v>
       </c>
     </row>
     <row r="976">
@@ -25021,7 +25021,7 @@
         </is>
       </c>
       <c r="E976" t="n">
-        <v>50.82693389457772</v>
+        <v>56.43960461073644</v>
       </c>
     </row>
     <row r="977">
@@ -25046,7 +25046,7 @@
         </is>
       </c>
       <c r="E977" t="n">
-        <v>19.26668040659723</v>
+        <v>12.17665412247155</v>
       </c>
     </row>
     <row r="978">
@@ -25071,7 +25071,7 @@
         </is>
       </c>
       <c r="E978" t="n">
-        <v>34.37734777864276</v>
+        <v>33.89433223598362</v>
       </c>
     </row>
     <row r="979">
@@ -25096,7 +25096,7 @@
         </is>
       </c>
       <c r="E979" t="n">
-        <v>39.49076627590006</v>
+        <v>40.71767485604673</v>
       </c>
     </row>
     <row r="980">
@@ -25121,7 +25121,7 @@
         </is>
       </c>
       <c r="E980" t="n">
-        <v>14.48831674218659</v>
+        <v>5.284687856249587</v>
       </c>
     </row>
     <row r="981">
@@ -25146,7 +25146,7 @@
         </is>
       </c>
       <c r="E981" t="n">
-        <v>36.36013045338676</v>
+        <v>36.22524002700734</v>
       </c>
     </row>
     <row r="982">
@@ -25171,7 +25171,7 @@
         </is>
       </c>
       <c r="E982" t="n">
-        <v>41.30978817416805</v>
+        <v>42.66769310821657</v>
       </c>
     </row>
     <row r="983">
@@ -25196,7 +25196,7 @@
         </is>
       </c>
       <c r="E983" t="n">
-        <v>14.61837340090792</v>
+        <v>5.232758348349027</v>
       </c>
     </row>
     <row r="984">
@@ -25221,7 +25221,7 @@
         </is>
       </c>
       <c r="E984" t="n">
-        <v>46.61839142397567</v>
+        <v>49.92309406139717</v>
       </c>
     </row>
     <row r="985">
@@ -25246,7 +25246,7 @@
         </is>
       </c>
       <c r="E985" t="n">
-        <v>56.8582181943909</v>
+        <v>63.52970115157588</v>
       </c>
     </row>
     <row r="986">
@@ -25271,7 +25271,7 @@
         </is>
       </c>
       <c r="E986" t="n">
-        <v>52.26065546908715</v>
+        <v>57.18662492604403</v>
       </c>
     </row>
     <row r="987">
@@ -25296,7 +25296,7 @@
         </is>
       </c>
       <c r="E987" t="n">
-        <v>57.29568635532203</v>
+        <v>64.38846747025997</v>
       </c>
     </row>
     <row r="988">
@@ -25321,7 +25321,7 @@
         </is>
       </c>
       <c r="E988" t="n">
-        <v>65.52321569905699</v>
+        <v>75.92713014249942</v>
       </c>
     </row>
     <row r="989">
@@ -25346,7 +25346,7 @@
         </is>
       </c>
       <c r="E989" t="n">
-        <v>17.34825239422679</v>
+        <v>9.475216971476883</v>
       </c>
     </row>
     <row r="990">
@@ -25371,7 +25371,7 @@
         </is>
       </c>
       <c r="E990" t="n">
-        <v>51.82329516990202</v>
+        <v>57.11753624765945</v>
       </c>
     </row>
     <row r="991">
@@ -25396,7 +25396,7 @@
         </is>
       </c>
       <c r="E991" t="n">
-        <v>61.17142582081536</v>
+        <v>69.62237899825431</v>
       </c>
     </row>
   </sheetData>
